--- a/results/results_v4.xlsx
+++ b/results/results_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DB8424-5112-415B-BB4D-1E15FA2A63E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2E860A-2104-4A8A-BD10-7F0E765C2149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="3550" windowWidth="19200" windowHeight="7860" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4_hourly" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="229">
   <si>
     <t>Algorithm</t>
   </si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t>GPU</t>
+  </si>
+  <si>
+    <t>context=2*prediction</t>
   </si>
 </sst>
 </file>
@@ -6526,7 +6529,7 @@
       <c r="O78" s="23"/>
       <c r="P78" s="21"/>
     </row>
-    <row r="79" spans="1:16" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="20" t="s">
         <v>17</v>
       </c>
@@ -6572,7 +6575,7 @@
       </c>
       <c r="P79" s="21"/>
     </row>
-    <row r="80" spans="1:16" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="20" t="s">
         <v>17</v>
       </c>
@@ -6618,7 +6621,7 @@
       </c>
       <c r="P80" s="21"/>
     </row>
-    <row r="81" spans="1:16" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="20" t="s">
         <v>17</v>
       </c>
@@ -6679,7 +6682,7 @@
       <c r="O82" s="23"/>
       <c r="P82" s="21"/>
     </row>
-    <row r="83" spans="1:16" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="20" t="s">
         <v>17</v>
       </c>
@@ -6725,7 +6728,7 @@
       </c>
       <c r="P83" s="21"/>
     </row>
-    <row r="84" spans="1:16" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="20" t="s">
         <v>17</v>
       </c>
@@ -6771,7 +6774,7 @@
       </c>
       <c r="P84" s="21"/>
     </row>
-    <row r="85" spans="1:16" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="20" t="s">
         <v>17</v>
       </c>
@@ -15090,7 +15093,7 @@
       <c r="N87" s="21"/>
       <c r="O87" s="21"/>
     </row>
-    <row r="88" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="29" t="s">
         <v>21</v>
       </c>
@@ -15133,7 +15136,7 @@
       </c>
       <c r="O88" s="30"/>
     </row>
-    <row r="89" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="29" t="s">
         <v>21</v>
       </c>
@@ -15176,7 +15179,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="29" t="s">
         <v>21</v>
       </c>
@@ -15208,11 +15211,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CCAEF6-E0AA-4EA9-B4C8-367C9CAD3E2A}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15227,9 +15230,10 @@
     <col min="11" max="11" width="8.54296875" style="41" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.90625" style="41" customWidth="1"/>
     <col min="13" max="13" width="8.08984375" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>223</v>
       </c>
@@ -15269,8 +15273,11 @@
       <c r="M1" s="39" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="36">
         <v>2</v>
       </c>
@@ -15291,7 +15298,7 @@
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
     </row>
-    <row r="3" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -15312,7 +15319,7 @@
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
     </row>
-    <row r="4" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>18</v>
       </c>
@@ -15333,7 +15340,7 @@
       <c r="L4" s="40"/>
       <c r="M4" s="40"/>
     </row>
-    <row r="5" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>19</v>
       </c>
@@ -15354,7 +15361,7 @@
       <c r="L5" s="40"/>
       <c r="M5" s="40"/>
     </row>
-    <row r="6" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>15</v>
       </c>
@@ -15375,7 +15382,7 @@
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
     </row>
-    <row r="7" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>13</v>
       </c>
@@ -15396,7 +15403,7 @@
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
     </row>
-    <row r="8" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
         <v>21</v>
       </c>
@@ -15417,7 +15424,7 @@
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
     </row>
-    <row r="9" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>25</v>
       </c>
@@ -15438,7 +15445,7 @@
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
     </row>
-    <row r="10" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C10" s="36" t="s">
         <v>208</v>
       </c>
@@ -15450,13 +15457,13 @@
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
     </row>
-    <row r="11" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
     </row>
-    <row r="12" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="36">
         <v>0</v>
       </c>
@@ -15494,7 +15501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C13" s="36" t="s">
         <v>208</v>
       </c>
@@ -15502,34 +15509,34 @@
         <v>209</v>
       </c>
       <c r="E13" s="38">
-        <v>1.2488669999999999</v>
+        <v>1.298074</v>
       </c>
       <c r="F13" s="38">
-        <v>0.105655</v>
+        <v>0.107655</v>
       </c>
       <c r="G13" s="38">
-        <v>13.965085</v>
+        <v>14.816202000000001</v>
       </c>
       <c r="H13" s="38">
-        <v>9.8350000000000007E-2</v>
+        <v>0.100453</v>
       </c>
       <c r="I13" s="38">
-        <v>5.8025E-2</v>
+        <v>5.9837000000000001E-2</v>
       </c>
       <c r="J13" s="40">
         <v>42</v>
       </c>
       <c r="K13" s="40">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L13" s="40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M13" s="40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
@@ -15540,293 +15547,507 @@
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C15" s="36" t="s">
         <v>208</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="E15" s="37">
-        <v>1.186151</v>
-      </c>
-      <c r="F15" s="37">
-        <v>0.101258</v>
-      </c>
-      <c r="G15" s="11">
-        <v>12.653755</v>
-      </c>
-      <c r="H15" s="11">
-        <v>9.4033000000000005E-2</v>
-      </c>
-      <c r="I15" s="11">
-        <v>5.1957000000000003E-2</v>
-      </c>
-      <c r="J15" s="41">
+      <c r="E15" s="38">
+        <v>1.3467530000000001</v>
+      </c>
+      <c r="F15" s="38">
+        <v>0.11075865</v>
+      </c>
+      <c r="G15" s="38">
+        <v>17.655308000000002</v>
+      </c>
+      <c r="H15" s="38">
+        <v>0.10363214</v>
+      </c>
+      <c r="I15" s="38">
+        <v>6.3265840000000004E-2</v>
+      </c>
+      <c r="J15" s="40">
         <v>42</v>
       </c>
-      <c r="K15" s="41">
-        <v>100</v>
-      </c>
-      <c r="L15" s="41">
-        <v>200</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K15" s="40">
+        <v>100</v>
+      </c>
+      <c r="L15" s="40">
+        <v>50</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C16" s="36" t="s">
         <v>208</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="E16" s="37">
-        <v>1.263331</v>
-      </c>
-      <c r="F16" s="37">
-        <v>0.104032</v>
-      </c>
-      <c r="G16" s="11">
-        <v>13.091120999999999</v>
-      </c>
-      <c r="H16" s="11">
-        <v>9.6446000000000004E-2</v>
-      </c>
-      <c r="I16" s="11">
-        <v>5.2325999999999998E-2</v>
-      </c>
-      <c r="J16" s="41">
+      <c r="E16" s="38">
+        <v>1.3322954199999999</v>
+      </c>
+      <c r="F16" s="38">
+        <v>0.10991943999999999</v>
+      </c>
+      <c r="G16" s="38">
+        <v>15.53920039</v>
+      </c>
+      <c r="H16" s="38">
+        <v>0.10204718</v>
+      </c>
+      <c r="I16" s="38">
+        <v>6.0413219999999997E-2</v>
+      </c>
+      <c r="J16" s="40">
         <v>42</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="40">
         <v>200</v>
       </c>
-      <c r="L16" s="41">
-        <v>200</v>
-      </c>
-      <c r="M16" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="L16" s="40">
+        <v>50</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C17" s="36" t="s">
         <v>208</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="37">
-        <v>1.1704349999999999</v>
-      </c>
-      <c r="F17" s="37">
-        <v>0.100674</v>
-      </c>
-      <c r="G17" s="11">
-        <v>11.356949</v>
-      </c>
-      <c r="H17" s="11">
-        <v>9.3112E-2</v>
-      </c>
-      <c r="I17" s="11">
-        <v>5.1371E-2</v>
-      </c>
-      <c r="J17" s="41">
+      <c r="E17" s="38">
+        <v>1.3324924300000001</v>
+      </c>
+      <c r="F17" s="38">
+        <v>0.10998624</v>
+      </c>
+      <c r="G17" s="38">
+        <v>15.542554600000001</v>
+      </c>
+      <c r="H17" s="38">
+        <v>0.10208643000000001</v>
+      </c>
+      <c r="I17" s="38">
+        <v>6.0477719999999999E-2</v>
+      </c>
+      <c r="J17" s="40">
         <v>42</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="40">
         <v>300</v>
       </c>
-      <c r="L17" s="41">
-        <v>200</v>
-      </c>
-      <c r="M17" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C19" s="36" t="s">
+      <c r="L17" s="40">
+        <v>50</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+    </row>
+    <row r="19" spans="3:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C20" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="E19" s="11">
-        <v>1.2613220000000001</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0.105753</v>
-      </c>
-      <c r="G19" s="11">
-        <v>13.233006</v>
-      </c>
-      <c r="H19" s="11">
-        <v>9.8480999999999999E-2</v>
-      </c>
-      <c r="I19" s="11">
-        <v>5.6909000000000001E-2</v>
-      </c>
-      <c r="J19" s="41">
-        <v>42</v>
-      </c>
-      <c r="K19" s="41">
-        <v>200</v>
-      </c>
-      <c r="L19" s="41">
-        <v>100</v>
-      </c>
-      <c r="M19" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
-        <v>208</v>
-      </c>
-      <c r="D20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1.2249380000000001</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0.10442</v>
+      <c r="E20" s="37">
+        <v>1.186151</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0.101258</v>
       </c>
       <c r="G20" s="11">
-        <v>12.243124999999999</v>
+        <v>12.653755</v>
       </c>
       <c r="H20" s="11">
-        <v>9.7406000000000006E-2</v>
+        <v>9.4033000000000005E-2</v>
       </c>
       <c r="I20" s="11">
-        <v>5.6134000000000003E-2</v>
+        <v>5.1957000000000003E-2</v>
       </c>
       <c r="J20" s="41">
         <v>42</v>
       </c>
       <c r="K20" s="41">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L20" s="41">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M20" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C21" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="E21" s="11">
-        <v>1.215217</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0.104229</v>
+      <c r="E21" s="37">
+        <v>1.263331</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0.104032</v>
       </c>
       <c r="G21" s="11">
-        <v>12.018250999999999</v>
+        <v>13.091120999999999</v>
       </c>
       <c r="H21" s="11">
-        <v>9.7244999999999998E-2</v>
+        <v>9.6446000000000004E-2</v>
       </c>
       <c r="I21" s="11">
-        <v>5.5974000000000003E-2</v>
+        <v>5.2325999999999998E-2</v>
       </c>
       <c r="J21" s="41">
         <v>42</v>
       </c>
       <c r="K21" s="41">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L21" s="41">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M21" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C22" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="E22" s="11">
-        <v>1.2330939999999999</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0.104827</v>
+      <c r="E22" s="37">
+        <v>1.1704349999999999</v>
+      </c>
+      <c r="F22" s="37">
+        <v>0.100674</v>
       </c>
       <c r="G22" s="11">
-        <v>12.008521999999999</v>
+        <v>11.356949</v>
       </c>
       <c r="H22" s="11">
-        <v>9.7713999999999995E-2</v>
+        <v>9.3112E-2</v>
       </c>
       <c r="I22" s="11">
-        <v>5.6041000000000001E-2</v>
+        <v>5.1371E-2</v>
       </c>
       <c r="J22" s="41">
         <v>42</v>
       </c>
       <c r="K22" s="41">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L22" s="41">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M22" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C23" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="E23" s="11">
-        <v>1.20625</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0.103536</v>
+      <c r="E23" s="37">
+        <v>1.2420720000000001</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0.103521</v>
       </c>
       <c r="G23" s="11">
-        <v>11.401277</v>
+        <v>11.829283999999999</v>
       </c>
       <c r="H23" s="11">
-        <v>9.5999000000000001E-2</v>
+        <v>9.5749000000000001E-2</v>
       </c>
       <c r="I23" s="11">
-        <v>5.4571000000000001E-2</v>
+        <v>5.3046000000000003E-2</v>
       </c>
       <c r="J23" s="41">
         <v>42</v>
       </c>
       <c r="K23" s="41">
+        <v>400</v>
+      </c>
+      <c r="L23" s="41">
+        <v>200</v>
+      </c>
+      <c r="M23" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C26" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="38">
+        <v>1.2488669999999999</v>
+      </c>
+      <c r="F26" s="38">
+        <v>0.105655</v>
+      </c>
+      <c r="G26" s="38">
+        <v>13.965085</v>
+      </c>
+      <c r="H26" s="38">
+        <v>9.8350000000000007E-2</v>
+      </c>
+      <c r="I26" s="38">
+        <v>5.8025E-2</v>
+      </c>
+      <c r="J26" s="40">
+        <v>42</v>
+      </c>
+      <c r="K26" s="40">
+        <v>100</v>
+      </c>
+      <c r="L26" s="40">
+        <v>100</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C27" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1.2613220000000001</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.105753</v>
+      </c>
+      <c r="G27" s="11">
+        <v>13.233006</v>
+      </c>
+      <c r="H27" s="11">
+        <v>9.8480999999999999E-2</v>
+      </c>
+      <c r="I27" s="11">
+        <v>5.6909000000000001E-2</v>
+      </c>
+      <c r="J27" s="41">
+        <v>42</v>
+      </c>
+      <c r="K27" s="41">
+        <v>200</v>
+      </c>
+      <c r="L27" s="41">
+        <v>100</v>
+      </c>
+      <c r="M27" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1.2249380000000001</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.10442</v>
+      </c>
+      <c r="G28" s="11">
+        <v>12.243124999999999</v>
+      </c>
+      <c r="H28" s="11">
+        <v>9.7406000000000006E-2</v>
+      </c>
+      <c r="I28" s="11">
+        <v>5.6134000000000003E-2</v>
+      </c>
+      <c r="J28" s="41">
+        <v>42</v>
+      </c>
+      <c r="K28" s="41">
+        <v>300</v>
+      </c>
+      <c r="L28" s="41">
+        <v>100</v>
+      </c>
+      <c r="M28" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1.215217</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.104229</v>
+      </c>
+      <c r="G29" s="11">
+        <v>12.018250999999999</v>
+      </c>
+      <c r="H29" s="11">
+        <v>9.7244999999999998E-2</v>
+      </c>
+      <c r="I29" s="11">
+        <v>5.5974000000000003E-2</v>
+      </c>
+      <c r="J29" s="41">
+        <v>42</v>
+      </c>
+      <c r="K29" s="41">
+        <v>400</v>
+      </c>
+      <c r="L29" s="41">
+        <v>100</v>
+      </c>
+      <c r="M29" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1.2330939999999999</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.104827</v>
+      </c>
+      <c r="G30" s="11">
+        <v>12.008521999999999</v>
+      </c>
+      <c r="H30" s="11">
+        <v>9.7713999999999995E-2</v>
+      </c>
+      <c r="I30" s="11">
+        <v>5.6041000000000001E-2</v>
+      </c>
+      <c r="J30" s="41">
+        <v>42</v>
+      </c>
+      <c r="K30" s="41">
+        <v>500</v>
+      </c>
+      <c r="L30" s="41">
+        <v>100</v>
+      </c>
+      <c r="M30" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1.20625</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.103536</v>
+      </c>
+      <c r="G31" s="11">
+        <v>11.401277</v>
+      </c>
+      <c r="H31" s="11">
+        <v>9.5999000000000001E-2</v>
+      </c>
+      <c r="I31" s="11">
+        <v>5.4571000000000001E-2</v>
+      </c>
+      <c r="J31" s="41">
+        <v>42</v>
+      </c>
+      <c r="K31" s="41">
         <v>1000</v>
       </c>
-      <c r="L23" s="41">
-        <v>100</v>
-      </c>
-      <c r="M23" s="41" t="s">
+      <c r="L31" s="41">
+        <v>100</v>
+      </c>
+      <c r="M31" s="41" t="s">
         <v>41</v>
       </c>
     </row>
@@ -15838,11 +16059,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629563B-15CA-43F8-9031-F04949D161F0}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15852,7 +16073,7 @@
     <col min="4" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7265625" customWidth="1"/>
     <col min="12" max="12" width="8.08984375" bestFit="1" customWidth="1"/>
@@ -16121,90 +16342,57 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="36" t="s">
         <v>210</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="61">
-        <v>3.1439370000000002</v>
-      </c>
-      <c r="E13" s="61">
-        <v>0.13697200000000001</v>
-      </c>
-      <c r="F13" s="61">
-        <v>47.648929000000003</v>
-      </c>
-      <c r="G13" s="61">
-        <v>0.133882</v>
-      </c>
-      <c r="H13" s="61">
-        <v>8.9011000000000007E-2</v>
-      </c>
-      <c r="I13">
+      <c r="D13" s="38">
+        <v>3.4230269999999998</v>
+      </c>
+      <c r="E13" s="38">
+        <v>0.14308499999999999</v>
+      </c>
+      <c r="F13" s="38">
+        <v>65.379206999999994</v>
+      </c>
+      <c r="G13" s="38">
+        <v>0.139122</v>
+      </c>
+      <c r="H13" s="38">
+        <v>0.108584</v>
+      </c>
+      <c r="I13" s="38">
         <v>42</v>
       </c>
-      <c r="J13">
-        <v>100</v>
-      </c>
-      <c r="K13">
-        <v>100</v>
-      </c>
-      <c r="L13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="J13" s="40">
+        <v>200</v>
+      </c>
+      <c r="K13" s="40">
+        <v>50</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D15" s="61">
-        <v>3.251798</v>
-      </c>
-      <c r="E15" s="61">
-        <v>0.13866999999999999</v>
-      </c>
-      <c r="F15" s="61">
-        <v>44.894410999999998</v>
-      </c>
-      <c r="G15" s="61">
-        <v>0.13497200000000001</v>
-      </c>
-      <c r="H15" s="61">
-        <v>8.2493999999999998E-2</v>
-      </c>
-      <c r="I15">
-        <v>42</v>
-      </c>
-      <c r="J15">
-        <v>100</v>
-      </c>
-      <c r="K15">
-        <v>200</v>
-      </c>
-      <c r="L15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" t="s">
-        <v>23</v>
-      </c>
+    <row r="14" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" s="36" t="s">
@@ -16214,28 +16402,28 @@
         <v>209</v>
       </c>
       <c r="D16" s="61">
-        <v>3.6907740000000002</v>
+        <v>3.1439370000000002</v>
       </c>
       <c r="E16" s="61">
-        <v>0.149703</v>
+        <v>0.13697200000000001</v>
       </c>
       <c r="F16" s="61">
-        <v>58.996276999999999</v>
+        <v>47.648929000000003</v>
       </c>
       <c r="G16" s="61">
-        <v>0.14677999999999999</v>
+        <v>0.133882</v>
       </c>
       <c r="H16" s="61">
-        <v>7.8587000000000004E-2</v>
+        <v>8.9011000000000007E-2</v>
       </c>
       <c r="I16">
         <v>42</v>
       </c>
       <c r="J16">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K16">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
         <v>41</v>
@@ -16245,51 +16433,51 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B18" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C18" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="D17" s="61">
-        <v>3.394806</v>
-      </c>
-      <c r="E17" s="61">
-        <v>0.14347699999999999</v>
-      </c>
-      <c r="F17" s="61">
-        <v>52.955747000000002</v>
-      </c>
-      <c r="G17" s="61">
-        <v>0.14067199999999999</v>
-      </c>
-      <c r="H17" s="61">
-        <v>7.7340000000000006E-2</v>
-      </c>
-      <c r="I17">
+      <c r="D18" s="61">
+        <v>3.251798</v>
+      </c>
+      <c r="E18" s="61">
+        <v>0.13866999999999999</v>
+      </c>
+      <c r="F18" s="61">
+        <v>44.894410999999998</v>
+      </c>
+      <c r="G18" s="61">
+        <v>0.13497200000000001</v>
+      </c>
+      <c r="H18" s="61">
+        <v>8.2493999999999998E-2</v>
+      </c>
+      <c r="I18">
         <v>42</v>
       </c>
-      <c r="J17">
-        <v>300</v>
-      </c>
-      <c r="K17">
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18">
         <v>200</v>
       </c>
-      <c r="L17" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="36" t="s">
@@ -16299,19 +16487,19 @@
         <v>209</v>
       </c>
       <c r="D19" s="61">
-        <v>3.2720570000000002</v>
+        <v>3.6907740000000002</v>
       </c>
       <c r="E19" s="61">
-        <v>0.13925599999999999</v>
+        <v>0.149703</v>
       </c>
       <c r="F19" s="61">
-        <v>50.649208999999999</v>
+        <v>58.996276999999999</v>
       </c>
       <c r="G19" s="61">
-        <v>0.13472100000000001</v>
+        <v>0.14677999999999999</v>
       </c>
       <c r="H19" s="61">
-        <v>8.3541000000000004E-2</v>
+        <v>7.8587000000000004E-2</v>
       </c>
       <c r="I19">
         <v>42</v>
@@ -16320,7 +16508,7 @@
         <v>200</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s">
         <v>41</v>
@@ -16330,26 +16518,26 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+      <c r="B20" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="36" t="s">
         <v>209</v>
       </c>
       <c r="D20" s="61">
-        <v>3.1755300000000002</v>
+        <v>3.394806</v>
       </c>
       <c r="E20" s="61">
-        <v>0.13787099999999999</v>
+        <v>0.14347699999999999</v>
       </c>
       <c r="F20" s="61">
-        <v>46.641615999999999</v>
+        <v>52.955747000000002</v>
       </c>
       <c r="G20" s="61">
-        <v>0.13353999999999999</v>
+        <v>0.14067199999999999</v>
       </c>
       <c r="H20" s="61">
-        <v>7.9348000000000002E-2</v>
+        <v>7.7340000000000006E-2</v>
       </c>
       <c r="I20">
         <v>42</v>
@@ -16358,7 +16546,7 @@
         <v>300</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
         <v>41</v>
@@ -16368,26 +16556,26 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+      <c r="B21" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="36" t="s">
         <v>209</v>
       </c>
       <c r="D21" s="61">
-        <v>3.2424240000000002</v>
+        <v>3.1621039999999998</v>
       </c>
       <c r="E21" s="61">
-        <v>0.13877999999999999</v>
+        <v>0.137902</v>
       </c>
       <c r="F21" s="61">
-        <v>48.654513000000001</v>
+        <v>47.548532999999999</v>
       </c>
       <c r="G21" s="61">
-        <v>0.13486600000000001</v>
+        <v>0.13442699999999999</v>
       </c>
       <c r="H21" s="61">
-        <v>8.2003999999999994E-2</v>
+        <v>8.1309999999999993E-2</v>
       </c>
       <c r="I21">
         <v>42</v>
@@ -16396,7 +16584,7 @@
         <v>400</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
         <v>41</v>
@@ -16406,78 +16594,210 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B24" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D24" s="61">
+        <v>3.2720570000000002</v>
+      </c>
+      <c r="E24" s="61">
+        <v>0.13925599999999999</v>
+      </c>
+      <c r="F24" s="61">
+        <v>50.649208999999999</v>
+      </c>
+      <c r="G24" s="61">
+        <v>0.13472100000000001</v>
+      </c>
+      <c r="H24" s="61">
+        <v>8.3541000000000004E-2</v>
+      </c>
+      <c r="I24">
+        <v>42</v>
+      </c>
+      <c r="J24">
+        <v>200</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="61">
+        <v>3.1755300000000002</v>
+      </c>
+      <c r="E25" s="61">
+        <v>0.13787099999999999</v>
+      </c>
+      <c r="F25" s="61">
+        <v>46.641615999999999</v>
+      </c>
+      <c r="G25" s="61">
+        <v>0.13353999999999999</v>
+      </c>
+      <c r="H25" s="61">
+        <v>7.9348000000000002E-2</v>
+      </c>
+      <c r="I25">
+        <v>42</v>
+      </c>
+      <c r="J25">
+        <v>300</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="L25" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="61">
+        <v>3.2424240000000002</v>
+      </c>
+      <c r="E26" s="61">
+        <v>0.13877999999999999</v>
+      </c>
+      <c r="F26" s="61">
+        <v>48.654513000000001</v>
+      </c>
+      <c r="G26" s="61">
+        <v>0.13486600000000001</v>
+      </c>
+      <c r="H26" s="61">
+        <v>8.2003999999999994E-2</v>
+      </c>
+      <c r="I26">
+        <v>42</v>
+      </c>
+      <c r="J26">
+        <v>400</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="L26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="61">
         <v>3.2642479999999998</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E27" s="61">
         <v>0.140093</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F27" s="61">
         <v>45.854098999999998</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G27" s="61">
         <v>0.13635700000000001</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H27" s="61">
         <v>7.8508999999999995E-2</v>
       </c>
-      <c r="I22">
+      <c r="I27">
         <v>42</v>
       </c>
-      <c r="J22">
+      <c r="J27">
         <v>500</v>
       </c>
-      <c r="K22">
-        <v>100</v>
-      </c>
-      <c r="L22" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
         <v>210</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" t="s">
         <v>209</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D28" s="61">
         <v>3.2343850000000001</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E28" s="61">
         <v>0.13867099999999999</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F28" s="61">
         <v>46.540291000000003</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G28" s="61">
         <v>0.13593</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H28" s="61">
         <v>7.7627000000000002E-2</v>
       </c>
-      <c r="I23">
+      <c r="I28">
         <v>42</v>
       </c>
-      <c r="J23">
+      <c r="J28">
         <v>1000</v>
       </c>
-      <c r="K23">
-        <v>100</v>
-      </c>
-      <c r="L23" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" t="s">
         <v>23</v>
       </c>
     </row>

--- a/results/results_v4.xlsx
+++ b/results/results_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2E860A-2104-4A8A-BD10-7F0E765C2149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ECC26A-6BC1-4B82-A6C2-B9534D775737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="3550" windowWidth="19200" windowHeight="7860" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4_hourly" sheetId="4" r:id="rId1"/>
@@ -22,17 +22,23 @@
     <sheet name="traffic" sheetId="7" r:id="rId7"/>
     <sheet name="electricity" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="233">
   <si>
     <t>Algorithm</t>
   </si>
@@ -715,10 +721,22 @@
     <t>ETSARIMA</t>
   </si>
   <si>
-    <t>GPU</t>
-  </si>
-  <si>
     <t>context=2*prediction</t>
+  </si>
+  <si>
+    <t>1h34min</t>
+  </si>
+  <si>
+    <t>1h3min</t>
+  </si>
+  <si>
+    <t>2h32min</t>
+  </si>
+  <si>
+    <t>total batches</t>
+  </si>
+  <si>
+    <t>total_batches</t>
   </si>
 </sst>
 </file>
@@ -803,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -919,6 +937,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -7928,11 +7947,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7962,7 +7981,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>26</v>
@@ -8004,204 +8023,117 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17">
-        <v>100</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18">
-        <v>5.0389744272223203</v>
-      </c>
-      <c r="L2" s="19">
-        <v>0.14075244167457199</v>
-      </c>
-      <c r="M2" s="19">
-        <v>40.1333233555251</v>
-      </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="17"/>
-    </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="C2" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+    </row>
+    <row r="3" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="16">
-        <v>359</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16">
-        <v>25</v>
-      </c>
-      <c r="F3" s="17">
-        <v>200</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18">
-        <v>4.7845313238501799</v>
-      </c>
-      <c r="L3" s="19">
-        <v>8.2049655548137396E-2</v>
-      </c>
-      <c r="M3" s="19">
-        <v>46.912122813676</v>
-      </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17"/>
-    </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="C3" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+    </row>
+    <row r="4" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16">
-        <v>100</v>
-      </c>
-      <c r="F4" s="17">
-        <v>50</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17">
-        <v>42</v>
-      </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18">
-        <v>2.6494847743327998</v>
-      </c>
-      <c r="L4" s="19">
-        <v>9.4839308698262903E-2</v>
-      </c>
-      <c r="M4" s="19">
-        <v>26.551910370764102</v>
-      </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="17"/>
-    </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="C4" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+    </row>
+    <row r="5" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16">
-        <v>100</v>
-      </c>
-      <c r="F5" s="17">
-        <v>50</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18">
-        <v>2.8305033360985501</v>
-      </c>
-      <c r="L5" s="19">
-        <v>7.5700859184286706E-2</v>
-      </c>
-      <c r="M5" s="19">
-        <v>21.598772288563801</v>
-      </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="16">
-        <v>359</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16">
-        <v>100</v>
-      </c>
-      <c r="F6" s="17">
-        <v>50</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18">
-        <v>2.6969850000000002</v>
-      </c>
-      <c r="L6" s="19">
-        <v>8.5638000000000006E-2</v>
-      </c>
-      <c r="M6" s="19">
-        <v>25.057198</v>
-      </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="17"/>
+      <c r="C5" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+    </row>
+    <row r="6" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
     </row>
     <row r="7" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="16">
-        <v>359</v>
-      </c>
       <c r="C7" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="16">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F7" s="17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18">
-        <v>2.4681948541118799</v>
+        <v>5.0389744272223203</v>
       </c>
       <c r="L7" s="19">
-        <v>8.1296332416355102E-2</v>
+        <v>0.14075244167457199</v>
       </c>
       <c r="M7" s="19">
-        <v>22.1231668801551</v>
+        <v>40.1333233555251</v>
       </c>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
@@ -8219,10 +8151,10 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="16">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F8" s="17">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>125</v>
@@ -8231,27 +8163,22 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="18">
-        <v>2.93188017466235</v>
+        <v>4.7845313238501799</v>
       </c>
       <c r="L8" s="19">
-        <v>7.3123317249618694E-2</v>
+        <v>8.2049655548137396E-2</v>
       </c>
       <c r="M8" s="19">
-        <v>28.1897450150365</v>
+        <v>46.912122813676</v>
       </c>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
-      <c r="P8" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="16">
-        <v>359</v>
-      </c>
       <c r="C9" s="17" t="s">
         <v>9</v>
       </c>
@@ -8260,34 +8187,31 @@
         <v>100</v>
       </c>
       <c r="F9" s="17">
-        <v>200</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>125</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="17">
+        <v>42</v>
+      </c>
       <c r="J9" s="17"/>
       <c r="K9" s="18">
-        <v>3.4256568489382202</v>
+        <v>2.6494847743327998</v>
       </c>
       <c r="L9" s="19">
-        <v>7.8023623476367404E-2</v>
+        <v>9.4839308698262903E-2</v>
       </c>
       <c r="M9" s="19">
-        <v>46.294449891251404</v>
-      </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
+        <v>26.551910370764102</v>
+      </c>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="16">
-        <v>359</v>
-      </c>
       <c r="C10" s="17" t="s">
         <v>9</v>
       </c>
@@ -8296,24 +8220,28 @@
         <v>100</v>
       </c>
       <c r="F10" s="17">
-        <v>100</v>
-      </c>
-      <c r="G10" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>125</v>
+      </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="18">
-        <v>2.8797172708705698</v>
+        <v>2.8305033360985501</v>
       </c>
       <c r="L10" s="19">
-        <v>8.9693784459130094E-2</v>
+        <v>7.5700859184286706E-2</v>
       </c>
       <c r="M10" s="19">
-        <v>28.1387214506003</v>
+        <v>21.598772288563801</v>
       </c>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
-      <c r="P10" s="17"/>
+      <c r="P10" s="17" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
@@ -8332,31 +8260,21 @@
       <c r="F11" s="17">
         <v>50</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="17">
-        <v>42</v>
-      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="18">
-        <v>2.6304692301581398</v>
+        <v>2.6969850000000002</v>
       </c>
       <c r="L11" s="19">
-        <v>9.5237163592344506E-2</v>
+        <v>8.5638000000000006E-2</v>
       </c>
       <c r="M11" s="19">
-        <v>25.399000777691601</v>
-      </c>
-      <c r="N11" s="19">
-        <v>6.6834473706314595E-2</v>
-      </c>
-      <c r="O11" s="19">
-        <v>3.1033780551203899E-2</v>
-      </c>
+        <v>25.057198</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -8376,31 +8294,21 @@
       <c r="F12" s="17">
         <v>50</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="17">
-        <v>43</v>
-      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="18">
-        <v>2.57307024566451</v>
+        <v>2.4681948541118799</v>
       </c>
       <c r="L12" s="19">
-        <v>8.9079988231562601E-2</v>
+        <v>8.1296332416355102E-2</v>
       </c>
       <c r="M12" s="19">
-        <v>26.296752463540301</v>
-      </c>
-      <c r="N12" s="19">
-        <v>6.4319145588598498E-2</v>
-      </c>
-      <c r="O12" s="19">
-        <v>2.8232938278205E-2</v>
-      </c>
+        <v>22.1231668801551</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
       <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -8418,34 +8326,28 @@
         <v>100</v>
       </c>
       <c r="F13" s="17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="17">
-        <v>44</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="18">
-        <v>2.5439506552498101</v>
+        <v>2.93188017466235</v>
       </c>
       <c r="L13" s="19">
-        <v>8.94737436635588E-2</v>
+        <v>7.3123317249618694E-2</v>
       </c>
       <c r="M13" s="19">
-        <v>25.791707013299</v>
-      </c>
-      <c r="N13" s="19">
-        <v>6.3396904019689698E-2</v>
-      </c>
-      <c r="O13" s="19">
-        <v>2.98783065273443E-2</v>
-      </c>
-      <c r="P13" s="17"/>
+        <v>28.1897450150365</v>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="17" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
@@ -8457,38 +8359,30 @@
       <c r="C14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="17">
-        <v>20623</v>
-      </c>
+      <c r="D14" s="17"/>
       <c r="E14" s="16">
         <v>100</v>
       </c>
       <c r="F14" s="17">
-        <v>100</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="17">
-        <v>42</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="18">
-        <v>2.6304692301581398</v>
+        <v>3.4256568489382202</v>
       </c>
       <c r="L14" s="19">
-        <v>9.5237163592344506E-2</v>
+        <v>7.8023623476367404E-2</v>
       </c>
       <c r="M14" s="19">
-        <v>25.399000777691601</v>
-      </c>
-      <c r="N14" s="19">
-        <v>6.6834473706314595E-2</v>
-      </c>
-      <c r="O14" s="19">
-        <v>3.1033780551203899E-2</v>
-      </c>
+        <v>46.294449891251404</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
       <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -8501,9 +8395,7 @@
       <c r="C15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="17">
-        <v>20623</v>
-      </c>
+      <c r="D15" s="17"/>
       <c r="E15" s="16">
         <v>100</v>
       </c>
@@ -8511,28 +8403,20 @@
         <v>100</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="17">
-        <v>43</v>
-      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="18">
-        <v>2.57307024566451</v>
+        <v>2.8797172708705698</v>
       </c>
       <c r="L15" s="19">
-        <v>8.9079988231562601E-2</v>
+        <v>8.9693784459130094E-2</v>
       </c>
       <c r="M15" s="19">
-        <v>26.296752463540301</v>
-      </c>
-      <c r="N15" s="18">
-        <v>6.4319145588598498E-2</v>
-      </c>
-      <c r="O15" s="18">
-        <v>2.8232938278205E-2</v>
-      </c>
+        <v>28.1387214506003</v>
+      </c>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
       <c r="P15" s="17"/>
     </row>
     <row r="16" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -8545,53 +8429,82 @@
       <c r="C16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="17">
-        <v>20623</v>
-      </c>
+      <c r="D16" s="17"/>
       <c r="E16" s="16">
         <v>100</v>
       </c>
       <c r="F16" s="17">
-        <v>100</v>
-      </c>
-      <c r="G16" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>124</v>
+      </c>
       <c r="H16" s="17" t="s">
         <v>41</v>
       </c>
       <c r="I16" s="17">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="18">
-        <v>2.5439506552498101</v>
+        <v>2.6304692301581398</v>
       </c>
       <c r="L16" s="19">
-        <v>8.94737436635588E-2</v>
+        <v>9.5237163592344506E-2</v>
       </c>
       <c r="M16" s="19">
-        <v>25.791707013299</v>
-      </c>
-      <c r="N16" s="18">
-        <v>6.3396904019689698E-2</v>
-      </c>
-      <c r="O16" s="18">
-        <v>2.98783065273443E-2</v>
+        <v>25.399000777691601</v>
+      </c>
+      <c r="N16" s="19">
+        <v>6.6834473706314595E-2</v>
+      </c>
+      <c r="O16" s="19">
+        <v>3.1033780551203899E-2</v>
       </c>
       <c r="P16" s="17"/>
     </row>
     <row r="17" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="17"/>
+      <c r="A17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="16">
+        <v>359</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="D17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="E17" s="16">
+        <v>100</v>
+      </c>
+      <c r="F17" s="17">
+        <v>50</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="17">
+        <v>43</v>
+      </c>
       <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
+      <c r="K17" s="18">
+        <v>2.57307024566451</v>
+      </c>
+      <c r="L17" s="19">
+        <v>8.9079988231562601E-2</v>
+      </c>
+      <c r="M17" s="19">
+        <v>26.296752463540301</v>
+      </c>
+      <c r="N17" s="19">
+        <v>6.4319145588598498E-2</v>
+      </c>
+      <c r="O17" s="19">
+        <v>2.8232938278205E-2</v>
+      </c>
       <c r="P17" s="17"/>
     </row>
     <row r="18" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -8604,37 +8517,37 @@
       <c r="C18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="17">
-        <v>20623</v>
-      </c>
+      <c r="D18" s="17"/>
       <c r="E18" s="16">
         <v>100</v>
       </c>
       <c r="F18" s="17">
         <v>50</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>124</v>
+      </c>
       <c r="H18" s="17" t="s">
         <v>41</v>
       </c>
       <c r="I18" s="17">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="18">
-        <v>2.623046923</v>
+        <v>2.5439506552498101</v>
       </c>
       <c r="L18" s="19">
-        <v>9.5237160000000001E-2</v>
+        <v>8.94737436635588E-2</v>
       </c>
       <c r="M18" s="19">
-        <v>25.399000780000001</v>
-      </c>
-      <c r="N18" s="18">
-        <v>6.6834470000000007E-2</v>
-      </c>
-      <c r="O18" s="18">
-        <v>3.103378E-2</v>
+        <v>25.791707013299</v>
+      </c>
+      <c r="N18" s="19">
+        <v>6.3396904019689698E-2</v>
+      </c>
+      <c r="O18" s="19">
+        <v>2.98783065273443E-2</v>
       </c>
       <c r="P18" s="17"/>
     </row>
@@ -8655,30 +8568,30 @@
         <v>100</v>
       </c>
       <c r="F19" s="17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17" t="s">
         <v>41</v>
       </c>
       <c r="I19" s="17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="18">
-        <v>2.5730702499999998</v>
+        <v>2.6304692301581398</v>
       </c>
       <c r="L19" s="19">
-        <v>8.9079989999999998E-2</v>
+        <v>9.5237163592344506E-2</v>
       </c>
       <c r="M19" s="19">
-        <v>26.29675246</v>
-      </c>
-      <c r="N19" s="18">
-        <v>6.4319150000000005E-2</v>
-      </c>
-      <c r="O19" s="18">
-        <v>2.8232940000000002E-2</v>
+        <v>25.399000777691601</v>
+      </c>
+      <c r="N19" s="19">
+        <v>6.6834473706314595E-2</v>
+      </c>
+      <c r="O19" s="19">
+        <v>3.1033780551203899E-2</v>
       </c>
       <c r="P19" s="17"/>
     </row>
@@ -8699,90 +8612,90 @@
         <v>100</v>
       </c>
       <c r="F20" s="17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17" t="s">
         <v>41</v>
       </c>
       <c r="I20" s="17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="18">
-        <v>2.5439506600000001</v>
+        <v>2.57307024566451</v>
       </c>
       <c r="L20" s="19">
-        <v>8.9473739999999996E-2</v>
+        <v>8.9079988231562601E-2</v>
       </c>
       <c r="M20" s="19">
-        <v>25.79170701</v>
+        <v>26.296752463540301</v>
       </c>
       <c r="N20" s="18">
-        <v>6.3396900000000006E-2</v>
+        <v>6.4319145588598498E-2</v>
       </c>
       <c r="O20" s="18">
-        <v>2.9878310000000002E-2</v>
+        <v>2.8232938278205E-2</v>
       </c>
       <c r="P20" s="17"/>
     </row>
     <row r="21" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="16">
+        <v>359</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17">
+        <v>20623</v>
+      </c>
+      <c r="E21" s="16">
+        <v>100</v>
+      </c>
+      <c r="F21" s="17">
+        <v>100</v>
+      </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="H21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="17">
+        <v>44</v>
+      </c>
       <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
+      <c r="K21" s="18">
+        <v>2.5439506552498101</v>
+      </c>
+      <c r="L21" s="19">
+        <v>8.94737436635588E-2</v>
+      </c>
+      <c r="M21" s="19">
+        <v>25.791707013299</v>
+      </c>
+      <c r="N21" s="18">
+        <v>6.3396904019689698E-2</v>
+      </c>
+      <c r="O21" s="18">
+        <v>2.98783065273443E-2</v>
+      </c>
       <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="16">
-        <v>359</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="17">
-        <v>20623</v>
-      </c>
-      <c r="E22" s="16">
-        <v>150</v>
-      </c>
-      <c r="F22" s="17">
-        <v>50</v>
-      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="17">
-        <v>42</v>
-      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="18">
-        <v>2.6059472000000001</v>
-      </c>
-      <c r="L22" s="19">
-        <v>9.3150839999999999E-2</v>
-      </c>
-      <c r="M22" s="19">
-        <v>25.389556150000001</v>
-      </c>
-      <c r="N22" s="18">
-        <v>6.5763150000000006E-2</v>
-      </c>
-      <c r="O22" s="18">
-        <v>2.8599610000000001E-2</v>
-      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
       <c r="P22" s="17"/>
     </row>
     <row r="23" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -8799,7 +8712,7 @@
         <v>20623</v>
       </c>
       <c r="E23" s="16">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F23" s="17">
         <v>50</v>
@@ -8809,23 +8722,23 @@
         <v>41</v>
       </c>
       <c r="I23" s="17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="18">
-        <v>2.62839768</v>
+        <v>2.623046923</v>
       </c>
       <c r="L23" s="19">
-        <v>9.3004370000000003E-2</v>
+        <v>9.5237160000000001E-2</v>
       </c>
       <c r="M23" s="19">
-        <v>27.563747830000001</v>
+        <v>25.399000780000001</v>
       </c>
       <c r="N23" s="18">
-        <v>6.6826529999999995E-2</v>
+        <v>6.6834470000000007E-2</v>
       </c>
       <c r="O23" s="18">
-        <v>2.8505349999999999E-2</v>
+        <v>3.103378E-2</v>
       </c>
       <c r="P23" s="17"/>
     </row>
@@ -8843,7 +8756,7 @@
         <v>20623</v>
       </c>
       <c r="E24" s="16">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F24" s="17">
         <v>50</v>
@@ -8853,83 +8766,83 @@
         <v>41</v>
       </c>
       <c r="I24" s="17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="18">
-        <v>2.7071813499999999</v>
+        <v>2.5730702499999998</v>
       </c>
       <c r="L24" s="19">
-        <v>8.8972819999999994E-2</v>
+        <v>8.9079989999999998E-2</v>
       </c>
       <c r="M24" s="19">
-        <v>26.505192399999999</v>
+        <v>26.29675246</v>
       </c>
       <c r="N24" s="18">
-        <v>6.3626509999999997E-2</v>
+        <v>6.4319150000000005E-2</v>
       </c>
       <c r="O24" s="18">
-        <v>0.28126180000000001</v>
+        <v>2.8232940000000002E-2</v>
       </c>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="16">
+        <v>359</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="17">
+        <v>20623</v>
+      </c>
+      <c r="E25" s="16">
+        <v>100</v>
+      </c>
+      <c r="F25" s="17">
+        <v>50</v>
+      </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="H25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="17">
+        <v>44</v>
+      </c>
       <c r="J25" s="17"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
+      <c r="K25" s="18">
+        <v>2.5439506600000001</v>
+      </c>
+      <c r="L25" s="19">
+        <v>8.9473739999999996E-2</v>
+      </c>
+      <c r="M25" s="19">
+        <v>25.79170701</v>
+      </c>
+      <c r="N25" s="18">
+        <v>6.3396900000000006E-2</v>
+      </c>
+      <c r="O25" s="18">
+        <v>2.9878310000000002E-2</v>
+      </c>
       <c r="P25" s="17"/>
     </row>
     <row r="26" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="16">
-        <v>359</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="17">
-        <v>20623</v>
-      </c>
-      <c r="E26" s="16">
-        <v>200</v>
-      </c>
-      <c r="F26" s="17">
-        <v>50</v>
-      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="17">
-        <v>42</v>
-      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="17"/>
-      <c r="K26" s="18">
-        <v>2.7460071899999998</v>
-      </c>
-      <c r="L26" s="19">
-        <v>9.2183089999999995E-2</v>
-      </c>
-      <c r="M26" s="19">
-        <v>24.892034760000001</v>
-      </c>
-      <c r="N26" s="18">
-        <v>6.4798869999999995E-2</v>
-      </c>
-      <c r="O26" s="18">
-        <v>2.8366659999999998E-2</v>
-      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
       <c r="P26" s="17"/>
     </row>
     <row r="27" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -8946,7 +8859,7 @@
         <v>20623</v>
       </c>
       <c r="E27" s="16">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F27" s="17">
         <v>50</v>
@@ -8956,23 +8869,23 @@
         <v>41</v>
       </c>
       <c r="I27" s="17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="18">
-        <v>2.62645778</v>
+        <v>2.6059472000000001</v>
       </c>
       <c r="L27" s="19">
-        <v>9.2957349999999994E-2</v>
+        <v>9.3150839999999999E-2</v>
       </c>
       <c r="M27" s="19">
-        <v>27.496472910000001</v>
+        <v>25.389556150000001</v>
       </c>
       <c r="N27" s="18">
-        <v>6.6762630000000003E-2</v>
+        <v>6.5763150000000006E-2</v>
       </c>
       <c r="O27" s="18">
-        <v>2.8183690000000001E-2</v>
+        <v>2.8599610000000001E-2</v>
       </c>
       <c r="P27" s="17"/>
     </row>
@@ -8990,7 +8903,7 @@
         <v>20623</v>
       </c>
       <c r="E28" s="16">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F28" s="17">
         <v>50</v>
@@ -9000,39 +8913,68 @@
         <v>41</v>
       </c>
       <c r="I28" s="17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="18">
-        <v>2.58422244</v>
+        <v>2.62839768</v>
       </c>
       <c r="L28" s="19">
-        <v>8.9633389999999993E-2</v>
+        <v>9.3004370000000003E-2</v>
       </c>
       <c r="M28" s="19">
-        <v>25.698384090000001</v>
+        <v>27.563747830000001</v>
       </c>
       <c r="N28" s="18">
-        <v>6.5222050000000004E-2</v>
+        <v>6.6826529999999995E-2</v>
       </c>
       <c r="O28" s="18">
-        <v>2.9112329999999999E-2</v>
+        <v>2.8505349999999999E-2</v>
       </c>
       <c r="P28" s="17"/>
     </row>
     <row r="29" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="16">
+        <v>359</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="17">
+        <v>20623</v>
+      </c>
+      <c r="E29" s="16">
+        <v>150</v>
+      </c>
+      <c r="F29" s="17">
+        <v>50</v>
+      </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="H29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="17">
+        <v>44</v>
+      </c>
       <c r="J29" s="17"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
+      <c r="K29" s="18">
+        <v>2.7071813499999999</v>
+      </c>
+      <c r="L29" s="19">
+        <v>8.8972819999999994E-2</v>
+      </c>
+      <c r="M29" s="19">
+        <v>26.505192399999999</v>
+      </c>
+      <c r="N29" s="18">
+        <v>6.3626509999999997E-2</v>
+      </c>
+      <c r="O29" s="18">
+        <v>0.28126180000000001</v>
+      </c>
       <c r="P29" s="17"/>
     </row>
     <row r="30" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -9050,219 +8992,201 @@
       <c r="O30" s="18"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:16" s="51" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A31" s="51" t="s">
+    <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31" s="16">
         <v>359</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="17">
+        <v>20623</v>
+      </c>
+      <c r="E31" s="16">
+        <v>200</v>
+      </c>
+      <c r="F31" s="17">
+        <v>50</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="17">
+        <v>42</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="18">
+        <v>2.7460071899999998</v>
+      </c>
+      <c r="L31" s="19">
+        <v>9.2183089999999995E-2</v>
+      </c>
+      <c r="M31" s="19">
+        <v>24.892034760000001</v>
+      </c>
+      <c r="N31" s="18">
+        <v>6.4798869999999995E-2</v>
+      </c>
+      <c r="O31" s="18">
+        <v>2.8366659999999998E-2</v>
+      </c>
+      <c r="P31" s="17"/>
+    </row>
+    <row r="32" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="16">
+        <v>359</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="17">
+        <v>20623</v>
+      </c>
+      <c r="E32" s="16">
+        <v>200</v>
+      </c>
+      <c r="F32" s="17">
+        <v>50</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="17">
+        <v>43</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="18">
+        <v>2.62645778</v>
+      </c>
+      <c r="L32" s="19">
+        <v>9.2957349999999994E-2</v>
+      </c>
+      <c r="M32" s="19">
+        <v>27.496472910000001</v>
+      </c>
+      <c r="N32" s="18">
+        <v>6.6762630000000003E-2</v>
+      </c>
+      <c r="O32" s="18">
+        <v>2.8183690000000001E-2</v>
+      </c>
+      <c r="P32" s="17"/>
+    </row>
+    <row r="33" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="16">
+        <v>359</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="17">
+        <v>20623</v>
+      </c>
+      <c r="E33" s="16">
+        <v>200</v>
+      </c>
+      <c r="F33" s="17">
+        <v>50</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="17">
+        <v>44</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="18">
+        <v>2.58422244</v>
+      </c>
+      <c r="L33" s="19">
+        <v>8.9633389999999993E-2</v>
+      </c>
+      <c r="M33" s="19">
+        <v>25.698384090000001</v>
+      </c>
+      <c r="N33" s="18">
+        <v>6.5222050000000004E-2</v>
+      </c>
+      <c r="O33" s="18">
+        <v>2.9112329999999999E-2</v>
+      </c>
+      <c r="P33" s="17"/>
+    </row>
+    <row r="34" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="17"/>
+    </row>
+    <row r="35" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="17"/>
+    </row>
+    <row r="36" spans="1:16" s="51" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A36" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="51">
+        <v>359</v>
+      </c>
+      <c r="C36" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="51">
-        <v>100</v>
-      </c>
-      <c r="F31" s="52">
-        <v>50</v>
-      </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53">
+      <c r="D36" s="52"/>
+      <c r="E36" s="51">
+        <v>100</v>
+      </c>
+      <c r="F36" s="52">
+        <v>50</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53">
         <v>2.9156070000000001</v>
       </c>
-      <c r="L31" s="54">
+      <c r="L36" s="54">
         <v>7.6269000000000003E-2</v>
       </c>
-      <c r="M31" s="54">
+      <c r="M36" s="54">
         <v>30.951245</v>
       </c>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="52"/>
-    </row>
-    <row r="32" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="20">
-        <v>359</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20">
-        <v>20</v>
-      </c>
-      <c r="F32" s="21">
-        <v>100</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="22">
-        <v>3.4064209145483701</v>
-      </c>
-      <c r="L32" s="23">
-        <v>7.8396222427316295E-2</v>
-      </c>
-      <c r="M32" s="23">
-        <v>41.742642977790702</v>
-      </c>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="21"/>
-    </row>
-    <row r="33" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="20">
-        <v>359</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="20">
-        <v>25</v>
-      </c>
-      <c r="F33" s="21">
-        <v>50</v>
-      </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="22">
-        <v>3.91654659977242</v>
-      </c>
-      <c r="L33" s="23">
-        <v>8.2863294567558601E-2</v>
-      </c>
-      <c r="M33" s="23">
-        <v>40.8570696912887</v>
-      </c>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="20">
-        <v>359</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="20">
-        <v>25</v>
-      </c>
-      <c r="F34" s="21">
-        <v>50</v>
-      </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="21">
-        <v>42</v>
-      </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="22">
-        <v>2.8736000000000002</v>
-      </c>
-      <c r="L34" s="23">
-        <v>7.5200000000000003E-2</v>
-      </c>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23">
-        <v>5.5399999999999998E-2</v>
-      </c>
-      <c r="O34" s="23">
-        <v>3.56E-2</v>
-      </c>
-      <c r="P34" s="21"/>
-    </row>
-    <row r="35" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="20">
-        <v>359</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="20">
-        <v>25</v>
-      </c>
-      <c r="F35" s="21">
-        <v>100</v>
-      </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21">
-        <v>42</v>
-      </c>
-      <c r="J35" s="21"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="21"/>
-    </row>
-    <row r="36" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="20">
-        <v>359</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="20">
-        <v>50</v>
-      </c>
-      <c r="F36" s="21">
-        <v>50</v>
-      </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21">
-        <v>42</v>
-      </c>
-      <c r="J36" s="21"/>
-      <c r="K36" s="22">
-        <v>3.7509825021879699</v>
-      </c>
-      <c r="L36" s="22">
-        <v>8.1154445008600307E-2</v>
-      </c>
-      <c r="M36" s="23">
-        <v>40.824016535194801</v>
-      </c>
-      <c r="N36" s="22">
-        <v>6.2927699250784799E-2</v>
-      </c>
-      <c r="O36" s="22">
-        <v>4.0659376813543702E-2</v>
-      </c>
-      <c r="P36" s="21"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="52"/>
     </row>
     <row r="37" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20" t="s">
@@ -9276,36 +9200,26 @@
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F37" s="21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G37" s="21"/>
-      <c r="H37" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="21">
-        <v>42</v>
-      </c>
-      <c r="J37" s="21">
-        <v>-1.8362000000000001</v>
-      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="22">
-        <v>2.87357</v>
-      </c>
-      <c r="L37" s="22">
-        <v>7.5225445811999997E-2</v>
+        <v>3.4064209145483701</v>
+      </c>
+      <c r="L37" s="23">
+        <v>7.8396222427316295E-2</v>
       </c>
       <c r="M37" s="23">
-        <v>38.354646780000003</v>
-      </c>
-      <c r="N37" s="22">
-        <v>5.5447999999999997E-2</v>
-      </c>
-      <c r="O37" s="22">
-        <v>3.56E-2</v>
-      </c>
+        <v>41.742642977790702</v>
+      </c>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
       <c r="P37" s="21"/>
     </row>
     <row r="38" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -9326,33 +9240,25 @@
         <v>50</v>
       </c>
       <c r="G38" s="21"/>
-      <c r="H38" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" s="21">
-        <v>43</v>
-      </c>
-      <c r="J38" s="21">
-        <v>-1.8318000000000001</v>
-      </c>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="22">
-        <v>2.9930344999999998</v>
-      </c>
-      <c r="L38" s="22">
-        <v>7.4949114299999994E-2</v>
+        <v>3.91654659977242</v>
+      </c>
+      <c r="L38" s="23">
+        <v>8.2863294567558601E-2</v>
       </c>
       <c r="M38" s="23">
-        <v>38.450750999999997</v>
-      </c>
-      <c r="N38" s="22">
-        <v>3.3608819999999998E-2</v>
-      </c>
-      <c r="O38" s="22">
-        <v>3.3608821849999998E-2</v>
-      </c>
-      <c r="P38" s="21"/>
-    </row>
-    <row r="39" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
+        <v>40.8570696912887</v>
+      </c>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
         <v>22</v>
       </c>
@@ -9371,268 +9277,258 @@
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I39" s="21">
-        <v>44</v>
-      </c>
-      <c r="J39" s="21">
-        <v>-1.9343999999999999</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="J39" s="21"/>
       <c r="K39" s="22">
-        <v>2.9846475570000002</v>
-      </c>
-      <c r="L39" s="22">
-        <v>7.7453543312985096E-2</v>
-      </c>
-      <c r="M39" s="23">
-        <v>49.759197200000003</v>
-      </c>
-      <c r="N39" s="22">
-        <v>5.6467573E-2</v>
-      </c>
-      <c r="O39" s="22">
-        <v>3.6168400000000003E-2</v>
+        <v>2.8736000000000002</v>
+      </c>
+      <c r="L39" s="23">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="O39" s="23">
+        <v>3.56E-2</v>
       </c>
       <c r="P39" s="21"/>
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="21"/>
+      <c r="A40" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="20">
+        <v>359</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>5</v>
+      </c>
       <c r="D40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="E40" s="20">
+        <v>25</v>
+      </c>
+      <c r="F40" s="21">
+        <v>100</v>
+      </c>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="I40" s="21">
+        <v>42</v>
+      </c>
       <c r="J40" s="21"/>
       <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
+      <c r="L40" s="23"/>
       <c r="M40" s="23"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
       <c r="P40" s="21"/>
     </row>
-    <row r="41" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="56"/>
-    </row>
-    <row r="42" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="29" t="s">
+    <row r="41" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B41" s="20">
         <v>359</v>
       </c>
-      <c r="C42" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="29">
-        <v>30</v>
-      </c>
-      <c r="F42" s="30">
-        <v>200</v>
-      </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="48">
-        <v>16.4086691296114</v>
-      </c>
-      <c r="L42" s="31">
-        <v>0.33242257333183201</v>
-      </c>
-      <c r="M42" s="31">
-        <v>617.55311544437495</v>
-      </c>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="30"/>
-    </row>
-    <row r="43" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="29" t="s">
+      <c r="C41" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="20">
+        <v>50</v>
+      </c>
+      <c r="F41" s="21">
+        <v>50</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21">
+        <v>42</v>
+      </c>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22">
+        <v>3.7509825021879699</v>
+      </c>
+      <c r="L41" s="22">
+        <v>8.1154445008600307E-2</v>
+      </c>
+      <c r="M41" s="23">
+        <v>40.824016535194801</v>
+      </c>
+      <c r="N41" s="22">
+        <v>6.2927699250784799E-2</v>
+      </c>
+      <c r="O41" s="22">
+        <v>4.0659376813543702E-2</v>
+      </c>
+      <c r="P41" s="21"/>
+    </row>
+    <row r="42" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B42" s="20">
         <v>359</v>
       </c>
-      <c r="C43" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="29">
-        <v>100</v>
-      </c>
-      <c r="F43" s="30">
-        <v>50</v>
-      </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="48">
-        <v>10.6470938985173</v>
-      </c>
-      <c r="L43" s="31">
-        <v>0.16259793191504299</v>
-      </c>
-      <c r="M43" s="31">
-        <v>393.64675336399199</v>
-      </c>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="29" t="s">
+      <c r="C42" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="20">
+        <v>25</v>
+      </c>
+      <c r="F42" s="21">
+        <v>50</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="21">
+        <v>42</v>
+      </c>
+      <c r="J42" s="21">
+        <v>-1.8362000000000001</v>
+      </c>
+      <c r="K42" s="22">
+        <v>2.87357</v>
+      </c>
+      <c r="L42" s="22">
+        <v>7.5225445811999997E-2</v>
+      </c>
+      <c r="M42" s="23">
+        <v>38.354646780000003</v>
+      </c>
+      <c r="N42" s="22">
+        <v>5.5447999999999997E-2</v>
+      </c>
+      <c r="O42" s="22">
+        <v>3.56E-2</v>
+      </c>
+      <c r="P42" s="21"/>
+    </row>
+    <row r="43" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B43" s="20">
         <v>359</v>
       </c>
-      <c r="C44" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="30">
-        <v>15386</v>
-      </c>
-      <c r="E44" s="29">
-        <v>100</v>
-      </c>
-      <c r="F44" s="30">
-        <v>50</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30">
-        <v>42</v>
-      </c>
-      <c r="J44" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="K44" s="48">
-        <v>10.72925719</v>
-      </c>
-      <c r="L44" s="31">
-        <v>0.17165316</v>
-      </c>
-      <c r="M44" s="31">
-        <v>399.04034999999999</v>
-      </c>
-      <c r="N44" s="31">
-        <v>0.14003603000000001</v>
-      </c>
-      <c r="O44" s="31">
-        <v>0.19883275</v>
-      </c>
-      <c r="P44" s="30"/>
-    </row>
-    <row r="45" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="29" t="s">
+      <c r="C43" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="20">
+        <v>25</v>
+      </c>
+      <c r="F43" s="21">
+        <v>50</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="21">
+        <v>43</v>
+      </c>
+      <c r="J43" s="21">
+        <v>-1.8318000000000001</v>
+      </c>
+      <c r="K43" s="22">
+        <v>2.9930344999999998</v>
+      </c>
+      <c r="L43" s="22">
+        <v>7.4949114299999994E-2</v>
+      </c>
+      <c r="M43" s="23">
+        <v>38.450750999999997</v>
+      </c>
+      <c r="N43" s="22">
+        <v>3.3608819999999998E-2</v>
+      </c>
+      <c r="O43" s="22">
+        <v>3.3608821849999998E-2</v>
+      </c>
+      <c r="P43" s="21"/>
+    </row>
+    <row r="44" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="29">
+      <c r="B44" s="20">
         <v>359</v>
       </c>
-      <c r="C45" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="30">
-        <v>15386</v>
-      </c>
-      <c r="E45" s="29">
-        <v>100</v>
-      </c>
-      <c r="F45" s="30">
-        <v>50</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30">
-        <v>43</v>
-      </c>
-      <c r="J45" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="K45" s="48">
-        <v>8.70306888</v>
-      </c>
-      <c r="L45" s="31">
-        <v>0.15061564999999999</v>
-      </c>
-      <c r="M45" s="31">
-        <v>320.36079999999998</v>
-      </c>
-      <c r="N45" s="31">
-        <v>0.11946370000000001</v>
-      </c>
-      <c r="O45" s="31">
-        <v>0.1698606</v>
-      </c>
-      <c r="P45" s="30"/>
-    </row>
-    <row r="46" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="29">
-        <v>359</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="30">
-        <v>15386</v>
-      </c>
-      <c r="E46" s="29">
-        <v>100</v>
-      </c>
-      <c r="F46" s="30">
-        <v>50</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30">
+      <c r="C44" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="20">
+        <v>25</v>
+      </c>
+      <c r="F44" s="21">
+        <v>50</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="21">
         <v>44</v>
       </c>
-      <c r="J46" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="K46" s="48">
-        <v>8.6578556599999992</v>
-      </c>
-      <c r="L46" s="31">
-        <v>0.149903804</v>
-      </c>
-      <c r="M46" s="31">
-        <v>317.10480432000003</v>
-      </c>
-      <c r="N46" s="31">
-        <v>0.1199678829</v>
-      </c>
-      <c r="O46" s="31">
-        <v>0.12857254000000001</v>
-      </c>
-      <c r="P46" s="30"/>
+      <c r="J44" s="21">
+        <v>-1.9343999999999999</v>
+      </c>
+      <c r="K44" s="22">
+        <v>2.9846475570000002</v>
+      </c>
+      <c r="L44" s="22">
+        <v>7.7453543312985096E-2</v>
+      </c>
+      <c r="M44" s="23">
+        <v>49.759197200000003</v>
+      </c>
+      <c r="N44" s="22">
+        <v>5.6467573E-2</v>
+      </c>
+      <c r="O44" s="22">
+        <v>3.6168400000000003E-2</v>
+      </c>
+      <c r="P44" s="21"/>
+    </row>
+    <row r="45" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="21"/>
+    </row>
+    <row r="46" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="56"/>
     </row>
     <row r="47" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="29" t="s">
@@ -9644,40 +9540,28 @@
       <c r="C47" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="30">
-        <v>15386</v>
-      </c>
+      <c r="D47" s="30"/>
       <c r="E47" s="29">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F47" s="30">
-        <v>50</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>59</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G47" s="30"/>
       <c r="H47" s="30"/>
-      <c r="I47" s="30">
-        <v>42</v>
-      </c>
-      <c r="J47" s="30" t="s">
-        <v>64</v>
-      </c>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
       <c r="K47" s="48">
-        <v>9.8130951920000005</v>
+        <v>16.4086691296114</v>
       </c>
       <c r="L47" s="31">
-        <v>0.14436733032999999</v>
+        <v>0.33242257333183201</v>
       </c>
       <c r="M47" s="31">
-        <v>362.67111507999999</v>
-      </c>
-      <c r="N47" s="31">
-        <v>0.1239341865</v>
-      </c>
-      <c r="O47" s="31">
-        <v>0.14760006882224</v>
-      </c>
+        <v>617.55311544437495</v>
+      </c>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
       <c r="P47" s="30"/>
     </row>
     <row r="48" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -9690,41 +9574,31 @@
       <c r="C48" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="30">
-        <v>15386</v>
-      </c>
+      <c r="D48" s="30"/>
       <c r="E48" s="29">
         <v>100</v>
       </c>
       <c r="F48" s="30">
         <v>50</v>
       </c>
-      <c r="G48" s="30" t="s">
-        <v>59</v>
-      </c>
+      <c r="G48" s="30"/>
       <c r="H48" s="30"/>
-      <c r="I48" s="30">
-        <v>43</v>
-      </c>
-      <c r="J48" s="30" t="s">
-        <v>65</v>
-      </c>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
       <c r="K48" s="48">
-        <v>10.7201</v>
+        <v>10.6470938985173</v>
       </c>
       <c r="L48" s="31">
-        <v>0.15218716199999999</v>
+        <v>0.16259793191504299</v>
       </c>
       <c r="M48" s="31">
-        <v>397.91272470000001</v>
-      </c>
-      <c r="N48" s="31">
-        <v>0.13509836</v>
-      </c>
-      <c r="O48" s="31">
-        <v>0.14820700000000001</v>
-      </c>
-      <c r="P48" s="30"/>
+        <v>393.64675336399199</v>
+      </c>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="30" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="49" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="29" t="s">
@@ -9746,29 +9620,29 @@
         <v>50</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="H49" s="30"/>
       <c r="I49" s="30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J49" s="30" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K49" s="48">
-        <v>11.301873363</v>
+        <v>10.72925719</v>
       </c>
       <c r="L49" s="31">
-        <v>0.15833046679500001</v>
+        <v>0.17165316</v>
       </c>
       <c r="M49" s="31">
-        <v>424.82098000000002</v>
+        <v>399.04034999999999</v>
       </c>
       <c r="N49" s="31">
-        <v>0.1439942263</v>
+        <v>0.14003603000000001</v>
       </c>
       <c r="O49" s="31">
-        <v>0.19992468332999999</v>
+        <v>0.19883275</v>
       </c>
       <c r="P49" s="30"/>
     </row>
@@ -9782,9 +9656,11 @@
       <c r="C50" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="30"/>
+      <c r="D50" s="30">
+        <v>15386</v>
+      </c>
       <c r="E50" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F50" s="30">
         <v>50</v>
@@ -9794,25 +9670,25 @@
       </c>
       <c r="H50" s="30"/>
       <c r="I50" s="30">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50" s="30" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="K50" s="48">
-        <v>7.0068327699999999</v>
+        <v>8.70306888</v>
       </c>
       <c r="L50" s="31">
-        <v>0.1410860826</v>
+        <v>0.15061564999999999</v>
       </c>
       <c r="M50" s="31">
-        <v>242.99340000000001</v>
+        <v>320.36079999999998</v>
       </c>
       <c r="N50" s="31">
-        <v>0.1072489645977</v>
+        <v>0.11946370000000001</v>
       </c>
       <c r="O50" s="31">
-        <v>0.13596631711288601</v>
+        <v>0.1698606</v>
       </c>
       <c r="P50" s="30"/>
     </row>
@@ -9826,9 +9702,11 @@
       <c r="C51" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="30"/>
+      <c r="D51" s="30">
+        <v>15386</v>
+      </c>
       <c r="E51" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F51" s="30">
         <v>50</v>
@@ -9838,25 +9716,25 @@
       </c>
       <c r="H51" s="30"/>
       <c r="I51" s="30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J51" s="30" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="K51" s="48">
-        <v>10.4104283</v>
+        <v>8.6578556599999992</v>
       </c>
       <c r="L51" s="31">
-        <v>0.16121103370000001</v>
+        <v>0.149903804</v>
       </c>
       <c r="M51" s="31">
-        <v>383.14273659999998</v>
+        <v>317.10480432000003</v>
       </c>
       <c r="N51" s="31">
-        <v>0.13422787781000001</v>
+        <v>0.1199678829</v>
       </c>
       <c r="O51" s="31">
-        <v>0.20450217478999999</v>
+        <v>0.12857254000000001</v>
       </c>
       <c r="P51" s="30"/>
     </row>
@@ -9870,37 +9748,39 @@
       <c r="C52" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="30"/>
+      <c r="D52" s="30">
+        <v>15386</v>
+      </c>
       <c r="E52" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F52" s="30">
         <v>50</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H52" s="30"/>
       <c r="I52" s="30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J52" s="30" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="K52" s="48">
-        <v>6.6518347999999996</v>
+        <v>9.8130951920000005</v>
       </c>
       <c r="L52" s="31">
-        <v>0.1363467656</v>
+        <v>0.14436733032999999</v>
       </c>
       <c r="M52" s="31">
-        <v>235.68489199999999</v>
+        <v>362.67111507999999</v>
       </c>
       <c r="N52" s="31">
-        <v>0.10500094</v>
+        <v>0.1239341865</v>
       </c>
       <c r="O52" s="31">
-        <v>0.111953526641</v>
+        <v>0.14760006882224</v>
       </c>
       <c r="P52" s="30"/>
     </row>
@@ -9914,9 +9794,11 @@
       <c r="C53" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="30"/>
+      <c r="D53" s="30">
+        <v>15386</v>
+      </c>
       <c r="E53" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F53" s="30">
         <v>50</v>
@@ -9926,25 +9808,25 @@
       </c>
       <c r="H53" s="30"/>
       <c r="I53" s="30">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J53" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K53" s="48">
-        <v>10.777133299999999</v>
+        <v>10.7201</v>
       </c>
       <c r="L53" s="31">
-        <v>0.15160085717899999</v>
+        <v>0.15218716199999999</v>
       </c>
       <c r="M53" s="31">
-        <v>388.39005049000002</v>
+        <v>397.91272470000001</v>
       </c>
       <c r="N53" s="31">
-        <v>0.13713900000000001</v>
+        <v>0.13509836</v>
       </c>
       <c r="O53" s="31">
-        <v>0.17569008999999999</v>
+        <v>0.14820700000000001</v>
       </c>
       <c r="P53" s="30"/>
     </row>
@@ -9958,9 +9840,11 @@
       <c r="C54" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="30"/>
+      <c r="D54" s="30">
+        <v>15386</v>
+      </c>
       <c r="E54" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F54" s="30">
         <v>50</v>
@@ -9970,25 +9854,25 @@
       </c>
       <c r="H54" s="30"/>
       <c r="I54" s="30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J54" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K54" s="48">
-        <v>13.435300059999999</v>
+        <v>11.301873363</v>
       </c>
       <c r="L54" s="31">
-        <v>0.1686590312</v>
+        <v>0.15833046679500001</v>
       </c>
       <c r="M54" s="31">
-        <v>497.068063</v>
+        <v>424.82098000000002</v>
       </c>
       <c r="N54" s="31">
-        <v>0.15986739</v>
+        <v>0.1439942263</v>
       </c>
       <c r="O54" s="31">
-        <v>0.24110281</v>
+        <v>0.19992468332999999</v>
       </c>
       <c r="P54" s="30"/>
     </row>
@@ -10010,33 +9894,31 @@
         <v>50</v>
       </c>
       <c r="G55" s="30" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="H55" s="30"/>
       <c r="I55" s="30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J55" s="30" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="K55" s="48">
-        <v>8.203103037</v>
+        <v>7.0068327699999999</v>
       </c>
       <c r="L55" s="31">
-        <v>0.13523108643000001</v>
+        <v>0.1410860826</v>
       </c>
       <c r="M55" s="31">
-        <v>297.015107</v>
+        <v>242.99340000000001</v>
       </c>
       <c r="N55" s="31">
-        <v>0.1154689012163</v>
+        <v>0.1072489645977</v>
       </c>
       <c r="O55" s="31">
-        <v>0.13334746144689999</v>
-      </c>
-      <c r="P55" s="30" t="s">
-        <v>70</v>
-      </c>
+        <v>0.13596631711288601</v>
+      </c>
+      <c r="P55" s="30"/>
     </row>
     <row r="56" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="29" t="s">
@@ -10050,7 +9932,7 @@
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="29">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F56" s="30">
         <v>50</v>
@@ -10060,25 +9942,25 @@
       </c>
       <c r="H56" s="30"/>
       <c r="I56" s="30">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J56" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K56" s="48">
-        <v>6.0037757300000001</v>
+        <v>10.4104283</v>
       </c>
       <c r="L56" s="31">
-        <v>0.13354533392000001</v>
+        <v>0.16121103370000001</v>
       </c>
       <c r="M56" s="31">
-        <v>202.38707400000001</v>
+        <v>383.14273659999998</v>
       </c>
       <c r="N56" s="31">
-        <v>9.9980812390999999E-2</v>
+        <v>0.13422787781000001</v>
       </c>
       <c r="O56" s="31">
-        <v>0.105768997</v>
+        <v>0.20450217478999999</v>
       </c>
       <c r="P56" s="30"/>
     </row>
@@ -10094,7 +9976,7 @@
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="29">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F57" s="30">
         <v>50</v>
@@ -10104,29 +9986,27 @@
       </c>
       <c r="H57" s="30"/>
       <c r="I57" s="30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J57" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K57" s="48">
-        <v>6.7529000000000003</v>
+        <v>6.6518347999999996</v>
       </c>
       <c r="L57" s="31">
-        <v>0.13807778000000001</v>
+        <v>0.1363467656</v>
       </c>
       <c r="M57" s="31">
-        <v>235.721982</v>
+        <v>235.68489199999999</v>
       </c>
       <c r="N57" s="31">
-        <v>0.10508633852</v>
+        <v>0.10500094</v>
       </c>
       <c r="O57" s="31">
-        <v>0.13425699999999999</v>
-      </c>
-      <c r="P57" s="30" t="s">
-        <v>109</v>
-      </c>
+        <v>0.111953526641</v>
+      </c>
+      <c r="P57" s="30"/>
     </row>
     <row r="58" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="29" t="s">
@@ -10140,39 +10020,37 @@
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="29">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F58" s="30">
         <v>50</v>
       </c>
       <c r="G58" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H58" s="30"/>
       <c r="I58" s="30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J58" s="30" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="K58" s="48">
-        <v>6.5235595960000001</v>
+        <v>10.777133299999999</v>
       </c>
       <c r="L58" s="31">
-        <v>0.13687478</v>
+        <v>0.15160085717899999</v>
       </c>
       <c r="M58" s="31">
-        <v>229.5551773</v>
+        <v>388.39005049000002</v>
       </c>
       <c r="N58" s="31">
-        <v>0.10425140711</v>
+        <v>0.13713900000000001</v>
       </c>
       <c r="O58" s="31">
-        <v>0.12286002976</v>
-      </c>
-      <c r="P58" s="30" t="s">
-        <v>90</v>
-      </c>
+        <v>0.17569008999999999</v>
+      </c>
+      <c r="P58" s="30"/>
     </row>
     <row r="59" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="29" t="s">
@@ -10186,35 +10064,35 @@
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="29">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F59" s="30">
         <v>50</v>
       </c>
       <c r="G59" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H59" s="30"/>
       <c r="I59" s="30">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J59" s="30" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="K59" s="48">
-        <v>6.0480154945965898</v>
+        <v>13.435300059999999</v>
       </c>
       <c r="L59" s="31">
-        <v>0.13436759700000001</v>
+        <v>0.1686590312</v>
       </c>
       <c r="M59" s="31">
-        <v>204.10647334622101</v>
+        <v>497.068063</v>
       </c>
       <c r="N59" s="31">
-        <v>9.9972291687000003E-2</v>
+        <v>0.15986739</v>
       </c>
       <c r="O59" s="31">
-        <v>0.1193044315</v>
+        <v>0.24110281</v>
       </c>
       <c r="P59" s="30"/>
     </row>
@@ -10230,38 +10108,38 @@
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="29">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F60" s="30">
         <v>50</v>
       </c>
       <c r="G60" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H60" s="30"/>
       <c r="I60" s="30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J60" s="30" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="K60" s="48">
-        <v>5.8031484197780001</v>
+        <v>8.203103037</v>
       </c>
       <c r="L60" s="31">
-        <v>0.13233995766000001</v>
+        <v>0.13523108643000001</v>
       </c>
       <c r="M60" s="31">
-        <v>198.46312169999999</v>
+        <v>297.015107</v>
       </c>
       <c r="N60" s="31">
-        <v>9.7379352919999995E-2</v>
+        <v>0.1154689012163</v>
       </c>
       <c r="O60" s="31">
-        <v>0.1104060288897</v>
+        <v>0.13334746144689999</v>
       </c>
       <c r="P60" s="30" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -10276,7 +10154,7 @@
       </c>
       <c r="D61" s="30"/>
       <c r="E61" s="29">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F61" s="30">
         <v>50</v>
@@ -10286,29 +10164,27 @@
       </c>
       <c r="H61" s="30"/>
       <c r="I61" s="30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J61" s="30" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K61" s="48">
-        <v>6.3514216254780003</v>
+        <v>6.0037757300000001</v>
       </c>
       <c r="L61" s="31">
-        <v>0.13588432959999999</v>
+        <v>0.13354533392000001</v>
       </c>
       <c r="M61" s="31">
-        <v>222.15603369999999</v>
+        <v>202.38707400000001</v>
       </c>
       <c r="N61" s="31">
-        <v>0.102937979065264</v>
+        <v>9.9980812390999999E-2</v>
       </c>
       <c r="O61" s="31">
-        <v>0.1176336321</v>
-      </c>
-      <c r="P61" s="30" t="s">
-        <v>110</v>
-      </c>
+        <v>0.105768997</v>
+      </c>
+      <c r="P61" s="30"/>
     </row>
     <row r="62" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="29" t="s">
@@ -10322,7 +10198,7 @@
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="29">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F62" s="30">
         <v>50</v>
@@ -10332,28 +10208,28 @@
       </c>
       <c r="H62" s="30"/>
       <c r="I62" s="30">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J62" s="30" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K62" s="48">
-        <v>6.3662508004899996</v>
+        <v>6.7529000000000003</v>
       </c>
       <c r="L62" s="31">
-        <v>0.13638056133099999</v>
+        <v>0.13807778000000001</v>
       </c>
       <c r="M62" s="31">
-        <v>214.22368589999999</v>
+        <v>235.721982</v>
       </c>
       <c r="N62" s="31">
-        <v>0.10215334849954601</v>
+        <v>0.10508633852</v>
       </c>
       <c r="O62" s="31">
-        <v>0.12729306600000001</v>
+        <v>0.13425699999999999</v>
       </c>
       <c r="P62" s="30" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -10368,7 +10244,7 @@
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="29">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F63" s="30">
         <v>50</v>
@@ -10378,28 +10254,28 @@
       </c>
       <c r="H63" s="30"/>
       <c r="I63" s="30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J63" s="30" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K63" s="48">
-        <v>6.1100263300000002</v>
+        <v>6.5235595960000001</v>
       </c>
       <c r="L63" s="31">
-        <v>0.13559048050521999</v>
+        <v>0.13687478</v>
       </c>
       <c r="M63" s="31">
-        <v>207.16347017870001</v>
+        <v>229.5551773</v>
       </c>
       <c r="N63" s="31">
-        <v>0.1007289141</v>
+        <v>0.10425140711</v>
       </c>
       <c r="O63" s="31">
-        <v>0.1227116273</v>
+        <v>0.12286002976</v>
       </c>
       <c r="P63" s="30" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -10414,7 +10290,7 @@
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="29">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F64" s="30">
         <v>50</v>
@@ -10424,31 +10300,29 @@
       </c>
       <c r="H64" s="30"/>
       <c r="I64" s="30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J64" s="30" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K64" s="48">
-        <v>6.4098323160000001</v>
+        <v>6.0480154945965898</v>
       </c>
       <c r="L64" s="31">
-        <v>0.13621652086789601</v>
+        <v>0.13436759700000001</v>
       </c>
       <c r="M64" s="31">
-        <v>221.59657753168699</v>
+        <v>204.10647334622101</v>
       </c>
       <c r="N64" s="31">
-        <v>0.10367467649999999</v>
+        <v>9.9972291687000003E-2</v>
       </c>
       <c r="O64" s="31">
-        <v>0.11636274752</v>
-      </c>
-      <c r="P64" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>0.1193044315</v>
+      </c>
+      <c r="P64" s="30"/>
+    </row>
+    <row r="65" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="29" t="s">
         <v>22</v>
       </c>
@@ -10460,41 +10334,41 @@
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="29">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F65" s="30">
         <v>50</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H65" s="30" t="s">
-        <v>71</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H65" s="30"/>
       <c r="I65" s="30">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J65" s="30" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="K65" s="48">
-        <v>16.03567439</v>
+        <v>5.8031484197780001</v>
       </c>
       <c r="L65" s="31">
-        <v>0.19248364176999999</v>
+        <v>0.13233995766000001</v>
       </c>
       <c r="M65" s="31">
-        <v>608.59690000000001</v>
+        <v>198.46312169999999</v>
       </c>
       <c r="N65" s="31">
-        <v>0.18296665300000001</v>
+        <v>9.7379352919999995E-2</v>
       </c>
       <c r="O65" s="31">
-        <v>9.2035199999999998E-2</v>
-      </c>
-      <c r="P65" s="30"/>
-    </row>
-    <row r="66" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>0.1104060288897</v>
+      </c>
+      <c r="P65" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="29" t="s">
         <v>22</v>
       </c>
@@ -10506,41 +10380,41 @@
       </c>
       <c r="D66" s="30"/>
       <c r="E66" s="29">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F66" s="30">
         <v>50</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H66" s="30" t="s">
-        <v>71</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H66" s="30"/>
       <c r="I66" s="30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J66" s="30" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="K66" s="48">
-        <v>13.1316805753334</v>
+        <v>6.3514216254780003</v>
       </c>
       <c r="L66" s="31">
-        <v>0.16609676600000001</v>
+        <v>0.13588432959999999</v>
       </c>
       <c r="M66" s="31">
-        <v>493.88312776250001</v>
+        <v>222.15603369999999</v>
       </c>
       <c r="N66" s="31">
-        <v>0.15641527599999999</v>
+        <v>0.102937979065264</v>
       </c>
       <c r="O66" s="31">
-        <v>0.22446119091799999</v>
-      </c>
-      <c r="P66" s="30"/>
-    </row>
-    <row r="67" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>0.1176336321</v>
+      </c>
+      <c r="P66" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="29" t="s">
         <v>22</v>
       </c>
@@ -10552,41 +10426,41 @@
       </c>
       <c r="D67" s="30"/>
       <c r="E67" s="29">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F67" s="30">
         <v>50</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>71</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H67" s="30"/>
       <c r="I67" s="30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J67" s="30" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="K67" s="48">
-        <v>10.235079600000001</v>
+        <v>6.3662508004899996</v>
       </c>
       <c r="L67" s="31">
-        <v>0.14844508109999999</v>
+        <v>0.13638056133099999</v>
       </c>
       <c r="M67" s="31">
-        <v>379.2915809639</v>
+        <v>214.22368589999999</v>
       </c>
       <c r="N67" s="31">
-        <v>0.13010842297700001</v>
+        <v>0.10215334849954601</v>
       </c>
       <c r="O67" s="31">
-        <v>0.15398893</v>
-      </c>
-      <c r="P67" s="30"/>
-    </row>
-    <row r="68" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>0.12729306600000001</v>
+      </c>
+      <c r="P67" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="29" t="s">
         <v>22</v>
       </c>
@@ -10596,47 +10470,43 @@
       <c r="C68" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="30">
-        <v>36026</v>
-      </c>
+      <c r="D68" s="30"/>
       <c r="E68" s="29">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F68" s="30">
         <v>50</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H68" s="30" t="s">
-        <v>75</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H68" s="30"/>
       <c r="I68" s="30">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J68" s="30" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="K68" s="48">
-        <v>13.049903618</v>
+        <v>6.1100263300000002</v>
       </c>
       <c r="L68" s="31">
-        <v>0.16334450726499999</v>
+        <v>0.13559048050521999</v>
       </c>
       <c r="M68" s="31">
-        <v>489.60770477</v>
+        <v>207.16347017870001</v>
       </c>
       <c r="N68" s="31">
-        <v>0.15213711999999999</v>
+        <v>0.1007289141</v>
       </c>
       <c r="O68" s="31">
-        <v>0.22023529</v>
+        <v>0.1227116273</v>
       </c>
       <c r="P68" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="29" t="s">
         <v>22</v>
       </c>
@@ -10646,43 +10516,41 @@
       <c r="C69" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="30">
-        <v>36026</v>
-      </c>
+      <c r="D69" s="30"/>
       <c r="E69" s="29">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F69" s="30">
         <v>50</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H69" s="30" t="s">
-        <v>75</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H69" s="30"/>
       <c r="I69" s="30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J69" s="30" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="K69" s="48">
-        <v>12.451769173000001</v>
+        <v>6.4098323160000001</v>
       </c>
       <c r="L69" s="31">
-        <v>0.164850369</v>
+        <v>0.13621652086789601</v>
       </c>
       <c r="M69" s="31">
-        <v>464.64618866439997</v>
+        <v>221.59657753168699</v>
       </c>
       <c r="N69" s="31">
-        <v>0.14817509353</v>
+        <v>0.10367467649999999</v>
       </c>
       <c r="O69" s="31">
-        <v>0.11641990000000001</v>
-      </c>
-      <c r="P69" s="30"/>
+        <v>0.11636274752</v>
+      </c>
+      <c r="P69" s="30" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="70" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="29" t="s">
@@ -10694,9 +10562,7 @@
       <c r="C70" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="30">
-        <v>36026</v>
-      </c>
+      <c r="D70" s="30"/>
       <c r="E70" s="29">
         <v>100</v>
       </c>
@@ -10707,32 +10573,30 @@
         <v>59</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I70" s="30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J70" s="30" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K70" s="48">
-        <v>11.494593650000001</v>
+        <v>16.03567439</v>
       </c>
       <c r="L70" s="31">
-        <v>0.16233112099999999</v>
+        <v>0.19248364176999999</v>
       </c>
       <c r="M70" s="31">
-        <v>428.71738231559999</v>
+        <v>608.59690000000001</v>
       </c>
       <c r="N70" s="31">
-        <v>0.14881399170000001</v>
+        <v>0.18296665300000001</v>
       </c>
       <c r="O70" s="31">
-        <v>0.15006207299999999</v>
-      </c>
-      <c r="P70" s="30" t="s">
-        <v>80</v>
-      </c>
+        <v>9.2035199999999998E-2</v>
+      </c>
+      <c r="P70" s="30"/>
     </row>
     <row r="71" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="29" t="s">
@@ -10744,9 +10608,7 @@
       <c r="C71" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="30">
-        <v>36026</v>
-      </c>
+      <c r="D71" s="30"/>
       <c r="E71" s="29">
         <v>100</v>
       </c>
@@ -10754,35 +10616,33 @@
         <v>50</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I71" s="30">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J71" s="30" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K71" s="48">
-        <v>9.2177558292892599</v>
+        <v>13.1316805753334</v>
       </c>
       <c r="L71" s="31">
-        <v>0.15530897499999999</v>
+        <v>0.16609676600000001</v>
       </c>
       <c r="M71" s="31">
-        <v>336.53670481749998</v>
+        <v>493.88312776250001</v>
       </c>
       <c r="N71" s="31">
-        <v>0.12377701319999999</v>
+        <v>0.15641527599999999</v>
       </c>
       <c r="O71" s="31">
-        <v>0.14835202777000001</v>
-      </c>
-      <c r="P71" s="30" t="s">
-        <v>82</v>
-      </c>
+        <v>0.22446119091799999</v>
+      </c>
+      <c r="P71" s="30"/>
     </row>
     <row r="72" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="29" t="s">
@@ -10794,9 +10654,7 @@
       <c r="C72" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="30">
-        <v>36026</v>
-      </c>
+      <c r="D72" s="30"/>
       <c r="E72" s="29">
         <v>100</v>
       </c>
@@ -10804,35 +10662,33 @@
         <v>50</v>
       </c>
       <c r="G72" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H72" s="30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I72" s="30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J72" s="30" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K72" s="48">
-        <v>8.8180738600000002</v>
+        <v>10.235079600000001</v>
       </c>
       <c r="L72" s="31">
-        <v>0.15258193145000001</v>
+        <v>0.14844508109999999</v>
       </c>
       <c r="M72" s="31">
-        <v>320.78373590000001</v>
+        <v>379.2915809639</v>
       </c>
       <c r="N72" s="31">
-        <v>0.119732472777</v>
+        <v>0.13010842297700001</v>
       </c>
       <c r="O72" s="31">
-        <v>0.12166320679000001</v>
-      </c>
-      <c r="P72" s="30" t="s">
-        <v>82</v>
-      </c>
+        <v>0.15398893</v>
+      </c>
+      <c r="P72" s="30"/>
     </row>
     <row r="73" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="29" t="s">
@@ -10854,33 +10710,35 @@
         <v>50</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H73" s="30" t="s">
         <v>75</v>
       </c>
       <c r="I73" s="30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J73" s="30" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K73" s="48">
-        <v>9.5201403300000003</v>
+        <v>13.049903618</v>
       </c>
       <c r="L73" s="31">
-        <v>0.15704856580000001</v>
+        <v>0.16334450726499999</v>
       </c>
       <c r="M73" s="31">
-        <v>351.93521199999998</v>
+        <v>489.60770477</v>
       </c>
       <c r="N73" s="31">
-        <v>0.127459316982</v>
+        <v>0.15213711999999999</v>
       </c>
       <c r="O73" s="31">
-        <v>0.14563675970000001</v>
-      </c>
-      <c r="P73" s="30"/>
+        <v>0.22023529</v>
+      </c>
+      <c r="P73" s="30" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="74" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="29" t="s">
@@ -10896,41 +10754,39 @@
         <v>36026</v>
       </c>
       <c r="E74" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F74" s="30">
         <v>50</v>
       </c>
       <c r="G74" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H74" s="30" t="s">
         <v>75</v>
       </c>
       <c r="I74" s="30">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J74" s="30" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K74" s="48">
-        <v>8.7639375584000003</v>
+        <v>12.451769173000001</v>
       </c>
       <c r="L74" s="31">
-        <v>0.1464821889</v>
+        <v>0.164850369</v>
       </c>
       <c r="M74" s="31">
-        <v>306.15048400000001</v>
+        <v>464.64618866439997</v>
       </c>
       <c r="N74" s="31">
-        <v>0.11912004599999999</v>
+        <v>0.14817509353</v>
       </c>
       <c r="O74" s="31">
-        <v>0.1165984</v>
-      </c>
-      <c r="P74" s="30" t="s">
-        <v>86</v>
-      </c>
+        <v>0.11641990000000001</v>
+      </c>
+      <c r="P74" s="30"/>
     </row>
     <row r="75" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="29" t="s">
@@ -10946,39 +10802,41 @@
         <v>36026</v>
       </c>
       <c r="E75" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F75" s="30">
         <v>50</v>
       </c>
       <c r="G75" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H75" s="30" t="s">
         <v>75</v>
       </c>
       <c r="I75" s="30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J75" s="30" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K75" s="48">
-        <v>5.9195519499999998</v>
+        <v>11.494593650000001</v>
       </c>
       <c r="L75" s="31">
-        <v>0.13428054277910001</v>
+        <v>0.16233112099999999</v>
       </c>
       <c r="M75" s="31">
-        <v>215.18027860000001</v>
+        <v>428.71738231559999</v>
       </c>
       <c r="N75" s="31">
-        <v>9.9630746399999998E-2</v>
+        <v>0.14881399170000001</v>
       </c>
       <c r="O75" s="31">
-        <v>0.12214474995000001</v>
-      </c>
-      <c r="P75" s="30"/>
+        <v>0.15006207299999999</v>
+      </c>
+      <c r="P75" s="30" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="76" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="29" t="s">
@@ -10994,7 +10852,7 @@
         <v>36026</v>
       </c>
       <c r="E76" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F76" s="30">
         <v>50</v>
@@ -11006,28 +10864,28 @@
         <v>75</v>
       </c>
       <c r="I76" s="30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J76" s="30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K76" s="48">
-        <v>6.4270546235561099</v>
+        <v>9.2177558292892599</v>
       </c>
       <c r="L76" s="31">
-        <v>0.1362724863</v>
+        <v>0.15530897499999999</v>
       </c>
       <c r="M76" s="31">
-        <v>220.17643247870001</v>
+        <v>336.53670481749998</v>
       </c>
       <c r="N76" s="31">
-        <v>0.1041889</v>
+        <v>0.12377701319999999</v>
       </c>
       <c r="O76" s="31">
-        <v>0.124968</v>
+        <v>0.14835202777000001</v>
       </c>
       <c r="P76" s="30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -11044,7 +10902,7 @@
         <v>36026</v>
       </c>
       <c r="E77" s="29">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F77" s="30">
         <v>50</v>
@@ -11056,28 +10914,28 @@
         <v>75</v>
       </c>
       <c r="I77" s="30">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J77" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K77" s="48">
-        <v>8.5027600794700007</v>
+        <v>8.8180738600000002</v>
       </c>
       <c r="L77" s="31">
-        <v>0.1513447</v>
+        <v>0.15258193145000001</v>
       </c>
       <c r="M77" s="31">
-        <v>286.82485454099998</v>
+        <v>320.78373590000001</v>
       </c>
       <c r="N77" s="31">
-        <v>0.1215094897</v>
+        <v>0.119732472777</v>
       </c>
       <c r="O77" s="31">
-        <v>0.16064863500000001</v>
+        <v>0.12166320679000001</v>
       </c>
       <c r="P77" s="30" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -11094,7 +10952,7 @@
         <v>36026</v>
       </c>
       <c r="E78" s="29">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F78" s="30">
         <v>50</v>
@@ -11106,29 +10964,27 @@
         <v>75</v>
       </c>
       <c r="I78" s="30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J78" s="30" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K78" s="48">
-        <v>6.8753833000000002</v>
+        <v>9.5201403300000003</v>
       </c>
       <c r="L78" s="31">
-        <v>0.13872980300000001</v>
+        <v>0.15704856580000001</v>
       </c>
       <c r="M78" s="31">
-        <v>238.88609379869999</v>
+        <v>351.93521199999998</v>
       </c>
       <c r="N78" s="31">
-        <v>0.10595060620000001</v>
+        <v>0.127459316982</v>
       </c>
       <c r="O78" s="31">
-        <v>0.13758655</v>
-      </c>
-      <c r="P78" s="30" t="s">
-        <v>49</v>
-      </c>
+        <v>0.14563675970000001</v>
+      </c>
+      <c r="P78" s="30"/>
     </row>
     <row r="79" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="29" t="s">
@@ -11144,7 +11000,7 @@
         <v>36026</v>
       </c>
       <c r="E79" s="29">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F79" s="30">
         <v>50</v>
@@ -11156,28 +11012,28 @@
         <v>75</v>
       </c>
       <c r="I79" s="30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J79" s="30" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K79" s="48">
-        <v>5.9290777628000004</v>
+        <v>8.7639375584000003</v>
       </c>
       <c r="L79" s="31">
-        <v>0.1337927562</v>
+        <v>0.1464821889</v>
       </c>
       <c r="M79" s="31">
-        <v>202.75682741675999</v>
+        <v>306.15048400000001</v>
       </c>
       <c r="N79" s="31">
-        <v>9.95973E-2</v>
+        <v>0.11912004599999999</v>
       </c>
       <c r="O79" s="31">
-        <v>0.1150489655</v>
+        <v>0.1165984</v>
       </c>
       <c r="P79" s="30" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -11194,7 +11050,7 @@
         <v>36026</v>
       </c>
       <c r="E80" s="29">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F80" s="30">
         <v>50</v>
@@ -11206,29 +11062,27 @@
         <v>75</v>
       </c>
       <c r="I80" s="30">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J80" s="30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K80" s="48">
-        <v>7.7544706999999997</v>
+        <v>5.9195519499999998</v>
       </c>
       <c r="L80" s="31">
-        <v>0.14208837590000001</v>
+        <v>0.13428054277910001</v>
       </c>
       <c r="M80" s="31">
-        <v>245.13032999999999</v>
+        <v>215.18027860000001</v>
       </c>
       <c r="N80" s="31">
-        <v>0.11294001300000001</v>
+        <v>9.9630746399999998E-2</v>
       </c>
       <c r="O80" s="31">
-        <v>0.112643663</v>
-      </c>
-      <c r="P80" s="30" t="s">
-        <v>94</v>
-      </c>
+        <v>0.12214474995000001</v>
+      </c>
+      <c r="P80" s="30"/>
     </row>
     <row r="81" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="29" t="s">
@@ -11244,7 +11098,7 @@
         <v>36026</v>
       </c>
       <c r="E81" s="29">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F81" s="30">
         <v>50</v>
@@ -11256,28 +11110,28 @@
         <v>75</v>
       </c>
       <c r="I81" s="30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J81" s="30" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K81" s="48">
-        <v>6.5236116749999997</v>
+        <v>6.4270546235561099</v>
       </c>
       <c r="L81" s="31">
-        <v>0.13760903120000001</v>
+        <v>0.1362724863</v>
       </c>
       <c r="M81" s="31">
-        <v>226.004137794</v>
+        <v>220.17643247870001</v>
       </c>
       <c r="N81" s="31">
-        <v>0.10323072749999999</v>
+        <v>0.1041889</v>
       </c>
       <c r="O81" s="31">
-        <v>0.13298252171</v>
+        <v>0.124968</v>
       </c>
       <c r="P81" s="30" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -11294,7 +11148,7 @@
         <v>36026</v>
       </c>
       <c r="E82" s="29">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F82" s="30">
         <v>50</v>
@@ -11306,28 +11160,28 @@
         <v>75</v>
       </c>
       <c r="I82" s="30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J82" s="30" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K82" s="48">
-        <v>6.4351203300000002</v>
+        <v>8.5027600794700007</v>
       </c>
       <c r="L82" s="31">
-        <v>0.13660269999999999</v>
+        <v>0.1513447</v>
       </c>
       <c r="M82" s="31">
-        <v>225.99700744</v>
+        <v>286.82485454099998</v>
       </c>
       <c r="N82" s="31">
-        <v>0.1025999177</v>
+        <v>0.1215094897</v>
       </c>
       <c r="O82" s="31">
-        <v>0.13147640576</v>
+        <v>0.16064863500000001</v>
       </c>
       <c r="P82" s="30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -11344,7 +11198,7 @@
         <v>36026</v>
       </c>
       <c r="E83" s="29">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F83" s="30">
         <v>50</v>
@@ -11356,18 +11210,28 @@
         <v>75</v>
       </c>
       <c r="I83" s="30">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J83" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="K83" s="48"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="31"/>
-      <c r="O83" s="31"/>
+        <v>91</v>
+      </c>
+      <c r="K83" s="48">
+        <v>6.8753833000000002</v>
+      </c>
+      <c r="L83" s="31">
+        <v>0.13872980300000001</v>
+      </c>
+      <c r="M83" s="31">
+        <v>238.88609379869999</v>
+      </c>
+      <c r="N83" s="31">
+        <v>0.10595060620000001</v>
+      </c>
+      <c r="O83" s="31">
+        <v>0.13758655</v>
+      </c>
       <c r="P83" s="30" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -11384,7 +11248,7 @@
         <v>36026</v>
       </c>
       <c r="E84" s="29">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F84" s="30">
         <v>50</v>
@@ -11396,28 +11260,28 @@
         <v>75</v>
       </c>
       <c r="I84" s="30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J84" s="30" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="K84" s="48">
-        <v>6.3533495029999996</v>
+        <v>5.9290777628000004</v>
       </c>
       <c r="L84" s="31">
-        <v>0.136336100392</v>
+        <v>0.1337927562</v>
       </c>
       <c r="M84" s="31">
-        <v>205.8732279976</v>
+        <v>202.75682741675999</v>
       </c>
       <c r="N84" s="31">
-        <v>0.102302975</v>
+        <v>9.95973E-2</v>
       </c>
       <c r="O84" s="31">
-        <v>0.12459551174</v>
+        <v>0.1150489655</v>
       </c>
       <c r="P84" s="30" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -11434,7 +11298,7 @@
         <v>36026</v>
       </c>
       <c r="E85" s="29">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F85" s="30">
         <v>50</v>
@@ -11446,46 +11310,81 @@
         <v>75</v>
       </c>
       <c r="I85" s="30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J85" s="30" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K85" s="48">
-        <v>6.262308429</v>
+        <v>7.7544706999999997</v>
       </c>
       <c r="L85" s="31">
-        <v>0.136035616</v>
+        <v>0.14208837590000001</v>
       </c>
       <c r="M85" s="31">
-        <v>209.7571959</v>
+        <v>245.13032999999999</v>
       </c>
       <c r="N85" s="31">
-        <v>0.10172748</v>
+        <v>0.11294001300000001</v>
       </c>
       <c r="O85" s="31">
-        <v>0.12534682</v>
+        <v>0.112643663</v>
       </c>
       <c r="P85" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="31"/>
-      <c r="M86" s="31"/>
-      <c r="N86" s="31"/>
-      <c r="O86" s="31"/>
-      <c r="P86" s="30"/>
-    </row>
-    <row r="87" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="29">
+        <v>359</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="30">
+        <v>36026</v>
+      </c>
+      <c r="E86" s="29">
+        <v>250</v>
+      </c>
+      <c r="F86" s="30">
+        <v>50</v>
+      </c>
+      <c r="G86" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H86" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I86" s="30">
+        <v>43</v>
+      </c>
+      <c r="J86" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="K86" s="48">
+        <v>6.5236116749999997</v>
+      </c>
+      <c r="L86" s="31">
+        <v>0.13760903120000001</v>
+      </c>
+      <c r="M86" s="31">
+        <v>226.004137794</v>
+      </c>
+      <c r="N86" s="31">
+        <v>0.10323072749999999</v>
+      </c>
+      <c r="O86" s="31">
+        <v>0.13298252171</v>
+      </c>
+      <c r="P86" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="29" t="s">
         <v>22</v>
       </c>
@@ -11495,33 +11394,47 @@
       <c r="C87" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="30"/>
+      <c r="D87" s="30">
+        <v>36026</v>
+      </c>
       <c r="E87" s="29">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F87" s="30">
-        <v>100</v>
-      </c>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
+        <v>50</v>
+      </c>
+      <c r="G87" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H87" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I87" s="30">
+        <v>44</v>
+      </c>
+      <c r="J87" s="30" t="s">
+        <v>97</v>
+      </c>
       <c r="K87" s="48">
-        <v>17.9047409798229</v>
+        <v>6.4351203300000002</v>
       </c>
       <c r="L87" s="31">
-        <v>0.33365163476690102</v>
+        <v>0.13660269999999999</v>
       </c>
       <c r="M87" s="31">
-        <v>655.79579474316597</v>
-      </c>
-      <c r="N87" s="31"/>
-      <c r="O87" s="31"/>
+        <v>225.99700744</v>
+      </c>
+      <c r="N87" s="31">
+        <v>0.1025999177</v>
+      </c>
+      <c r="O87" s="31">
+        <v>0.13147640576</v>
+      </c>
       <c r="P87" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="29" t="s">
         <v>22</v>
       </c>
@@ -11531,37 +11444,37 @@
       <c r="C88" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="30"/>
+      <c r="D88" s="30">
+        <v>36026</v>
+      </c>
       <c r="E88" s="29">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F88" s="30">
         <v>50</v>
       </c>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
+      <c r="G88" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H88" s="30" t="s">
+        <v>75</v>
+      </c>
       <c r="I88" s="30">
         <v>42</v>
       </c>
-      <c r="J88" s="30"/>
-      <c r="K88" s="48">
-        <v>10.7292571932171</v>
-      </c>
-      <c r="L88" s="48">
-        <v>0.17132259999999999</v>
-      </c>
-      <c r="M88" s="31">
-        <v>399.04035499999998</v>
-      </c>
-      <c r="N88" s="31">
-        <v>0.14003603048261601</v>
-      </c>
-      <c r="O88" s="31">
-        <v>0.19883275249999999</v>
-      </c>
-      <c r="P88" s="30"/>
-    </row>
-    <row r="89" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J88" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="K88" s="48"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
+      <c r="O88" s="31"/>
+      <c r="P88" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="29" t="s">
         <v>22</v>
       </c>
@@ -11571,37 +11484,47 @@
       <c r="C89" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="30"/>
+      <c r="D89" s="30">
+        <v>36026</v>
+      </c>
       <c r="E89" s="29">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F89" s="30">
-        <v>100</v>
-      </c>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
+        <v>50</v>
+      </c>
+      <c r="G89" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H89" s="30" t="s">
+        <v>75</v>
+      </c>
       <c r="I89" s="30">
-        <v>42</v>
-      </c>
-      <c r="J89" s="30"/>
+        <v>43</v>
+      </c>
+      <c r="J89" s="30" t="s">
+        <v>102</v>
+      </c>
       <c r="K89" s="48">
-        <v>6.3575092800000004</v>
+        <v>6.3533495029999996</v>
       </c>
       <c r="L89" s="31">
-        <v>0.13704017330000001</v>
-      </c>
-      <c r="M89" s="48">
-        <v>211.23675800000001</v>
+        <v>0.136336100392</v>
+      </c>
+      <c r="M89" s="31">
+        <v>205.8732279976</v>
       </c>
       <c r="N89" s="31">
-        <v>0.1029408</v>
+        <v>0.102302975</v>
       </c>
       <c r="O89" s="31">
-        <v>0.11381707000000001</v>
-      </c>
-      <c r="P89" s="30"/>
-    </row>
-    <row r="90" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0.12459551174</v>
+      </c>
+      <c r="P89" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="29" t="s">
         <v>22</v>
       </c>
@@ -11611,312 +11534,285 @@
       <c r="C90" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="30"/>
+      <c r="D90" s="30">
+        <v>36026</v>
+      </c>
       <c r="E90" s="29">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F90" s="30">
+        <v>50</v>
+      </c>
+      <c r="G90" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H90" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I90" s="30">
+        <v>44</v>
+      </c>
+      <c r="J90" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="K90" s="48">
+        <v>6.262308429</v>
+      </c>
+      <c r="L90" s="31">
+        <v>0.136035616</v>
+      </c>
+      <c r="M90" s="31">
+        <v>209.7571959</v>
+      </c>
+      <c r="N90" s="31">
+        <v>0.10172748</v>
+      </c>
+      <c r="O90" s="31">
+        <v>0.12534682</v>
+      </c>
+      <c r="P90" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="48"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="31"/>
+      <c r="N91" s="31"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="30"/>
+    </row>
+    <row r="92" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="29">
+        <v>359</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="30"/>
+      <c r="E92" s="29">
+        <v>100</v>
+      </c>
+      <c r="F92" s="30">
+        <v>100</v>
+      </c>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="48">
+        <v>17.9047409798229</v>
+      </c>
+      <c r="L92" s="31">
+        <v>0.33365163476690102</v>
+      </c>
+      <c r="M92" s="31">
+        <v>655.79579474316597</v>
+      </c>
+      <c r="N92" s="31"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" s="29">
+        <v>359</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="30"/>
+      <c r="E93" s="29">
+        <v>100</v>
+      </c>
+      <c r="F93" s="30">
+        <v>50</v>
+      </c>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30">
+        <v>42</v>
+      </c>
+      <c r="J93" s="30"/>
+      <c r="K93" s="48">
+        <v>10.7292571932171</v>
+      </c>
+      <c r="L93" s="48">
+        <v>0.17132259999999999</v>
+      </c>
+      <c r="M93" s="31">
+        <v>399.04035499999998</v>
+      </c>
+      <c r="N93" s="31">
+        <v>0.14003603048261601</v>
+      </c>
+      <c r="O93" s="31">
+        <v>0.19883275249999999</v>
+      </c>
+      <c r="P93" s="30"/>
+    </row>
+    <row r="94" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" s="29">
+        <v>359</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="30"/>
+      <c r="E94" s="29">
+        <v>100</v>
+      </c>
+      <c r="F94" s="30">
+        <v>100</v>
+      </c>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30">
+        <v>42</v>
+      </c>
+      <c r="J94" s="30"/>
+      <c r="K94" s="48">
+        <v>6.3575092800000004</v>
+      </c>
+      <c r="L94" s="31">
+        <v>0.13704017330000001</v>
+      </c>
+      <c r="M94" s="48">
+        <v>211.23675800000001</v>
+      </c>
+      <c r="N94" s="31">
+        <v>0.1029408</v>
+      </c>
+      <c r="O94" s="31">
+        <v>0.11381707000000001</v>
+      </c>
+      <c r="P94" s="30"/>
+    </row>
+    <row r="95" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="29">
+        <v>359</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="30"/>
+      <c r="E95" s="29">
+        <v>100</v>
+      </c>
+      <c r="F95" s="30">
         <v>200</v>
       </c>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30">
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30">
         <v>42</v>
       </c>
-      <c r="J90" s="30"/>
-      <c r="K90" s="48">
+      <c r="J95" s="30"/>
+      <c r="K95" s="48">
         <v>6.1139901967252896</v>
       </c>
-      <c r="L90" s="31">
+      <c r="L95" s="31">
         <v>0.13471676502000299</v>
       </c>
-      <c r="M90" s="31">
+      <c r="M95" s="31">
         <v>180.338513490298</v>
       </c>
-      <c r="N90" s="31">
+      <c r="N95" s="31">
         <v>0.10136832890986699</v>
       </c>
-      <c r="O90" s="31">
+      <c r="O95" s="31">
         <v>0.103828328604855</v>
       </c>
-      <c r="P90" s="30"/>
-    </row>
-    <row r="91" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="35" t="s">
+      <c r="P95" s="30"/>
+    </row>
+    <row r="96" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B91" s="35">
+      <c r="B96" s="35">
         <v>359</v>
       </c>
-      <c r="C91" s="32" t="s">
+      <c r="C96" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="32"/>
-      <c r="E91" s="35">
-        <v>100</v>
-      </c>
-      <c r="F91" s="32">
+      <c r="D96" s="32"/>
+      <c r="E96" s="35">
+        <v>100</v>
+      </c>
+      <c r="F96" s="32">
         <v>250</v>
       </c>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32">
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32">
         <v>42</v>
       </c>
-      <c r="J91" s="32"/>
-      <c r="K91" s="32" t="s">
+      <c r="J96" s="32"/>
+      <c r="K96" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="L91" s="35" t="s">
+      <c r="L96" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="M91" s="35" t="s">
+      <c r="M96" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="N91" s="32" t="s">
+      <c r="N96" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O91" s="32" t="s">
+      <c r="O96" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="P91" s="32" t="s">
+      <c r="P96" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C92" s="60"/>
-      <c r="D92" s="60"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="60"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="60"/>
-      <c r="N92" s="60"/>
-      <c r="O92" s="60"/>
-      <c r="P92" s="60"/>
-    </row>
-    <row r="93" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C93" s="60"/>
-      <c r="D93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="N93" s="60"/>
-      <c r="O93" s="60"/>
-      <c r="P93" s="60"/>
-    </row>
-    <row r="94" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B94" s="16">
-        <v>48000</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="17">
-        <v>13463</v>
-      </c>
-      <c r="E94" s="16">
-        <v>100</v>
-      </c>
-      <c r="F94" s="17">
-        <v>50</v>
-      </c>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17">
-        <v>42</v>
-      </c>
-      <c r="J94" s="17"/>
-      <c r="K94" s="18">
-        <v>1.2680859933141799</v>
-      </c>
-      <c r="L94" s="19">
-        <v>0.14616421362543899</v>
-      </c>
-      <c r="M94" s="19">
-        <v>28.511903687299199</v>
-      </c>
-      <c r="N94" s="19">
-        <v>0.13301715525572499</v>
-      </c>
-      <c r="O94" s="19"/>
-      <c r="P94" s="17"/>
-    </row>
-    <row r="95" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" s="16">
-        <v>48000</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="17">
-        <v>13463</v>
-      </c>
-      <c r="E95" s="16">
-        <v>100</v>
-      </c>
-      <c r="F95" s="17">
-        <v>100</v>
-      </c>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17">
-        <v>42</v>
-      </c>
-      <c r="J95" s="17"/>
-      <c r="K95" s="18">
-        <v>1.12318553010888</v>
-      </c>
-      <c r="L95" s="19">
-        <v>0.14024808260219801</v>
-      </c>
-      <c r="M95" s="19">
-        <v>21.9494725945708</v>
-      </c>
-      <c r="N95" s="19">
-        <v>0.12659003502329899</v>
-      </c>
-      <c r="O95" s="19">
-        <v>8.7821689185904397E-2</v>
-      </c>
-      <c r="P95" s="17"/>
-    </row>
-    <row r="96" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B96" s="16">
-        <v>48000</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="17">
-        <v>13463</v>
-      </c>
-      <c r="E96" s="16">
-        <v>100</v>
-      </c>
-      <c r="F96" s="17">
-        <v>200</v>
-      </c>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17">
-        <v>42</v>
-      </c>
-      <c r="J96" s="17"/>
-      <c r="K96" s="18">
-        <v>0.99719524449035302</v>
-      </c>
-      <c r="L96" s="19">
-        <v>0.135560354927377</v>
-      </c>
-      <c r="M96" s="19">
-        <v>20.7128063902958</v>
-      </c>
-      <c r="N96" s="19">
-        <v>0.121544301356057</v>
-      </c>
-      <c r="O96" s="19">
-        <v>9.2526590339239004E-2</v>
-      </c>
-      <c r="P96" s="17"/>
-    </row>
-    <row r="97" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="16">
-        <v>48000</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="17">
-        <v>13463</v>
-      </c>
-      <c r="E97" s="16">
-        <v>100</v>
-      </c>
-      <c r="F97" s="17">
-        <v>400</v>
-      </c>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17">
-        <v>42</v>
-      </c>
-      <c r="J97" s="17"/>
-      <c r="K97" s="18">
-        <v>1.0867464112812699</v>
-      </c>
-      <c r="L97" s="19">
-        <v>0.13983351264476401</v>
-      </c>
-      <c r="M97" s="19">
-        <v>18.979743834511499</v>
-      </c>
-      <c r="N97" s="19">
-        <v>0.124734426884066</v>
-      </c>
-      <c r="O97" s="19">
-        <v>8.4780461418146394E-2</v>
-      </c>
-      <c r="P97" s="17"/>
-    </row>
-    <row r="98" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="16">
-        <v>48000</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="17">
-        <v>13463</v>
-      </c>
-      <c r="E98" s="16">
-        <v>200</v>
-      </c>
-      <c r="F98" s="17">
-        <v>50</v>
-      </c>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17">
-        <v>42</v>
-      </c>
-      <c r="J98" s="17"/>
-      <c r="K98" s="18">
-        <v>1.05958695110418</v>
-      </c>
-      <c r="L98" s="19">
-        <v>0.137825652728641</v>
-      </c>
-      <c r="M98" s="19">
-        <v>20.122850769566899</v>
-      </c>
-      <c r="N98" s="19">
-        <v>0.123928959665505</v>
-      </c>
-      <c r="O98" s="19">
-        <v>8.7829006351591493E-2</v>
-      </c>
-      <c r="P98" s="17"/>
+    <row r="97" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="60"/>
+      <c r="J97" s="60"/>
+      <c r="K97" s="60"/>
+      <c r="N97" s="60"/>
+      <c r="O97" s="60"/>
+      <c r="P97" s="60"/>
+    </row>
+    <row r="98" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="60"/>
+      <c r="J98" s="60"/>
+      <c r="K98" s="60"/>
+      <c r="L98" s="60"/>
+      <c r="N98" s="60"/>
+      <c r="O98" s="60"/>
+      <c r="P98" s="60"/>
     </row>
     <row r="99" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="16" t="s">
@@ -11932,10 +11828,10 @@
         <v>13463</v>
       </c>
       <c r="E99" s="16">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F99" s="17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
@@ -11944,20 +11840,18 @@
       </c>
       <c r="J99" s="17"/>
       <c r="K99" s="18">
-        <v>1.02581849327672</v>
+        <v>1.2680859933141799</v>
       </c>
       <c r="L99" s="19">
-        <v>0.13621914771003299</v>
+        <v>0.14616421362543899</v>
       </c>
       <c r="M99" s="19">
-        <v>20.7500287533347</v>
+        <v>28.511903687299199</v>
       </c>
       <c r="N99" s="19">
-        <v>0.12232933356511901</v>
-      </c>
-      <c r="O99" s="19">
-        <v>9.2456969482916096E-2</v>
-      </c>
+        <v>0.13301715525572499</v>
+      </c>
+      <c r="O99" s="19"/>
       <c r="P99" s="17"/>
     </row>
     <row r="100" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -11974,10 +11868,10 @@
         <v>13463</v>
       </c>
       <c r="E100" s="16">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F100" s="17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
@@ -11986,19 +11880,19 @@
       </c>
       <c r="J100" s="17"/>
       <c r="K100" s="18">
-        <v>1.0142830748179701</v>
+        <v>1.12318553010888</v>
       </c>
       <c r="L100" s="19">
-        <v>0.136906633769529</v>
+        <v>0.14024808260219801</v>
       </c>
       <c r="M100" s="19">
-        <v>16.218035257216101</v>
+        <v>21.9494725945708</v>
       </c>
       <c r="N100" s="19">
-        <v>0.122288426862787</v>
+        <v>0.12659003502329899</v>
       </c>
       <c r="O100" s="19">
-        <v>8.1100927705568704E-2</v>
+        <v>8.7821689185904397E-2</v>
       </c>
       <c r="P100" s="17"/>
     </row>
@@ -12016,10 +11910,10 @@
         <v>13463</v>
       </c>
       <c r="E101" s="16">
+        <v>100</v>
+      </c>
+      <c r="F101" s="17">
         <v>200</v>
-      </c>
-      <c r="F101" s="17">
-        <v>400</v>
       </c>
       <c r="G101" s="17"/>
       <c r="H101" s="17"/>
@@ -12027,138 +11921,348 @@
         <v>42</v>
       </c>
       <c r="J101" s="17"/>
-      <c r="K101" s="17" t="s">
+      <c r="K101" s="18">
+        <v>0.99719524449035302</v>
+      </c>
+      <c r="L101" s="19">
+        <v>0.135560354927377</v>
+      </c>
+      <c r="M101" s="19">
+        <v>20.7128063902958</v>
+      </c>
+      <c r="N101" s="19">
+        <v>0.121544301356057</v>
+      </c>
+      <c r="O101" s="19">
+        <v>9.2526590339239004E-2</v>
+      </c>
+      <c r="P101" s="17"/>
+    </row>
+    <row r="102" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="16">
+        <v>48000</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="17">
+        <v>13463</v>
+      </c>
+      <c r="E102" s="16">
+        <v>100</v>
+      </c>
+      <c r="F102" s="17">
+        <v>400</v>
+      </c>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17">
+        <v>42</v>
+      </c>
+      <c r="J102" s="17"/>
+      <c r="K102" s="18">
+        <v>1.0867464112812699</v>
+      </c>
+      <c r="L102" s="19">
+        <v>0.13983351264476401</v>
+      </c>
+      <c r="M102" s="19">
+        <v>18.979743834511499</v>
+      </c>
+      <c r="N102" s="19">
+        <v>0.124734426884066</v>
+      </c>
+      <c r="O102" s="19">
+        <v>8.4780461418146394E-2</v>
+      </c>
+      <c r="P102" s="17"/>
+    </row>
+    <row r="103" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="16">
+        <v>48000</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="17">
+        <v>13463</v>
+      </c>
+      <c r="E103" s="16">
+        <v>200</v>
+      </c>
+      <c r="F103" s="17">
+        <v>50</v>
+      </c>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17">
+        <v>42</v>
+      </c>
+      <c r="J103" s="17"/>
+      <c r="K103" s="18">
+        <v>1.05958695110418</v>
+      </c>
+      <c r="L103" s="19">
+        <v>0.137825652728641</v>
+      </c>
+      <c r="M103" s="19">
+        <v>20.122850769566899</v>
+      </c>
+      <c r="N103" s="19">
+        <v>0.123928959665505</v>
+      </c>
+      <c r="O103" s="19">
+        <v>8.7829006351591493E-2</v>
+      </c>
+      <c r="P103" s="17"/>
+    </row>
+    <row r="104" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="16">
+        <v>48000</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="17">
+        <v>13463</v>
+      </c>
+      <c r="E104" s="16">
+        <v>200</v>
+      </c>
+      <c r="F104" s="17">
+        <v>100</v>
+      </c>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17">
+        <v>42</v>
+      </c>
+      <c r="J104" s="17"/>
+      <c r="K104" s="18">
+        <v>1.02581849327672</v>
+      </c>
+      <c r="L104" s="19">
+        <v>0.13621914771003299</v>
+      </c>
+      <c r="M104" s="19">
+        <v>20.7500287533347</v>
+      </c>
+      <c r="N104" s="19">
+        <v>0.12232933356511901</v>
+      </c>
+      <c r="O104" s="19">
+        <v>9.2456969482916096E-2</v>
+      </c>
+      <c r="P104" s="17"/>
+    </row>
+    <row r="105" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="16">
+        <v>48000</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="17">
+        <v>13463</v>
+      </c>
+      <c r="E105" s="16">
+        <v>200</v>
+      </c>
+      <c r="F105" s="17">
+        <v>200</v>
+      </c>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17">
+        <v>42</v>
+      </c>
+      <c r="J105" s="17"/>
+      <c r="K105" s="18">
+        <v>1.0142830748179701</v>
+      </c>
+      <c r="L105" s="19">
+        <v>0.136906633769529</v>
+      </c>
+      <c r="M105" s="19">
+        <v>16.218035257216101</v>
+      </c>
+      <c r="N105" s="19">
+        <v>0.122288426862787</v>
+      </c>
+      <c r="O105" s="19">
+        <v>8.1100927705568704E-2</v>
+      </c>
+      <c r="P105" s="17"/>
+    </row>
+    <row r="106" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="16">
+        <v>48000</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="17">
+        <v>13463</v>
+      </c>
+      <c r="E106" s="16">
+        <v>200</v>
+      </c>
+      <c r="F106" s="17">
+        <v>400</v>
+      </c>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17">
+        <v>42</v>
+      </c>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L101" s="16" t="s">
+      <c r="L106" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M101" s="16" t="s">
+      <c r="M106" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N101" s="17" t="s">
+      <c r="N106" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="O101" s="17" t="s">
+      <c r="O106" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="P101" s="17" t="s">
+      <c r="P106" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="29" t="s">
+    <row r="107" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B102" s="29">
+      <c r="B107" s="29">
         <v>48000</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="C107" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="30">
+      <c r="D107" s="30">
         <v>491056</v>
       </c>
-      <c r="E102" s="29">
-        <v>100</v>
-      </c>
-      <c r="F102" s="30">
-        <v>50</v>
-      </c>
-      <c r="G102" s="30" t="s">
+      <c r="E107" s="29">
+        <v>100</v>
+      </c>
+      <c r="F107" s="30">
+        <v>50</v>
+      </c>
+      <c r="G107" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H102" s="30"/>
-      <c r="I102" s="30">
+      <c r="H107" s="30"/>
+      <c r="I107" s="30">
         <v>42</v>
       </c>
-      <c r="J102" s="30"/>
-      <c r="K102" s="48">
+      <c r="J107" s="30"/>
+      <c r="K107" s="48">
         <v>119.488322681421</v>
       </c>
-      <c r="L102" s="48">
+      <c r="L107" s="48">
         <v>1.4252456851917701</v>
       </c>
-      <c r="M102" s="31">
+      <c r="M107" s="31">
         <v>4772.3886078023397</v>
       </c>
-      <c r="N102" s="31">
+      <c r="N107" s="31">
         <v>11.2135887871412</v>
       </c>
-      <c r="O102" s="48">
+      <c r="O107" s="48">
         <v>3.0093397413643199</v>
       </c>
-      <c r="P102" s="30"/>
-    </row>
-    <row r="103" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="29" t="s">
+      <c r="P107" s="30"/>
+    </row>
+    <row r="108" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B103" s="29">
+      <c r="B108" s="29">
         <v>48000</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C108" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="30">
+      <c r="D108" s="30">
         <v>491056</v>
       </c>
-      <c r="E103" s="29">
-        <v>100</v>
-      </c>
-      <c r="F103" s="30">
-        <v>100</v>
-      </c>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="30">
+      <c r="E108" s="29">
+        <v>100</v>
+      </c>
+      <c r="F108" s="30">
+        <v>100</v>
+      </c>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30">
         <v>42</v>
       </c>
-      <c r="J103" s="30"/>
-      <c r="K103" s="48">
+      <c r="J108" s="30"/>
+      <c r="K108" s="48">
         <v>106.22708353048699</v>
       </c>
-      <c r="L103" s="31">
+      <c r="L108" s="31">
         <v>1.47356738153907</v>
       </c>
-      <c r="M103" s="31">
+      <c r="M108" s="31">
         <v>4241.8667773541902</v>
       </c>
-      <c r="N103" s="31">
+      <c r="N108" s="31">
         <v>9.4582211159614697</v>
       </c>
-      <c r="O103" s="31">
+      <c r="O108" s="31">
         <v>2.7352949638966999</v>
       </c>
-      <c r="P103" s="30" t="s">
+      <c r="P108" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="29" t="s">
+    <row r="109" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B104" s="29">
+      <c r="B109" s="29">
         <v>48000</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C109" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="30">
+      <c r="D109" s="30">
         <v>491056</v>
       </c>
-      <c r="E104" s="29">
-        <v>100</v>
-      </c>
-      <c r="F104" s="30">
+      <c r="E109" s="29">
+        <v>100</v>
+      </c>
+      <c r="F109" s="30">
         <v>150</v>
       </c>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30"/>
-      <c r="J104" s="30"/>
-      <c r="K104" s="30"/>
-      <c r="P104" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
+      <c r="P109" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15211,844 +15315,1163 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CCAEF6-E0AA-4EA9-B4C8-367C9CAD3E2A}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="4.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.54296875" style="41" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.54296875" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.90625" style="41" customWidth="1"/>
-    <col min="13" max="13" width="8.08984375" style="41" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.08984375" style="41" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.54296875" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.08984375" style="41" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>223</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="36">
         <v>2</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="36">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="36">
         <v>1.1180000000000001</v>
       </c>
-      <c r="F2" s="36">
+      <c r="I2" s="36">
         <v>9.6790000000000001E-2</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-    </row>
-    <row r="3" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="40"/>
+    </row>
+    <row r="3" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="E3" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="36">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="36">
         <v>1.111</v>
       </c>
-      <c r="F3" s="36">
+      <c r="I3" s="36">
         <v>9.733E-2</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-    </row>
-    <row r="4" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="40"/>
+    </row>
+    <row r="4" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>18</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="E4" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="36">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="36">
         <v>1.198</v>
       </c>
-      <c r="F4" s="36">
+      <c r="I4" s="36">
         <v>0.10155</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-    </row>
-    <row r="5" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N4" s="40"/>
+    </row>
+    <row r="5" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>19</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="E5" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="36">
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="36">
         <v>1.165</v>
       </c>
-      <c r="F5" s="36">
+      <c r="I5" s="36">
         <v>0.10431</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-    </row>
-    <row r="6" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N5" s="40"/>
+    </row>
+    <row r="6" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>15</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="E6" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="E6" s="36">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="36">
         <v>1.161</v>
       </c>
-      <c r="F6" s="36">
+      <c r="I6" s="36">
         <v>0.10291</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N6" s="40"/>
+    </row>
+    <row r="7" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>13</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="E7" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="E7" s="36">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="36">
         <v>1.173</v>
       </c>
-      <c r="F7" s="36">
+      <c r="I7" s="36">
         <v>0.10174999999999999</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-    </row>
-    <row r="8" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N7" s="40"/>
+    </row>
+    <row r="8" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
         <v>21</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="E8" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="E8" s="36">
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="36">
         <v>1.232</v>
       </c>
-      <c r="F8" s="36">
+      <c r="I8" s="36">
         <v>0.10310999999999999</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-    </row>
-    <row r="9" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="40"/>
+    </row>
+    <row r="9" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>25</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="E9" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="36">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="36">
         <v>1.371</v>
       </c>
-      <c r="F9" s="36">
+      <c r="I9" s="36">
         <v>0.11012</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="36" t="s">
+      <c r="N9" s="40"/>
+    </row>
+    <row r="10" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="40"/>
+      <c r="D10" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="E10" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-    </row>
-    <row r="12" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="N10" s="40"/>
+    </row>
+    <row r="11" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="63"/>
+    </row>
+    <row r="12" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="36">
         <v>0</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="40">
+        <v>42</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" s="38">
+      <c r="E12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="40">
+        <v>100</v>
+      </c>
+      <c r="G12" s="40">
+        <v>50</v>
+      </c>
+      <c r="H12" s="38">
         <v>1.326425</v>
       </c>
-      <c r="F12" s="38">
+      <c r="I12" s="38">
         <v>0.108775</v>
       </c>
-      <c r="G12" s="38">
+      <c r="J12" s="38">
         <v>16.517986000000001</v>
       </c>
-      <c r="H12" s="38">
+      <c r="K12" s="38">
         <v>0.101759</v>
       </c>
-      <c r="I12" s="38">
+      <c r="L12" s="38">
         <v>6.1157999999999997E-2</v>
       </c>
-      <c r="J12" s="40">
+      <c r="N12" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="63">
+        <f>G12*F12</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="40">
         <v>42</v>
       </c>
-      <c r="K12" s="40">
-        <v>100</v>
-      </c>
-      <c r="L12" s="40">
-        <v>50</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="36" t="s">
+      <c r="D13" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E13" s="38">
+      <c r="E13" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="40">
+        <v>200</v>
+      </c>
+      <c r="G13" s="40">
+        <v>50</v>
+      </c>
+      <c r="H13" s="38">
         <v>1.298074</v>
       </c>
-      <c r="F13" s="38">
+      <c r="I13" s="38">
         <v>0.107655</v>
       </c>
-      <c r="G13" s="38">
+      <c r="J13" s="38">
         <v>14.816202000000001</v>
       </c>
-      <c r="H13" s="38">
+      <c r="K13" s="38">
         <v>0.100453</v>
       </c>
-      <c r="I13" s="38">
+      <c r="L13" s="38">
         <v>5.9837000000000001E-2</v>
       </c>
-      <c r="J13" s="40">
-        <v>42</v>
-      </c>
-      <c r="K13" s="40">
-        <v>200</v>
-      </c>
-      <c r="L13" s="40">
-        <v>50</v>
-      </c>
-      <c r="M13" s="40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="N13" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="63">
+        <f>G13*F13</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-    </row>
-    <row r="15" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="36" t="s">
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="63"/>
+    </row>
+    <row r="15" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="40">
+        <v>42</v>
+      </c>
+      <c r="D15" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="38">
+      <c r="E15" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="40">
+        <v>100</v>
+      </c>
+      <c r="G15" s="40">
+        <v>50</v>
+      </c>
+      <c r="H15" s="38">
         <v>1.3467530000000001</v>
       </c>
-      <c r="F15" s="38">
+      <c r="I15" s="38">
         <v>0.11075865</v>
       </c>
-      <c r="G15" s="38">
+      <c r="J15" s="38">
         <v>17.655308000000002</v>
       </c>
-      <c r="H15" s="38">
+      <c r="K15" s="38">
         <v>0.10363214</v>
       </c>
-      <c r="I15" s="38">
+      <c r="L15" s="38">
         <v>6.3265840000000004E-2</v>
       </c>
-      <c r="J15" s="40">
+      <c r="N15" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="63">
+        <f t="shared" ref="O14:O36" si="0">G15*F15</f>
+        <v>5000</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="40">
         <v>42</v>
       </c>
-      <c r="K15" s="40">
-        <v>100</v>
-      </c>
-      <c r="L15" s="40">
-        <v>50</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="36" t="s">
+      <c r="D16" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="40">
+        <v>200</v>
+      </c>
+      <c r="G16" s="40">
+        <v>50</v>
+      </c>
+      <c r="H16" s="38">
+        <v>1.3322954199999999</v>
+      </c>
+      <c r="I16" s="38">
+        <v>0.10991943999999999</v>
+      </c>
+      <c r="J16" s="38">
+        <v>15.53920039</v>
+      </c>
+      <c r="K16" s="38">
+        <v>0.10204718</v>
+      </c>
+      <c r="L16" s="38">
+        <v>6.0413219999999997E-2</v>
+      </c>
+      <c r="N16" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="63">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="40">
+        <v>42</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="40">
+        <v>300</v>
+      </c>
+      <c r="G17" s="40">
+        <v>50</v>
+      </c>
+      <c r="H17" s="38">
+        <v>1.3324924300000001</v>
+      </c>
+      <c r="I17" s="38">
+        <v>0.10998624</v>
+      </c>
+      <c r="J17" s="38">
+        <v>15.542554600000001</v>
+      </c>
+      <c r="K17" s="38">
+        <v>0.10208643000000001</v>
+      </c>
+      <c r="L17" s="38">
+        <v>6.0477719999999999E-2</v>
+      </c>
+      <c r="N17" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="63">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="40">
+        <v>42</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="40">
+        <v>400</v>
+      </c>
+      <c r="G18" s="40">
+        <v>50</v>
+      </c>
+      <c r="H18" s="38">
+        <v>1.4147741700000001</v>
+      </c>
+      <c r="I18" s="38">
+        <v>0.11353504</v>
+      </c>
+      <c r="J18" s="38">
+        <v>15.50670305</v>
+      </c>
+      <c r="K18" s="38">
+        <v>0.10434548</v>
+      </c>
+      <c r="L18" s="38">
+        <v>5.7964689999999999E-2</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="63">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="40">
+        <v>42</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="40">
+        <v>500</v>
+      </c>
+      <c r="G19" s="40">
+        <v>50</v>
+      </c>
+      <c r="H19" s="38">
+        <v>1.2719967999999999</v>
+      </c>
+      <c r="I19" s="38">
+        <v>0.10917006999999999</v>
+      </c>
+      <c r="J19" s="38">
+        <v>12.650835730000001</v>
+      </c>
+      <c r="K19" s="38">
+        <v>0.1004418</v>
+      </c>
+      <c r="L19" s="38">
+        <v>5.7335749999999998E-2</v>
+      </c>
+      <c r="M19" s="36" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="36" t="s">
+      <c r="N19" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="63">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="40">
+        <v>42</v>
+      </c>
+      <c r="D20" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E16" s="38">
-        <v>1.3322954199999999</v>
-      </c>
-      <c r="F16" s="38">
-        <v>0.10991943999999999</v>
-      </c>
-      <c r="G16" s="38">
-        <v>15.53920039</v>
-      </c>
-      <c r="H16" s="38">
-        <v>0.10204718</v>
-      </c>
-      <c r="I16" s="38">
-        <v>6.0413219999999997E-2</v>
-      </c>
-      <c r="J16" s="40">
+      <c r="E20" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="40">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="40">
+        <v>50</v>
+      </c>
+      <c r="H20" s="38">
+        <v>1.25029156</v>
+      </c>
+      <c r="I20" s="38">
+        <v>0.10774432</v>
+      </c>
+      <c r="J20" s="38">
+        <v>12.47342866</v>
+      </c>
+      <c r="K20" s="38">
+        <v>9.9395300000000006E-2</v>
+      </c>
+      <c r="L20" s="38">
+        <v>5.6811819999999999E-2</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="N20" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="63">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="63"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C22" s="40">
         <v>42</v>
       </c>
-      <c r="K16" s="40">
+      <c r="D22" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="40">
+        <v>100</v>
+      </c>
+      <c r="G22" s="40">
+        <v>100</v>
+      </c>
+      <c r="H22" s="38">
+        <v>1.2488669999999999</v>
+      </c>
+      <c r="I22" s="38">
+        <v>0.105655</v>
+      </c>
+      <c r="J22" s="38">
+        <v>13.965085</v>
+      </c>
+      <c r="K22" s="38">
+        <v>9.8350000000000007E-2</v>
+      </c>
+      <c r="L22" s="38">
+        <v>5.8025E-2</v>
+      </c>
+      <c r="N22" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="63">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C23" s="41">
+        <v>42</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="41">
         <v>200</v>
       </c>
-      <c r="L16" s="40">
-        <v>50</v>
-      </c>
-      <c r="M16" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="36" t="s">
+      <c r="G23" s="41">
+        <v>100</v>
+      </c>
+      <c r="H23" s="61">
+        <v>1.2613220000000001</v>
+      </c>
+      <c r="I23" s="61">
+        <v>0.105753</v>
+      </c>
+      <c r="J23" s="61">
+        <v>13.233006</v>
+      </c>
+      <c r="K23" s="61">
+        <v>9.8480999999999999E-2</v>
+      </c>
+      <c r="L23" s="61">
+        <v>5.6909000000000001E-2</v>
+      </c>
+      <c r="N23" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="63">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C24" s="41">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
         <v>208</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="38">
-        <v>1.3324924300000001</v>
-      </c>
-      <c r="F17" s="38">
-        <v>0.10998624</v>
-      </c>
-      <c r="G17" s="38">
-        <v>15.542554600000001</v>
-      </c>
-      <c r="H17" s="38">
-        <v>0.10208643000000001</v>
-      </c>
-      <c r="I17" s="38">
-        <v>6.0477719999999999E-2</v>
-      </c>
-      <c r="J17" s="40">
+      <c r="E24" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="41">
+        <v>300</v>
+      </c>
+      <c r="G24" s="41">
+        <v>100</v>
+      </c>
+      <c r="H24" s="61">
+        <v>1.2249380000000001</v>
+      </c>
+      <c r="I24" s="61">
+        <v>0.10442</v>
+      </c>
+      <c r="J24" s="61">
+        <v>12.243124999999999</v>
+      </c>
+      <c r="K24" s="61">
+        <v>9.7406000000000006E-2</v>
+      </c>
+      <c r="L24" s="61">
+        <v>5.6134000000000003E-2</v>
+      </c>
+      <c r="N24" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="63">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C25" s="41">
         <v>42</v>
       </c>
-      <c r="K17" s="40">
+      <c r="D25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="41">
+        <v>400</v>
+      </c>
+      <c r="G25" s="41">
+        <v>100</v>
+      </c>
+      <c r="H25" s="61">
+        <v>1.215217</v>
+      </c>
+      <c r="I25" s="61">
+        <v>0.104229</v>
+      </c>
+      <c r="J25" s="61">
+        <v>12.018250999999999</v>
+      </c>
+      <c r="K25" s="61">
+        <v>9.7244999999999998E-2</v>
+      </c>
+      <c r="L25" s="61">
+        <v>5.5974000000000003E-2</v>
+      </c>
+      <c r="N25" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" s="63">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C26" s="41">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="41">
+        <v>500</v>
+      </c>
+      <c r="G26" s="41">
+        <v>100</v>
+      </c>
+      <c r="H26" s="61">
+        <v>1.2330939999999999</v>
+      </c>
+      <c r="I26" s="61">
+        <v>0.104827</v>
+      </c>
+      <c r="J26" s="61">
+        <v>12.008521999999999</v>
+      </c>
+      <c r="K26" s="61">
+        <v>9.7713999999999995E-2</v>
+      </c>
+      <c r="L26" s="61">
+        <v>5.6041000000000001E-2</v>
+      </c>
+      <c r="N26" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" s="63">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C27" s="41">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="41">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="41">
+        <v>100</v>
+      </c>
+      <c r="H27" s="61">
+        <v>1.20625</v>
+      </c>
+      <c r="I27" s="61">
+        <v>0.103536</v>
+      </c>
+      <c r="J27" s="61">
+        <v>11.401277</v>
+      </c>
+      <c r="K27" s="61">
+        <v>9.5999000000000001E-2</v>
+      </c>
+      <c r="L27" s="61">
+        <v>5.4571000000000001E-2</v>
+      </c>
+      <c r="N27" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="63">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="63"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C29" s="41">
+        <v>42</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="41">
+        <v>100</v>
+      </c>
+      <c r="G29" s="41">
+        <v>200</v>
+      </c>
+      <c r="H29" s="38">
+        <v>1.186151</v>
+      </c>
+      <c r="I29" s="38">
+        <v>0.101258</v>
+      </c>
+      <c r="J29" s="61">
+        <v>12.653755</v>
+      </c>
+      <c r="K29" s="61">
+        <v>9.4033000000000005E-2</v>
+      </c>
+      <c r="L29" s="61">
+        <v>5.1957000000000003E-2</v>
+      </c>
+      <c r="N29" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" s="63">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C30" s="41">
+        <v>42</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="41">
+        <v>200</v>
+      </c>
+      <c r="G30" s="41">
+        <v>200</v>
+      </c>
+      <c r="H30" s="38">
+        <v>1.263331</v>
+      </c>
+      <c r="I30" s="38">
+        <v>0.104032</v>
+      </c>
+      <c r="J30" s="61">
+        <v>13.091120999999999</v>
+      </c>
+      <c r="K30" s="61">
+        <v>9.6446000000000004E-2</v>
+      </c>
+      <c r="L30" s="61">
+        <v>5.2325999999999998E-2</v>
+      </c>
+      <c r="N30" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30" s="63">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C31" s="41">
+        <v>42</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="41">
         <v>300</v>
       </c>
-      <c r="L17" s="40">
-        <v>50</v>
-      </c>
-      <c r="M17" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-    </row>
-    <row r="19" spans="3:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C20" s="36" t="s">
+      <c r="G31" s="41">
+        <v>200</v>
+      </c>
+      <c r="H31" s="38">
+        <v>1.1704349999999999</v>
+      </c>
+      <c r="I31" s="38">
+        <v>0.100674</v>
+      </c>
+      <c r="J31" s="61">
+        <v>11.356949</v>
+      </c>
+      <c r="K31" s="61">
+        <v>9.3112E-2</v>
+      </c>
+      <c r="L31" s="61">
+        <v>5.1371E-2</v>
+      </c>
+      <c r="N31" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="63">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C32" s="41">
+        <v>42</v>
+      </c>
+      <c r="D32" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="37">
-        <v>1.186151</v>
-      </c>
-      <c r="F20" s="37">
-        <v>0.101258</v>
-      </c>
-      <c r="G20" s="11">
-        <v>12.653755</v>
-      </c>
-      <c r="H20" s="11">
-        <v>9.4033000000000005E-2</v>
-      </c>
-      <c r="I20" s="11">
-        <v>5.1957000000000003E-2</v>
-      </c>
-      <c r="J20" s="41">
+      <c r="E32" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="41">
+        <v>400</v>
+      </c>
+      <c r="G32" s="41">
+        <v>200</v>
+      </c>
+      <c r="H32" s="38">
+        <v>1.2420720000000001</v>
+      </c>
+      <c r="I32" s="38">
+        <v>0.103521</v>
+      </c>
+      <c r="J32" s="61">
+        <v>11.829283999999999</v>
+      </c>
+      <c r="K32" s="61">
+        <v>9.5749000000000001E-2</v>
+      </c>
+      <c r="L32" s="61">
+        <v>5.3046000000000003E-2</v>
+      </c>
+      <c r="N32" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" s="63">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C33" s="41">
         <v>42</v>
       </c>
-      <c r="K20" s="41">
-        <v>100</v>
-      </c>
-      <c r="L20" s="41">
+      <c r="D33" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="41">
+        <v>500</v>
+      </c>
+      <c r="G33" s="41">
         <v>200</v>
       </c>
-      <c r="M20" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C21" s="36" t="s">
+      <c r="H33" s="38">
+        <v>1.178239</v>
+      </c>
+      <c r="I33" s="38">
+        <v>0.101136</v>
+      </c>
+      <c r="J33" s="61">
+        <v>11.458067</v>
+      </c>
+      <c r="K33" s="61">
+        <v>9.3856999999999996E-2</v>
+      </c>
+      <c r="L33" s="61">
+        <v>5.1531E-2</v>
+      </c>
+      <c r="N33" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="63">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="O34" s="63"/>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C35" s="41">
+        <v>42</v>
+      </c>
+      <c r="D35" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="37">
-        <v>1.263331</v>
-      </c>
-      <c r="F21" s="37">
-        <v>0.104032</v>
-      </c>
-      <c r="G21" s="11">
-        <v>13.091120999999999</v>
-      </c>
-      <c r="H21" s="11">
-        <v>9.6446000000000004E-2</v>
-      </c>
-      <c r="I21" s="11">
-        <v>5.2325999999999998E-2</v>
-      </c>
-      <c r="J21" s="41">
+      <c r="E35" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="41">
+        <v>100</v>
+      </c>
+      <c r="G35" s="41">
+        <v>400</v>
+      </c>
+      <c r="H35" s="61">
+        <v>1.1566020265038599</v>
+      </c>
+      <c r="I35" s="61">
+        <v>9.9678687619603398E-2</v>
+      </c>
+      <c r="J35" s="61">
+        <v>13.0927220128965</v>
+      </c>
+      <c r="K35" s="61">
+        <v>9.2701009956351194E-2</v>
+      </c>
+      <c r="L35" s="61">
+        <v>5.1621049504713599E-2</v>
+      </c>
+      <c r="M35" s="61"/>
+      <c r="N35" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" s="63">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C36" s="41">
         <v>42</v>
       </c>
-      <c r="K21" s="41">
+      <c r="D36" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="41">
         <v>200</v>
       </c>
-      <c r="L21" s="41">
-        <v>200</v>
-      </c>
-      <c r="M21" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C22" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="37">
-        <v>1.1704349999999999</v>
-      </c>
-      <c r="F22" s="37">
-        <v>0.100674</v>
-      </c>
-      <c r="G22" s="11">
-        <v>11.356949</v>
-      </c>
-      <c r="H22" s="11">
-        <v>9.3112E-2</v>
-      </c>
-      <c r="I22" s="11">
-        <v>5.1371E-2</v>
-      </c>
-      <c r="J22" s="41">
-        <v>42</v>
-      </c>
-      <c r="K22" s="41">
-        <v>300</v>
-      </c>
-      <c r="L22" s="41">
-        <v>200</v>
-      </c>
-      <c r="M22" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C23" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E23" s="37">
-        <v>1.2420720000000001</v>
-      </c>
-      <c r="F23" s="37">
-        <v>0.103521</v>
-      </c>
-      <c r="G23" s="11">
-        <v>11.829283999999999</v>
-      </c>
-      <c r="H23" s="11">
-        <v>9.5749000000000001E-2</v>
-      </c>
-      <c r="I23" s="11">
-        <v>5.3046000000000003E-2</v>
-      </c>
-      <c r="J23" s="41">
-        <v>42</v>
-      </c>
-      <c r="K23" s="41">
+      <c r="G36" s="41">
         <v>400</v>
       </c>
-      <c r="L23" s="41">
-        <v>200</v>
-      </c>
-      <c r="M23" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C26" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" s="38">
-        <v>1.2488669999999999</v>
-      </c>
-      <c r="F26" s="38">
-        <v>0.105655</v>
-      </c>
-      <c r="G26" s="38">
-        <v>13.965085</v>
-      </c>
-      <c r="H26" s="38">
-        <v>9.8350000000000007E-2</v>
-      </c>
-      <c r="I26" s="38">
-        <v>5.8025E-2</v>
-      </c>
-      <c r="J26" s="40">
-        <v>42</v>
-      </c>
-      <c r="K26" s="40">
-        <v>100</v>
-      </c>
-      <c r="L26" s="40">
-        <v>100</v>
-      </c>
-      <c r="M26" s="40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C27" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="D27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E27" s="11">
-        <v>1.2613220000000001</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0.105753</v>
-      </c>
-      <c r="G27" s="11">
-        <v>13.233006</v>
-      </c>
-      <c r="H27" s="11">
-        <v>9.8480999999999999E-2</v>
-      </c>
-      <c r="I27" s="11">
-        <v>5.6909000000000001E-2</v>
-      </c>
-      <c r="J27" s="41">
-        <v>42</v>
-      </c>
-      <c r="K27" s="41">
-        <v>200</v>
-      </c>
-      <c r="L27" s="41">
-        <v>100</v>
-      </c>
-      <c r="M27" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
-        <v>208</v>
-      </c>
-      <c r="D28" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="11">
-        <v>1.2249380000000001</v>
-      </c>
-      <c r="F28" s="11">
-        <v>0.10442</v>
-      </c>
-      <c r="G28" s="11">
-        <v>12.243124999999999</v>
-      </c>
-      <c r="H28" s="11">
-        <v>9.7406000000000006E-2</v>
-      </c>
-      <c r="I28" s="11">
-        <v>5.6134000000000003E-2</v>
-      </c>
-      <c r="J28" s="41">
-        <v>42</v>
-      </c>
-      <c r="K28" s="41">
-        <v>300</v>
-      </c>
-      <c r="L28" s="41">
-        <v>100</v>
-      </c>
-      <c r="M28" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
-        <v>208</v>
-      </c>
-      <c r="D29" t="s">
-        <v>209</v>
-      </c>
-      <c r="E29" s="11">
-        <v>1.215217</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0.104229</v>
-      </c>
-      <c r="G29" s="11">
-        <v>12.018250999999999</v>
-      </c>
-      <c r="H29" s="11">
-        <v>9.7244999999999998E-2</v>
-      </c>
-      <c r="I29" s="11">
-        <v>5.5974000000000003E-2</v>
-      </c>
-      <c r="J29" s="41">
-        <v>42</v>
-      </c>
-      <c r="K29" s="41">
-        <v>400</v>
-      </c>
-      <c r="L29" s="41">
-        <v>100</v>
-      </c>
-      <c r="M29" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C30" t="s">
-        <v>208</v>
-      </c>
-      <c r="D30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E30" s="11">
-        <v>1.2330939999999999</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0.104827</v>
-      </c>
-      <c r="G30" s="11">
-        <v>12.008521999999999</v>
-      </c>
-      <c r="H30" s="11">
-        <v>9.7713999999999995E-2</v>
-      </c>
-      <c r="I30" s="11">
-        <v>5.6041000000000001E-2</v>
-      </c>
-      <c r="J30" s="41">
-        <v>42</v>
-      </c>
-      <c r="K30" s="41">
-        <v>500</v>
-      </c>
-      <c r="L30" s="41">
-        <v>100</v>
-      </c>
-      <c r="M30" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31" t="s">
-        <v>209</v>
-      </c>
-      <c r="E31" s="11">
-        <v>1.20625</v>
-      </c>
-      <c r="F31" s="11">
-        <v>0.103536</v>
-      </c>
-      <c r="G31" s="11">
-        <v>11.401277</v>
-      </c>
-      <c r="H31" s="11">
-        <v>9.5999000000000001E-2</v>
-      </c>
-      <c r="I31" s="11">
-        <v>5.4571000000000001E-2</v>
-      </c>
-      <c r="J31" s="41">
-        <v>42</v>
-      </c>
-      <c r="K31" s="41">
-        <v>1000</v>
-      </c>
-      <c r="L31" s="41">
-        <v>100</v>
-      </c>
-      <c r="M31" s="41" t="s">
-        <v>41</v>
+      <c r="H36">
+        <v>1.13082512724814</v>
+      </c>
+      <c r="I36">
+        <v>9.8914969887215001E-2</v>
+      </c>
+      <c r="J36">
+        <v>11.8882268185881</v>
+      </c>
+      <c r="K36">
+        <v>9.1697254119215393E-2</v>
+      </c>
+      <c r="L36">
+        <v>5.0619659446756303E-2</v>
+      </c>
+      <c r="N36" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O36" s="63">
+        <f t="shared" si="0"/>
+        <v>80000</v>
       </c>
     </row>
   </sheetData>
@@ -16059,11 +16482,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629563B-15CA-43F8-9031-F04949D161F0}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16077,6 +16500,7 @@
     <col min="10" max="10" width="8.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7265625" customWidth="1"/>
     <col min="12" max="12" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -16117,7 +16541,7 @@
         <v>216</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -16276,6 +16700,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
+      <c r="M9" s="63"/>
     </row>
     <row r="10" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
@@ -16296,6 +16721,7 @@
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D11" s="38"/>
@@ -16303,6 +16729,7 @@
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
+      <c r="M11" s="63"/>
     </row>
     <row r="12" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="36" t="s">
@@ -16338,8 +16765,9 @@
       <c r="L12" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="36" t="s">
-        <v>23</v>
+      <c r="M12" s="63">
+        <f>J12*K12</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -16364,7 +16792,7 @@
       <c r="H13" s="38">
         <v>0.108584</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="40">
         <v>42</v>
       </c>
       <c r="J13" s="40">
@@ -16376,8 +16804,9 @@
       <c r="L13" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="36" t="s">
-        <v>23</v>
+      <c r="M13" s="63">
+        <f>J13*K13</f>
+        <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -16386,6 +16815,10 @@
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
+      <c r="M14" s="63">
+        <f t="shared" ref="M14:M30" si="0">J14*K14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D15" s="38"/>
@@ -16393,6 +16826,10 @@
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
+      <c r="M15" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" s="36" t="s">
@@ -16428,8 +16865,9 @@
       <c r="L16" t="s">
         <v>41</v>
       </c>
-      <c r="M16" t="s">
-        <v>23</v>
+      <c r="M16" s="63">
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
@@ -16440,6 +16878,10 @@
       <c r="F17" s="61"/>
       <c r="G17" s="61"/>
       <c r="H17" s="61"/>
+      <c r="M17" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="36" t="s">
@@ -16475,8 +16917,9 @@
       <c r="L18" t="s">
         <v>41</v>
       </c>
-      <c r="M18" t="s">
-        <v>23</v>
+      <c r="M18" s="63">
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
@@ -16513,8 +16956,9 @@
       <c r="L19" t="s">
         <v>41</v>
       </c>
-      <c r="M19" t="s">
-        <v>23</v>
+      <c r="M19" s="63">
+        <f t="shared" si="0"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
@@ -16551,8 +16995,9 @@
       <c r="L20" t="s">
         <v>41</v>
       </c>
-      <c r="M20" t="s">
-        <v>23</v>
+      <c r="M20" s="63">
+        <f t="shared" si="0"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
@@ -16589,18 +17034,49 @@
       <c r="L21" t="s">
         <v>41</v>
       </c>
-      <c r="M21" t="s">
-        <v>23</v>
+      <c r="M21" s="63">
+        <f t="shared" si="0"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
+      <c r="B22" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="61">
+        <v>3.412887</v>
+      </c>
+      <c r="E22" s="61">
+        <v>0.14351700000000001</v>
+      </c>
+      <c r="F22" s="61">
+        <v>52.913640999999998</v>
+      </c>
+      <c r="G22" s="61">
+        <v>0.14199300000000001</v>
+      </c>
+      <c r="H22" s="61">
+        <v>7.7533000000000005E-2</v>
+      </c>
+      <c r="I22" s="41">
+        <v>42</v>
+      </c>
+      <c r="J22" s="41">
+        <v>500</v>
+      </c>
+      <c r="K22" s="41">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="63">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="36"/>
@@ -16610,6 +17086,10 @@
       <c r="F23" s="61"/>
       <c r="G23" s="61"/>
       <c r="H23" s="61"/>
+      <c r="M23" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="36" t="s">
@@ -16645,8 +17125,9 @@
       <c r="L24" t="s">
         <v>41</v>
       </c>
-      <c r="M24" t="s">
-        <v>23</v>
+      <c r="M24" s="63">
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
@@ -16683,8 +17164,9 @@
       <c r="L25" t="s">
         <v>41</v>
       </c>
-      <c r="M25" t="s">
-        <v>23</v>
+      <c r="M25" s="63">
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
@@ -16721,8 +17203,9 @@
       <c r="L26" t="s">
         <v>41</v>
       </c>
-      <c r="M26" t="s">
-        <v>23</v>
+      <c r="M26" s="63">
+        <f t="shared" si="0"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
@@ -16759,8 +17242,9 @@
       <c r="L27" t="s">
         <v>41</v>
       </c>
-      <c r="M27" t="s">
-        <v>23</v>
+      <c r="M27" s="63">
+        <f t="shared" si="0"/>
+        <v>50000</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
@@ -16797,8 +17281,54 @@
       <c r="L28" t="s">
         <v>41</v>
       </c>
-      <c r="M28" t="s">
-        <v>23</v>
+      <c r="M28" s="63">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M29" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="61">
+        <v>3.1805940000000001</v>
+      </c>
+      <c r="E30" s="61">
+        <v>0.13903099999999999</v>
+      </c>
+      <c r="F30" s="61">
+        <v>47.199012000000003</v>
+      </c>
+      <c r="G30" s="61">
+        <v>0.13525000000000001</v>
+      </c>
+      <c r="H30" s="61">
+        <v>8.3582000000000004E-2</v>
+      </c>
+      <c r="I30">
+        <v>42</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>400</v>
+      </c>
+      <c r="L30" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="63">
+        <f t="shared" si="0"/>
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
@@ -17459,7 +17989,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>

--- a/results/results_v4.xlsx
+++ b/results/results_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ECC26A-6BC1-4B82-A6C2-B9534D775737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D418B1FE-E09D-4489-BEC3-5BE54652F085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="890" windowWidth="19200" windowHeight="10200" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4_hourly" sheetId="4" r:id="rId1"/>
@@ -19,8 +19,14 @@
     <sheet name="m4_monthly" sheetId="6" r:id="rId4"/>
     <sheet name="m4_quarterly" sheetId="8" r:id="rId5"/>
     <sheet name="m4_yearly" sheetId="9" r:id="rId6"/>
-    <sheet name="traffic" sheetId="7" r:id="rId7"/>
-    <sheet name="electricity" sheetId="2" r:id="rId8"/>
+    <sheet name="m4_yearly_micro" sheetId="10" r:id="rId7"/>
+    <sheet name="m4_yearly_industry" sheetId="11" r:id="rId8"/>
+    <sheet name="m4_yearly_macro" sheetId="12" r:id="rId9"/>
+    <sheet name="m4_yearly_finance" sheetId="13" r:id="rId10"/>
+    <sheet name="m4_yearly_demographic" sheetId="14" r:id="rId11"/>
+    <sheet name="m4_yearly_other" sheetId="15" r:id="rId12"/>
+    <sheet name="traffic" sheetId="7" r:id="rId13"/>
+    <sheet name="electricity" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="234">
   <si>
     <t>Algorithm</t>
   </si>
@@ -737,6 +743,9 @@
   </si>
   <si>
     <t>total_batches</t>
+  </si>
+  <si>
+    <t>OWA (Rank)</t>
   </si>
 </sst>
 </file>
@@ -3619,6 +3628,2320 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C7B82-29B6-4C9D-A525-A1FB3E12D34B}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2">
+        <v>4.3239000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.17861399999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="B3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3">
+        <v>3.5085999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.158361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.88170000000000004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4">
+        <v>3.6242000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.16525500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5">
+        <v>3.4742000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.157136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.78110000000000002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6">
+        <v>3.2612999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.14429900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEB8732-0721-446E-85BF-508EDD0785C3}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2">
+        <v>3.0699000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.11654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3">
+        <v>2.5851999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.11033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="C4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4">
+        <v>2.6211000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.106472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5">
+        <v>2.5375000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.104642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6">
+        <v>2.5165999999999999</v>
+      </c>
+      <c r="E6">
+        <v>9.8986000000000005E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97154CB0-7525-487C-9BD7-D670DF50B599}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2">
+        <v>3.4504000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.16017700000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3">
+        <v>3.0002</v>
+      </c>
+      <c r="E3">
+        <v>0.15080399999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4">
+        <v>3.0918000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.154504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5">
+        <v>2.9868000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.14860599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6">
+        <v>2.8591000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.14032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AA6EBD-8719-4324-B09A-4C04B6729294}">
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2">
+        <v>862</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E1" s="24">
+        <v>42</v>
+      </c>
+      <c r="F1" s="24">
+        <v>100</v>
+      </c>
+      <c r="G1" s="25">
+        <v>50</v>
+      </c>
+      <c r="H1" s="25">
+        <v>14</v>
+      </c>
+      <c r="I1" s="25">
+        <v>7</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26">
+        <v>0.88936537788412395</v>
+      </c>
+      <c r="N1" s="26">
+        <v>12.056193496287101</v>
+      </c>
+      <c r="O1" s="26">
+        <v>0.14220320148680099</v>
+      </c>
+      <c r="P1" s="26">
+        <v>0.17131659113794201</v>
+      </c>
+      <c r="Q1" s="26">
+        <v>0.112617250917697</v>
+      </c>
+      <c r="R1" s="25"/>
+    </row>
+    <row r="2" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2">
+        <v>862</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E2" s="24">
+        <v>43</v>
+      </c>
+      <c r="F2" s="24">
+        <v>100</v>
+      </c>
+      <c r="G2" s="25">
+        <v>50</v>
+      </c>
+      <c r="H2" s="25">
+        <v>14</v>
+      </c>
+      <c r="I2" s="25">
+        <v>7</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26">
+        <v>0.84946299059517005</v>
+      </c>
+      <c r="N2" s="26">
+        <v>10.565301611994199</v>
+      </c>
+      <c r="O2" s="26">
+        <v>0.13616913458261001</v>
+      </c>
+      <c r="P2" s="26">
+        <v>0.16382832301348299</v>
+      </c>
+      <c r="Q2" s="26">
+        <v>0.10248962363684699</v>
+      </c>
+      <c r="R2" s="25"/>
+    </row>
+    <row r="3" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2">
+        <v>862</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E3" s="24">
+        <v>44</v>
+      </c>
+      <c r="F3" s="24">
+        <v>100</v>
+      </c>
+      <c r="G3" s="25">
+        <v>50</v>
+      </c>
+      <c r="H3" s="25">
+        <v>14</v>
+      </c>
+      <c r="I3" s="25">
+        <v>7</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26">
+        <v>0.85708568487041603</v>
+      </c>
+      <c r="N3" s="26">
+        <v>11.1921050644247</v>
+      </c>
+      <c r="O3" s="26">
+        <v>0.13754877448949901</v>
+      </c>
+      <c r="P3" s="26">
+        <v>0.16517953001998201</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>0.106157875853182</v>
+      </c>
+      <c r="R3" s="25"/>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2">
+        <v>862</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E4" s="2">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="12">
+        <v>0.85984988290767905</v>
+      </c>
+      <c r="N4" s="12">
+        <v>11.467363191577901</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0.13708799650329101</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0.164240320870712</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>0.106211508502489</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>862</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="12">
+        <v>0.83043391632280406</v>
+      </c>
+      <c r="N5" s="13">
+        <v>11.234771610285099</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.13292169433456799</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0.15975893594083501</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0.104422274001578</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2">
+        <v>862</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <v>50</v>
+      </c>
+      <c r="H6" s="3">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3">
+        <v>7</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="12">
+        <v>0.84857504449934995</v>
+      </c>
+      <c r="N6" s="13">
+        <v>11.0099023024096</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.13595650523487801</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0.16285584334123099</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0.10522540363196101</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2">
+        <v>862</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E7" s="24">
+        <v>42</v>
+      </c>
+      <c r="F7" s="24">
+        <v>100</v>
+      </c>
+      <c r="G7" s="25">
+        <v>50</v>
+      </c>
+      <c r="H7" s="25">
+        <v>28</v>
+      </c>
+      <c r="I7" s="25">
+        <v>7</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26">
+        <v>0.79779778652111399</v>
+      </c>
+      <c r="N7" s="26">
+        <v>10.121165065568199</v>
+      </c>
+      <c r="O7" s="26">
+        <v>0.12880160080986</v>
+      </c>
+      <c r="P7" s="26">
+        <v>0.15221145828087801</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>9.8355971601415598E-2</v>
+      </c>
+      <c r="R7" s="25"/>
+    </row>
+    <row r="8" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2">
+        <v>862</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E8" s="24">
+        <v>43</v>
+      </c>
+      <c r="F8" s="24">
+        <v>100</v>
+      </c>
+      <c r="G8" s="25">
+        <v>50</v>
+      </c>
+      <c r="H8" s="25">
+        <v>28</v>
+      </c>
+      <c r="I8" s="25">
+        <v>7</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26">
+        <v>0.78304190721217704</v>
+      </c>
+      <c r="N8" s="26">
+        <v>10.199148544691299</v>
+      </c>
+      <c r="O8" s="26">
+        <v>0.12715382721795501</v>
+      </c>
+      <c r="P8" s="26">
+        <v>0.149434735285779</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>9.6812827239189297E-2</v>
+      </c>
+      <c r="R8" s="25"/>
+    </row>
+    <row r="9" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2">
+        <v>862</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E9" s="24">
+        <v>44</v>
+      </c>
+      <c r="F9" s="24">
+        <v>100</v>
+      </c>
+      <c r="G9" s="25">
+        <v>50</v>
+      </c>
+      <c r="H9" s="25">
+        <v>28</v>
+      </c>
+      <c r="I9" s="25">
+        <v>7</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26">
+        <v>0.81619549648116096</v>
+      </c>
+      <c r="N9" s="26">
+        <v>9.9900870315553494</v>
+      </c>
+      <c r="O9" s="26">
+        <v>0.131852177942516</v>
+      </c>
+      <c r="P9" s="26">
+        <v>0.15607441185311999</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>9.83588221841422E-2</v>
+      </c>
+      <c r="R9" s="25"/>
+    </row>
+    <row r="10" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="20">
+        <v>862</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="20">
+        <v>74487</v>
+      </c>
+      <c r="E10" s="20">
+        <v>42</v>
+      </c>
+      <c r="F10" s="20">
+        <v>25</v>
+      </c>
+      <c r="G10" s="21">
+        <v>50</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="21">
+        <v>7</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="21">
+        <v>-0.63300000000000001</v>
+      </c>
+      <c r="M10" s="22">
+        <v>1.20804446</v>
+      </c>
+      <c r="N10" s="22">
+        <v>14.837159588600001</v>
+      </c>
+      <c r="O10" s="22">
+        <v>0.183018443274337</v>
+      </c>
+      <c r="P10" s="22">
+        <v>0.22088481711076799</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>0.133601708012316</v>
+      </c>
+      <c r="R10" s="21"/>
+    </row>
+    <row r="11" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="20">
+        <v>862</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="20">
+        <v>74487</v>
+      </c>
+      <c r="E11" s="20">
+        <v>43</v>
+      </c>
+      <c r="F11" s="20">
+        <v>25</v>
+      </c>
+      <c r="G11" s="21">
+        <v>50</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="21">
+        <v>7</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="21">
+        <v>-0.65590000000000004</v>
+      </c>
+      <c r="M11" s="22">
+        <v>1.1895251600000001</v>
+      </c>
+      <c r="N11" s="22">
+        <v>13.823424360000001</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0.17885034</v>
+      </c>
+      <c r="P11" s="22">
+        <v>0.21843000000000001</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0.135223536782417</v>
+      </c>
+      <c r="R11" s="21"/>
+    </row>
+    <row r="12" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="20">
+        <v>862</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="20">
+        <v>74487</v>
+      </c>
+      <c r="E12" s="20">
+        <v>44</v>
+      </c>
+      <c r="F12" s="20">
+        <v>25</v>
+      </c>
+      <c r="G12" s="21">
+        <v>50</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="21">
+        <v>7</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="21">
+        <v>-0.58679999999999999</v>
+      </c>
+      <c r="M12" s="22">
+        <v>1.1313506769999999</v>
+      </c>
+      <c r="N12" s="22">
+        <v>13.36289625</v>
+      </c>
+      <c r="O12" s="22">
+        <v>0.17442181071475499</v>
+      </c>
+      <c r="P12" s="22">
+        <v>0.20688742569999999</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>0.12457680942</v>
+      </c>
+      <c r="R12" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81841C01-14F2-4752-BEFF-0E0B223C739F}">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" style="1" customWidth="1"/>
+    <col min="13" max="17" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.7265625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3">
+        <v>50</v>
+      </c>
+      <c r="H3" s="3">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="13">
+        <v>1.0590886802985799</v>
+      </c>
+      <c r="N3" s="13">
+        <v>10.0969587297497</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.120414979100898</v>
+      </c>
+      <c r="P3" s="13">
+        <v>6.4194485050520694E-2</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>3.0946498315951601E-2</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="13">
+        <v>0.86948210155400896</v>
+      </c>
+      <c r="N4" s="13">
+        <v>11.163399067550399</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.110295287418847</v>
+      </c>
+      <c r="P4" s="13">
+        <v>8.96291850634863E-2</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>7.3593731918057001E-2</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="13">
+        <v>0.86787689438003301</v>
+      </c>
+      <c r="N5" s="13">
+        <v>9.9042727025184707</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.109970935237075</v>
+      </c>
+      <c r="P5" s="13">
+        <v>8.7013987099651899E-2</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>5.9227821472959699E-2</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>19863</v>
+      </c>
+      <c r="E6" s="2">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <v>50</v>
+      </c>
+      <c r="H6" s="3">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3">
+        <v>7</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="13">
+        <v>0.83419075870286896</v>
+      </c>
+      <c r="N6" s="13">
+        <v>10.815703975</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.10752592026314001</v>
+      </c>
+      <c r="P6" s="13">
+        <v>7.1300177838820505E-2</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>5.2852437024343002E-2</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>19863</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>50</v>
+      </c>
+      <c r="H7" s="3">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="13">
+        <v>0.84726409264259295</v>
+      </c>
+      <c r="N7" s="13">
+        <v>10.7053474559947</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0.108184258861334</v>
+      </c>
+      <c r="P7" s="13">
+        <v>6.9157370996333206E-2</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>5.1092277275688699E-2</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>19863</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>50</v>
+      </c>
+      <c r="H8" s="3">
+        <v>21</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="13">
+        <v>0.79669440831159299</v>
+      </c>
+      <c r="N8" s="13">
+        <v>9.2174688751987599</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0.105572916965178</v>
+      </c>
+      <c r="P8" s="13">
+        <v>6.5199569276809505E-2</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>4.2390620979312101E-2</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>19863</v>
+      </c>
+      <c r="E9" s="2">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="12">
+        <v>0.80038244191712404</v>
+      </c>
+      <c r="N9" s="13">
+        <v>10.0155090829626</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0.105287008045341</v>
+      </c>
+      <c r="P9" s="13">
+        <v>6.3141385710627995E-2</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>4.2979536414488401E-2</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>19863</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="13">
+        <v>0.79325627525355602</v>
+      </c>
+      <c r="N10" s="13">
+        <v>9.7206576334251906</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.10496133224816399</v>
+      </c>
+      <c r="P10" s="13">
+        <v>5.9014914421637803E-2</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>3.7856747294974499E-2</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>19863</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3">
+        <v>50</v>
+      </c>
+      <c r="H11" s="3">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="13">
+        <v>0.77547197875461105</v>
+      </c>
+      <c r="N11" s="13">
+        <v>9.1052597460046396</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0.10529276768529</v>
+      </c>
+      <c r="P11" s="13">
+        <v>6.04159170370498E-2</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>3.6945452498413398E-2</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E12" s="4">
+        <v>42</v>
+      </c>
+      <c r="F12" s="4">
+        <v>25</v>
+      </c>
+      <c r="G12" s="5">
+        <v>50</v>
+      </c>
+      <c r="H12" s="5">
+        <v>14</v>
+      </c>
+      <c r="I12" s="5">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="14">
+        <v>1.2391331745657099</v>
+      </c>
+      <c r="N12" s="14">
+        <v>41.668678537912498</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0.14474497013057999</v>
+      </c>
+      <c r="P12" s="14">
+        <v>9.0956822491833803E-2</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0.1171239662947</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43</v>
+      </c>
+      <c r="F13" s="4">
+        <v>25</v>
+      </c>
+      <c r="G13" s="5">
+        <v>50</v>
+      </c>
+      <c r="H13" s="5">
+        <v>14</v>
+      </c>
+      <c r="I13" s="5">
+        <v>7</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="14">
+        <v>1.2246919468774999</v>
+      </c>
+      <c r="N13" s="14">
+        <v>43.073853096103001</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0.14196743652895</v>
+      </c>
+      <c r="P13" s="14">
+        <v>9.3606632272868806E-2</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0.12581174207687601</v>
+      </c>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E14" s="4">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4">
+        <v>25</v>
+      </c>
+      <c r="G14" s="5">
+        <v>50</v>
+      </c>
+      <c r="H14" s="5">
+        <v>14</v>
+      </c>
+      <c r="I14" s="5">
+        <v>7</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="14">
+        <v>1.16173745558769</v>
+      </c>
+      <c r="N14" s="14">
+        <v>41.034461174662397</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0.137714178756523</v>
+      </c>
+      <c r="P14" s="14">
+        <v>8.0312013826844095E-2</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0.10819235412599899</v>
+      </c>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4">
+        <v>50</v>
+      </c>
+      <c r="G15" s="5">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5">
+        <v>14</v>
+      </c>
+      <c r="I15" s="5">
+        <v>7</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="14">
+        <v>1.3085522501854301</v>
+      </c>
+      <c r="N15" s="14">
+        <v>47.718695448793497</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0.15102608315721699</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0.117946725215059</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0.18360709935220401</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43</v>
+      </c>
+      <c r="F16" s="4">
+        <v>50</v>
+      </c>
+      <c r="G16" s="5">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5">
+        <v>7</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="14">
+        <v>1.2551502602223901</v>
+      </c>
+      <c r="N16" s="14">
+        <v>45.571063660721798</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0.14377983684127099</v>
+      </c>
+      <c r="P16" s="14">
+        <v>9.7574029332455098E-2</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0.13344068611103899</v>
+      </c>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E17" s="4">
+        <v>44</v>
+      </c>
+      <c r="F17" s="4">
+        <v>50</v>
+      </c>
+      <c r="G17" s="5">
+        <v>50</v>
+      </c>
+      <c r="H17" s="5">
+        <v>14</v>
+      </c>
+      <c r="I17" s="5">
+        <v>7</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="14">
+        <v>1.1591628075831999</v>
+      </c>
+      <c r="N17" s="14">
+        <v>42.002414810494599</v>
+      </c>
+      <c r="O17" s="14">
+        <v>0.13609740201189199</v>
+      </c>
+      <c r="P17" s="14">
+        <v>8.7433503561880593E-2</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>0.12803950174179701</v>
+      </c>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E18" s="4">
+        <v>42</v>
+      </c>
+      <c r="F18" s="4">
+        <v>25</v>
+      </c>
+      <c r="G18" s="5">
+        <v>50</v>
+      </c>
+      <c r="H18" s="5">
+        <v>21</v>
+      </c>
+      <c r="I18" s="5">
+        <v>7</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="14">
+        <v>1.43294443802534</v>
+      </c>
+      <c r="N18" s="14">
+        <v>47.522759114160898</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0.15617359108928799</v>
+      </c>
+      <c r="P18" s="14">
+        <v>8.8084355134814094E-2</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>8.99238508912166E-2</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43</v>
+      </c>
+      <c r="F19" s="4">
+        <v>25</v>
+      </c>
+      <c r="G19" s="5">
+        <v>50</v>
+      </c>
+      <c r="H19" s="5">
+        <v>21</v>
+      </c>
+      <c r="I19" s="5">
+        <v>7</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="14">
+        <v>1.37068403441141</v>
+      </c>
+      <c r="N19" s="14">
+        <v>45.147097422076897</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0.152123549623223</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0.103107159205456</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0.12852060856410399</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E20" s="4">
+        <v>44</v>
+      </c>
+      <c r="F20" s="4">
+        <v>25</v>
+      </c>
+      <c r="G20" s="5">
+        <v>50</v>
+      </c>
+      <c r="H20" s="5">
+        <v>21</v>
+      </c>
+      <c r="I20" s="5">
+        <v>7</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="14">
+        <v>1.8370979795408799</v>
+      </c>
+      <c r="N20" s="14">
+        <v>65.551152728490706</v>
+      </c>
+      <c r="O20" s="14">
+        <v>0.18916757498450501</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0.159005665913556</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>0.21209374706150499</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6">
+        <v>47437</v>
+      </c>
+      <c r="E21" s="6">
+        <v>42</v>
+      </c>
+      <c r="F21" s="6">
+        <v>25</v>
+      </c>
+      <c r="G21" s="7">
+        <v>50</v>
+      </c>
+      <c r="H21" s="7">
+        <v>28</v>
+      </c>
+      <c r="I21" s="7">
+        <v>7</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="15">
+        <v>1.40424513545234</v>
+      </c>
+      <c r="N21" s="15">
+        <v>45.0325841433311</v>
+      </c>
+      <c r="O21" s="15">
+        <v>0.15594551324453501</v>
+      </c>
+      <c r="P21" s="15">
+        <v>9.2863293125452495E-2</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>0.10541861298763899</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6">
+        <v>47437</v>
+      </c>
+      <c r="E22" s="6">
+        <v>42</v>
+      </c>
+      <c r="F22" s="6">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7">
+        <v>50</v>
+      </c>
+      <c r="H22" s="7">
+        <v>28</v>
+      </c>
+      <c r="I22" s="7">
+        <v>7</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="15">
+        <v>1.3968240245629</v>
+      </c>
+      <c r="N22" s="15">
+        <v>44.343473044672201</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0.15266464800548901</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0.10873459120011</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0.14106791904426899</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6">
+        <v>47437</v>
+      </c>
+      <c r="E23" s="6">
+        <v>42</v>
+      </c>
+      <c r="F23" s="6">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
+        <v>28</v>
+      </c>
+      <c r="I23" s="7">
+        <v>7</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="15">
+        <v>1.53068941620192</v>
+      </c>
+      <c r="N23" s="15">
+        <v>45.653923319839699</v>
+      </c>
+      <c r="O23" s="15">
+        <v>0.17440079334261699</v>
+      </c>
+      <c r="P23" s="15">
+        <v>0.118815261375925</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>0.148819322628121</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6">
+        <v>47437</v>
+      </c>
+      <c r="E24" s="6">
+        <v>42</v>
+      </c>
+      <c r="F24" s="6">
+        <v>25</v>
+      </c>
+      <c r="G24" s="7">
+        <v>50</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="7">
+        <v>7</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="15">
+        <v>0.96366146465587199</v>
+      </c>
+      <c r="N24" s="15">
+        <v>11.7982207671586</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0.13122598570348901</v>
+      </c>
+      <c r="P24" s="15">
+        <v>7.3568422773155506E-2</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>4.9285672437264498E-2</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6">
+        <v>47437</v>
+      </c>
+      <c r="E25" s="6">
+        <v>43</v>
+      </c>
+      <c r="F25" s="6">
+        <v>25</v>
+      </c>
+      <c r="G25" s="7">
+        <v>50</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="7">
+        <v>7</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="7">
+        <v>-1.2010000000000001</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0.93256063121999999</v>
+      </c>
+      <c r="N25" s="15">
+        <v>12.4512</v>
+      </c>
+      <c r="O25" s="15">
+        <v>0.1295</v>
+      </c>
+      <c r="P25" s="15">
+        <v>7.0601778500000004E-2</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>4.9718166899999999E-2</v>
+      </c>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="29">
+        <v>47437</v>
+      </c>
+      <c r="E26" s="29">
+        <v>44</v>
+      </c>
+      <c r="F26" s="29">
+        <v>25</v>
+      </c>
+      <c r="G26" s="30">
+        <v>50</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="30">
+        <v>7</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="30">
+        <v>-1.19</v>
+      </c>
+      <c r="M26" s="31">
+        <v>0.95004999999999995</v>
+      </c>
+      <c r="N26" s="31">
+        <v>12.21768</v>
+      </c>
+      <c r="O26" s="31">
+        <v>0.12685070000000001</v>
+      </c>
+      <c r="P26" s="31">
+        <v>7.3889999999999997E-2</v>
+      </c>
+      <c r="Q26" s="31">
+        <v>5.5218999999999997E-2</v>
+      </c>
+      <c r="R26" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M27" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AF3A36-8329-4641-8F20-69FE4A8D253B}">
   <dimension ref="A1:P113"/>
@@ -7947,11 +10270,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P109"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9515,182 +11838,97 @@
       <c r="O45" s="22"/>
       <c r="P45" s="21"/>
     </row>
-    <row r="46" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="56"/>
-    </row>
-    <row r="47" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="29" t="s">
+    <row r="46" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="29">
+      <c r="B46" s="20">
         <v>359</v>
       </c>
-      <c r="C47" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="29">
-        <v>30</v>
-      </c>
-      <c r="F47" s="30">
-        <v>200</v>
-      </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="48">
-        <v>16.4086691296114</v>
-      </c>
-      <c r="L47" s="31">
-        <v>0.33242257333183201</v>
-      </c>
-      <c r="M47" s="31">
-        <v>617.55311544437495</v>
-      </c>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="30"/>
-    </row>
-    <row r="48" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="29">
-        <v>359</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="29">
+      <c r="C46" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="20">
         <v>100</v>
       </c>
-      <c r="F48" s="30">
-        <v>50</v>
-      </c>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="48">
-        <v>10.6470938985173</v>
-      </c>
-      <c r="L48" s="31">
-        <v>0.16259793191504299</v>
-      </c>
-      <c r="M48" s="31">
-        <v>393.64675336399199</v>
-      </c>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="29">
-        <v>359</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="30">
-        <v>15386</v>
-      </c>
-      <c r="E49" s="29">
-        <v>100</v>
-      </c>
-      <c r="F49" s="30">
-        <v>50</v>
-      </c>
-      <c r="G49" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30">
+      <c r="F46" s="21">
+        <v>50</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="21">
         <v>42</v>
       </c>
-      <c r="J49" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="K49" s="48">
-        <v>10.72925719</v>
-      </c>
-      <c r="L49" s="31">
-        <v>0.17165316</v>
-      </c>
-      <c r="M49" s="31">
-        <v>399.04034999999999</v>
-      </c>
-      <c r="N49" s="31">
-        <v>0.14003603000000001</v>
-      </c>
-      <c r="O49" s="31">
-        <v>0.19883275</v>
-      </c>
-      <c r="P49" s="30"/>
-    </row>
-    <row r="50" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="29">
-        <v>359</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="30">
-        <v>15386</v>
-      </c>
-      <c r="E50" s="29">
-        <v>100</v>
-      </c>
-      <c r="F50" s="30">
-        <v>50</v>
-      </c>
-      <c r="G50" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30">
-        <v>43</v>
-      </c>
-      <c r="J50" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="K50" s="48">
-        <v>8.70306888</v>
-      </c>
-      <c r="L50" s="31">
-        <v>0.15061564999999999</v>
-      </c>
-      <c r="M50" s="31">
-        <v>320.36079999999998</v>
-      </c>
-      <c r="N50" s="31">
-        <v>0.11946370000000001</v>
-      </c>
-      <c r="O50" s="31">
-        <v>0.1698606</v>
-      </c>
-      <c r="P50" s="30"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="21"/>
+    </row>
+    <row r="47" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="21"/>
+    </row>
+    <row r="48" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="21"/>
+    </row>
+    <row r="49" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="21"/>
+    </row>
+    <row r="50" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="56"/>
     </row>
     <row r="51" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="29" t="s">
@@ -9702,40 +11940,28 @@
       <c r="C51" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="30">
-        <v>15386</v>
-      </c>
+      <c r="D51" s="30"/>
       <c r="E51" s="29">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F51" s="30">
-        <v>50</v>
-      </c>
-      <c r="G51" s="30" t="s">
-        <v>95</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G51" s="30"/>
       <c r="H51" s="30"/>
-      <c r="I51" s="30">
-        <v>44</v>
-      </c>
-      <c r="J51" s="30" t="s">
-        <v>63</v>
-      </c>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
       <c r="K51" s="48">
-        <v>8.6578556599999992</v>
+        <v>16.4086691296114</v>
       </c>
       <c r="L51" s="31">
-        <v>0.149903804</v>
+        <v>0.33242257333183201</v>
       </c>
       <c r="M51" s="31">
-        <v>317.10480432000003</v>
-      </c>
-      <c r="N51" s="31">
-        <v>0.1199678829</v>
-      </c>
-      <c r="O51" s="31">
-        <v>0.12857254000000001</v>
-      </c>
+        <v>617.55311544437495</v>
+      </c>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
       <c r="P51" s="30"/>
     </row>
     <row r="52" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -9748,41 +11974,31 @@
       <c r="C52" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="30">
-        <v>15386</v>
-      </c>
+      <c r="D52" s="30"/>
       <c r="E52" s="29">
         <v>100</v>
       </c>
       <c r="F52" s="30">
         <v>50</v>
       </c>
-      <c r="G52" s="30" t="s">
-        <v>59</v>
-      </c>
+      <c r="G52" s="30"/>
       <c r="H52" s="30"/>
-      <c r="I52" s="30">
-        <v>42</v>
-      </c>
-      <c r="J52" s="30" t="s">
-        <v>64</v>
-      </c>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
       <c r="K52" s="48">
-        <v>9.8130951920000005</v>
+        <v>10.6470938985173</v>
       </c>
       <c r="L52" s="31">
-        <v>0.14436733032999999</v>
+        <v>0.16259793191504299</v>
       </c>
       <c r="M52" s="31">
-        <v>362.67111507999999</v>
-      </c>
-      <c r="N52" s="31">
-        <v>0.1239341865</v>
-      </c>
-      <c r="O52" s="31">
-        <v>0.14760006882224</v>
-      </c>
-      <c r="P52" s="30"/>
+        <v>393.64675336399199</v>
+      </c>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="30" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="29" t="s">
@@ -9804,29 +12020,29 @@
         <v>50</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="H53" s="30"/>
       <c r="I53" s="30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J53" s="30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K53" s="48">
-        <v>10.7201</v>
+        <v>10.72925719</v>
       </c>
       <c r="L53" s="31">
-        <v>0.15218716199999999</v>
+        <v>0.17165316</v>
       </c>
       <c r="M53" s="31">
-        <v>397.91272470000001</v>
+        <v>399.04034999999999</v>
       </c>
       <c r="N53" s="31">
-        <v>0.13509836</v>
+        <v>0.14003603000000001</v>
       </c>
       <c r="O53" s="31">
-        <v>0.14820700000000001</v>
+        <v>0.19883275</v>
       </c>
       <c r="P53" s="30"/>
     </row>
@@ -9850,29 +12066,29 @@
         <v>50</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="H54" s="30"/>
       <c r="I54" s="30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J54" s="30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K54" s="48">
-        <v>11.301873363</v>
+        <v>8.70306888</v>
       </c>
       <c r="L54" s="31">
-        <v>0.15833046679500001</v>
+        <v>0.15061564999999999</v>
       </c>
       <c r="M54" s="31">
-        <v>424.82098000000002</v>
+        <v>320.36079999999998</v>
       </c>
       <c r="N54" s="31">
-        <v>0.1439942263</v>
+        <v>0.11946370000000001</v>
       </c>
       <c r="O54" s="31">
-        <v>0.19992468332999999</v>
+        <v>0.1698606</v>
       </c>
       <c r="P54" s="30"/>
     </row>
@@ -9886,9 +12102,11 @@
       <c r="C55" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="30"/>
+      <c r="D55" s="30">
+        <v>15386</v>
+      </c>
       <c r="E55" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F55" s="30">
         <v>50</v>
@@ -9898,25 +12116,25 @@
       </c>
       <c r="H55" s="30"/>
       <c r="I55" s="30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J55" s="30" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="K55" s="48">
-        <v>7.0068327699999999</v>
+        <v>8.6578556599999992</v>
       </c>
       <c r="L55" s="31">
-        <v>0.1410860826</v>
+        <v>0.149903804</v>
       </c>
       <c r="M55" s="31">
-        <v>242.99340000000001</v>
+        <v>317.10480432000003</v>
       </c>
       <c r="N55" s="31">
-        <v>0.1072489645977</v>
+        <v>0.1199678829</v>
       </c>
       <c r="O55" s="31">
-        <v>0.13596631711288601</v>
+        <v>0.12857254000000001</v>
       </c>
       <c r="P55" s="30"/>
     </row>
@@ -9930,37 +12148,39 @@
       <c r="C56" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="30"/>
+      <c r="D56" s="30">
+        <v>15386</v>
+      </c>
       <c r="E56" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F56" s="30">
         <v>50</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H56" s="30"/>
       <c r="I56" s="30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J56" s="30" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="K56" s="48">
-        <v>10.4104283</v>
+        <v>9.8130951920000005</v>
       </c>
       <c r="L56" s="31">
-        <v>0.16121103370000001</v>
+        <v>0.14436733032999999</v>
       </c>
       <c r="M56" s="31">
-        <v>383.14273659999998</v>
+        <v>362.67111507999999</v>
       </c>
       <c r="N56" s="31">
-        <v>0.13422787781000001</v>
+        <v>0.1239341865</v>
       </c>
       <c r="O56" s="31">
-        <v>0.20450217478999999</v>
+        <v>0.14760006882224</v>
       </c>
       <c r="P56" s="30"/>
     </row>
@@ -9974,37 +12194,39 @@
       <c r="C57" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="30"/>
+      <c r="D57" s="30">
+        <v>15386</v>
+      </c>
       <c r="E57" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F57" s="30">
         <v>50</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H57" s="30"/>
       <c r="I57" s="30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J57" s="30" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="K57" s="48">
-        <v>6.6518347999999996</v>
+        <v>10.7201</v>
       </c>
       <c r="L57" s="31">
-        <v>0.1363467656</v>
+        <v>0.15218716199999999</v>
       </c>
       <c r="M57" s="31">
-        <v>235.68489199999999</v>
+        <v>397.91272470000001</v>
       </c>
       <c r="N57" s="31">
-        <v>0.10500094</v>
+        <v>0.13509836</v>
       </c>
       <c r="O57" s="31">
-        <v>0.111953526641</v>
+        <v>0.14820700000000001</v>
       </c>
       <c r="P57" s="30"/>
     </row>
@@ -10018,9 +12240,11 @@
       <c r="C58" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="30"/>
+      <c r="D58" s="30">
+        <v>15386</v>
+      </c>
       <c r="E58" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F58" s="30">
         <v>50</v>
@@ -10030,25 +12254,25 @@
       </c>
       <c r="H58" s="30"/>
       <c r="I58" s="30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J58" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K58" s="48">
-        <v>10.777133299999999</v>
+        <v>11.301873363</v>
       </c>
       <c r="L58" s="31">
-        <v>0.15160085717899999</v>
+        <v>0.15833046679500001</v>
       </c>
       <c r="M58" s="31">
-        <v>388.39005049000002</v>
+        <v>424.82098000000002</v>
       </c>
       <c r="N58" s="31">
-        <v>0.13713900000000001</v>
+        <v>0.1439942263</v>
       </c>
       <c r="O58" s="31">
-        <v>0.17569008999999999</v>
+        <v>0.19992468332999999</v>
       </c>
       <c r="P58" s="30"/>
     </row>
@@ -10070,29 +12294,29 @@
         <v>50</v>
       </c>
       <c r="G59" s="30" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="H59" s="30"/>
       <c r="I59" s="30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J59" s="30" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="K59" s="48">
-        <v>13.435300059999999</v>
+        <v>7.0068327699999999</v>
       </c>
       <c r="L59" s="31">
-        <v>0.1686590312</v>
+        <v>0.1410860826</v>
       </c>
       <c r="M59" s="31">
-        <v>497.068063</v>
+        <v>242.99340000000001</v>
       </c>
       <c r="N59" s="31">
-        <v>0.15986739</v>
+        <v>0.1072489645977</v>
       </c>
       <c r="O59" s="31">
-        <v>0.24110281</v>
+        <v>0.13596631711288601</v>
       </c>
       <c r="P59" s="30"/>
     </row>
@@ -10114,33 +12338,31 @@
         <v>50</v>
       </c>
       <c r="G60" s="30" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="H60" s="30"/>
       <c r="I60" s="30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J60" s="30" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="K60" s="48">
-        <v>8.203103037</v>
+        <v>10.4104283</v>
       </c>
       <c r="L60" s="31">
-        <v>0.13523108643000001</v>
+        <v>0.16121103370000001</v>
       </c>
       <c r="M60" s="31">
-        <v>297.015107</v>
+        <v>383.14273659999998</v>
       </c>
       <c r="N60" s="31">
-        <v>0.1154689012163</v>
+        <v>0.13422787781000001</v>
       </c>
       <c r="O60" s="31">
-        <v>0.13334746144689999</v>
-      </c>
-      <c r="P60" s="30" t="s">
-        <v>70</v>
-      </c>
+        <v>0.20450217478999999</v>
+      </c>
+      <c r="P60" s="30"/>
     </row>
     <row r="61" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="29" t="s">
@@ -10154,7 +12376,7 @@
       </c>
       <c r="D61" s="30"/>
       <c r="E61" s="29">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F61" s="30">
         <v>50</v>
@@ -10164,25 +12386,25 @@
       </c>
       <c r="H61" s="30"/>
       <c r="I61" s="30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J61" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K61" s="48">
-        <v>6.0037757300000001</v>
+        <v>6.6518347999999996</v>
       </c>
       <c r="L61" s="31">
-        <v>0.13354533392000001</v>
+        <v>0.1363467656</v>
       </c>
       <c r="M61" s="31">
-        <v>202.38707400000001</v>
+        <v>235.68489199999999</v>
       </c>
       <c r="N61" s="31">
-        <v>9.9980812390999999E-2</v>
+        <v>0.10500094</v>
       </c>
       <c r="O61" s="31">
-        <v>0.105768997</v>
+        <v>0.111953526641</v>
       </c>
       <c r="P61" s="30"/>
     </row>
@@ -10198,39 +12420,37 @@
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="29">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F62" s="30">
         <v>50</v>
       </c>
       <c r="G62" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H62" s="30"/>
       <c r="I62" s="30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J62" s="30" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="K62" s="48">
-        <v>6.7529000000000003</v>
+        <v>10.777133299999999</v>
       </c>
       <c r="L62" s="31">
-        <v>0.13807778000000001</v>
+        <v>0.15160085717899999</v>
       </c>
       <c r="M62" s="31">
-        <v>235.721982</v>
+        <v>388.39005049000002</v>
       </c>
       <c r="N62" s="31">
-        <v>0.10508633852</v>
+        <v>0.13713900000000001</v>
       </c>
       <c r="O62" s="31">
-        <v>0.13425699999999999</v>
-      </c>
-      <c r="P62" s="30" t="s">
-        <v>109</v>
-      </c>
+        <v>0.17569008999999999</v>
+      </c>
+      <c r="P62" s="30"/>
     </row>
     <row r="63" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="29" t="s">
@@ -10244,39 +12464,37 @@
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="29">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F63" s="30">
         <v>50</v>
       </c>
       <c r="G63" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H63" s="30"/>
       <c r="I63" s="30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J63" s="30" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="K63" s="48">
-        <v>6.5235595960000001</v>
+        <v>13.435300059999999</v>
       </c>
       <c r="L63" s="31">
-        <v>0.13687478</v>
+        <v>0.1686590312</v>
       </c>
       <c r="M63" s="31">
-        <v>229.5551773</v>
+        <v>497.068063</v>
       </c>
       <c r="N63" s="31">
-        <v>0.10425140711</v>
+        <v>0.15986739</v>
       </c>
       <c r="O63" s="31">
-        <v>0.12286002976</v>
-      </c>
-      <c r="P63" s="30" t="s">
-        <v>90</v>
-      </c>
+        <v>0.24110281</v>
+      </c>
+      <c r="P63" s="30"/>
     </row>
     <row r="64" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="29" t="s">
@@ -10290,37 +12508,39 @@
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="29">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F64" s="30">
         <v>50</v>
       </c>
       <c r="G64" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H64" s="30"/>
       <c r="I64" s="30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J64" s="30" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="K64" s="48">
-        <v>6.0480154945965898</v>
+        <v>8.203103037</v>
       </c>
       <c r="L64" s="31">
-        <v>0.13436759700000001</v>
+        <v>0.13523108643000001</v>
       </c>
       <c r="M64" s="31">
-        <v>204.10647334622101</v>
+        <v>297.015107</v>
       </c>
       <c r="N64" s="31">
-        <v>9.9972291687000003E-2</v>
+        <v>0.1154689012163</v>
       </c>
       <c r="O64" s="31">
-        <v>0.1193044315</v>
-      </c>
-      <c r="P64" s="30"/>
+        <v>0.13334746144689999</v>
+      </c>
+      <c r="P64" s="30" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="65" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="29" t="s">
@@ -10334,7 +12554,7 @@
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="29">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F65" s="30">
         <v>50</v>
@@ -10344,29 +12564,27 @@
       </c>
       <c r="H65" s="30"/>
       <c r="I65" s="30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J65" s="30" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K65" s="48">
-        <v>5.8031484197780001</v>
+        <v>6.0037757300000001</v>
       </c>
       <c r="L65" s="31">
-        <v>0.13233995766000001</v>
+        <v>0.13354533392000001</v>
       </c>
       <c r="M65" s="31">
-        <v>198.46312169999999</v>
+        <v>202.38707400000001</v>
       </c>
       <c r="N65" s="31">
-        <v>9.7379352919999995E-2</v>
+        <v>9.9980812390999999E-2</v>
       </c>
       <c r="O65" s="31">
-        <v>0.1104060288897</v>
-      </c>
-      <c r="P65" s="30" t="s">
-        <v>114</v>
-      </c>
+        <v>0.105768997</v>
+      </c>
+      <c r="P65" s="30"/>
     </row>
     <row r="66" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="29" t="s">
@@ -10380,7 +12598,7 @@
       </c>
       <c r="D66" s="30"/>
       <c r="E66" s="29">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F66" s="30">
         <v>50</v>
@@ -10390,28 +12608,28 @@
       </c>
       <c r="H66" s="30"/>
       <c r="I66" s="30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J66" s="30" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K66" s="48">
-        <v>6.3514216254780003</v>
+        <v>6.7529000000000003</v>
       </c>
       <c r="L66" s="31">
-        <v>0.13588432959999999</v>
+        <v>0.13807778000000001</v>
       </c>
       <c r="M66" s="31">
-        <v>222.15603369999999</v>
+        <v>235.721982</v>
       </c>
       <c r="N66" s="31">
-        <v>0.102937979065264</v>
+        <v>0.10508633852</v>
       </c>
       <c r="O66" s="31">
-        <v>0.1176336321</v>
+        <v>0.13425699999999999</v>
       </c>
       <c r="P66" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -10426,7 +12644,7 @@
       </c>
       <c r="D67" s="30"/>
       <c r="E67" s="29">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F67" s="30">
         <v>50</v>
@@ -10436,28 +12654,28 @@
       </c>
       <c r="H67" s="30"/>
       <c r="I67" s="30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J67" s="30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K67" s="48">
-        <v>6.3662508004899996</v>
+        <v>6.5235595960000001</v>
       </c>
       <c r="L67" s="31">
-        <v>0.13638056133099999</v>
+        <v>0.13687478</v>
       </c>
       <c r="M67" s="31">
-        <v>214.22368589999999</v>
+        <v>229.5551773</v>
       </c>
       <c r="N67" s="31">
-        <v>0.10215334849954601</v>
+        <v>0.10425140711</v>
       </c>
       <c r="O67" s="31">
-        <v>0.12729306600000001</v>
+        <v>0.12286002976</v>
       </c>
       <c r="P67" s="30" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -10472,7 +12690,7 @@
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="29">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F68" s="30">
         <v>50</v>
@@ -10482,29 +12700,27 @@
       </c>
       <c r="H68" s="30"/>
       <c r="I68" s="30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J68" s="30" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K68" s="48">
-        <v>6.1100263300000002</v>
+        <v>6.0480154945965898</v>
       </c>
       <c r="L68" s="31">
-        <v>0.13559048050521999</v>
+        <v>0.13436759700000001</v>
       </c>
       <c r="M68" s="31">
-        <v>207.16347017870001</v>
+        <v>204.10647334622101</v>
       </c>
       <c r="N68" s="31">
-        <v>0.1007289141</v>
+        <v>9.9972291687000003E-2</v>
       </c>
       <c r="O68" s="31">
-        <v>0.1227116273</v>
-      </c>
-      <c r="P68" s="30" t="s">
-        <v>119</v>
-      </c>
+        <v>0.1193044315</v>
+      </c>
+      <c r="P68" s="30"/>
     </row>
     <row r="69" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="29" t="s">
@@ -10518,7 +12734,7 @@
       </c>
       <c r="D69" s="30"/>
       <c r="E69" s="29">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F69" s="30">
         <v>50</v>
@@ -10528,31 +12744,31 @@
       </c>
       <c r="H69" s="30"/>
       <c r="I69" s="30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J69" s="30" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K69" s="48">
-        <v>6.4098323160000001</v>
+        <v>5.8031484197780001</v>
       </c>
       <c r="L69" s="31">
-        <v>0.13621652086789601</v>
+        <v>0.13233995766000001</v>
       </c>
       <c r="M69" s="31">
-        <v>221.59657753168699</v>
+        <v>198.46312169999999</v>
       </c>
       <c r="N69" s="31">
-        <v>0.10367467649999999</v>
+        <v>9.7379352919999995E-2</v>
       </c>
       <c r="O69" s="31">
-        <v>0.11636274752</v>
+        <v>0.1104060288897</v>
       </c>
       <c r="P69" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="29" t="s">
         <v>22</v>
       </c>
@@ -10564,41 +12780,41 @@
       </c>
       <c r="D70" s="30"/>
       <c r="E70" s="29">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F70" s="30">
         <v>50</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H70" s="30" t="s">
-        <v>71</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H70" s="30"/>
       <c r="I70" s="30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J70" s="30" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="K70" s="48">
-        <v>16.03567439</v>
+        <v>6.3514216254780003</v>
       </c>
       <c r="L70" s="31">
-        <v>0.19248364176999999</v>
+        <v>0.13588432959999999</v>
       </c>
       <c r="M70" s="31">
-        <v>608.59690000000001</v>
+        <v>222.15603369999999</v>
       </c>
       <c r="N70" s="31">
-        <v>0.18296665300000001</v>
+        <v>0.102937979065264</v>
       </c>
       <c r="O70" s="31">
-        <v>9.2035199999999998E-2</v>
-      </c>
-      <c r="P70" s="30"/>
-    </row>
-    <row r="71" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>0.1176336321</v>
+      </c>
+      <c r="P70" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="29" t="s">
         <v>22</v>
       </c>
@@ -10610,41 +12826,41 @@
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="29">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F71" s="30">
         <v>50</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H71" s="30" t="s">
-        <v>71</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H71" s="30"/>
       <c r="I71" s="30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J71" s="30" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="K71" s="48">
-        <v>13.1316805753334</v>
+        <v>6.3662508004899996</v>
       </c>
       <c r="L71" s="31">
-        <v>0.16609676600000001</v>
+        <v>0.13638056133099999</v>
       </c>
       <c r="M71" s="31">
-        <v>493.88312776250001</v>
+        <v>214.22368589999999</v>
       </c>
       <c r="N71" s="31">
-        <v>0.15641527599999999</v>
+        <v>0.10215334849954601</v>
       </c>
       <c r="O71" s="31">
-        <v>0.22446119091799999</v>
-      </c>
-      <c r="P71" s="30"/>
-    </row>
-    <row r="72" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>0.12729306600000001</v>
+      </c>
+      <c r="P71" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="29" t="s">
         <v>22</v>
       </c>
@@ -10656,41 +12872,41 @@
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="29">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F72" s="30">
         <v>50</v>
       </c>
       <c r="G72" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H72" s="30" t="s">
-        <v>71</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H72" s="30"/>
       <c r="I72" s="30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J72" s="30" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="K72" s="48">
-        <v>10.235079600000001</v>
+        <v>6.1100263300000002</v>
       </c>
       <c r="L72" s="31">
-        <v>0.14844508109999999</v>
+        <v>0.13559048050521999</v>
       </c>
       <c r="M72" s="31">
-        <v>379.2915809639</v>
+        <v>207.16347017870001</v>
       </c>
       <c r="N72" s="31">
-        <v>0.13010842297700001</v>
+        <v>0.1007289141</v>
       </c>
       <c r="O72" s="31">
-        <v>0.15398893</v>
-      </c>
-      <c r="P72" s="30"/>
-    </row>
-    <row r="73" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>0.1227116273</v>
+      </c>
+      <c r="P72" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="29" t="s">
         <v>22</v>
       </c>
@@ -10700,44 +12916,40 @@
       <c r="C73" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="30">
-        <v>36026</v>
-      </c>
+      <c r="D73" s="30"/>
       <c r="E73" s="29">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F73" s="30">
         <v>50</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H73" s="30" t="s">
-        <v>75</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H73" s="30"/>
       <c r="I73" s="30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J73" s="30" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="K73" s="48">
-        <v>13.049903618</v>
+        <v>6.4098323160000001</v>
       </c>
       <c r="L73" s="31">
-        <v>0.16334450726499999</v>
+        <v>0.13621652086789601</v>
       </c>
       <c r="M73" s="31">
-        <v>489.60770477</v>
+        <v>221.59657753168699</v>
       </c>
       <c r="N73" s="31">
-        <v>0.15213711999999999</v>
+        <v>0.10367467649999999</v>
       </c>
       <c r="O73" s="31">
-        <v>0.22023529</v>
+        <v>0.11636274752</v>
       </c>
       <c r="P73" s="30" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -10750,9 +12962,7 @@
       <c r="C74" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="30">
-        <v>36026</v>
-      </c>
+      <c r="D74" s="30"/>
       <c r="E74" s="29">
         <v>100</v>
       </c>
@@ -10763,28 +12973,28 @@
         <v>59</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I74" s="30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J74" s="30" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K74" s="48">
-        <v>12.451769173000001</v>
+        <v>16.03567439</v>
       </c>
       <c r="L74" s="31">
-        <v>0.164850369</v>
+        <v>0.19248364176999999</v>
       </c>
       <c r="M74" s="31">
-        <v>464.64618866439997</v>
+        <v>608.59690000000001</v>
       </c>
       <c r="N74" s="31">
-        <v>0.14817509353</v>
+        <v>0.18296665300000001</v>
       </c>
       <c r="O74" s="31">
-        <v>0.11641990000000001</v>
+        <v>9.2035199999999998E-2</v>
       </c>
       <c r="P74" s="30"/>
     </row>
@@ -10798,9 +13008,7 @@
       <c r="C75" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="30">
-        <v>36026</v>
-      </c>
+      <c r="D75" s="30"/>
       <c r="E75" s="29">
         <v>100</v>
       </c>
@@ -10811,32 +13019,30 @@
         <v>59</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I75" s="30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J75" s="30" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K75" s="48">
-        <v>11.494593650000001</v>
+        <v>13.1316805753334</v>
       </c>
       <c r="L75" s="31">
-        <v>0.16233112099999999</v>
+        <v>0.16609676600000001</v>
       </c>
       <c r="M75" s="31">
-        <v>428.71738231559999</v>
+        <v>493.88312776250001</v>
       </c>
       <c r="N75" s="31">
-        <v>0.14881399170000001</v>
+        <v>0.15641527599999999</v>
       </c>
       <c r="O75" s="31">
-        <v>0.15006207299999999</v>
-      </c>
-      <c r="P75" s="30" t="s">
-        <v>80</v>
-      </c>
+        <v>0.22446119091799999</v>
+      </c>
+      <c r="P75" s="30"/>
     </row>
     <row r="76" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="29" t="s">
@@ -10848,9 +13054,7 @@
       <c r="C76" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="30">
-        <v>36026</v>
-      </c>
+      <c r="D76" s="30"/>
       <c r="E76" s="29">
         <v>100</v>
       </c>
@@ -10858,35 +13062,33 @@
         <v>50</v>
       </c>
       <c r="G76" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I76" s="30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J76" s="30" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K76" s="48">
-        <v>9.2177558292892599</v>
+        <v>10.235079600000001</v>
       </c>
       <c r="L76" s="31">
-        <v>0.15530897499999999</v>
+        <v>0.14844508109999999</v>
       </c>
       <c r="M76" s="31">
-        <v>336.53670481749998</v>
+        <v>379.2915809639</v>
       </c>
       <c r="N76" s="31">
-        <v>0.12377701319999999</v>
+        <v>0.13010842297700001</v>
       </c>
       <c r="O76" s="31">
-        <v>0.14835202777000001</v>
-      </c>
-      <c r="P76" s="30" t="s">
-        <v>82</v>
-      </c>
+        <v>0.15398893</v>
+      </c>
+      <c r="P76" s="30"/>
     </row>
     <row r="77" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="29" t="s">
@@ -10908,34 +13110,34 @@
         <v>50</v>
       </c>
       <c r="G77" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H77" s="30" t="s">
         <v>75</v>
       </c>
       <c r="I77" s="30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J77" s="30" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K77" s="48">
-        <v>8.8180738600000002</v>
+        <v>13.049903618</v>
       </c>
       <c r="L77" s="31">
-        <v>0.15258193145000001</v>
+        <v>0.16334450726499999</v>
       </c>
       <c r="M77" s="31">
-        <v>320.78373590000001</v>
+        <v>489.60770477</v>
       </c>
       <c r="N77" s="31">
-        <v>0.119732472777</v>
+        <v>0.15213711999999999</v>
       </c>
       <c r="O77" s="31">
-        <v>0.12166320679000001</v>
+        <v>0.22023529</v>
       </c>
       <c r="P77" s="30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -10958,31 +13160,31 @@
         <v>50</v>
       </c>
       <c r="G78" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H78" s="30" t="s">
         <v>75</v>
       </c>
       <c r="I78" s="30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J78" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K78" s="48">
-        <v>9.5201403300000003</v>
+        <v>12.451769173000001</v>
       </c>
       <c r="L78" s="31">
-        <v>0.15704856580000001</v>
+        <v>0.164850369</v>
       </c>
       <c r="M78" s="31">
-        <v>351.93521199999998</v>
+        <v>464.64618866439997</v>
       </c>
       <c r="N78" s="31">
-        <v>0.127459316982</v>
+        <v>0.14817509353</v>
       </c>
       <c r="O78" s="31">
-        <v>0.14563675970000001</v>
+        <v>0.11641990000000001</v>
       </c>
       <c r="P78" s="30"/>
     </row>
@@ -11000,40 +13202,40 @@
         <v>36026</v>
       </c>
       <c r="E79" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F79" s="30">
         <v>50</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H79" s="30" t="s">
         <v>75</v>
       </c>
       <c r="I79" s="30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J79" s="30" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K79" s="48">
-        <v>8.7639375584000003</v>
+        <v>11.494593650000001</v>
       </c>
       <c r="L79" s="31">
-        <v>0.1464821889</v>
+        <v>0.16233112099999999</v>
       </c>
       <c r="M79" s="31">
-        <v>306.15048400000001</v>
+        <v>428.71738231559999</v>
       </c>
       <c r="N79" s="31">
-        <v>0.11912004599999999</v>
+        <v>0.14881399170000001</v>
       </c>
       <c r="O79" s="31">
-        <v>0.1165984</v>
+        <v>0.15006207299999999</v>
       </c>
       <c r="P79" s="30" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -11050,7 +13252,7 @@
         <v>36026</v>
       </c>
       <c r="E80" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F80" s="30">
         <v>50</v>
@@ -11062,27 +13264,29 @@
         <v>75</v>
       </c>
       <c r="I80" s="30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J80" s="30" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K80" s="48">
-        <v>5.9195519499999998</v>
+        <v>9.2177558292892599</v>
       </c>
       <c r="L80" s="31">
-        <v>0.13428054277910001</v>
+        <v>0.15530897499999999</v>
       </c>
       <c r="M80" s="31">
-        <v>215.18027860000001</v>
+        <v>336.53670481749998</v>
       </c>
       <c r="N80" s="31">
-        <v>9.9630746399999998E-2</v>
+        <v>0.12377701319999999</v>
       </c>
       <c r="O80" s="31">
-        <v>0.12214474995000001</v>
-      </c>
-      <c r="P80" s="30"/>
+        <v>0.14835202777000001</v>
+      </c>
+      <c r="P80" s="30" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="81" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="29" t="s">
@@ -11098,7 +13302,7 @@
         <v>36026</v>
       </c>
       <c r="E81" s="29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F81" s="30">
         <v>50</v>
@@ -11110,28 +13314,28 @@
         <v>75</v>
       </c>
       <c r="I81" s="30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J81" s="30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K81" s="48">
-        <v>6.4270546235561099</v>
+        <v>8.8180738600000002</v>
       </c>
       <c r="L81" s="31">
-        <v>0.1362724863</v>
+        <v>0.15258193145000001</v>
       </c>
       <c r="M81" s="31">
-        <v>220.17643247870001</v>
+        <v>320.78373590000001</v>
       </c>
       <c r="N81" s="31">
-        <v>0.1041889</v>
+        <v>0.119732472777</v>
       </c>
       <c r="O81" s="31">
-        <v>0.124968</v>
+        <v>0.12166320679000001</v>
       </c>
       <c r="P81" s="30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -11148,7 +13352,7 @@
         <v>36026</v>
       </c>
       <c r="E82" s="29">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F82" s="30">
         <v>50</v>
@@ -11160,29 +13364,27 @@
         <v>75</v>
       </c>
       <c r="I82" s="30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J82" s="30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K82" s="48">
-        <v>8.5027600794700007</v>
+        <v>9.5201403300000003</v>
       </c>
       <c r="L82" s="31">
-        <v>0.1513447</v>
+        <v>0.15704856580000001</v>
       </c>
       <c r="M82" s="31">
-        <v>286.82485454099998</v>
+        <v>351.93521199999998</v>
       </c>
       <c r="N82" s="31">
-        <v>0.1215094897</v>
+        <v>0.127459316982</v>
       </c>
       <c r="O82" s="31">
-        <v>0.16064863500000001</v>
-      </c>
-      <c r="P82" s="30" t="s">
-        <v>90</v>
-      </c>
+        <v>0.14563675970000001</v>
+      </c>
+      <c r="P82" s="30"/>
     </row>
     <row r="83" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="29" t="s">
@@ -11198,7 +13400,7 @@
         <v>36026</v>
       </c>
       <c r="E83" s="29">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F83" s="30">
         <v>50</v>
@@ -11210,28 +13412,28 @@
         <v>75</v>
       </c>
       <c r="I83" s="30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J83" s="30" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K83" s="48">
-        <v>6.8753833000000002</v>
+        <v>8.7639375584000003</v>
       </c>
       <c r="L83" s="31">
-        <v>0.13872980300000001</v>
+        <v>0.1464821889</v>
       </c>
       <c r="M83" s="31">
-        <v>238.88609379869999</v>
+        <v>306.15048400000001</v>
       </c>
       <c r="N83" s="31">
-        <v>0.10595060620000001</v>
+        <v>0.11912004599999999</v>
       </c>
       <c r="O83" s="31">
-        <v>0.13758655</v>
+        <v>0.1165984</v>
       </c>
       <c r="P83" s="30" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -11248,7 +13450,7 @@
         <v>36026</v>
       </c>
       <c r="E84" s="29">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F84" s="30">
         <v>50</v>
@@ -11260,29 +13462,27 @@
         <v>75</v>
       </c>
       <c r="I84" s="30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J84" s="30" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K84" s="48">
-        <v>5.9290777628000004</v>
+        <v>5.9195519499999998</v>
       </c>
       <c r="L84" s="31">
-        <v>0.1337927562</v>
+        <v>0.13428054277910001</v>
       </c>
       <c r="M84" s="31">
-        <v>202.75682741675999</v>
+        <v>215.18027860000001</v>
       </c>
       <c r="N84" s="31">
-        <v>9.95973E-2</v>
+        <v>9.9630746399999998E-2</v>
       </c>
       <c r="O84" s="31">
-        <v>0.1150489655</v>
-      </c>
-      <c r="P84" s="30" t="s">
-        <v>49</v>
-      </c>
+        <v>0.12214474995000001</v>
+      </c>
+      <c r="P84" s="30"/>
     </row>
     <row r="85" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="29" t="s">
@@ -11298,7 +13498,7 @@
         <v>36026</v>
       </c>
       <c r="E85" s="29">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F85" s="30">
         <v>50</v>
@@ -11310,28 +13510,28 @@
         <v>75</v>
       </c>
       <c r="I85" s="30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J85" s="30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K85" s="48">
-        <v>7.7544706999999997</v>
+        <v>6.4270546235561099</v>
       </c>
       <c r="L85" s="31">
-        <v>0.14208837590000001</v>
+        <v>0.1362724863</v>
       </c>
       <c r="M85" s="31">
-        <v>245.13032999999999</v>
+        <v>220.17643247870001</v>
       </c>
       <c r="N85" s="31">
-        <v>0.11294001300000001</v>
+        <v>0.1041889</v>
       </c>
       <c r="O85" s="31">
-        <v>0.112643663</v>
+        <v>0.124968</v>
       </c>
       <c r="P85" s="30" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -11348,7 +13548,7 @@
         <v>36026</v>
       </c>
       <c r="E86" s="29">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F86" s="30">
         <v>50</v>
@@ -11360,28 +13560,28 @@
         <v>75</v>
       </c>
       <c r="I86" s="30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J86" s="30" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K86" s="48">
-        <v>6.5236116749999997</v>
+        <v>8.5027600794700007</v>
       </c>
       <c r="L86" s="31">
-        <v>0.13760903120000001</v>
+        <v>0.1513447</v>
       </c>
       <c r="M86" s="31">
-        <v>226.004137794</v>
+        <v>286.82485454099998</v>
       </c>
       <c r="N86" s="31">
-        <v>0.10323072749999999</v>
+        <v>0.1215094897</v>
       </c>
       <c r="O86" s="31">
-        <v>0.13298252171</v>
+        <v>0.16064863500000001</v>
       </c>
       <c r="P86" s="30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -11398,7 +13598,7 @@
         <v>36026</v>
       </c>
       <c r="E87" s="29">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F87" s="30">
         <v>50</v>
@@ -11410,28 +13610,28 @@
         <v>75</v>
       </c>
       <c r="I87" s="30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J87" s="30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K87" s="48">
-        <v>6.4351203300000002</v>
+        <v>6.8753833000000002</v>
       </c>
       <c r="L87" s="31">
-        <v>0.13660269999999999</v>
+        <v>0.13872980300000001</v>
       </c>
       <c r="M87" s="31">
-        <v>225.99700744</v>
+        <v>238.88609379869999</v>
       </c>
       <c r="N87" s="31">
-        <v>0.1025999177</v>
+        <v>0.10595060620000001</v>
       </c>
       <c r="O87" s="31">
-        <v>0.13147640576</v>
+        <v>0.13758655</v>
       </c>
       <c r="P87" s="30" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -11448,7 +13648,7 @@
         <v>36026</v>
       </c>
       <c r="E88" s="29">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F88" s="30">
         <v>50</v>
@@ -11460,18 +13660,28 @@
         <v>75</v>
       </c>
       <c r="I88" s="30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J88" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="K88" s="48"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="31"/>
-      <c r="O88" s="31"/>
+        <v>92</v>
+      </c>
+      <c r="K88" s="48">
+        <v>5.9290777628000004</v>
+      </c>
+      <c r="L88" s="31">
+        <v>0.1337927562</v>
+      </c>
+      <c r="M88" s="31">
+        <v>202.75682741675999</v>
+      </c>
+      <c r="N88" s="31">
+        <v>9.95973E-2</v>
+      </c>
+      <c r="O88" s="31">
+        <v>0.1150489655</v>
+      </c>
       <c r="P88" s="30" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -11488,7 +13698,7 @@
         <v>36026</v>
       </c>
       <c r="E89" s="29">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F89" s="30">
         <v>50</v>
@@ -11500,28 +13710,28 @@
         <v>75</v>
       </c>
       <c r="I89" s="30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J89" s="30" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K89" s="48">
-        <v>6.3533495029999996</v>
+        <v>7.7544706999999997</v>
       </c>
       <c r="L89" s="31">
-        <v>0.136336100392</v>
+        <v>0.14208837590000001</v>
       </c>
       <c r="M89" s="31">
-        <v>205.8732279976</v>
+        <v>245.13032999999999</v>
       </c>
       <c r="N89" s="31">
-        <v>0.102302975</v>
+        <v>0.11294001300000001</v>
       </c>
       <c r="O89" s="31">
-        <v>0.12459551174</v>
+        <v>0.112643663</v>
       </c>
       <c r="P89" s="30" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -11538,7 +13748,7 @@
         <v>36026</v>
       </c>
       <c r="E90" s="29">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F90" s="30">
         <v>50</v>
@@ -11550,46 +13760,81 @@
         <v>75</v>
       </c>
       <c r="I90" s="30">
+        <v>43</v>
+      </c>
+      <c r="J90" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="K90" s="48">
+        <v>6.5236116749999997</v>
+      </c>
+      <c r="L90" s="31">
+        <v>0.13760903120000001</v>
+      </c>
+      <c r="M90" s="31">
+        <v>226.004137794</v>
+      </c>
+      <c r="N90" s="31">
+        <v>0.10323072749999999</v>
+      </c>
+      <c r="O90" s="31">
+        <v>0.13298252171</v>
+      </c>
+      <c r="P90" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="29">
+        <v>359</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="30">
+        <v>36026</v>
+      </c>
+      <c r="E91" s="29">
+        <v>250</v>
+      </c>
+      <c r="F91" s="30">
+        <v>50</v>
+      </c>
+      <c r="G91" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H91" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I91" s="30">
         <v>44</v>
       </c>
-      <c r="J90" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="K90" s="48">
-        <v>6.262308429</v>
-      </c>
-      <c r="L90" s="31">
-        <v>0.136035616</v>
-      </c>
-      <c r="M90" s="31">
-        <v>209.7571959</v>
-      </c>
-      <c r="N90" s="31">
-        <v>0.10172748</v>
-      </c>
-      <c r="O90" s="31">
-        <v>0.12534682</v>
-      </c>
-      <c r="P90" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="48"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="31"/>
-      <c r="O91" s="31"/>
-      <c r="P91" s="30"/>
-    </row>
-    <row r="92" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J91" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="K91" s="48">
+        <v>6.4351203300000002</v>
+      </c>
+      <c r="L91" s="31">
+        <v>0.13660269999999999</v>
+      </c>
+      <c r="M91" s="31">
+        <v>225.99700744</v>
+      </c>
+      <c r="N91" s="31">
+        <v>0.1025999177</v>
+      </c>
+      <c r="O91" s="31">
+        <v>0.13147640576</v>
+      </c>
+      <c r="P91" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="29" t="s">
         <v>22</v>
       </c>
@@ -11599,33 +13844,37 @@
       <c r="C92" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="30"/>
+      <c r="D92" s="30">
+        <v>36026</v>
+      </c>
       <c r="E92" s="29">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F92" s="30">
-        <v>100</v>
-      </c>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="30"/>
-      <c r="K92" s="48">
-        <v>17.9047409798229</v>
-      </c>
-      <c r="L92" s="31">
-        <v>0.33365163476690102</v>
-      </c>
-      <c r="M92" s="31">
-        <v>655.79579474316597</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G92" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H92" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I92" s="30">
+        <v>42</v>
+      </c>
+      <c r="J92" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="K92" s="48"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
       <c r="N92" s="31"/>
       <c r="O92" s="31"/>
       <c r="P92" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="29" t="s">
         <v>22</v>
       </c>
@@ -11635,37 +13884,47 @@
       <c r="C93" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="30"/>
+      <c r="D93" s="30">
+        <v>36026</v>
+      </c>
       <c r="E93" s="29">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F93" s="30">
         <v>50</v>
       </c>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
+      <c r="G93" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H93" s="30" t="s">
+        <v>75</v>
+      </c>
       <c r="I93" s="30">
-        <v>42</v>
-      </c>
-      <c r="J93" s="30"/>
+        <v>43</v>
+      </c>
+      <c r="J93" s="30" t="s">
+        <v>102</v>
+      </c>
       <c r="K93" s="48">
-        <v>10.7292571932171</v>
-      </c>
-      <c r="L93" s="48">
-        <v>0.17132259999999999</v>
+        <v>6.3533495029999996</v>
+      </c>
+      <c r="L93" s="31">
+        <v>0.136336100392</v>
       </c>
       <c r="M93" s="31">
-        <v>399.04035499999998</v>
+        <v>205.8732279976</v>
       </c>
       <c r="N93" s="31">
-        <v>0.14003603048261601</v>
+        <v>0.102302975</v>
       </c>
       <c r="O93" s="31">
-        <v>0.19883275249999999</v>
-      </c>
-      <c r="P93" s="30"/>
-    </row>
-    <row r="94" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0.12459551174</v>
+      </c>
+      <c r="P93" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="29" t="s">
         <v>22</v>
       </c>
@@ -11675,310 +13934,285 @@
       <c r="C94" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="30"/>
+      <c r="D94" s="30">
+        <v>36026</v>
+      </c>
       <c r="E94" s="29">
+        <v>500</v>
+      </c>
+      <c r="F94" s="30">
+        <v>50</v>
+      </c>
+      <c r="G94" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H94" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I94" s="30">
+        <v>44</v>
+      </c>
+      <c r="J94" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F94" s="30">
-        <v>100</v>
-      </c>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="30">
-        <v>42</v>
-      </c>
-      <c r="J94" s="30"/>
       <c r="K94" s="48">
-        <v>6.3575092800000004</v>
+        <v>6.262308429</v>
       </c>
       <c r="L94" s="31">
-        <v>0.13704017330000001</v>
-      </c>
-      <c r="M94" s="48">
-        <v>211.23675800000001</v>
+        <v>0.136035616</v>
+      </c>
+      <c r="M94" s="31">
+        <v>209.7571959</v>
       </c>
       <c r="N94" s="31">
-        <v>0.1029408</v>
+        <v>0.10172748</v>
       </c>
       <c r="O94" s="31">
-        <v>0.11381707000000001</v>
-      </c>
-      <c r="P94" s="30"/>
+        <v>0.12534682</v>
+      </c>
+      <c r="P94" s="30" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="95" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" s="29">
-        <v>359</v>
-      </c>
-      <c r="C95" s="30" t="s">
-        <v>8</v>
-      </c>
+      <c r="C95" s="30"/>
       <c r="D95" s="30"/>
-      <c r="E95" s="29">
-        <v>100</v>
-      </c>
-      <c r="F95" s="30">
-        <v>200</v>
-      </c>
+      <c r="F95" s="30"/>
       <c r="G95" s="30"/>
       <c r="H95" s="30"/>
-      <c r="I95" s="30">
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="48"/>
+      <c r="L95" s="31"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="31"/>
+      <c r="O95" s="31"/>
+      <c r="P95" s="30"/>
+    </row>
+    <row r="96" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="29">
+        <v>359</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="30"/>
+      <c r="E96" s="29">
+        <v>100</v>
+      </c>
+      <c r="F96" s="30">
+        <v>100</v>
+      </c>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="48">
+        <v>17.9047409798229</v>
+      </c>
+      <c r="L96" s="31">
+        <v>0.33365163476690102</v>
+      </c>
+      <c r="M96" s="31">
+        <v>655.79579474316597</v>
+      </c>
+      <c r="N96" s="31"/>
+      <c r="O96" s="31"/>
+      <c r="P96" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="29">
+        <v>359</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="30"/>
+      <c r="E97" s="29">
+        <v>100</v>
+      </c>
+      <c r="F97" s="30">
+        <v>50</v>
+      </c>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30">
         <v>42</v>
       </c>
-      <c r="J95" s="30"/>
-      <c r="K95" s="48">
+      <c r="J97" s="30"/>
+      <c r="K97" s="48">
+        <v>10.7292571932171</v>
+      </c>
+      <c r="L97" s="48">
+        <v>0.17132259999999999</v>
+      </c>
+      <c r="M97" s="31">
+        <v>399.04035499999998</v>
+      </c>
+      <c r="N97" s="31">
+        <v>0.14003603048261601</v>
+      </c>
+      <c r="O97" s="31">
+        <v>0.19883275249999999</v>
+      </c>
+      <c r="P97" s="30"/>
+    </row>
+    <row r="98" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="29">
+        <v>359</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="30"/>
+      <c r="E98" s="29">
+        <v>100</v>
+      </c>
+      <c r="F98" s="30">
+        <v>100</v>
+      </c>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30">
+        <v>42</v>
+      </c>
+      <c r="J98" s="30"/>
+      <c r="K98" s="48">
+        <v>6.3575092800000004</v>
+      </c>
+      <c r="L98" s="31">
+        <v>0.13704017330000001</v>
+      </c>
+      <c r="M98" s="48">
+        <v>211.23675800000001</v>
+      </c>
+      <c r="N98" s="31">
+        <v>0.1029408</v>
+      </c>
+      <c r="O98" s="31">
+        <v>0.11381707000000001</v>
+      </c>
+      <c r="P98" s="30"/>
+    </row>
+    <row r="99" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="29">
+        <v>359</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="30"/>
+      <c r="E99" s="29">
+        <v>100</v>
+      </c>
+      <c r="F99" s="30">
+        <v>200</v>
+      </c>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30">
+        <v>42</v>
+      </c>
+      <c r="J99" s="30"/>
+      <c r="K99" s="48">
         <v>6.1139901967252896</v>
       </c>
-      <c r="L95" s="31">
+      <c r="L99" s="31">
         <v>0.13471676502000299</v>
       </c>
-      <c r="M95" s="31">
+      <c r="M99" s="31">
         <v>180.338513490298</v>
       </c>
-      <c r="N95" s="31">
+      <c r="N99" s="31">
         <v>0.10136832890986699</v>
       </c>
-      <c r="O95" s="31">
+      <c r="O99" s="31">
         <v>0.103828328604855</v>
       </c>
-      <c r="P95" s="30"/>
-    </row>
-    <row r="96" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="35" t="s">
+      <c r="P99" s="30"/>
+    </row>
+    <row r="100" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B96" s="35">
+      <c r="B100" s="35">
         <v>359</v>
       </c>
-      <c r="C96" s="32" t="s">
+      <c r="C100" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="32"/>
-      <c r="E96" s="35">
+      <c r="D100" s="32"/>
+      <c r="E100" s="35">
         <v>100</v>
       </c>
-      <c r="F96" s="32">
+      <c r="F100" s="32">
         <v>250</v>
       </c>
-      <c r="G96" s="32"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="32">
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32">
         <v>42</v>
       </c>
-      <c r="J96" s="32"/>
-      <c r="K96" s="32" t="s">
+      <c r="J100" s="32"/>
+      <c r="K100" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="L96" s="35" t="s">
+      <c r="L100" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="M96" s="35" t="s">
+      <c r="M100" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="N96" s="32" t="s">
+      <c r="N100" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O96" s="32" t="s">
+      <c r="O100" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="P96" s="32" t="s">
+      <c r="P100" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
-      <c r="F97" s="60"/>
-      <c r="G97" s="60"/>
-      <c r="H97" s="60"/>
-      <c r="I97" s="60"/>
-      <c r="J97" s="60"/>
-      <c r="K97" s="60"/>
-      <c r="N97" s="60"/>
-      <c r="O97" s="60"/>
-      <c r="P97" s="60"/>
-    </row>
-    <row r="98" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="60"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="60"/>
-      <c r="J98" s="60"/>
-      <c r="K98" s="60"/>
-      <c r="L98" s="60"/>
-      <c r="N98" s="60"/>
-      <c r="O98" s="60"/>
-      <c r="P98" s="60"/>
-    </row>
-    <row r="99" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" s="16">
-        <v>48000</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="17">
-        <v>13463</v>
-      </c>
-      <c r="E99" s="16">
-        <v>100</v>
-      </c>
-      <c r="F99" s="17">
-        <v>50</v>
-      </c>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17">
-        <v>42</v>
-      </c>
-      <c r="J99" s="17"/>
-      <c r="K99" s="18">
-        <v>1.2680859933141799</v>
-      </c>
-      <c r="L99" s="19">
-        <v>0.14616421362543899</v>
-      </c>
-      <c r="M99" s="19">
-        <v>28.511903687299199</v>
-      </c>
-      <c r="N99" s="19">
-        <v>0.13301715525572499</v>
-      </c>
-      <c r="O99" s="19"/>
-      <c r="P99" s="17"/>
-    </row>
-    <row r="100" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100" s="16">
-        <v>48000</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="17">
-        <v>13463</v>
-      </c>
-      <c r="E100" s="16">
-        <v>100</v>
-      </c>
-      <c r="F100" s="17">
-        <v>100</v>
-      </c>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17">
-        <v>42</v>
-      </c>
-      <c r="J100" s="17"/>
-      <c r="K100" s="18">
-        <v>1.12318553010888</v>
-      </c>
-      <c r="L100" s="19">
-        <v>0.14024808260219801</v>
-      </c>
-      <c r="M100" s="19">
-        <v>21.9494725945708</v>
-      </c>
-      <c r="N100" s="19">
-        <v>0.12659003502329899</v>
-      </c>
-      <c r="O100" s="19">
-        <v>8.7821689185904397E-2</v>
-      </c>
-      <c r="P100" s="17"/>
-    </row>
-    <row r="101" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B101" s="16">
-        <v>48000</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="17">
-        <v>13463</v>
-      </c>
-      <c r="E101" s="16">
-        <v>100</v>
-      </c>
-      <c r="F101" s="17">
-        <v>200</v>
-      </c>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17">
-        <v>42</v>
-      </c>
-      <c r="J101" s="17"/>
-      <c r="K101" s="18">
-        <v>0.99719524449035302</v>
-      </c>
-      <c r="L101" s="19">
-        <v>0.135560354927377</v>
-      </c>
-      <c r="M101" s="19">
-        <v>20.7128063902958</v>
-      </c>
-      <c r="N101" s="19">
-        <v>0.121544301356057</v>
-      </c>
-      <c r="O101" s="19">
-        <v>9.2526590339239004E-2</v>
-      </c>
-      <c r="P101" s="17"/>
-    </row>
-    <row r="102" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B102" s="16">
-        <v>48000</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="17">
-        <v>13463</v>
-      </c>
-      <c r="E102" s="16">
-        <v>100</v>
-      </c>
-      <c r="F102" s="17">
-        <v>400</v>
-      </c>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17">
-        <v>42</v>
-      </c>
-      <c r="J102" s="17"/>
-      <c r="K102" s="18">
-        <v>1.0867464112812699</v>
-      </c>
-      <c r="L102" s="19">
-        <v>0.13983351264476401</v>
-      </c>
-      <c r="M102" s="19">
-        <v>18.979743834511499</v>
-      </c>
-      <c r="N102" s="19">
-        <v>0.124734426884066</v>
-      </c>
-      <c r="O102" s="19">
-        <v>8.4780461418146394E-2</v>
-      </c>
-      <c r="P102" s="17"/>
+    <row r="101" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C101" s="60"/>
+      <c r="D101" s="60"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="60"/>
+      <c r="J101" s="60"/>
+      <c r="K101" s="60"/>
+      <c r="N101" s="60"/>
+      <c r="O101" s="60"/>
+      <c r="P101" s="60"/>
+    </row>
+    <row r="102" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="60"/>
+      <c r="J102" s="60"/>
+      <c r="K102" s="60"/>
+      <c r="L102" s="60"/>
+      <c r="N102" s="60"/>
+      <c r="O102" s="60"/>
+      <c r="P102" s="60"/>
     </row>
     <row r="103" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="16" t="s">
@@ -11994,7 +14228,7 @@
         <v>13463</v>
       </c>
       <c r="E103" s="16">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F103" s="17">
         <v>50</v>
@@ -12006,20 +14240,18 @@
       </c>
       <c r="J103" s="17"/>
       <c r="K103" s="18">
-        <v>1.05958695110418</v>
+        <v>1.2680859933141799</v>
       </c>
       <c r="L103" s="19">
-        <v>0.137825652728641</v>
+        <v>0.14616421362543899</v>
       </c>
       <c r="M103" s="19">
-        <v>20.122850769566899</v>
+        <v>28.511903687299199</v>
       </c>
       <c r="N103" s="19">
-        <v>0.123928959665505</v>
-      </c>
-      <c r="O103" s="19">
-        <v>8.7829006351591493E-2</v>
-      </c>
+        <v>0.13301715525572499</v>
+      </c>
+      <c r="O103" s="19"/>
       <c r="P103" s="17"/>
     </row>
     <row r="104" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -12036,7 +14268,7 @@
         <v>13463</v>
       </c>
       <c r="E104" s="16">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F104" s="17">
         <v>100</v>
@@ -12048,19 +14280,19 @@
       </c>
       <c r="J104" s="17"/>
       <c r="K104" s="18">
-        <v>1.02581849327672</v>
+        <v>1.12318553010888</v>
       </c>
       <c r="L104" s="19">
-        <v>0.13621914771003299</v>
+        <v>0.14024808260219801</v>
       </c>
       <c r="M104" s="19">
-        <v>20.7500287533347</v>
+        <v>21.9494725945708</v>
       </c>
       <c r="N104" s="19">
-        <v>0.12232933356511901</v>
+        <v>0.12659003502329899</v>
       </c>
       <c r="O104" s="19">
-        <v>9.2456969482916096E-2</v>
+        <v>8.7821689185904397E-2</v>
       </c>
       <c r="P104" s="17"/>
     </row>
@@ -12078,7 +14310,7 @@
         <v>13463</v>
       </c>
       <c r="E105" s="16">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F105" s="17">
         <v>200</v>
@@ -12090,19 +14322,19 @@
       </c>
       <c r="J105" s="17"/>
       <c r="K105" s="18">
-        <v>1.0142830748179701</v>
+        <v>0.99719524449035302</v>
       </c>
       <c r="L105" s="19">
-        <v>0.136906633769529</v>
+        <v>0.135560354927377</v>
       </c>
       <c r="M105" s="19">
-        <v>16.218035257216101</v>
+        <v>20.7128063902958</v>
       </c>
       <c r="N105" s="19">
-        <v>0.122288426862787</v>
+        <v>0.121544301356057</v>
       </c>
       <c r="O105" s="19">
-        <v>8.1100927705568704E-2</v>
+        <v>9.2526590339239004E-2</v>
       </c>
       <c r="P105" s="17"/>
     </row>
@@ -12120,7 +14352,7 @@
         <v>13463</v>
       </c>
       <c r="E106" s="16">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F106" s="17">
         <v>400</v>
@@ -12131,138 +14363,306 @@
         <v>42</v>
       </c>
       <c r="J106" s="17"/>
-      <c r="K106" s="17" t="s">
+      <c r="K106" s="18">
+        <v>1.0867464112812699</v>
+      </c>
+      <c r="L106" s="19">
+        <v>0.13983351264476401</v>
+      </c>
+      <c r="M106" s="19">
+        <v>18.979743834511499</v>
+      </c>
+      <c r="N106" s="19">
+        <v>0.124734426884066</v>
+      </c>
+      <c r="O106" s="19">
+        <v>8.4780461418146394E-2</v>
+      </c>
+      <c r="P106" s="17"/>
+    </row>
+    <row r="107" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" s="16">
+        <v>48000</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="17">
+        <v>13463</v>
+      </c>
+      <c r="E107" s="16">
+        <v>200</v>
+      </c>
+      <c r="F107" s="17">
+        <v>50</v>
+      </c>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17">
+        <v>42</v>
+      </c>
+      <c r="J107" s="17"/>
+      <c r="K107" s="18">
+        <v>1.05958695110418</v>
+      </c>
+      <c r="L107" s="19">
+        <v>0.137825652728641</v>
+      </c>
+      <c r="M107" s="19">
+        <v>20.122850769566899</v>
+      </c>
+      <c r="N107" s="19">
+        <v>0.123928959665505</v>
+      </c>
+      <c r="O107" s="19">
+        <v>8.7829006351591493E-2</v>
+      </c>
+      <c r="P107" s="17"/>
+    </row>
+    <row r="108" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" s="16">
+        <v>48000</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="17">
+        <v>13463</v>
+      </c>
+      <c r="E108" s="16">
+        <v>200</v>
+      </c>
+      <c r="F108" s="17">
+        <v>100</v>
+      </c>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17">
+        <v>42</v>
+      </c>
+      <c r="J108" s="17"/>
+      <c r="K108" s="18">
+        <v>1.02581849327672</v>
+      </c>
+      <c r="L108" s="19">
+        <v>0.13621914771003299</v>
+      </c>
+      <c r="M108" s="19">
+        <v>20.7500287533347</v>
+      </c>
+      <c r="N108" s="19">
+        <v>0.12232933356511901</v>
+      </c>
+      <c r="O108" s="19">
+        <v>9.2456969482916096E-2</v>
+      </c>
+      <c r="P108" s="17"/>
+    </row>
+    <row r="109" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" s="16">
+        <v>48000</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="17">
+        <v>13463</v>
+      </c>
+      <c r="E109" s="16">
+        <v>200</v>
+      </c>
+      <c r="F109" s="17">
+        <v>200</v>
+      </c>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17">
+        <v>42</v>
+      </c>
+      <c r="J109" s="17"/>
+      <c r="K109" s="18">
+        <v>1.0142830748179701</v>
+      </c>
+      <c r="L109" s="19">
+        <v>0.136906633769529</v>
+      </c>
+      <c r="M109" s="19">
+        <v>16.218035257216101</v>
+      </c>
+      <c r="N109" s="19">
+        <v>0.122288426862787</v>
+      </c>
+      <c r="O109" s="19">
+        <v>8.1100927705568704E-2</v>
+      </c>
+      <c r="P109" s="17"/>
+    </row>
+    <row r="110" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="16">
+        <v>48000</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="17">
+        <v>13463</v>
+      </c>
+      <c r="E110" s="16">
+        <v>200</v>
+      </c>
+      <c r="F110" s="17">
+        <v>400</v>
+      </c>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17">
+        <v>42</v>
+      </c>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L106" s="16" t="s">
+      <c r="L110" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M106" s="16" t="s">
+      <c r="M110" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N106" s="17" t="s">
+      <c r="N110" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="O106" s="17" t="s">
+      <c r="O110" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="P106" s="17" t="s">
+      <c r="P110" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="29" t="s">
+    <row r="111" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B107" s="29">
+      <c r="B111" s="29">
         <v>48000</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="C111" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="30">
+      <c r="D111" s="30">
         <v>491056</v>
       </c>
-      <c r="E107" s="29">
+      <c r="E111" s="29">
         <v>100</v>
       </c>
-      <c r="F107" s="30">
-        <v>50</v>
-      </c>
-      <c r="G107" s="30" t="s">
+      <c r="F111" s="30">
+        <v>50</v>
+      </c>
+      <c r="G111" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H107" s="30"/>
-      <c r="I107" s="30">
+      <c r="H111" s="30"/>
+      <c r="I111" s="30">
         <v>42</v>
       </c>
-      <c r="J107" s="30"/>
-      <c r="K107" s="48">
+      <c r="J111" s="30"/>
+      <c r="K111" s="48">
         <v>119.488322681421</v>
       </c>
-      <c r="L107" s="48">
+      <c r="L111" s="48">
         <v>1.4252456851917701</v>
       </c>
-      <c r="M107" s="31">
+      <c r="M111" s="31">
         <v>4772.3886078023397</v>
       </c>
-      <c r="N107" s="31">
+      <c r="N111" s="31">
         <v>11.2135887871412</v>
       </c>
-      <c r="O107" s="48">
+      <c r="O111" s="48">
         <v>3.0093397413643199</v>
       </c>
-      <c r="P107" s="30"/>
-    </row>
-    <row r="108" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="29" t="s">
+      <c r="P111" s="30"/>
+    </row>
+    <row r="112" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B108" s="29">
+      <c r="B112" s="29">
         <v>48000</v>
       </c>
-      <c r="C108" s="30" t="s">
+      <c r="C112" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="30">
+      <c r="D112" s="30">
         <v>491056</v>
       </c>
-      <c r="E108" s="29">
+      <c r="E112" s="29">
         <v>100</v>
       </c>
-      <c r="F108" s="30">
+      <c r="F112" s="30">
         <v>100</v>
       </c>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="30">
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30">
         <v>42</v>
       </c>
-      <c r="J108" s="30"/>
-      <c r="K108" s="48">
+      <c r="J112" s="30"/>
+      <c r="K112" s="48">
         <v>106.22708353048699</v>
       </c>
-      <c r="L108" s="31">
+      <c r="L112" s="31">
         <v>1.47356738153907</v>
       </c>
-      <c r="M108" s="31">
+      <c r="M112" s="31">
         <v>4241.8667773541902</v>
       </c>
-      <c r="N108" s="31">
+      <c r="N112" s="31">
         <v>9.4582211159614697</v>
       </c>
-      <c r="O108" s="31">
+      <c r="O112" s="31">
         <v>2.7352949638966999</v>
       </c>
-      <c r="P108" s="30" t="s">
+      <c r="P112" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="29" t="s">
+    <row r="113" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B109" s="29">
+      <c r="B113" s="29">
         <v>48000</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="C113" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="30">
+      <c r="D113" s="30">
         <v>491056</v>
       </c>
-      <c r="E109" s="29">
+      <c r="E113" s="29">
         <v>100</v>
       </c>
-      <c r="F109" s="30">
+      <c r="F113" s="30">
         <v>150</v>
       </c>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="30"/>
-      <c r="K109" s="30"/>
-      <c r="P109" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
+      <c r="K113" s="30"/>
+      <c r="P113" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15315,11 +17715,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CCAEF6-E0AA-4EA9-B4C8-367C9CAD3E2A}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15706,7 +18106,7 @@
         <v>41</v>
       </c>
       <c r="O15" s="63">
-        <f t="shared" ref="O14:O36" si="0">G15*F15</f>
+        <f t="shared" ref="O15:O38" si="0">G15*F15</f>
         <v>5000</v>
       </c>
       <c r="P15" s="36" t="s">
@@ -16388,52 +18788,22 @@
     <row r="34" spans="3:15" x14ac:dyDescent="0.35">
       <c r="D34" s="36"/>
       <c r="E34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
       <c r="O34" s="63"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C35" s="41">
-        <v>42</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="41">
-        <v>100</v>
-      </c>
-      <c r="G35" s="41">
-        <v>400</v>
-      </c>
-      <c r="H35" s="61">
-        <v>1.1566020265038599</v>
-      </c>
-      <c r="I35" s="61">
-        <v>9.9678687619603398E-2</v>
-      </c>
-      <c r="J35" s="61">
-        <v>13.0927220128965</v>
-      </c>
-      <c r="K35" s="61">
-        <v>9.2701009956351194E-2</v>
-      </c>
-      <c r="L35" s="61">
-        <v>5.1621049504713599E-2</v>
-      </c>
-      <c r="M35" s="61"/>
-      <c r="N35" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="O35" s="63">
-        <f t="shared" si="0"/>
-        <v>40000</v>
-      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="O35" s="63"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C36" s="41">
@@ -16446,32 +18816,111 @@
         <v>9</v>
       </c>
       <c r="F36" s="41">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G36" s="41">
         <v>400</v>
       </c>
-      <c r="H36">
-        <v>1.13082512724814</v>
-      </c>
-      <c r="I36">
-        <v>9.8914969887215001E-2</v>
-      </c>
-      <c r="J36">
-        <v>11.8882268185881</v>
-      </c>
-      <c r="K36">
-        <v>9.1697254119215393E-2</v>
-      </c>
-      <c r="L36">
-        <v>5.0619659446756303E-2</v>
-      </c>
+      <c r="H36" s="61">
+        <v>1.1566020265038599</v>
+      </c>
+      <c r="I36" s="61">
+        <v>9.9678687619603398E-2</v>
+      </c>
+      <c r="J36" s="61">
+        <v>13.0927220128965</v>
+      </c>
+      <c r="K36" s="61">
+        <v>9.2701009956351194E-2</v>
+      </c>
+      <c r="L36" s="61">
+        <v>5.1621049504713599E-2</v>
+      </c>
+      <c r="M36" s="61"/>
       <c r="N36" s="41" t="s">
         <v>41</v>
       </c>
       <c r="O36" s="63">
         <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C37" s="41">
+        <v>42</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="41">
+        <v>200</v>
+      </c>
+      <c r="G37" s="41">
+        <v>400</v>
+      </c>
+      <c r="H37" s="61">
+        <v>1.13082512724814</v>
+      </c>
+      <c r="I37" s="61">
+        <v>9.8914969887215001E-2</v>
+      </c>
+      <c r="J37" s="61">
+        <v>11.8882268185881</v>
+      </c>
+      <c r="K37" s="61">
+        <v>9.1697254119215393E-2</v>
+      </c>
+      <c r="L37" s="61">
+        <v>5.0619659446756303E-2</v>
+      </c>
+      <c r="N37" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" s="63">
+        <f t="shared" si="0"/>
         <v>80000</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C38" s="41">
+        <v>42</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="41">
+        <v>300</v>
+      </c>
+      <c r="G38" s="41">
+        <v>400</v>
+      </c>
+      <c r="H38" s="61">
+        <v>1.1437503232055599</v>
+      </c>
+      <c r="I38" s="61">
+        <v>9.9535678263914101E-2</v>
+      </c>
+      <c r="J38" s="61">
+        <v>12.041492755444301</v>
+      </c>
+      <c r="K38" s="61">
+        <v>9.2368888753348796E-2</v>
+      </c>
+      <c r="L38" s="61">
+        <v>5.0220797161284803E-2</v>
+      </c>
+      <c r="N38" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O38" s="63">
+        <f t="shared" si="0"/>
+        <v>120000</v>
       </c>
     </row>
   </sheetData>
@@ -16482,11 +18931,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629563B-15CA-43F8-9031-F04949D161F0}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16595,7 +19044,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="38">
-        <v>3.0089999999999999</v>
+        <v>3.0099</v>
       </c>
       <c r="E4" s="38">
         <v>0.13366</v>
@@ -16655,7 +19104,7 @@
         <v>220</v>
       </c>
       <c r="D7" s="38">
-        <v>3.4020000000000001</v>
+        <v>3.4018000000000002</v>
       </c>
       <c r="E7" s="38">
         <v>0.15168000000000001</v>
@@ -16675,7 +19124,7 @@
         <v>221</v>
       </c>
       <c r="D8" s="38">
-        <v>3.444</v>
+        <v>3.4443999999999999</v>
       </c>
       <c r="E8" s="38">
         <v>0.15356</v>
@@ -16713,7 +19162,7 @@
         <v>224</v>
       </c>
       <c r="D10" s="38">
-        <v>3.9740000000000002</v>
+        <v>3.9744000000000002</v>
       </c>
       <c r="E10" s="38">
         <v>0.16353999999999999</v>
@@ -16765,10 +19214,7 @@
       <c r="L12" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="63">
-        <f>J12*K12</f>
-        <v>5000</v>
-      </c>
+      <c r="M12" s="63"/>
     </row>
     <row r="13" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="36" t="s">
@@ -16804,10 +19250,7 @@
       <c r="L13" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="63">
-        <f>J13*K13</f>
-        <v>10000</v>
-      </c>
+      <c r="M13" s="63"/>
     </row>
     <row r="14" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D14" s="38"/>
@@ -16815,10 +19258,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
-      <c r="M14" s="63">
-        <f t="shared" ref="M14:M30" si="0">J14*K14</f>
-        <v>0</v>
-      </c>
+      <c r="M14" s="63"/>
     </row>
     <row r="15" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D15" s="38"/>
@@ -16826,10 +19266,7 @@
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
-      <c r="M15" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M15" s="63"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" s="36" t="s">
@@ -16865,10 +19302,7 @@
       <c r="L16" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="63">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
+      <c r="M16" s="63"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="36"/>
@@ -16878,88 +19312,30 @@
       <c r="F17" s="61"/>
       <c r="G17" s="61"/>
       <c r="H17" s="61"/>
-      <c r="M17" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M17" s="63"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="61">
-        <v>3.251798</v>
-      </c>
-      <c r="E18" s="61">
-        <v>0.13866999999999999</v>
-      </c>
-      <c r="F18" s="61">
-        <v>44.894410999999998</v>
-      </c>
-      <c r="G18" s="61">
-        <v>0.13497200000000001</v>
-      </c>
-      <c r="H18" s="61">
-        <v>8.2493999999999998E-2</v>
-      </c>
-      <c r="I18">
-        <v>42</v>
-      </c>
-      <c r="J18">
-        <v>100</v>
-      </c>
-      <c r="K18">
-        <v>200</v>
-      </c>
-      <c r="L18" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="63">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="M18" s="63"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B19" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D19" s="61">
-        <v>3.6907740000000002</v>
-      </c>
-      <c r="E19" s="61">
-        <v>0.149703</v>
-      </c>
-      <c r="F19" s="61">
-        <v>58.996276999999999</v>
-      </c>
-      <c r="G19" s="61">
-        <v>0.14677999999999999</v>
-      </c>
-      <c r="H19" s="61">
-        <v>7.8587000000000004E-2</v>
-      </c>
-      <c r="I19">
-        <v>42</v>
-      </c>
-      <c r="J19">
-        <v>200</v>
-      </c>
-      <c r="K19">
-        <v>200</v>
-      </c>
-      <c r="L19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="63">
-        <f t="shared" si="0"/>
-        <v>40000</v>
-      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="M19" s="63"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="36" t="s">
@@ -16969,155 +19345,169 @@
         <v>209</v>
       </c>
       <c r="D20" s="61">
-        <v>3.394806</v>
+        <v>3.2720570000000002</v>
       </c>
       <c r="E20" s="61">
-        <v>0.14347699999999999</v>
+        <v>0.13925599999999999</v>
       </c>
       <c r="F20" s="61">
-        <v>52.955747000000002</v>
+        <v>50.649208999999999</v>
       </c>
       <c r="G20" s="61">
-        <v>0.14067199999999999</v>
+        <v>0.13472100000000001</v>
       </c>
       <c r="H20" s="61">
-        <v>7.7340000000000006E-2</v>
+        <v>8.3541000000000004E-2</v>
       </c>
       <c r="I20">
         <v>42</v>
       </c>
       <c r="J20">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K20">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="63">
-        <f t="shared" si="0"/>
-        <v>60000</v>
-      </c>
+      <c r="M20" s="63"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" s="36" t="s">
+      <c r="B21" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" t="s">
         <v>209</v>
       </c>
       <c r="D21" s="61">
-        <v>3.1621039999999998</v>
+        <v>3.1755300000000002</v>
       </c>
       <c r="E21" s="61">
-        <v>0.137902</v>
+        <v>0.13787099999999999</v>
       </c>
       <c r="F21" s="61">
-        <v>47.548532999999999</v>
+        <v>46.641615999999999</v>
       </c>
       <c r="G21" s="61">
-        <v>0.13442699999999999</v>
+        <v>0.13353999999999999</v>
       </c>
       <c r="H21" s="61">
-        <v>8.1309999999999993E-2</v>
+        <v>7.9348000000000002E-2</v>
       </c>
       <c r="I21">
         <v>42</v>
       </c>
       <c r="J21">
+        <v>300</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="63"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="61">
+        <v>3.2424240000000002</v>
+      </c>
+      <c r="E22" s="61">
+        <v>0.13877999999999999</v>
+      </c>
+      <c r="F22" s="61">
+        <v>48.654513000000001</v>
+      </c>
+      <c r="G22" s="61">
+        <v>0.13486600000000001</v>
+      </c>
+      <c r="H22" s="61">
+        <v>8.2003999999999994E-2</v>
+      </c>
+      <c r="I22">
+        <v>42</v>
+      </c>
+      <c r="J22">
         <v>400</v>
       </c>
-      <c r="K21">
-        <v>200</v>
-      </c>
-      <c r="L21" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="63">
-        <f t="shared" si="0"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="40" t="s">
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="63"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>210</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C23" t="s">
         <v>209</v>
       </c>
-      <c r="D22" s="61">
-        <v>3.412887</v>
-      </c>
-      <c r="E22" s="61">
-        <v>0.14351700000000001</v>
-      </c>
-      <c r="F22" s="61">
-        <v>52.913640999999998</v>
-      </c>
-      <c r="G22" s="61">
-        <v>0.14199300000000001</v>
-      </c>
-      <c r="H22" s="61">
-        <v>7.7533000000000005E-2</v>
-      </c>
-      <c r="I22" s="41">
+      <c r="D23" s="61">
+        <v>3.2642479999999998</v>
+      </c>
+      <c r="E23" s="61">
+        <v>0.140093</v>
+      </c>
+      <c r="F23" s="61">
+        <v>45.854098999999998</v>
+      </c>
+      <c r="G23" s="61">
+        <v>0.13635700000000001</v>
+      </c>
+      <c r="H23" s="61">
+        <v>7.8508999999999995E-2</v>
+      </c>
+      <c r="I23">
         <v>42</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J23">
         <v>500</v>
       </c>
-      <c r="K22" s="41">
-        <v>200</v>
-      </c>
-      <c r="L22" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" s="63">
-        <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="M23" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="63"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B24" s="36" t="s">
+      <c r="B24" t="s">
         <v>210</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" t="s">
         <v>209</v>
       </c>
       <c r="D24" s="61">
-        <v>3.2720570000000002</v>
+        <v>3.2343850000000001</v>
       </c>
       <c r="E24" s="61">
-        <v>0.13925599999999999</v>
+        <v>0.13867099999999999</v>
       </c>
       <c r="F24" s="61">
-        <v>50.649208999999999</v>
+        <v>46.540291000000003</v>
       </c>
       <c r="G24" s="61">
-        <v>0.13472100000000001</v>
+        <v>0.13593</v>
       </c>
       <c r="H24" s="61">
-        <v>8.3541000000000004E-2</v>
+        <v>7.7627000000000002E-2</v>
       </c>
       <c r="I24">
         <v>42</v>
       </c>
       <c r="J24">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K24">
         <v>100</v>
@@ -17125,49 +19515,10 @@
       <c r="L24" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="63">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
+      <c r="M24" s="63"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="61">
-        <v>3.1755300000000002</v>
-      </c>
-      <c r="E25" s="61">
-        <v>0.13787099999999999</v>
-      </c>
-      <c r="F25" s="61">
-        <v>46.641615999999999</v>
-      </c>
-      <c r="G25" s="61">
-        <v>0.13353999999999999</v>
-      </c>
-      <c r="H25" s="61">
-        <v>7.9348000000000002E-2</v>
-      </c>
-      <c r="I25">
-        <v>42</v>
-      </c>
-      <c r="J25">
-        <v>300</v>
-      </c>
-      <c r="K25">
-        <v>100</v>
-      </c>
-      <c r="L25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="63">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
+      <c r="M25" s="63"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
@@ -17177,36 +19528,33 @@
         <v>209</v>
       </c>
       <c r="D26" s="61">
-        <v>3.2424240000000002</v>
+        <v>3.1805940000000001</v>
       </c>
       <c r="E26" s="61">
-        <v>0.13877999999999999</v>
+        <v>0.13903099999999999</v>
       </c>
       <c r="F26" s="61">
-        <v>48.654513000000001</v>
+        <v>47.199012000000003</v>
       </c>
       <c r="G26" s="61">
-        <v>0.13486600000000001</v>
+        <v>0.13525000000000001</v>
       </c>
       <c r="H26" s="61">
-        <v>8.2003999999999994E-2</v>
+        <v>8.3582000000000004E-2</v>
       </c>
       <c r="I26">
         <v>42</v>
       </c>
       <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
         <v>400</v>
       </c>
-      <c r="K26">
-        <v>100</v>
-      </c>
       <c r="L26" t="s">
         <v>41</v>
       </c>
-      <c r="M26" s="63">
-        <f t="shared" si="0"/>
-        <v>40000</v>
-      </c>
+      <c r="M26" s="63"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
@@ -17216,103 +19564,63 @@
         <v>209</v>
       </c>
       <c r="D27" s="61">
-        <v>3.2642479999999998</v>
+        <v>3.2574049999999999</v>
       </c>
       <c r="E27" s="61">
-        <v>0.140093</v>
+        <v>0.14571000000000001</v>
       </c>
       <c r="F27" s="61">
-        <v>45.854098999999998</v>
+        <v>55.518250999999999</v>
       </c>
       <c r="G27" s="61">
-        <v>0.13635700000000001</v>
+        <v>0.14196700000000001</v>
       </c>
       <c r="H27" s="61">
-        <v>7.8508999999999995E-2</v>
+        <v>0.10204199999999999</v>
       </c>
       <c r="I27">
         <v>42</v>
       </c>
       <c r="J27">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K27">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L27" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="63">
-        <f t="shared" si="0"/>
-        <v>50000</v>
-      </c>
+      <c r="M27" s="63"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="M28" s="63"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B30" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="D28" s="61">
-        <v>3.2343850000000001</v>
-      </c>
-      <c r="E28" s="61">
-        <v>0.13867099999999999</v>
-      </c>
-      <c r="F28" s="61">
-        <v>46.540291000000003</v>
-      </c>
-      <c r="G28" s="61">
-        <v>0.13593</v>
-      </c>
-      <c r="H28" s="61">
-        <v>7.7627000000000002E-2</v>
-      </c>
-      <c r="I28">
-        <v>42</v>
-      </c>
-      <c r="J28">
-        <v>1000</v>
-      </c>
-      <c r="K28">
-        <v>100</v>
-      </c>
-      <c r="L28" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="63">
-        <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="M29" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" t="s">
-        <v>209</v>
-      </c>
       <c r="D30" s="61">
-        <v>3.1805940000000001</v>
+        <v>3.251798</v>
       </c>
       <c r="E30" s="61">
-        <v>0.13903099999999999</v>
+        <v>0.13866999999999999</v>
       </c>
       <c r="F30" s="61">
-        <v>47.199012000000003</v>
+        <v>44.894410999999998</v>
       </c>
       <c r="G30" s="61">
-        <v>0.13525000000000001</v>
+        <v>0.13497200000000001</v>
       </c>
       <c r="H30" s="61">
-        <v>8.3582000000000004E-2</v>
+        <v>8.2493999999999998E-2</v>
       </c>
       <c r="I30">
         <v>42</v>
@@ -17321,15 +19629,156 @@
         <v>100</v>
       </c>
       <c r="K30">
+        <v>200</v>
+      </c>
+      <c r="L30" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="63"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B31" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="61">
+        <v>3.6907740000000002</v>
+      </c>
+      <c r="E31" s="61">
+        <v>0.149703</v>
+      </c>
+      <c r="F31" s="61">
+        <v>58.996276999999999</v>
+      </c>
+      <c r="G31" s="61">
+        <v>0.14677999999999999</v>
+      </c>
+      <c r="H31" s="61">
+        <v>7.8587000000000004E-2</v>
+      </c>
+      <c r="I31">
+        <v>42</v>
+      </c>
+      <c r="J31">
+        <v>200</v>
+      </c>
+      <c r="K31">
+        <v>200</v>
+      </c>
+      <c r="L31" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="63"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B32" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" s="61">
+        <v>3.394806</v>
+      </c>
+      <c r="E32" s="61">
+        <v>0.14347699999999999</v>
+      </c>
+      <c r="F32" s="61">
+        <v>52.955747000000002</v>
+      </c>
+      <c r="G32" s="61">
+        <v>0.14067199999999999</v>
+      </c>
+      <c r="H32" s="61">
+        <v>7.7340000000000006E-2</v>
+      </c>
+      <c r="I32">
+        <v>42</v>
+      </c>
+      <c r="J32">
+        <v>300</v>
+      </c>
+      <c r="K32">
+        <v>200</v>
+      </c>
+      <c r="L32" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="63"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B33" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="61">
+        <v>3.1621039999999998</v>
+      </c>
+      <c r="E33" s="61">
+        <v>0.137902</v>
+      </c>
+      <c r="F33" s="61">
+        <v>47.548532999999999</v>
+      </c>
+      <c r="G33" s="61">
+        <v>0.13442699999999999</v>
+      </c>
+      <c r="H33" s="61">
+        <v>8.1309999999999993E-2</v>
+      </c>
+      <c r="I33">
+        <v>42</v>
+      </c>
+      <c r="J33">
         <v>400</v>
       </c>
-      <c r="L30" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" s="63">
-        <f t="shared" si="0"/>
-        <v>40000</v>
-      </c>
+      <c r="K33">
+        <v>200</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="63"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B34" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="61">
+        <v>3.412887</v>
+      </c>
+      <c r="E34" s="61">
+        <v>0.14351700000000001</v>
+      </c>
+      <c r="F34" s="61">
+        <v>52.913640999999998</v>
+      </c>
+      <c r="G34" s="61">
+        <v>0.14199300000000001</v>
+      </c>
+      <c r="H34" s="61">
+        <v>7.7533000000000005E-2</v>
+      </c>
+      <c r="I34" s="41">
+        <v>42</v>
+      </c>
+      <c r="J34" s="41">
+        <v>500</v>
+      </c>
+      <c r="K34" s="41">
+        <v>200</v>
+      </c>
+      <c r="L34" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -17338,646 +19787,125 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AA6EBD-8719-4324-B09A-4C04B6729294}">
-  <dimension ref="A1:R12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF220A3-ECC2-4539-B335-747855D0D6B3}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="2">
-        <v>862</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E1" s="24">
-        <v>42</v>
-      </c>
-      <c r="F1" s="24">
-        <v>100</v>
-      </c>
-      <c r="G1" s="25">
-        <v>50</v>
-      </c>
-      <c r="H1" s="25">
-        <v>14</v>
-      </c>
-      <c r="I1" s="25">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26">
-        <v>0.88936537788412395</v>
-      </c>
-      <c r="N1" s="26">
-        <v>12.056193496287101</v>
-      </c>
-      <c r="O1" s="26">
-        <v>0.14220320148680099</v>
-      </c>
-      <c r="P1" s="26">
-        <v>0.17131659113794201</v>
-      </c>
-      <c r="Q1" s="26">
-        <v>0.112617250917697</v>
-      </c>
-      <c r="R1" s="25"/>
-    </row>
-    <row r="2" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2">
-        <v>862</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E2" s="24">
-        <v>43</v>
-      </c>
-      <c r="F2" s="24">
-        <v>100</v>
-      </c>
-      <c r="G2" s="25">
-        <v>50</v>
-      </c>
-      <c r="H2" s="25">
-        <v>14</v>
-      </c>
-      <c r="I2" s="25">
-        <v>7</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26">
-        <v>0.84946299059517005</v>
-      </c>
-      <c r="N2" s="26">
-        <v>10.565301611994199</v>
-      </c>
-      <c r="O2" s="26">
-        <v>0.13616913458261001</v>
-      </c>
-      <c r="P2" s="26">
-        <v>0.16382832301348299</v>
-      </c>
-      <c r="Q2" s="26">
-        <v>0.10248962363684699</v>
-      </c>
-      <c r="R2" s="25"/>
-    </row>
-    <row r="3" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2">
-        <v>862</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E3" s="24">
-        <v>44</v>
-      </c>
-      <c r="F3" s="24">
-        <v>100</v>
-      </c>
-      <c r="G3" s="25">
-        <v>50</v>
-      </c>
-      <c r="H3" s="25">
-        <v>14</v>
-      </c>
-      <c r="I3" s="25">
-        <v>7</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26">
-        <v>0.85708568487041603</v>
-      </c>
-      <c r="N3" s="26">
-        <v>11.1921050644247</v>
-      </c>
-      <c r="O3" s="26">
-        <v>0.13754877448949901</v>
-      </c>
-      <c r="P3" s="26">
-        <v>0.16517953001998201</v>
-      </c>
-      <c r="Q3" s="26">
-        <v>0.106157875853182</v>
-      </c>
-      <c r="R3" s="25"/>
-    </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="2">
-        <v>862</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E4" s="2">
-        <v>42</v>
-      </c>
-      <c r="F4" s="2">
-        <v>100</v>
-      </c>
-      <c r="G4" s="3">
-        <v>50</v>
-      </c>
-      <c r="H4" s="3">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="12">
-        <v>0.85984988290767905</v>
-      </c>
-      <c r="N4" s="12">
-        <v>11.467363191577901</v>
-      </c>
-      <c r="O4" s="12">
-        <v>0.13708799650329101</v>
-      </c>
-      <c r="P4" s="12">
-        <v>0.164240320870712</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>0.106211508502489</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2">
-        <v>862</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E5" s="2">
-        <v>43</v>
-      </c>
-      <c r="F5" s="2">
-        <v>100</v>
-      </c>
-      <c r="G5" s="3">
-        <v>50</v>
-      </c>
-      <c r="H5" s="3">
-        <v>21</v>
-      </c>
-      <c r="I5" s="3">
-        <v>7</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="12">
-        <v>0.83043391632280406</v>
-      </c>
-      <c r="N5" s="13">
-        <v>11.234771610285099</v>
-      </c>
-      <c r="O5" s="13">
-        <v>0.13292169433456799</v>
-      </c>
-      <c r="P5" s="13">
-        <v>0.15975893594083501</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>0.104422274001578</v>
-      </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2">
-        <v>862</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44</v>
-      </c>
-      <c r="F6" s="2">
-        <v>100</v>
-      </c>
-      <c r="G6" s="3">
-        <v>50</v>
-      </c>
-      <c r="H6" s="3">
-        <v>21</v>
-      </c>
-      <c r="I6" s="3">
-        <v>7</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="12">
-        <v>0.84857504449934995</v>
-      </c>
-      <c r="N6" s="13">
-        <v>11.0099023024096</v>
-      </c>
-      <c r="O6" s="13">
-        <v>0.13595650523487801</v>
-      </c>
-      <c r="P6" s="13">
-        <v>0.16285584334123099</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>0.10522540363196101</v>
-      </c>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2">
-        <v>862</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E7" s="24">
-        <v>42</v>
-      </c>
-      <c r="F7" s="24">
-        <v>100</v>
-      </c>
-      <c r="G7" s="25">
-        <v>50</v>
-      </c>
-      <c r="H7" s="25">
-        <v>28</v>
-      </c>
-      <c r="I7" s="25">
-        <v>7</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26">
-        <v>0.79779778652111399</v>
-      </c>
-      <c r="N7" s="26">
-        <v>10.121165065568199</v>
-      </c>
-      <c r="O7" s="26">
-        <v>0.12880160080986</v>
-      </c>
-      <c r="P7" s="26">
-        <v>0.15221145828087801</v>
-      </c>
-      <c r="Q7" s="26">
-        <v>9.8355971601415598E-2</v>
-      </c>
-      <c r="R7" s="25"/>
-    </row>
-    <row r="8" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2">
-        <v>862</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E8" s="24">
-        <v>43</v>
-      </c>
-      <c r="F8" s="24">
-        <v>100</v>
-      </c>
-      <c r="G8" s="25">
-        <v>50</v>
-      </c>
-      <c r="H8" s="25">
-        <v>28</v>
-      </c>
-      <c r="I8" s="25">
-        <v>7</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26">
-        <v>0.78304190721217704</v>
-      </c>
-      <c r="N8" s="26">
-        <v>10.199148544691299</v>
-      </c>
-      <c r="O8" s="26">
-        <v>0.12715382721795501</v>
-      </c>
-      <c r="P8" s="26">
-        <v>0.149434735285779</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>9.6812827239189297E-2</v>
-      </c>
-      <c r="R8" s="25"/>
-    </row>
-    <row r="9" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2">
-        <v>862</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E9" s="24">
-        <v>44</v>
-      </c>
-      <c r="F9" s="24">
-        <v>100</v>
-      </c>
-      <c r="G9" s="25">
-        <v>50</v>
-      </c>
-      <c r="H9" s="25">
-        <v>28</v>
-      </c>
-      <c r="I9" s="25">
-        <v>7</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26">
-        <v>0.81619549648116096</v>
-      </c>
-      <c r="N9" s="26">
-        <v>9.9900870315553494</v>
-      </c>
-      <c r="O9" s="26">
-        <v>0.131852177942516</v>
-      </c>
-      <c r="P9" s="26">
-        <v>0.15607441185311999</v>
-      </c>
-      <c r="Q9" s="26">
-        <v>9.83588221841422E-2</v>
-      </c>
-      <c r="R9" s="25"/>
-    </row>
-    <row r="10" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="20">
-        <v>862</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="20">
-        <v>74487</v>
-      </c>
-      <c r="E10" s="20">
-        <v>42</v>
-      </c>
-      <c r="F10" s="20">
-        <v>25</v>
-      </c>
-      <c r="G10" s="21">
-        <v>50</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="21">
-        <v>7</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="21">
-        <v>-0.63300000000000001</v>
-      </c>
-      <c r="M10" s="22">
-        <v>1.20804446</v>
-      </c>
-      <c r="N10" s="22">
-        <v>14.837159588600001</v>
-      </c>
-      <c r="O10" s="22">
-        <v>0.183018443274337</v>
-      </c>
-      <c r="P10" s="22">
-        <v>0.22088481711076799</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>0.133601708012316</v>
-      </c>
-      <c r="R10" s="21"/>
-    </row>
-    <row r="11" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="20">
-        <v>862</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="20">
-        <v>74487</v>
-      </c>
-      <c r="E11" s="20">
-        <v>43</v>
-      </c>
-      <c r="F11" s="20">
-        <v>25</v>
-      </c>
-      <c r="G11" s="21">
-        <v>50</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="21">
-        <v>7</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="21">
-        <v>-0.65590000000000004</v>
-      </c>
-      <c r="M11" s="22">
-        <v>1.1895251600000001</v>
-      </c>
-      <c r="N11" s="22">
-        <v>13.823424360000001</v>
-      </c>
-      <c r="O11" s="22">
-        <v>0.17885034</v>
-      </c>
-      <c r="P11" s="22">
-        <v>0.21843000000000001</v>
-      </c>
-      <c r="Q11" s="22">
-        <v>0.135223536782417</v>
-      </c>
-      <c r="R11" s="21"/>
-    </row>
-    <row r="12" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="20">
-        <v>862</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="20">
-        <v>74487</v>
-      </c>
-      <c r="E12" s="20">
-        <v>44</v>
-      </c>
-      <c r="F12" s="20">
-        <v>25</v>
-      </c>
-      <c r="G12" s="21">
-        <v>50</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="21">
-        <v>7</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="21">
-        <v>-0.58679999999999999</v>
-      </c>
-      <c r="M12" s="22">
-        <v>1.1313506769999999</v>
-      </c>
-      <c r="N12" s="22">
-        <v>13.36289625</v>
-      </c>
-      <c r="O12" s="22">
-        <v>0.17442181071475499</v>
-      </c>
-      <c r="P12" s="22">
-        <v>0.20688742569999999</v>
-      </c>
-      <c r="Q12" s="22">
-        <v>0.12457680942</v>
-      </c>
-      <c r="R12" s="21"/>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2">
+        <v>4.0415999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.13985300000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3">
+        <v>3.4765999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.12477000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="C4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4">
+        <v>3.5238</v>
+      </c>
+      <c r="E4">
+        <v>0.12715299999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5">
+        <v>3.4129999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.122112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.71309999999999996</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6">
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.103795</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -17985,1290 +19913,253 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81841C01-14F2-4752-BEFF-0E0B223C739F}">
-  <dimension ref="A1:R27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA90453-2773-4FAC-8491-072B18056358}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" style="1" customWidth="1"/>
-    <col min="13" max="17" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.7265625" style="1" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="J1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2">
-        <v>100</v>
-      </c>
-      <c r="G3" s="3">
-        <v>50</v>
-      </c>
-      <c r="H3" s="3">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="13">
-        <v>1.0590886802985799</v>
-      </c>
-      <c r="N3" s="13">
-        <v>10.0969587297497</v>
-      </c>
-      <c r="O3" s="13">
-        <v>0.120414979100898</v>
-      </c>
-      <c r="P3" s="13">
-        <v>6.4194485050520694E-2</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>3.0946498315951601E-2</v>
-      </c>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43</v>
-      </c>
-      <c r="F4" s="2">
-        <v>100</v>
-      </c>
-      <c r="G4" s="3">
-        <v>50</v>
-      </c>
-      <c r="H4" s="3">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="13">
-        <v>0.86948210155400896</v>
-      </c>
-      <c r="N4" s="13">
-        <v>11.163399067550399</v>
-      </c>
-      <c r="O4" s="13">
-        <v>0.110295287418847</v>
-      </c>
-      <c r="P4" s="13">
-        <v>8.96291850634863E-2</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>7.3593731918057001E-2</v>
-      </c>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2">
-        <v>44</v>
-      </c>
-      <c r="F5" s="2">
-        <v>100</v>
-      </c>
-      <c r="G5" s="3">
-        <v>50</v>
-      </c>
-      <c r="H5" s="3">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3">
-        <v>7</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="13">
-        <v>0.86787689438003301</v>
-      </c>
-      <c r="N5" s="13">
-        <v>9.9042727025184707</v>
-      </c>
-      <c r="O5" s="13">
-        <v>0.109970935237075</v>
-      </c>
-      <c r="P5" s="13">
-        <v>8.7013987099651899E-2</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>5.9227821472959699E-2</v>
-      </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
-        <v>19863</v>
-      </c>
-      <c r="E6" s="2">
-        <v>42</v>
-      </c>
-      <c r="F6" s="2">
-        <v>100</v>
-      </c>
-      <c r="G6" s="3">
-        <v>50</v>
-      </c>
-      <c r="H6" s="3">
-        <v>21</v>
-      </c>
-      <c r="I6" s="3">
-        <v>7</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="13">
-        <v>0.83419075870286896</v>
-      </c>
-      <c r="N6" s="13">
-        <v>10.815703975</v>
-      </c>
-      <c r="O6" s="13">
-        <v>0.10752592026314001</v>
-      </c>
-      <c r="P6" s="13">
-        <v>7.1300177838820505E-2</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>5.2852437024343002E-2</v>
-      </c>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>19863</v>
-      </c>
-      <c r="E7" s="2">
-        <v>43</v>
-      </c>
-      <c r="F7" s="2">
-        <v>100</v>
-      </c>
-      <c r="G7" s="3">
-        <v>50</v>
-      </c>
-      <c r="H7" s="3">
-        <v>21</v>
-      </c>
-      <c r="I7" s="3">
-        <v>7</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="13">
-        <v>0.84726409264259295</v>
-      </c>
-      <c r="N7" s="13">
-        <v>10.7053474559947</v>
-      </c>
-      <c r="O7" s="13">
-        <v>0.108184258861334</v>
-      </c>
-      <c r="P7" s="13">
-        <v>6.9157370996333206E-2</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>5.1092277275688699E-2</v>
-      </c>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>19863</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>50</v>
-      </c>
-      <c r="H8" s="3">
-        <v>21</v>
-      </c>
-      <c r="I8" s="3">
-        <v>7</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="13">
-        <v>0.79669440831159299</v>
-      </c>
-      <c r="N8" s="13">
-        <v>9.2174688751987599</v>
-      </c>
-      <c r="O8" s="13">
-        <v>0.105572916965178</v>
-      </c>
-      <c r="P8" s="13">
-        <v>6.5199569276809505E-2</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>4.2390620979312101E-2</v>
-      </c>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>19863</v>
-      </c>
-      <c r="E9" s="2">
-        <v>42</v>
-      </c>
-      <c r="F9" s="2">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>50</v>
-      </c>
-      <c r="H9" s="3">
-        <v>28</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="12">
-        <v>0.80038244191712404</v>
-      </c>
-      <c r="N9" s="13">
-        <v>10.0155090829626</v>
-      </c>
-      <c r="O9" s="13">
-        <v>0.105287008045341</v>
-      </c>
-      <c r="P9" s="13">
-        <v>6.3141385710627995E-2</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>4.2979536414488401E-2</v>
-      </c>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>19863</v>
-      </c>
-      <c r="E10" s="2">
-        <v>43</v>
-      </c>
-      <c r="F10" s="2">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>50</v>
-      </c>
-      <c r="H10" s="3">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3">
-        <v>7</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="13">
-        <v>0.79325627525355602</v>
-      </c>
-      <c r="N10" s="13">
-        <v>9.7206576334251906</v>
-      </c>
-      <c r="O10" s="13">
-        <v>0.10496133224816399</v>
-      </c>
-      <c r="P10" s="13">
-        <v>5.9014914421637803E-2</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>3.7856747294974499E-2</v>
-      </c>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2">
-        <v>19863</v>
-      </c>
-      <c r="E11" s="2">
-        <v>44</v>
-      </c>
-      <c r="F11" s="2">
-        <v>100</v>
-      </c>
-      <c r="G11" s="3">
-        <v>50</v>
-      </c>
-      <c r="H11" s="3">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3">
-        <v>7</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="13">
-        <v>0.77547197875461105</v>
-      </c>
-      <c r="N11" s="13">
-        <v>9.1052597460046396</v>
-      </c>
-      <c r="O11" s="13">
-        <v>0.10529276768529</v>
-      </c>
-      <c r="P11" s="13">
-        <v>6.04159170370498E-2</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>3.6945452498413398E-2</v>
-      </c>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E12" s="4">
-        <v>42</v>
-      </c>
-      <c r="F12" s="4">
-        <v>25</v>
-      </c>
-      <c r="G12" s="5">
-        <v>50</v>
-      </c>
-      <c r="H12" s="5">
-        <v>14</v>
-      </c>
-      <c r="I12" s="5">
-        <v>7</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="14">
-        <v>1.2391331745657099</v>
-      </c>
-      <c r="N12" s="14">
-        <v>41.668678537912498</v>
-      </c>
-      <c r="O12" s="14">
-        <v>0.14474497013057999</v>
-      </c>
-      <c r="P12" s="14">
-        <v>9.0956822491833803E-2</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>0.1171239662947</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E13" s="4">
-        <v>43</v>
-      </c>
-      <c r="F13" s="4">
-        <v>25</v>
-      </c>
-      <c r="G13" s="5">
-        <v>50</v>
-      </c>
-      <c r="H13" s="5">
-        <v>14</v>
-      </c>
-      <c r="I13" s="5">
-        <v>7</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="14">
-        <v>1.2246919468774999</v>
-      </c>
-      <c r="N13" s="14">
-        <v>43.073853096103001</v>
-      </c>
-      <c r="O13" s="14">
-        <v>0.14196743652895</v>
-      </c>
-      <c r="P13" s="14">
-        <v>9.3606632272868806E-2</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>0.12581174207687601</v>
-      </c>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E14" s="4">
-        <v>44</v>
-      </c>
-      <c r="F14" s="4">
-        <v>25</v>
-      </c>
-      <c r="G14" s="5">
-        <v>50</v>
-      </c>
-      <c r="H14" s="5">
-        <v>14</v>
-      </c>
-      <c r="I14" s="5">
-        <v>7</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="14">
-        <v>1.16173745558769</v>
-      </c>
-      <c r="N14" s="14">
-        <v>41.034461174662397</v>
-      </c>
-      <c r="O14" s="14">
-        <v>0.137714178756523</v>
-      </c>
-      <c r="P14" s="14">
-        <v>8.0312013826844095E-2</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>0.10819235412599899</v>
-      </c>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E15" s="4">
-        <v>42</v>
-      </c>
-      <c r="F15" s="4">
-        <v>50</v>
-      </c>
-      <c r="G15" s="5">
-        <v>50</v>
-      </c>
-      <c r="H15" s="5">
-        <v>14</v>
-      </c>
-      <c r="I15" s="5">
-        <v>7</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="14">
-        <v>1.3085522501854301</v>
-      </c>
-      <c r="N15" s="14">
-        <v>47.718695448793497</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0.15102608315721699</v>
-      </c>
-      <c r="P15" s="14">
-        <v>0.117946725215059</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>0.18360709935220401</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E16" s="4">
-        <v>43</v>
-      </c>
-      <c r="F16" s="4">
-        <v>50</v>
-      </c>
-      <c r="G16" s="5">
-        <v>50</v>
-      </c>
-      <c r="H16" s="5">
-        <v>14</v>
-      </c>
-      <c r="I16" s="5">
-        <v>7</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="14">
-        <v>1.2551502602223901</v>
-      </c>
-      <c r="N16" s="14">
-        <v>45.571063660721798</v>
-      </c>
-      <c r="O16" s="14">
-        <v>0.14377983684127099</v>
-      </c>
-      <c r="P16" s="14">
-        <v>9.7574029332455098E-2</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>0.13344068611103899</v>
-      </c>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E17" s="4">
-        <v>44</v>
-      </c>
-      <c r="F17" s="4">
-        <v>50</v>
-      </c>
-      <c r="G17" s="5">
-        <v>50</v>
-      </c>
-      <c r="H17" s="5">
-        <v>14</v>
-      </c>
-      <c r="I17" s="5">
-        <v>7</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="14">
-        <v>1.1591628075831999</v>
-      </c>
-      <c r="N17" s="14">
-        <v>42.002414810494599</v>
-      </c>
-      <c r="O17" s="14">
-        <v>0.13609740201189199</v>
-      </c>
-      <c r="P17" s="14">
-        <v>8.7433503561880593E-2</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>0.12803950174179701</v>
-      </c>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E18" s="4">
-        <v>42</v>
-      </c>
-      <c r="F18" s="4">
-        <v>25</v>
-      </c>
-      <c r="G18" s="5">
-        <v>50</v>
-      </c>
-      <c r="H18" s="5">
-        <v>21</v>
-      </c>
-      <c r="I18" s="5">
-        <v>7</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="14">
-        <v>1.43294443802534</v>
-      </c>
-      <c r="N18" s="14">
-        <v>47.522759114160898</v>
-      </c>
-      <c r="O18" s="14">
-        <v>0.15617359108928799</v>
-      </c>
-      <c r="P18" s="14">
-        <v>8.8084355134814094E-2</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>8.99238508912166E-2</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E19" s="4">
-        <v>43</v>
-      </c>
-      <c r="F19" s="4">
-        <v>25</v>
-      </c>
-      <c r="G19" s="5">
-        <v>50</v>
-      </c>
-      <c r="H19" s="5">
-        <v>21</v>
-      </c>
-      <c r="I19" s="5">
-        <v>7</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="14">
-        <v>1.37068403441141</v>
-      </c>
-      <c r="N19" s="14">
-        <v>45.147097422076897</v>
-      </c>
-      <c r="O19" s="14">
-        <v>0.152123549623223</v>
-      </c>
-      <c r="P19" s="14">
-        <v>0.103107159205456</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>0.12852060856410399</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E20" s="4">
-        <v>44</v>
-      </c>
-      <c r="F20" s="4">
-        <v>25</v>
-      </c>
-      <c r="G20" s="5">
-        <v>50</v>
-      </c>
-      <c r="H20" s="5">
-        <v>21</v>
-      </c>
-      <c r="I20" s="5">
-        <v>7</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="14">
-        <v>1.8370979795408799</v>
-      </c>
-      <c r="N20" s="14">
-        <v>65.551152728490706</v>
-      </c>
-      <c r="O20" s="14">
-        <v>0.18916757498450501</v>
-      </c>
-      <c r="P20" s="14">
-        <v>0.159005665913556</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>0.21209374706150499</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6">
-        <v>47437</v>
-      </c>
-      <c r="E21" s="6">
-        <v>42</v>
-      </c>
-      <c r="F21" s="6">
-        <v>25</v>
-      </c>
-      <c r="G21" s="7">
-        <v>50</v>
-      </c>
-      <c r="H21" s="7">
-        <v>28</v>
-      </c>
-      <c r="I21" s="7">
-        <v>7</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="15">
-        <v>1.40424513545234</v>
-      </c>
-      <c r="N21" s="15">
-        <v>45.0325841433311</v>
-      </c>
-      <c r="O21" s="15">
-        <v>0.15594551324453501</v>
-      </c>
-      <c r="P21" s="15">
-        <v>9.2863293125452495E-2</v>
-      </c>
-      <c r="Q21" s="15">
-        <v>0.10541861298763899</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="6">
-        <v>47437</v>
-      </c>
-      <c r="E22" s="6">
-        <v>42</v>
-      </c>
-      <c r="F22" s="6">
-        <v>25</v>
-      </c>
-      <c r="G22" s="7">
-        <v>50</v>
-      </c>
-      <c r="H22" s="7">
-        <v>28</v>
-      </c>
-      <c r="I22" s="7">
-        <v>7</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="15">
-        <v>1.3968240245629</v>
-      </c>
-      <c r="N22" s="15">
-        <v>44.343473044672201</v>
-      </c>
-      <c r="O22" s="15">
-        <v>0.15266464800548901</v>
-      </c>
-      <c r="P22" s="15">
-        <v>0.10873459120011</v>
-      </c>
-      <c r="Q22" s="15">
-        <v>0.14106791904426899</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="6">
-        <v>47437</v>
-      </c>
-      <c r="E23" s="6">
-        <v>42</v>
-      </c>
-      <c r="F23" s="6">
-        <v>25</v>
-      </c>
-      <c r="G23" s="7">
-        <v>50</v>
-      </c>
-      <c r="H23" s="7">
-        <v>28</v>
-      </c>
-      <c r="I23" s="7">
-        <v>7</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="15">
-        <v>1.53068941620192</v>
-      </c>
-      <c r="N23" s="15">
-        <v>45.653923319839699</v>
-      </c>
-      <c r="O23" s="15">
-        <v>0.17440079334261699</v>
-      </c>
-      <c r="P23" s="15">
-        <v>0.118815261375925</v>
-      </c>
-      <c r="Q23" s="15">
-        <v>0.148819322628121</v>
-      </c>
-      <c r="R23" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="6">
-        <v>47437</v>
-      </c>
-      <c r="E24" s="6">
-        <v>42</v>
-      </c>
-      <c r="F24" s="6">
-        <v>25</v>
-      </c>
-      <c r="G24" s="7">
-        <v>50</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="15">
-        <v>0.96366146465587199</v>
-      </c>
-      <c r="N24" s="15">
-        <v>11.7982207671586</v>
-      </c>
-      <c r="O24" s="15">
-        <v>0.13122598570348901</v>
-      </c>
-      <c r="P24" s="15">
-        <v>7.3568422773155506E-2</v>
-      </c>
-      <c r="Q24" s="15">
-        <v>4.9285672437264498E-2</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="6">
-        <v>47437</v>
-      </c>
-      <c r="E25" s="6">
-        <v>43</v>
-      </c>
-      <c r="F25" s="6">
-        <v>25</v>
-      </c>
-      <c r="G25" s="7">
-        <v>50</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" s="7">
-        <v>7</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" s="7">
-        <v>-1.2010000000000001</v>
-      </c>
-      <c r="M25" s="15">
-        <v>0.93256063121999999</v>
-      </c>
-      <c r="N25" s="15">
-        <v>12.4512</v>
-      </c>
-      <c r="O25" s="15">
-        <v>0.1295</v>
-      </c>
-      <c r="P25" s="15">
-        <v>7.0601778500000004E-2</v>
-      </c>
-      <c r="Q25" s="15">
-        <v>4.9718166899999999E-2</v>
-      </c>
-      <c r="R25" s="7"/>
-    </row>
-    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="29">
-        <v>47437</v>
-      </c>
-      <c r="E26" s="29">
-        <v>44</v>
-      </c>
-      <c r="F26" s="29">
-        <v>25</v>
-      </c>
-      <c r="G26" s="30">
-        <v>50</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="30">
-        <v>7</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="30">
-        <v>-1.19</v>
-      </c>
-      <c r="M26" s="31">
-        <v>0.95004999999999995</v>
-      </c>
-      <c r="N26" s="31">
-        <v>12.21768</v>
-      </c>
-      <c r="O26" s="31">
-        <v>0.12685070000000001</v>
-      </c>
-      <c r="P26" s="31">
-        <v>7.3889999999999997E-2</v>
-      </c>
-      <c r="Q26" s="31">
-        <v>5.5218999999999997E-2</v>
-      </c>
-      <c r="R26" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M27" s="11"/>
+      <c r="C2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2">
+        <v>3.7349999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.19010200000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3">
+        <v>3.4750000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.19239799999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4">
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.19036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.9415</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5">
+        <v>3.3765999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.18609400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.86580000000000001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6">
+        <v>3.1431</v>
+      </c>
+      <c r="E6">
+        <v>0.169215</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C8C9A-20BB-4771-8378-5D3215950330}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.16622199999999998</v>
+      </c>
+      <c r="E2">
+        <v>3.9237000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.90620000000000001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.15793499999999999</v>
+      </c>
+      <c r="E3">
+        <v>3.383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.89770000000000005</v>
+      </c>
+      <c r="C4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.15604100000000001</v>
+      </c>
+      <c r="E4">
+        <v>3.3612000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.152584</v>
+      </c>
+      <c r="E5">
+        <v>3.2991000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.81040000000000001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.13982</v>
+      </c>
+      <c r="E6">
+        <v>3.0589</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/results_v4.xlsx
+++ b/results/results_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D418B1FE-E09D-4489-BEC3-5BE54652F085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1200D897-50F5-421F-BF46-3E6BDC394B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="890" windowWidth="19200" windowHeight="10200" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4_hourly" sheetId="4" r:id="rId1"/>
@@ -17718,8 +17718,8 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17807,7 +17807,7 @@
       <c r="H2" s="36">
         <v>1.1180000000000001</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="38">
         <v>9.6790000000000001E-2</v>
       </c>
       <c r="N2" s="40"/>
@@ -17828,7 +17828,7 @@
       <c r="H3" s="36">
         <v>1.111</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="38">
         <v>9.733E-2</v>
       </c>
       <c r="N3" s="40"/>
@@ -17849,7 +17849,7 @@
       <c r="H4" s="36">
         <v>1.198</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="38">
         <v>0.10155</v>
       </c>
       <c r="N4" s="40"/>
@@ -17870,7 +17870,7 @@
       <c r="H5" s="36">
         <v>1.165</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="38">
         <v>0.10431</v>
       </c>
       <c r="N5" s="40"/>
@@ -17891,7 +17891,7 @@
       <c r="H6" s="36">
         <v>1.161</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="38">
         <v>0.10291</v>
       </c>
       <c r="N6" s="40"/>
@@ -17912,7 +17912,7 @@
       <c r="H7" s="36">
         <v>1.173</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="38">
         <v>0.10174999999999999</v>
       </c>
       <c r="N7" s="40"/>
@@ -17933,7 +17933,7 @@
       <c r="H8" s="36">
         <v>1.232</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="38">
         <v>0.10310999999999999</v>
       </c>
       <c r="N8" s="40"/>
@@ -17954,7 +17954,7 @@
       <c r="H9" s="36">
         <v>1.371</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="38">
         <v>0.11012</v>
       </c>
       <c r="N9" s="40"/>
@@ -18933,8 +18933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629563B-15CA-43F8-9031-F04949D161F0}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>

--- a/results/results_v4.xlsx
+++ b/results/results_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1200D897-50F5-421F-BF46-3E6BDC394B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4968656-2B19-483F-BCCD-A45E9B70F8D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4_hourly" sheetId="4" r:id="rId1"/>
@@ -5946,9 +5946,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AF3A36-8329-4641-8F20-69FE4A8D253B}">
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q72" sqref="Q72"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10273,7 +10273,7 @@
   <dimension ref="A1:P113"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -11581,7 +11581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
         <v>22</v>
       </c>
@@ -17597,7 +17597,7 @@
       <c r="N87" s="21"/>
       <c r="O87" s="21"/>
     </row>
-    <row r="88" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="29" t="s">
         <v>21</v>
       </c>
@@ -17640,7 +17640,7 @@
       </c>
       <c r="O88" s="30"/>
     </row>
-    <row r="89" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="29" t="s">
         <v>21</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="29" t="s">
         <v>21</v>
       </c>
@@ -17717,8 +17717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CCAEF6-E0AA-4EA9-B4C8-367C9CAD3E2A}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>

--- a/results/results_v4.xlsx
+++ b/results/results_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4968656-2B19-483F-BCCD-A45E9B70F8D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5848E04-F19E-4433-BCE3-EE88A373EBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4_hourly" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="235">
   <si>
     <t>Algorithm</t>
   </si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t>OWA (Rank)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1233,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
@@ -5946,8 +5949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AF3A36-8329-4641-8F20-69FE4A8D253B}">
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
@@ -10273,7 +10276,7 @@
   <dimension ref="A1:P113"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -14675,7 +14678,7 @@
   <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
@@ -17597,7 +17600,7 @@
       <c r="N87" s="21"/>
       <c r="O87" s="21"/>
     </row>
-    <row r="88" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="29" t="s">
         <v>21</v>
       </c>
@@ -17640,7 +17643,7 @@
       </c>
       <c r="O88" s="30"/>
     </row>
-    <row r="89" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="29" t="s">
         <v>21</v>
       </c>
@@ -17683,7 +17686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="29" t="s">
         <v>21</v>
       </c>
@@ -17718,8 +17721,8 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17936,6 +17939,9 @@
       <c r="I8" s="38">
         <v>0.10310999999999999</v>
       </c>
+      <c r="K8" s="36" t="s">
+        <v>234</v>
+      </c>
       <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
@@ -18933,7 +18939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629563B-15CA-43F8-9031-F04949D161F0}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>

--- a/results/results_v4.xlsx
+++ b/results/results_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275E30BD-9466-4600-B34B-DCB4C5DE02B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B4A894-0FFD-4ED6-9A64-1318659FECB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4_hourly" sheetId="4" r:id="rId1"/>
@@ -25,8 +25,10 @@
     <sheet name="m4_yearly_finance" sheetId="13" r:id="rId10"/>
     <sheet name="m4_yearly_demographic" sheetId="14" r:id="rId11"/>
     <sheet name="m4_yearly_other" sheetId="15" r:id="rId12"/>
-    <sheet name="traffic" sheetId="7" r:id="rId13"/>
-    <sheet name="electricity" sheetId="2" r:id="rId14"/>
+    <sheet name="m4_q" sheetId="17" r:id="rId13"/>
+    <sheet name="m4_quarterly_micro" sheetId="16" r:id="rId14"/>
+    <sheet name="traffic" sheetId="7" r:id="rId15"/>
+    <sheet name="electricity" sheetId="2" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="272">
   <si>
     <t>Algorithm</t>
   </si>
@@ -839,6 +841,27 @@
   </si>
   <si>
     <t>Theta</t>
+  </si>
+  <si>
+    <t>wQuantileLoss[0.5]</t>
+  </si>
+  <si>
+    <t>wQuantileLoss[0.9]</t>
+  </si>
+  <si>
+    <t>num batches</t>
+  </si>
+  <si>
+    <t>use feat</t>
+  </si>
+  <si>
+    <t>m4_quarterly_atm</t>
+  </si>
+  <si>
+    <t>true dates</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -924,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1056,6 +1079,7 @@
     <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4341,7 +4365,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4715,6 +4739,253 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB6778F-350E-4846-8961-77EFBBA93C3E}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3">
+        <v>24000</v>
+      </c>
+      <c r="C3" s="61">
+        <v>1.313723</v>
+      </c>
+      <c r="D3" s="61">
+        <v>0.108961</v>
+      </c>
+      <c r="E3" s="61">
+        <v>12.328702</v>
+      </c>
+      <c r="F3" s="61">
+        <v>0.10305499999999999</v>
+      </c>
+      <c r="G3" s="61">
+        <v>6.1280000000000001E-2</v>
+      </c>
+      <c r="H3">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M3" s="73">
+        <f>(32*I3*J3)/B3</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4">
+        <v>24000</v>
+      </c>
+      <c r="C4" s="61">
+        <v>1.287426</v>
+      </c>
+      <c r="D4" s="61">
+        <v>0.107115</v>
+      </c>
+      <c r="E4" s="61">
+        <v>12.610239999999999</v>
+      </c>
+      <c r="F4" s="61">
+        <v>0.101107</v>
+      </c>
+      <c r="G4" s="61">
+        <v>5.7707000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>43</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4" s="1">
+        <v>50</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M4" s="73">
+        <f>(32*I4*J4)/B4</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5">
+        <v>24000</v>
+      </c>
+      <c r="C5" s="61">
+        <v>1.407203</v>
+      </c>
+      <c r="D5" s="61">
+        <v>0.110277</v>
+      </c>
+      <c r="E5" s="61">
+        <v>12.376633</v>
+      </c>
+      <c r="F5" s="61">
+        <v>0.101538</v>
+      </c>
+      <c r="G5" s="61">
+        <v>6.2119000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>44</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5" s="1">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M5" s="73">
+        <f>(32*I5*J5)/B5</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7">
+        <v>24000</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8">
+        <v>24000</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9">
+        <v>24000</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B846BAE7-5ED0-427A-B8CD-EE28F16EDE3B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AA6EBD-8719-4324-B09A-4C04B6729294}">
   <dimension ref="A1:R12"/>
   <sheetViews>
@@ -5361,7 +5632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81841C01-14F2-4752-BEFF-0E0B223C739F}">
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -19369,7 +19640,7 @@
   <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
@@ -22029,9 +22300,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629563B-15CA-43F8-9031-F04949D161F0}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23961,126 +24232,660 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C8C9A-20BB-4771-8378-5D3215950330}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="F1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="H1" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="I1" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>212</v>
-      </c>
       <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>3903</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E2" s="61">
+        <v>3.9237000000000002</v>
+      </c>
+      <c r="F2" s="61">
         <v>0.16622199999999998</v>
       </c>
-      <c r="E2">
-        <v>3.9237000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>3903</v>
+      </c>
+      <c r="B3">
         <v>0.90620000000000001</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E3" s="61">
+        <v>3.383</v>
+      </c>
+      <c r="F3" s="61">
         <v>0.15793499999999999</v>
       </c>
-      <c r="E3">
-        <v>3.383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>3903</v>
+      </c>
+      <c r="B4">
         <v>0.89770000000000005</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="61">
+        <v>3.3612000000000002</v>
+      </c>
+      <c r="F4" s="61">
         <v>0.15604100000000001</v>
       </c>
-      <c r="E4">
-        <v>3.3612000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>3903</v>
+      </c>
+      <c r="B5">
         <v>0.87939999999999996</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="61">
+        <v>3.2991000000000001</v>
+      </c>
+      <c r="F5" s="61">
         <v>0.152584</v>
       </c>
-      <c r="E5">
-        <v>3.2991000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
+        <v>3903</v>
+      </c>
+      <c r="B6">
         <v>0.81040000000000001</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="61">
+        <v>3.0589</v>
+      </c>
+      <c r="F6" s="61">
         <v>0.13982</v>
       </c>
-      <c r="E6">
-        <v>3.0589</v>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3903</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="61">
+        <v>3.1811690000000001</v>
+      </c>
+      <c r="F8" s="61">
+        <v>0.14235999999999999</v>
+      </c>
+      <c r="G8" s="61">
+        <v>45.482044999999999</v>
+      </c>
+      <c r="H8" s="61">
+        <v>0.136264</v>
+      </c>
+      <c r="I8" s="61">
+        <v>7.8781000000000004E-2</v>
+      </c>
+      <c r="J8">
+        <v>42</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="73">
+        <f>(32*K8*L8)/A8</f>
+        <v>40.994107097104788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3903</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="61">
+        <v>3.2727550000000001</v>
+      </c>
+      <c r="F9" s="61">
+        <v>0.14540600000000001</v>
+      </c>
+      <c r="G9" s="61">
+        <v>44.428761999999999</v>
+      </c>
+      <c r="H9" s="61">
+        <v>0.13916600000000001</v>
+      </c>
+      <c r="I9" s="61">
+        <v>7.8996999999999998E-2</v>
+      </c>
+      <c r="J9">
+        <v>43</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="73">
+        <f t="shared" ref="N9:N24" si="0">(32*K9*L9)/A9</f>
+        <v>40.994107097104788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3903</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="61">
+        <v>3.257358</v>
+      </c>
+      <c r="F10" s="61">
+        <v>0.14890700000000001</v>
+      </c>
+      <c r="G10" s="61">
+        <v>41.481808000000001</v>
+      </c>
+      <c r="H10" s="61">
+        <v>0.14094300000000001</v>
+      </c>
+      <c r="I10" s="61">
+        <v>7.7733999999999998E-2</v>
+      </c>
+      <c r="J10">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="73">
+        <f t="shared" si="0"/>
+        <v>40.994107097104788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="N11" s="73"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3903</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="61">
+        <v>3.1377929999999998</v>
+      </c>
+      <c r="F12" s="61">
+        <v>0.14300599999999999</v>
+      </c>
+      <c r="G12" s="61">
+        <v>47.701864</v>
+      </c>
+      <c r="H12" s="61">
+        <v>0.138096</v>
+      </c>
+      <c r="I12" s="61">
+        <v>8.1174999999999997E-2</v>
+      </c>
+      <c r="J12">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="73">
+        <f t="shared" si="0"/>
+        <v>81.988214194209576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3903</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="61">
+        <v>3.1654399999999998</v>
+      </c>
+      <c r="F13" s="61">
+        <v>0.145422</v>
+      </c>
+      <c r="G13" s="61">
+        <v>48.284962999999998</v>
+      </c>
+      <c r="H13" s="61">
+        <v>0.13839499999999999</v>
+      </c>
+      <c r="I13" s="61">
+        <v>8.2589999999999997E-2</v>
+      </c>
+      <c r="J13">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="73">
+        <f t="shared" si="0"/>
+        <v>81.988214194209576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>3903</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="61">
+        <v>3.4857049999999998</v>
+      </c>
+      <c r="F14" s="61">
+        <v>0.154614</v>
+      </c>
+      <c r="G14" s="61">
+        <v>55.278523999999997</v>
+      </c>
+      <c r="H14" s="61">
+        <v>0.14880599999999999</v>
+      </c>
+      <c r="I14" s="61">
+        <v>7.9686000000000007E-2</v>
+      </c>
+      <c r="J14">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="73">
+        <f t="shared" si="0"/>
+        <v>81.988214194209576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N15" s="73"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>3903</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="61">
+        <v>3.1363759999999998</v>
+      </c>
+      <c r="F16" s="61">
+        <v>0.144456</v>
+      </c>
+      <c r="G16" s="61">
+        <v>47.090949999999999</v>
+      </c>
+      <c r="H16" s="61">
+        <v>0.139042</v>
+      </c>
+      <c r="I16" s="61">
+        <v>8.1096000000000001E-2</v>
+      </c>
+      <c r="J16">
+        <v>42</v>
+      </c>
+      <c r="K16">
+        <v>200</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="73">
+        <f t="shared" si="0"/>
+        <v>163.97642838841915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>3903</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="61">
+        <v>3.178318</v>
+      </c>
+      <c r="F17" s="61">
+        <v>0.14771899999999999</v>
+      </c>
+      <c r="G17" s="61">
+        <v>49.625715999999997</v>
+      </c>
+      <c r="H17" s="61">
+        <v>0.14020299999999999</v>
+      </c>
+      <c r="I17" s="61">
+        <v>8.2832000000000003E-2</v>
+      </c>
+      <c r="J17">
+        <v>43</v>
+      </c>
+      <c r="K17">
+        <v>200</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="73">
+        <f t="shared" si="0"/>
+        <v>163.97642838841915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>3903</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="61">
+        <v>3.2958310000000002</v>
+      </c>
+      <c r="F18" s="61">
+        <v>0.15134600000000001</v>
+      </c>
+      <c r="G18" s="61">
+        <v>49.869959000000001</v>
+      </c>
+      <c r="H18" s="61">
+        <v>0.145647</v>
+      </c>
+      <c r="I18" s="61">
+        <v>7.9214999999999994E-2</v>
+      </c>
+      <c r="J18">
+        <v>43</v>
+      </c>
+      <c r="K18">
+        <v>200</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="73">
+        <f t="shared" si="0"/>
+        <v>163.97642838841915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="N19" s="73"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="N20" s="73"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N21" s="73"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>3903</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>3.3170839999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.15251799999999999</v>
+      </c>
+      <c r="G22">
+        <v>48.598466000000002</v>
+      </c>
+      <c r="H22">
+        <v>0.14973</v>
+      </c>
+      <c r="I22">
+        <v>8.2732E-2</v>
+      </c>
+      <c r="J22">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>500</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="N22" s="73">
+        <f t="shared" si="0"/>
+        <v>409.94107097104791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>3903</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3.3285809999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.15362600000000001</v>
+      </c>
+      <c r="G23">
+        <v>52.210903000000002</v>
+      </c>
+      <c r="H23">
+        <v>0.14905599999999999</v>
+      </c>
+      <c r="I23">
+        <v>8.2207000000000002E-2</v>
+      </c>
+      <c r="J23">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>500</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="N23" s="73">
+        <f t="shared" si="0"/>
+        <v>409.94107097104791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>3903</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>3.5303089999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.15814300000000001</v>
+      </c>
+      <c r="G24">
+        <v>56.999707000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.15517400000000001</v>
+      </c>
+      <c r="I24">
+        <v>8.1014000000000003E-2</v>
+      </c>
+      <c r="J24">
+        <v>43</v>
+      </c>
+      <c r="K24">
+        <v>500</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
+      </c>
+      <c r="N24" s="73">
+        <f t="shared" si="0"/>
+        <v>409.94107097104791</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/results_v4.xlsx
+++ b/results/results_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B4A894-0FFD-4ED6-9A64-1318659FECB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE9BDCB-E779-4AB3-8B43-3A66FCA17F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4_hourly" sheetId="4" r:id="rId1"/>
@@ -27,8 +27,10 @@
     <sheet name="m4_yearly_other" sheetId="15" r:id="rId12"/>
     <sheet name="m4_q" sheetId="17" r:id="rId13"/>
     <sheet name="m4_quarterly_micro" sheetId="16" r:id="rId14"/>
-    <sheet name="traffic" sheetId="7" r:id="rId15"/>
-    <sheet name="electricity" sheetId="2" r:id="rId16"/>
+    <sheet name="m4_quarterly_industry" sheetId="18" r:id="rId15"/>
+    <sheet name="m4_quarterly_macro" sheetId="19" r:id="rId16"/>
+    <sheet name="traffic" sheetId="7" r:id="rId17"/>
+    <sheet name="electricity" sheetId="2" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="275">
   <si>
     <t>Algorithm</t>
   </si>
@@ -861,7 +863,16 @@
     <t>true dates</t>
   </si>
   <si>
-    <t>No</t>
+    <t>m4_quarterly_dates</t>
+  </si>
+  <si>
+    <t>OWA_m4</t>
+  </si>
+  <si>
+    <t>m4_quarterly_industry</t>
+  </si>
+  <si>
+    <t>m4_quarterly_macro</t>
   </si>
 </sst>
 </file>
@@ -4740,29 +4751,32 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB6778F-350E-4846-8961-77EFBBA93C3E}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.81640625" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -4770,201 +4784,728 @@
         <v>25</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="2" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+    </row>
+    <row r="3" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="36">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="E3" s="38">
+        <v>9.6790000000000001E-2</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+    </row>
+    <row r="4" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="36">
+        <v>1.111</v>
+      </c>
+      <c r="E4" s="38">
+        <v>9.733E-2</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+    </row>
+    <row r="5" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="36">
+        <v>1.198</v>
+      </c>
+      <c r="E5" s="38">
+        <v>0.10155</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+    </row>
+    <row r="6" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="36">
+        <v>1.165</v>
+      </c>
+      <c r="E6" s="38">
+        <v>0.10431</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+    </row>
+    <row r="7" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="36">
+        <v>1.161</v>
+      </c>
+      <c r="E7" s="38">
+        <v>0.10291</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+    </row>
+    <row r="8" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="36">
+        <v>1.173</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0.10174999999999999</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+    </row>
+    <row r="9" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="36">
+        <v>1.232</v>
+      </c>
+      <c r="E9" s="38">
+        <v>0.10310999999999999</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+    </row>
+    <row r="10" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="36">
+        <v>1.371</v>
+      </c>
+      <c r="E10" s="38">
+        <v>0.11012</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+    </row>
+    <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>206</v>
       </c>
-      <c r="B3">
+      <c r="B18">
         <v>24000</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="61">
         <v>1.313723</v>
       </c>
-      <c r="D3" s="61">
+      <c r="E18" s="61">
         <v>0.108961</v>
       </c>
-      <c r="E3" s="61">
+      <c r="F18" s="61">
         <v>12.328702</v>
       </c>
-      <c r="F3" s="61">
+      <c r="G18" s="61">
         <v>0.10305499999999999</v>
       </c>
-      <c r="G3" s="61">
+      <c r="H18" s="61">
         <v>6.1280000000000001E-2</v>
       </c>
-      <c r="H3">
+      <c r="I18">
         <v>42</v>
       </c>
-      <c r="I3">
+      <c r="J18">
         <v>100</v>
       </c>
-      <c r="J3" s="1">
-        <v>50</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="K18" s="1">
+        <v>50</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N18" s="73">
+        <f>(32*J18*K18)/B18</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19">
+        <v>24000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="61">
+        <v>1.287426</v>
+      </c>
+      <c r="E19" s="61">
+        <v>0.107115</v>
+      </c>
+      <c r="F19" s="61">
+        <v>12.610239999999999</v>
+      </c>
+      <c r="G19" s="61">
+        <v>0.101107</v>
+      </c>
+      <c r="H19" s="61">
+        <v>5.7707000000000001E-2</v>
+      </c>
+      <c r="I19">
+        <v>43</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19" s="1">
+        <v>50</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N19" s="73">
+        <f>(32*J19*K19)/B19</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20">
+        <v>24000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="61">
+        <v>1.407203</v>
+      </c>
+      <c r="E20" s="61">
+        <v>0.110277</v>
+      </c>
+      <c r="F20" s="61">
+        <v>12.376633</v>
+      </c>
+      <c r="G20" s="61">
+        <v>0.101538</v>
+      </c>
+      <c r="H20" s="61">
+        <v>6.2119000000000001E-2</v>
+      </c>
+      <c r="I20">
+        <v>44</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20" s="1">
+        <v>50</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N20" s="73">
+        <f>(32*J20*K20)/B20</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N21" s="73"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22">
+        <v>24000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>1.2955680000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.106223</v>
+      </c>
+      <c r="F22">
+        <v>14.075428</v>
+      </c>
+      <c r="G22">
+        <v>9.8840999999999998E-2</v>
+      </c>
+      <c r="H22">
+        <v>5.6936E-2</v>
+      </c>
+      <c r="I22">
+        <v>42</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22" s="1">
+        <v>50</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N22" s="73">
+        <f t="shared" ref="N22:N33" si="0">(32*J22*K22)/B22</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23">
+        <v>24000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>1.2675270000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.10632999999999999</v>
+      </c>
+      <c r="F23">
+        <v>12.451796</v>
+      </c>
+      <c r="G23">
+        <v>9.9432999999999994E-2</v>
+      </c>
+      <c r="H23">
+        <v>5.7868999999999997E-2</v>
+      </c>
+      <c r="I23">
+        <v>43</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23" s="1">
+        <v>50</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N23" s="73">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24">
+        <v>24000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>1.2883070000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.10724499999999999</v>
+      </c>
+      <c r="F24">
+        <v>11.657188</v>
+      </c>
+      <c r="G24">
+        <v>9.9767999999999996E-2</v>
+      </c>
+      <c r="H24">
+        <v>6.1563E-2</v>
+      </c>
+      <c r="I24">
+        <v>44</v>
+      </c>
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24" s="1">
+        <v>50</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N24" s="73">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N25" s="73"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>271</v>
       </c>
-      <c r="M3" s="73">
-        <f>(32*I3*J3)/B3</f>
+      <c r="B26">
+        <v>24000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>1.266</v>
+      </c>
+      <c r="E26">
+        <v>0.10526000000000001</v>
+      </c>
+      <c r="F26">
+        <v>13.994861</v>
+      </c>
+      <c r="G26">
+        <v>9.7878000000000007E-2</v>
+      </c>
+      <c r="H26">
+        <v>5.6541000000000001E-2</v>
+      </c>
+      <c r="I26">
+        <v>42</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26" s="1">
+        <v>50</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="73">
+        <f>(32*J26*K26)/B26</f>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27">
+        <v>24000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>1.2752429999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.106701</v>
+      </c>
+      <c r="F27">
+        <v>12.604134999999999</v>
+      </c>
+      <c r="G27">
+        <v>0.100177</v>
+      </c>
+      <c r="H27">
+        <v>5.7529999999999998E-2</v>
+      </c>
+      <c r="I27">
+        <v>43</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27" s="1">
+        <v>50</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="73">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28">
+        <v>24000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>1.2388129999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.105161</v>
+      </c>
+      <c r="F28">
+        <v>13.264303</v>
+      </c>
+      <c r="G28">
+        <v>9.7451999999999997E-2</v>
+      </c>
+      <c r="H28">
+        <v>5.6848999999999997E-2</v>
+      </c>
+      <c r="I28">
+        <v>44</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28" s="1">
+        <v>50</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="73">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N29" s="73"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N30" s="73"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>206</v>
       </c>
-      <c r="B4">
+      <c r="B31">
         <v>24000</v>
       </c>
-      <c r="C4" s="61">
-        <v>1.287426</v>
-      </c>
-      <c r="D4" s="61">
-        <v>0.107115</v>
-      </c>
-      <c r="E4" s="61">
-        <v>12.610239999999999</v>
-      </c>
-      <c r="F4" s="61">
-        <v>0.101107</v>
-      </c>
-      <c r="G4" s="61">
-        <v>5.7707000000000001E-2</v>
-      </c>
-      <c r="H4">
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>1.218215</v>
+      </c>
+      <c r="E31">
+        <v>0.102937</v>
+      </c>
+      <c r="F31">
+        <v>13.766194</v>
+      </c>
+      <c r="G31">
+        <v>9.5655000000000004E-2</v>
+      </c>
+      <c r="H31">
+        <v>5.4394999999999999E-2</v>
+      </c>
+      <c r="I31">
+        <v>42</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31" s="1">
+        <v>100</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="73">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32">
+        <v>24000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>1.2306490000000001</v>
+      </c>
+      <c r="E32">
+        <v>0.103932</v>
+      </c>
+      <c r="F32">
+        <v>13.36697</v>
+      </c>
+      <c r="G32">
+        <v>9.6755999999999995E-2</v>
+      </c>
+      <c r="H32">
+        <v>5.4752000000000002E-2</v>
+      </c>
+      <c r="I32">
         <v>43</v>
       </c>
-      <c r="I4">
+      <c r="J32">
         <v>100</v>
       </c>
-      <c r="J4" s="1">
-        <v>50</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="M4" s="73">
-        <f>(32*I4*J4)/B4</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="K32" s="1">
+        <v>100</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" s="73">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>206</v>
       </c>
-      <c r="B5">
+      <c r="B33">
         <v>24000</v>
       </c>
-      <c r="C5" s="61">
-        <v>1.407203</v>
-      </c>
-      <c r="D5" s="61">
-        <v>0.110277</v>
-      </c>
-      <c r="E5" s="61">
-        <v>12.376633</v>
-      </c>
-      <c r="F5" s="61">
-        <v>0.101538</v>
-      </c>
-      <c r="G5" s="61">
-        <v>6.2119000000000001E-2</v>
-      </c>
-      <c r="H5">
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>1.3177639999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.106464</v>
+      </c>
+      <c r="F33">
+        <v>11.580831999999999</v>
+      </c>
+      <c r="G33">
+        <v>9.8630999999999996E-2</v>
+      </c>
+      <c r="H33">
+        <v>5.9145999999999997E-2</v>
+      </c>
+      <c r="I33">
         <v>44</v>
       </c>
-      <c r="I5">
+      <c r="J33">
         <v>100</v>
       </c>
-      <c r="J5" s="1">
-        <v>50</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="M5" s="73">
-        <f>(32*I5*J5)/B5</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7">
-        <v>24000</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8">
-        <v>24000</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B9">
-        <v>24000</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>271</v>
+      <c r="K33" s="1">
+        <v>100</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" s="73">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -4975,17 +5516,491 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B846BAE7-5ED0-427A-B8CD-EE28F16EDE3B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>6020</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3">
+        <v>11.3668</v>
+      </c>
+      <c r="F3">
+        <v>1.4337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="C4">
+        <v>6020</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4">
+        <v>10.433400000000001</v>
+      </c>
+      <c r="F4">
+        <v>1.1684000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.86240000000000006</v>
+      </c>
+      <c r="C5">
+        <v>6020</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5">
+        <v>10.3522</v>
+      </c>
+      <c r="F5">
+        <v>1.1672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.8427</v>
+      </c>
+      <c r="C6">
+        <v>6020</v>
+      </c>
+      <c r="D6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6">
+        <v>10.123100000000001</v>
+      </c>
+      <c r="F6">
+        <v>1.1394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.88170000000000004</v>
+      </c>
+      <c r="C7">
+        <v>6020</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7">
+        <v>10.378399999999999</v>
+      </c>
+      <c r="F7">
+        <v>1.2192000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE72D0F4-0A8D-474C-B99F-D260C4EB198C}">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3">
+        <v>4637</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3">
+        <v>10.016</v>
+      </c>
+      <c r="F3">
+        <v>1.2844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="B4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4">
+        <v>4637</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4">
+        <v>9.5288000000000004</v>
+      </c>
+      <c r="F4">
+        <v>1.1488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="B5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5">
+        <v>4637</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5">
+        <v>9.4007000000000005</v>
+      </c>
+      <c r="F5">
+        <v>1.1460999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6">
+        <v>4637</v>
+      </c>
+      <c r="D6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6">
+        <v>9.1989999999999998</v>
+      </c>
+      <c r="F6">
+        <v>1.1197999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7">
+        <v>4637</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7">
+        <v>9.1826000000000008</v>
+      </c>
+      <c r="F7">
+        <v>1.1534</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED88BB-481F-4DC9-8FA4-2071DA3723F3}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2">
+        <v>5315</v>
+      </c>
+      <c r="D2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2">
+        <v>10.489699999999999</v>
+      </c>
+      <c r="F2">
+        <v>1.4154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="B3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3">
+        <v>5315</v>
+      </c>
+      <c r="D3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3">
+        <v>10.022</v>
+      </c>
+      <c r="F3">
+        <v>1.1796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="B4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4">
+        <v>5315</v>
+      </c>
+      <c r="D4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4">
+        <v>9.9824999999999999</v>
+      </c>
+      <c r="F4">
+        <v>1.1800999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5">
+        <v>5315</v>
+      </c>
+      <c r="D5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5">
+        <v>9.7143999999999995</v>
+      </c>
+      <c r="F5">
+        <v>1.1477999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.90649999999999997</v>
+      </c>
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6">
+        <v>5315</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6">
+        <v>9.8592999999999993</v>
+      </c>
+      <c r="F6">
+        <v>1.2358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AA6EBD-8719-4324-B09A-4C04B6729294}">
   <dimension ref="A1:R12"/>
   <sheetViews>
@@ -5632,7 +6647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81841C01-14F2-4752-BEFF-0E0B223C739F}">
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -16018,7 +17033,7 @@
   <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O109" sqref="O109"/>
     </sheetView>
   </sheetViews>
@@ -19640,8 +20655,8 @@
   <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results/results_v4.xlsx
+++ b/results/results_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE9BDCB-E779-4AB3-8B43-3A66FCA17F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDBECF9-0BA0-4684-9197-803FAB1044F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10200" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4_hourly" sheetId="4" r:id="rId1"/>
@@ -29,8 +29,12 @@
     <sheet name="m4_quarterly_micro" sheetId="16" r:id="rId14"/>
     <sheet name="m4_quarterly_industry" sheetId="18" r:id="rId15"/>
     <sheet name="m4_quarterly_macro" sheetId="19" r:id="rId16"/>
-    <sheet name="traffic" sheetId="7" r:id="rId17"/>
-    <sheet name="electricity" sheetId="2" r:id="rId18"/>
+    <sheet name="m4_quarterly_finance" sheetId="20" r:id="rId17"/>
+    <sheet name="m4_quarterly_demographic" sheetId="21" r:id="rId18"/>
+    <sheet name="m4_quarterly_other" sheetId="22" r:id="rId19"/>
+    <sheet name="m4_m" sheetId="23" r:id="rId20"/>
+    <sheet name="traffic" sheetId="7" r:id="rId21"/>
+    <sheet name="electricity" sheetId="2" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="284">
   <si>
     <t>Algorithm</t>
   </si>
@@ -873,6 +877,33 @@
   </si>
   <si>
     <t>m4_quarterly_macro</t>
+  </si>
+  <si>
+    <t>m4_quarterly_finance</t>
+  </si>
+  <si>
+    <t>m4_quarterly_demography</t>
+  </si>
+  <si>
+    <t>m4_quarterly_other</t>
+  </si>
+  <si>
+    <t>m4_quarterly_micro</t>
+  </si>
+  <si>
+    <t>1h32min/3</t>
+  </si>
+  <si>
+    <t>3h43min/3, w validation</t>
+  </si>
+  <si>
+    <t>1h57min/3</t>
+  </si>
+  <si>
+    <t>34min/3</t>
+  </si>
+  <si>
+    <t>53min/3</t>
   </si>
 </sst>
 </file>
@@ -958,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1091,6 +1122,7 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4751,19 +4783,19 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB6778F-350E-4846-8961-77EFBBA93C3E}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1796875" customWidth="1"/>
@@ -4772,11 +4804,12 @@
     <col min="10" max="10" width="6.81640625" customWidth="1"/>
     <col min="11" max="11" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -4819,13 +4852,16 @@
       <c r="N1" s="8" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="K2" s="67"/>
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C3" s="36" t="s">
         <v>215</v>
       </c>
@@ -4840,7 +4876,7 @@
       <c r="L3" s="67"/>
       <c r="M3" s="67"/>
     </row>
-    <row r="4" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C4" s="36" t="s">
         <v>216</v>
       </c>
@@ -4855,7 +4891,7 @@
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
     </row>
-    <row r="5" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C5" s="36" t="s">
         <v>217</v>
       </c>
@@ -4870,7 +4906,7 @@
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
     </row>
-    <row r="6" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C6" s="36" t="s">
         <v>218</v>
       </c>
@@ -4885,7 +4921,7 @@
       <c r="L6" s="67"/>
       <c r="M6" s="67"/>
     </row>
-    <row r="7" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C7" s="36" t="s">
         <v>219</v>
       </c>
@@ -4900,7 +4936,7 @@
       <c r="L7" s="67"/>
       <c r="M7" s="67"/>
     </row>
-    <row r="8" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C8" s="36" t="s">
         <v>220</v>
       </c>
@@ -4915,7 +4951,7 @@
       <c r="L8" s="67"/>
       <c r="M8" s="67"/>
     </row>
-    <row r="9" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C9" s="36" t="s">
         <v>223</v>
       </c>
@@ -4930,7 +4966,7 @@
       <c r="L9" s="67"/>
       <c r="M9" s="67"/>
     </row>
-    <row r="10" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C10" s="36" t="s">
         <v>222</v>
       </c>
@@ -4945,7 +4981,7 @@
       <c r="L10" s="67"/>
       <c r="M10" s="67"/>
     </row>
-    <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C11" s="36" t="s">
         <v>224</v>
       </c>
@@ -4953,37 +4989,37 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -5027,8 +5063,11 @@
         <f>(32*J18*K18)/B18</f>
         <v>6.666666666666667</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>206</v>
       </c>
@@ -5073,7 +5112,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>206</v>
       </c>
@@ -5118,52 +5157,17 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D21" s="61">
+        <f>AVERAGE(D18:D20)</f>
+        <v>1.3361173333333334</v>
+      </c>
       <c r="N21" s="73"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>269</v>
-      </c>
-      <c r="B22">
-        <v>24000</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>1.2955680000000001</v>
-      </c>
-      <c r="E22">
-        <v>0.106223</v>
-      </c>
-      <c r="F22">
-        <v>14.075428</v>
-      </c>
-      <c r="G22">
-        <v>9.8840999999999998E-2</v>
-      </c>
-      <c r="H22">
-        <v>5.6936E-2</v>
-      </c>
-      <c r="I22">
-        <v>42</v>
-      </c>
-      <c r="J22">
-        <v>100</v>
-      </c>
-      <c r="K22" s="1">
-        <v>50</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N22" s="73">
-        <f t="shared" ref="N22:N33" si="0">(32*J22*K22)/B22</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N22" s="73"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>269</v>
       </c>
@@ -5174,38 +5178,44 @@
         <v>9</v>
       </c>
       <c r="D23">
-        <v>1.2675270000000001</v>
+        <v>1.2955680000000001</v>
       </c>
       <c r="E23">
-        <v>0.10632999999999999</v>
+        <v>0.106223</v>
       </c>
       <c r="F23">
-        <v>12.451796</v>
+        <v>14.075428</v>
       </c>
       <c r="G23">
-        <v>9.9432999999999994E-2</v>
+        <v>9.8840999999999998E-2</v>
       </c>
       <c r="H23">
-        <v>5.7868999999999997E-2</v>
+        <v>5.6936E-2</v>
       </c>
       <c r="I23">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="K23" s="1">
         <v>50</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N23" s="73">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N23:N46" si="0">(32*J23*K23)/B23</f>
         <v>6.666666666666667</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>269</v>
       </c>
@@ -5216,28 +5226,31 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <v>1.2883070000000001</v>
+        <v>1.2675270000000001</v>
       </c>
       <c r="E24">
-        <v>0.10724499999999999</v>
+        <v>0.10632999999999999</v>
       </c>
       <c r="F24">
-        <v>11.657188</v>
+        <v>12.451796</v>
       </c>
       <c r="G24">
-        <v>9.9767999999999996E-2</v>
+        <v>9.9432999999999994E-2</v>
       </c>
       <c r="H24">
-        <v>6.1563E-2</v>
+        <v>5.7868999999999997E-2</v>
       </c>
       <c r="I24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24" s="1">
         <v>50</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>196</v>
@@ -5247,94 +5260,62 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N25" s="73"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>271</v>
-      </c>
-      <c r="B26">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25">
         <v>24000</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D26">
-        <v>1.266</v>
-      </c>
-      <c r="E26">
-        <v>0.10526000000000001</v>
-      </c>
-      <c r="F26">
-        <v>13.994861</v>
-      </c>
-      <c r="G26">
-        <v>9.7878000000000007E-2</v>
-      </c>
-      <c r="H26">
-        <v>5.6541000000000001E-2</v>
-      </c>
-      <c r="I26">
-        <v>42</v>
-      </c>
-      <c r="J26">
-        <v>100</v>
-      </c>
-      <c r="K26" s="1">
-        <v>50</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N26" s="73">
-        <f>(32*J26*K26)/B26</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>271</v>
-      </c>
-      <c r="B27">
-        <v>24000</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>1.2752429999999999</v>
-      </c>
-      <c r="E27">
-        <v>0.106701</v>
-      </c>
-      <c r="F27">
-        <v>12.604134999999999</v>
-      </c>
-      <c r="G27">
-        <v>0.100177</v>
-      </c>
-      <c r="H27">
-        <v>5.7529999999999998E-2</v>
-      </c>
-      <c r="I27">
-        <v>43</v>
-      </c>
-      <c r="J27">
-        <v>100</v>
-      </c>
-      <c r="K27" s="1">
-        <v>50</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N27" s="73">
+      <c r="D25">
+        <v>1.2883070000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.10724499999999999</v>
+      </c>
+      <c r="F25">
+        <v>11.657188</v>
+      </c>
+      <c r="G25">
+        <v>9.9767999999999996E-2</v>
+      </c>
+      <c r="H25">
+        <v>6.1563E-2</v>
+      </c>
+      <c r="I25">
+        <v>44</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25" s="1">
+        <v>50</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N25" s="73">
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D26" s="61">
+        <f>AVERAGE(D23:D25)</f>
+        <v>1.2838006666666668</v>
+      </c>
+      <c r="N26" s="73"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N27" s="73"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>271</v>
       </c>
@@ -5345,22 +5326,22 @@
         <v>9</v>
       </c>
       <c r="D28">
-        <v>1.2388129999999999</v>
+        <v>1.266</v>
       </c>
       <c r="E28">
-        <v>0.105161</v>
+        <v>0.10526000000000001</v>
       </c>
       <c r="F28">
-        <v>13.264303</v>
+        <v>13.994861</v>
       </c>
       <c r="G28">
-        <v>9.7451999999999997E-2</v>
+        <v>9.7878000000000007E-2</v>
       </c>
       <c r="H28">
-        <v>5.6848999999999997E-2</v>
+        <v>5.6541000000000001E-2</v>
       </c>
       <c r="I28">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>100</v>
@@ -5368,144 +5349,573 @@
       <c r="K28" s="1">
         <v>50</v>
       </c>
+      <c r="L28" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="M28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N28" s="73">
+        <f>(32*J28*K28)/B28</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="O28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29">
+        <v>24000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>1.2752429999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.106701</v>
+      </c>
+      <c r="F29">
+        <v>12.604134999999999</v>
+      </c>
+      <c r="G29">
+        <v>0.100177</v>
+      </c>
+      <c r="H29">
+        <v>5.7529999999999998E-2</v>
+      </c>
+      <c r="I29">
+        <v>43</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29" s="1">
+        <v>50</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="73">
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N29" s="73"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N30" s="73"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30">
+        <v>24000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>1.2388129999999999</v>
+      </c>
+      <c r="E30">
+        <v>0.105161</v>
+      </c>
+      <c r="F30">
+        <v>13.264303</v>
+      </c>
+      <c r="G30">
+        <v>9.7451999999999997E-2</v>
+      </c>
+      <c r="H30">
+        <v>5.6848999999999997E-2</v>
+      </c>
+      <c r="I30">
+        <v>44</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30" s="1">
+        <v>50</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="73">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D31" s="61">
+        <f>AVERAGE(D28:D30)</f>
+        <v>1.2600186666666666</v>
+      </c>
+      <c r="N31" s="73"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N32" s="73"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N33" s="73"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>206</v>
       </c>
-      <c r="B31">
+      <c r="B34">
         <v>24000</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D31">
+      <c r="D34">
         <v>1.218215</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <v>0.102937</v>
       </c>
-      <c r="F31">
+      <c r="F34">
         <v>13.766194</v>
       </c>
-      <c r="G31">
+      <c r="G34">
         <v>9.5655000000000004E-2</v>
       </c>
-      <c r="H31">
+      <c r="H34">
         <v>5.4394999999999999E-2</v>
       </c>
-      <c r="I31">
+      <c r="I34">
         <v>42</v>
       </c>
-      <c r="J31">
-        <v>100</v>
-      </c>
-      <c r="K31" s="1">
-        <v>100</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N31" s="73">
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34" s="1">
+        <v>100</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N34" s="73">
         <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="O34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>206</v>
       </c>
-      <c r="B32">
+      <c r="B35">
         <v>24000</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="D32">
+      <c r="D35">
         <v>1.2306490000000001</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <v>0.103932</v>
       </c>
-      <c r="F32">
+      <c r="F35">
         <v>13.36697</v>
       </c>
-      <c r="G32">
+      <c r="G35">
         <v>9.6755999999999995E-2</v>
       </c>
-      <c r="H32">
+      <c r="H35">
         <v>5.4752000000000002E-2</v>
       </c>
-      <c r="I32">
+      <c r="I35">
         <v>43</v>
       </c>
-      <c r="J32">
-        <v>100</v>
-      </c>
-      <c r="K32" s="1">
-        <v>100</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N32" s="73">
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35" s="1">
+        <v>100</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N35" s="73">
         <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>206</v>
       </c>
-      <c r="B33">
+      <c r="B36">
         <v>24000</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="D33">
+      <c r="D36">
         <v>1.3177639999999999</v>
       </c>
-      <c r="E33">
+      <c r="E36">
         <v>0.106464</v>
       </c>
-      <c r="F33">
+      <c r="F36">
         <v>11.580831999999999</v>
       </c>
-      <c r="G33">
+      <c r="G36">
         <v>9.8630999999999996E-2</v>
       </c>
-      <c r="H33">
+      <c r="H36">
         <v>5.9145999999999997E-2</v>
       </c>
-      <c r="I33">
+      <c r="I36">
         <v>44</v>
       </c>
-      <c r="J33">
-        <v>100</v>
-      </c>
-      <c r="K33" s="1">
-        <v>100</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N33" s="73">
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36" s="1">
+        <v>100</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N36" s="73">
         <f t="shared" si="0"/>
         <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D37" s="61">
+        <f>AVERAGE(D34:D36)</f>
+        <v>1.2555426666666667</v>
+      </c>
+      <c r="N37" s="73"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N38" s="73"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39">
+        <v>24000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>1.2439530000000001</v>
+      </c>
+      <c r="E39">
+        <v>0.105714</v>
+      </c>
+      <c r="F39">
+        <v>14.164586</v>
+      </c>
+      <c r="G39">
+        <v>9.8461999999999994E-2</v>
+      </c>
+      <c r="H39">
+        <v>5.8353000000000002E-2</v>
+      </c>
+      <c r="I39">
+        <v>42</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39" s="1">
+        <v>100</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N39" s="73">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40">
+        <v>24000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>1.247582</v>
+      </c>
+      <c r="E40">
+        <v>0.105863</v>
+      </c>
+      <c r="F40">
+        <v>13.79974</v>
+      </c>
+      <c r="G40">
+        <v>9.8893999999999996E-2</v>
+      </c>
+      <c r="H40">
+        <v>5.7692E-2</v>
+      </c>
+      <c r="I40">
+        <v>43</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40" s="1">
+        <v>100</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N40" s="73">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O40" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>269</v>
+      </c>
+      <c r="B41">
+        <v>24000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>1.490958</v>
+      </c>
+      <c r="E41">
+        <v>0.11214200000000001</v>
+      </c>
+      <c r="F41">
+        <v>16.352651999999999</v>
+      </c>
+      <c r="G41">
+        <v>0.104181</v>
+      </c>
+      <c r="H41">
+        <v>5.8964999999999997E-2</v>
+      </c>
+      <c r="I41">
+        <v>44</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41" s="1">
+        <v>100</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N41" s="73">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D42" s="61">
+        <f>AVERAGE(D39:D41)</f>
+        <v>1.3274976666666667</v>
+      </c>
+      <c r="N42" s="73"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N43" s="73"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>271</v>
+      </c>
+      <c r="B44">
+        <v>24000</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>1.2576719999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.106083</v>
+      </c>
+      <c r="F44">
+        <v>14.099461</v>
+      </c>
+      <c r="G44">
+        <v>9.8796999999999996E-2</v>
+      </c>
+      <c r="H44">
+        <v>5.8257000000000003E-2</v>
+      </c>
+      <c r="I44">
+        <v>42</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44" s="1">
+        <v>100</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N44" s="73">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O44" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45">
+        <v>24000</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>1.254988</v>
+      </c>
+      <c r="E45">
+        <v>0.10589800000000001</v>
+      </c>
+      <c r="F45">
+        <v>13.689927000000001</v>
+      </c>
+      <c r="G45">
+        <v>9.8133999999999999E-2</v>
+      </c>
+      <c r="H45">
+        <v>5.7279999999999998E-2</v>
+      </c>
+      <c r="I45">
+        <v>43</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45" s="1">
+        <v>100</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N45" s="73">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46">
+        <v>24000</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>1.446115</v>
+      </c>
+      <c r="E46">
+        <v>0.110585</v>
+      </c>
+      <c r="F46">
+        <v>15.797732999999999</v>
+      </c>
+      <c r="G46">
+        <v>0.102634</v>
+      </c>
+      <c r="H46">
+        <v>5.8513999999999997E-2</v>
+      </c>
+      <c r="I46">
+        <v>44</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46" s="1">
+        <v>100</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N46" s="73">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D47" s="61">
+        <f>AVERAGE(D44:D46)</f>
+        <v>1.3195916666666667</v>
       </c>
     </row>
   </sheetData>
@@ -5516,330 +5926,19 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B846BAE7-5ED0-427A-B8CD-EE28F16EDE3B}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>6020</v>
-      </c>
-      <c r="D3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3">
-        <v>11.3668</v>
-      </c>
-      <c r="F3">
-        <v>1.4337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>0.86639999999999995</v>
-      </c>
-      <c r="C4">
-        <v>6020</v>
-      </c>
-      <c r="D4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4">
-        <v>10.433400000000001</v>
-      </c>
-      <c r="F4">
-        <v>1.1684000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>0.86240000000000006</v>
-      </c>
-      <c r="C5">
-        <v>6020</v>
-      </c>
-      <c r="D5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5">
-        <v>10.3522</v>
-      </c>
-      <c r="F5">
-        <v>1.1672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>0.8427</v>
-      </c>
-      <c r="C6">
-        <v>6020</v>
-      </c>
-      <c r="D6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6">
-        <v>10.123100000000001</v>
-      </c>
-      <c r="F6">
-        <v>1.1394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>0.88170000000000004</v>
-      </c>
-      <c r="C7">
-        <v>6020</v>
-      </c>
-      <c r="D7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7">
-        <v>10.378399999999999</v>
-      </c>
-      <c r="F7">
-        <v>1.2192000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE72D0F4-0A8D-474C-B99F-D260C4EB198C}">
-  <dimension ref="A1:O7"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3">
-        <v>4637</v>
-      </c>
-      <c r="D3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3">
-        <v>10.016</v>
-      </c>
-      <c r="F3">
-        <v>1.2844</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>0.92290000000000005</v>
-      </c>
-      <c r="B4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4">
-        <v>4637</v>
-      </c>
-      <c r="D4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4">
-        <v>9.5288000000000004</v>
-      </c>
-      <c r="F4">
-        <v>1.1488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>0.91549999999999998</v>
-      </c>
-      <c r="B5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5">
-        <v>4637</v>
-      </c>
-      <c r="D5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5">
-        <v>9.4007000000000005</v>
-      </c>
-      <c r="F5">
-        <v>1.1460999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>0.89510000000000001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6">
-        <v>4637</v>
-      </c>
-      <c r="D6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6">
-        <v>9.1989999999999998</v>
-      </c>
-      <c r="F6">
-        <v>1.1197999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>0.90739999999999998</v>
-      </c>
-      <c r="B7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7">
-        <v>4637</v>
-      </c>
-      <c r="D7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7">
-        <v>9.1826000000000008</v>
-      </c>
-      <c r="F7">
-        <v>1.1534</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED88BB-481F-4DC9-8FA4-2071DA3723F3}">
-  <dimension ref="A1:O6"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" customWidth="1"/>
+    <col min="6" max="8" width="7.7265625" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" customWidth="1"/>
     <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
@@ -5850,16 +5949,16 @@
   <sheetData>
     <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -5895,18 +5994,880 @@
         <v>232</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3">
+        <v>6020</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="61">
+        <v>1</v>
+      </c>
+      <c r="E3" s="61">
+        <v>1.4337</v>
+      </c>
+      <c r="F3" s="61">
+        <v>0.11366799999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4">
+        <v>6020</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="61">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="E4" s="61">
+        <v>1.1684000000000001</v>
+      </c>
+      <c r="F4" s="61">
+        <v>0.10433400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5">
+        <v>6020</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="61">
+        <v>0.86240000000000006</v>
+      </c>
+      <c r="E5" s="61">
+        <v>1.1672</v>
+      </c>
+      <c r="F5" s="61">
+        <v>0.103522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6">
+        <v>6020</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="61">
+        <v>0.8427</v>
+      </c>
+      <c r="E6" s="61">
+        <v>1.1394</v>
+      </c>
+      <c r="F6" s="61">
+        <v>0.10123100000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7">
+        <v>6020</v>
+      </c>
+      <c r="C7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="61">
+        <v>0.88170000000000004</v>
+      </c>
+      <c r="E7" s="61">
+        <v>1.2192000000000001</v>
+      </c>
+      <c r="F7" s="61">
+        <v>0.10378399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>6020</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="61">
+        <f>(( E9/$E$3) + (F9/$F$3)) / 2</f>
+        <v>0.99290557324478734</v>
+      </c>
+      <c r="E9" s="61">
+        <v>1.4311039999999999</v>
+      </c>
+      <c r="F9" s="61">
+        <v>0.112261</v>
+      </c>
+      <c r="G9">
+        <v>22.831237000000002</v>
+      </c>
+      <c r="H9">
+        <v>0.10874499999999999</v>
+      </c>
+      <c r="I9">
+        <v>7.4129E-2</v>
+      </c>
+      <c r="J9">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>196</v>
+      </c>
+      <c r="O9" s="73">
+        <f>(32*L9*K9)/B9</f>
+        <v>26.578073089700997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>6020</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="61">
+        <f t="shared" ref="D10:D11" si="0">(( E10/$E$3) + (F10/$F$3)) / 2</f>
+        <v>0.92859803550353992</v>
+      </c>
+      <c r="E10" s="61">
+        <v>1.298359</v>
+      </c>
+      <c r="F10" s="61">
+        <v>0.108166</v>
+      </c>
+      <c r="G10">
+        <v>15.472757</v>
+      </c>
+      <c r="H10">
+        <v>0.102226</v>
+      </c>
+      <c r="I10">
+        <v>6.1369E-2</v>
+      </c>
+      <c r="J10">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>196</v>
+      </c>
+      <c r="O10" s="73">
+        <f t="shared" ref="O10:O11" si="1">(32*L10*K10)/B10</f>
+        <v>26.578073089700997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>6020</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="61">
+        <f t="shared" si="0"/>
+        <v>0.93797887722114104</v>
+      </c>
+      <c r="E11" s="61">
+        <v>1.31576</v>
+      </c>
+      <c r="F11" s="61">
+        <v>0.108919</v>
+      </c>
+      <c r="G11">
+        <v>13.615874</v>
+      </c>
+      <c r="H11">
+        <v>0.103202</v>
+      </c>
+      <c r="I11">
+        <v>6.2156999999999997E-2</v>
+      </c>
+      <c r="J11">
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>196</v>
+      </c>
+      <c r="O11" s="73">
+        <f t="shared" si="1"/>
+        <v>26.578073089700997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D12" s="61"/>
+      <c r="E12" s="61">
+        <f>AVERAGE(E9:E11)</f>
+        <v>1.3484076666666667</v>
+      </c>
+      <c r="F12" s="61">
+        <f>AVERAGE(F9:F11)</f>
+        <v>0.10978199999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>6020</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="61">
+        <f>(( E14/$E$3) + (F14/$F$3)) / 2</f>
+        <v>0.90603310412378546</v>
+      </c>
+      <c r="E14" s="61">
+        <v>1.25945</v>
+      </c>
+      <c r="F14" s="61">
+        <v>0.10612099999999999</v>
+      </c>
+      <c r="G14" s="61">
+        <v>15.152126000000001</v>
+      </c>
+      <c r="H14" s="61">
+        <v>0.100901</v>
+      </c>
+      <c r="I14" s="61">
+        <v>5.7861999999999997E-2</v>
+      </c>
+      <c r="J14">
+        <v>42</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" s="73">
+        <f>(32*L14*K14)/B14</f>
+        <v>53.156146179401993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>6020</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="61">
+        <f>(( E15/$E$3) + (F15/$F$3)) / 2</f>
+        <v>1.0941872661468093</v>
+      </c>
+      <c r="E15" s="61">
+        <v>1.612555</v>
+      </c>
+      <c r="F15" s="61">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="G15" s="61">
+        <v>20.499368</v>
+      </c>
+      <c r="H15" s="61">
+        <v>0.11924700000000001</v>
+      </c>
+      <c r="I15" s="61">
+        <v>7.2219000000000005E-2</v>
+      </c>
+      <c r="J15">
+        <v>43</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>196</v>
+      </c>
+      <c r="O15" s="73">
+        <f t="shared" ref="O15:O16" si="2">(32*L15*K15)/B15</f>
+        <v>53.156146179401993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>6020</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="61">
+        <f>(( E16/$E$3) + (F16/$F$3)) / 2</f>
+        <v>0.92471461990988546</v>
+      </c>
+      <c r="E16" s="61">
+        <v>1.280173</v>
+      </c>
+      <c r="F16" s="61">
+        <v>0.108725</v>
+      </c>
+      <c r="G16" s="61">
+        <v>12.957032</v>
+      </c>
+      <c r="H16" s="61">
+        <v>0.10355499999999999</v>
+      </c>
+      <c r="I16" s="61">
+        <v>5.9424999999999999E-2</v>
+      </c>
+      <c r="J16">
+        <v>44</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" t="s">
+        <v>196</v>
+      </c>
+      <c r="O16" s="73">
+        <f t="shared" si="2"/>
+        <v>53.156146179401993</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E17" s="61">
+        <f>AVERAGE(E14:E16)</f>
+        <v>1.3840593333333331</v>
+      </c>
+      <c r="F17" s="61">
+        <f>AVERAGE(F14:F16)</f>
+        <v>0.11191533333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE72D0F4-0A8D-474C-B99F-D260C4EB198C}">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3">
+        <v>4637</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.2844</v>
+      </c>
+      <c r="F3">
+        <v>0.10016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4">
+        <v>4637</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="E4">
+        <v>1.1488</v>
+      </c>
+      <c r="F4">
+        <v>9.5287999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5">
+        <v>4637</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="E5">
+        <v>1.1460999999999999</v>
+      </c>
+      <c r="F5">
+        <v>9.4007000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6">
+        <v>4637</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="E6">
+        <v>1.1197999999999999</v>
+      </c>
+      <c r="F6">
+        <v>9.1990000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7">
+        <v>4637</v>
+      </c>
+      <c r="C7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="E7">
+        <v>1.1534</v>
+      </c>
+      <c r="F7">
+        <v>9.1826000000000005E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f>((E9/$E$3)+(F9/$F$3))/2</f>
+        <v>0.97394302501236263</v>
+      </c>
+      <c r="E9">
+        <v>1.254794</v>
+      </c>
+      <c r="F9">
+        <v>9.7249000000000002E-2</v>
+      </c>
+      <c r="G9">
+        <v>13.132654</v>
+      </c>
+      <c r="H9">
+        <v>8.7484999999999993E-2</v>
+      </c>
+      <c r="I9">
+        <v>4.7487000000000001E-2</v>
+      </c>
+      <c r="J9">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D17" si="0">((E10/$E$3)+(F10/$F$3))/2</f>
+        <v>0.95256185462960297</v>
+      </c>
+      <c r="E10">
+        <v>1.2133860000000001</v>
+      </c>
+      <c r="F10">
+        <v>9.6195000000000003E-2</v>
+      </c>
+      <c r="G10">
+        <v>12.607866</v>
+      </c>
+      <c r="H10">
+        <v>8.6476999999999998E-2</v>
+      </c>
+      <c r="I10">
+        <v>4.7010000000000003E-2</v>
+      </c>
+      <c r="J10">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.98354075335582658</v>
+      </c>
+      <c r="E11">
+        <v>1.278769</v>
+      </c>
+      <c r="F11">
+        <v>9.7302E-2</v>
+      </c>
+      <c r="G11">
+        <v>13.359182000000001</v>
+      </c>
+      <c r="H11">
+        <v>8.7424000000000002E-2</v>
+      </c>
+      <c r="I11">
+        <v>4.7259000000000002E-2</v>
+      </c>
+      <c r="J11">
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f>AVERAGE(E9:E11)</f>
+        <v>1.2489830000000002</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(F9:F11)</f>
+        <v>9.6915333333333339E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.1028293120916222</v>
+      </c>
+      <c r="E15">
+        <v>1.483161</v>
+      </c>
+      <c r="F15">
+        <v>0.10525900000000001</v>
+      </c>
+      <c r="G15">
+        <v>19.279572999999999</v>
+      </c>
+      <c r="H15">
+        <v>9.4829999999999998E-2</v>
+      </c>
+      <c r="I15">
+        <v>4.6994000000000001E-2</v>
+      </c>
+      <c r="J15">
+        <v>42</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.91527682801880117</v>
+      </c>
+      <c r="E16">
+        <v>1.162593</v>
+      </c>
+      <c r="F16">
+        <v>9.2687000000000005E-2</v>
+      </c>
+      <c r="G16">
+        <v>12.146026000000001</v>
+      </c>
+      <c r="H16">
+        <v>8.2376000000000005E-2</v>
+      </c>
+      <c r="I16">
+        <v>4.4514999999999999E-2</v>
+      </c>
+      <c r="J16">
+        <v>43</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.95979485765783157</v>
+      </c>
+      <c r="E17">
+        <v>1.2375700000000001</v>
+      </c>
+      <c r="F17">
+        <v>9.5757999999999996E-2</v>
+      </c>
+      <c r="G17">
+        <v>12.761132999999999</v>
+      </c>
+      <c r="H17">
+        <v>8.6579000000000003E-2</v>
+      </c>
+      <c r="I17">
+        <v>4.6478999999999999E-2</v>
+      </c>
+      <c r="J17">
+        <v>44</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f>AVERAGE(E15:E17)</f>
+        <v>1.2944413333333333</v>
+      </c>
+      <c r="F18">
+        <f>AVERAGE(F15:F17)</f>
+        <v>9.790133333333334E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED88BB-481F-4DC9-8FA4-2071DA3723F3}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2">
+        <v>5315</v>
+      </c>
+      <c r="C2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2">
-        <v>5315</v>
-      </c>
-      <c r="D2" t="s">
-        <v>222</v>
       </c>
       <c r="E2">
         <v>10.489699999999999</v>
@@ -5916,17 +6877,17 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3">
+        <v>5315</v>
+      </c>
+      <c r="C3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3">
         <v>0.89439999999999997</v>
-      </c>
-      <c r="B3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3">
-        <v>5315</v>
-      </c>
-      <c r="D3" t="s">
-        <v>218</v>
       </c>
       <c r="E3">
         <v>10.022</v>
@@ -5936,17 +6897,17 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4">
+        <v>5315</v>
+      </c>
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4">
         <v>0.89270000000000005</v>
-      </c>
-      <c r="B4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4">
-        <v>5315</v>
-      </c>
-      <c r="D4" t="s">
-        <v>219</v>
       </c>
       <c r="E4">
         <v>9.9824999999999999</v>
@@ -5956,17 +6917,17 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5">
+        <v>5315</v>
+      </c>
+      <c r="C5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5">
         <v>0.86850000000000005</v>
-      </c>
-      <c r="B5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5">
-        <v>5315</v>
-      </c>
-      <c r="D5" t="s">
-        <v>224</v>
       </c>
       <c r="E5">
         <v>9.7143999999999995</v>
@@ -5976,23 +6937,119 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6">
+        <v>5315</v>
+      </c>
+      <c r="C6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6">
         <v>0.90649999999999997</v>
-      </c>
-      <c r="B6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6">
-        <v>5315</v>
-      </c>
-      <c r="D6" t="s">
-        <v>217</v>
       </c>
       <c r="E6">
         <v>9.8592999999999993</v>
       </c>
       <c r="F6">
         <v>1.2358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>0.89658312932919493</v>
+      </c>
+      <c r="E9">
+        <v>1.278807</v>
+      </c>
+      <c r="F9">
+        <v>0.102438</v>
+      </c>
+      <c r="G9">
+        <v>13.506092000000001</v>
+      </c>
+      <c r="H9">
+        <v>9.3615000000000004E-2</v>
+      </c>
+      <c r="I9">
+        <v>4.6961999999999997E-2</v>
+      </c>
+      <c r="J9">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1.0467369606251817</v>
+      </c>
+      <c r="E10">
+        <v>1.60023</v>
+      </c>
+      <c r="F10">
+        <v>0.11108999999999999</v>
+      </c>
+      <c r="G10">
+        <v>17.997685000000001</v>
+      </c>
+      <c r="H10">
+        <v>9.8502000000000006E-2</v>
+      </c>
+      <c r="I10">
+        <v>5.1961E-2</v>
+      </c>
+      <c r="J10">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>0.87216205085312515</v>
+      </c>
+      <c r="E11">
+        <v>1.242421</v>
+      </c>
+      <c r="F11">
+        <v>9.9770999999999999E-2</v>
+      </c>
+      <c r="G11">
+        <v>12.375102999999999</v>
+      </c>
+      <c r="H11">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="I11">
+        <v>4.6996999999999997E-2</v>
+      </c>
+      <c r="J11">
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6001,1934 +7058,950 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AA6EBD-8719-4324-B09A-4C04B6729294}">
-  <dimension ref="A1:R12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A54CD04-938A-44C5-94A2-18A25BFC251F}">
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="2">
-        <v>862</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3">
+        <v>5305</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.3607</v>
+      </c>
+      <c r="F3">
+        <v>0.12574199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4">
+        <v>5305</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="E4">
+        <v>1.1621999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.12081500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5">
+        <v>5305</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5">
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="E5">
+        <v>1.1520999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.117911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6">
+        <v>5305</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6">
+        <v>0.872</v>
+      </c>
+      <c r="E6">
+        <v>1.125</v>
+      </c>
+      <c r="F6">
+        <v>0.115332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7">
+        <v>5305</v>
+      </c>
+      <c r="C7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7">
+        <v>0.8972</v>
+      </c>
+      <c r="E7">
+        <v>1.1884999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.1158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>5305</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E1" s="24">
+      <c r="E9">
+        <v>1.3034520000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.124374</v>
+      </c>
+      <c r="G9">
+        <v>15.105667</v>
+      </c>
+      <c r="H9">
+        <v>0.116067</v>
+      </c>
+      <c r="I9">
+        <v>6.5512000000000001E-2</v>
+      </c>
+      <c r="J9">
         <v>42</v>
       </c>
-      <c r="F1" s="24">
-        <v>100</v>
-      </c>
-      <c r="G1" s="25">
-        <v>50</v>
-      </c>
-      <c r="H1" s="25">
-        <v>14</v>
-      </c>
-      <c r="I1" s="25">
-        <v>7</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26">
-        <v>0.88936537788412395</v>
-      </c>
-      <c r="N1" s="26">
-        <v>12.056193496287101</v>
-      </c>
-      <c r="O1" s="26">
-        <v>0.14220320148680099</v>
-      </c>
-      <c r="P1" s="26">
-        <v>0.17131659113794201</v>
-      </c>
-      <c r="Q1" s="26">
-        <v>0.112617250917697</v>
-      </c>
-      <c r="R1" s="25"/>
-    </row>
-    <row r="2" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2">
-        <v>862</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>196</v>
+      </c>
+      <c r="O9" s="73">
+        <f>(32*K9*L9)/B9</f>
+        <v>60.320452403393027</v>
+      </c>
+      <c r="P9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>5305</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E2" s="24">
+      <c r="E10">
+        <v>1.233689</v>
+      </c>
+      <c r="F10">
+        <v>0.123205</v>
+      </c>
+      <c r="G10">
+        <v>12.954722</v>
+      </c>
+      <c r="H10">
+        <v>0.11347500000000001</v>
+      </c>
+      <c r="I10">
+        <v>6.6089999999999996E-2</v>
+      </c>
+      <c r="J10">
         <v>43</v>
       </c>
-      <c r="F2" s="24">
-        <v>100</v>
-      </c>
-      <c r="G2" s="25">
-        <v>50</v>
-      </c>
-      <c r="H2" s="25">
-        <v>14</v>
-      </c>
-      <c r="I2" s="25">
-        <v>7</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26">
-        <v>0.84946299059517005</v>
-      </c>
-      <c r="N2" s="26">
-        <v>10.565301611994199</v>
-      </c>
-      <c r="O2" s="26">
-        <v>0.13616913458261001</v>
-      </c>
-      <c r="P2" s="26">
-        <v>0.16382832301348299</v>
-      </c>
-      <c r="Q2" s="26">
-        <v>0.10248962363684699</v>
-      </c>
-      <c r="R2" s="25"/>
-    </row>
-    <row r="3" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2">
-        <v>862</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>196</v>
+      </c>
+      <c r="O10" s="73">
+        <f t="shared" ref="O10:O11" si="0">(32*K10*L10)/B10</f>
+        <v>60.320452403393027</v>
+      </c>
+      <c r="P10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>5305</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E3" s="24">
+      <c r="E11">
+        <v>1.2532300000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.12210699999999999</v>
+      </c>
+      <c r="G11">
+        <v>13.279436</v>
+      </c>
+      <c r="H11">
+        <v>0.1135</v>
+      </c>
+      <c r="I11">
+        <v>6.5972000000000003E-2</v>
+      </c>
+      <c r="J11">
         <v>44</v>
       </c>
-      <c r="F3" s="24">
-        <v>100</v>
-      </c>
-      <c r="G3" s="25">
-        <v>50</v>
-      </c>
-      <c r="H3" s="25">
-        <v>14</v>
-      </c>
-      <c r="I3" s="25">
-        <v>7</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26">
-        <v>0.85708568487041603</v>
-      </c>
-      <c r="N3" s="26">
-        <v>11.1921050644247</v>
-      </c>
-      <c r="O3" s="26">
-        <v>0.13754877448949901</v>
-      </c>
-      <c r="P3" s="26">
-        <v>0.16517953001998201</v>
-      </c>
-      <c r="Q3" s="26">
-        <v>0.106157875853182</v>
-      </c>
-      <c r="R3" s="25"/>
-    </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="2">
-        <v>862</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E4" s="2">
-        <v>42</v>
-      </c>
-      <c r="F4" s="2">
-        <v>100</v>
-      </c>
-      <c r="G4" s="3">
-        <v>50</v>
-      </c>
-      <c r="H4" s="3">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="12">
-        <v>0.85984988290767905</v>
-      </c>
-      <c r="N4" s="12">
-        <v>11.467363191577901</v>
-      </c>
-      <c r="O4" s="12">
-        <v>0.13708799650329101</v>
-      </c>
-      <c r="P4" s="12">
-        <v>0.164240320870712</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>0.106211508502489</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2">
-        <v>862</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E5" s="2">
-        <v>43</v>
-      </c>
-      <c r="F5" s="2">
-        <v>100</v>
-      </c>
-      <c r="G5" s="3">
-        <v>50</v>
-      </c>
-      <c r="H5" s="3">
-        <v>21</v>
-      </c>
-      <c r="I5" s="3">
-        <v>7</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="12">
-        <v>0.83043391632280406</v>
-      </c>
-      <c r="N5" s="13">
-        <v>11.234771610285099</v>
-      </c>
-      <c r="O5" s="13">
-        <v>0.13292169433456799</v>
-      </c>
-      <c r="P5" s="13">
-        <v>0.15975893594083501</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>0.104422274001578</v>
-      </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2">
-        <v>862</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44</v>
-      </c>
-      <c r="F6" s="2">
-        <v>100</v>
-      </c>
-      <c r="G6" s="3">
-        <v>50</v>
-      </c>
-      <c r="H6" s="3">
-        <v>21</v>
-      </c>
-      <c r="I6" s="3">
-        <v>7</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="12">
-        <v>0.84857504449934995</v>
-      </c>
-      <c r="N6" s="13">
-        <v>11.0099023024096</v>
-      </c>
-      <c r="O6" s="13">
-        <v>0.13595650523487801</v>
-      </c>
-      <c r="P6" s="13">
-        <v>0.16285584334123099</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>0.10522540363196101</v>
-      </c>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2">
-        <v>862</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E7" s="24">
-        <v>42</v>
-      </c>
-      <c r="F7" s="24">
-        <v>100</v>
-      </c>
-      <c r="G7" s="25">
-        <v>50</v>
-      </c>
-      <c r="H7" s="25">
-        <v>28</v>
-      </c>
-      <c r="I7" s="25">
-        <v>7</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26">
-        <v>0.79779778652111399</v>
-      </c>
-      <c r="N7" s="26">
-        <v>10.121165065568199</v>
-      </c>
-      <c r="O7" s="26">
-        <v>0.12880160080986</v>
-      </c>
-      <c r="P7" s="26">
-        <v>0.15221145828087801</v>
-      </c>
-      <c r="Q7" s="26">
-        <v>9.8355971601415598E-2</v>
-      </c>
-      <c r="R7" s="25"/>
-    </row>
-    <row r="8" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2">
-        <v>862</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E8" s="24">
-        <v>43</v>
-      </c>
-      <c r="F8" s="24">
-        <v>100</v>
-      </c>
-      <c r="G8" s="25">
-        <v>50</v>
-      </c>
-      <c r="H8" s="25">
-        <v>28</v>
-      </c>
-      <c r="I8" s="25">
-        <v>7</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26">
-        <v>0.78304190721217704</v>
-      </c>
-      <c r="N8" s="26">
-        <v>10.199148544691299</v>
-      </c>
-      <c r="O8" s="26">
-        <v>0.12715382721795501</v>
-      </c>
-      <c r="P8" s="26">
-        <v>0.149434735285779</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>9.6812827239189297E-2</v>
-      </c>
-      <c r="R8" s="25"/>
-    </row>
-    <row r="9" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2">
-        <v>862</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>30683</v>
-      </c>
-      <c r="E9" s="24">
-        <v>44</v>
-      </c>
-      <c r="F9" s="24">
-        <v>100</v>
-      </c>
-      <c r="G9" s="25">
-        <v>50</v>
-      </c>
-      <c r="H9" s="25">
-        <v>28</v>
-      </c>
-      <c r="I9" s="25">
-        <v>7</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26">
-        <v>0.81619549648116096</v>
-      </c>
-      <c r="N9" s="26">
-        <v>9.9900870315553494</v>
-      </c>
-      <c r="O9" s="26">
-        <v>0.131852177942516</v>
-      </c>
-      <c r="P9" s="26">
-        <v>0.15607441185311999</v>
-      </c>
-      <c r="Q9" s="26">
-        <v>9.83588221841422E-2</v>
-      </c>
-      <c r="R9" s="25"/>
-    </row>
-    <row r="10" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="20">
-        <v>862</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="20">
-        <v>74487</v>
-      </c>
-      <c r="E10" s="20">
-        <v>42</v>
-      </c>
-      <c r="F10" s="20">
-        <v>25</v>
-      </c>
-      <c r="G10" s="21">
-        <v>50</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="21">
-        <v>7</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="21">
-        <v>-0.63300000000000001</v>
-      </c>
-      <c r="M10" s="22">
-        <v>1.20804446</v>
-      </c>
-      <c r="N10" s="22">
-        <v>14.837159588600001</v>
-      </c>
-      <c r="O10" s="22">
-        <v>0.183018443274337</v>
-      </c>
-      <c r="P10" s="22">
-        <v>0.22088481711076799</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>0.133601708012316</v>
-      </c>
-      <c r="R10" s="21"/>
-    </row>
-    <row r="11" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="20">
-        <v>862</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="20">
-        <v>74487</v>
-      </c>
-      <c r="E11" s="20">
-        <v>43</v>
-      </c>
-      <c r="F11" s="20">
-        <v>25</v>
-      </c>
-      <c r="G11" s="21">
-        <v>50</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="21">
-        <v>7</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="21">
-        <v>-0.65590000000000004</v>
-      </c>
-      <c r="M11" s="22">
-        <v>1.1895251600000001</v>
-      </c>
-      <c r="N11" s="22">
-        <v>13.823424360000001</v>
-      </c>
-      <c r="O11" s="22">
-        <v>0.17885034</v>
-      </c>
-      <c r="P11" s="22">
-        <v>0.21843000000000001</v>
-      </c>
-      <c r="Q11" s="22">
-        <v>0.135223536782417</v>
-      </c>
-      <c r="R11" s="21"/>
-    </row>
-    <row r="12" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="20">
-        <v>862</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="20">
-        <v>74487</v>
-      </c>
-      <c r="E12" s="20">
-        <v>44</v>
-      </c>
-      <c r="F12" s="20">
-        <v>25</v>
-      </c>
-      <c r="G12" s="21">
-        <v>50</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="21">
-        <v>7</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="21">
-        <v>-0.58679999999999999</v>
-      </c>
-      <c r="M12" s="22">
-        <v>1.1313506769999999</v>
-      </c>
-      <c r="N12" s="22">
-        <v>13.36289625</v>
-      </c>
-      <c r="O12" s="22">
-        <v>0.17442181071475499</v>
-      </c>
-      <c r="P12" s="22">
-        <v>0.20688742569999999</v>
-      </c>
-      <c r="Q12" s="22">
-        <v>0.12457680942</v>
-      </c>
-      <c r="R12" s="21"/>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>196</v>
+      </c>
+      <c r="O11" s="73">
+        <f t="shared" si="0"/>
+        <v>60.320452403393027</v>
+      </c>
+      <c r="P11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O12" s="74"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O13" s="73"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O14" s="73"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O15" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81841C01-14F2-4752-BEFF-0E0B223C739F}">
-  <dimension ref="A1:R27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9163973-793C-4F7A-AC06-386F967FF302}">
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" style="1" customWidth="1"/>
-    <col min="13" max="17" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1858</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3">
+        <v>1.4045000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.110331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="C4">
+        <v>1858</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4">
+        <v>1.2707999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.104036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="C5">
+        <v>1858</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5">
+        <v>1.2478</v>
+      </c>
+      <c r="F5">
+        <v>0.104022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="C6">
+        <v>1858</v>
+      </c>
+      <c r="D6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6">
+        <v>1.2327999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.102075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="C7">
+        <v>1858</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7">
+        <v>1.2511000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.100608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>1858</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1.3329470000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.105241</v>
+      </c>
+      <c r="G10">
+        <v>13.789481</v>
+      </c>
+      <c r="H10">
+        <v>0.114387</v>
+      </c>
+      <c r="I10">
+        <v>6.0634E-2</v>
+      </c>
+      <c r="J10">
+        <v>42</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>196</v>
+      </c>
+      <c r="O10" s="74">
+        <f>(32*K10*L10)/C10</f>
+        <v>172.22820236813777</v>
+      </c>
+      <c r="P10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>1858</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>1.3507130000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.103271</v>
+      </c>
+      <c r="G11">
+        <v>14.028128000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.11190700000000001</v>
+      </c>
+      <c r="I11">
+        <v>5.8606999999999999E-2</v>
+      </c>
+      <c r="J11">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>196</v>
+      </c>
+      <c r="O11" s="74">
+        <f>(32*K11*L11)/C11</f>
+        <v>172.22820236813777</v>
+      </c>
+      <c r="P11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>1858</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>1.3520350000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.10660799999999999</v>
+      </c>
+      <c r="G12">
+        <v>13.873661999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.11605</v>
+      </c>
+      <c r="I12">
+        <v>6.1020999999999999E-2</v>
+      </c>
+      <c r="J12">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>196</v>
+      </c>
+      <c r="O12" s="74">
+        <f>(32*K12*L12)/C12</f>
+        <v>172.22820236813777</v>
+      </c>
+      <c r="P12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5377C852-8DC9-4859-9A6E-541EF9FC1F47}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="L1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>6</v>
+        <v>267</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>270</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3">
+        <v>865</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.1276999999999999</v>
+      </c>
+      <c r="F3">
+        <v>7.4537000000000006E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4">
+        <v>865</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.94610000000000005</v>
+      </c>
+      <c r="F4">
+        <v>7.3899999999999993E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5">
+        <v>865</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5">
+        <v>0.8921</v>
+      </c>
+      <c r="E5">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="F5">
+        <v>7.0877999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6">
+        <v>865</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="E6">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="F6">
+        <v>7.0098000000000008E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7">
+        <v>865</v>
+      </c>
+      <c r="C7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7">
+        <v>0.9234</v>
+      </c>
+      <c r="E7">
+        <v>1.0099</v>
+      </c>
+      <c r="F7">
+        <v>7.0898000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>865</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <f>((E14/$E$3)+(F14/$F$3))/2</f>
+        <v>1.4226674069060632</v>
+      </c>
+      <c r="E14">
+        <v>1.735943</v>
+      </c>
+      <c r="F14">
+        <v>9.7342999999999999E-2</v>
+      </c>
+      <c r="G14">
+        <v>23.011610999999998</v>
+      </c>
+      <c r="H14">
+        <v>9.6865999999999994E-2</v>
+      </c>
+      <c r="I14">
+        <v>4.4416999999999998E-2</v>
+      </c>
+      <c r="J14">
+        <v>42</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" s="73">
+        <f>(32*L14*K14)/B14</f>
+        <v>369.94219653179192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>865</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D16" si="0">((E15/$E$3)+(F15/$F$3))/2</f>
+        <v>0.89637173310614782</v>
+      </c>
+      <c r="E15">
+        <v>0.98449600000000004</v>
+      </c>
+      <c r="F15">
+        <v>6.8554000000000004E-2</v>
+      </c>
+      <c r="G15">
+        <v>10.593909</v>
+      </c>
+      <c r="H15">
+        <v>6.4895999999999995E-2</v>
+      </c>
+      <c r="I15">
+        <v>3.5741000000000002E-2</v>
+      </c>
+      <c r="J15">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>196</v>
+      </c>
+      <c r="O15" s="73">
+        <f t="shared" ref="O15:O16" si="1">(32*L15*K15)/B15</f>
+        <v>369.94219653179192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>865</v>
+      </c>
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2">
-        <v>100</v>
-      </c>
-      <c r="G3" s="3">
-        <v>50</v>
-      </c>
-      <c r="H3" s="3">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="13">
-        <v>1.0590886802985799</v>
-      </c>
-      <c r="N3" s="13">
-        <v>10.0969587297497</v>
-      </c>
-      <c r="O3" s="13">
-        <v>0.120414979100898</v>
-      </c>
-      <c r="P3" s="13">
-        <v>6.4194485050520694E-2</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>3.0946498315951601E-2</v>
-      </c>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43</v>
-      </c>
-      <c r="F4" s="2">
-        <v>100</v>
-      </c>
-      <c r="G4" s="3">
-        <v>50</v>
-      </c>
-      <c r="H4" s="3">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="13">
-        <v>0.86948210155400896</v>
-      </c>
-      <c r="N4" s="13">
-        <v>11.163399067550399</v>
-      </c>
-      <c r="O4" s="13">
-        <v>0.110295287418847</v>
-      </c>
-      <c r="P4" s="13">
-        <v>8.96291850634863E-2</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>7.3593731918057001E-2</v>
-      </c>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.92394404423743748</v>
+      </c>
+      <c r="E16">
+        <v>0.99434999999999996</v>
+      </c>
+      <c r="F16">
+        <v>7.2012999999999994E-2</v>
+      </c>
+      <c r="G16">
+        <v>10.525554</v>
+      </c>
+      <c r="H16">
+        <v>6.4833000000000002E-2</v>
+      </c>
+      <c r="I16">
+        <v>3.3411000000000003E-2</v>
+      </c>
+      <c r="J16">
         <v>44</v>
       </c>
-      <c r="F5" s="2">
-        <v>100</v>
-      </c>
-      <c r="G5" s="3">
-        <v>50</v>
-      </c>
-      <c r="H5" s="3">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3">
-        <v>7</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="13">
-        <v>0.86787689438003301</v>
-      </c>
-      <c r="N5" s="13">
-        <v>9.9042727025184707</v>
-      </c>
-      <c r="O5" s="13">
-        <v>0.109970935237075</v>
-      </c>
-      <c r="P5" s="13">
-        <v>8.7013987099651899E-2</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>5.9227821472959699E-2</v>
-      </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
-        <v>19863</v>
-      </c>
-      <c r="E6" s="2">
-        <v>42</v>
-      </c>
-      <c r="F6" s="2">
-        <v>100</v>
-      </c>
-      <c r="G6" s="3">
-        <v>50</v>
-      </c>
-      <c r="H6" s="3">
-        <v>21</v>
-      </c>
-      <c r="I6" s="3">
-        <v>7</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="13">
-        <v>0.83419075870286896</v>
-      </c>
-      <c r="N6" s="13">
-        <v>10.815703975</v>
-      </c>
-      <c r="O6" s="13">
-        <v>0.10752592026314001</v>
-      </c>
-      <c r="P6" s="13">
-        <v>7.1300177838820505E-2</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>5.2852437024343002E-2</v>
-      </c>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>19863</v>
-      </c>
-      <c r="E7" s="2">
-        <v>43</v>
-      </c>
-      <c r="F7" s="2">
-        <v>100</v>
-      </c>
-      <c r="G7" s="3">
-        <v>50</v>
-      </c>
-      <c r="H7" s="3">
-        <v>21</v>
-      </c>
-      <c r="I7" s="3">
-        <v>7</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="13">
-        <v>0.84726409264259295</v>
-      </c>
-      <c r="N7" s="13">
-        <v>10.7053474559947</v>
-      </c>
-      <c r="O7" s="13">
-        <v>0.108184258861334</v>
-      </c>
-      <c r="P7" s="13">
-        <v>6.9157370996333206E-2</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>5.1092277275688699E-2</v>
-      </c>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>19863</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>50</v>
-      </c>
-      <c r="H8" s="3">
-        <v>21</v>
-      </c>
-      <c r="I8" s="3">
-        <v>7</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="13">
-        <v>0.79669440831159299</v>
-      </c>
-      <c r="N8" s="13">
-        <v>9.2174688751987599</v>
-      </c>
-      <c r="O8" s="13">
-        <v>0.105572916965178</v>
-      </c>
-      <c r="P8" s="13">
-        <v>6.5199569276809505E-2</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>4.2390620979312101E-2</v>
-      </c>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>19863</v>
-      </c>
-      <c r="E9" s="2">
-        <v>42</v>
-      </c>
-      <c r="F9" s="2">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>50</v>
-      </c>
-      <c r="H9" s="3">
-        <v>28</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="12">
-        <v>0.80038244191712404</v>
-      </c>
-      <c r="N9" s="13">
-        <v>10.0155090829626</v>
-      </c>
-      <c r="O9" s="13">
-        <v>0.105287008045341</v>
-      </c>
-      <c r="P9" s="13">
-        <v>6.3141385710627995E-2</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>4.2979536414488401E-2</v>
-      </c>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>19863</v>
-      </c>
-      <c r="E10" s="2">
-        <v>43</v>
-      </c>
-      <c r="F10" s="2">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>50</v>
-      </c>
-      <c r="H10" s="3">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3">
-        <v>7</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="13">
-        <v>0.79325627525355602</v>
-      </c>
-      <c r="N10" s="13">
-        <v>9.7206576334251906</v>
-      </c>
-      <c r="O10" s="13">
-        <v>0.10496133224816399</v>
-      </c>
-      <c r="P10" s="13">
-        <v>5.9014914421637803E-2</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>3.7856747294974499E-2</v>
-      </c>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2">
-        <v>19863</v>
-      </c>
-      <c r="E11" s="2">
-        <v>44</v>
-      </c>
-      <c r="F11" s="2">
-        <v>100</v>
-      </c>
-      <c r="G11" s="3">
-        <v>50</v>
-      </c>
-      <c r="H11" s="3">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3">
-        <v>7</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="13">
-        <v>0.77547197875461105</v>
-      </c>
-      <c r="N11" s="13">
-        <v>9.1052597460046396</v>
-      </c>
-      <c r="O11" s="13">
-        <v>0.10529276768529</v>
-      </c>
-      <c r="P11" s="13">
-        <v>6.04159170370498E-2</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>3.6945452498413398E-2</v>
-      </c>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E12" s="4">
-        <v>42</v>
-      </c>
-      <c r="F12" s="4">
-        <v>25</v>
-      </c>
-      <c r="G12" s="5">
-        <v>50</v>
-      </c>
-      <c r="H12" s="5">
-        <v>14</v>
-      </c>
-      <c r="I12" s="5">
-        <v>7</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="14">
-        <v>1.2391331745657099</v>
-      </c>
-      <c r="N12" s="14">
-        <v>41.668678537912498</v>
-      </c>
-      <c r="O12" s="14">
-        <v>0.14474497013057999</v>
-      </c>
-      <c r="P12" s="14">
-        <v>9.0956822491833803E-2</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>0.1171239662947</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E13" s="4">
-        <v>43</v>
-      </c>
-      <c r="F13" s="4">
-        <v>25</v>
-      </c>
-      <c r="G13" s="5">
-        <v>50</v>
-      </c>
-      <c r="H13" s="5">
-        <v>14</v>
-      </c>
-      <c r="I13" s="5">
-        <v>7</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="14">
-        <v>1.2246919468774999</v>
-      </c>
-      <c r="N13" s="14">
-        <v>43.073853096103001</v>
-      </c>
-      <c r="O13" s="14">
-        <v>0.14196743652895</v>
-      </c>
-      <c r="P13" s="14">
-        <v>9.3606632272868806E-2</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>0.12581174207687601</v>
-      </c>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E14" s="4">
-        <v>44</v>
-      </c>
-      <c r="F14" s="4">
-        <v>25</v>
-      </c>
-      <c r="G14" s="5">
-        <v>50</v>
-      </c>
-      <c r="H14" s="5">
-        <v>14</v>
-      </c>
-      <c r="I14" s="5">
-        <v>7</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="14">
-        <v>1.16173745558769</v>
-      </c>
-      <c r="N14" s="14">
-        <v>41.034461174662397</v>
-      </c>
-      <c r="O14" s="14">
-        <v>0.137714178756523</v>
-      </c>
-      <c r="P14" s="14">
-        <v>8.0312013826844095E-2</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>0.10819235412599899</v>
-      </c>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E15" s="4">
-        <v>42</v>
-      </c>
-      <c r="F15" s="4">
-        <v>50</v>
-      </c>
-      <c r="G15" s="5">
-        <v>50</v>
-      </c>
-      <c r="H15" s="5">
-        <v>14</v>
-      </c>
-      <c r="I15" s="5">
-        <v>7</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="14">
-        <v>1.3085522501854301</v>
-      </c>
-      <c r="N15" s="14">
-        <v>47.718695448793497</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0.15102608315721699</v>
-      </c>
-      <c r="P15" s="14">
-        <v>0.117946725215059</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>0.18360709935220401</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E16" s="4">
-        <v>43</v>
-      </c>
-      <c r="F16" s="4">
-        <v>50</v>
-      </c>
-      <c r="G16" s="5">
-        <v>50</v>
-      </c>
-      <c r="H16" s="5">
-        <v>14</v>
-      </c>
-      <c r="I16" s="5">
-        <v>7</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="14">
-        <v>1.2551502602223901</v>
-      </c>
-      <c r="N16" s="14">
-        <v>45.571063660721798</v>
-      </c>
-      <c r="O16" s="14">
-        <v>0.14377983684127099</v>
-      </c>
-      <c r="P16" s="14">
-        <v>9.7574029332455098E-2</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>0.13344068611103899</v>
-      </c>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E17" s="4">
-        <v>44</v>
-      </c>
-      <c r="F17" s="4">
-        <v>50</v>
-      </c>
-      <c r="G17" s="5">
-        <v>50</v>
-      </c>
-      <c r="H17" s="5">
-        <v>14</v>
-      </c>
-      <c r="I17" s="5">
-        <v>7</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="14">
-        <v>1.1591628075831999</v>
-      </c>
-      <c r="N17" s="14">
-        <v>42.002414810494599</v>
-      </c>
-      <c r="O17" s="14">
-        <v>0.13609740201189199</v>
-      </c>
-      <c r="P17" s="14">
-        <v>8.7433503561880593E-2</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>0.12803950174179701</v>
-      </c>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E18" s="4">
-        <v>42</v>
-      </c>
-      <c r="F18" s="4">
-        <v>25</v>
-      </c>
-      <c r="G18" s="5">
-        <v>50</v>
-      </c>
-      <c r="H18" s="5">
-        <v>21</v>
-      </c>
-      <c r="I18" s="5">
-        <v>7</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="14">
-        <v>1.43294443802534</v>
-      </c>
-      <c r="N18" s="14">
-        <v>47.522759114160898</v>
-      </c>
-      <c r="O18" s="14">
-        <v>0.15617359108928799</v>
-      </c>
-      <c r="P18" s="14">
-        <v>8.8084355134814094E-2</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>8.99238508912166E-2</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E19" s="4">
-        <v>43</v>
-      </c>
-      <c r="F19" s="4">
-        <v>25</v>
-      </c>
-      <c r="G19" s="5">
-        <v>50</v>
-      </c>
-      <c r="H19" s="5">
-        <v>21</v>
-      </c>
-      <c r="I19" s="5">
-        <v>7</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="14">
-        <v>1.37068403441141</v>
-      </c>
-      <c r="N19" s="14">
-        <v>45.147097422076897</v>
-      </c>
-      <c r="O19" s="14">
-        <v>0.152123549623223</v>
-      </c>
-      <c r="P19" s="14">
-        <v>0.103107159205456</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>0.12852060856410399</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="4">
-        <v>47437</v>
-      </c>
-      <c r="E20" s="4">
-        <v>44</v>
-      </c>
-      <c r="F20" s="4">
-        <v>25</v>
-      </c>
-      <c r="G20" s="5">
-        <v>50</v>
-      </c>
-      <c r="H20" s="5">
-        <v>21</v>
-      </c>
-      <c r="I20" s="5">
-        <v>7</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="14">
-        <v>1.8370979795408799</v>
-      </c>
-      <c r="N20" s="14">
-        <v>65.551152728490706</v>
-      </c>
-      <c r="O20" s="14">
-        <v>0.18916757498450501</v>
-      </c>
-      <c r="P20" s="14">
-        <v>0.159005665913556</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>0.21209374706150499</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6">
-        <v>47437</v>
-      </c>
-      <c r="E21" s="6">
-        <v>42</v>
-      </c>
-      <c r="F21" s="6">
-        <v>25</v>
-      </c>
-      <c r="G21" s="7">
-        <v>50</v>
-      </c>
-      <c r="H21" s="7">
-        <v>28</v>
-      </c>
-      <c r="I21" s="7">
-        <v>7</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="15">
-        <v>1.40424513545234</v>
-      </c>
-      <c r="N21" s="15">
-        <v>45.0325841433311</v>
-      </c>
-      <c r="O21" s="15">
-        <v>0.15594551324453501</v>
-      </c>
-      <c r="P21" s="15">
-        <v>9.2863293125452495E-2</v>
-      </c>
-      <c r="Q21" s="15">
-        <v>0.10541861298763899</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="6">
-        <v>47437</v>
-      </c>
-      <c r="E22" s="6">
-        <v>42</v>
-      </c>
-      <c r="F22" s="6">
-        <v>25</v>
-      </c>
-      <c r="G22" s="7">
-        <v>50</v>
-      </c>
-      <c r="H22" s="7">
-        <v>28</v>
-      </c>
-      <c r="I22" s="7">
-        <v>7</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="15">
-        <v>1.3968240245629</v>
-      </c>
-      <c r="N22" s="15">
-        <v>44.343473044672201</v>
-      </c>
-      <c r="O22" s="15">
-        <v>0.15266464800548901</v>
-      </c>
-      <c r="P22" s="15">
-        <v>0.10873459120011</v>
-      </c>
-      <c r="Q22" s="15">
-        <v>0.14106791904426899</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="6">
-        <v>47437</v>
-      </c>
-      <c r="E23" s="6">
-        <v>42</v>
-      </c>
-      <c r="F23" s="6">
-        <v>25</v>
-      </c>
-      <c r="G23" s="7">
-        <v>50</v>
-      </c>
-      <c r="H23" s="7">
-        <v>28</v>
-      </c>
-      <c r="I23" s="7">
-        <v>7</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="15">
-        <v>1.53068941620192</v>
-      </c>
-      <c r="N23" s="15">
-        <v>45.653923319839699</v>
-      </c>
-      <c r="O23" s="15">
-        <v>0.17440079334261699</v>
-      </c>
-      <c r="P23" s="15">
-        <v>0.118815261375925</v>
-      </c>
-      <c r="Q23" s="15">
-        <v>0.148819322628121</v>
-      </c>
-      <c r="R23" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="6">
-        <v>47437</v>
-      </c>
-      <c r="E24" s="6">
-        <v>42</v>
-      </c>
-      <c r="F24" s="6">
-        <v>25</v>
-      </c>
-      <c r="G24" s="7">
-        <v>50</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="15">
-        <v>0.96366146465587199</v>
-      </c>
-      <c r="N24" s="15">
-        <v>11.7982207671586</v>
-      </c>
-      <c r="O24" s="15">
-        <v>0.13122598570348901</v>
-      </c>
-      <c r="P24" s="15">
-        <v>7.3568422773155506E-2</v>
-      </c>
-      <c r="Q24" s="15">
-        <v>4.9285672437264498E-2</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="6">
-        <v>47437</v>
-      </c>
-      <c r="E25" s="6">
-        <v>43</v>
-      </c>
-      <c r="F25" s="6">
-        <v>25</v>
-      </c>
-      <c r="G25" s="7">
-        <v>50</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" s="7">
-        <v>7</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" s="7">
-        <v>-1.2010000000000001</v>
-      </c>
-      <c r="M25" s="15">
-        <v>0.93256063121999999</v>
-      </c>
-      <c r="N25" s="15">
-        <v>12.4512</v>
-      </c>
-      <c r="O25" s="15">
-        <v>0.1295</v>
-      </c>
-      <c r="P25" s="15">
-        <v>7.0601778500000004E-2</v>
-      </c>
-      <c r="Q25" s="15">
-        <v>4.9718166899999999E-2</v>
-      </c>
-      <c r="R25" s="7"/>
-    </row>
-    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="29">
-        <v>47437</v>
-      </c>
-      <c r="E26" s="29">
-        <v>44</v>
-      </c>
-      <c r="F26" s="29">
-        <v>25</v>
-      </c>
-      <c r="G26" s="30">
-        <v>50</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="30">
-        <v>7</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="30">
-        <v>-1.19</v>
-      </c>
-      <c r="M26" s="31">
-        <v>0.95004999999999995</v>
-      </c>
-      <c r="N26" s="31">
-        <v>12.21768</v>
-      </c>
-      <c r="O26" s="31">
-        <v>0.12685070000000001</v>
-      </c>
-      <c r="P26" s="31">
-        <v>7.3889999999999997E-2</v>
-      </c>
-      <c r="Q26" s="31">
-        <v>5.5218999999999997E-2</v>
-      </c>
-      <c r="R26" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M27" s="11"/>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" t="s">
+        <v>196</v>
+      </c>
+      <c r="O16" s="73">
+        <f t="shared" si="1"/>
+        <v>369.94219653179192</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -12308,6 +12381,1954 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19DC79E-CFB2-4958-9C0A-1F5454A6464A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AA6EBD-8719-4324-B09A-4C04B6729294}">
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2">
+        <v>862</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E1" s="24">
+        <v>42</v>
+      </c>
+      <c r="F1" s="24">
+        <v>100</v>
+      </c>
+      <c r="G1" s="25">
+        <v>50</v>
+      </c>
+      <c r="H1" s="25">
+        <v>14</v>
+      </c>
+      <c r="I1" s="25">
+        <v>7</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26">
+        <v>0.88936537788412395</v>
+      </c>
+      <c r="N1" s="26">
+        <v>12.056193496287101</v>
+      </c>
+      <c r="O1" s="26">
+        <v>0.14220320148680099</v>
+      </c>
+      <c r="P1" s="26">
+        <v>0.17131659113794201</v>
+      </c>
+      <c r="Q1" s="26">
+        <v>0.112617250917697</v>
+      </c>
+      <c r="R1" s="25"/>
+    </row>
+    <row r="2" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2">
+        <v>862</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E2" s="24">
+        <v>43</v>
+      </c>
+      <c r="F2" s="24">
+        <v>100</v>
+      </c>
+      <c r="G2" s="25">
+        <v>50</v>
+      </c>
+      <c r="H2" s="25">
+        <v>14</v>
+      </c>
+      <c r="I2" s="25">
+        <v>7</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26">
+        <v>0.84946299059517005</v>
+      </c>
+      <c r="N2" s="26">
+        <v>10.565301611994199</v>
+      </c>
+      <c r="O2" s="26">
+        <v>0.13616913458261001</v>
+      </c>
+      <c r="P2" s="26">
+        <v>0.16382832301348299</v>
+      </c>
+      <c r="Q2" s="26">
+        <v>0.10248962363684699</v>
+      </c>
+      <c r="R2" s="25"/>
+    </row>
+    <row r="3" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2">
+        <v>862</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E3" s="24">
+        <v>44</v>
+      </c>
+      <c r="F3" s="24">
+        <v>100</v>
+      </c>
+      <c r="G3" s="25">
+        <v>50</v>
+      </c>
+      <c r="H3" s="25">
+        <v>14</v>
+      </c>
+      <c r="I3" s="25">
+        <v>7</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26">
+        <v>0.85708568487041603</v>
+      </c>
+      <c r="N3" s="26">
+        <v>11.1921050644247</v>
+      </c>
+      <c r="O3" s="26">
+        <v>0.13754877448949901</v>
+      </c>
+      <c r="P3" s="26">
+        <v>0.16517953001998201</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>0.106157875853182</v>
+      </c>
+      <c r="R3" s="25"/>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2">
+        <v>862</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E4" s="2">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="12">
+        <v>0.85984988290767905</v>
+      </c>
+      <c r="N4" s="12">
+        <v>11.467363191577901</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0.13708799650329101</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0.164240320870712</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>0.106211508502489</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>862</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="12">
+        <v>0.83043391632280406</v>
+      </c>
+      <c r="N5" s="13">
+        <v>11.234771610285099</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.13292169433456799</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0.15975893594083501</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0.104422274001578</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2">
+        <v>862</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <v>50</v>
+      </c>
+      <c r="H6" s="3">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3">
+        <v>7</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="12">
+        <v>0.84857504449934995</v>
+      </c>
+      <c r="N6" s="13">
+        <v>11.0099023024096</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.13595650523487801</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0.16285584334123099</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0.10522540363196101</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2">
+        <v>862</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E7" s="24">
+        <v>42</v>
+      </c>
+      <c r="F7" s="24">
+        <v>100</v>
+      </c>
+      <c r="G7" s="25">
+        <v>50</v>
+      </c>
+      <c r="H7" s="25">
+        <v>28</v>
+      </c>
+      <c r="I7" s="25">
+        <v>7</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26">
+        <v>0.79779778652111399</v>
+      </c>
+      <c r="N7" s="26">
+        <v>10.121165065568199</v>
+      </c>
+      <c r="O7" s="26">
+        <v>0.12880160080986</v>
+      </c>
+      <c r="P7" s="26">
+        <v>0.15221145828087801</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>9.8355971601415598E-2</v>
+      </c>
+      <c r="R7" s="25"/>
+    </row>
+    <row r="8" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2">
+        <v>862</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E8" s="24">
+        <v>43</v>
+      </c>
+      <c r="F8" s="24">
+        <v>100</v>
+      </c>
+      <c r="G8" s="25">
+        <v>50</v>
+      </c>
+      <c r="H8" s="25">
+        <v>28</v>
+      </c>
+      <c r="I8" s="25">
+        <v>7</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26">
+        <v>0.78304190721217704</v>
+      </c>
+      <c r="N8" s="26">
+        <v>10.199148544691299</v>
+      </c>
+      <c r="O8" s="26">
+        <v>0.12715382721795501</v>
+      </c>
+      <c r="P8" s="26">
+        <v>0.149434735285779</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>9.6812827239189297E-2</v>
+      </c>
+      <c r="R8" s="25"/>
+    </row>
+    <row r="9" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2">
+        <v>862</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>30683</v>
+      </c>
+      <c r="E9" s="24">
+        <v>44</v>
+      </c>
+      <c r="F9" s="24">
+        <v>100</v>
+      </c>
+      <c r="G9" s="25">
+        <v>50</v>
+      </c>
+      <c r="H9" s="25">
+        <v>28</v>
+      </c>
+      <c r="I9" s="25">
+        <v>7</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26">
+        <v>0.81619549648116096</v>
+      </c>
+      <c r="N9" s="26">
+        <v>9.9900870315553494</v>
+      </c>
+      <c r="O9" s="26">
+        <v>0.131852177942516</v>
+      </c>
+      <c r="P9" s="26">
+        <v>0.15607441185311999</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>9.83588221841422E-2</v>
+      </c>
+      <c r="R9" s="25"/>
+    </row>
+    <row r="10" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="20">
+        <v>862</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="20">
+        <v>74487</v>
+      </c>
+      <c r="E10" s="20">
+        <v>42</v>
+      </c>
+      <c r="F10" s="20">
+        <v>25</v>
+      </c>
+      <c r="G10" s="21">
+        <v>50</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="21">
+        <v>7</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="21">
+        <v>-0.63300000000000001</v>
+      </c>
+      <c r="M10" s="22">
+        <v>1.20804446</v>
+      </c>
+      <c r="N10" s="22">
+        <v>14.837159588600001</v>
+      </c>
+      <c r="O10" s="22">
+        <v>0.183018443274337</v>
+      </c>
+      <c r="P10" s="22">
+        <v>0.22088481711076799</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>0.133601708012316</v>
+      </c>
+      <c r="R10" s="21"/>
+    </row>
+    <row r="11" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="20">
+        <v>862</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="20">
+        <v>74487</v>
+      </c>
+      <c r="E11" s="20">
+        <v>43</v>
+      </c>
+      <c r="F11" s="20">
+        <v>25</v>
+      </c>
+      <c r="G11" s="21">
+        <v>50</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="21">
+        <v>7</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="21">
+        <v>-0.65590000000000004</v>
+      </c>
+      <c r="M11" s="22">
+        <v>1.1895251600000001</v>
+      </c>
+      <c r="N11" s="22">
+        <v>13.823424360000001</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0.17885034</v>
+      </c>
+      <c r="P11" s="22">
+        <v>0.21843000000000001</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0.135223536782417</v>
+      </c>
+      <c r="R11" s="21"/>
+    </row>
+    <row r="12" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="20">
+        <v>862</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="20">
+        <v>74487</v>
+      </c>
+      <c r="E12" s="20">
+        <v>44</v>
+      </c>
+      <c r="F12" s="20">
+        <v>25</v>
+      </c>
+      <c r="G12" s="21">
+        <v>50</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="21">
+        <v>7</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="21">
+        <v>-0.58679999999999999</v>
+      </c>
+      <c r="M12" s="22">
+        <v>1.1313506769999999</v>
+      </c>
+      <c r="N12" s="22">
+        <v>13.36289625</v>
+      </c>
+      <c r="O12" s="22">
+        <v>0.17442181071475499</v>
+      </c>
+      <c r="P12" s="22">
+        <v>0.20688742569999999</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>0.12457680942</v>
+      </c>
+      <c r="R12" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81841C01-14F2-4752-BEFF-0E0B223C739F}">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" style="1" customWidth="1"/>
+    <col min="13" max="17" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.7265625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3">
+        <v>50</v>
+      </c>
+      <c r="H3" s="3">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="13">
+        <v>1.0590886802985799</v>
+      </c>
+      <c r="N3" s="13">
+        <v>10.0969587297497</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.120414979100898</v>
+      </c>
+      <c r="P3" s="13">
+        <v>6.4194485050520694E-2</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>3.0946498315951601E-2</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="13">
+        <v>0.86948210155400896</v>
+      </c>
+      <c r="N4" s="13">
+        <v>11.163399067550399</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.110295287418847</v>
+      </c>
+      <c r="P4" s="13">
+        <v>8.96291850634863E-2</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>7.3593731918057001E-2</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="13">
+        <v>0.86787689438003301</v>
+      </c>
+      <c r="N5" s="13">
+        <v>9.9042727025184707</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.109970935237075</v>
+      </c>
+      <c r="P5" s="13">
+        <v>8.7013987099651899E-2</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>5.9227821472959699E-2</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>19863</v>
+      </c>
+      <c r="E6" s="2">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <v>50</v>
+      </c>
+      <c r="H6" s="3">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3">
+        <v>7</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="13">
+        <v>0.83419075870286896</v>
+      </c>
+      <c r="N6" s="13">
+        <v>10.815703975</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.10752592026314001</v>
+      </c>
+      <c r="P6" s="13">
+        <v>7.1300177838820505E-2</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>5.2852437024343002E-2</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>19863</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>50</v>
+      </c>
+      <c r="H7" s="3">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="13">
+        <v>0.84726409264259295</v>
+      </c>
+      <c r="N7" s="13">
+        <v>10.7053474559947</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0.108184258861334</v>
+      </c>
+      <c r="P7" s="13">
+        <v>6.9157370996333206E-2</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>5.1092277275688699E-2</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>19863</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>50</v>
+      </c>
+      <c r="H8" s="3">
+        <v>21</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="13">
+        <v>0.79669440831159299</v>
+      </c>
+      <c r="N8" s="13">
+        <v>9.2174688751987599</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0.105572916965178</v>
+      </c>
+      <c r="P8" s="13">
+        <v>6.5199569276809505E-2</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>4.2390620979312101E-2</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>19863</v>
+      </c>
+      <c r="E9" s="2">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="12">
+        <v>0.80038244191712404</v>
+      </c>
+      <c r="N9" s="13">
+        <v>10.0155090829626</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0.105287008045341</v>
+      </c>
+      <c r="P9" s="13">
+        <v>6.3141385710627995E-2</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>4.2979536414488401E-2</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>19863</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="13">
+        <v>0.79325627525355602</v>
+      </c>
+      <c r="N10" s="13">
+        <v>9.7206576334251906</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.10496133224816399</v>
+      </c>
+      <c r="P10" s="13">
+        <v>5.9014914421637803E-2</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>3.7856747294974499E-2</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>19863</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3">
+        <v>50</v>
+      </c>
+      <c r="H11" s="3">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="13">
+        <v>0.77547197875461105</v>
+      </c>
+      <c r="N11" s="13">
+        <v>9.1052597460046396</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0.10529276768529</v>
+      </c>
+      <c r="P11" s="13">
+        <v>6.04159170370498E-2</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>3.6945452498413398E-2</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E12" s="4">
+        <v>42</v>
+      </c>
+      <c r="F12" s="4">
+        <v>25</v>
+      </c>
+      <c r="G12" s="5">
+        <v>50</v>
+      </c>
+      <c r="H12" s="5">
+        <v>14</v>
+      </c>
+      <c r="I12" s="5">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="14">
+        <v>1.2391331745657099</v>
+      </c>
+      <c r="N12" s="14">
+        <v>41.668678537912498</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0.14474497013057999</v>
+      </c>
+      <c r="P12" s="14">
+        <v>9.0956822491833803E-2</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0.1171239662947</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43</v>
+      </c>
+      <c r="F13" s="4">
+        <v>25</v>
+      </c>
+      <c r="G13" s="5">
+        <v>50</v>
+      </c>
+      <c r="H13" s="5">
+        <v>14</v>
+      </c>
+      <c r="I13" s="5">
+        <v>7</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="14">
+        <v>1.2246919468774999</v>
+      </c>
+      <c r="N13" s="14">
+        <v>43.073853096103001</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0.14196743652895</v>
+      </c>
+      <c r="P13" s="14">
+        <v>9.3606632272868806E-2</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0.12581174207687601</v>
+      </c>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E14" s="4">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4">
+        <v>25</v>
+      </c>
+      <c r="G14" s="5">
+        <v>50</v>
+      </c>
+      <c r="H14" s="5">
+        <v>14</v>
+      </c>
+      <c r="I14" s="5">
+        <v>7</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="14">
+        <v>1.16173745558769</v>
+      </c>
+      <c r="N14" s="14">
+        <v>41.034461174662397</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0.137714178756523</v>
+      </c>
+      <c r="P14" s="14">
+        <v>8.0312013826844095E-2</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0.10819235412599899</v>
+      </c>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4">
+        <v>50</v>
+      </c>
+      <c r="G15" s="5">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5">
+        <v>14</v>
+      </c>
+      <c r="I15" s="5">
+        <v>7</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="14">
+        <v>1.3085522501854301</v>
+      </c>
+      <c r="N15" s="14">
+        <v>47.718695448793497</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0.15102608315721699</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0.117946725215059</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0.18360709935220401</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43</v>
+      </c>
+      <c r="F16" s="4">
+        <v>50</v>
+      </c>
+      <c r="G16" s="5">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5">
+        <v>7</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="14">
+        <v>1.2551502602223901</v>
+      </c>
+      <c r="N16" s="14">
+        <v>45.571063660721798</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0.14377983684127099</v>
+      </c>
+      <c r="P16" s="14">
+        <v>9.7574029332455098E-2</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0.13344068611103899</v>
+      </c>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E17" s="4">
+        <v>44</v>
+      </c>
+      <c r="F17" s="4">
+        <v>50</v>
+      </c>
+      <c r="G17" s="5">
+        <v>50</v>
+      </c>
+      <c r="H17" s="5">
+        <v>14</v>
+      </c>
+      <c r="I17" s="5">
+        <v>7</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="14">
+        <v>1.1591628075831999</v>
+      </c>
+      <c r="N17" s="14">
+        <v>42.002414810494599</v>
+      </c>
+      <c r="O17" s="14">
+        <v>0.13609740201189199</v>
+      </c>
+      <c r="P17" s="14">
+        <v>8.7433503561880593E-2</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>0.12803950174179701</v>
+      </c>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E18" s="4">
+        <v>42</v>
+      </c>
+      <c r="F18" s="4">
+        <v>25</v>
+      </c>
+      <c r="G18" s="5">
+        <v>50</v>
+      </c>
+      <c r="H18" s="5">
+        <v>21</v>
+      </c>
+      <c r="I18" s="5">
+        <v>7</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="14">
+        <v>1.43294443802534</v>
+      </c>
+      <c r="N18" s="14">
+        <v>47.522759114160898</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0.15617359108928799</v>
+      </c>
+      <c r="P18" s="14">
+        <v>8.8084355134814094E-2</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>8.99238508912166E-2</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43</v>
+      </c>
+      <c r="F19" s="4">
+        <v>25</v>
+      </c>
+      <c r="G19" s="5">
+        <v>50</v>
+      </c>
+      <c r="H19" s="5">
+        <v>21</v>
+      </c>
+      <c r="I19" s="5">
+        <v>7</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="14">
+        <v>1.37068403441141</v>
+      </c>
+      <c r="N19" s="14">
+        <v>45.147097422076897</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0.152123549623223</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0.103107159205456</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0.12852060856410399</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>47437</v>
+      </c>
+      <c r="E20" s="4">
+        <v>44</v>
+      </c>
+      <c r="F20" s="4">
+        <v>25</v>
+      </c>
+      <c r="G20" s="5">
+        <v>50</v>
+      </c>
+      <c r="H20" s="5">
+        <v>21</v>
+      </c>
+      <c r="I20" s="5">
+        <v>7</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="14">
+        <v>1.8370979795408799</v>
+      </c>
+      <c r="N20" s="14">
+        <v>65.551152728490706</v>
+      </c>
+      <c r="O20" s="14">
+        <v>0.18916757498450501</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0.159005665913556</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>0.21209374706150499</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6">
+        <v>47437</v>
+      </c>
+      <c r="E21" s="6">
+        <v>42</v>
+      </c>
+      <c r="F21" s="6">
+        <v>25</v>
+      </c>
+      <c r="G21" s="7">
+        <v>50</v>
+      </c>
+      <c r="H21" s="7">
+        <v>28</v>
+      </c>
+      <c r="I21" s="7">
+        <v>7</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="15">
+        <v>1.40424513545234</v>
+      </c>
+      <c r="N21" s="15">
+        <v>45.0325841433311</v>
+      </c>
+      <c r="O21" s="15">
+        <v>0.15594551324453501</v>
+      </c>
+      <c r="P21" s="15">
+        <v>9.2863293125452495E-2</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>0.10541861298763899</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6">
+        <v>47437</v>
+      </c>
+      <c r="E22" s="6">
+        <v>42</v>
+      </c>
+      <c r="F22" s="6">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7">
+        <v>50</v>
+      </c>
+      <c r="H22" s="7">
+        <v>28</v>
+      </c>
+      <c r="I22" s="7">
+        <v>7</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="15">
+        <v>1.3968240245629</v>
+      </c>
+      <c r="N22" s="15">
+        <v>44.343473044672201</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0.15266464800548901</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0.10873459120011</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0.14106791904426899</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6">
+        <v>47437</v>
+      </c>
+      <c r="E23" s="6">
+        <v>42</v>
+      </c>
+      <c r="F23" s="6">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
+        <v>28</v>
+      </c>
+      <c r="I23" s="7">
+        <v>7</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="15">
+        <v>1.53068941620192</v>
+      </c>
+      <c r="N23" s="15">
+        <v>45.653923319839699</v>
+      </c>
+      <c r="O23" s="15">
+        <v>0.17440079334261699</v>
+      </c>
+      <c r="P23" s="15">
+        <v>0.118815261375925</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>0.148819322628121</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6">
+        <v>47437</v>
+      </c>
+      <c r="E24" s="6">
+        <v>42</v>
+      </c>
+      <c r="F24" s="6">
+        <v>25</v>
+      </c>
+      <c r="G24" s="7">
+        <v>50</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="7">
+        <v>7</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="15">
+        <v>0.96366146465587199</v>
+      </c>
+      <c r="N24" s="15">
+        <v>11.7982207671586</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0.13122598570348901</v>
+      </c>
+      <c r="P24" s="15">
+        <v>7.3568422773155506E-2</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>4.9285672437264498E-2</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6">
+        <v>47437</v>
+      </c>
+      <c r="E25" s="6">
+        <v>43</v>
+      </c>
+      <c r="F25" s="6">
+        <v>25</v>
+      </c>
+      <c r="G25" s="7">
+        <v>50</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="7">
+        <v>7</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="7">
+        <v>-1.2010000000000001</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0.93256063121999999</v>
+      </c>
+      <c r="N25" s="15">
+        <v>12.4512</v>
+      </c>
+      <c r="O25" s="15">
+        <v>0.1295</v>
+      </c>
+      <c r="P25" s="15">
+        <v>7.0601778500000004E-2</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>4.9718166899999999E-2</v>
+      </c>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="29">
+        <v>47437</v>
+      </c>
+      <c r="E26" s="29">
+        <v>44</v>
+      </c>
+      <c r="F26" s="29">
+        <v>25</v>
+      </c>
+      <c r="G26" s="30">
+        <v>50</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="30">
+        <v>7</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="30">
+        <v>-1.19</v>
+      </c>
+      <c r="M26" s="31">
+        <v>0.95004999999999995</v>
+      </c>
+      <c r="N26" s="31">
+        <v>12.21768</v>
+      </c>
+      <c r="O26" s="31">
+        <v>0.12685070000000001</v>
+      </c>
+      <c r="P26" s="31">
+        <v>7.3889999999999997E-2</v>
+      </c>
+      <c r="Q26" s="31">
+        <v>5.5218999999999997E-2</v>
+      </c>
+      <c r="R26" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M27" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P122"/>
@@ -13621,7 +15642,7 @@
       </c>
       <c r="P38" s="21"/>
     </row>
-    <row r="39" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
         <v>22</v>
       </c>
@@ -20655,8 +22676,8 @@
   <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23316,8 +25337,8 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results/results_v4.xlsx
+++ b/results/results_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDBECF9-0BA0-4684-9197-803FAB1044F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407333C5-B0D1-4C36-8D0A-9284B2EC6267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10200" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10200" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4_hourly" sheetId="4" r:id="rId1"/>
@@ -33,8 +33,14 @@
     <sheet name="m4_quarterly_demographic" sheetId="21" r:id="rId18"/>
     <sheet name="m4_quarterly_other" sheetId="22" r:id="rId19"/>
     <sheet name="m4_m" sheetId="23" r:id="rId20"/>
-    <sheet name="traffic" sheetId="7" r:id="rId21"/>
-    <sheet name="electricity" sheetId="2" r:id="rId22"/>
+    <sheet name="m4_monthly_micro" sheetId="24" r:id="rId21"/>
+    <sheet name="m4_monthly_industry" sheetId="25" r:id="rId22"/>
+    <sheet name="m4_monthly_macro" sheetId="26" r:id="rId23"/>
+    <sheet name="m4_monthly_finance" sheetId="27" r:id="rId24"/>
+    <sheet name="m4_monthly_demographic" sheetId="28" r:id="rId25"/>
+    <sheet name="m4_monthly_other" sheetId="29" r:id="rId26"/>
+    <sheet name="traffic" sheetId="7" r:id="rId27"/>
+    <sheet name="electricity" sheetId="2" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="299">
   <si>
     <t>Algorithm</t>
   </si>
@@ -905,6 +911,51 @@
   <si>
     <t>53min/3</t>
   </si>
+  <si>
+    <t>25min/3</t>
+  </si>
+  <si>
+    <t>m4_monthly_micro</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>Holt</t>
+  </si>
+  <si>
+    <t>Damped</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>sNaive</t>
+  </si>
+  <si>
+    <t>m4_monthly_atm</t>
+  </si>
+  <si>
+    <t>m4_monthly_industry</t>
+  </si>
+  <si>
+    <t>m4_monthly_demographic</t>
+  </si>
+  <si>
+    <t>m4_monthly_finance</t>
+  </si>
+  <si>
+    <t>m4_monthly_macro</t>
+  </si>
+  <si>
+    <t>m4_monthly_dates</t>
+  </si>
+  <si>
+    <t>m4_monthly_other</t>
+  </si>
+  <si>
+    <t>2h52min/7</t>
+  </si>
 </sst>
 </file>
 
@@ -4783,11 +4834,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB6778F-350E-4846-8961-77EFBBA93C3E}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4795,21 +4846,22 @@
     <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1796875" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.81640625" customWidth="1"/>
-    <col min="11" max="11" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" customWidth="1"/>
+    <col min="10" max="10" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -4820,206 +4872,424 @@
         <v>53</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K2" s="67"/>
+    <row r="2" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
-    </row>
-    <row r="3" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="67"/>
+    </row>
+    <row r="3" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C3" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="61">
+        <f>((E3/$E$10)+(F3/$F$10))/2</f>
+        <v>0.84720670083932048</v>
+      </c>
+      <c r="E3" s="36">
         <v>1.1180000000000001</v>
       </c>
-      <c r="E3" s="38">
+      <c r="F3" s="38">
         <v>9.6790000000000001E-2</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="K3" s="67"/>
+      <c r="G3" s="38"/>
       <c r="L3" s="67"/>
       <c r="M3" s="67"/>
-    </row>
-    <row r="4" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="67"/>
+    </row>
+    <row r="4" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C4" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="61">
+        <f t="shared" ref="D4:D11" si="0">((E4/$E$10)+(F4/$F$10))/2</f>
+        <v>0.84710569041716444</v>
+      </c>
+      <c r="E4" s="36">
         <v>1.111</v>
       </c>
-      <c r="E4" s="38">
+      <c r="F4" s="38">
         <v>9.733E-2</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="K4" s="67"/>
+      <c r="G4" s="38"/>
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
-    </row>
-    <row r="5" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N4" s="67"/>
+    </row>
+    <row r="5" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C5" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="61">
+        <f t="shared" si="0"/>
+        <v>0.89799527099009824</v>
+      </c>
+      <c r="E5" s="36">
         <v>1.198</v>
       </c>
-      <c r="E5" s="38">
+      <c r="F5" s="38">
         <v>0.10155</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="K5" s="67"/>
+      <c r="G5" s="38"/>
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
-    </row>
-    <row r="6" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N5" s="67"/>
+    </row>
+    <row r="6" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C6" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="61">
+        <f t="shared" si="0"/>
+        <v>0.89849204355807855</v>
+      </c>
+      <c r="E6" s="36">
         <v>1.165</v>
       </c>
-      <c r="E6" s="38">
+      <c r="F6" s="38">
         <v>0.10431</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="K6" s="67"/>
+      <c r="G6" s="38"/>
       <c r="L6" s="67"/>
       <c r="M6" s="67"/>
-    </row>
-    <row r="7" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N6" s="67"/>
+    </row>
+    <row r="7" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C7" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="61">
+        <f t="shared" si="0"/>
+        <v>0.89067655257324219</v>
+      </c>
+      <c r="E7" s="36">
         <v>1.161</v>
       </c>
-      <c r="E7" s="38">
+      <c r="F7" s="38">
         <v>0.10291</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="K7" s="67"/>
+      <c r="G7" s="38"/>
       <c r="L7" s="67"/>
       <c r="M7" s="67"/>
-    </row>
-    <row r="8" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N7" s="67"/>
+    </row>
+    <row r="8" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C8" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="61">
+        <f t="shared" si="0"/>
+        <v>0.88978593871336709</v>
+      </c>
+      <c r="E8" s="36">
         <v>1.173</v>
       </c>
-      <c r="E8" s="38">
+      <c r="F8" s="38">
         <v>0.10174999999999999</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="K8" s="67"/>
+      <c r="G8" s="38"/>
       <c r="L8" s="67"/>
       <c r="M8" s="67"/>
-    </row>
-    <row r="9" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="67"/>
+    </row>
+    <row r="9" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C9" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="61">
+        <f t="shared" si="0"/>
+        <v>0.91747816121554815</v>
+      </c>
+      <c r="E9" s="36">
         <v>1.232</v>
       </c>
-      <c r="E9" s="38">
+      <c r="F9" s="38">
         <v>0.10310999999999999</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="K9" s="67"/>
+      <c r="G9" s="38"/>
       <c r="L9" s="67"/>
       <c r="M9" s="67"/>
-    </row>
-    <row r="10" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N9" s="67"/>
+    </row>
+    <row r="10" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C10" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="36">
         <v>1.371</v>
       </c>
-      <c r="E10" s="38">
+      <c r="F10" s="38">
         <v>0.11012</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="K10" s="67"/>
+      <c r="G10" s="38"/>
       <c r="L10" s="67"/>
       <c r="M10" s="67"/>
-    </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="67"/>
+    </row>
+    <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C11" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="D11" s="61"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K12" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K13" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14">
+        <v>24000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="61">
+        <f>((E14/$E$10)+(F14/$F$10))/2</f>
+        <v>0.97384879170339467</v>
+      </c>
+      <c r="E14" s="61">
+        <v>1.313723</v>
+      </c>
+      <c r="F14" s="61">
+        <v>0.108961</v>
+      </c>
+      <c r="G14" s="61">
+        <v>12.328702</v>
+      </c>
+      <c r="H14" s="61">
+        <v>0.10305499999999999</v>
+      </c>
+      <c r="I14" s="61">
+        <v>6.1280000000000001E-2</v>
+      </c>
+      <c r="J14">
+        <v>42</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14" s="1">
+        <v>50</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" s="73">
+        <f>(32*K14*L14)/B14</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="P14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15">
+        <v>24000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="61">
+        <f t="shared" ref="D15:D23" si="1">((E15/$E$10)+(F15/$F$10))/2</f>
+        <v>0.95587658142579301</v>
+      </c>
+      <c r="E15" s="61">
+        <v>1.287426</v>
+      </c>
+      <c r="F15" s="61">
+        <v>0.107115</v>
+      </c>
+      <c r="G15" s="61">
+        <v>12.610239999999999</v>
+      </c>
+      <c r="H15" s="61">
+        <v>0.101107</v>
+      </c>
+      <c r="I15" s="61">
+        <v>5.7707000000000001E-2</v>
+      </c>
+      <c r="J15">
+        <v>43</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15" s="1">
+        <v>50</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O15" s="73">
+        <f>(32*K15*L15)/B15</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16">
+        <v>24000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="61">
+        <f t="shared" si="1"/>
+        <v>1.013915995096391</v>
+      </c>
+      <c r="E16" s="61">
+        <v>1.407203</v>
+      </c>
+      <c r="F16" s="61">
+        <v>0.110277</v>
+      </c>
+      <c r="G16" s="61">
+        <v>12.376633</v>
+      </c>
+      <c r="H16" s="61">
+        <v>0.101538</v>
+      </c>
+      <c r="I16" s="61">
+        <v>6.2119000000000001E-2</v>
+      </c>
+      <c r="J16">
+        <v>44</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16" s="1">
+        <v>50</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O16" s="73">
+        <f>(32*K16*L16)/B16</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17">
+        <v>24000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="61">
+        <f t="shared" si="1"/>
+        <v>0.97067096288830723</v>
+      </c>
+      <c r="E17" s="61">
+        <v>1.3179449999999999</v>
+      </c>
+      <c r="F17" s="61">
+        <v>0.107922</v>
+      </c>
+      <c r="G17" s="61">
+        <v>14.039747999999999</v>
+      </c>
+      <c r="H17" s="61">
+        <v>0.10089099999999999</v>
+      </c>
+      <c r="I17" s="61">
+        <v>6.0685999999999997E-2</v>
+      </c>
+      <c r="J17">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O17" s="73">
+        <f t="shared" ref="O17:O23" si="2">(32*K17*L17)/B17</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="P17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -5030,44 +5300,45 @@
         <v>9</v>
       </c>
       <c r="D18" s="61">
-        <v>1.313723</v>
+        <f t="shared" si="1"/>
+        <v>0.95971715266920543</v>
       </c>
       <c r="E18" s="61">
-        <v>0.108961</v>
+        <v>1.298791</v>
       </c>
       <c r="F18" s="61">
-        <v>12.328702</v>
+        <v>0.107048</v>
       </c>
       <c r="G18" s="61">
-        <v>0.10305499999999999</v>
+        <v>15.726713999999999</v>
       </c>
       <c r="H18" s="61">
-        <v>6.1280000000000001E-2</v>
-      </c>
-      <c r="I18">
-        <v>42</v>
+        <v>0.101809</v>
+      </c>
+      <c r="I18" s="61">
+        <v>6.0885000000000002E-2</v>
       </c>
       <c r="J18">
-        <v>100</v>
-      </c>
-      <c r="K18" s="1">
-        <v>50</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18" s="1">
+        <v>100</v>
       </c>
       <c r="M18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N18" s="73">
-        <f>(32*J18*K18)/B18</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="O18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O18" s="73">
+        <f t="shared" si="2"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>206</v>
       </c>
@@ -5078,41 +5349,45 @@
         <v>9</v>
       </c>
       <c r="D19" s="61">
-        <v>1.287426</v>
+        <f t="shared" si="1"/>
+        <v>0.9346599014191268</v>
       </c>
       <c r="E19" s="61">
-        <v>0.107115</v>
+        <v>1.2490330000000001</v>
       </c>
       <c r="F19" s="61">
-        <v>12.610239999999999</v>
+        <v>0.10552599999999999</v>
       </c>
       <c r="G19" s="61">
-        <v>0.101107</v>
+        <v>15.581436999999999</v>
       </c>
       <c r="H19" s="61">
-        <v>5.7707000000000001E-2</v>
-      </c>
-      <c r="I19">
-        <v>43</v>
+        <v>9.9079E-2</v>
+      </c>
+      <c r="I19" s="61">
+        <v>5.8484000000000001E-2</v>
       </c>
       <c r="J19">
-        <v>100</v>
-      </c>
-      <c r="K19" s="1">
-        <v>50</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19" s="1">
+        <v>100</v>
       </c>
       <c r="M19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N19" s="73">
-        <f>(32*J19*K19)/B19</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O19" s="73">
+        <f t="shared" si="2"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>206</v>
       </c>
@@ -5123,53 +5398,145 @@
         <v>9</v>
       </c>
       <c r="D20" s="61">
-        <v>1.407203</v>
+        <f t="shared" si="1"/>
+        <v>0.9456498919155365</v>
       </c>
       <c r="E20" s="61">
-        <v>0.110277</v>
+        <v>1.266842</v>
       </c>
       <c r="F20" s="61">
-        <v>12.376633</v>
+        <v>0.106516</v>
       </c>
       <c r="G20" s="61">
-        <v>0.101538</v>
+        <v>13.870457</v>
       </c>
       <c r="H20" s="61">
-        <v>6.2119000000000001E-2</v>
-      </c>
-      <c r="I20">
-        <v>44</v>
+        <v>9.8896999999999999E-2</v>
+      </c>
+      <c r="I20" s="61">
+        <v>5.7873000000000001E-2</v>
       </c>
       <c r="J20">
-        <v>100</v>
-      </c>
-      <c r="K20" s="1">
-        <v>50</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20" s="1">
+        <v>100</v>
       </c>
       <c r="M20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N20" s="73">
-        <f>(32*J20*K20)/B20</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O20" s="73">
+        <f t="shared" si="2"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21">
+        <v>24000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
       <c r="D21" s="61">
-        <f>AVERAGE(D18:D20)</f>
-        <v>1.3361173333333334</v>
-      </c>
-      <c r="N21" s="73"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N22" s="73"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0.94399476666658722</v>
+      </c>
+      <c r="E21" s="61">
+        <v>1.263088</v>
+      </c>
+      <c r="F21" s="61">
+        <v>0.10645300000000001</v>
+      </c>
+      <c r="G21" s="61">
+        <v>13.380604</v>
+      </c>
+      <c r="H21" s="61">
+        <v>9.8655999999999994E-2</v>
+      </c>
+      <c r="I21" s="61">
+        <v>5.9473999999999999E-2</v>
+      </c>
+      <c r="J21">
+        <v>49</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21" s="1">
+        <v>100</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" s="73">
+        <f t="shared" si="2"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22">
+        <v>24000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="61">
+        <f t="shared" si="1"/>
+        <v>0.92954748417150135</v>
+      </c>
+      <c r="E22" s="61">
+        <v>1.2345790000000001</v>
+      </c>
+      <c r="F22" s="61">
+        <v>0.105561</v>
+      </c>
+      <c r="G22" s="61">
+        <v>14.330235999999999</v>
+      </c>
+      <c r="H22" s="61">
+        <v>9.9373000000000003E-2</v>
+      </c>
+      <c r="I22" s="61">
+        <v>5.7671E-2</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22" s="1">
+        <v>100</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" s="73">
+        <f t="shared" si="2"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="B23">
         <v>24000</v>
@@ -5177,147 +5544,167 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="61">
+        <f t="shared" si="1"/>
+        <v>0.95415046591967967</v>
+      </c>
+      <c r="E23" s="61">
+        <v>1.2846850000000001</v>
+      </c>
+      <c r="F23" s="61">
+        <v>0.10695499999999999</v>
+      </c>
+      <c r="G23" s="61">
+        <v>15.155001</v>
+      </c>
+      <c r="H23" s="61">
+        <v>0.10108300000000001</v>
+      </c>
+      <c r="I23" s="61">
+        <v>5.9692000000000002E-2</v>
+      </c>
+      <c r="J23">
+        <v>51</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23" s="1">
+        <v>100</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23" s="73">
+        <f t="shared" si="2"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D24" s="61">
+        <f>AVERAGE(D14:D23)</f>
+        <v>0.95820319938755227</v>
+      </c>
+      <c r="E24" s="61">
+        <f>AVERAGE(E14:E23)</f>
+        <v>1.2923315</v>
+      </c>
+      <c r="F24" s="61">
+        <f>AVERAGE(F14:F23)</f>
+        <v>0.10723340000000001</v>
+      </c>
+      <c r="O24" s="73"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O25" s="73"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26">
+        <v>24000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="61">
+        <f>((E26/$E$10)+(F26/$F$10))/2</f>
+        <v>0.95479581971845318</v>
+      </c>
+      <c r="E26" s="61">
         <v>1.2955680000000001</v>
       </c>
-      <c r="E23">
+      <c r="F26" s="61">
         <v>0.106223</v>
       </c>
-      <c r="F23">
+      <c r="G26" s="61">
         <v>14.075428</v>
       </c>
-      <c r="G23">
+      <c r="H26" s="61">
         <v>9.8840999999999998E-2</v>
       </c>
-      <c r="H23">
+      <c r="I26" s="61">
         <v>5.6936E-2</v>
       </c>
-      <c r="I23">
+      <c r="J26">
         <v>42</v>
       </c>
-      <c r="J23">
-        <v>100</v>
-      </c>
-      <c r="K23" s="1">
-        <v>50</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" s="1" t="s">
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="L26" s="1">
+        <v>50</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N23" s="73">
-        <f t="shared" ref="N23:N46" si="0">(32*J23*K23)/B23</f>
+      <c r="O26" s="73">
+        <f t="shared" ref="O26:O49" si="3">(32*K26*L26)/B26</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P26" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>269</v>
       </c>
-      <c r="B24">
+      <c r="B27">
         <v>24000</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D24">
+      <c r="D27" s="61">
+        <f t="shared" ref="D27:D50" si="4">((E27/$E$10)+(F27/$F$10))/2</f>
+        <v>0.94505517633041658</v>
+      </c>
+      <c r="E27" s="61">
         <v>1.2675270000000001</v>
       </c>
-      <c r="E24">
+      <c r="F27" s="61">
         <v>0.10632999999999999</v>
       </c>
-      <c r="F24">
+      <c r="G27" s="61">
         <v>12.451796</v>
       </c>
-      <c r="G24">
+      <c r="H27" s="61">
         <v>9.9432999999999994E-2</v>
       </c>
-      <c r="H24">
+      <c r="I27" s="61">
         <v>5.7868999999999997E-2</v>
       </c>
-      <c r="I24">
+      <c r="J27">
         <v>43</v>
       </c>
-      <c r="J24">
-        <v>100</v>
-      </c>
-      <c r="K24" s="1">
-        <v>50</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27" s="1">
+        <v>50</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N24" s="73">
-        <f t="shared" si="0"/>
+      <c r="O27" s="73">
+        <f t="shared" si="3"/>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>269</v>
-      </c>
-      <c r="B25">
-        <v>24000</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>1.2883070000000001</v>
-      </c>
-      <c r="E25">
-        <v>0.10724499999999999</v>
-      </c>
-      <c r="F25">
-        <v>11.657188</v>
-      </c>
-      <c r="G25">
-        <v>9.9767999999999996E-2</v>
-      </c>
-      <c r="H25">
-        <v>6.1563E-2</v>
-      </c>
-      <c r="I25">
-        <v>44</v>
-      </c>
-      <c r="J25">
-        <v>100</v>
-      </c>
-      <c r="K25" s="1">
-        <v>50</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N25" s="73">
-        <f t="shared" si="0"/>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D26" s="61">
-        <f>AVERAGE(D23:D25)</f>
-        <v>1.2838006666666668</v>
-      </c>
-      <c r="N26" s="73"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N27" s="73"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>271</v>
       </c>
       <c r="B28">
         <v>24000</v>
@@ -5325,298 +5712,324 @@
       <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="61">
+        <f t="shared" si="4"/>
+        <v>0.95678814491345965</v>
+      </c>
+      <c r="E28" s="61">
+        <v>1.2883070000000001</v>
+      </c>
+      <c r="F28" s="61">
+        <v>0.10724499999999999</v>
+      </c>
+      <c r="G28" s="61">
+        <v>11.657188</v>
+      </c>
+      <c r="H28" s="61">
+        <v>9.9767999999999996E-2</v>
+      </c>
+      <c r="I28" s="61">
+        <v>6.1563E-2</v>
+      </c>
+      <c r="J28">
+        <v>44</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28" s="1">
+        <v>50</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O28" s="73">
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="O29" s="73"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D30" s="61"/>
+      <c r="O30" s="73"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31">
+        <v>24000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="61">
+        <f t="shared" si="4"/>
+        <v>0.93963994719108901</v>
+      </c>
+      <c r="E31" s="61">
         <v>1.266</v>
       </c>
-      <c r="E28">
+      <c r="F31" s="61">
         <v>0.10526000000000001</v>
       </c>
-      <c r="F28">
+      <c r="G31" s="61">
         <v>13.994861</v>
       </c>
-      <c r="G28">
+      <c r="H31" s="61">
         <v>9.7878000000000007E-2</v>
       </c>
-      <c r="H28">
+      <c r="I31" s="61">
         <v>5.6541000000000001E-2</v>
       </c>
-      <c r="I28">
+      <c r="J31">
         <v>42</v>
       </c>
-      <c r="J28">
-        <v>100</v>
-      </c>
-      <c r="K28" s="1">
-        <v>50</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N28" s="73">
-        <f>(32*J28*K28)/B28</f>
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31" s="1">
+        <v>50</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="73">
+        <f>(32*K31*L31)/B31</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P31" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>271</v>
       </c>
-      <c r="B29">
+      <c r="B32">
         <v>24000</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D29">
+      <c r="D32" s="61">
+        <f t="shared" si="4"/>
+        <v>0.9495537066784514</v>
+      </c>
+      <c r="E32" s="61">
         <v>1.2752429999999999</v>
       </c>
-      <c r="E29">
+      <c r="F32" s="61">
         <v>0.106701</v>
       </c>
-      <c r="F29">
+      <c r="G32" s="61">
         <v>12.604134999999999</v>
       </c>
-      <c r="G29">
+      <c r="H32" s="61">
         <v>0.100177</v>
       </c>
-      <c r="H29">
+      <c r="I32" s="61">
         <v>5.7529999999999998E-2</v>
       </c>
-      <c r="I29">
+      <c r="J32">
         <v>43</v>
       </c>
-      <c r="J29">
-        <v>100</v>
-      </c>
-      <c r="K29" s="1">
-        <v>50</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N29" s="73">
-        <f t="shared" si="0"/>
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="L32" s="1">
+        <v>50</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" s="73">
+        <f t="shared" si="3"/>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>271</v>
       </c>
-      <c r="B30">
+      <c r="B33">
         <v>24000</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D30">
+      <c r="D33" s="61">
+        <f t="shared" si="4"/>
+        <v>0.92927541203641517</v>
+      </c>
+      <c r="E33" s="61">
         <v>1.2388129999999999</v>
       </c>
-      <c r="E30">
+      <c r="F33" s="61">
         <v>0.105161</v>
       </c>
-      <c r="F30">
+      <c r="G33" s="61">
         <v>13.264303</v>
       </c>
-      <c r="G30">
+      <c r="H33" s="61">
         <v>9.7451999999999997E-2</v>
       </c>
-      <c r="H30">
+      <c r="I33" s="61">
         <v>5.6848999999999997E-2</v>
       </c>
-      <c r="I30">
+      <c r="J33">
         <v>44</v>
       </c>
-      <c r="J30">
-        <v>100</v>
-      </c>
-      <c r="K30" s="1">
-        <v>50</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N30" s="73">
-        <f t="shared" si="0"/>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33" s="1">
+        <v>50</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="73">
+        <f t="shared" si="3"/>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D31" s="61">
-        <f>AVERAGE(D28:D30)</f>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D34" s="61"/>
+      <c r="E34" s="61">
+        <f>AVERAGE(E31:E33)</f>
         <v>1.2600186666666666</v>
       </c>
-      <c r="N31" s="73"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N32" s="73"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N33" s="73"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="O34" s="73"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D35" s="61"/>
+      <c r="O35" s="73"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D36" s="61"/>
+      <c r="O36" s="73"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>206</v>
       </c>
-      <c r="B34">
+      <c r="B37">
         <v>24000</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D34">
+      <c r="D37" s="61">
+        <f t="shared" si="4"/>
+        <v>0.91166530219801334</v>
+      </c>
+      <c r="E37" s="61">
         <v>1.218215</v>
       </c>
-      <c r="E34">
+      <c r="F37" s="61">
         <v>0.102937</v>
       </c>
-      <c r="F34">
+      <c r="G37" s="61">
         <v>13.766194</v>
       </c>
-      <c r="G34">
+      <c r="H37" s="61">
         <v>9.5655000000000004E-2</v>
       </c>
-      <c r="H34">
+      <c r="I37" s="61">
         <v>5.4394999999999999E-2</v>
       </c>
-      <c r="I34">
+      <c r="J37">
         <v>42</v>
       </c>
-      <c r="J34">
-        <v>100</v>
-      </c>
-      <c r="K34" s="1">
-        <v>100</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M34" s="1" t="s">
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="L37" s="1">
+        <v>100</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N34" s="73">
-        <f t="shared" si="0"/>
+      <c r="O37" s="73">
+        <f t="shared" si="3"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P37" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>206</v>
       </c>
-      <c r="B35">
+      <c r="B38">
         <v>24000</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D35">
+      <c r="D38" s="61">
+        <f t="shared" si="4"/>
+        <v>0.92071774720661481</v>
+      </c>
+      <c r="E38" s="61">
         <v>1.2306490000000001</v>
       </c>
-      <c r="E35">
+      <c r="F38" s="61">
         <v>0.103932</v>
       </c>
-      <c r="F35">
+      <c r="G38" s="61">
         <v>13.36697</v>
       </c>
-      <c r="G35">
+      <c r="H38" s="61">
         <v>9.6755999999999995E-2</v>
       </c>
-      <c r="H35">
+      <c r="I38" s="61">
         <v>5.4752000000000002E-2</v>
       </c>
-      <c r="I35">
+      <c r="J38">
         <v>43</v>
       </c>
-      <c r="J35">
-        <v>100</v>
-      </c>
-      <c r="K35" s="1">
-        <v>100</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M35" s="1" t="s">
+      <c r="K38">
+        <v>100</v>
+      </c>
+      <c r="L38" s="1">
+        <v>100</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N35" s="73">
-        <f t="shared" si="0"/>
+      <c r="O38" s="73">
+        <f t="shared" si="3"/>
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>206</v>
-      </c>
-      <c r="B36">
-        <v>24000</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>1.3177639999999999</v>
-      </c>
-      <c r="E36">
-        <v>0.106464</v>
-      </c>
-      <c r="F36">
-        <v>11.580831999999999</v>
-      </c>
-      <c r="G36">
-        <v>9.8630999999999996E-2</v>
-      </c>
-      <c r="H36">
-        <v>5.9145999999999997E-2</v>
-      </c>
-      <c r="I36">
-        <v>44</v>
-      </c>
-      <c r="J36">
-        <v>100</v>
-      </c>
-      <c r="K36" s="1">
-        <v>100</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N36" s="73">
-        <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D37" s="61">
-        <f>AVERAGE(D34:D36)</f>
-        <v>1.2555426666666667</v>
-      </c>
-      <c r="N37" s="73"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N38" s="73"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>269</v>
       </c>
       <c r="B39">
         <v>24000</v>
@@ -5624,153 +6037,164 @@
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="61">
+        <f t="shared" si="4"/>
+        <v>0.96398490182316854</v>
+      </c>
+      <c r="E39" s="61">
+        <v>1.3177639999999999</v>
+      </c>
+      <c r="F39" s="61">
+        <v>0.106464</v>
+      </c>
+      <c r="G39" s="61">
+        <v>11.580831999999999</v>
+      </c>
+      <c r="H39" s="61">
+        <v>9.8630999999999996E-2</v>
+      </c>
+      <c r="I39" s="61">
+        <v>5.9145999999999997E-2</v>
+      </c>
+      <c r="J39">
+        <v>44</v>
+      </c>
+      <c r="K39">
+        <v>100</v>
+      </c>
+      <c r="L39" s="1">
+        <v>100</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O39" s="73">
+        <f t="shared" si="3"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D40" s="61"/>
+      <c r="E40" s="61">
+        <f>AVERAGE(E37:E39)</f>
+        <v>1.2555426666666667</v>
+      </c>
+      <c r="O40" s="73"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D41" s="61"/>
+      <c r="O41" s="73"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42">
+        <v>24000</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="61">
+        <f t="shared" si="4"/>
+        <v>0.93366085336783988</v>
+      </c>
+      <c r="E42" s="61">
         <v>1.2439530000000001</v>
       </c>
-      <c r="E39">
+      <c r="F42" s="61">
         <v>0.105714</v>
       </c>
-      <c r="F39">
+      <c r="G42" s="61">
         <v>14.164586</v>
       </c>
-      <c r="G39">
+      <c r="H42" s="61">
         <v>9.8461999999999994E-2</v>
       </c>
-      <c r="H39">
+      <c r="I42" s="61">
         <v>5.8353000000000002E-2</v>
       </c>
-      <c r="I39">
+      <c r="J42">
         <v>42</v>
       </c>
-      <c r="J39">
-        <v>100</v>
-      </c>
-      <c r="K39" s="1">
-        <v>100</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M39" s="1" t="s">
+      <c r="K42">
+        <v>100</v>
+      </c>
+      <c r="L42" s="1">
+        <v>100</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N39" s="73">
-        <f t="shared" si="0"/>
+      <c r="O42" s="73">
+        <f t="shared" si="3"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P42" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>269</v>
       </c>
-      <c r="B40">
+      <c r="B43">
         <v>24000</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D40">
+      <c r="D43" s="61">
+        <f t="shared" si="4"/>
+        <v>0.93566087456346936</v>
+      </c>
+      <c r="E43" s="61">
         <v>1.247582</v>
       </c>
-      <c r="E40">
+      <c r="F43" s="61">
         <v>0.105863</v>
       </c>
-      <c r="F40">
+      <c r="G43" s="61">
         <v>13.79974</v>
       </c>
-      <c r="G40">
+      <c r="H43" s="61">
         <v>9.8893999999999996E-2</v>
       </c>
-      <c r="H40">
+      <c r="I43" s="61">
         <v>5.7692E-2</v>
       </c>
-      <c r="I40">
+      <c r="J43">
         <v>43</v>
       </c>
-      <c r="J40">
-        <v>100</v>
-      </c>
-      <c r="K40" s="1">
-        <v>100</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="1" t="s">
+      <c r="K43">
+        <v>100</v>
+      </c>
+      <c r="L43" s="1">
+        <v>100</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N40" s="73">
-        <f t="shared" si="0"/>
+      <c r="O43" s="73">
+        <f t="shared" si="3"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P43" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>269</v>
-      </c>
-      <c r="B41">
-        <v>24000</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41">
-        <v>1.490958</v>
-      </c>
-      <c r="E41">
-        <v>0.11214200000000001</v>
-      </c>
-      <c r="F41">
-        <v>16.352651999999999</v>
-      </c>
-      <c r="G41">
-        <v>0.104181</v>
-      </c>
-      <c r="H41">
-        <v>5.8964999999999997E-2</v>
-      </c>
-      <c r="I41">
-        <v>44</v>
-      </c>
-      <c r="J41">
-        <v>100</v>
-      </c>
-      <c r="K41" s="1">
-        <v>100</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N41" s="73">
-        <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O41" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D42" s="61">
-        <f>AVERAGE(D39:D41)</f>
-        <v>1.3274976666666667</v>
-      </c>
-      <c r="N42" s="73"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N43" s="73"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>271</v>
       </c>
       <c r="B44">
         <v>24000</v>
@@ -5778,143 +6202,220 @@
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="61">
+        <f t="shared" si="4"/>
+        <v>1.0529292524327947</v>
+      </c>
+      <c r="E44" s="61">
+        <v>1.490958</v>
+      </c>
+      <c r="F44" s="61">
+        <v>0.11214200000000001</v>
+      </c>
+      <c r="G44" s="61">
+        <v>16.352651999999999</v>
+      </c>
+      <c r="H44" s="61">
+        <v>0.104181</v>
+      </c>
+      <c r="I44" s="61">
+        <v>5.8964999999999997E-2</v>
+      </c>
+      <c r="J44">
+        <v>44</v>
+      </c>
+      <c r="K44">
+        <v>100</v>
+      </c>
+      <c r="L44" s="1">
+        <v>100</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O44" s="73">
+        <f t="shared" si="3"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="P44" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D45" s="61"/>
+      <c r="E45" s="61">
+        <f>AVERAGE(E42:E44)</f>
+        <v>1.3274976666666667</v>
+      </c>
+      <c r="O45" s="73"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D46" s="61"/>
+      <c r="O46" s="73"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47">
+        <v>24000</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="61">
+        <f t="shared" si="4"/>
+        <v>0.94033958061267553</v>
+      </c>
+      <c r="E47" s="61">
         <v>1.2576719999999999</v>
       </c>
-      <c r="E44">
+      <c r="F47" s="61">
         <v>0.106083</v>
       </c>
-      <c r="F44">
+      <c r="G47" s="61">
         <v>14.099461</v>
       </c>
-      <c r="G44">
+      <c r="H47" s="61">
         <v>9.8796999999999996E-2</v>
       </c>
-      <c r="H44">
+      <c r="I47" s="61">
         <v>5.8257000000000003E-2</v>
       </c>
-      <c r="I44">
+      <c r="J47">
         <v>42</v>
       </c>
-      <c r="J44">
-        <v>100</v>
-      </c>
-      <c r="K44" s="1">
-        <v>100</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N44" s="73">
-        <f t="shared" si="0"/>
+      <c r="K47">
+        <v>100</v>
+      </c>
+      <c r="L47" s="1">
+        <v>100</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O47" s="73">
+        <f t="shared" si="3"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P47" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>271</v>
       </c>
-      <c r="B45">
+      <c r="B48">
         <v>24000</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C48" t="s">
         <v>9</v>
       </c>
-      <c r="D45">
+      <c r="D48" s="61">
+        <f t="shared" si="4"/>
+        <v>0.93852074032094956</v>
+      </c>
+      <c r="E48" s="61">
         <v>1.254988</v>
       </c>
-      <c r="E45">
+      <c r="F48" s="61">
         <v>0.10589800000000001</v>
       </c>
-      <c r="F45">
+      <c r="G48" s="61">
         <v>13.689927000000001</v>
       </c>
-      <c r="G45">
+      <c r="H48" s="61">
         <v>9.8133999999999999E-2</v>
       </c>
-      <c r="H45">
+      <c r="I48" s="61">
         <v>5.7279999999999998E-2</v>
       </c>
-      <c r="I45">
+      <c r="J48">
         <v>43</v>
       </c>
-      <c r="J45">
-        <v>100</v>
-      </c>
-      <c r="K45" s="1">
-        <v>100</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N45" s="73">
-        <f t="shared" si="0"/>
+      <c r="K48">
+        <v>100</v>
+      </c>
+      <c r="L48" s="1">
+        <v>100</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O48" s="73">
+        <f t="shared" si="3"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P48" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>271</v>
       </c>
-      <c r="B46">
+      <c r="B49">
         <v>24000</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C49" t="s">
         <v>9</v>
       </c>
-      <c r="D46">
+      <c r="D49" s="61">
+        <f t="shared" si="4"/>
+        <v>1.0295055708738137</v>
+      </c>
+      <c r="E49" s="61">
         <v>1.446115</v>
       </c>
-      <c r="E46">
+      <c r="F49" s="61">
         <v>0.110585</v>
       </c>
-      <c r="F46">
+      <c r="G49" s="61">
         <v>15.797732999999999</v>
       </c>
-      <c r="G46">
+      <c r="H49" s="61">
         <v>0.102634</v>
       </c>
-      <c r="H46">
+      <c r="I49" s="61">
         <v>5.8513999999999997E-2</v>
       </c>
-      <c r="I46">
+      <c r="J49">
         <v>44</v>
       </c>
-      <c r="J46">
-        <v>100</v>
-      </c>
-      <c r="K46" s="1">
-        <v>100</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N46" s="73">
-        <f t="shared" si="0"/>
+      <c r="K49">
+        <v>100</v>
+      </c>
+      <c r="L49" s="1">
+        <v>100</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O49" s="73">
+        <f t="shared" si="3"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P49" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D47" s="61">
-        <f>AVERAGE(D44:D46)</f>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D50" s="61"/>
+      <c r="E50" s="61">
+        <f>AVERAGE(E47:E49)</f>
         <v>1.3195916666666667</v>
       </c>
     </row>
@@ -5926,10 +6427,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B846BAE7-5ED0-427A-B8CD-EE28F16EDE3B}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5994,85 +6495,25 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B3">
-        <v>6020</v>
-      </c>
-      <c r="C3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="61">
-        <v>1</v>
-      </c>
-      <c r="E3" s="61">
-        <v>1.4337</v>
-      </c>
-      <c r="F3" s="61">
-        <v>0.11366799999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4">
-        <v>6020</v>
-      </c>
-      <c r="C4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="61">
-        <v>0.86639999999999995</v>
-      </c>
-      <c r="E4" s="61">
-        <v>1.1684000000000001</v>
-      </c>
-      <c r="F4" s="61">
-        <v>0.10433400000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5">
-        <v>6020</v>
-      </c>
-      <c r="C5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="61">
-        <v>0.86240000000000006</v>
-      </c>
-      <c r="E5" s="61">
-        <v>1.1672</v>
-      </c>
-      <c r="F5" s="61">
-        <v>0.103522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B6">
-        <v>6020</v>
-      </c>
-      <c r="C6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" s="61">
-        <v>0.8427</v>
-      </c>
-      <c r="E6" s="61">
-        <v>1.1394</v>
-      </c>
-      <c r="F6" s="61">
-        <v>0.10123100000000002</v>
-      </c>
+    <row r="2" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -6082,170 +6523,147 @@
         <v>6020</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D7" s="61">
-        <v>0.88170000000000004</v>
+        <v>1</v>
       </c>
       <c r="E7" s="61">
-        <v>1.2192000000000001</v>
+        <v>1.4337</v>
       </c>
       <c r="F7" s="61">
-        <v>0.10378399999999999</v>
+        <v>0.11366799999999999</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="A8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8">
+        <v>6020</v>
+      </c>
+      <c r="C8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="61">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="E8" s="61">
+        <v>1.1684000000000001</v>
+      </c>
+      <c r="F8" s="61">
+        <v>0.10433400000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>278</v>
+      </c>
       <c r="B9">
         <v>6020</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>219</v>
       </c>
       <c r="D9" s="61">
-        <f>(( E9/$E$3) + (F9/$F$3)) / 2</f>
-        <v>0.99290557324478734</v>
+        <v>0.86240000000000006</v>
       </c>
       <c r="E9" s="61">
-        <v>1.4311039999999999</v>
+        <v>1.1672</v>
       </c>
       <c r="F9" s="61">
-        <v>0.112261</v>
-      </c>
-      <c r="G9">
-        <v>22.831237000000002</v>
-      </c>
-      <c r="H9">
-        <v>0.10874499999999999</v>
-      </c>
-      <c r="I9">
-        <v>7.4129E-2</v>
-      </c>
-      <c r="J9">
-        <v>42</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
-      <c r="L9">
-        <v>50</v>
-      </c>
-      <c r="M9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" t="s">
-        <v>196</v>
-      </c>
-      <c r="O9" s="73">
-        <f>(32*L9*K9)/B9</f>
-        <v>26.578073089700997</v>
+        <v>0.103522</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>278</v>
+      </c>
       <c r="B10">
         <v>6020</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="D10" s="61">
-        <f t="shared" ref="D10:D11" si="0">(( E10/$E$3) + (F10/$F$3)) / 2</f>
-        <v>0.92859803550353992</v>
+        <v>0.8427</v>
       </c>
       <c r="E10" s="61">
-        <v>1.298359</v>
+        <v>1.1394</v>
       </c>
       <c r="F10" s="61">
-        <v>0.108166</v>
-      </c>
-      <c r="G10">
-        <v>15.472757</v>
-      </c>
-      <c r="H10">
-        <v>0.102226</v>
-      </c>
-      <c r="I10">
-        <v>6.1369E-2</v>
-      </c>
-      <c r="J10">
-        <v>43</v>
-      </c>
-      <c r="K10">
-        <v>100</v>
-      </c>
-      <c r="L10">
-        <v>50</v>
-      </c>
-      <c r="M10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" t="s">
-        <v>196</v>
-      </c>
-      <c r="O10" s="73">
-        <f t="shared" ref="O10:O11" si="1">(32*L10*K10)/B10</f>
-        <v>26.578073089700997</v>
+        <v>0.10123100000000002</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>278</v>
+      </c>
       <c r="B11">
         <v>6020</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="D11" s="61">
-        <f t="shared" si="0"/>
-        <v>0.93797887722114104</v>
+        <v>0.88170000000000004</v>
       </c>
       <c r="E11" s="61">
-        <v>1.31576</v>
+        <v>1.2192000000000001</v>
       </c>
       <c r="F11" s="61">
-        <v>0.108919</v>
-      </c>
-      <c r="G11">
-        <v>13.615874</v>
-      </c>
-      <c r="H11">
-        <v>0.103202</v>
-      </c>
-      <c r="I11">
-        <v>6.2156999999999997E-2</v>
-      </c>
-      <c r="J11">
-        <v>44</v>
-      </c>
-      <c r="K11">
-        <v>100</v>
-      </c>
-      <c r="L11">
-        <v>50</v>
-      </c>
-      <c r="M11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" t="s">
-        <v>196</v>
-      </c>
-      <c r="O11" s="73">
-        <f t="shared" si="1"/>
-        <v>26.578073089700997</v>
+        <v>0.10378399999999999</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D12" s="61"/>
-      <c r="E12" s="61">
-        <f>AVERAGE(E9:E11)</f>
-        <v>1.3484076666666667</v>
-      </c>
-      <c r="F12" s="61">
-        <f>AVERAGE(F9:F11)</f>
-        <v>0.10978199999999999</v>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>6020</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="61">
+        <f>(( E13/$E$7) + (F13/$F$7)) / 2</f>
+        <v>0.99290557324478734</v>
+      </c>
+      <c r="E13" s="61">
+        <v>1.4311039999999999</v>
+      </c>
+      <c r="F13" s="61">
+        <v>0.112261</v>
+      </c>
+      <c r="G13">
+        <v>22.831237000000002</v>
+      </c>
+      <c r="H13">
+        <v>0.10874499999999999</v>
+      </c>
+      <c r="I13">
+        <v>7.4129E-2</v>
+      </c>
+      <c r="J13">
+        <v>42</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>196</v>
+      </c>
+      <c r="O13" s="73">
+        <f>(32*L13*K13)/B13</f>
+        <v>26.578073089700997</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -6256,32 +6674,32 @@
         <v>9</v>
       </c>
       <c r="D14" s="61">
-        <f>(( E14/$E$3) + (F14/$F$3)) / 2</f>
-        <v>0.90603310412378546</v>
+        <f t="shared" ref="D14:D15" si="0">(( E14/$E$7) + (F14/$F$7)) / 2</f>
+        <v>0.92859803550353992</v>
       </c>
       <c r="E14" s="61">
-        <v>1.25945</v>
+        <v>1.298359</v>
       </c>
       <c r="F14" s="61">
-        <v>0.10612099999999999</v>
-      </c>
-      <c r="G14" s="61">
-        <v>15.152126000000001</v>
-      </c>
-      <c r="H14" s="61">
-        <v>0.100901</v>
-      </c>
-      <c r="I14" s="61">
-        <v>5.7861999999999997E-2</v>
+        <v>0.108166</v>
+      </c>
+      <c r="G14">
+        <v>15.472757</v>
+      </c>
+      <c r="H14">
+        <v>0.102226</v>
+      </c>
+      <c r="I14">
+        <v>6.1369E-2</v>
       </c>
       <c r="J14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>100</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M14" t="s">
         <v>41</v>
@@ -6290,8 +6708,8 @@
         <v>196</v>
       </c>
       <c r="O14" s="73">
-        <f>(32*L14*K14)/B14</f>
-        <v>53.156146179401993</v>
+        <f t="shared" ref="O14:O15" si="1">(32*L14*K14)/B14</f>
+        <v>26.578073089700997</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -6302,32 +6720,32 @@
         <v>9</v>
       </c>
       <c r="D15" s="61">
-        <f>(( E15/$E$3) + (F15/$F$3)) / 2</f>
-        <v>1.0941872661468093</v>
+        <f t="shared" si="0"/>
+        <v>0.93797887722114104</v>
       </c>
       <c r="E15" s="61">
-        <v>1.612555</v>
+        <v>1.31576</v>
       </c>
       <c r="F15" s="61">
-        <v>0.12089999999999999</v>
-      </c>
-      <c r="G15" s="61">
-        <v>20.499368</v>
-      </c>
-      <c r="H15" s="61">
-        <v>0.11924700000000001</v>
-      </c>
-      <c r="I15" s="61">
-        <v>7.2219000000000005E-2</v>
+        <v>0.108919</v>
+      </c>
+      <c r="G15">
+        <v>13.615874</v>
+      </c>
+      <c r="H15">
+        <v>0.103202</v>
+      </c>
+      <c r="I15">
+        <v>6.2156999999999997E-2</v>
       </c>
       <c r="J15">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>100</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M15" t="s">
         <v>41</v>
@@ -6336,63 +6754,166 @@
         <v>196</v>
       </c>
       <c r="O15" s="73">
-        <f t="shared" ref="O15:O16" si="2">(32*L15*K15)/B15</f>
+        <f t="shared" si="1"/>
+        <v>26.578073089700997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D16" s="61"/>
+      <c r="E16" s="61">
+        <f>AVERAGE(E13:E15)</f>
+        <v>1.3484076666666667</v>
+      </c>
+      <c r="F16" s="61">
+        <f>AVERAGE(F13:F15)</f>
+        <v>0.10978199999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>6020</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="61">
+        <f>(( E18/$E$7) + (F18/$F$7)) / 2</f>
+        <v>0.90603310412378546</v>
+      </c>
+      <c r="E18" s="61">
+        <v>1.25945</v>
+      </c>
+      <c r="F18" s="61">
+        <v>0.10612099999999999</v>
+      </c>
+      <c r="G18" s="61">
+        <v>15.152126000000001</v>
+      </c>
+      <c r="H18" s="61">
+        <v>0.100901</v>
+      </c>
+      <c r="I18" s="61">
+        <v>5.7861999999999997E-2</v>
+      </c>
+      <c r="J18">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" t="s">
+        <v>196</v>
+      </c>
+      <c r="O18" s="73">
+        <f>(32*L18*K18)/B18</f>
         <v>53.156146179401993</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B16">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B19">
         <v>6020</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="61">
-        <f>(( E16/$E$3) + (F16/$F$3)) / 2</f>
+      <c r="D19" s="61">
+        <f>(( E19/$E$7) + (F19/$F$7)) / 2</f>
+        <v>1.0941872661468093</v>
+      </c>
+      <c r="E19" s="61">
+        <v>1.612555</v>
+      </c>
+      <c r="F19" s="61">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="G19" s="61">
+        <v>20.499368</v>
+      </c>
+      <c r="H19" s="61">
+        <v>0.11924700000000001</v>
+      </c>
+      <c r="I19" s="61">
+        <v>7.2219000000000005E-2</v>
+      </c>
+      <c r="J19">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" t="s">
+        <v>196</v>
+      </c>
+      <c r="O19" s="73">
+        <f t="shared" ref="O19:O20" si="2">(32*L19*K19)/B19</f>
+        <v>53.156146179401993</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>6020</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="61">
+        <f>(( E20/$E$7) + (F20/$F$7)) / 2</f>
         <v>0.92471461990988546</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E20" s="61">
         <v>1.280173</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F20" s="61">
         <v>0.108725</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G20" s="61">
         <v>12.957032</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H20" s="61">
         <v>0.10355499999999999</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I20" s="61">
         <v>5.9424999999999999E-2</v>
       </c>
-      <c r="J16">
+      <c r="J20">
         <v>44</v>
       </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="L16">
-        <v>100</v>
-      </c>
-      <c r="M16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" t="s">
         <v>196</v>
       </c>
-      <c r="O16" s="73">
+      <c r="O20" s="73">
         <f t="shared" si="2"/>
         <v>53.156146179401993</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E17" s="61">
-        <f>AVERAGE(E14:E16)</f>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="E21" s="61">
+        <f>AVERAGE(E18:E20)</f>
         <v>1.3840593333333331</v>
       </c>
-      <c r="F17" s="61">
-        <f>AVERAGE(F14:F16)</f>
+      <c r="F21" s="61">
+        <f>AVERAGE(F18:F20)</f>
         <v>0.11191533333333333</v>
       </c>
     </row>
@@ -6791,10 +7312,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED88BB-481F-4DC9-8FA4-2071DA3723F3}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6806,7 +7327,7 @@
     <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -6866,14 +7387,14 @@
       <c r="C2" t="s">
         <v>222</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="61">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>10.489699999999999</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="61">
         <v>1.4154</v>
+      </c>
+      <c r="F2" s="61">
+        <v>0.10489699999999999</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -6886,14 +7407,14 @@
       <c r="C3" t="s">
         <v>218</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="61">
         <v>0.89439999999999997</v>
       </c>
-      <c r="E3">
-        <v>10.022</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="61">
         <v>1.1796</v>
+      </c>
+      <c r="F3" s="61">
+        <v>0.10022</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -6906,14 +7427,14 @@
       <c r="C4" t="s">
         <v>219</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="61">
         <v>0.89270000000000005</v>
       </c>
-      <c r="E4">
-        <v>9.9824999999999999</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="61">
         <v>1.1800999999999999</v>
+      </c>
+      <c r="F4" s="61">
+        <v>9.9824999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -6926,14 +7447,14 @@
       <c r="C5" t="s">
         <v>224</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="61">
         <v>0.86850000000000005</v>
       </c>
-      <c r="E5">
-        <v>9.7143999999999995</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="61">
         <v>1.1477999999999999</v>
+      </c>
+      <c r="F5" s="61">
+        <v>9.7143999999999994E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -6946,110 +7467,298 @@
       <c r="C6" t="s">
         <v>217</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="61">
         <v>0.90649999999999997</v>
       </c>
-      <c r="E6">
-        <v>9.8592999999999993</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="61">
         <v>1.2358</v>
       </c>
+      <c r="F6" s="61">
+        <v>9.8592999999999986E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>5315</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="61">
+        <f>((E8/$E$2)+(F8/$F$2))/2</f>
+        <v>0.9514762636937506</v>
+      </c>
+      <c r="E8" s="61">
+        <v>1.3049850000000001</v>
+      </c>
+      <c r="F8" s="61">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="G8" s="61">
+        <v>14.843885999999999</v>
+      </c>
+      <c r="H8" s="61">
+        <v>9.4959000000000002E-2</v>
+      </c>
+      <c r="I8" s="61">
+        <v>4.8510999999999999E-2</v>
+      </c>
+      <c r="J8">
+        <v>42</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>196</v>
+      </c>
+      <c r="O8" s="73">
+        <f>(32*K8*L8)/B8</f>
+        <v>30.103480714957666</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>5315</v>
+      </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>0.89658312932919493</v>
-      </c>
-      <c r="E9">
-        <v>1.278807</v>
-      </c>
-      <c r="F9">
-        <v>0.102438</v>
-      </c>
-      <c r="G9">
-        <v>13.506092000000001</v>
-      </c>
-      <c r="H9">
-        <v>9.3615000000000004E-2</v>
-      </c>
-      <c r="I9">
-        <v>4.6961999999999997E-2</v>
+      <c r="D9" s="61">
+        <f t="shared" ref="D9:D15" si="0">((E9/$E$2)+(F9/$F$2))/2</f>
+        <v>0.97828916995423665</v>
+      </c>
+      <c r="E9" s="61">
+        <v>1.3588929999999999</v>
+      </c>
+      <c r="F9" s="61">
+        <v>0.10453</v>
+      </c>
+      <c r="G9" s="61">
+        <v>13.458208000000001</v>
+      </c>
+      <c r="H9" s="61">
+        <v>9.4971E-2</v>
+      </c>
+      <c r="I9" s="61">
+        <v>5.0688999999999998E-2</v>
       </c>
       <c r="J9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>100</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>196</v>
+      </c>
+      <c r="O9" s="73">
+        <f t="shared" ref="O9:O15" si="1">(32*K9*L9)/B9</f>
+        <v>30.103480714957666</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>5315</v>
+      </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10">
-        <v>1.0467369606251817</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="61">
+        <f>((E10/$E$2)+(F10/$F$2))/2</f>
+        <v>0.93919873952697497</v>
+      </c>
+      <c r="E10" s="61">
+        <v>1.284762</v>
+      </c>
+      <c r="F10" s="61">
+        <v>0.101823</v>
+      </c>
+      <c r="G10" s="61">
+        <v>13.398535000000001</v>
+      </c>
+      <c r="H10" s="61">
+        <v>9.1901999999999998E-2</v>
+      </c>
+      <c r="I10" s="61">
+        <v>4.8078999999999997E-2</v>
+      </c>
+      <c r="J10">
+        <v>44</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>196</v>
+      </c>
+      <c r="O10" s="73">
+        <f t="shared" si="1"/>
+        <v>30.103480714957666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D11" s="61"/>
+      <c r="O11" s="73"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D12" s="61"/>
+      <c r="O12" s="73"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>5315</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="61">
+        <f t="shared" si="0"/>
+        <v>0.94002654095295068</v>
+      </c>
+      <c r="E13" s="61">
+        <v>1.278807</v>
+      </c>
+      <c r="F13" s="61">
+        <v>0.102438</v>
+      </c>
+      <c r="G13" s="61">
+        <v>13.506092000000001</v>
+      </c>
+      <c r="H13" s="61">
+        <v>9.3615000000000004E-2</v>
+      </c>
+      <c r="I13" s="61">
+        <v>4.6961999999999997E-2</v>
+      </c>
+      <c r="J13">
+        <v>42</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>196</v>
+      </c>
+      <c r="O13" s="73">
+        <f t="shared" si="1"/>
+        <v>60.206961429915332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>5315</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="61">
+        <f t="shared" si="0"/>
+        <v>1.0948119301695909</v>
+      </c>
+      <c r="E14" s="61">
         <v>1.60023</v>
       </c>
-      <c r="F10">
+      <c r="F14" s="61">
         <v>0.11108999999999999</v>
       </c>
-      <c r="G10">
+      <c r="G14" s="61">
         <v>17.997685000000001</v>
       </c>
-      <c r="H10">
+      <c r="H14" s="61">
         <v>9.8502000000000006E-2</v>
       </c>
-      <c r="I10">
+      <c r="I14" s="61">
         <v>5.1961E-2</v>
       </c>
-      <c r="J10">
+      <c r="J14">
         <v>43</v>
       </c>
-      <c r="K10">
-        <v>100</v>
-      </c>
-      <c r="L10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" s="73">
+        <f t="shared" si="1"/>
+        <v>60.206961429915332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>5315</v>
+      </c>
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>0.87216205085312515</v>
-      </c>
-      <c r="E11">
+      <c r="D15" s="61">
+        <f t="shared" si="0"/>
+        <v>0.91446046033806994</v>
+      </c>
+      <c r="E15" s="61">
         <v>1.242421</v>
       </c>
-      <c r="F11">
+      <c r="F15" s="61">
         <v>9.9770999999999999E-2</v>
       </c>
-      <c r="G11">
+      <c r="G15" s="61">
         <v>12.375102999999999</v>
       </c>
-      <c r="H11">
+      <c r="H15" s="61">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="I11">
+      <c r="I15" s="61">
         <v>4.6996999999999997E-2</v>
       </c>
-      <c r="J11">
+      <c r="J15">
         <v>44</v>
       </c>
-      <c r="K11">
-        <v>100</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>196</v>
+      </c>
+      <c r="O15" s="73">
+        <f t="shared" si="1"/>
+        <v>60.206961429915332</v>
       </c>
     </row>
   </sheetData>
@@ -7059,10 +7768,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A54CD04-938A-44C5-94A2-18A25BFC251F}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7238,20 +7947,24 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="E9">
-        <v>1.3034520000000001</v>
-      </c>
-      <c r="F9">
-        <v>0.124374</v>
-      </c>
-      <c r="G9">
-        <v>15.105667</v>
-      </c>
-      <c r="H9">
-        <v>0.116067</v>
-      </c>
-      <c r="I9">
-        <v>6.5512000000000001E-2</v>
+      <c r="D9" s="61">
+        <f>((E9/$E$3)+(F9/$F$3))/2</f>
+        <v>1.139113319424673</v>
+      </c>
+      <c r="E9" s="61">
+        <v>1.6107359999999999</v>
+      </c>
+      <c r="F9" s="61">
+        <v>0.13762099999999999</v>
+      </c>
+      <c r="G9" s="61">
+        <v>19.651530999999999</v>
+      </c>
+      <c r="H9" s="61">
+        <v>0.13050100000000001</v>
+      </c>
+      <c r="I9" s="61">
+        <v>7.8949000000000005E-2</v>
       </c>
       <c r="J9">
         <v>42</v>
@@ -7260,20 +7973,13 @@
         <v>100</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
         <v>41</v>
       </c>
       <c r="N9" t="s">
         <v>196</v>
-      </c>
-      <c r="O9" s="73">
-        <f>(32*K9*L9)/B9</f>
-        <v>60.320452403393027</v>
-      </c>
-      <c r="P9" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -7283,20 +7989,24 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>1.233689</v>
-      </c>
-      <c r="F10">
-        <v>0.123205</v>
-      </c>
-      <c r="G10">
-        <v>12.954722</v>
-      </c>
-      <c r="H10">
-        <v>0.11347500000000001</v>
-      </c>
-      <c r="I10">
-        <v>6.6089999999999996E-2</v>
+      <c r="D10" s="61">
+        <f t="shared" ref="D10:D16" si="0">((E10/$E$3)+(F10/$F$3))/2</f>
+        <v>1.0451627243921062</v>
+      </c>
+      <c r="E10" s="61">
+        <v>1.4442809999999999</v>
+      </c>
+      <c r="F10" s="61">
+        <v>0.12937599999999999</v>
+      </c>
+      <c r="G10" s="61">
+        <v>17.387951999999999</v>
+      </c>
+      <c r="H10" s="61">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="I10" s="61">
+        <v>7.7281000000000002E-2</v>
       </c>
       <c r="J10">
         <v>43</v>
@@ -7305,20 +8015,13 @@
         <v>100</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
         <v>41</v>
       </c>
       <c r="N10" t="s">
         <v>196</v>
-      </c>
-      <c r="O10" s="73">
-        <f t="shared" ref="O10:O11" si="0">(32*K10*L10)/B10</f>
-        <v>60.320452403393027</v>
-      </c>
-      <c r="P10" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -7328,20 +8031,24 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="E11">
-        <v>1.2532300000000001</v>
-      </c>
-      <c r="F11">
-        <v>0.12210699999999999</v>
-      </c>
-      <c r="G11">
-        <v>13.279436</v>
-      </c>
-      <c r="H11">
-        <v>0.1135</v>
-      </c>
-      <c r="I11">
-        <v>6.5972000000000003E-2</v>
+      <c r="D11" s="61">
+        <f t="shared" si="0"/>
+        <v>0.98824620053232759</v>
+      </c>
+      <c r="E11" s="61">
+        <v>1.3400540000000001</v>
+      </c>
+      <c r="F11" s="61">
+        <v>0.124694</v>
+      </c>
+      <c r="G11" s="61">
+        <v>13.181091</v>
+      </c>
+      <c r="H11" s="61">
+        <v>0.117424</v>
+      </c>
+      <c r="I11" s="61">
+        <v>6.9708999999999993E-2</v>
       </c>
       <c r="J11">
         <v>44</v>
@@ -7350,7 +8057,7 @@
         <v>100</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
         <v>41</v>
@@ -7358,25 +8065,181 @@
       <c r="N11" t="s">
         <v>196</v>
       </c>
-      <c r="O11" s="73">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>5305</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="61">
         <f t="shared" si="0"/>
+        <v>0.97352405876635018</v>
+      </c>
+      <c r="E14" s="61">
+        <v>1.3034520000000001</v>
+      </c>
+      <c r="F14" s="61">
+        <v>0.124374</v>
+      </c>
+      <c r="G14" s="61">
+        <v>15.105667</v>
+      </c>
+      <c r="H14" s="61">
+        <v>0.116067</v>
+      </c>
+      <c r="I14" s="61">
+        <v>6.5512000000000001E-2</v>
+      </c>
+      <c r="J14">
+        <v>42</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" s="73">
+        <f>(32*K14*L14)/B14</f>
         <v>60.320452403393027</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O12" s="74"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O13" s="73"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O14" s="73"/>
-    </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O15" s="73"/>
+      <c r="B15">
+        <v>5305</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="61">
+        <f t="shared" si="0"/>
+        <v>0.94324068441438835</v>
+      </c>
+      <c r="E15" s="61">
+        <v>1.233689</v>
+      </c>
+      <c r="F15" s="61">
+        <v>0.123205</v>
+      </c>
+      <c r="G15" s="61">
+        <v>12.954722</v>
+      </c>
+      <c r="H15" s="61">
+        <v>0.11347500000000001</v>
+      </c>
+      <c r="I15" s="61">
+        <v>6.6089999999999996E-2</v>
+      </c>
+      <c r="J15">
+        <v>43</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>196</v>
+      </c>
+      <c r="O15" s="73">
+        <f t="shared" ref="O15:O16" si="1">(32*K15*L15)/B15</f>
+        <v>60.320452403393027</v>
+      </c>
+      <c r="P15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>5305</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="61">
+        <f t="shared" si="0"/>
+        <v>0.94605509681595534</v>
+      </c>
+      <c r="E16" s="61">
+        <v>1.2532300000000001</v>
+      </c>
+      <c r="F16" s="61">
+        <v>0.12210699999999999</v>
+      </c>
+      <c r="G16" s="61">
+        <v>13.279436</v>
+      </c>
+      <c r="H16" s="61">
+        <v>0.1135</v>
+      </c>
+      <c r="I16" s="61">
+        <v>6.5972000000000003E-2</v>
+      </c>
+      <c r="J16">
+        <v>44</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" t="s">
+        <v>196</v>
+      </c>
+      <c r="O16" s="73">
+        <f t="shared" si="1"/>
+        <v>60.320452403393027</v>
+      </c>
+      <c r="P16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O17" s="74"/>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O18" s="73"/>
+    </row>
+    <row r="19" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O19" s="73"/>
+    </row>
+    <row r="20" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O20" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7386,26 +8249,30 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9163973-793C-4F7A-AC06-386F967FF302}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" customWidth="1"/>
     <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" customWidth="1"/>
     <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -7413,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -7463,18 +8330,18 @@
         <v>276</v>
       </c>
       <c r="B3">
+        <v>1858</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="61">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>1858</v>
-      </c>
-      <c r="D3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3">
+      <c r="E3" s="61">
         <v>1.4045000000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="61">
         <v>0.110331</v>
       </c>
     </row>
@@ -7483,18 +8350,18 @@
         <v>276</v>
       </c>
       <c r="B4">
+        <v>1858</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="61">
         <v>0.92379999999999995</v>
       </c>
-      <c r="C4">
-        <v>1858</v>
-      </c>
-      <c r="D4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4">
+      <c r="E4" s="61">
         <v>1.2707999999999999</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="61">
         <v>0.104036</v>
       </c>
     </row>
@@ -7503,18 +8370,18 @@
         <v>276</v>
       </c>
       <c r="B5">
+        <v>1858</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="61">
         <v>0.91559999999999997</v>
       </c>
-      <c r="C5">
-        <v>1858</v>
-      </c>
-      <c r="D5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5">
+      <c r="E5" s="61">
         <v>1.2478</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="61">
         <v>0.104022</v>
       </c>
     </row>
@@ -7523,18 +8390,18 @@
         <v>276</v>
       </c>
       <c r="B6">
+        <v>1858</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="61">
         <v>0.90139999999999998</v>
       </c>
-      <c r="C6">
-        <v>1858</v>
-      </c>
-      <c r="D6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6">
+      <c r="E6" s="61">
         <v>1.2327999999999999</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="61">
         <v>0.102075</v>
       </c>
     </row>
@@ -7543,51 +8410,110 @@
         <v>276</v>
       </c>
       <c r="B7">
+        <v>1858</v>
+      </c>
+      <c r="C7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="61">
         <v>0.90129999999999999</v>
       </c>
-      <c r="C7">
+      <c r="E7" s="61">
+        <v>1.2511000000000001</v>
+      </c>
+      <c r="F7" s="61">
+        <v>0.100608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9">
         <v>1858</v>
       </c>
-      <c r="D7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7">
-        <v>1.2511000000000001</v>
-      </c>
-      <c r="F7">
-        <v>0.100608</v>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="61">
+        <f>((E9/$E$3)+(F9/$F$3))/2</f>
+        <v>0.99198857292034925</v>
+      </c>
+      <c r="E9" s="61">
+        <v>1.3975900000000001</v>
+      </c>
+      <c r="F9" s="61">
+        <v>0.10910599999999999</v>
+      </c>
+      <c r="G9" s="61">
+        <v>14.994357000000001</v>
+      </c>
+      <c r="H9" s="61">
+        <v>0.120157</v>
+      </c>
+      <c r="I9" s="61">
+        <v>6.2913999999999998E-2</v>
+      </c>
+      <c r="J9">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>196</v>
+      </c>
+      <c r="O9" s="73">
+        <f>(32*K9*L9)/B9</f>
+        <v>86.114101184068886</v>
+      </c>
+      <c r="P9" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C10">
+      <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10">
         <v>1858</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>1.3329470000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.105241</v>
-      </c>
-      <c r="G10">
-        <v>13.789481</v>
-      </c>
-      <c r="H10">
-        <v>0.114387</v>
-      </c>
-      <c r="I10">
-        <v>6.0634E-2</v>
+      <c r="D10" s="61">
+        <f t="shared" ref="D10:D11" si="0">((E10/$E$3)+(F10/$F$3))/2</f>
+        <v>1.0335440060764884</v>
+      </c>
+      <c r="E10" s="61">
+        <v>1.4959499999999999</v>
+      </c>
+      <c r="F10" s="61">
+        <v>0.11054899999999999</v>
+      </c>
+      <c r="G10" s="61">
+        <v>15.584882</v>
+      </c>
+      <c r="H10" s="61">
+        <v>0.121096</v>
+      </c>
+      <c r="I10" s="61">
+        <v>6.2779000000000001E-2</v>
       </c>
       <c r="J10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>100</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
         <v>41</v>
@@ -7595,44 +8521,51 @@
       <c r="N10" t="s">
         <v>196</v>
       </c>
-      <c r="O10" s="74">
-        <f>(32*K10*L10)/C10</f>
-        <v>172.22820236813777</v>
+      <c r="O10" s="73">
+        <f>(32*K10*L10)/B10</f>
+        <v>86.114101184068886</v>
       </c>
       <c r="P10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C11">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11">
         <v>1858</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="E11">
-        <v>1.3507130000000001</v>
-      </c>
-      <c r="F11">
-        <v>0.103271</v>
-      </c>
-      <c r="G11">
-        <v>14.028128000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.11190700000000001</v>
-      </c>
-      <c r="I11">
-        <v>5.8606999999999999E-2</v>
+      <c r="D11" s="61">
+        <f t="shared" si="0"/>
+        <v>0.9687503141030569</v>
+      </c>
+      <c r="E11" s="61">
+        <v>1.3509629999999999</v>
+      </c>
+      <c r="F11" s="61">
+        <v>0.107641</v>
+      </c>
+      <c r="G11" s="61">
+        <v>14.863116</v>
+      </c>
+      <c r="H11" s="61">
+        <v>0.118494</v>
+      </c>
+      <c r="I11" s="61">
+        <v>6.3006000000000006E-2</v>
       </c>
       <c r="J11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
         <v>100</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
         <v>41</v>
@@ -7640,57 +8573,180 @@
       <c r="N11" t="s">
         <v>196</v>
       </c>
-      <c r="O11" s="74">
-        <f>(32*K11*L11)/C11</f>
+      <c r="O11" s="73">
+        <f>(32*K11*L11)/B11</f>
+        <v>86.114101184068886</v>
+      </c>
+      <c r="P11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D12" s="61">
+        <f>AVERAGE(D9:D11)</f>
+        <v>0.99809429769996483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14">
+        <v>1858</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="61">
+        <f>((E14/$E$3)+(F14/$F$3))/2</f>
+        <v>0.95146028081350686</v>
+      </c>
+      <c r="E14" s="61">
+        <v>1.3329470000000001</v>
+      </c>
+      <c r="F14" s="61">
+        <v>0.105241</v>
+      </c>
+      <c r="G14" s="61">
+        <v>13.789481</v>
+      </c>
+      <c r="H14" s="61">
+        <v>0.114387</v>
+      </c>
+      <c r="I14" s="61">
+        <v>6.0634E-2</v>
+      </c>
+      <c r="J14">
+        <v>42</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" s="73">
+        <f>(32*K14*L14)/B14</f>
         <v>172.22820236813777</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P14" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C12">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15">
         <v>1858</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="E12">
+      <c r="D15" s="61">
+        <f t="shared" ref="D15:D16" si="1">((E15/$E$3)+(F15/$F$3))/2</f>
+        <v>0.94885727026476752</v>
+      </c>
+      <c r="E15" s="61">
+        <v>1.3507130000000001</v>
+      </c>
+      <c r="F15" s="61">
+        <v>0.103271</v>
+      </c>
+      <c r="G15" s="61">
+        <v>14.028128000000001</v>
+      </c>
+      <c r="H15" s="61">
+        <v>0.11190700000000001</v>
+      </c>
+      <c r="I15" s="61">
+        <v>5.8606999999999999E-2</v>
+      </c>
+      <c r="J15">
+        <v>43</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>196</v>
+      </c>
+      <c r="O15" s="73">
+        <f>(32*K15*L15)/B15</f>
+        <v>172.22820236813777</v>
+      </c>
+      <c r="P15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16">
+        <v>1858</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="61">
+        <f t="shared" si="1"/>
+        <v>0.96445057669262213</v>
+      </c>
+      <c r="E16" s="61">
         <v>1.3520350000000001</v>
       </c>
-      <c r="F12">
+      <c r="F16" s="61">
         <v>0.10660799999999999</v>
       </c>
-      <c r="G12">
+      <c r="G16" s="61">
         <v>13.873661999999999</v>
       </c>
-      <c r="H12">
+      <c r="H16" s="61">
         <v>0.11605</v>
       </c>
-      <c r="I12">
+      <c r="I16" s="61">
         <v>6.1020999999999999E-2</v>
       </c>
-      <c r="J12">
+      <c r="J16">
         <v>44</v>
       </c>
-      <c r="K12">
-        <v>100</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" t="s">
         <v>196</v>
       </c>
-      <c r="O12" s="74">
-        <f>(32*K12*L12)/C12</f>
+      <c r="O16" s="73">
+        <f>(32*K16*L16)/B16</f>
         <v>172.22820236813777</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P16" t="s">
         <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="61">
+        <f>AVERAGE(D14:D16)</f>
+        <v>0.95492270925696554</v>
       </c>
     </row>
   </sheetData>
@@ -7704,7 +8760,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7713,6 +8769,14 @@
     <col min="2" max="2" width="4.453125" customWidth="1"/>
     <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7265625" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" customWidth="1"/>
+    <col min="7" max="7" width="7.90625" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" customWidth="1"/>
+    <col min="9" max="9" width="8.26953125" customWidth="1"/>
+    <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
@@ -7775,13 +8839,13 @@
       <c r="C3" t="s">
         <v>222</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="61">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="61">
         <v>1.1276999999999999</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="61">
         <v>7.4537000000000006E-2</v>
       </c>
     </row>
@@ -7795,13 +8859,13 @@
       <c r="C4" t="s">
         <v>218</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="61">
         <v>0.91520000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="61">
         <v>0.94610000000000005</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="61">
         <v>7.3899999999999993E-2</v>
       </c>
     </row>
@@ -7815,13 +8879,13 @@
       <c r="C5" t="s">
         <v>219</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="61">
         <v>0.8921</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="61">
         <v>0.93979999999999997</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="61">
         <v>7.0877999999999997E-2</v>
       </c>
     </row>
@@ -7835,13 +8899,13 @@
       <c r="C6" t="s">
         <v>224</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="61">
         <v>0.87360000000000004</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="61">
         <v>0.90980000000000005</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="61">
         <v>7.0098000000000008E-2</v>
       </c>
     </row>
@@ -7855,44 +8919,251 @@
       <c r="C7" t="s">
         <v>217</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="61">
         <v>0.9234</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="61">
         <v>1.0099</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="61">
         <v>7.0898000000000003E-2</v>
       </c>
     </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9">
+        <v>865</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="61">
+        <f>((E9/$E$3)+(F9/$F$3))/2</f>
+        <v>0.90138985790187709</v>
+      </c>
+      <c r="E9" s="61">
+        <v>0.99150199999999999</v>
+      </c>
+      <c r="F9" s="61">
+        <v>6.8838999999999997E-2</v>
+      </c>
+      <c r="G9" s="61">
+        <v>9.7984139999999993</v>
+      </c>
+      <c r="H9" s="61">
+        <v>6.3789999999999999E-2</v>
+      </c>
+      <c r="I9" s="61">
+        <v>3.5327999999999998E-2</v>
+      </c>
+      <c r="J9">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>196</v>
+      </c>
+      <c r="O9" s="73">
+        <f>(32*L9*K9)/B9</f>
+        <v>184.97109826589596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10">
+        <v>865</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="61">
+        <f t="shared" ref="D10" si="0">((E10/$E$3)+(F10/$F$3))/2</f>
+        <v>0.92280477490321688</v>
+      </c>
+      <c r="E10" s="61">
+        <v>1.0167440000000001</v>
+      </c>
+      <c r="F10" s="61">
+        <v>7.0362999999999995E-2</v>
+      </c>
+      <c r="G10" s="61">
+        <v>11.104844</v>
+      </c>
+      <c r="H10" s="61">
+        <v>6.5779000000000004E-2</v>
+      </c>
+      <c r="I10" s="61">
+        <v>3.5936999999999997E-2</v>
+      </c>
+      <c r="J10">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>196</v>
+      </c>
+      <c r="O10" s="73">
+        <f t="shared" ref="O10:O11" si="1">(32*L10*K10)/B10</f>
+        <v>184.97109826589596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11">
+        <v>865</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="61">
+        <f>((E11/$E$3)+(F11/$F$3))/2</f>
+        <v>0.91940222076744316</v>
+      </c>
+      <c r="E11" s="61">
+        <v>1.0193730000000001</v>
+      </c>
+      <c r="F11" s="61">
+        <v>6.9681999999999994E-2</v>
+      </c>
+      <c r="G11" s="61">
+        <v>11.364217999999999</v>
+      </c>
+      <c r="H11" s="61">
+        <v>6.4049999999999996E-2</v>
+      </c>
+      <c r="I11" s="61">
+        <v>3.6659999999999998E-2</v>
+      </c>
+      <c r="J11">
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>196</v>
+      </c>
+      <c r="O11" s="73">
+        <f t="shared" si="1"/>
+        <v>184.97109826589596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13">
+        <v>865</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="61">
+        <f>((E13/$E$3)+(F13/$F$3))/2</f>
+        <v>1.4226674069060632</v>
+      </c>
+      <c r="E13" s="61">
+        <v>1.735943</v>
+      </c>
+      <c r="F13" s="61">
+        <v>9.7342999999999999E-2</v>
+      </c>
+      <c r="G13" s="61">
+        <v>23.011610999999998</v>
+      </c>
+      <c r="H13" s="61">
+        <v>9.6865999999999994E-2</v>
+      </c>
+      <c r="I13" s="61">
+        <v>4.4416999999999998E-2</v>
+      </c>
+      <c r="J13">
+        <v>42</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>196</v>
+      </c>
+      <c r="O13" s="73">
+        <f>(32*L13*K13)/B13</f>
+        <v>369.94219653179192</v>
+      </c>
+    </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>277</v>
+      </c>
       <c r="B14">
         <v>865</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14">
-        <f>((E14/$E$3)+(F14/$F$3))/2</f>
-        <v>1.4226674069060632</v>
-      </c>
-      <c r="E14">
-        <v>1.735943</v>
-      </c>
-      <c r="F14">
-        <v>9.7342999999999999E-2</v>
-      </c>
-      <c r="G14">
-        <v>23.011610999999998</v>
-      </c>
-      <c r="H14">
-        <v>9.6865999999999994E-2</v>
-      </c>
-      <c r="I14">
-        <v>4.4416999999999998E-2</v>
+      <c r="D14" s="61">
+        <f t="shared" ref="D14:D15" si="2">((E14/$E$3)+(F14/$F$3))/2</f>
+        <v>0.89637173310614782</v>
+      </c>
+      <c r="E14" s="61">
+        <v>0.98449600000000004</v>
+      </c>
+      <c r="F14" s="61">
+        <v>6.8554000000000004E-2</v>
+      </c>
+      <c r="G14" s="61">
+        <v>10.593909</v>
+      </c>
+      <c r="H14" s="61">
+        <v>6.4895999999999995E-2</v>
+      </c>
+      <c r="I14" s="61">
+        <v>3.5741000000000002E-2</v>
       </c>
       <c r="J14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>100</v>
@@ -7907,38 +9178,41 @@
         <v>196</v>
       </c>
       <c r="O14" s="73">
-        <f>(32*L14*K14)/B14</f>
+        <f t="shared" ref="O14:O15" si="3">(32*L14*K14)/B14</f>
         <v>369.94219653179192</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>277</v>
+      </c>
       <c r="B15">
         <v>865</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
-        <f t="shared" ref="D15:D16" si="0">((E15/$E$3)+(F15/$F$3))/2</f>
-        <v>0.89637173310614782</v>
-      </c>
-      <c r="E15">
-        <v>0.98449600000000004</v>
-      </c>
-      <c r="F15">
-        <v>6.8554000000000004E-2</v>
-      </c>
-      <c r="G15">
-        <v>10.593909</v>
-      </c>
-      <c r="H15">
-        <v>6.4895999999999995E-2</v>
-      </c>
-      <c r="I15">
-        <v>3.5741000000000002E-2</v>
+      <c r="D15" s="61">
+        <f t="shared" si="2"/>
+        <v>0.92394404423743748</v>
+      </c>
+      <c r="E15" s="61">
+        <v>0.99434999999999996</v>
+      </c>
+      <c r="F15" s="61">
+        <v>7.2012999999999994E-2</v>
+      </c>
+      <c r="G15" s="61">
+        <v>10.525554</v>
+      </c>
+      <c r="H15" s="61">
+        <v>6.4833000000000002E-2</v>
+      </c>
+      <c r="I15" s="61">
+        <v>3.3411000000000003E-2</v>
       </c>
       <c r="J15">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>100</v>
@@ -7953,55 +9227,12 @@
         <v>196</v>
       </c>
       <c r="O15" s="73">
-        <f t="shared" ref="O15:O16" si="1">(32*L15*K15)/B15</f>
+        <f t="shared" si="3"/>
         <v>369.94219653179192</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <v>865</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0.92394404423743748</v>
-      </c>
-      <c r="E16">
-        <v>0.99434999999999996</v>
-      </c>
-      <c r="F16">
-        <v>7.2012999999999994E-2</v>
-      </c>
-      <c r="G16">
-        <v>10.525554</v>
-      </c>
-      <c r="H16">
-        <v>6.4833000000000002E-2</v>
-      </c>
-      <c r="I16">
-        <v>3.3411000000000003E-2</v>
-      </c>
-      <c r="J16">
-        <v>44</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="L16">
-        <v>100</v>
-      </c>
-      <c r="M16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" t="s">
-        <v>196</v>
-      </c>
-      <c r="O16" s="73">
-        <f t="shared" si="1"/>
-        <v>369.94219653179192</v>
-      </c>
+      <c r="D16" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -12383,17 +13614,3751 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19DC79E-CFB2-4958-9C0A-1F5454A6464A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6328125" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" customWidth="1"/>
+    <col min="10" max="10" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1796875" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>48000</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="38">
+        <f>((E3/$E$8)+(F3/$F$8))/2</f>
+        <v>0.83605801837140181</v>
+      </c>
+      <c r="E3" s="36">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="F3" s="38">
+        <v>0.12125999999999999</v>
+      </c>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>48000</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="38">
+        <f>((E4/$E$8)+(F4/$F$8))/2</f>
+        <v>0.85807048441431644</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="F4" s="38">
+        <v>0.12639</v>
+      </c>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+    </row>
+    <row r="5" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5"/>
+      <c r="D5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+    </row>
+    <row r="6" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>48000</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="38">
+        <f>((E6/$E$8)+(F6/$F$8))/2</f>
+        <v>1.0955229497112691</v>
+      </c>
+      <c r="E6" s="36">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0.15256</v>
+      </c>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+    </row>
+    <row r="7" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>48000</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="38">
+        <f t="shared" ref="D6:D17" si="0">((E7/$E$8)+(F7/$F$8))/2</f>
+        <v>1.1467622280555934</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1.26</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0.15987999999999999</v>
+      </c>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+    </row>
+    <row r="8" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>48000</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="36">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0.14427000000000001</v>
+      </c>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+    </row>
+    <row r="9" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>48000</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="38">
+        <f t="shared" si="0"/>
+        <v>0.95126614993145808</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0.13618</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>48000</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="38">
+        <f t="shared" si="0"/>
+        <v>0.98794322550725899</v>
+      </c>
+      <c r="E10" s="36">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0.14812</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>48000</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="38">
+        <f t="shared" si="0"/>
+        <v>0.92413360649628618</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0.13473000000000002</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>48000</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="38">
+        <f t="shared" si="0"/>
+        <v>0.90686931273226135</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0.97</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0.13002</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>48000</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="38">
+        <f t="shared" si="0"/>
+        <v>0.91995977282325958</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0.13433999999999999</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>48000</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="38">
+        <f t="shared" si="0"/>
+        <v>0.9033384800801727</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0.93</v>
+      </c>
+      <c r="F14" s="38">
+        <v>0.13442999999999999</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>48000</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="38">
+        <f t="shared" si="0"/>
+        <v>0.91464697770284253</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="F15" s="38">
+        <v>0.13525000000000001</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>48000</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>48000</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="38">
+        <f>((E17/$E$8)+(F17/$F$8))/2</f>
+        <v>0.90498784518757647</v>
+      </c>
+      <c r="E17" s="36">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F17" s="38">
+        <v>0.13002</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="38"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D19" s="38"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>291</v>
+      </c>
+      <c r="B20">
+        <v>48000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="38">
+        <f>((E20/$E$8)+(F20/$F$8))/2</f>
+        <v>0.99657819286261695</v>
+      </c>
+      <c r="E20" s="61">
+        <v>1.090967</v>
+      </c>
+      <c r="F20" s="61">
+        <v>0.139487</v>
+      </c>
+      <c r="G20" s="61">
+        <v>26.759784</v>
+      </c>
+      <c r="H20" s="61">
+        <v>0.124769</v>
+      </c>
+      <c r="I20" s="61">
+        <v>0.10437200000000001</v>
+      </c>
+      <c r="J20">
+        <v>42</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+      <c r="M20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" t="s">
+        <v>196</v>
+      </c>
+      <c r="O20" s="73">
+        <f>(32*L20*K20)/B20</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21">
+        <v>48000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="38">
+        <f t="shared" ref="D18:D42" si="1">((E21/$E$8)+(F21/$F$8))/2</f>
+        <v>1.0073063530144071</v>
+      </c>
+      <c r="E21" s="61">
+        <v>1.120819</v>
+      </c>
+      <c r="F21" s="61">
+        <v>0.13853099999999999</v>
+      </c>
+      <c r="G21" s="61">
+        <v>19.738727999999998</v>
+      </c>
+      <c r="H21" s="61">
+        <v>0.124403</v>
+      </c>
+      <c r="I21" s="61">
+        <v>9.4895999999999994E-2</v>
+      </c>
+      <c r="J21">
+        <v>43</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+      <c r="M21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" s="73">
+        <f t="shared" ref="O21:O43" si="2">(32*L21*K21)/B21</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B22">
+        <v>48000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0154580352011922</v>
+      </c>
+      <c r="E22" s="61">
+        <v>1.118285</v>
+      </c>
+      <c r="F22" s="61">
+        <v>0.14122699999999999</v>
+      </c>
+      <c r="G22" s="61">
+        <v>23.020793999999999</v>
+      </c>
+      <c r="H22" s="61">
+        <v>0.127303</v>
+      </c>
+      <c r="I22" s="61">
+        <v>9.7765000000000005E-2</v>
+      </c>
+      <c r="J22">
+        <v>44</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23">
+        <v>48000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0909078321188952</v>
+      </c>
+      <c r="E23" s="61">
+        <v>1.245601</v>
+      </c>
+      <c r="F23" s="61">
+        <v>0.14571799999999999</v>
+      </c>
+      <c r="G23" s="61">
+        <v>30.507529000000002</v>
+      </c>
+      <c r="H23" s="61">
+        <v>0.13222999999999999</v>
+      </c>
+      <c r="I23" s="61">
+        <v>0.118281</v>
+      </c>
+      <c r="J23">
+        <v>45</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24">
+        <v>48000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0006121221048572</v>
+      </c>
+      <c r="E24" s="61">
+        <v>1.104244</v>
+      </c>
+      <c r="F24" s="61">
+        <v>0.138849</v>
+      </c>
+      <c r="G24" s="61">
+        <v>21.830846000000001</v>
+      </c>
+      <c r="H24" s="61">
+        <v>0.12601000000000001</v>
+      </c>
+      <c r="I24" s="61">
+        <v>9.6741999999999995E-2</v>
+      </c>
+      <c r="J24">
+        <v>46</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>291</v>
+      </c>
+      <c r="B25">
+        <v>48000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0337057938102234</v>
+      </c>
+      <c r="E25" s="61">
+        <v>1.1530419999999999</v>
+      </c>
+      <c r="F25" s="61">
+        <v>0.14177500000000001</v>
+      </c>
+      <c r="G25" s="61">
+        <v>23.707104999999999</v>
+      </c>
+      <c r="H25" s="61">
+        <v>0.12910199999999999</v>
+      </c>
+      <c r="I25" s="61">
+        <v>0.104271</v>
+      </c>
+      <c r="J25">
+        <v>47</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <v>50</v>
+      </c>
+      <c r="M25" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" t="s">
+        <v>196</v>
+      </c>
+      <c r="O25" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>291</v>
+      </c>
+      <c r="B26">
+        <v>48000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0333710006669969</v>
+      </c>
+      <c r="E26" s="61">
+        <v>1.1647749999999999</v>
+      </c>
+      <c r="F26" s="61">
+        <v>0.14008599999999999</v>
+      </c>
+      <c r="G26" s="61">
+        <v>20.124155999999999</v>
+      </c>
+      <c r="H26" s="61">
+        <v>0.12753600000000001</v>
+      </c>
+      <c r="I26" s="61">
+        <v>9.8206000000000002E-2</v>
+      </c>
+      <c r="J26">
+        <v>48</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+      <c r="M26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O26" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B27">
+        <v>48000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0533132711602664</v>
+      </c>
+      <c r="E27" s="61">
+        <v>1.1860109999999999</v>
+      </c>
+      <c r="F27" s="61">
+        <v>0.142958</v>
+      </c>
+      <c r="G27" s="61">
+        <v>21.195233999999999</v>
+      </c>
+      <c r="H27" s="61">
+        <v>0.129191</v>
+      </c>
+      <c r="I27" s="61">
+        <v>8.9254E-2</v>
+      </c>
+      <c r="J27">
+        <v>49</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" t="s">
+        <v>196</v>
+      </c>
+      <c r="O27" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B28">
+        <v>48000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0069183493033764</v>
+      </c>
+      <c r="E28" s="61">
+        <v>1.10402</v>
+      </c>
+      <c r="F28" s="61">
+        <v>0.14069899999999999</v>
+      </c>
+      <c r="G28" s="61">
+        <v>28.230568000000002</v>
+      </c>
+      <c r="H28" s="61">
+        <v>0.126385</v>
+      </c>
+      <c r="I28" s="61">
+        <v>0.108823</v>
+      </c>
+      <c r="J28">
+        <v>50</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" t="s">
+        <v>196</v>
+      </c>
+      <c r="O28" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B29">
+        <v>48000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0523960593511916</v>
+      </c>
+      <c r="E29" s="61">
+        <v>1.1749540000000001</v>
+      </c>
+      <c r="F29" s="61">
+        <v>0.14419399999999999</v>
+      </c>
+      <c r="G29" s="61">
+        <v>28.090897999999999</v>
+      </c>
+      <c r="H29" s="61">
+        <v>0.130774</v>
+      </c>
+      <c r="I29" s="61">
+        <v>0.112398</v>
+      </c>
+      <c r="J29">
+        <v>51</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+      <c r="M29" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" t="s">
+        <v>196</v>
+      </c>
+      <c r="O29" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D30" s="38"/>
+      <c r="E30" s="61">
+        <f>AVERAGE(E20:E29)</f>
+        <v>1.1462718000000001</v>
+      </c>
+      <c r="F30" s="61">
+        <f>AVERAGE(F20:F29)</f>
+        <v>0.14135239999999999</v>
+      </c>
+      <c r="O30" s="73"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D31" s="38"/>
+      <c r="E31" s="61">
+        <f>MEDIAN(E20:E29)</f>
+        <v>1.1369305000000001</v>
+      </c>
+      <c r="F31" s="61">
+        <f>MEDIAN(F20:F29)</f>
+        <v>0.140963</v>
+      </c>
+      <c r="O31" s="73"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D32" s="38"/>
+      <c r="O32" s="73"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33">
+        <v>48000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0249647088879879</v>
+      </c>
+      <c r="E33" s="61">
+        <v>1.1273040000000001</v>
+      </c>
+      <c r="F33" s="61">
+        <v>0.14274600000000001</v>
+      </c>
+      <c r="G33" s="61">
+        <v>28.027698999999998</v>
+      </c>
+      <c r="H33" s="61">
+        <v>0.12765499999999999</v>
+      </c>
+      <c r="I33" s="61">
+        <v>0.106049</v>
+      </c>
+      <c r="J33">
+        <v>42</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>50</v>
+      </c>
+      <c r="M33" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" t="s">
+        <v>196</v>
+      </c>
+      <c r="O33" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34">
+        <v>48000</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="38">
+        <f t="shared" si="1"/>
+        <v>1.1453605784557426</v>
+      </c>
+      <c r="E34" s="61">
+        <v>1.316503</v>
+      </c>
+      <c r="F34" s="61">
+        <v>0.151807</v>
+      </c>
+      <c r="G34" s="61">
+        <v>33.217159000000002</v>
+      </c>
+      <c r="H34" s="61">
+        <v>0.13764100000000001</v>
+      </c>
+      <c r="I34" s="61">
+        <v>0.12479700000000001</v>
+      </c>
+      <c r="J34">
+        <v>43</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="L34">
+        <v>50</v>
+      </c>
+      <c r="M34" t="s">
+        <v>41</v>
+      </c>
+      <c r="N34" t="s">
+        <v>196</v>
+      </c>
+      <c r="O34" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35">
+        <v>48000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0066822073251518</v>
+      </c>
+      <c r="E35" s="61">
+        <v>1.1052200000000001</v>
+      </c>
+      <c r="F35" s="61">
+        <v>0.14046800000000001</v>
+      </c>
+      <c r="G35" s="61">
+        <v>22.62567</v>
+      </c>
+      <c r="H35" s="61">
+        <v>0.12698000000000001</v>
+      </c>
+      <c r="I35" s="61">
+        <v>9.7536999999999999E-2</v>
+      </c>
+      <c r="J35">
+        <v>44</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+      <c r="L35">
+        <v>50</v>
+      </c>
+      <c r="M35" t="s">
+        <v>41</v>
+      </c>
+      <c r="N35" t="s">
+        <v>196</v>
+      </c>
+      <c r="O35" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36">
+        <v>48000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="38">
+        <f t="shared" si="1"/>
+        <v>1.031902504684922</v>
+      </c>
+      <c r="E36" s="61">
+        <v>1.145141</v>
+      </c>
+      <c r="F36" s="61">
+        <v>0.14232700000000001</v>
+      </c>
+      <c r="G36" s="61">
+        <v>27.456685</v>
+      </c>
+      <c r="H36" s="61">
+        <v>0.12840299999999999</v>
+      </c>
+      <c r="I36" s="61">
+        <v>0.10827299999999999</v>
+      </c>
+      <c r="J36">
+        <v>45</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="L36">
+        <v>50</v>
+      </c>
+      <c r="M36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N36" t="s">
+        <v>196</v>
+      </c>
+      <c r="O36" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37">
+        <v>48000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="38">
+        <f t="shared" si="1"/>
+        <v>0.98780193556935458</v>
+      </c>
+      <c r="E37" s="61">
+        <v>1.0907290000000001</v>
+      </c>
+      <c r="F37" s="61">
+        <v>0.136987</v>
+      </c>
+      <c r="G37" s="61">
+        <v>19.932372999999998</v>
+      </c>
+      <c r="H37" s="61">
+        <v>0.124253</v>
+      </c>
+      <c r="I37" s="61">
+        <v>9.2345999999999998E-2</v>
+      </c>
+      <c r="J37">
+        <v>46</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="L37">
+        <v>50</v>
+      </c>
+      <c r="M37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N37" t="s">
+        <v>196</v>
+      </c>
+      <c r="O37" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38">
+        <v>48000</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0227577656180749</v>
+      </c>
+      <c r="E38" s="61">
+        <v>1.1382030000000001</v>
+      </c>
+      <c r="F38" s="61">
+        <v>0.14063000000000001</v>
+      </c>
+      <c r="G38" s="61">
+        <v>22.849187000000001</v>
+      </c>
+      <c r="H38" s="61">
+        <v>0.12800800000000001</v>
+      </c>
+      <c r="I38" s="61">
+        <v>0.100456</v>
+      </c>
+      <c r="J38">
+        <v>47</v>
+      </c>
+      <c r="K38">
+        <v>100</v>
+      </c>
+      <c r="L38">
+        <v>50</v>
+      </c>
+      <c r="M38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N38" t="s">
+        <v>196</v>
+      </c>
+      <c r="O38" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39">
+        <v>48000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0168503484079612</v>
+      </c>
+      <c r="E39" s="61">
+        <v>1.1293500000000001</v>
+      </c>
+      <c r="F39" s="61">
+        <v>0.140127</v>
+      </c>
+      <c r="G39" s="61">
+        <v>20.190816999999999</v>
+      </c>
+      <c r="H39" s="61">
+        <v>0.12599099999999999</v>
+      </c>
+      <c r="I39" s="61">
+        <v>9.6945000000000003E-2</v>
+      </c>
+      <c r="J39">
+        <v>48</v>
+      </c>
+      <c r="K39">
+        <v>100</v>
+      </c>
+      <c r="L39">
+        <v>50</v>
+      </c>
+      <c r="M39" t="s">
+        <v>41</v>
+      </c>
+      <c r="N39" t="s">
+        <v>196</v>
+      </c>
+      <c r="O39" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B40">
+        <v>48000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0027780003600701</v>
+      </c>
+      <c r="E40" s="61">
+        <v>1.102851</v>
+      </c>
+      <c r="F40" s="61">
+        <v>0.13966300000000001</v>
+      </c>
+      <c r="G40" s="61">
+        <v>25.394169999999999</v>
+      </c>
+      <c r="H40" s="61">
+        <v>0.12593399999999999</v>
+      </c>
+      <c r="I40" s="61">
+        <v>9.8027000000000003E-2</v>
+      </c>
+      <c r="J40">
+        <v>49</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40">
+        <v>50</v>
+      </c>
+      <c r="M40" t="s">
+        <v>41</v>
+      </c>
+      <c r="N40" t="s">
+        <v>196</v>
+      </c>
+      <c r="O40" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B41">
+        <v>48000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0158527934550439</v>
+      </c>
+      <c r="E41" s="61">
+        <v>1.1282460000000001</v>
+      </c>
+      <c r="F41" s="61">
+        <v>0.139989</v>
+      </c>
+      <c r="G41" s="61">
+        <v>28.643466</v>
+      </c>
+      <c r="H41" s="61">
+        <v>0.12659000000000001</v>
+      </c>
+      <c r="I41" s="61">
+        <v>0.113081</v>
+      </c>
+      <c r="J41">
+        <v>50</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+      <c r="L41">
+        <v>50</v>
+      </c>
+      <c r="M41" t="s">
+        <v>41</v>
+      </c>
+      <c r="N41" t="s">
+        <v>196</v>
+      </c>
+      <c r="O41" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42">
+        <v>48000</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0257357505437732</v>
+      </c>
+      <c r="E42" s="61">
+        <v>1.1242350000000001</v>
+      </c>
+      <c r="F42" s="61">
+        <v>0.14338500000000001</v>
+      </c>
+      <c r="G42" s="61">
+        <v>27.071750000000002</v>
+      </c>
+      <c r="H42" s="61">
+        <v>0.128722</v>
+      </c>
+      <c r="I42" s="61">
+        <v>0.104758</v>
+      </c>
+      <c r="J42">
+        <v>51</v>
+      </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
+      <c r="L42">
+        <v>50</v>
+      </c>
+      <c r="M42" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" t="s">
+        <v>196</v>
+      </c>
+      <c r="O42" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O43" s="73"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6437E731-589B-456A-8DF8-17C2DD721C2A}">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C14" sqref="C6:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3">
+        <v>6538</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3">
+        <v>1.1053999999999999</v>
+      </c>
+      <c r="E3">
+        <v>1.1500999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.17340900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4">
+        <v>6538</v>
+      </c>
+      <c r="C4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4">
+        <v>1.1052</v>
+      </c>
+      <c r="E4">
+        <v>1.1633</v>
+      </c>
+      <c r="F4">
+        <v>0.17116299999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5">
+        <v>6538</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.99390000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.16459099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6">
+        <v>6538</v>
+      </c>
+      <c r="C6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.16208100000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7">
+        <v>6538</v>
+      </c>
+      <c r="C7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7">
+        <v>1.0557000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.9798</v>
+      </c>
+      <c r="F7">
+        <v>0.185255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8">
+        <v>6538</v>
+      </c>
+      <c r="C8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8">
+        <v>0.97070000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.164302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9">
+        <v>6538</v>
+      </c>
+      <c r="C9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.14699199999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10">
+        <v>6538</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="E10">
+        <v>0.93</v>
+      </c>
+      <c r="F10">
+        <v>0.163798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11">
+        <v>6538</v>
+      </c>
+      <c r="C11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="E11">
+        <v>0.873</v>
+      </c>
+      <c r="F11">
+        <v>0.15928800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12">
+        <v>6538</v>
+      </c>
+      <c r="C12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="E12">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="F12">
+        <v>0.161298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13">
+        <v>6538</v>
+      </c>
+      <c r="C13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="E13">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="F13">
+        <v>0.152665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14">
+        <v>6538</v>
+      </c>
+      <c r="C14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14">
+        <v>0.8962</v>
+      </c>
+      <c r="E14">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="F14">
+        <v>0.14737999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16">
+        <v>6538</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>0.98430099999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.155389</v>
+      </c>
+      <c r="G16">
+        <v>22.976216999999998</v>
+      </c>
+      <c r="H16">
+        <v>0.14446000000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.100051</v>
+      </c>
+      <c r="J16">
+        <v>42</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17">
+        <v>6538</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>1.0045059999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.15104000000000001</v>
+      </c>
+      <c r="G17">
+        <v>23.511341999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.14141999999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.10557</v>
+      </c>
+      <c r="J17">
+        <v>43</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18">
+        <v>6538</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>0.96239399999999997</v>
+      </c>
+      <c r="F18">
+        <v>0.153304</v>
+      </c>
+      <c r="G18">
+        <v>25.104657</v>
+      </c>
+      <c r="H18">
+        <v>0.140543</v>
+      </c>
+      <c r="I18">
+        <v>0.106321</v>
+      </c>
+      <c r="J18">
+        <v>44</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE7B9D6-777D-4E85-8CF2-7950AA0B2522}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" customWidth="1"/>
+    <col min="9" max="9" width="7.08984375" customWidth="1"/>
+    <col min="10" max="10" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4">
+        <v>10017</v>
+      </c>
+      <c r="C4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="61">
+        <v>1.1294999999999999</v>
+      </c>
+      <c r="E4" s="61">
+        <v>1.2682</v>
+      </c>
+      <c r="F4" s="61">
+        <v>0.16109400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5">
+        <v>10017</v>
+      </c>
+      <c r="C5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="61">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="E5" s="61">
+        <v>1.2976000000000001</v>
+      </c>
+      <c r="F5" s="61">
+        <v>0.166689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6">
+        <v>10017</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="61">
+        <v>1</v>
+      </c>
+      <c r="E6" s="61">
+        <v>1.0837000000000001</v>
+      </c>
+      <c r="F6" s="61">
+        <v>0.14795700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7">
+        <v>10017</v>
+      </c>
+      <c r="C7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="61">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="E7" s="61">
+        <v>1.0377000000000001</v>
+      </c>
+      <c r="F7" s="61">
+        <v>0.13641500000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8">
+        <v>10017</v>
+      </c>
+      <c r="C8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="61">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="E8" s="61">
+        <v>1.0568</v>
+      </c>
+      <c r="F8" s="61">
+        <v>0.146979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9">
+        <v>10017</v>
+      </c>
+      <c r="C9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="61">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="E9" s="61">
+        <v>1.0068999999999999</v>
+      </c>
+      <c r="F9" s="61">
+        <v>0.13600099999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10">
+        <v>10017</v>
+      </c>
+      <c r="C10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="61">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="E10" s="61">
+        <v>1.0257000000000001</v>
+      </c>
+      <c r="F10" s="61">
+        <v>0.137075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11">
+        <v>10017</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="61">
+        <v>0.9204</v>
+      </c>
+      <c r="E11" s="61">
+        <v>1.0015000000000001</v>
+      </c>
+      <c r="F11" s="61">
+        <v>0.135634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13">
+        <v>10017</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="61">
+        <f>((E13/$E$4)+(F13/$F$4))/2</f>
+        <v>0.87205893464084328</v>
+      </c>
+      <c r="E13">
+        <v>1.1006899999999999</v>
+      </c>
+      <c r="F13" s="61">
+        <v>0.141151</v>
+      </c>
+      <c r="G13" s="61">
+        <v>23.332367000000001</v>
+      </c>
+      <c r="H13" s="61">
+        <v>0.119422</v>
+      </c>
+      <c r="I13" s="61">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="J13">
+        <v>42</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>196</v>
+      </c>
+      <c r="O13" s="73">
+        <f>(32*L13*K13)/B13</f>
+        <v>15.972846161525407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14">
+        <v>10017</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="61">
+        <f t="shared" ref="D14:D15" si="0">((E14/$E$4)+(F14/$F$4))/2</f>
+        <v>0.93534775772833501</v>
+      </c>
+      <c r="E14">
+        <v>1.211651</v>
+      </c>
+      <c r="F14" s="61">
+        <v>0.14744699999999999</v>
+      </c>
+      <c r="G14" s="61">
+        <v>24.984783</v>
+      </c>
+      <c r="H14" s="61">
+        <v>0.122708</v>
+      </c>
+      <c r="I14" s="61">
+        <v>8.1794000000000006E-2</v>
+      </c>
+      <c r="J14">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" s="73">
+        <f t="shared" ref="O14:O15" si="1">(32*L14*K14)/B14</f>
+        <v>15.972846161525407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15">
+        <v>10017</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="61">
+        <f t="shared" si="0"/>
+        <v>0.90423830390704196</v>
+      </c>
+      <c r="E15">
+        <v>1.1468130000000001</v>
+      </c>
+      <c r="F15" s="61">
+        <v>0.14566000000000001</v>
+      </c>
+      <c r="G15" s="61">
+        <v>23.240254</v>
+      </c>
+      <c r="H15" s="61">
+        <v>0.12123100000000001</v>
+      </c>
+      <c r="I15" s="61">
+        <v>9.0550000000000005E-2</v>
+      </c>
+      <c r="J15">
+        <v>44</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>196</v>
+      </c>
+      <c r="O15" s="73">
+        <f t="shared" si="1"/>
+        <v>15.972846161525407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916E5D1D-E0B0-4535-9497-2DBD8C30A89E}">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" customWidth="1"/>
+    <col min="6" max="6" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" customWidth="1"/>
+    <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3">
+        <v>10016</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="61">
+        <v>1.0927</v>
+      </c>
+      <c r="E3" s="61">
+        <v>1.2674000000000001</v>
+      </c>
+      <c r="F3" s="61">
+        <v>0.16209599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4">
+        <v>10016</v>
+      </c>
+      <c r="C4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="61">
+        <v>1.1404000000000001</v>
+      </c>
+      <c r="E4" s="61">
+        <v>1.2853000000000001</v>
+      </c>
+      <c r="F4" s="61">
+        <v>0.17439299999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5">
+        <v>10016</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="61">
+        <v>1</v>
+      </c>
+      <c r="E5" s="61">
+        <v>1.111</v>
+      </c>
+      <c r="F5" s="61">
+        <v>0.15517700000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6">
+        <v>10016</v>
+      </c>
+      <c r="C6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="61">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E6" s="61">
+        <v>1.0548999999999999</v>
+      </c>
+      <c r="F6" s="61">
+        <v>0.148421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7">
+        <v>10016</v>
+      </c>
+      <c r="C7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="61">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="E7" s="61">
+        <v>1.0253000000000001</v>
+      </c>
+      <c r="F7" s="61">
+        <v>0.157358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8">
+        <v>10016</v>
+      </c>
+      <c r="C8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="61">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="E8" s="61">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="F8" s="61">
+        <v>0.14238400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9">
+        <v>10016</v>
+      </c>
+      <c r="C9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="61">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="E9" s="61">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="F9" s="61">
+        <v>0.13842599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10">
+        <v>10016</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="61">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="E10" s="61">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="F10" s="61">
+        <v>0.14157500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12">
+        <v>10016</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="61">
+        <f>((E12/$E$5)+(F12/$F$5))/2</f>
+        <v>0.92092412854385319</v>
+      </c>
+      <c r="E12" s="61">
+        <v>1.0351980000000001</v>
+      </c>
+      <c r="F12" s="61">
+        <v>0.14122299999999999</v>
+      </c>
+      <c r="G12" s="61">
+        <v>16.818273000000001</v>
+      </c>
+      <c r="H12" s="61">
+        <v>0.127612</v>
+      </c>
+      <c r="I12" s="61">
+        <v>7.6475000000000001E-2</v>
+      </c>
+      <c r="J12">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>196</v>
+      </c>
+      <c r="O12" s="73">
+        <f>(32*L12*K12)/B12</f>
+        <v>15.974440894568691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13">
+        <v>10016</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="61">
+        <f t="shared" ref="D13:D14" si="0">((E13/$E$5)+(F13/$F$5))/2</f>
+        <v>0.95637884674906848</v>
+      </c>
+      <c r="E13" s="61">
+        <v>1.0688230000000001</v>
+      </c>
+      <c r="F13" s="61">
+        <v>0.14752999999999999</v>
+      </c>
+      <c r="G13" s="61">
+        <v>20.475092</v>
+      </c>
+      <c r="H13" s="61">
+        <v>0.133022</v>
+      </c>
+      <c r="I13" s="61">
+        <v>8.1672999999999996E-2</v>
+      </c>
+      <c r="J13">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>196</v>
+      </c>
+      <c r="O13" s="73">
+        <f t="shared" ref="O13:O14" si="1">(32*L13*K13)/B13</f>
+        <v>15.974440894568691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14">
+        <v>10016</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="61">
+        <f t="shared" si="0"/>
+        <v>0.95011236781862074</v>
+      </c>
+      <c r="E14" s="61">
+        <v>1.0556220000000001</v>
+      </c>
+      <c r="F14" s="61">
+        <v>0.147429</v>
+      </c>
+      <c r="G14" s="61">
+        <v>14.440072000000001</v>
+      </c>
+      <c r="H14" s="61">
+        <v>0.13373599999999999</v>
+      </c>
+      <c r="I14" s="61">
+        <v>7.6196E-2</v>
+      </c>
+      <c r="J14">
+        <v>44</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" s="73">
+        <f t="shared" si="1"/>
+        <v>15.974440894568691</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E4179B-291C-43EA-ACC3-6101CBE12D43}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" customWidth="1"/>
+    <col min="10" max="10" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.81640625" customWidth="1"/>
+    <col min="13" max="13" width="5.6328125" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" customWidth="1"/>
+    <col min="15" max="15" width="6.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3">
+        <v>10987</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="61">
+        <v>1.0461</v>
+      </c>
+      <c r="E3" s="61">
+        <v>1.1617999999999999</v>
+      </c>
+      <c r="F3" s="61">
+        <v>0.16258400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4">
+        <v>10987</v>
+      </c>
+      <c r="C4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="61">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="E4" s="61">
+        <v>1.3548</v>
+      </c>
+      <c r="F4" s="61">
+        <v>0.18171800000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5">
+        <v>10987</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="61">
+        <v>1</v>
+      </c>
+      <c r="E5" s="61">
+        <v>1.093</v>
+      </c>
+      <c r="F5" s="61">
+        <v>0.15794800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6">
+        <v>10987</v>
+      </c>
+      <c r="C6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="61">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="E6" s="61">
+        <v>1.0384</v>
+      </c>
+      <c r="F6" s="61">
+        <v>0.14380899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7">
+        <v>10987</v>
+      </c>
+      <c r="C7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="61">
+        <v>0.9556</v>
+      </c>
+      <c r="E7" s="61">
+        <v>1.0186999999999999</v>
+      </c>
+      <c r="F7" s="61">
+        <v>0.15465500000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8">
+        <v>10987</v>
+      </c>
+      <c r="C8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="61">
+        <v>0.89690000000000003</v>
+      </c>
+      <c r="E8" s="61">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="F8" s="61">
+        <v>0.14177500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9">
+        <v>10987</v>
+      </c>
+      <c r="C9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="61">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="E9" s="61">
+        <v>0.995</v>
+      </c>
+      <c r="F9" s="61">
+        <v>0.141461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10">
+        <v>10987</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="61">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="E10" s="61">
+        <v>0.9728</v>
+      </c>
+      <c r="F10" s="61">
+        <v>0.14166999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12">
+        <v>10987</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="61">
+        <f>((E12/$D$3)+(E12/$E$3))/2</f>
+        <v>0.99386285021730791</v>
+      </c>
+      <c r="E12" s="61">
+        <v>1.0941620000000001</v>
+      </c>
+      <c r="F12" s="61">
+        <v>0.14987200000000001</v>
+      </c>
+      <c r="G12" s="61">
+        <v>23.473488</v>
+      </c>
+      <c r="H12" s="61">
+        <v>0.13944100000000001</v>
+      </c>
+      <c r="I12" s="61">
+        <v>0.11609</v>
+      </c>
+      <c r="J12">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>196</v>
+      </c>
+      <c r="O12" s="73">
+        <f>(32*L12*K12)/B12</f>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13">
+        <v>10987</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="61">
+        <f t="shared" ref="D13:D16" si="0">((E13/$D$3)+(E13/$E$3))/2</f>
+        <v>1.0124718571215889</v>
+      </c>
+      <c r="E13" s="61">
+        <v>1.114649</v>
+      </c>
+      <c r="F13" s="61">
+        <v>0.15004700000000001</v>
+      </c>
+      <c r="G13" s="61">
+        <v>21.761671</v>
+      </c>
+      <c r="H13" s="61">
+        <v>0.13942399999999999</v>
+      </c>
+      <c r="I13" s="61">
+        <v>0.113512</v>
+      </c>
+      <c r="J13">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>196</v>
+      </c>
+      <c r="O13" s="73">
+        <f t="shared" ref="O13:O16" si="1">(32*L13*K13)/B13</f>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14">
+        <v>10987</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="61">
+        <f t="shared" si="0"/>
+        <v>0.99704564712230126</v>
+      </c>
+      <c r="E14" s="61">
+        <v>1.097666</v>
+      </c>
+      <c r="F14" s="61">
+        <v>0.14991299999999999</v>
+      </c>
+      <c r="G14" s="61">
+        <v>23.809612999999999</v>
+      </c>
+      <c r="H14" s="61">
+        <v>0.13972000000000001</v>
+      </c>
+      <c r="I14" s="61">
+        <v>0.114991</v>
+      </c>
+      <c r="J14">
+        <v>44</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" s="73">
+        <f t="shared" si="1"/>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D15" s="61"/>
+      <c r="O15" s="73"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16">
+        <v>10987</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="61">
+        <f t="shared" si="0"/>
+        <v>0.99774142977904368</v>
+      </c>
+      <c r="E16">
+        <v>1.0984320000000001</v>
+      </c>
+      <c r="F16" s="61">
+        <v>0.14627200000000001</v>
+      </c>
+      <c r="G16" s="61">
+        <v>18.877072999999999</v>
+      </c>
+      <c r="H16" s="61">
+        <v>0.13535</v>
+      </c>
+      <c r="I16">
+        <v>9.7134999999999999E-2</v>
+      </c>
+      <c r="J16" s="61">
+        <v>42</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" t="s">
+        <v>196</v>
+      </c>
+      <c r="O16" s="73">
+        <f t="shared" si="1"/>
+        <v>29.125329935378176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B233DD3-5E5F-4814-A1F2-256959227989}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" customWidth="1"/>
+    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" customWidth="1"/>
+    <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6328125" customWidth="1"/>
+    <col min="15" max="15" width="7.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3">
+        <v>5728</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="61">
+        <v>1.1493</v>
+      </c>
+      <c r="E3" s="61">
+        <v>1.1760999999999999</v>
+      </c>
+      <c r="F3" s="61">
+        <v>6.1571000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4">
+        <v>5728</v>
+      </c>
+      <c r="C4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="61">
+        <v>1.1223000000000001</v>
+      </c>
+      <c r="E4" s="61">
+        <v>1.1554</v>
+      </c>
+      <c r="F4" s="61">
+        <v>5.9767000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5">
+        <v>5728</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="61">
+        <v>1</v>
+      </c>
+      <c r="E5" s="61">
+        <v>1.0234000000000001</v>
+      </c>
+      <c r="F5" s="61">
+        <v>5.3571999999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6">
+        <v>5728</v>
+      </c>
+      <c r="C6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="61">
+        <v>0.94720000000000004</v>
+      </c>
+      <c r="E6" s="61">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="F6" s="61">
+        <v>5.0320000000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7">
+        <v>5728</v>
+      </c>
+      <c r="C7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="61">
+        <v>0.94569999999999999</v>
+      </c>
+      <c r="E7" s="61">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F7" s="61">
+        <v>5.1798999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8">
+        <v>5728</v>
+      </c>
+      <c r="C8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="61">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E8" s="61">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="F8" s="61">
+        <v>4.9112000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9">
+        <v>5728</v>
+      </c>
+      <c r="C9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="61">
+        <v>0.9163</v>
+      </c>
+      <c r="E9" s="61">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="F9" s="61">
+        <v>4.9326999999999996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10">
+        <v>5728</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="61">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="E10" s="61">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="F10" s="61">
+        <v>4.9023999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13">
+        <v>5728</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="61">
+        <f>((E13/$E$3)+(F13/$F$3))/2</f>
+        <v>0.86850562311294299</v>
+      </c>
+      <c r="E13" s="61">
+        <v>1.0167649999999999</v>
+      </c>
+      <c r="F13" s="61">
+        <v>5.3719999999999997E-2</v>
+      </c>
+      <c r="G13" s="61">
+        <v>10.520937999999999</v>
+      </c>
+      <c r="H13" s="61">
+        <v>5.3120000000000001E-2</v>
+      </c>
+      <c r="I13" s="61">
+        <v>2.8027E-2</v>
+      </c>
+      <c r="J13">
+        <v>42</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>196</v>
+      </c>
+      <c r="O13" s="73">
+        <f>(32*L13*K13)/B13</f>
+        <v>27.932960893854748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14">
+        <v>5728</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="61">
+        <f t="shared" ref="D14:D19" si="0">((E14/$E$3)+(F14/$F$3))/2</f>
+        <v>0.84357779287342716</v>
+      </c>
+      <c r="E14" s="61">
+        <v>0.98997199999999996</v>
+      </c>
+      <c r="F14" s="61">
+        <v>5.2053000000000002E-2</v>
+      </c>
+      <c r="G14" s="61">
+        <v>12.945753</v>
+      </c>
+      <c r="H14" s="61">
+        <v>5.1672000000000003E-2</v>
+      </c>
+      <c r="I14" s="61">
+        <v>3.0074E-2</v>
+      </c>
+      <c r="J14">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" s="73">
+        <f t="shared" ref="O14:O19" si="1">(32*L14*K14)/B14</f>
+        <v>27.932960893854748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15">
+        <v>5728</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="61">
+        <f t="shared" si="0"/>
+        <v>0.84404835091105213</v>
+      </c>
+      <c r="E15" s="61">
+        <v>1.000515</v>
+      </c>
+      <c r="F15" s="61">
+        <v>5.1559000000000001E-2</v>
+      </c>
+      <c r="G15" s="61">
+        <v>17.730823999999998</v>
+      </c>
+      <c r="H15" s="61">
+        <v>5.0356999999999999E-2</v>
+      </c>
+      <c r="I15" s="61">
+        <v>2.801E-2</v>
+      </c>
+      <c r="J15">
+        <v>44</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>196</v>
+      </c>
+      <c r="O15" s="73">
+        <f t="shared" si="1"/>
+        <v>27.932960893854748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D16" s="61"/>
+      <c r="O16" s="73"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17">
+        <v>5728</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="61">
+        <f t="shared" si="0"/>
+        <v>0.82078479159063444</v>
+      </c>
+      <c r="E17">
+        <v>0.95511599999999997</v>
+      </c>
+      <c r="F17">
+        <v>5.1070999999999998E-2</v>
+      </c>
+      <c r="G17">
+        <v>9.0040209999999998</v>
+      </c>
+      <c r="H17">
+        <v>5.0245999999999999E-2</v>
+      </c>
+      <c r="I17">
+        <v>2.5684999999999999E-2</v>
+      </c>
+      <c r="J17">
+        <v>42</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" t="s">
+        <v>196</v>
+      </c>
+      <c r="O17" s="73">
+        <f t="shared" si="1"/>
+        <v>55.865921787709496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18">
+        <v>5728</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="61">
+        <f t="shared" si="0"/>
+        <v>0.81560085864526011</v>
+      </c>
+      <c r="E18">
+        <v>0.96355199999999996</v>
+      </c>
+      <c r="F18">
+        <v>4.9991000000000001E-2</v>
+      </c>
+      <c r="G18">
+        <v>12.902528</v>
+      </c>
+      <c r="H18">
+        <v>4.8619999999999997E-2</v>
+      </c>
+      <c r="I18">
+        <v>2.5381999999999998E-2</v>
+      </c>
+      <c r="J18">
+        <v>43</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" t="s">
+        <v>196</v>
+      </c>
+      <c r="O18" s="73">
+        <f t="shared" si="1"/>
+        <v>55.865921787709496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19">
+        <v>5728</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="61">
+        <f t="shared" si="0"/>
+        <v>0.81708692027719287</v>
+      </c>
+      <c r="E19">
+        <v>0.954345</v>
+      </c>
+      <c r="F19">
+        <v>5.0656E-2</v>
+      </c>
+      <c r="G19">
+        <v>9.7171380000000003</v>
+      </c>
+      <c r="H19">
+        <v>4.9391999999999998E-2</v>
+      </c>
+      <c r="I19">
+        <v>2.4788000000000001E-2</v>
+      </c>
+      <c r="J19">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" t="s">
+        <v>196</v>
+      </c>
+      <c r="O19" s="73">
+        <f t="shared" si="1"/>
+        <v>55.865921787709496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EC5186-3C9F-4963-A58C-8828665F06F5}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10">
+        <v>277</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1.0396380000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.136048</v>
+      </c>
+      <c r="G10">
+        <v>13.448067</v>
+      </c>
+      <c r="H10">
+        <v>0.117726</v>
+      </c>
+      <c r="I10">
+        <v>6.4357999999999999E-2</v>
+      </c>
+      <c r="J10">
+        <v>42</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>277</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>1.051337</v>
+      </c>
+      <c r="F11">
+        <v>0.13435800000000001</v>
+      </c>
+      <c r="G11">
+        <v>14.182729</v>
+      </c>
+      <c r="H11">
+        <v>0.116683</v>
+      </c>
+      <c r="I11">
+        <v>7.1858000000000005E-2</v>
+      </c>
+      <c r="J11">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>277</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>1.018667</v>
+      </c>
+      <c r="F12">
+        <v>0.136189</v>
+      </c>
+      <c r="G12">
+        <v>12.559945000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.116344</v>
+      </c>
+      <c r="I12">
+        <v>6.8287E-2</v>
+      </c>
+      <c r="J12">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AA6EBD-8719-4324-B09A-4C04B6729294}">
   <dimension ref="A1:R12"/>
   <sheetViews>
@@ -13040,7 +18005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81841C01-14F2-4752-BEFF-0E0B223C739F}">
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -15642,7 +20607,7 @@
       </c>
       <c r="P38" s="21"/>
     </row>
-    <row r="39" spans="1:16" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
         <v>22</v>
       </c>

--- a/results/results_v4.xlsx
+++ b/results/results_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83819E2-B471-4F54-B430-8082B2126252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7121D2AF-B3FA-4F75-9744-3088AAEC472A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" tabRatio="818" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" tabRatio="818" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="30" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="397">
   <si>
     <t>epochs</t>
   </si>
@@ -1250,6 +1250,12 @@
   </si>
   <si>
     <t>59min/3</t>
+  </si>
+  <si>
+    <t>batch size</t>
+  </si>
+  <si>
+    <t>batrch size</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1678,6 +1684,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1699,8 +1707,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1983,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3568A30-5FFC-4B69-AC5A-E932B621F002}">
   <dimension ref="B1:E64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1998,11 +2005,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="82" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
     </row>
     <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="55" t="s">
@@ -2241,10 +2248,10 @@
       <c r="C29" s="77"/>
     </row>
     <row r="30" spans="2:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="C30" s="84"/>
+      <c r="C30" s="86"/>
       <c r="E30" s="54"/>
     </row>
     <row r="31" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2273,11 +2280,11 @@
     </row>
     <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="35" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="82" t="s">
         <v>355</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
     </row>
     <row r="36" spans="2:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="55" t="s">
@@ -2512,10 +2519,10 @@
     </row>
     <row r="57" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="58" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="85" t="s">
+      <c r="B58" s="87" t="s">
         <v>386</v>
       </c>
-      <c r="C58" s="86"/>
+      <c r="C58" s="88"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" s="78" t="s">
@@ -2581,7 +2588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C8C9A-20BB-4771-8378-5D3215950330}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -3513,7 +3520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEB8732-0721-446E-85BF-508EDD0785C3}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3676,7 +3683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97154CB0-7525-487C-9BD7-D670DF50B599}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3806,8 +3813,8 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5091,30 +5098,30 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D39" s="87">
+      <c r="D39" s="80">
         <f>AVERAGE(D29:D38)</f>
         <v>0.94347585768777409</v>
       </c>
-      <c r="E39" s="87">
+      <c r="E39" s="80">
         <f t="shared" ref="E39:F39" si="4">AVERAGE(E29:E38)</f>
         <v>1.2681590999999999</v>
       </c>
-      <c r="F39" s="87">
+      <c r="F39" s="80">
         <f t="shared" si="4"/>
         <v>0.10593140000000001</v>
       </c>
       <c r="O39" s="44"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D40" s="87">
+      <c r="D40" s="80">
         <f>MEDIAN(D29:D38)</f>
         <v>0.9448223292910618</v>
       </c>
-      <c r="E40" s="87">
+      <c r="E40" s="80">
         <f t="shared" ref="E40:F40" si="5">MEDIAN(E29:E38)</f>
         <v>1.2649650000000001</v>
       </c>
-      <c r="F40" s="87">
+      <c r="F40" s="80">
         <f t="shared" si="5"/>
         <v>0.10645850000000001</v>
       </c>
@@ -5761,29 +5768,29 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D57" s="87">
+      <c r="D57" s="80">
         <f>AVERAGE(D47:D56)</f>
         <v>0.98544214144214526</v>
       </c>
-      <c r="E57" s="87">
+      <c r="E57" s="80">
         <f t="shared" ref="E57:F57" si="7">AVERAGE(E47:E56)</f>
         <v>1.3489432000000001</v>
       </c>
-      <c r="F57" s="87">
+      <c r="F57" s="80">
         <f t="shared" si="7"/>
         <v>0.10868540000000002</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D58" s="87">
+      <c r="D58" s="80">
         <f>MEDIAN(D47:D56)</f>
         <v>0.95298578389254029</v>
       </c>
-      <c r="E58" s="87">
+      <c r="E58" s="80">
         <f t="shared" ref="E58:F58" si="8">MEDIAN(E47:E56)</f>
         <v>1.2833464999999999</v>
       </c>
-      <c r="F58" s="87">
+      <c r="F58" s="80">
         <f t="shared" si="8"/>
         <v>0.106806</v>
       </c>
@@ -5798,8 +5805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B846BAE7-5ED0-427A-B8CD-EE28F16EDE3B}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6294,15 +6301,15 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D23" s="87">
+      <c r="D23" s="80">
         <f>AVERAGE(D20:D22)</f>
         <v>0.95316082865648932</v>
       </c>
-      <c r="E23" s="87">
+      <c r="E23" s="80">
         <f>AVERAGE(E20:E22)</f>
         <v>1.3484076666666667</v>
       </c>
-      <c r="F23" s="87">
+      <c r="F23" s="80">
         <f>AVERAGE(F20:F22)</f>
         <v>0.10978199999999999</v>
       </c>
@@ -6455,15 +6462,15 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D28" s="87">
+      <c r="D28" s="80">
         <f>AVERAGE(D25:D27)</f>
         <v>0.9749783300601601</v>
       </c>
-      <c r="E28" s="87">
+      <c r="E28" s="80">
         <f>AVERAGE(E25:E27)</f>
         <v>1.3840593333333331</v>
       </c>
-      <c r="F28" s="87">
+      <c r="F28" s="80">
         <f>AVERAGE(F25:F27)</f>
         <v>0.11191533333333333</v>
       </c>
@@ -6620,15 +6627,15 @@
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D33" s="87">
+      <c r="D33" s="80">
         <f>AVERAGE(D30:D32)</f>
         <v>0.91216619193028337</v>
       </c>
-      <c r="E33" s="87">
+      <c r="E33" s="80">
         <f>AVERAGE(E30:E32)</f>
         <v>1.258848</v>
       </c>
-      <c r="F33" s="87">
+      <c r="F33" s="80">
         <f>AVERAGE(F30:F32)</f>
         <v>0.10756300000000001</v>
       </c>
@@ -6644,7 +6651,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7114,15 +7121,15 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D19" s="87">
+      <c r="D19" s="80">
         <f>AVERAGE(D16:D18)</f>
         <v>0.97001521099926402</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="81">
         <f>AVERAGE(E16:E18)</f>
         <v>1.2489830000000002</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="81">
         <f>AVERAGE(F16:F18)</f>
         <v>9.6915333333333339E-2</v>
       </c>
@@ -7279,15 +7286,15 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D24" s="87">
+      <c r="D24" s="80">
         <f>AVERAGE(D21:D23)</f>
         <v>0.9926336659227516</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="81">
         <f>AVERAGE(E21:E23)</f>
         <v>1.2944413333333333</v>
       </c>
-      <c r="F24" s="88">
+      <c r="F24" s="81">
         <f>AVERAGE(F21:F23)</f>
         <v>9.790133333333334E-2</v>
       </c>
@@ -7444,15 +7451,15 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D29" s="87">
+      <c r="D29" s="80">
         <f>AVERAGE(D26:D28)</f>
         <v>0.97827867480960184</v>
       </c>
-      <c r="E29" s="88">
+      <c r="E29" s="81">
         <f>AVERAGE(E26:E28)</f>
         <v>1.2674146666666666</v>
       </c>
-      <c r="F29" s="88">
+      <c r="F29" s="81">
         <f>AVERAGE(F26:F28)</f>
         <v>9.7133333333333335E-2</v>
       </c>
@@ -7466,9 +7473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED88BB-481F-4DC9-8FA4-2071DA3723F3}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7942,15 +7949,15 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D19" s="87">
+      <c r="D19" s="80">
         <f>AVERAGE(D16:D18)</f>
         <v>0.95632139105832081</v>
       </c>
-      <c r="E19" s="87">
+      <c r="E19" s="80">
         <f t="shared" ref="E19:F19" si="2">AVERAGE(E16:E18)</f>
         <v>1.3162133333333335</v>
       </c>
-      <c r="F19" s="87">
+      <c r="F19" s="80">
         <f t="shared" si="2"/>
         <v>0.10308433333333333</v>
       </c>
@@ -8108,15 +8115,15 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D24" s="87">
+      <c r="D24" s="80">
         <f>AVERAGE(D21:D23)</f>
         <v>0.98309964382020387</v>
       </c>
-      <c r="E24" s="87">
+      <c r="E24" s="80">
         <f t="shared" ref="E24:F24" si="3">AVERAGE(E21:E23)</f>
         <v>1.3738193333333335</v>
       </c>
-      <c r="F24" s="87">
+      <c r="F24" s="80">
         <f t="shared" si="3"/>
         <v>0.104433</v>
       </c>
@@ -8273,15 +8280,15 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D29" s="87">
+      <c r="D29" s="80">
         <f>AVERAGE(D26:D28)</f>
         <v>0.91682701066573136</v>
       </c>
-      <c r="E29" s="87">
+      <c r="E29" s="80">
         <f t="shared" ref="E29:F29" si="5">AVERAGE(E26:E28)</f>
         <v>1.2422656666666665</v>
       </c>
-      <c r="F29" s="87">
+      <c r="F29" s="80">
         <f t="shared" si="5"/>
         <v>0.10027899999999999</v>
       </c>
@@ -8296,8 +8303,8 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8774,15 +8781,15 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D19" s="87">
+      <c r="D19" s="80">
         <f>AVERAGE(D16:D18)</f>
         <v>1.0575074147830357</v>
       </c>
-      <c r="E19" s="87">
+      <c r="E19" s="80">
         <f>AVERAGE(E16:E18)</f>
         <v>1.4650236666666665</v>
       </c>
-      <c r="F19" s="87">
+      <c r="F19" s="80">
         <f>AVERAGE(F16:F18)</f>
         <v>0.13056366666666666</v>
       </c>
@@ -8955,15 +8962,15 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D24" s="87">
+      <c r="D24" s="80">
         <f>AVERAGE(D21:D23)</f>
         <v>0.95427327999889788</v>
       </c>
-      <c r="E24" s="87">
+      <c r="E24" s="80">
         <f t="shared" ref="E24:F24" si="3">AVERAGE(E21:E23)</f>
         <v>1.2634570000000001</v>
       </c>
-      <c r="F24" s="87">
+      <c r="F24" s="80">
         <f t="shared" si="3"/>
         <v>0.12322866666666665</v>
       </c>
@@ -9129,15 +9136,15 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D29" s="87">
+      <c r="D29" s="80">
         <f>AVERAGE(D26:D28)</f>
         <v>0.92618702622408267</v>
       </c>
-      <c r="E29" s="87">
+      <c r="E29" s="80">
         <f t="shared" ref="E29:F29" si="5">AVERAGE(E26:E28)</f>
         <v>1.210693</v>
       </c>
-      <c r="F29" s="87">
+      <c r="F29" s="80">
         <f t="shared" si="5"/>
         <v>0.12104133333333333</v>
       </c>
@@ -9155,7 +9162,7 @@
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9624,15 +9631,15 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D19" s="87">
+      <c r="D19" s="80">
         <f>AVERAGE(D16:D18)</f>
         <v>0.99809429769996483</v>
       </c>
-      <c r="E19" s="87">
+      <c r="E19" s="80">
         <f t="shared" ref="E19:F19" si="1">AVERAGE(E16:E18)</f>
         <v>1.4148343333333333</v>
       </c>
-      <c r="F19" s="87">
+      <c r="F19" s="80">
         <f t="shared" si="1"/>
         <v>0.10909866666666666</v>
       </c>
@@ -9794,15 +9801,15 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D24" s="87">
+      <c r="D24" s="80">
         <f>AVERAGE(D21:D23)</f>
         <v>0.95492270925696554</v>
       </c>
-      <c r="E24" s="87">
+      <c r="E24" s="80">
         <f t="shared" ref="E24:F24" si="3">AVERAGE(E21:E23)</f>
         <v>1.3452316666666668</v>
       </c>
-      <c r="F24" s="87">
+      <c r="F24" s="80">
         <f t="shared" si="3"/>
         <v>0.10504000000000001</v>
       </c>
@@ -12982,7 +12989,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13612,8 +13619,8 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15062,7 +15069,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15616,7 +15623,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15860,8 +15867,8 @@
         <v>8</v>
       </c>
       <c r="D13" s="39">
-        <f>((E13/$E$4)+(F13/$F$4))/2</f>
-        <v>0.87205893464084328</v>
+        <f>((E13/$E$6)+(F13/$F$6))/2</f>
+        <v>0.98483895964628454</v>
       </c>
       <c r="E13">
         <v>1.1006899999999999</v>
@@ -15909,8 +15916,8 @@
         <v>8</v>
       </c>
       <c r="D14" s="39">
-        <f t="shared" ref="D14:D19" si="0">((E14/$E$4)+(F14/$F$4))/2</f>
-        <v>0.93534775772833501</v>
+        <f t="shared" ref="D14:D15" si="0">((E14/$E$6)+(F14/$F$6))/2</f>
+        <v>1.0573108531312654</v>
       </c>
       <c r="E14">
         <v>1.211651</v>
@@ -15959,7 +15966,7 @@
       </c>
       <c r="D15" s="39">
         <f t="shared" si="0"/>
-        <v>0.90423830390704196</v>
+        <v>1.0213568307624303</v>
       </c>
       <c r="E15">
         <v>1.1468130000000001</v>
@@ -16010,8 +16017,8 @@
         <v>8</v>
       </c>
       <c r="D17" s="39">
-        <f t="shared" si="0"/>
-        <v>1.1398009152848716</v>
+        <f t="shared" ref="D17:D19" si="2">((E17/$E$6)+(F17/$F$6))/2</f>
+        <v>1.2933219667895934</v>
       </c>
       <c r="E17">
         <v>1.6290260000000001</v>
@@ -16055,8 +16062,8 @@
         <v>8</v>
       </c>
       <c r="D18" s="39">
-        <f t="shared" si="0"/>
-        <v>0.91168017071931762</v>
+        <f t="shared" si="2"/>
+        <v>1.0296783310026101</v>
       </c>
       <c r="E18">
         <v>1.1536280000000001</v>
@@ -16100,8 +16107,8 @@
         <v>8</v>
       </c>
       <c r="D19" s="39">
-        <f t="shared" si="0"/>
-        <v>0.91916783865242557</v>
+        <f t="shared" si="2"/>
+        <v>1.038842531489399</v>
       </c>
       <c r="E19">
         <v>1.1851290000000001</v>
@@ -16145,7 +16152,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16672,18 +16679,18 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E4179B-291C-43EA-ACC3-6101CBE12D43}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.453125" customWidth="1"/>
     <col min="5" max="5" width="6.453125" customWidth="1"/>
     <col min="6" max="6" width="6.6328125" bestFit="1" customWidth="1"/>
@@ -16916,8 +16923,8 @@
         <v>8</v>
       </c>
       <c r="D12" s="39">
-        <f>((E12/$D$3)+(E12/$E$3))/2</f>
-        <v>0.99386285021730791</v>
+        <f t="shared" ref="D12:D14" si="0">((E12/$D$5)+(E12/$E$5))/2</f>
+        <v>1.0476125645013723</v>
       </c>
       <c r="E12" s="39">
         <v>1.0941620000000001</v>
@@ -16965,8 +16972,8 @@
         <v>8</v>
       </c>
       <c r="D13" s="39">
-        <f t="shared" ref="D13:D18" si="0">((E13/$D$3)+(E13/$E$3))/2</f>
-        <v>1.0124718571215889</v>
+        <f t="shared" si="0"/>
+        <v>1.0672279766697164</v>
       </c>
       <c r="E13" s="39">
         <v>1.114649</v>
@@ -16999,7 +17006,7 @@
         <v>189</v>
       </c>
       <c r="O13" s="44">
-        <f t="shared" ref="O13:O18" si="1">(32*L13*K13)/B13</f>
+        <f t="shared" ref="O13:O19" si="1">(32*L13*K13)/B13</f>
         <v>14.562664967689088</v>
       </c>
     </row>
@@ -17015,7 +17022,7 @@
       </c>
       <c r="D14" s="39">
         <f t="shared" si="0"/>
-        <v>0.99704564712230126</v>
+        <v>1.0509674922232388</v>
       </c>
       <c r="E14" s="39">
         <v>1.097666</v>
@@ -17053,57 +17060,26 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D15" s="39"/>
+      <c r="D15" s="80">
+        <f>AVERAGE(D12:D14)</f>
+        <v>1.0552693444647758</v>
+      </c>
+      <c r="E15" s="80">
+        <f t="shared" ref="E15:F15" si="2">AVERAGE(E12:E14)</f>
+        <v>1.1021590000000001</v>
+      </c>
+      <c r="F15" s="80">
+        <f t="shared" si="2"/>
+        <v>0.14994399999999999</v>
+      </c>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>287</v>
-      </c>
-      <c r="B16">
-        <v>10987</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="39">
-        <f t="shared" si="0"/>
-        <v>0.99774142977904368</v>
-      </c>
-      <c r="E16">
-        <v>1.0984320000000001</v>
-      </c>
-      <c r="F16" s="39">
-        <v>0.14627200000000001</v>
-      </c>
-      <c r="G16" s="39">
-        <v>18.877072999999999</v>
-      </c>
-      <c r="H16" s="39">
-        <v>0.13535</v>
-      </c>
-      <c r="I16">
-        <v>9.7134999999999999E-2</v>
-      </c>
-      <c r="J16">
-        <v>42</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="L16">
-        <v>100</v>
-      </c>
-      <c r="M16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" t="s">
-        <v>189</v>
-      </c>
-      <c r="O16" s="44">
-        <f t="shared" si="1"/>
-        <v>29.125329935378176</v>
-      </c>
+      <c r="D16" s="39"/>
+      <c r="O16" s="44"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -17116,26 +17092,26 @@
         <v>8</v>
       </c>
       <c r="D17" s="39">
-        <f t="shared" si="0"/>
-        <v>1.0887245496388234</v>
+        <f>((E17/$D$5)+(E17/$E$5))/2</f>
+        <v>1.0517009039341263</v>
       </c>
       <c r="E17">
-        <v>1.1985969999999999</v>
-      </c>
-      <c r="F17">
-        <v>0.15098400000000001</v>
-      </c>
-      <c r="G17">
-        <v>18.510760000000001</v>
-      </c>
-      <c r="H17">
-        <v>0.141536</v>
+        <v>1.0984320000000001</v>
+      </c>
+      <c r="F17" s="39">
+        <v>0.14627200000000001</v>
+      </c>
+      <c r="G17" s="39">
+        <v>18.877072999999999</v>
+      </c>
+      <c r="H17" s="39">
+        <v>0.13535</v>
       </c>
       <c r="I17">
-        <v>0.10037500000000001</v>
+        <v>9.7134999999999999E-2</v>
       </c>
       <c r="J17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
         <v>100</v>
@@ -17165,26 +17141,26 @@
         <v>8</v>
       </c>
       <c r="D18" s="39">
-        <f t="shared" si="0"/>
-        <v>1.0543904913591868</v>
+        <f t="shared" ref="D18:D19" si="3">((E18/$D$5)+(E18/$E$5))/2</f>
+        <v>1.1476045384263496</v>
       </c>
       <c r="E18">
-        <v>1.160798</v>
+        <v>1.1985969999999999</v>
       </c>
       <c r="F18">
-        <v>0.14939</v>
+        <v>0.15098400000000001</v>
       </c>
       <c r="G18">
-        <v>17.372661000000001</v>
+        <v>18.510760000000001</v>
       </c>
       <c r="H18">
-        <v>0.139407</v>
+        <v>0.141536</v>
       </c>
       <c r="I18">
-        <v>9.7533999999999996E-2</v>
+        <v>0.10037500000000001</v>
       </c>
       <c r="J18">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>100</v>
@@ -17201,6 +17177,579 @@
       <c r="O18" s="44">
         <f t="shared" si="1"/>
         <v>29.125329935378176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19">
+        <v>10987</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="39">
+        <f t="shared" si="3"/>
+        <v>1.1114136386093323</v>
+      </c>
+      <c r="E19">
+        <v>1.160798</v>
+      </c>
+      <c r="F19">
+        <v>0.14939</v>
+      </c>
+      <c r="G19">
+        <v>17.372661000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.139407</v>
+      </c>
+      <c r="I19">
+        <v>9.7533999999999996E-2</v>
+      </c>
+      <c r="J19">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" s="44">
+        <f t="shared" si="1"/>
+        <v>29.125329935378176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D20" s="80">
+        <f t="shared" ref="D20:F20" si="4">AVERAGE(D17:D19)</f>
+        <v>1.1035730269899362</v>
+      </c>
+      <c r="E20" s="80">
+        <f t="shared" si="4"/>
+        <v>1.152609</v>
+      </c>
+      <c r="F20" s="80">
+        <f t="shared" si="4"/>
+        <v>0.14888199999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>287</v>
+      </c>
+      <c r="B22">
+        <v>10987</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="39">
+        <f>((E22/$D$5)+(E22/$E$5))/2</f>
+        <v>1.1798669940530651</v>
+      </c>
+      <c r="E22">
+        <v>1.2322930000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.17486299999999999</v>
+      </c>
+      <c r="G22">
+        <v>19.907909</v>
+      </c>
+      <c r="H22">
+        <v>0.16248299999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.114179</v>
+      </c>
+      <c r="J22">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" s="44">
+        <f t="shared" ref="O22:O24" si="5">(32*L22*K22)/B22</f>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B23">
+        <v>10987</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="39">
+        <f t="shared" ref="D23:D24" si="6">((E23/$D$5)+(E23/$E$5))/2</f>
+        <v>1.1948645933211344</v>
+      </c>
+      <c r="E23">
+        <v>1.247957</v>
+      </c>
+      <c r="F23">
+        <v>0.17571899999999999</v>
+      </c>
+      <c r="G23">
+        <v>19.419625</v>
+      </c>
+      <c r="H23">
+        <v>0.163246</v>
+      </c>
+      <c r="I23">
+        <v>0.113192</v>
+      </c>
+      <c r="J23">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" s="44">
+        <f t="shared" si="5"/>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B24">
+        <v>10987</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="39">
+        <f t="shared" si="6"/>
+        <v>1.1274022053979871</v>
+      </c>
+      <c r="E24">
+        <v>1.177497</v>
+      </c>
+      <c r="F24">
+        <v>0.164941</v>
+      </c>
+      <c r="G24">
+        <v>25.232595</v>
+      </c>
+      <c r="H24">
+        <v>0.15296899999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.12441099999999999</v>
+      </c>
+      <c r="J24">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" s="44">
+        <f t="shared" si="5"/>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D25" s="80">
+        <f t="shared" ref="D25:F25" si="7">AVERAGE(D22:D24)</f>
+        <v>1.1673779309240622</v>
+      </c>
+      <c r="E25" s="80">
+        <f t="shared" si="7"/>
+        <v>1.2192489999999998</v>
+      </c>
+      <c r="F25" s="80">
+        <f t="shared" si="7"/>
+        <v>0.17184099999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27">
+        <v>10987</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="39">
+        <f t="shared" ref="D27:D29" si="8">((E27/$D$5)+(E27/$E$5))/2</f>
+        <v>1.1479607122598354</v>
+      </c>
+      <c r="E27">
+        <v>1.198969</v>
+      </c>
+      <c r="F27">
+        <v>0.16498399999999999</v>
+      </c>
+      <c r="G27">
+        <v>19.436844000000001</v>
+      </c>
+      <c r="H27">
+        <v>0.15676100000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.101368</v>
+      </c>
+      <c r="J27">
+        <v>42</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="M27" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" t="s">
+        <v>189</v>
+      </c>
+      <c r="O27" s="44">
+        <f t="shared" ref="O27:O29" si="9">(32*L27*K27)/B27</f>
+        <v>29.125329935378176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B28">
+        <v>10987</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="39">
+        <f t="shared" si="8"/>
+        <v>1.0731756967063131</v>
+      </c>
+      <c r="E28">
+        <v>1.1208610000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.15604799999999999</v>
+      </c>
+      <c r="G28">
+        <v>18.544347999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.14652100000000001</v>
+      </c>
+      <c r="I28">
+        <v>9.8779000000000006E-2</v>
+      </c>
+      <c r="J28">
+        <v>43</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" t="s">
+        <v>189</v>
+      </c>
+      <c r="O28" s="44">
+        <f t="shared" si="9"/>
+        <v>29.125329935378176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B29">
+        <v>10987</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="39">
+        <f t="shared" si="8"/>
+        <v>1.1450002566331201</v>
+      </c>
+      <c r="E29">
+        <v>1.1958770000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.165406</v>
+      </c>
+      <c r="G29">
+        <v>20.539697</v>
+      </c>
+      <c r="H29">
+        <v>0.159413</v>
+      </c>
+      <c r="I29">
+        <v>0.100018</v>
+      </c>
+      <c r="J29">
+        <v>44</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>100</v>
+      </c>
+      <c r="M29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" t="s">
+        <v>189</v>
+      </c>
+      <c r="O29" s="44">
+        <f t="shared" si="9"/>
+        <v>29.125329935378176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D30" s="80">
+        <f t="shared" ref="D30:F30" si="10">AVERAGE(D27:D29)</f>
+        <v>1.1220455551997561</v>
+      </c>
+      <c r="E30" s="80">
+        <f t="shared" si="10"/>
+        <v>1.1719023333333334</v>
+      </c>
+      <c r="F30" s="80">
+        <f t="shared" si="10"/>
+        <v>0.16214599999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>287</v>
+      </c>
+      <c r="B32">
+        <v>10987</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="39">
+        <f t="shared" ref="D32:D34" si="11">((E32/$D$5)+(E32/$E$5))/2</f>
+        <v>1.2767453193046663</v>
+      </c>
+      <c r="E32">
+        <v>1.3334760000000001</v>
+      </c>
+      <c r="F32">
+        <v>0.187944</v>
+      </c>
+      <c r="G32">
+        <v>24.904685000000001</v>
+      </c>
+      <c r="H32">
+        <v>0.17991099999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.125642</v>
+      </c>
+      <c r="J32">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>344</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+      <c r="M32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" t="s">
+        <v>189</v>
+      </c>
+      <c r="O32" s="44">
+        <f t="shared" ref="O32:O37" si="12">(32*L32*K32)/B32</f>
+        <v>100.19113497770093</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B33">
+        <v>10987</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="39">
+        <f t="shared" si="11"/>
+        <v>1.1933575567246111</v>
+      </c>
+      <c r="E33">
+        <v>1.246383</v>
+      </c>
+      <c r="F33">
+        <v>0.17480299999999999</v>
+      </c>
+      <c r="G33">
+        <v>24.467533</v>
+      </c>
+      <c r="H33">
+        <v>0.162552</v>
+      </c>
+      <c r="I33">
+        <v>0.120666</v>
+      </c>
+      <c r="J33">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>344</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" t="s">
+        <v>189</v>
+      </c>
+      <c r="O33" s="44">
+        <f t="shared" si="12"/>
+        <v>100.19113497770093</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34">
+        <v>10987</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" t="s">
+        <v>189</v>
+      </c>
+      <c r="O34" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D35" s="39"/>
+      <c r="O35" s="44"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37">
+        <v>10987</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="L37">
+        <v>200</v>
+      </c>
+      <c r="M37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" t="s">
+        <v>189</v>
+      </c>
+      <c r="O37" s="44">
+        <f t="shared" si="12"/>
+        <v>58.250659870756351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38">
+        <v>10987</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>287</v>
+      </c>
+      <c r="B39">
+        <v>10987</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -17211,32 +17760,32 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B233DD3-5E5F-4814-A1F2-256959227989}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.08984375" customWidth="1"/>
     <col min="9" max="9" width="7.7265625" customWidth="1"/>
     <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6328125" customWidth="1"/>
-    <col min="15" max="15" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6328125" customWidth="1"/>
+    <col min="16" max="16" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -17274,16 +17823,19 @@
         <v>260</v>
       </c>
       <c r="M1" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>286</v>
       </c>
@@ -17303,7 +17855,7 @@
         <v>6.1571000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>286</v>
       </c>
@@ -17323,7 +17875,7 @@
         <v>5.9767000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>286</v>
       </c>
@@ -17343,7 +17895,7 @@
         <v>5.3571999999999995E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>286</v>
       </c>
@@ -17363,7 +17915,7 @@
         <v>5.0320000000000004E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>286</v>
       </c>
@@ -17383,7 +17935,7 @@
         <v>5.1798999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>286</v>
       </c>
@@ -17403,7 +17955,7 @@
         <v>4.9112000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>286</v>
       </c>
@@ -17423,7 +17975,7 @@
         <v>4.9326999999999996E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>286</v>
       </c>
@@ -17443,7 +17995,7 @@
         <v>4.9023999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>286</v>
       </c>
@@ -17454,8 +18006,8 @@
         <v>8</v>
       </c>
       <c r="D13" s="39">
-        <f>((E13/$E$3)+(F13/$F$3))/2</f>
-        <v>0.86850562311294299</v>
+        <f t="shared" ref="D13:D15" si="0">((E13/$E$5)+(F13/$F$5))/2</f>
+        <v>0.99813967310386076</v>
       </c>
       <c r="E13" s="39">
         <v>1.0167649999999999</v>
@@ -17481,18 +18033,21 @@
       <c r="L13">
         <v>50</v>
       </c>
-      <c r="M13" t="s">
-        <v>40</v>
+      <c r="M13">
+        <v>32</v>
       </c>
       <c r="N13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" t="s">
         <v>189</v>
       </c>
-      <c r="O13" s="44">
-        <f>(32*L13*K13)/B13</f>
+      <c r="P13" s="44">
+        <f>(M13*L13*K13)/B13</f>
         <v>27.932960893854748</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>286</v>
       </c>
@@ -17503,8 +18058,8 @@
         <v>8</v>
       </c>
       <c r="D14" s="39">
-        <f t="shared" ref="D14:D20" si="0">((E14/$E$3)+(F14/$F$3))/2</f>
-        <v>0.84357779287342716</v>
+        <f t="shared" si="0"/>
+        <v>0.9694909828303373</v>
       </c>
       <c r="E14" s="39">
         <v>0.98997199999999996</v>
@@ -17530,18 +18085,21 @@
       <c r="L14">
         <v>50</v>
       </c>
-      <c r="M14" t="s">
-        <v>40</v>
+      <c r="M14">
+        <v>32</v>
       </c>
       <c r="N14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" t="s">
         <v>189</v>
       </c>
-      <c r="O14" s="44">
-        <f t="shared" ref="O14:O20" si="1">(32*L14*K14)/B14</f>
+      <c r="P14" s="44">
+        <f t="shared" ref="P14:P25" si="1">(M14*L14*K14)/B14</f>
         <v>27.932960893854748</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>286</v>
       </c>
@@ -17553,7 +18111,7 @@
       </c>
       <c r="D15" s="39">
         <f t="shared" si="0"/>
-        <v>0.84404835091105213</v>
+        <v>0.97003133270728015</v>
       </c>
       <c r="E15" s="39">
         <v>1.000515</v>
@@ -17579,40 +18137,43 @@
       <c r="L15">
         <v>50</v>
       </c>
-      <c r="M15" t="s">
-        <v>40</v>
+      <c r="M15">
+        <v>32</v>
       </c>
       <c r="N15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
         <v>189</v>
       </c>
-      <c r="O15" s="44">
+      <c r="P15" s="44">
         <f t="shared" si="1"/>
         <v>27.932960893854748</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D16" s="87">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D16" s="80">
         <f>AVERAGE(D13:D15)</f>
-        <v>0.85204392229914072</v>
-      </c>
-      <c r="E16" s="87">
+        <v>0.97922066288049281</v>
+      </c>
+      <c r="E16" s="80">
         <f t="shared" ref="E16:F16" si="2">AVERAGE(E13:E15)</f>
         <v>1.0024173333333333</v>
       </c>
-      <c r="F16" s="87">
+      <c r="F16" s="80">
         <f t="shared" si="2"/>
         <v>5.2443999999999998E-2</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
-      <c r="O16" s="44"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16" s="44"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D17" s="39"/>
-      <c r="O17" s="44"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17" s="44"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>286</v>
       </c>
@@ -17623,8 +18184,8 @@
         <v>8</v>
       </c>
       <c r="D18" s="39">
-        <f t="shared" si="0"/>
-        <v>0.82078479159063444</v>
+        <f t="shared" ref="D18:D20" si="3">((E18/$E$5)+(F18/$F$5))/2</f>
+        <v>0.94329623778130678</v>
       </c>
       <c r="E18" s="39">
         <v>0.95511599999999997</v>
@@ -17650,18 +18211,21 @@
       <c r="L18">
         <v>100</v>
       </c>
-      <c r="M18" t="s">
-        <v>40</v>
+      <c r="M18">
+        <v>32</v>
       </c>
       <c r="N18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" t="s">
         <v>189</v>
       </c>
-      <c r="O18" s="44">
+      <c r="P18" s="44">
         <f t="shared" si="1"/>
         <v>55.865921787709496</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>286</v>
       </c>
@@ -17672,8 +18236,8 @@
         <v>8</v>
       </c>
       <c r="D19" s="39">
-        <f t="shared" si="0"/>
-        <v>0.81560085864526011</v>
+        <f t="shared" si="3"/>
+        <v>0.93733790089914371</v>
       </c>
       <c r="E19" s="39">
         <v>0.96355199999999996</v>
@@ -17699,18 +18263,21 @@
       <c r="L19">
         <v>100</v>
       </c>
-      <c r="M19" t="s">
-        <v>40</v>
+      <c r="M19">
+        <v>32</v>
       </c>
       <c r="N19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" t="s">
         <v>189</v>
       </c>
-      <c r="O19" s="44">
+      <c r="P19" s="44">
         <f t="shared" si="1"/>
         <v>55.865921787709496</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>286</v>
       </c>
@@ -17721,8 +18288,8 @@
         <v>8</v>
       </c>
       <c r="D20" s="39">
-        <f t="shared" si="0"/>
-        <v>0.81708692027719287</v>
+        <f t="shared" si="3"/>
+        <v>0.93904626020514426</v>
       </c>
       <c r="E20" s="39">
         <v>0.954345</v>
@@ -17748,29 +18315,716 @@
       <c r="L20">
         <v>100</v>
       </c>
-      <c r="M20" t="s">
-        <v>40</v>
+      <c r="M20">
+        <v>32</v>
       </c>
       <c r="N20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" t="s">
         <v>189</v>
       </c>
-      <c r="O20" s="44">
+      <c r="P20" s="44">
         <f t="shared" si="1"/>
         <v>55.865921787709496</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D21" s="87">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D21" s="80">
         <f>AVERAGE(D18:D20)</f>
-        <v>0.81782419017102914</v>
-      </c>
-      <c r="E21" s="87">
-        <f t="shared" ref="E21:F21" si="3">AVERAGE(E18:E20)</f>
+        <v>0.93989346629519821</v>
+      </c>
+      <c r="E21" s="80">
+        <f t="shared" ref="E21:F21" si="4">AVERAGE(E18:E20)</f>
         <v>0.95767099999999994</v>
       </c>
-      <c r="F21" s="87">
-        <f t="shared" si="3"/>
+      <c r="F21" s="80">
+        <f t="shared" si="4"/>
         <v>5.0572666666666662E-2</v>
+      </c>
+      <c r="P21" s="44"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P22" s="44"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B23">
+        <v>5728</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="39">
+        <f>((E23/$E$5)+(F23/$F$5))/2</f>
+        <v>1.0264748382583599</v>
+      </c>
+      <c r="E23">
+        <v>1.046565</v>
+      </c>
+      <c r="F23">
+        <v>5.5196000000000002E-2</v>
+      </c>
+      <c r="G23">
+        <v>14.441508000000001</v>
+      </c>
+      <c r="H23">
+        <v>5.4916E-2</v>
+      </c>
+      <c r="I23">
+        <v>3.1238999999999999E-2</v>
+      </c>
+      <c r="J23">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" t="s">
+        <v>189</v>
+      </c>
+      <c r="P23" s="44">
+        <f t="shared" si="1"/>
+        <v>27.932960893854748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24">
+        <v>5728</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="39">
+        <f>((E24/$E$5)+(F24/$F$5))/2</f>
+        <v>0.98684391649206815</v>
+      </c>
+      <c r="E24">
+        <v>1.0167980000000001</v>
+      </c>
+      <c r="F24">
+        <v>5.2507999999999999E-2</v>
+      </c>
+      <c r="G24">
+        <v>13.598958</v>
+      </c>
+      <c r="H24">
+        <v>5.2236999999999999E-2</v>
+      </c>
+      <c r="I24">
+        <v>3.0720999999999998E-2</v>
+      </c>
+      <c r="J24">
+        <v>43</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24">
+        <v>32</v>
+      </c>
+      <c r="N24" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" t="s">
+        <v>189</v>
+      </c>
+      <c r="P24" s="44">
+        <f t="shared" si="1"/>
+        <v>27.932960893854748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>286</v>
+      </c>
+      <c r="B25">
+        <v>5728</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="39">
+        <f>((E25/$E$5)+(F25/$F$5))/2</f>
+        <v>0.99809186024405161</v>
+      </c>
+      <c r="E25">
+        <v>1.0094270000000001</v>
+      </c>
+      <c r="F25">
+        <v>5.4099000000000001E-2</v>
+      </c>
+      <c r="G25">
+        <v>14.465218</v>
+      </c>
+      <c r="H25">
+        <v>5.3664000000000003E-2</v>
+      </c>
+      <c r="I25">
+        <v>3.1007E-2</v>
+      </c>
+      <c r="J25">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <v>50</v>
+      </c>
+      <c r="M25">
+        <v>32</v>
+      </c>
+      <c r="N25" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" t="s">
+        <v>189</v>
+      </c>
+      <c r="P25" s="44">
+        <f t="shared" si="1"/>
+        <v>27.932960893854748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D26" s="80">
+        <f>AVERAGE(D23:D25)</f>
+        <v>1.0038035383314934</v>
+      </c>
+      <c r="E26" s="80">
+        <f t="shared" ref="E26:F26" si="5">AVERAGE(E23:E25)</f>
+        <v>1.0242633333333333</v>
+      </c>
+      <c r="F26" s="80">
+        <f t="shared" si="5"/>
+        <v>5.3934333333333334E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28">
+        <v>5728</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="39">
+        <f t="shared" ref="D28:D30" si="6">((E28/$E$5)+(F28/$F$5))/2</f>
+        <v>0.93084259489740995</v>
+      </c>
+      <c r="E28">
+        <v>0.949627</v>
+      </c>
+      <c r="F28">
+        <v>5.0023999999999999E-2</v>
+      </c>
+      <c r="G28">
+        <v>14.214729</v>
+      </c>
+      <c r="H28">
+        <v>4.9217999999999998E-2</v>
+      </c>
+      <c r="I28">
+        <v>2.7799000000000001E-2</v>
+      </c>
+      <c r="J28">
+        <v>42</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+      <c r="M28">
+        <v>32</v>
+      </c>
+      <c r="N28" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" t="s">
+        <v>189</v>
+      </c>
+      <c r="P28" s="44">
+        <f t="shared" ref="P28:P30" si="7">(M28*L28*K28)/B28</f>
+        <v>55.865921787709496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29">
+        <v>5728</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="39">
+        <f t="shared" si="6"/>
+        <v>0.92965207812977124</v>
+      </c>
+      <c r="E29">
+        <v>0.944554</v>
+      </c>
+      <c r="F29">
+        <v>5.0161999999999998E-2</v>
+      </c>
+      <c r="G29">
+        <v>13.504451</v>
+      </c>
+      <c r="H29">
+        <v>4.9356999999999998E-2</v>
+      </c>
+      <c r="I29">
+        <v>2.8638E-2</v>
+      </c>
+      <c r="J29">
+        <v>43</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>100</v>
+      </c>
+      <c r="M29">
+        <v>32</v>
+      </c>
+      <c r="N29" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" t="s">
+        <v>189</v>
+      </c>
+      <c r="P29" s="44">
+        <f t="shared" si="7"/>
+        <v>55.865921787709496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30">
+        <v>5728</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="39">
+        <f t="shared" si="6"/>
+        <v>0.95310550741266331</v>
+      </c>
+      <c r="E30">
+        <v>0.98507</v>
+      </c>
+      <c r="F30">
+        <v>5.0554000000000002E-2</v>
+      </c>
+      <c r="G30">
+        <v>14.790940000000001</v>
+      </c>
+      <c r="H30">
+        <v>4.9703999999999998E-2</v>
+      </c>
+      <c r="I30">
+        <v>2.93E-2</v>
+      </c>
+      <c r="J30">
+        <v>44</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+      <c r="M30">
+        <v>32</v>
+      </c>
+      <c r="N30" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" t="s">
+        <v>189</v>
+      </c>
+      <c r="P30" s="44">
+        <f t="shared" si="7"/>
+        <v>55.865921787709496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D31" s="80">
+        <f>AVERAGE(D28:D30)</f>
+        <v>0.93786672681328154</v>
+      </c>
+      <c r="E31" s="80">
+        <f t="shared" ref="E31:F31" si="8">AVERAGE(E28:E30)</f>
+        <v>0.95975033333333337</v>
+      </c>
+      <c r="F31" s="80">
+        <f t="shared" si="8"/>
+        <v>5.0246666666666662E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33">
+        <v>5728</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="39">
+        <f t="shared" ref="D33:D35" si="9">((E33/$E$5)+(F33/$F$5))/2</f>
+        <v>0.93343082680624678</v>
+      </c>
+      <c r="E33">
+        <v>0.94852499999999995</v>
+      </c>
+      <c r="F33">
+        <v>5.0359000000000001E-2</v>
+      </c>
+      <c r="G33">
+        <v>13.586245</v>
+      </c>
+      <c r="H33">
+        <v>5.0152000000000002E-2</v>
+      </c>
+      <c r="I33">
+        <v>2.8164999999999999E-2</v>
+      </c>
+      <c r="J33">
+        <v>42</v>
+      </c>
+      <c r="K33">
+        <v>179</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="M33">
+        <v>32</v>
+      </c>
+      <c r="N33" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" t="s">
+        <v>189</v>
+      </c>
+      <c r="P33" s="44">
+        <f t="shared" ref="P33:P35" si="10">(M33*L33*K33)/B33</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34">
+        <v>5728</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="39">
+        <f t="shared" si="9"/>
+        <v>0.94705603847931963</v>
+      </c>
+      <c r="E34">
+        <v>0.96011800000000003</v>
+      </c>
+      <c r="F34">
+        <v>5.1212000000000001E-2</v>
+      </c>
+      <c r="G34">
+        <v>14.171642</v>
+      </c>
+      <c r="H34">
+        <v>5.0687000000000003E-2</v>
+      </c>
+      <c r="I34">
+        <v>2.9760999999999999E-2</v>
+      </c>
+      <c r="J34">
+        <v>43</v>
+      </c>
+      <c r="K34">
+        <v>179</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
+      </c>
+      <c r="M34">
+        <v>32</v>
+      </c>
+      <c r="N34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" t="s">
+        <v>189</v>
+      </c>
+      <c r="P34" s="44">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35">
+        <v>5728</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="39">
+        <f t="shared" si="9"/>
+        <v>0.95937143685515225</v>
+      </c>
+      <c r="E35">
+        <v>0.98733099999999996</v>
+      </c>
+      <c r="F35">
+        <v>5.1107E-2</v>
+      </c>
+      <c r="G35">
+        <v>15.097863</v>
+      </c>
+      <c r="H35">
+        <v>5.0362999999999998E-2</v>
+      </c>
+      <c r="I35">
+        <v>2.9975999999999999E-2</v>
+      </c>
+      <c r="J35">
+        <v>44</v>
+      </c>
+      <c r="K35">
+        <v>179</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+      <c r="M35">
+        <v>32</v>
+      </c>
+      <c r="N35" t="s">
+        <v>40</v>
+      </c>
+      <c r="O35" t="s">
+        <v>189</v>
+      </c>
+      <c r="P35" s="44">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D36" s="80">
+        <f>AVERAGE(D33:D35)</f>
+        <v>0.94661943404690618</v>
+      </c>
+      <c r="E36" s="80">
+        <f t="shared" ref="E36:F36" si="11">AVERAGE(E33:E35)</f>
+        <v>0.96532466666666661</v>
+      </c>
+      <c r="F36" s="80">
+        <f t="shared" si="11"/>
+        <v>5.0892666666666662E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38">
+        <v>5728</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="39">
+        <f>((E38/$E$5)+(F38/$F$5))/2</f>
+        <v>0.97493482776311402</v>
+      </c>
+      <c r="E38">
+        <v>1.0025090000000001</v>
+      </c>
+      <c r="F38">
+        <v>5.1979999999999998E-2</v>
+      </c>
+      <c r="G38">
+        <v>14.3985</v>
+      </c>
+      <c r="H38">
+        <v>5.1258999999999999E-2</v>
+      </c>
+      <c r="I38">
+        <v>2.9846000000000001E-2</v>
+      </c>
+      <c r="J38">
+        <v>42</v>
+      </c>
+      <c r="K38">
+        <v>100</v>
+      </c>
+      <c r="L38">
+        <v>100</v>
+      </c>
+      <c r="M38">
+        <v>64</v>
+      </c>
+      <c r="N38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" t="s">
+        <v>189</v>
+      </c>
+      <c r="P38" s="44">
+        <f t="shared" ref="P38:P40" si="12">(M38*L38*K38)/B38</f>
+        <v>111.73184357541899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>286</v>
+      </c>
+      <c r="B39">
+        <v>5728</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="39">
+        <f>((E39/$E$5)+(F39/$F$5))/2</f>
+        <v>1.0007583797993524</v>
+      </c>
+      <c r="E39">
+        <v>1.008256</v>
+      </c>
+      <c r="F39">
+        <v>5.4446000000000001E-2</v>
+      </c>
+      <c r="G39">
+        <v>14.431642999999999</v>
+      </c>
+      <c r="H39">
+        <v>5.4231000000000001E-2</v>
+      </c>
+      <c r="I39">
+        <v>2.8705999999999999E-2</v>
+      </c>
+      <c r="J39">
+        <v>43</v>
+      </c>
+      <c r="K39">
+        <v>100</v>
+      </c>
+      <c r="L39">
+        <v>100</v>
+      </c>
+      <c r="M39">
+        <v>64</v>
+      </c>
+      <c r="N39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O39" t="s">
+        <v>189</v>
+      </c>
+      <c r="P39" s="44">
+        <f t="shared" si="12"/>
+        <v>111.73184357541899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>286</v>
+      </c>
+      <c r="B40">
+        <v>5728</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="39">
+        <f>((E40/$E$5)+(F40/$F$5))/2</f>
+        <v>0.98111594337248187</v>
+      </c>
+      <c r="E40">
+        <v>0.99638199999999999</v>
+      </c>
+      <c r="F40">
+        <v>5.2963000000000003E-2</v>
+      </c>
+      <c r="G40">
+        <v>14.555837</v>
+      </c>
+      <c r="H40">
+        <v>5.2306999999999999E-2</v>
+      </c>
+      <c r="I40">
+        <v>2.9583000000000002E-2</v>
+      </c>
+      <c r="J40">
+        <v>44</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40">
+        <v>100</v>
+      </c>
+      <c r="M40">
+        <v>64</v>
+      </c>
+      <c r="N40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O40" t="s">
+        <v>189</v>
+      </c>
+      <c r="P40" s="44">
+        <f t="shared" si="12"/>
+        <v>111.73184357541899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D41" s="80">
+        <f>AVERAGE(D38:D40)</f>
+        <v>0.98560305031164941</v>
+      </c>
+      <c r="E41" s="80">
+        <f t="shared" ref="E41:F41" si="13">AVERAGE(E38:E40)</f>
+        <v>1.0023823333333335</v>
+      </c>
+      <c r="F41" s="80">
+        <f t="shared" si="13"/>
+        <v>5.3129666666666665E-2</v>
       </c>
     </row>
   </sheetData>
@@ -17781,17 +19035,18 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EC5186-3C9F-4963-A58C-8828665F06F5}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
@@ -17799,13 +19054,15 @@
     <col min="8" max="8" width="8.6328125" customWidth="1"/>
     <col min="9" max="9" width="7.26953125" customWidth="1"/>
     <col min="10" max="10" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.90625" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.36328125" customWidth="1"/>
-    <col min="13" max="13" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1796875" customWidth="1"/>
+    <col min="13" max="13" width="5.90625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.54296875" customWidth="1"/>
+    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -17843,16 +19100,19 @@
         <v>260</v>
       </c>
       <c r="M1" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>290</v>
       </c>
@@ -17872,7 +19132,7 @@
         <v>0.157864</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>290</v>
       </c>
@@ -17892,7 +19152,7 @@
         <v>0.14632999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>290</v>
       </c>
@@ -17912,7 +19172,7 @@
         <v>0.14412800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>290</v>
       </c>
@@ -17932,7 +19192,7 @@
         <v>0.13214000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>290</v>
       </c>
@@ -17952,7 +19212,7 @@
         <v>0.144701</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>290</v>
       </c>
@@ -17972,7 +19232,7 @@
         <v>0.130769</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>290</v>
       </c>
@@ -17992,7 +19252,7 @@
         <v>0.13028600000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>290</v>
       </c>
@@ -18012,7 +19272,7 @@
         <v>0.13200699999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>290</v>
       </c>
@@ -18050,18 +19310,21 @@
       <c r="L12">
         <v>50</v>
       </c>
-      <c r="M12" t="s">
-        <v>40</v>
+      <c r="M12" s="1">
+        <v>32</v>
       </c>
       <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" t="s">
         <v>189</v>
       </c>
-      <c r="O12" s="44">
-        <f>(32*L12*K12)/B12</f>
+      <c r="P12" s="44">
+        <f>(M12*L12*K12)/B12</f>
         <v>577.61732851985562</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>290</v>
       </c>
@@ -18072,7 +19335,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="39">
-        <f t="shared" ref="D13:D18" si="0">((E13/$E$5)+(F13/$F$5))/2</f>
+        <f t="shared" ref="D13:D19" si="0">((E13/$E$5)+(F13/$F$5))/2</f>
         <v>0.98889965417225678</v>
       </c>
       <c r="E13" s="39">
@@ -18099,18 +19362,21 @@
       <c r="L13">
         <v>50</v>
       </c>
-      <c r="M13" t="s">
-        <v>40</v>
+      <c r="M13" s="1">
+        <v>32</v>
       </c>
       <c r="N13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" t="s">
         <v>189</v>
       </c>
-      <c r="O13" s="44">
-        <f t="shared" ref="O13:O18" si="1">(32*L13*K13)/B13</f>
+      <c r="P13" s="44">
+        <f t="shared" ref="P13:P24" si="1">(M13*L13*K13)/B13</f>
         <v>577.61732851985562</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -18148,174 +19414,746 @@
       <c r="L14">
         <v>50</v>
       </c>
-      <c r="M14" t="s">
-        <v>40</v>
+      <c r="M14" s="1">
+        <v>32</v>
       </c>
       <c r="N14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" t="s">
         <v>189</v>
       </c>
-      <c r="O14" s="44">
+      <c r="P14" s="44">
         <f t="shared" si="1"/>
         <v>577.61732851985562</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D15" s="80">
+        <f>AVERAGE(D12:D14)</f>
+        <v>0.98561688222270849</v>
+      </c>
+      <c r="E15" s="80">
+        <f>AVERAGE(E12:E14)</f>
+        <v>1.0365473333333333</v>
+      </c>
+      <c r="F15" s="80">
+        <f t="shared" ref="F15" si="2">AVERAGE(F12:F14)</f>
+        <v>0.13553166666666669</v>
+      </c>
+      <c r="G15" s="89"/>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="P15" s="44"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="P16" s="44"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>290</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>277</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D17" s="39">
         <f t="shared" si="0"/>
         <v>1.0183502863883409</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E17" s="39">
         <v>1.090198</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F17" s="39">
         <v>0.13727700000000001</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G17" s="39">
         <v>14.205</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H17" s="39">
         <v>0.12031</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I17" s="39">
         <v>6.1123999999999998E-2</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>42</v>
       </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="L16">
-        <v>100</v>
-      </c>
-      <c r="M16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1">
+        <v>32</v>
+      </c>
+      <c r="N17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" t="s">
         <v>189</v>
       </c>
-      <c r="O16" s="44">
+      <c r="P17" s="44">
         <f t="shared" si="1"/>
         <v>1155.2346570397112</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>290</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>277</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D18" s="39">
         <f t="shared" si="0"/>
         <v>1.0113051489316529</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E18" s="39">
         <v>1.087053</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F18" s="39">
         <v>0.13569700000000001</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G18" s="39">
         <v>15.464643000000001</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H18" s="39">
         <v>0.11831999999999999</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I18" s="39">
         <v>6.7688999999999999E-2</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>43</v>
       </c>
-      <c r="K17">
-        <v>100</v>
-      </c>
-      <c r="L17">
-        <v>100</v>
-      </c>
-      <c r="M17" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1">
+        <v>32</v>
+      </c>
+      <c r="N18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" t="s">
         <v>189</v>
       </c>
-      <c r="O17" s="44">
+      <c r="P18" s="44">
         <f t="shared" si="1"/>
         <v>1155.2346570397112</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>290</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>277</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D19" s="39">
         <f t="shared" si="0"/>
         <v>0.96522390571605277</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E19" s="39">
         <v>1.0010810000000001</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F19" s="39">
         <v>0.134737</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G19" s="39">
         <v>13.484724</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H19" s="39">
         <v>0.11590399999999999</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I19" s="39">
         <v>7.0889999999999995E-2</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>44</v>
       </c>
-      <c r="K18">
-        <v>100</v>
-      </c>
-      <c r="L18">
-        <v>100</v>
-      </c>
-      <c r="M18" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" t="s">
         <v>189</v>
       </c>
-      <c r="O18" s="44">
+      <c r="P19" s="44">
         <f t="shared" si="1"/>
         <v>1155.2346570397112</v>
       </c>
     </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D20" s="80">
+        <f>AVERAGE(D17:D19)</f>
+        <v>0.99829311367868223</v>
+      </c>
+      <c r="E20" s="80">
+        <f>AVERAGE(E17:E19)</f>
+        <v>1.0594440000000001</v>
+      </c>
+      <c r="F20" s="80">
+        <f t="shared" ref="F20" si="3">AVERAGE(F17:F19)</f>
+        <v>0.13590366666666667</v>
+      </c>
+      <c r="G20" s="89"/>
+      <c r="P20" s="44"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P21" s="44"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B22">
+        <v>277</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="39">
+        <f t="shared" ref="D22:D24" si="4">((E22/$E$5)+(F22/$F$5))/2</f>
+        <v>1.07645531432141</v>
+      </c>
+      <c r="E22" s="39">
+        <v>1.1372340000000001</v>
+      </c>
+      <c r="F22" s="39">
+        <v>0.147284</v>
+      </c>
+      <c r="G22" s="39">
+        <v>27.783618000000001</v>
+      </c>
+      <c r="H22" s="39">
+        <v>0.12789400000000001</v>
+      </c>
+      <c r="I22" s="39">
+        <v>0.10034</v>
+      </c>
+      <c r="J22">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22" s="1">
+        <v>32</v>
+      </c>
+      <c r="N22" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" t="s">
+        <v>189</v>
+      </c>
+      <c r="P22" s="44">
+        <f t="shared" si="1"/>
+        <v>577.61732851985562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23">
+        <v>277</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="39">
+        <f t="shared" si="4"/>
+        <v>1.0431418348754362</v>
+      </c>
+      <c r="E23" s="39">
+        <v>1.1160129999999999</v>
+      </c>
+      <c r="F23" s="39">
+        <v>0.14072299999999999</v>
+      </c>
+      <c r="G23" s="39">
+        <v>23.749433</v>
+      </c>
+      <c r="H23" s="39">
+        <v>0.12551000000000001</v>
+      </c>
+      <c r="I23" s="39">
+        <v>8.3919999999999995E-2</v>
+      </c>
+      <c r="J23">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23" s="1">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" t="s">
+        <v>189</v>
+      </c>
+      <c r="P23" s="44">
+        <f t="shared" si="1"/>
+        <v>577.61732851985562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24">
+        <v>277</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="39">
+        <f t="shared" si="4"/>
+        <v>0.93908496117987394</v>
+      </c>
+      <c r="E24" s="39">
+        <v>0.96970999999999996</v>
+      </c>
+      <c r="F24" s="39">
+        <v>0.13169900000000001</v>
+      </c>
+      <c r="G24" s="39">
+        <v>20.010037000000001</v>
+      </c>
+      <c r="H24" s="39">
+        <v>0.108365</v>
+      </c>
+      <c r="I24" s="39">
+        <v>6.9144999999999998E-2</v>
+      </c>
+      <c r="J24">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24" s="1">
+        <v>32</v>
+      </c>
+      <c r="N24" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" t="s">
+        <v>189</v>
+      </c>
+      <c r="P24" s="44">
+        <f t="shared" si="1"/>
+        <v>577.61732851985562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D25" s="80">
+        <f>AVERAGE(D22:D24)</f>
+        <v>1.0195607034589067</v>
+      </c>
+      <c r="E25" s="80">
+        <f>AVERAGE(E22:E24)</f>
+        <v>1.074319</v>
+      </c>
+      <c r="F25" s="80">
+        <f t="shared" ref="F25" si="5">AVERAGE(F22:F24)</f>
+        <v>0.139902</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>290</v>
+      </c>
+      <c r="B27">
+        <v>277</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="39">
+        <f t="shared" ref="D27:D29" si="6">((E27/$E$5)+(F27/$F$5))/2</f>
+        <v>1.0726854591597896</v>
+      </c>
+      <c r="E27" s="39">
+        <v>1.1441079999999999</v>
+      </c>
+      <c r="F27" s="39">
+        <v>0.14521200000000001</v>
+      </c>
+      <c r="G27" s="39">
+        <v>31.557065999999999</v>
+      </c>
+      <c r="H27" s="39">
+        <v>0.12953300000000001</v>
+      </c>
+      <c r="I27" s="39">
+        <v>0.111709</v>
+      </c>
+      <c r="J27">
+        <v>42</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="M27" s="1">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="44">
+        <f t="shared" ref="P27:P29" si="7">(M27*L27*K27)/B27</f>
+        <v>1155.2346570397112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B28">
+        <v>277</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="39">
+        <f t="shared" si="6"/>
+        <v>1.0351040032899648</v>
+      </c>
+      <c r="E28" s="39">
+        <v>1.0805800000000001</v>
+      </c>
+      <c r="F28" s="39">
+        <v>0.143485</v>
+      </c>
+      <c r="G28" s="39">
+        <v>26.358661000000001</v>
+      </c>
+      <c r="H28" s="39">
+        <v>0.118878</v>
+      </c>
+      <c r="I28" s="39">
+        <v>8.6308999999999997E-2</v>
+      </c>
+      <c r="J28">
+        <v>43</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+      <c r="M28" s="1">
+        <v>32</v>
+      </c>
+      <c r="N28" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" t="s">
+        <v>189</v>
+      </c>
+      <c r="P28" s="44">
+        <f t="shared" si="7"/>
+        <v>1155.2346570397112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29">
+        <v>277</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="39">
+        <f t="shared" si="6"/>
+        <v>1.0067012139273073</v>
+      </c>
+      <c r="E29" s="39">
+        <v>1.0687599999999999</v>
+      </c>
+      <c r="F29" s="39">
+        <v>0.136992</v>
+      </c>
+      <c r="G29" s="39">
+        <v>25.671219000000001</v>
+      </c>
+      <c r="H29" s="39">
+        <v>0.11576500000000001</v>
+      </c>
+      <c r="I29" s="39">
+        <v>7.9544000000000004E-2</v>
+      </c>
+      <c r="J29">
+        <v>44</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>100</v>
+      </c>
+      <c r="M29" s="1">
+        <v>32</v>
+      </c>
+      <c r="N29" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" t="s">
+        <v>189</v>
+      </c>
+      <c r="P29" s="44">
+        <f t="shared" si="7"/>
+        <v>1155.2346570397112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D30" s="80">
+        <f>AVERAGE(D27:D29)</f>
+        <v>1.0381635587923539</v>
+      </c>
+      <c r="E30" s="80">
+        <f>AVERAGE(E27:E29)</f>
+        <v>1.0978159999999999</v>
+      </c>
+      <c r="F30" s="80">
+        <f t="shared" ref="F30" si="8">AVERAGE(F27:F29)</f>
+        <v>0.14189633333333332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32">
+        <v>277</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="39">
+        <f t="shared" ref="D32:D34" si="9">((E32/$E$5)+(F32/$F$5))/2</f>
+        <v>1.0338731800806047</v>
+      </c>
+      <c r="E32">
+        <v>1.0961110000000001</v>
+      </c>
+      <c r="F32">
+        <v>0.140904</v>
+      </c>
+      <c r="G32">
+        <v>28.650158999999999</v>
+      </c>
+      <c r="H32">
+        <v>0.121949</v>
+      </c>
+      <c r="I32">
+        <v>9.5982999999999999E-2</v>
+      </c>
+      <c r="J32">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+      <c r="M32" s="1">
+        <v>64</v>
+      </c>
+      <c r="N32" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" t="s">
+        <v>189</v>
+      </c>
+      <c r="P32" s="44">
+        <f t="shared" ref="P32:P34" si="10">(M32*L32*K32)/B32</f>
+        <v>2310.4693140794225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33">
+        <v>277</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="39">
+        <f t="shared" si="9"/>
+        <v>1.130126770871883</v>
+      </c>
+      <c r="E33">
+        <v>1.2138709999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.15176999999999999</v>
+      </c>
+      <c r="G33">
+        <v>32.522351</v>
+      </c>
+      <c r="H33">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.121309</v>
+      </c>
+      <c r="J33">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="M33" s="1">
+        <v>64</v>
+      </c>
+      <c r="N33" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" t="s">
+        <v>189</v>
+      </c>
+      <c r="P33" s="44">
+        <f t="shared" si="10"/>
+        <v>2310.4693140794225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34">
+        <v>277</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="39">
+        <f t="shared" si="9"/>
+        <v>1.0248172213957778</v>
+      </c>
+      <c r="E34">
+        <v>1.0647139999999999</v>
+      </c>
+      <c r="F34">
+        <v>0.142794</v>
+      </c>
+      <c r="G34">
+        <v>25.879951999999999</v>
+      </c>
+      <c r="H34">
+        <v>0.114981</v>
+      </c>
+      <c r="I34">
+        <v>8.2635E-2</v>
+      </c>
+      <c r="J34">
+        <v>44</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
+      </c>
+      <c r="M34" s="1">
+        <v>64</v>
+      </c>
+      <c r="N34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" t="s">
+        <v>189</v>
+      </c>
+      <c r="P34" s="44">
+        <f t="shared" si="10"/>
+        <v>2310.4693140794225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D35" s="80">
+        <f>AVERAGE(D32:D34)</f>
+        <v>1.062939057449422</v>
+      </c>
+      <c r="E35" s="80">
+        <f>AVERAGE(E32:E34)</f>
+        <v>1.1248986666666665</v>
+      </c>
+      <c r="F35" s="80">
+        <f t="shared" ref="F35" si="11">AVERAGE(F32:F34)</f>
+        <v>0.14515599999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -35725,7 +37563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629563B-15CA-43F8-9031-F04949D161F0}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
@@ -37463,7 +39301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA90453-2773-4FAC-8491-072B18056358}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/results/results_v4.xlsx
+++ b/results/results_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7121D2AF-B3FA-4F75-9744-3088AAEC472A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6631406-F8E9-45FA-BD79-C153BC7BFF8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" tabRatio="818" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5350" yWindow="2570" windowWidth="19420" windowHeight="10420" tabRatio="818" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="30" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="405">
   <si>
     <t>epochs</t>
   </si>
@@ -1257,6 +1257,30 @@
   <si>
     <t>batrch size</t>
   </si>
+  <si>
+    <t>Notes Optimisation Process</t>
+  </si>
+  <si>
+    <t>The optimisation process selects the weights of the epoch with the smallest training loss. Final training loss may therefore be of epoch 73, even if the training process runs for 200 epochs.</t>
+  </si>
+  <si>
+    <t>Learning rate decay (patience)</t>
+  </si>
+  <si>
+    <t>Learning rate decay (rate)</t>
+  </si>
+  <si>
+    <t>After a certain number of epochs without convergence (patience) the learning rate is decreased by this rate.</t>
+  </si>
+  <si>
+    <t>No. Of epochs without lower training loss before learning rate is reduced.</t>
+  </si>
+  <si>
+    <t>Check results!!!</t>
+  </si>
+  <si>
+    <t>MQ-RNN</t>
+  </si>
 </sst>
 </file>
 
@@ -1344,7 +1368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1517,11 +1541,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1686,6 +1732,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1707,7 +1754,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1988,10 +2043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3568A30-5FFC-4B69-AC5A-E932B621F002}">
-  <dimension ref="B1:E64"/>
+  <dimension ref="B1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2005,11 +2060,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
     </row>
     <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="55" t="s">
@@ -2248,10 +2303,10 @@
       <c r="C29" s="77"/>
     </row>
     <row r="30" spans="2:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="86" t="s">
         <v>349</v>
       </c>
-      <c r="C30" s="86"/>
+      <c r="C30" s="87"/>
       <c r="E30" s="54"/>
     </row>
     <row r="31" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2280,11 +2335,11 @@
     </row>
     <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="35" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="83" t="s">
         <v>355</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
     </row>
     <row r="36" spans="2:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="55" t="s">
@@ -2517,58 +2572,97 @@
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="87" t="s">
+    <row r="57" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="38"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+    </row>
+    <row r="58" spans="2:4" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="B58" s="90" t="s">
+        <v>397</v>
+      </c>
+      <c r="C58" s="91"/>
+      <c r="D58" s="65"/>
+    </row>
+    <row r="59" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B59" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="D59" s="65"/>
+    </row>
+    <row r="60" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B60" s="67" t="s">
+        <v>400</v>
+      </c>
+      <c r="C60" s="71" t="s">
+        <v>401</v>
+      </c>
+      <c r="D60" s="65"/>
+    </row>
+    <row r="61" spans="2:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="68" t="s">
+        <v>399</v>
+      </c>
+      <c r="C61" s="73" t="s">
+        <v>402</v>
+      </c>
+      <c r="D61" s="65"/>
+    </row>
+    <row r="62" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="88" t="s">
         <v>386</v>
       </c>
-      <c r="C58" s="88"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B59" s="78" t="s">
+      <c r="C63" s="89"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B64" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="C59" s="79" t="s">
+      <c r="C64" s="79" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="B60" s="64" t="s">
+    <row r="65" spans="2:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="B65" s="64" t="s">
         <v>380</v>
       </c>
-      <c r="C60" s="74" t="s">
+      <c r="C65" s="74" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="64" t="s">
+    <row r="66" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B66" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="C61" s="71" t="s">
+      <c r="C66" s="71" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B62" s="64" t="s">
+    <row r="67" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="B67" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C62" s="71" t="s">
+      <c r="C67" s="71" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B63" s="56" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68" s="56" t="s">
         <v>382</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C68" s="71" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="58" t="s">
+    <row r="69" spans="2:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="58" t="s">
         <v>385</v>
       </c>
-      <c r="C64" s="73" t="s">
+      <c r="C69" s="73" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2577,7 +2671,7 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6650,8 +6744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE72D0F4-0A8D-474C-B99F-D260C4EB198C}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7471,25 +7565,25 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED88BB-481F-4DC9-8FA4-2071DA3723F3}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.81640625" customWidth="1"/>
     <col min="9" max="9" width="7.453125" customWidth="1"/>
-    <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.36328125" customWidth="1"/>
     <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
@@ -7850,7 +7944,7 @@
         <v>30.103480714957666</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -7899,7 +7993,7 @@
         <v>30.103480714957666</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -7948,7 +8042,7 @@
         <v>30.103480714957666</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D19" s="80">
         <f>AVERAGE(D16:D18)</f>
         <v>0.95632139105832081</v>
@@ -7963,11 +8057,11 @@
       </c>
       <c r="O19" s="44"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D20" s="39"/>
       <c r="O20" s="44"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>267</v>
       </c>
@@ -8016,7 +8110,7 @@
         <v>60.206961429915332</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>267</v>
       </c>
@@ -8065,7 +8159,7 @@
         <v>60.206961429915332</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>267</v>
       </c>
@@ -8114,7 +8208,7 @@
         <v>60.206961429915332</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D24" s="80">
         <f>AVERAGE(D21:D23)</f>
         <v>0.98309964382020387</v>
@@ -8129,10 +8223,10 @@
       </c>
       <c r="O24" s="44"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O25" s="44"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>267</v>
       </c>
@@ -8181,7 +8275,7 @@
         <v>100.54562558795861</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>267</v>
       </c>
@@ -8230,7 +8324,7 @@
         <v>100.54562558795861</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>267</v>
       </c>
@@ -8279,7 +8373,7 @@
         <v>100.54562558795861</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D29" s="80">
         <f>AVERAGE(D26:D28)</f>
         <v>0.91682701066573136</v>
@@ -8293,8 +8387,147 @@
         <v>0.10027899999999999</v>
       </c>
     </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31">
+        <v>5315</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>1.1606609999999999</v>
+      </c>
+      <c r="F31">
+        <v>0.16770599999999999</v>
+      </c>
+      <c r="G31">
+        <v>19.854458000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.14902799999999999</v>
+      </c>
+      <c r="I31">
+        <v>9.3433000000000002E-2</v>
+      </c>
+      <c r="J31">
+        <v>42</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+      <c r="M31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" t="s">
+        <v>189</v>
+      </c>
+      <c r="O31" s="44">
+        <f t="shared" ref="O31:O33" si="6">(32*K31*L31)/B31</f>
+        <v>30.103480714957666</v>
+      </c>
+      <c r="P31" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32">
+        <v>5315</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>1.15351</v>
+      </c>
+      <c r="F32">
+        <v>0.16412499999999999</v>
+      </c>
+      <c r="G32">
+        <v>18.926577000000002</v>
+      </c>
+      <c r="H32">
+        <v>0.146811</v>
+      </c>
+      <c r="I32">
+        <v>8.9091000000000004E-2</v>
+      </c>
+      <c r="J32">
+        <v>43</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+      <c r="M32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" t="s">
+        <v>189</v>
+      </c>
+      <c r="O32" s="44">
+        <f t="shared" si="6"/>
+        <v>30.103480714957666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33">
+        <v>5315</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>1.1547810000000001</v>
+      </c>
+      <c r="F33">
+        <v>0.16683300000000001</v>
+      </c>
+      <c r="G33">
+        <v>19.718022999999999</v>
+      </c>
+      <c r="H33">
+        <v>0.148535</v>
+      </c>
+      <c r="I33">
+        <v>9.1805999999999999E-2</v>
+      </c>
+      <c r="J33">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>50</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" t="s">
+        <v>189</v>
+      </c>
+      <c r="O33" s="44">
+        <f t="shared" si="6"/>
+        <v>30.103480714957666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15066,21 +15299,29 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6437E731-589B-456A-8DF8-17C2DD721C2A}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" customWidth="1"/>
+    <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -15135,7 +15376,7 @@
         <v>278</v>
       </c>
       <c r="B3">
-        <v>6538</v>
+        <v>10975</v>
       </c>
       <c r="C3" t="s">
         <v>282</v>
@@ -15155,7 +15396,7 @@
         <v>278</v>
       </c>
       <c r="B4">
-        <v>6538</v>
+        <v>10975</v>
       </c>
       <c r="C4" t="s">
         <v>283</v>
@@ -15175,7 +15416,7 @@
         <v>278</v>
       </c>
       <c r="B5">
-        <v>6538</v>
+        <v>10975</v>
       </c>
       <c r="C5" t="s">
         <v>215</v>
@@ -15195,7 +15436,7 @@
         <v>278</v>
       </c>
       <c r="B6">
-        <v>6538</v>
+        <v>10975</v>
       </c>
       <c r="C6" t="s">
         <v>279</v>
@@ -15215,7 +15456,7 @@
         <v>278</v>
       </c>
       <c r="B7">
-        <v>6538</v>
+        <v>10975</v>
       </c>
       <c r="C7" t="s">
         <v>280</v>
@@ -15235,7 +15476,7 @@
         <v>278</v>
       </c>
       <c r="B8">
-        <v>6538</v>
+        <v>10975</v>
       </c>
       <c r="C8" t="s">
         <v>281</v>
@@ -15255,7 +15496,7 @@
         <v>278</v>
       </c>
       <c r="B9">
-        <v>6538</v>
+        <v>10975</v>
       </c>
       <c r="C9" t="s">
         <v>257</v>
@@ -15275,7 +15516,7 @@
         <v>278</v>
       </c>
       <c r="B10">
-        <v>6538</v>
+        <v>10975</v>
       </c>
       <c r="C10" t="s">
         <v>213</v>
@@ -15295,7 +15536,7 @@
         <v>278</v>
       </c>
       <c r="B11">
-        <v>6538</v>
+        <v>10975</v>
       </c>
       <c r="C11" t="s">
         <v>211</v>
@@ -15315,7 +15556,7 @@
         <v>278</v>
       </c>
       <c r="B12">
-        <v>6538</v>
+        <v>10975</v>
       </c>
       <c r="C12" t="s">
         <v>212</v>
@@ -15335,7 +15576,7 @@
         <v>278</v>
       </c>
       <c r="B13">
-        <v>6538</v>
+        <v>10975</v>
       </c>
       <c r="C13" t="s">
         <v>217</v>
@@ -15355,7 +15596,7 @@
         <v>278</v>
       </c>
       <c r="B14">
-        <v>6538</v>
+        <v>10975</v>
       </c>
       <c r="C14" t="s">
         <v>210</v>
@@ -15375,7 +15616,7 @@
         <v>278</v>
       </c>
       <c r="B16">
-        <v>6538</v>
+        <v>10975</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -15408,19 +15649,29 @@
       <c r="L16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
+        <v>189</v>
+      </c>
+      <c r="O16" s="44">
+        <f>(32*L16*K16)/B16</f>
+        <v>14.578587699316628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>278</v>
       </c>
       <c r="B17">
-        <v>6538</v>
+        <v>10975</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="39">
-        <f t="shared" ref="D17:D22" si="0">((E17/$E$5)+(F17/$F$5))/2</f>
+        <f t="shared" ref="D17:D23" si="0">((E17/$E$5)+(F17/$F$5))/2</f>
         <v>0.96416986949003491</v>
       </c>
       <c r="E17" s="39">
@@ -15447,13 +15698,23 @@
       <c r="L17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>189</v>
+      </c>
+      <c r="O17" s="44">
+        <f t="shared" ref="O17:O18" si="1">(32*L17*K17)/B17</f>
+        <v>14.578587699316628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>278</v>
       </c>
       <c r="B18">
-        <v>6538</v>
+        <v>10975</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -15486,130 +15747,1301 @@
       <c r="L18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>189</v>
+      </c>
+      <c r="O18" s="44">
+        <f t="shared" si="1"/>
+        <v>14.578587699316628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D19" s="80">
+        <f>AVERAGE(D16:D18)</f>
+        <v>0.96041635529284175</v>
+      </c>
+      <c r="E19" s="80">
+        <f t="shared" ref="E19:F19" si="2">AVERAGE(E16:E18)</f>
+        <v>0.98373366666666673</v>
+      </c>
+      <c r="F19" s="80">
+        <f t="shared" si="2"/>
+        <v>0.15324433333333334</v>
+      </c>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="O19" s="44"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="O20" s="44"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>278</v>
       </c>
-      <c r="B20">
-        <v>6538</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21">
+        <v>10975</v>
+      </c>
+      <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D21" s="39">
         <f t="shared" si="0"/>
         <v>1.0741973463655821</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E21" s="39">
         <v>1.1841729999999999</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F21" s="39">
         <v>0.15750600000000001</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G21" s="39">
         <v>28.424745999999999</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H21" s="39">
         <v>0.14904700000000001</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I21" s="39">
         <v>0.10993700000000001</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>42</v>
       </c>
-      <c r="K20">
-        <v>100</v>
-      </c>
-      <c r="L20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" s="44">
+        <f t="shared" ref="O21:O23" si="3">(32*L21*K21)/B21</f>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>278</v>
       </c>
-      <c r="B21">
-        <v>6538</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22">
+        <v>10975</v>
+      </c>
+      <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D22" s="39">
         <f t="shared" si="0"/>
         <v>0.9906963949094465</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E22" s="39">
         <v>1.0246329999999999</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F22" s="39">
         <v>0.15643899999999999</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G22" s="39">
         <v>23.883707999999999</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H22" s="39">
         <v>0.14393400000000001</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I22" s="39">
         <v>9.5179E-2</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>43</v>
       </c>
-      <c r="K21">
-        <v>100</v>
-      </c>
-      <c r="L21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" s="44">
+        <f t="shared" si="3"/>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>278</v>
       </c>
-      <c r="B22">
-        <v>6538</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23">
+        <v>10975</v>
+      </c>
+      <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D23" s="39">
         <f t="shared" si="0"/>
         <v>0.98949817396517248</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E23" s="39">
         <v>1.0164359999999999</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F23" s="39">
         <v>0.15740199999999999</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G23" s="39">
         <v>24.801631</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H23" s="39">
         <v>0.144786</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I23" s="39">
         <v>0.101421</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>44</v>
       </c>
-      <c r="K22">
-        <v>100</v>
-      </c>
-      <c r="L22">
-        <v>100</v>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="M23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" s="44">
+        <f t="shared" si="3"/>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D24" s="80">
+        <f>AVERAGE(D21:D23)</f>
+        <v>1.0181306384134003</v>
+      </c>
+      <c r="E24" s="80">
+        <f t="shared" ref="E24" si="4">AVERAGE(E21:E23)</f>
+        <v>1.0750806666666666</v>
+      </c>
+      <c r="F24" s="80">
+        <f t="shared" ref="F24" si="5">AVERAGE(F21:F23)</f>
+        <v>0.15711566666666668</v>
+      </c>
+      <c r="O24" s="44"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O25" s="44"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O26" s="44"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O27" s="44"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O28" s="44"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O29" s="44"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O30" s="44"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O31" s="44"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32">
+        <v>10975</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="39">
+        <f t="shared" ref="D32:D34" si="6">((E32/$E$5)+(F32/$F$5))/2</f>
+        <v>0.94416318817346279</v>
+      </c>
+      <c r="E32" s="39">
+        <v>0.95226699999999997</v>
+      </c>
+      <c r="F32" s="39">
+        <v>0.15310499999999999</v>
+      </c>
+      <c r="G32" s="39">
+        <v>22.508735999999999</v>
+      </c>
+      <c r="H32" s="39">
+        <v>0.14149200000000001</v>
+      </c>
+      <c r="I32" s="39">
+        <v>0.108098</v>
+      </c>
+      <c r="J32">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+      <c r="M32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" t="s">
+        <v>189</v>
+      </c>
+      <c r="O32" s="44">
+        <f t="shared" ref="O32:O34" si="7">(32*L32*K32)/B32</f>
+        <v>14.578587699316628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B33">
+        <v>10975</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="39">
+        <f t="shared" si="6"/>
+        <v>0.95269008438457481</v>
+      </c>
+      <c r="E33" s="39">
+        <v>0.964561</v>
+      </c>
+      <c r="F33" s="39">
+        <v>0.15387600000000001</v>
+      </c>
+      <c r="G33" s="39">
+        <v>22.752893</v>
+      </c>
+      <c r="H33" s="39">
+        <v>0.14216999999999999</v>
+      </c>
+      <c r="I33" s="39">
+        <v>0.10864799999999999</v>
+      </c>
+      <c r="J33">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>50</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" t="s">
+        <v>189</v>
+      </c>
+      <c r="O33" s="44">
+        <f t="shared" si="7"/>
+        <v>14.578587699316628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>278</v>
+      </c>
+      <c r="B34">
+        <v>10975</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="39">
+        <f t="shared" si="6"/>
+        <v>0.93678803756483697</v>
+      </c>
+      <c r="E34" s="39">
+        <v>0.94641699999999995</v>
+      </c>
+      <c r="F34" s="39">
+        <v>0.151646</v>
+      </c>
+      <c r="G34" s="39">
+        <v>23.628530999999999</v>
+      </c>
+      <c r="H34" s="39">
+        <v>0.140262</v>
+      </c>
+      <c r="I34" s="39">
+        <v>0.110203</v>
+      </c>
+      <c r="J34">
+        <v>44</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="L34">
+        <v>50</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" t="s">
+        <v>189</v>
+      </c>
+      <c r="O34" s="44">
+        <f t="shared" si="7"/>
+        <v>14.578587699316628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>278</v>
+      </c>
+      <c r="B37">
+        <v>10975</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="39">
+        <f t="shared" ref="D37:D39" si="8">((E37/$E$5)+(F37/$F$5))/2</f>
+        <v>1.0223582752145783</v>
+      </c>
+      <c r="E37" s="39">
+        <v>1.0200769999999999</v>
+      </c>
+      <c r="F37" s="39">
+        <v>0.16761599999999999</v>
+      </c>
+      <c r="G37" s="39">
+        <v>19.942409000000001</v>
+      </c>
+      <c r="H37" s="39">
+        <v>0.156529</v>
+      </c>
+      <c r="I37" s="39">
+        <v>0.105946</v>
+      </c>
+      <c r="J37">
+        <v>42</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="L37">
+        <v>100</v>
+      </c>
+      <c r="M37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" t="s">
+        <v>189</v>
+      </c>
+      <c r="O37" s="44">
+        <f t="shared" ref="O37:O39" si="9">(32*L37*K37)/B37</f>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38">
+        <v>10975</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="39">
+        <f t="shared" si="8"/>
+        <v>1.0361668906297636</v>
+      </c>
+      <c r="E38" s="39">
+        <v>1.0622659999999999</v>
+      </c>
+      <c r="F38" s="39">
+        <v>0.16517499999999999</v>
+      </c>
+      <c r="G38" s="39">
+        <v>18.3813</v>
+      </c>
+      <c r="H38" s="39">
+        <v>0.154945</v>
+      </c>
+      <c r="I38" s="39">
+        <v>9.4059000000000004E-2</v>
+      </c>
+      <c r="J38">
+        <v>43</v>
+      </c>
+      <c r="K38">
+        <v>100</v>
+      </c>
+      <c r="L38">
+        <v>100</v>
+      </c>
+      <c r="M38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" t="s">
+        <v>189</v>
+      </c>
+      <c r="O38" s="44">
+        <f t="shared" si="9"/>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>278</v>
+      </c>
+      <c r="B39">
+        <v>10975</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="39">
+        <f t="shared" si="8"/>
+        <v>1.0316384382491033</v>
+      </c>
+      <c r="E39" s="39">
+        <v>1.051803</v>
+      </c>
+      <c r="F39" s="39">
+        <v>0.16541700000000001</v>
+      </c>
+      <c r="G39" s="39">
+        <v>18.878889999999998</v>
+      </c>
+      <c r="H39" s="39">
+        <v>0.15465100000000001</v>
+      </c>
+      <c r="I39" s="39">
+        <v>9.5258999999999996E-2</v>
+      </c>
+      <c r="J39">
+        <v>44</v>
+      </c>
+      <c r="K39">
+        <v>100</v>
+      </c>
+      <c r="L39">
+        <v>100</v>
+      </c>
+      <c r="M39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39" t="s">
+        <v>189</v>
+      </c>
+      <c r="O39" s="44">
+        <f t="shared" si="9"/>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="O40" s="44"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="O41" s="44"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42">
+        <v>10975</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="39">
+        <f t="shared" ref="D42:D44" si="10">((E42/$E$5)+(F42/$F$5))/2</f>
+        <v>1.0505686268737735</v>
+      </c>
+      <c r="E42" s="39">
+        <v>1.0632429999999999</v>
+      </c>
+      <c r="F42" s="39">
+        <v>0.16975399999999999</v>
+      </c>
+      <c r="G42" s="39">
+        <v>19.795275</v>
+      </c>
+      <c r="H42" s="39">
+        <v>0.16044600000000001</v>
+      </c>
+      <c r="I42" s="39">
+        <v>0.101161</v>
+      </c>
+      <c r="J42">
+        <v>42</v>
+      </c>
+      <c r="K42">
+        <v>343</v>
+      </c>
+      <c r="L42">
+        <v>100</v>
+      </c>
+      <c r="M42" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42" t="s">
+        <v>189</v>
+      </c>
+      <c r="O42" s="44">
+        <f t="shared" ref="O42:O44" si="11">(32*L42*K42)/B42</f>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>278</v>
+      </c>
+      <c r="B43">
+        <v>10975</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="39">
+        <f t="shared" si="10"/>
+        <v>0.99936419183222003</v>
+      </c>
+      <c r="E43" s="39">
+        <v>0.98995500000000003</v>
+      </c>
+      <c r="F43" s="39">
+        <v>0.16503499999999999</v>
+      </c>
+      <c r="G43" s="39">
+        <v>18.073049999999999</v>
+      </c>
+      <c r="H43" s="39">
+        <v>0.152143</v>
+      </c>
+      <c r="I43" s="39">
+        <v>8.8846999999999995E-2</v>
+      </c>
+      <c r="J43">
+        <v>43</v>
+      </c>
+      <c r="K43">
+        <v>343</v>
+      </c>
+      <c r="L43">
+        <v>100</v>
+      </c>
+      <c r="M43" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" t="s">
+        <v>189</v>
+      </c>
+      <c r="O43" s="44">
+        <f t="shared" si="11"/>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>278</v>
+      </c>
+      <c r="B44">
+        <v>10975</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="39">
+        <f t="shared" si="10"/>
+        <v>0.99951164378898927</v>
+      </c>
+      <c r="E44" s="39">
+        <v>0.99555000000000005</v>
+      </c>
+      <c r="F44" s="39">
+        <v>0.164157</v>
+      </c>
+      <c r="G44" s="39">
+        <v>19.064624999999999</v>
+      </c>
+      <c r="H44" s="39">
+        <v>0.153617</v>
+      </c>
+      <c r="I44" s="39">
+        <v>8.9994000000000005E-2</v>
+      </c>
+      <c r="J44">
+        <v>44</v>
+      </c>
+      <c r="K44">
+        <v>343</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+      <c r="M44" t="s">
+        <v>40</v>
+      </c>
+      <c r="N44" t="s">
+        <v>189</v>
+      </c>
+      <c r="O44" s="44">
+        <f t="shared" si="11"/>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>278</v>
+      </c>
+      <c r="B47">
+        <v>10975</v>
+      </c>
+      <c r="C47" t="s">
+        <v>404</v>
+      </c>
+      <c r="D47" s="39">
+        <f t="shared" ref="D47:D49" si="12">((E47/$E$5)+(F47/$F$5))/2</f>
+        <v>3.4823495856882447</v>
+      </c>
+      <c r="E47" s="39">
+        <v>4.7266079999999997</v>
+      </c>
+      <c r="F47" s="39">
+        <v>0.363595</v>
+      </c>
+      <c r="G47" s="39">
+        <v>91.137494000000004</v>
+      </c>
+      <c r="H47" s="39">
+        <v>0.368477</v>
+      </c>
+      <c r="I47" s="39">
+        <v>0.40915499999999999</v>
+      </c>
+      <c r="J47">
+        <v>42</v>
+      </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
+      <c r="L47">
+        <v>50</v>
+      </c>
+      <c r="M47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47" t="s">
+        <v>189</v>
+      </c>
+      <c r="O47" s="44">
+        <f t="shared" ref="O47:O54" si="13">(32*L47*K47)/B47</f>
+        <v>14.578587699316628</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>278</v>
+      </c>
+      <c r="B48">
+        <v>10975</v>
+      </c>
+      <c r="C48" t="s">
+        <v>404</v>
+      </c>
+      <c r="D48" s="39">
+        <f t="shared" si="12"/>
+        <v>5.2575088846258895</v>
+      </c>
+      <c r="E48" s="39">
+        <v>7.3878120000000003</v>
+      </c>
+      <c r="F48" s="39">
+        <v>0.507247</v>
+      </c>
+      <c r="G48" s="39">
+        <v>145.850078</v>
+      </c>
+      <c r="H48" s="39">
+        <v>0.49855300000000002</v>
+      </c>
+      <c r="I48" s="39">
+        <v>0.622089</v>
+      </c>
+      <c r="J48">
+        <v>43</v>
+      </c>
+      <c r="K48">
+        <v>100</v>
+      </c>
+      <c r="L48">
+        <v>50</v>
+      </c>
+      <c r="M48" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48" t="s">
+        <v>189</v>
+      </c>
+      <c r="O48" s="44">
+        <f t="shared" si="13"/>
+        <v>14.578587699316628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>278</v>
+      </c>
+      <c r="B49">
+        <v>10975</v>
+      </c>
+      <c r="C49" t="s">
+        <v>404</v>
+      </c>
+      <c r="D49" s="39">
+        <f t="shared" si="12"/>
+        <v>4.8717419788209586</v>
+      </c>
+      <c r="E49" s="39">
+        <v>6.8963570000000001</v>
+      </c>
+      <c r="F49" s="39">
+        <v>0.46164500000000003</v>
+      </c>
+      <c r="G49" s="39">
+        <v>95.412694000000002</v>
+      </c>
+      <c r="H49" s="39">
+        <v>0.45255499999999999</v>
+      </c>
+      <c r="I49" s="39">
+        <v>0.43602800000000003</v>
+      </c>
+      <c r="J49">
+        <v>44</v>
+      </c>
+      <c r="K49">
+        <v>100</v>
+      </c>
+      <c r="L49">
+        <v>50</v>
+      </c>
+      <c r="M49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49" t="s">
+        <v>189</v>
+      </c>
+      <c r="O49" s="44">
+        <f t="shared" si="13"/>
+        <v>14.578587699316628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="O50" s="44"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52">
+        <v>10975</v>
+      </c>
+      <c r="C52" t="s">
+        <v>404</v>
+      </c>
+      <c r="D52" s="39">
+        <f t="shared" ref="D52:D54" si="14">((E52/$E$5)+(F52/$F$5))/2</f>
+        <v>3.2631682004294831</v>
+      </c>
+      <c r="E52" s="39">
+        <v>4.4363530000000004</v>
+      </c>
+      <c r="F52" s="39">
+        <v>0.33951100000000001</v>
+      </c>
+      <c r="G52" s="39">
+        <v>65.005438999999996</v>
+      </c>
+      <c r="H52" s="39">
+        <v>0.31287300000000001</v>
+      </c>
+      <c r="I52" s="39">
+        <v>0.247836</v>
+      </c>
+      <c r="J52">
+        <v>42</v>
+      </c>
+      <c r="K52">
+        <v>100</v>
+      </c>
+      <c r="L52">
+        <v>100</v>
+      </c>
+      <c r="M52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N52" t="s">
+        <v>189</v>
+      </c>
+      <c r="O52" s="44">
+        <f t="shared" si="13"/>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>278</v>
+      </c>
+      <c r="B53">
+        <v>10975</v>
+      </c>
+      <c r="C53" t="s">
+        <v>404</v>
+      </c>
+      <c r="D53" s="39">
+        <f t="shared" si="14"/>
+        <v>3.0939866572058414</v>
+      </c>
+      <c r="E53" s="39">
+        <v>4.1419860000000002</v>
+      </c>
+      <c r="F53" s="39">
+        <v>0.332567</v>
+      </c>
+      <c r="G53" s="39">
+        <v>53.841583999999997</v>
+      </c>
+      <c r="H53" s="39">
+        <v>0.32910099999999998</v>
+      </c>
+      <c r="I53" s="39">
+        <v>0.27523799999999998</v>
+      </c>
+      <c r="J53">
+        <v>43</v>
+      </c>
+      <c r="K53">
+        <v>100</v>
+      </c>
+      <c r="L53">
+        <v>100</v>
+      </c>
+      <c r="M53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N53" t="s">
+        <v>189</v>
+      </c>
+      <c r="O53" s="44">
+        <f t="shared" si="13"/>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54">
+        <v>10975</v>
+      </c>
+      <c r="C54" t="s">
+        <v>404</v>
+      </c>
+      <c r="D54" s="39">
+        <f t="shared" si="14"/>
+        <v>4.0931258944717008</v>
+      </c>
+      <c r="E54" s="39">
+        <v>5.7675280000000004</v>
+      </c>
+      <c r="F54" s="39">
+        <v>0.39227400000000001</v>
+      </c>
+      <c r="G54" s="39">
+        <v>72.893980999999997</v>
+      </c>
+      <c r="H54" s="39">
+        <v>0.36931000000000003</v>
+      </c>
+      <c r="I54" s="39">
+        <v>0.268926</v>
+      </c>
+      <c r="J54">
+        <v>44</v>
+      </c>
+      <c r="K54">
+        <v>100</v>
+      </c>
+      <c r="L54">
+        <v>100</v>
+      </c>
+      <c r="M54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N54" t="s">
+        <v>189</v>
+      </c>
+      <c r="O54" s="44">
+        <f t="shared" si="13"/>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>278</v>
+      </c>
+      <c r="B57">
+        <v>10975</v>
+      </c>
+      <c r="C57" t="s">
+        <v>404</v>
+      </c>
+      <c r="D57" s="39">
+        <f t="shared" ref="D57:D59" si="15">((E57/$E$5)+(F57/$F$5))/2</f>
+        <v>1.6996150097320482</v>
+      </c>
+      <c r="E57" s="39">
+        <v>2.0009380000000001</v>
+      </c>
+      <c r="F57" s="39">
+        <v>0.22812499999999999</v>
+      </c>
+      <c r="G57" s="39">
+        <v>30.176867999999999</v>
+      </c>
+      <c r="H57" s="39">
+        <v>0.22601099999999999</v>
+      </c>
+      <c r="I57" s="39">
+        <v>0.17843999999999999</v>
+      </c>
+      <c r="J57">
+        <v>42</v>
+      </c>
+      <c r="K57">
+        <v>343</v>
+      </c>
+      <c r="L57">
+        <v>100</v>
+      </c>
+      <c r="M57" t="s">
+        <v>40</v>
+      </c>
+      <c r="N57" t="s">
+        <v>189</v>
+      </c>
+      <c r="O57" s="44">
+        <f t="shared" ref="O57:O59" si="16">(32*L57*K57)/B57</f>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>278</v>
+      </c>
+      <c r="B58">
+        <v>10975</v>
+      </c>
+      <c r="C58" t="s">
+        <v>404</v>
+      </c>
+      <c r="D58" s="39">
+        <f t="shared" si="15"/>
+        <v>1.4028819829307837</v>
+      </c>
+      <c r="E58" s="39">
+        <v>1.558114</v>
+      </c>
+      <c r="F58" s="39">
+        <v>0.20377799999999999</v>
+      </c>
+      <c r="G58" s="39">
+        <v>24.155787</v>
+      </c>
+      <c r="H58" s="39">
+        <v>0.20437</v>
+      </c>
+      <c r="I58" s="39">
+        <v>0.15140300000000001</v>
+      </c>
+      <c r="J58">
+        <v>43</v>
+      </c>
+      <c r="K58">
+        <v>343</v>
+      </c>
+      <c r="L58">
+        <v>100</v>
+      </c>
+      <c r="M58" t="s">
+        <v>40</v>
+      </c>
+      <c r="N58" t="s">
+        <v>189</v>
+      </c>
+      <c r="O58" s="44">
+        <f t="shared" si="16"/>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59">
+        <v>10975</v>
+      </c>
+      <c r="C59" t="s">
+        <v>404</v>
+      </c>
+      <c r="D59" s="39">
+        <f t="shared" si="15"/>
+        <v>1.3883377253236651</v>
+      </c>
+      <c r="E59" s="39">
+        <v>1.589124</v>
+      </c>
+      <c r="F59" s="39">
+        <v>0.193855</v>
+      </c>
+      <c r="G59" s="39">
+        <v>25.237525999999999</v>
+      </c>
+      <c r="H59" s="39">
+        <v>0.20855599999999999</v>
+      </c>
+      <c r="I59" s="39">
+        <v>0.159971</v>
+      </c>
+      <c r="J59">
+        <v>44</v>
+      </c>
+      <c r="K59">
+        <v>343</v>
+      </c>
+      <c r="L59">
+        <v>100</v>
+      </c>
+      <c r="M59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N59" t="s">
+        <v>189</v>
+      </c>
+      <c r="O59" s="44">
+        <f t="shared" si="16"/>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B62">
+        <v>10975</v>
+      </c>
+      <c r="C62" t="s">
+        <v>404</v>
+      </c>
+      <c r="D62" s="39">
+        <f t="shared" ref="D62:D64" si="17">((E62/$E$5)+(F62/$F$5))/2</f>
+        <v>1.8485514518367132</v>
+      </c>
+      <c r="E62" s="39">
+        <v>2.2510279999999998</v>
+      </c>
+      <c r="F62" s="39">
+        <v>0.235737</v>
+      </c>
+      <c r="G62" s="39">
+        <v>27.835435</v>
+      </c>
+      <c r="H62" s="39">
+        <v>0.219806</v>
+      </c>
+      <c r="I62" s="39">
+        <v>0.14996000000000001</v>
+      </c>
+      <c r="J62">
+        <v>42</v>
+      </c>
+      <c r="K62">
+        <v>343</v>
+      </c>
+      <c r="L62">
+        <v>200</v>
+      </c>
+      <c r="M62" t="s">
+        <v>40</v>
+      </c>
+      <c r="N62" t="s">
+        <v>189</v>
+      </c>
+      <c r="O62" s="44">
+        <f t="shared" ref="O62:O64" si="18">(32*L62*K62)/B62</f>
+        <v>200.01822323462414</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>278</v>
+      </c>
+      <c r="B63">
+        <v>10975</v>
+      </c>
+      <c r="C63" t="s">
+        <v>404</v>
+      </c>
+      <c r="D63" s="39">
+        <f t="shared" si="17"/>
+        <v>1.398710804210757</v>
+      </c>
+      <c r="E63" s="39">
+        <v>1.5387900000000001</v>
+      </c>
+      <c r="F63" s="39">
+        <v>0.20560500000000001</v>
+      </c>
+      <c r="G63" s="39">
+        <v>23.612276999999999</v>
+      </c>
+      <c r="H63" s="39">
+        <v>0.19425700000000001</v>
+      </c>
+      <c r="I63" s="39">
+        <v>0.14138500000000001</v>
+      </c>
+      <c r="J63">
+        <v>43</v>
+      </c>
+      <c r="K63">
+        <v>343</v>
+      </c>
+      <c r="L63">
+        <v>200</v>
+      </c>
+      <c r="M63" t="s">
+        <v>40</v>
+      </c>
+      <c r="N63" t="s">
+        <v>189</v>
+      </c>
+      <c r="O63" s="44">
+        <f t="shared" si="18"/>
+        <v>200.01822323462414</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>278</v>
+      </c>
+      <c r="B64">
+        <v>10975</v>
+      </c>
+      <c r="C64" t="s">
+        <v>404</v>
+      </c>
+      <c r="D64" s="39">
+        <f t="shared" si="17"/>
+        <v>1.3463383354473493</v>
+      </c>
+      <c r="E64" s="39">
+        <v>1.473319</v>
+      </c>
+      <c r="F64" s="39">
+        <v>0.199207</v>
+      </c>
+      <c r="G64" s="39">
+        <v>22.666561999999999</v>
+      </c>
+      <c r="H64" s="39">
+        <v>0.201681</v>
+      </c>
+      <c r="I64" s="39">
+        <v>0.14193800000000001</v>
+      </c>
+      <c r="J64">
+        <v>44</v>
+      </c>
+      <c r="K64">
+        <v>343</v>
+      </c>
+      <c r="L64">
+        <v>200</v>
+      </c>
+      <c r="M64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N64" t="s">
+        <v>189</v>
+      </c>
+      <c r="O64" s="44">
+        <f t="shared" si="18"/>
+        <v>200.01822323462414</v>
       </c>
     </row>
   </sheetData>
@@ -15619,29 +17051,30 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE7B9D6-777D-4E85-8CF2-7950AA0B2522}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" customWidth="1"/>
-    <col min="9" max="9" width="7.08984375" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7265625" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" customWidth="1"/>
+    <col min="10" max="10" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.26953125" customWidth="1"/>
+    <col min="12" max="12" width="5.81640625" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="6.36328125" customWidth="1"/>
+    <col min="15" max="15" width="6.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -16004,54 +17437,23 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D16" s="39"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>285</v>
-      </c>
-      <c r="B17">
-        <v>10017</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="39">
-        <f t="shared" ref="D17:D19" si="2">((E17/$E$6)+(F17/$F$6))/2</f>
-        <v>1.2933219667895934</v>
-      </c>
-      <c r="E17">
-        <v>1.6290260000000001</v>
-      </c>
-      <c r="F17">
-        <v>0.160302</v>
-      </c>
-      <c r="G17">
-        <v>37.469821000000003</v>
-      </c>
-      <c r="H17">
-        <v>0.13663400000000001</v>
-      </c>
-      <c r="I17">
-        <v>7.9668000000000003E-2</v>
-      </c>
-      <c r="J17">
-        <v>42</v>
-      </c>
-      <c r="K17">
-        <v>100</v>
-      </c>
-      <c r="L17">
-        <v>100</v>
-      </c>
-      <c r="M17" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D16" s="80">
+        <f>AVERAGE(D13:D15)</f>
+        <v>1.0211688811799935</v>
+      </c>
+      <c r="E16" s="80">
+        <f>AVERAGE(E13:E15)</f>
+        <v>1.1530513333333332</v>
+      </c>
+      <c r="F16" s="80">
+        <f>AVERAGE(F13:F15)</f>
+        <v>0.14475266666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D17" s="39"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>285</v>
       </c>
@@ -16062,83 +17464,1128 @@
         <v>8</v>
       </c>
       <c r="D18" s="39">
+        <f t="shared" ref="D18:D20" si="2">((E18/$E$6)+(F18/$F$6))/2</f>
+        <v>1.2933219667895934</v>
+      </c>
+      <c r="E18" s="39">
+        <v>1.6290260000000001</v>
+      </c>
+      <c r="F18" s="39">
+        <v>0.160302</v>
+      </c>
+      <c r="G18" s="39">
+        <v>37.469821000000003</v>
+      </c>
+      <c r="H18" s="39">
+        <v>0.13663400000000001</v>
+      </c>
+      <c r="I18" s="39">
+        <v>7.9668000000000003E-2</v>
+      </c>
+      <c r="J18">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>189</v>
+      </c>
+      <c r="O18" s="44">
+        <f t="shared" ref="O18:O20" si="3">(32*L18*K18)/B18</f>
+        <v>31.945692323050814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19">
+        <v>10017</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="39">
         <f t="shared" si="2"/>
         <v>1.0296783310026101</v>
       </c>
-      <c r="E18">
+      <c r="E19" s="39">
         <v>1.1536280000000001</v>
       </c>
-      <c r="F18">
+      <c r="F19" s="39">
         <v>0.14719199999999999</v>
       </c>
-      <c r="G18">
+      <c r="G19" s="39">
         <v>14.873701000000001</v>
       </c>
-      <c r="H18">
+      <c r="H19" s="39">
         <v>0.124566</v>
       </c>
-      <c r="I18">
+      <c r="I19" s="39">
         <v>7.4181999999999998E-2</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>43</v>
       </c>
-      <c r="K18">
-        <v>100</v>
-      </c>
-      <c r="L18">
-        <v>100</v>
-      </c>
-      <c r="M18" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="O19" s="44">
+        <f t="shared" si="3"/>
+        <v>31.945692323050814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>285</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>10017</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D20" s="39">
         <f t="shared" si="2"/>
         <v>1.038842531489399</v>
       </c>
-      <c r="E19">
+      <c r="E20" s="39">
         <v>1.1851290000000001</v>
       </c>
-      <c r="F19">
+      <c r="F20" s="39">
         <v>0.14560300000000001</v>
       </c>
-      <c r="G19">
+      <c r="G20" s="39">
         <v>20.921935000000001</v>
       </c>
-      <c r="H19">
+      <c r="H20" s="39">
         <v>0.12404</v>
       </c>
-      <c r="I19">
+      <c r="I20" s="39">
         <v>8.3743999999999999E-2</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>44</v>
       </c>
-      <c r="K19">
-        <v>100</v>
-      </c>
-      <c r="L19">
-        <v>100</v>
-      </c>
-      <c r="M19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" t="s">
         <v>189</v>
+      </c>
+      <c r="O20" s="44">
+        <f t="shared" si="3"/>
+        <v>31.945692323050814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D21" s="80">
+        <f>AVERAGE(D18:D20)</f>
+        <v>1.1206142764272009</v>
+      </c>
+      <c r="E21" s="80">
+        <f>AVERAGE(E18:E20)</f>
+        <v>1.3225943333333332</v>
+      </c>
+      <c r="F21" s="80">
+        <f>AVERAGE(F18:F20)</f>
+        <v>0.15103233333333332</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="O21" s="44"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23">
+        <v>10017</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="39">
+        <f t="shared" ref="D23:D25" si="4">((E23/$E$6)+(F23/$F$6))/2</f>
+        <v>1.0062996497079992</v>
+      </c>
+      <c r="E23">
+        <v>1.1172470000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.14524100000000001</v>
+      </c>
+      <c r="G23">
+        <v>13.07188</v>
+      </c>
+      <c r="H23">
+        <v>0.121563</v>
+      </c>
+      <c r="I23" s="39">
+        <v>6.6812999999999997E-2</v>
+      </c>
+      <c r="J23">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>314</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="M23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" s="44">
+        <f t="shared" ref="O23:O25" si="5">(32*L23*K23)/B23</f>
+        <v>100.30947389437955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24">
+        <v>10017</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="39">
+        <f t="shared" si="4"/>
+        <v>0.99851883848069445</v>
+      </c>
+      <c r="E24">
+        <v>1.1117870000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.14368400000000001</v>
+      </c>
+      <c r="G24">
+        <v>13.535909999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.12138699999999999</v>
+      </c>
+      <c r="I24" s="39">
+        <v>6.8021999999999999E-2</v>
+      </c>
+      <c r="J24">
+        <v>43</v>
+      </c>
+      <c r="K24">
+        <v>314</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" s="44">
+        <f t="shared" si="5"/>
+        <v>100.30947389437955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25">
+        <v>10017</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="39">
+        <f t="shared" si="4"/>
+        <v>1.0337029494182233</v>
+      </c>
+      <c r="E25">
+        <v>1.175198</v>
+      </c>
+      <c r="F25">
+        <v>0.14543800000000001</v>
+      </c>
+      <c r="G25">
+        <v>13.760255000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.123792</v>
+      </c>
+      <c r="I25" s="39">
+        <v>6.9135000000000002E-2</v>
+      </c>
+      <c r="J25">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>314</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O25" s="44">
+        <f t="shared" si="5"/>
+        <v>100.30947389437955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D26" s="80">
+        <f>AVERAGE(D23:D25)</f>
+        <v>1.0128404792023058</v>
+      </c>
+      <c r="E26" s="80">
+        <f>AVERAGE(E23:E25)</f>
+        <v>1.1347440000000002</v>
+      </c>
+      <c r="F26" s="80">
+        <f>AVERAGE(F23:F25)</f>
+        <v>0.14478766666666668</v>
+      </c>
+      <c r="I26" s="39"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="I27" s="39"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28">
+        <v>10017</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="39">
+        <f t="shared" ref="D28:D30" si="6">((E28/$E$6)+(F28/$F$6))/2</f>
+        <v>1.0028359090372874</v>
+      </c>
+      <c r="E28" s="82">
+        <v>1.1146910000000001</v>
+      </c>
+      <c r="F28" s="82">
+        <v>0.144565</v>
+      </c>
+      <c r="G28">
+        <v>13.345093</v>
+      </c>
+      <c r="H28">
+        <v>0.122311</v>
+      </c>
+      <c r="I28" s="39">
+        <v>6.9098000000000007E-2</v>
+      </c>
+      <c r="J28">
+        <v>42</v>
+      </c>
+      <c r="K28">
+        <v>157</v>
+      </c>
+      <c r="L28">
+        <v>200</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" t="s">
+        <v>189</v>
+      </c>
+      <c r="O28" s="44">
+        <f t="shared" ref="O28:O30" si="7">(32*L28*K28)/B28</f>
+        <v>100.30947389437955</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29">
+        <v>10017</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="39">
+        <f t="shared" si="6"/>
+        <v>0.98501112767158716</v>
+      </c>
+      <c r="E29" s="82">
+        <v>1.0896809999999999</v>
+      </c>
+      <c r="F29" s="82">
+        <v>0.142705</v>
+      </c>
+      <c r="G29">
+        <v>13.821659</v>
+      </c>
+      <c r="H29">
+        <v>0.12001100000000001</v>
+      </c>
+      <c r="I29" s="39">
+        <v>6.7071000000000006E-2</v>
+      </c>
+      <c r="J29">
+        <v>43</v>
+      </c>
+      <c r="K29">
+        <v>157</v>
+      </c>
+      <c r="L29">
+        <v>200</v>
+      </c>
+      <c r="M29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" t="s">
+        <v>189</v>
+      </c>
+      <c r="O29" s="44">
+        <f t="shared" si="7"/>
+        <v>100.30947389437955</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30">
+        <v>10017</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="39">
+        <f t="shared" si="6"/>
+        <v>0.99717911275056781</v>
+      </c>
+      <c r="E30" s="82">
+        <v>1.10829</v>
+      </c>
+      <c r="F30" s="82">
+        <v>0.143765</v>
+      </c>
+      <c r="G30">
+        <v>13.063831</v>
+      </c>
+      <c r="H30">
+        <v>0.12151099999999999</v>
+      </c>
+      <c r="I30" s="39">
+        <v>6.5360000000000001E-2</v>
+      </c>
+      <c r="J30">
+        <v>44</v>
+      </c>
+      <c r="K30">
+        <v>157</v>
+      </c>
+      <c r="L30">
+        <v>200</v>
+      </c>
+      <c r="M30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" t="s">
+        <v>189</v>
+      </c>
+      <c r="O30" s="44">
+        <f t="shared" si="7"/>
+        <v>100.30947389437955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D31" s="80">
+        <f>AVERAGE(D28:D30)</f>
+        <v>0.99500871648648082</v>
+      </c>
+      <c r="E31" s="80">
+        <f>AVERAGE(E28:E30)</f>
+        <v>1.1042206666666667</v>
+      </c>
+      <c r="F31" s="80">
+        <f>AVERAGE(F28:F30)</f>
+        <v>0.14367833333333335</v>
+      </c>
+      <c r="I31" s="39"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="I32" s="39"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33">
+        <v>10017</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="39">
+        <f t="shared" ref="D33:D34" si="8">((E33/$E$6)+(F33/$F$6))/2</f>
+        <v>1.0187680807161532</v>
+      </c>
+      <c r="E33" s="82">
+        <v>1.1347419999999999</v>
+      </c>
+      <c r="F33" s="82">
+        <v>0.14654200000000001</v>
+      </c>
+      <c r="G33" s="82">
+        <v>13.367031000000001</v>
+      </c>
+      <c r="H33">
+        <v>0.12334299999999999</v>
+      </c>
+      <c r="I33" s="39">
+        <v>6.5874000000000002E-2</v>
+      </c>
+      <c r="J33">
+        <v>42</v>
+      </c>
+      <c r="K33">
+        <v>314</v>
+      </c>
+      <c r="L33">
+        <v>200</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" t="s">
+        <v>189</v>
+      </c>
+      <c r="O33" s="44">
+        <f t="shared" ref="O33:O35" si="9">(32*L33*K33)/B33</f>
+        <v>200.6189477887591</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34">
+        <v>10017</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="39">
+        <f t="shared" si="8"/>
+        <v>0.99181497614687764</v>
+      </c>
+      <c r="E34" s="82">
+        <v>1.1074379999999999</v>
+      </c>
+      <c r="F34" s="82">
+        <v>0.142294</v>
+      </c>
+      <c r="G34">
+        <v>13.911994</v>
+      </c>
+      <c r="H34">
+        <v>0.12031799999999999</v>
+      </c>
+      <c r="I34" s="39">
+        <v>6.6225999999999993E-2</v>
+      </c>
+      <c r="J34">
+        <v>43</v>
+      </c>
+      <c r="K34">
+        <v>314</v>
+      </c>
+      <c r="L34">
+        <v>200</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" t="s">
+        <v>189</v>
+      </c>
+      <c r="O34" s="44">
+        <f t="shared" si="9"/>
+        <v>200.6189477887591</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35">
+        <v>10017</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="J35">
+        <v>44</v>
+      </c>
+      <c r="M35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" t="s">
+        <v>189</v>
+      </c>
+      <c r="O35" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39">
+        <v>10017</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="39">
+        <f t="shared" ref="D39:D41" si="10">((E39/$E$6)+(F39/$F$6))/2</f>
+        <v>1.1009501239367654</v>
+      </c>
+      <c r="E39" s="39">
+        <v>1.214218</v>
+      </c>
+      <c r="F39" s="39">
+        <v>0.16001000000000001</v>
+      </c>
+      <c r="G39" s="39">
+        <v>16.074297000000001</v>
+      </c>
+      <c r="H39" s="39">
+        <v>0.13569600000000001</v>
+      </c>
+      <c r="I39" s="39">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="J39">
+        <v>42</v>
+      </c>
+      <c r="K39">
+        <v>100</v>
+      </c>
+      <c r="L39">
+        <v>50</v>
+      </c>
+      <c r="M39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39" t="s">
+        <v>189</v>
+      </c>
+      <c r="O39" s="44">
+        <f t="shared" ref="O39:O41" si="11">(32*L39*K39)/B39</f>
+        <v>15.972846161525407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40">
+        <v>10017</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="39">
+        <f t="shared" si="10"/>
+        <v>1.0903477562768538</v>
+      </c>
+      <c r="E40" s="39">
+        <v>1.2072130000000001</v>
+      </c>
+      <c r="F40" s="39">
+        <v>0.157829</v>
+      </c>
+      <c r="G40" s="39">
+        <v>16.835383</v>
+      </c>
+      <c r="H40" s="39">
+        <v>0.13403300000000001</v>
+      </c>
+      <c r="I40" s="39">
+        <v>7.7424000000000007E-2</v>
+      </c>
+      <c r="J40">
+        <v>43</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40">
+        <v>50</v>
+      </c>
+      <c r="M40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N40" t="s">
+        <v>189</v>
+      </c>
+      <c r="O40" s="44">
+        <f t="shared" si="11"/>
+        <v>15.972846161525407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41">
+        <v>10017</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="39">
+        <f t="shared" si="10"/>
+        <v>0.98088898928034562</v>
+      </c>
+      <c r="E41" s="39">
+        <v>1.047318</v>
+      </c>
+      <c r="F41" s="39">
+        <v>0.14726900000000001</v>
+      </c>
+      <c r="G41" s="39">
+        <v>25.023323999999999</v>
+      </c>
+      <c r="H41" s="39">
+        <v>0.12094100000000001</v>
+      </c>
+      <c r="I41" s="39">
+        <v>9.8139000000000004E-2</v>
+      </c>
+      <c r="J41">
+        <v>44</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+      <c r="L41">
+        <v>50</v>
+      </c>
+      <c r="M41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" t="s">
+        <v>189</v>
+      </c>
+      <c r="O41" s="44">
+        <f t="shared" si="11"/>
+        <v>15.972846161525407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D42" s="80">
+        <f>AVERAGE(D39:D41)</f>
+        <v>1.0573956231646549</v>
+      </c>
+      <c r="E42" s="80">
+        <f>AVERAGE(E39:E41)</f>
+        <v>1.1562496666666666</v>
+      </c>
+      <c r="F42" s="80">
+        <f>AVERAGE(F39:F41)</f>
+        <v>0.15503599999999998</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="O42" s="44"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B44">
+        <v>10017</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="39">
+        <f t="shared" ref="D44:D46" si="12">((E44/$E$6)+(F44/$F$6))/2</f>
+        <v>1.0394223005533201</v>
+      </c>
+      <c r="E44" s="39">
+        <v>1.1337010000000001</v>
+      </c>
+      <c r="F44" s="39">
+        <v>0.15279599999999999</v>
+      </c>
+      <c r="G44" s="39">
+        <v>18.791025000000001</v>
+      </c>
+      <c r="H44" s="39">
+        <v>0.128942</v>
+      </c>
+      <c r="I44" s="39">
+        <v>7.7807000000000001E-2</v>
+      </c>
+      <c r="J44">
+        <v>42</v>
+      </c>
+      <c r="K44">
+        <v>100</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+      <c r="M44" t="s">
+        <v>40</v>
+      </c>
+      <c r="N44" t="s">
+        <v>189</v>
+      </c>
+      <c r="O44" s="44">
+        <f t="shared" ref="O44:O46" si="13">(32*L44*K44)/B44</f>
+        <v>31.945692323050814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45">
+        <v>10017</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="39">
+        <f t="shared" si="12"/>
+        <v>1.0654907315069653</v>
+      </c>
+      <c r="E45" s="39">
+        <v>1.189147</v>
+      </c>
+      <c r="F45" s="39">
+        <v>0.15293999999999999</v>
+      </c>
+      <c r="G45" s="39">
+        <v>17.652099</v>
+      </c>
+      <c r="H45" s="39">
+        <v>0.12925400000000001</v>
+      </c>
+      <c r="I45" s="39">
+        <v>7.5829999999999995E-2</v>
+      </c>
+      <c r="J45">
+        <v>43</v>
+      </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
+      <c r="L45">
+        <v>100</v>
+      </c>
+      <c r="M45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45" t="s">
+        <v>189</v>
+      </c>
+      <c r="O45" s="44">
+        <f t="shared" si="13"/>
+        <v>31.945692323050814</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>285</v>
+      </c>
+      <c r="B46">
+        <v>10017</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="39">
+        <f t="shared" si="12"/>
+        <v>1.0852453287167925</v>
+      </c>
+      <c r="E46" s="39">
+        <v>1.2041010000000001</v>
+      </c>
+      <c r="F46" s="39">
+        <v>0.15674399999999999</v>
+      </c>
+      <c r="G46" s="39">
+        <v>17.479216999999998</v>
+      </c>
+      <c r="H46" s="39">
+        <v>0.132576</v>
+      </c>
+      <c r="I46" s="39">
+        <v>7.8653000000000001E-2</v>
+      </c>
+      <c r="J46">
+        <v>44</v>
+      </c>
+      <c r="K46">
+        <v>100</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
+      </c>
+      <c r="M46" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46" t="s">
+        <v>189</v>
+      </c>
+      <c r="O46" s="44">
+        <f t="shared" si="13"/>
+        <v>31.945692323050814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D47" s="80">
+        <f>AVERAGE(D44:D46)</f>
+        <v>1.063386120259026</v>
+      </c>
+      <c r="E47" s="80">
+        <f>AVERAGE(E44:E46)</f>
+        <v>1.1756496666666667</v>
+      </c>
+      <c r="F47" s="80">
+        <f>AVERAGE(F44:F46)</f>
+        <v>0.15415999999999999</v>
+      </c>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49">
+        <v>10017</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="39">
+        <f t="shared" ref="D49:D51" si="14">((E49/$E$6)+(F49/$F$6))/2</f>
+        <v>1.1103829718765339</v>
+      </c>
+      <c r="E49" s="39">
+        <v>1.230898</v>
+      </c>
+      <c r="F49" s="39">
+        <v>0.160524</v>
+      </c>
+      <c r="G49" s="39">
+        <v>22.961964999999999</v>
+      </c>
+      <c r="H49" s="39">
+        <v>0.133489</v>
+      </c>
+      <c r="I49" s="39">
+        <v>9.4149999999999998E-2</v>
+      </c>
+      <c r="J49">
+        <v>42</v>
+      </c>
+      <c r="K49">
+        <v>314</v>
+      </c>
+      <c r="L49">
+        <v>100</v>
+      </c>
+      <c r="M49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49" t="s">
+        <v>189</v>
+      </c>
+      <c r="O49" s="44">
+        <f t="shared" ref="O49:O51" si="15">(32*L49*K49)/B49</f>
+        <v>100.30947389437955</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>285</v>
+      </c>
+      <c r="B50">
+        <v>10017</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="39">
+        <f t="shared" si="14"/>
+        <v>1.0694495623764064</v>
+      </c>
+      <c r="E50" s="39">
+        <v>1.210091</v>
+      </c>
+      <c r="F50" s="39">
+        <v>0.151252</v>
+      </c>
+      <c r="G50" s="39">
+        <v>19.400241000000001</v>
+      </c>
+      <c r="H50" s="39">
+        <v>0.12856300000000001</v>
+      </c>
+      <c r="I50" s="39">
+        <v>7.7256000000000005E-2</v>
+      </c>
+      <c r="J50">
+        <v>43</v>
+      </c>
+      <c r="K50">
+        <v>314</v>
+      </c>
+      <c r="L50">
+        <v>100</v>
+      </c>
+      <c r="M50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N50" t="s">
+        <v>189</v>
+      </c>
+      <c r="O50" s="44">
+        <f t="shared" si="15"/>
+        <v>100.30947389437955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51">
+        <v>10017</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="39">
+        <f t="shared" si="14"/>
+        <v>1.0224849359225872</v>
+      </c>
+      <c r="E51">
+        <v>1.115866</v>
+      </c>
+      <c r="F51">
+        <v>0.15021899999999999</v>
+      </c>
+      <c r="G51">
+        <v>18.483896999999999</v>
+      </c>
+      <c r="H51">
+        <v>0.12728600000000001</v>
+      </c>
+      <c r="I51">
+        <v>7.6752000000000001E-2</v>
+      </c>
+      <c r="J51">
+        <v>44</v>
+      </c>
+      <c r="K51">
+        <v>314</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
+      </c>
+      <c r="M51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N51" t="s">
+        <v>189</v>
+      </c>
+      <c r="O51" s="44">
+        <f t="shared" si="15"/>
+        <v>100.30947389437955</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D52" s="80">
+        <f>AVERAGE(D49:D51)</f>
+        <v>1.067439156725176</v>
+      </c>
+      <c r="E52" s="80">
+        <f>AVERAGE(E49:E51)</f>
+        <v>1.1856183333333334</v>
+      </c>
+      <c r="F52" s="80">
+        <f>AVERAGE(F49:F51)</f>
+        <v>0.15399833333333332</v>
       </c>
     </row>
   </sheetData>
@@ -16149,17 +18596,18 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916E5D1D-E0B0-4535-9497-2DBD8C30A89E}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.54296875" customWidth="1"/>
     <col min="6" max="6" width="8.08984375" bestFit="1" customWidth="1"/>
@@ -16525,54 +18973,23 @@
         <v>15.974440894568691</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>288</v>
-      </c>
-      <c r="B16">
-        <v>10016</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="39">
-        <f>((E16/$E$5)+(F16/$F$5))/2</f>
-        <v>0.9319142299464227</v>
-      </c>
-      <c r="E16">
-        <v>1.0458430000000001</v>
-      </c>
-      <c r="F16">
-        <v>0.143147</v>
-      </c>
-      <c r="G16">
-        <v>18.232894000000002</v>
-      </c>
-      <c r="H16">
-        <v>0.12853200000000001</v>
-      </c>
-      <c r="I16">
-        <v>7.5294E-2</v>
-      </c>
-      <c r="J16">
-        <v>42</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="L16">
-        <v>100</v>
-      </c>
-      <c r="M16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" t="s">
-        <v>189</v>
-      </c>
-      <c r="O16" s="44">
-        <f>(32*L16*K16)/B16</f>
-        <v>31.948881789137381</v>
-      </c>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D15" s="80">
+        <f>AVERAGE(D12:D14)</f>
+        <v>0.94247178103718088</v>
+      </c>
+      <c r="E15" s="80">
+        <f t="shared" ref="E15" si="2">AVERAGE(E12:E14)</f>
+        <v>1.0532143333333335</v>
+      </c>
+      <c r="F15" s="80">
+        <f t="shared" ref="F15" si="3">AVERAGE(F12:F14)</f>
+        <v>0.145394</v>
+      </c>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -16585,26 +19002,26 @@
         <v>8</v>
       </c>
       <c r="D17" s="39">
-        <f t="shared" ref="D17:D18" si="2">((E17/$E$5)+(F17/$F$5))/2</f>
-        <v>0.94399180217518452</v>
+        <f>((E17/$E$5)+(F17/$F$5))/2</f>
+        <v>0.9319142299464227</v>
       </c>
       <c r="E17">
-        <v>1.0575870000000001</v>
+        <v>1.0458430000000001</v>
       </c>
       <c r="F17">
-        <v>0.145255</v>
+        <v>0.143147</v>
       </c>
       <c r="G17">
-        <v>21.421385000000001</v>
+        <v>18.232894000000002</v>
       </c>
       <c r="H17">
-        <v>0.13070799999999999</v>
+        <v>0.12853200000000001</v>
       </c>
       <c r="I17">
-        <v>7.9573000000000005E-2</v>
+        <v>7.5294E-2</v>
       </c>
       <c r="J17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
         <v>100</v>
@@ -16619,7 +19036,7 @@
         <v>189</v>
       </c>
       <c r="O17" s="44">
-        <f t="shared" ref="O17:O18" si="3">(32*L17*K17)/B17</f>
+        <f>(32*L17*K17)/B17</f>
         <v>31.948881789137381</v>
       </c>
     </row>
@@ -16634,26 +19051,26 @@
         <v>8</v>
       </c>
       <c r="D18" s="39">
-        <f t="shared" si="2"/>
-        <v>0.98080198038943323</v>
+        <f t="shared" ref="D18:D19" si="4">((E18/$E$5)+(F18/$F$5))/2</f>
+        <v>0.94399180217518452</v>
       </c>
       <c r="E18">
-        <v>1.1237999999999999</v>
+        <v>1.0575870000000001</v>
       </c>
       <c r="F18">
-        <v>0.14743100000000001</v>
+        <v>0.145255</v>
       </c>
       <c r="G18">
-        <v>17.777781000000001</v>
+        <v>21.421385000000001</v>
       </c>
       <c r="H18">
-        <v>0.13519</v>
+        <v>0.13070799999999999</v>
       </c>
       <c r="I18">
-        <v>7.7076000000000006E-2</v>
+        <v>7.9573000000000005E-2</v>
       </c>
       <c r="J18">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>100</v>
@@ -16668,8 +19085,506 @@
         <v>189</v>
       </c>
       <c r="O18" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O18:O19" si="5">(32*L18*K18)/B18</f>
         <v>31.948881789137381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19">
+        <v>10016</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="39">
+        <f t="shared" si="4"/>
+        <v>0.98080198038943323</v>
+      </c>
+      <c r="E19">
+        <v>1.1237999999999999</v>
+      </c>
+      <c r="F19">
+        <v>0.14743100000000001</v>
+      </c>
+      <c r="G19">
+        <v>17.777781000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.13519</v>
+      </c>
+      <c r="I19">
+        <v>7.7076000000000006E-2</v>
+      </c>
+      <c r="J19">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" s="44">
+        <f t="shared" si="5"/>
+        <v>31.948881789137381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D20" s="80">
+        <f>AVERAGE(D17:D19)</f>
+        <v>0.95223600417034682</v>
+      </c>
+      <c r="E20" s="80">
+        <f t="shared" ref="E20:F20" si="6">AVERAGE(E17:E19)</f>
+        <v>1.0757433333333335</v>
+      </c>
+      <c r="F20" s="80">
+        <f t="shared" si="6"/>
+        <v>0.14527766666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22">
+        <v>10016</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="39">
+        <f t="shared" ref="D22" si="7">((E22/$E$5)+(F22/$F$5))/2</f>
+        <v>1.0627197140320823</v>
+      </c>
+      <c r="E22">
+        <v>1.1606609999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.16770599999999999</v>
+      </c>
+      <c r="G22">
+        <v>19.854458000000001</v>
+      </c>
+      <c r="H22">
+        <v>0.14902799999999999</v>
+      </c>
+      <c r="I22">
+        <v>9.3433000000000002E-2</v>
+      </c>
+      <c r="J22">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" s="44">
+        <f>(32*L22*K22)/B22</f>
+        <v>15.974440894568691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B23">
+        <v>10016</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23">
+        <v>1.15351</v>
+      </c>
+      <c r="F23">
+        <v>0.16412499999999999</v>
+      </c>
+      <c r="G23">
+        <v>18.926577000000002</v>
+      </c>
+      <c r="H23">
+        <v>0.146811</v>
+      </c>
+      <c r="I23">
+        <v>8.9091000000000004E-2</v>
+      </c>
+      <c r="J23">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" s="44">
+        <f t="shared" ref="O23:O24" si="8">(32*L23*K23)/B23</f>
+        <v>15.974440894568691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24">
+        <v>10016</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24">
+        <v>1.1547810000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.16683300000000001</v>
+      </c>
+      <c r="G24">
+        <v>19.718022999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.148535</v>
+      </c>
+      <c r="I24">
+        <v>9.1805999999999999E-2</v>
+      </c>
+      <c r="J24">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" s="44">
+        <f t="shared" si="8"/>
+        <v>15.974440894568691</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28">
+        <v>10016</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="39">
+        <f t="shared" ref="D28:D30" si="9">((E28/$E$5)+(F28/$F$5))/2</f>
+        <v>1.0109785696333864</v>
+      </c>
+      <c r="E28">
+        <v>1.1159490000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.15789300000000001</v>
+      </c>
+      <c r="G28">
+        <v>17.09544</v>
+      </c>
+      <c r="H28">
+        <v>0.14149500000000001</v>
+      </c>
+      <c r="I28">
+        <v>7.9537999999999998E-2</v>
+      </c>
+      <c r="J28">
+        <v>42</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" t="s">
+        <v>189</v>
+      </c>
+      <c r="O28" s="44">
+        <f>(32*L28*K28)/B28</f>
+        <v>31.948881789137381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29">
+        <v>10016</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="39">
+        <f t="shared" si="9"/>
+        <v>1.034951600653792</v>
+      </c>
+      <c r="E29">
+        <v>1.1420680000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.161685</v>
+      </c>
+      <c r="G29">
+        <v>17.331627000000001</v>
+      </c>
+      <c r="H29">
+        <v>0.14571500000000001</v>
+      </c>
+      <c r="I29">
+        <v>7.7091000000000007E-2</v>
+      </c>
+      <c r="J29">
+        <v>43</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>100</v>
+      </c>
+      <c r="M29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" t="s">
+        <v>189</v>
+      </c>
+      <c r="O29" s="44">
+        <f t="shared" ref="O29:O30" si="10">(32*L29*K29)/B29</f>
+        <v>31.948881789137381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30">
+        <v>10016</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="39">
+        <f t="shared" si="9"/>
+        <v>1.0363073168378722</v>
+      </c>
+      <c r="E30">
+        <v>1.160946</v>
+      </c>
+      <c r="F30">
+        <v>0.159469</v>
+      </c>
+      <c r="G30">
+        <v>18.747761000000001</v>
+      </c>
+      <c r="H30">
+        <v>0.142624</v>
+      </c>
+      <c r="I30">
+        <v>7.9880000000000007E-2</v>
+      </c>
+      <c r="J30">
+        <v>44</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+      <c r="M30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" t="s">
+        <v>189</v>
+      </c>
+      <c r="O30" s="44">
+        <f t="shared" si="10"/>
+        <v>31.948881789137381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B33">
+        <v>10016</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="39">
+        <f t="shared" ref="D33:D35" si="11">((E33/$E$5)+(F33/$F$5))/2</f>
+        <v>1.0997695660152249</v>
+      </c>
+      <c r="E33">
+        <v>1.293339</v>
+      </c>
+      <c r="F33">
+        <v>0.16067300000000001</v>
+      </c>
+      <c r="G33">
+        <v>21.499818999999999</v>
+      </c>
+      <c r="H33">
+        <v>0.154029</v>
+      </c>
+      <c r="I33">
+        <v>8.4608000000000003E-2</v>
+      </c>
+      <c r="J33">
+        <v>42</v>
+      </c>
+      <c r="K33">
+        <v>313</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" t="s">
+        <v>189</v>
+      </c>
+      <c r="O33" s="44">
+        <f>(32*L33*K33)/B33</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>288</v>
+      </c>
+      <c r="B34">
+        <v>10016</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="39">
+        <f t="shared" si="11"/>
+        <v>1.0622170038723586</v>
+      </c>
+      <c r="E34">
+        <v>1.223214</v>
+      </c>
+      <c r="F34">
+        <v>0.15881300000000001</v>
+      </c>
+      <c r="G34">
+        <v>21.255455000000001</v>
+      </c>
+      <c r="H34">
+        <v>0.149396</v>
+      </c>
+      <c r="I34">
+        <v>8.9910000000000004E-2</v>
+      </c>
+      <c r="J34">
+        <v>43</v>
+      </c>
+      <c r="K34">
+        <v>313</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" t="s">
+        <v>189</v>
+      </c>
+      <c r="O34" s="44">
+        <f t="shared" ref="O34:O35" si="12">(32*L34*K34)/B34</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35">
+        <v>10016</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="39">
+        <f t="shared" si="11"/>
+        <v>1.0868528944302951</v>
+      </c>
+      <c r="E35">
+        <v>1.2705090000000001</v>
+      </c>
+      <c r="F35">
+        <v>0.159853</v>
+      </c>
+      <c r="G35">
+        <v>21.748798000000001</v>
+      </c>
+      <c r="H35">
+        <v>0.15092900000000001</v>
+      </c>
+      <c r="I35">
+        <v>8.4783999999999998E-2</v>
+      </c>
+      <c r="J35">
+        <v>44</v>
+      </c>
+      <c r="K35">
+        <v>313</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+      <c r="M35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" t="s">
+        <v>189</v>
+      </c>
+      <c r="O35" s="44">
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -16679,11 +19594,11 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E4179B-291C-43EA-ACC3-6101CBE12D43}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16693,12 +19608,12 @@
     <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.453125" customWidth="1"/>
     <col min="5" max="5" width="6.453125" customWidth="1"/>
-    <col min="6" max="6" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.54296875" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" customWidth="1"/>
-    <col min="10" max="10" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.36328125" customWidth="1"/>
     <col min="13" max="13" width="5.6328125" customWidth="1"/>
     <col min="14" max="14" width="6.7265625" customWidth="1"/>
@@ -17095,7 +20010,7 @@
         <f>((E17/$D$5)+(E17/$E$5))/2</f>
         <v>1.0517009039341263</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="39">
         <v>1.0984320000000001</v>
       </c>
       <c r="F17" s="39">
@@ -17107,7 +20022,7 @@
       <c r="H17" s="39">
         <v>0.13535</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="39">
         <v>9.7134999999999999E-2</v>
       </c>
       <c r="J17">
@@ -17144,19 +20059,19 @@
         <f t="shared" ref="D18:D19" si="3">((E18/$D$5)+(E18/$E$5))/2</f>
         <v>1.1476045384263496</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="39">
         <v>1.1985969999999999</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="39">
         <v>0.15098400000000001</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="39">
         <v>18.510760000000001</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="39">
         <v>0.141536</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="39">
         <v>0.10037500000000001</v>
       </c>
       <c r="J18">
@@ -17193,19 +20108,19 @@
         <f t="shared" si="3"/>
         <v>1.1114136386093323</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="39">
         <v>1.160798</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="39">
         <v>0.14939</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="39">
         <v>17.372661000000001</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="39">
         <v>0.139407</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="39">
         <v>9.7533999999999996E-2</v>
       </c>
       <c r="J19">
@@ -17256,19 +20171,19 @@
         <f>((E22/$D$5)+(E22/$E$5))/2</f>
         <v>1.1798669940530651</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="39">
         <v>1.2322930000000001</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="39">
         <v>0.17486299999999999</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="39">
         <v>19.907909</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="39">
         <v>0.16248299999999999</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="39">
         <v>0.114179</v>
       </c>
       <c r="J22">
@@ -17305,19 +20220,19 @@
         <f t="shared" ref="D23:D24" si="6">((E23/$D$5)+(E23/$E$5))/2</f>
         <v>1.1948645933211344</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="39">
         <v>1.247957</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="39">
         <v>0.17571899999999999</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="39">
         <v>19.419625</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="39">
         <v>0.163246</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="39">
         <v>0.113192</v>
       </c>
       <c r="J23">
@@ -17354,19 +20269,19 @@
         <f t="shared" si="6"/>
         <v>1.1274022053979871</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="39">
         <v>1.177497</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="39">
         <v>0.164941</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="39">
         <v>25.232595</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="39">
         <v>0.15296899999999999</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="39">
         <v>0.12441099999999999</v>
       </c>
       <c r="J24">
@@ -17417,19 +20332,19 @@
         <f t="shared" ref="D27:D29" si="8">((E27/$D$5)+(E27/$E$5))/2</f>
         <v>1.1479607122598354</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="39">
         <v>1.198969</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="39">
         <v>0.16498399999999999</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="39">
         <v>19.436844000000001</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="39">
         <v>0.15676100000000001</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="39">
         <v>0.101368</v>
       </c>
       <c r="J27">
@@ -17466,19 +20381,19 @@
         <f t="shared" si="8"/>
         <v>1.0731756967063131</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="39">
         <v>1.1208610000000001</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="39">
         <v>0.15604799999999999</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="39">
         <v>18.544347999999999</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="39">
         <v>0.14652100000000001</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="39">
         <v>9.8779000000000006E-2</v>
       </c>
       <c r="J28">
@@ -17515,19 +20430,19 @@
         <f t="shared" si="8"/>
         <v>1.1450002566331201</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="39">
         <v>1.1958770000000001</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="39">
         <v>0.165406</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="39">
         <v>20.539697</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="39">
         <v>0.159413</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="39">
         <v>0.100018</v>
       </c>
       <c r="J29">
@@ -17564,55 +20479,6 @@
         <v>0.16214599999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>287</v>
-      </c>
-      <c r="B32">
-        <v>10987</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="39">
-        <f t="shared" ref="D32:D34" si="11">((E32/$D$5)+(E32/$E$5))/2</f>
-        <v>1.2767453193046663</v>
-      </c>
-      <c r="E32">
-        <v>1.3334760000000001</v>
-      </c>
-      <c r="F32">
-        <v>0.187944</v>
-      </c>
-      <c r="G32">
-        <v>24.904685000000001</v>
-      </c>
-      <c r="H32">
-        <v>0.17991099999999999</v>
-      </c>
-      <c r="I32">
-        <v>0.125642</v>
-      </c>
-      <c r="J32">
-        <v>42</v>
-      </c>
-      <c r="K32">
-        <v>344</v>
-      </c>
-      <c r="L32">
-        <v>100</v>
-      </c>
-      <c r="M32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N32" t="s">
-        <v>189</v>
-      </c>
-      <c r="O32" s="44">
-        <f t="shared" ref="O32:O37" si="12">(32*L32*K32)/B32</f>
-        <v>100.19113497770093</v>
-      </c>
-    </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>287</v>
@@ -17624,32 +20490,32 @@
         <v>4</v>
       </c>
       <c r="D33" s="39">
-        <f t="shared" si="11"/>
-        <v>1.1933575567246111</v>
+        <f t="shared" ref="D33" si="11">((E33/$D$5)+(E33/$E$5))/2</f>
+        <v>1.1646376903019213</v>
       </c>
       <c r="E33">
-        <v>1.246383</v>
+        <v>1.2163870000000001</v>
       </c>
       <c r="F33">
-        <v>0.17480299999999999</v>
+        <v>0.1666</v>
       </c>
       <c r="G33">
-        <v>24.467533</v>
+        <v>23.876085</v>
       </c>
       <c r="H33">
-        <v>0.162552</v>
+        <v>0.15624499999999999</v>
       </c>
       <c r="I33">
-        <v>0.120666</v>
+        <v>0.121716</v>
       </c>
       <c r="J33">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>344</v>
+        <v>100</v>
       </c>
       <c r="L33">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M33" t="s">
         <v>40</v>
@@ -17658,8 +20524,8 @@
         <v>189</v>
       </c>
       <c r="O33" s="44">
-        <f t="shared" si="12"/>
-        <v>100.19113497770093</v>
+        <f t="shared" ref="O33:O35" si="12">(32*L33*K33)/B33</f>
+        <v>58.250659870756351</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -17673,8 +20539,32 @@
         <v>4</v>
       </c>
       <c r="D34" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" ref="D34:D35" si="13">((E34/$D$5)+(E34/$E$5))/2</f>
+        <v>1.2102662392497714</v>
+      </c>
+      <c r="E34">
+        <v>1.264043</v>
+      </c>
+      <c r="F34">
+        <v>0.17772299999999999</v>
+      </c>
+      <c r="G34">
+        <v>28.471319000000001</v>
+      </c>
+      <c r="H34">
+        <v>0.16067799999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.14185600000000001</v>
+      </c>
+      <c r="J34">
+        <v>43</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="L34">
+        <v>200</v>
       </c>
       <c r="M34" t="s">
         <v>40</v>
@@ -17684,38 +20574,70 @@
       </c>
       <c r="O34" s="44">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>58.250659870756351</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D35" s="39"/>
-      <c r="O35" s="44"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A35" t="s">
         <v>287</v>
       </c>
-      <c r="B37">
+      <c r="B35">
         <v>10987</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C35" t="s">
         <v>4</v>
       </c>
-      <c r="K37">
-        <v>100</v>
-      </c>
-      <c r="L37">
+      <c r="D35" s="39">
+        <f t="shared" si="13"/>
+        <v>1.2621163408051235</v>
+      </c>
+      <c r="E35">
+        <v>1.3181970000000001</v>
+      </c>
+      <c r="F35">
+        <v>0.185255</v>
+      </c>
+      <c r="G35">
+        <v>29.934011999999999</v>
+      </c>
+      <c r="H35">
+        <v>0.17483399999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.13478399999999999</v>
+      </c>
+      <c r="J35">
+        <v>44</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+      <c r="L35">
         <v>200</v>
       </c>
-      <c r="M37" t="s">
-        <v>40</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="M35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" t="s">
         <v>189</v>
       </c>
-      <c r="O37" s="44">
+      <c r="O35" s="44">
         <f t="shared" si="12"/>
         <v>58.250659870756351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D36" s="80">
+        <f t="shared" ref="D36:F36" si="14">AVERAGE(D33:D35)</f>
+        <v>1.2123400901189387</v>
+      </c>
+      <c r="E36" s="80">
+        <f t="shared" si="14"/>
+        <v>1.2662090000000001</v>
+      </c>
+      <c r="F36" s="80">
+        <f t="shared" si="14"/>
+        <v>0.17652599999999999</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -17728,11 +20650,43 @@
       <c r="C38" t="s">
         <v>4</v>
       </c>
+      <c r="D38" s="39">
+        <f t="shared" ref="D38:D40" si="15">((E38/$D$5)+(E38/$E$5))/2</f>
+        <v>1.1510590416285451</v>
+      </c>
+      <c r="E38">
+        <v>1.202205</v>
+      </c>
+      <c r="F38">
+        <v>0.16897899999999999</v>
+      </c>
+      <c r="G38">
+        <v>19.611668999999999</v>
+      </c>
+      <c r="H38">
+        <v>0.15919700000000001</v>
+      </c>
+      <c r="I38">
+        <v>9.7892000000000007E-2</v>
+      </c>
+      <c r="J38">
+        <v>42</v>
+      </c>
+      <c r="K38">
+        <v>200</v>
+      </c>
+      <c r="L38">
+        <v>100</v>
+      </c>
       <c r="M38" t="s">
         <v>40</v>
       </c>
       <c r="N38" t="s">
         <v>189</v>
+      </c>
+      <c r="O38" s="44">
+        <f t="shared" ref="O38:O40" si="16">(32*L38*K38)/B38</f>
+        <v>58.250659870756351</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -17745,12 +20699,269 @@
       <c r="C39" t="s">
         <v>4</v>
       </c>
+      <c r="D39" s="39">
+        <f t="shared" si="15"/>
+        <v>1.1131705713632205</v>
+      </c>
+      <c r="E39">
+        <v>1.162633</v>
+      </c>
+      <c r="F39">
+        <v>0.16370799999999999</v>
+      </c>
+      <c r="G39">
+        <v>19.917041000000001</v>
+      </c>
+      <c r="H39">
+        <v>0.15221000000000001</v>
+      </c>
+      <c r="I39">
+        <v>0.104086</v>
+      </c>
+      <c r="J39">
+        <v>43</v>
+      </c>
+      <c r="K39">
+        <v>200</v>
+      </c>
+      <c r="L39">
+        <v>100</v>
+      </c>
       <c r="M39" t="s">
         <v>40</v>
       </c>
       <c r="N39" t="s">
         <v>189</v>
       </c>
+      <c r="O39" s="44">
+        <f t="shared" si="16"/>
+        <v>58.250659870756351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>287</v>
+      </c>
+      <c r="B40">
+        <v>10987</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="39">
+        <f t="shared" si="15"/>
+        <v>1.144144290484904</v>
+      </c>
+      <c r="E40">
+        <v>1.1949829999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.16921700000000001</v>
+      </c>
+      <c r="G40">
+        <v>20.177575000000001</v>
+      </c>
+      <c r="H40">
+        <v>0.163302</v>
+      </c>
+      <c r="I40">
+        <v>9.6074999999999994E-2</v>
+      </c>
+      <c r="J40">
+        <v>44</v>
+      </c>
+      <c r="K40">
+        <v>200</v>
+      </c>
+      <c r="L40">
+        <v>100</v>
+      </c>
+      <c r="M40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N40" t="s">
+        <v>189</v>
+      </c>
+      <c r="O40" s="44">
+        <f t="shared" si="16"/>
+        <v>58.250659870756351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D41" s="80">
+        <f t="shared" ref="D41:F41" si="17">AVERAGE(D38:D40)</f>
+        <v>1.1361246344922231</v>
+      </c>
+      <c r="E41" s="80">
+        <f t="shared" si="17"/>
+        <v>1.1866069999999997</v>
+      </c>
+      <c r="F41" s="80">
+        <f t="shared" si="17"/>
+        <v>0.1673013333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43">
+        <v>10987</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="39">
+        <f t="shared" ref="D43:D45" si="18">((E43/$D$5)+(E43/$E$5))/2</f>
+        <v>1.2767453193046663</v>
+      </c>
+      <c r="E43" s="39">
+        <v>1.3334760000000001</v>
+      </c>
+      <c r="F43" s="39">
+        <v>0.187944</v>
+      </c>
+      <c r="G43" s="39">
+        <v>24.904685000000001</v>
+      </c>
+      <c r="H43" s="39">
+        <v>0.17991099999999999</v>
+      </c>
+      <c r="I43" s="39">
+        <v>0.125642</v>
+      </c>
+      <c r="J43">
+        <v>42</v>
+      </c>
+      <c r="K43">
+        <v>344</v>
+      </c>
+      <c r="L43">
+        <v>100</v>
+      </c>
+      <c r="M43" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" t="s">
+        <v>189</v>
+      </c>
+      <c r="O43" s="44">
+        <f t="shared" ref="O43:O46" si="19">(32*L43*K43)/B43</f>
+        <v>100.19113497770093</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>287</v>
+      </c>
+      <c r="B44">
+        <v>10987</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="39">
+        <f t="shared" si="18"/>
+        <v>1.1933575567246111</v>
+      </c>
+      <c r="E44" s="39">
+        <v>1.246383</v>
+      </c>
+      <c r="F44" s="39">
+        <v>0.17480299999999999</v>
+      </c>
+      <c r="G44" s="39">
+        <v>24.467533</v>
+      </c>
+      <c r="H44" s="39">
+        <v>0.162552</v>
+      </c>
+      <c r="I44" s="39">
+        <v>0.120666</v>
+      </c>
+      <c r="J44">
+        <v>43</v>
+      </c>
+      <c r="K44">
+        <v>344</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+      <c r="M44" t="s">
+        <v>40</v>
+      </c>
+      <c r="N44" t="s">
+        <v>189</v>
+      </c>
+      <c r="O44" s="44">
+        <f t="shared" si="19"/>
+        <v>100.19113497770093</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45">
+        <v>10987</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="39">
+        <f t="shared" si="18"/>
+        <v>1.2437820054894786</v>
+      </c>
+      <c r="E45" s="39">
+        <v>1.299048</v>
+      </c>
+      <c r="F45" s="39">
+        <v>0.18410599999999999</v>
+      </c>
+      <c r="G45" s="39">
+        <v>20.602916</v>
+      </c>
+      <c r="H45" s="39">
+        <v>0.179261</v>
+      </c>
+      <c r="I45" s="39">
+        <v>0.10452</v>
+      </c>
+      <c r="J45">
+        <v>44</v>
+      </c>
+      <c r="K45">
+        <v>344</v>
+      </c>
+      <c r="L45">
+        <v>100</v>
+      </c>
+      <c r="M45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45" t="s">
+        <v>189</v>
+      </c>
+      <c r="O45" s="44">
+        <f t="shared" si="19"/>
+        <v>100.19113497770093</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D46" s="80">
+        <f t="shared" ref="D46:F46" si="20">AVERAGE(D43:D45)</f>
+        <v>1.2379616271729186</v>
+      </c>
+      <c r="E46" s="80">
+        <f t="shared" si="20"/>
+        <v>1.292969</v>
+      </c>
+      <c r="F46" s="80">
+        <f t="shared" si="20"/>
+        <v>0.18228433333333335</v>
+      </c>
+      <c r="O46" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -17760,11 +20971,11 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B233DD3-5E5F-4814-A1F2-256959227989}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17995,183 +21206,77 @@
         <v>4.9023999999999998E-2</v>
       </c>
     </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+    </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>286</v>
       </c>
-      <c r="B13">
+      <c r="B17">
         <v>5728</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="39">
-        <f t="shared" ref="D13:D15" si="0">((E13/$E$5)+(F13/$F$5))/2</f>
+      <c r="D17" s="39">
+        <f t="shared" ref="D17:D19" si="0">((E17/$E$5)+(F17/$F$5))/2</f>
         <v>0.99813967310386076</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E17" s="39">
         <v>1.0167649999999999</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F17" s="39">
         <v>5.3719999999999997E-2</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G17" s="39">
         <v>10.520937999999999</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H17" s="39">
         <v>5.3120000000000001E-2</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I17" s="39">
         <v>2.8027E-2</v>
       </c>
-      <c r="J13">
+      <c r="J17">
         <v>42</v>
       </c>
-      <c r="K13">
-        <v>100</v>
-      </c>
-      <c r="L13">
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
         <v>50</v>
       </c>
-      <c r="M13">
+      <c r="M17">
         <v>32</v>
       </c>
-      <c r="N13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="N17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" t="s">
         <v>189</v>
       </c>
-      <c r="P13" s="44">
-        <f>(M13*L13*K13)/B13</f>
+      <c r="P17" s="44">
+        <f>(M17*L17*K17)/B17</f>
         <v>27.932960893854748</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>286</v>
-      </c>
-      <c r="B14">
-        <v>5728</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="39">
-        <f t="shared" si="0"/>
-        <v>0.9694909828303373</v>
-      </c>
-      <c r="E14" s="39">
-        <v>0.98997199999999996</v>
-      </c>
-      <c r="F14" s="39">
-        <v>5.2053000000000002E-2</v>
-      </c>
-      <c r="G14" s="39">
-        <v>12.945753</v>
-      </c>
-      <c r="H14" s="39">
-        <v>5.1672000000000003E-2</v>
-      </c>
-      <c r="I14" s="39">
-        <v>3.0074E-2</v>
-      </c>
-      <c r="J14">
-        <v>43</v>
-      </c>
-      <c r="K14">
-        <v>100</v>
-      </c>
-      <c r="L14">
-        <v>50</v>
-      </c>
-      <c r="M14">
-        <v>32</v>
-      </c>
-      <c r="N14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" t="s">
-        <v>189</v>
-      </c>
-      <c r="P14" s="44">
-        <f t="shared" ref="P14:P25" si="1">(M14*L14*K14)/B14</f>
-        <v>27.932960893854748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>286</v>
-      </c>
-      <c r="B15">
-        <v>5728</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="39">
-        <f t="shared" si="0"/>
-        <v>0.97003133270728015</v>
-      </c>
-      <c r="E15" s="39">
-        <v>1.000515</v>
-      </c>
-      <c r="F15" s="39">
-        <v>5.1559000000000001E-2</v>
-      </c>
-      <c r="G15" s="39">
-        <v>17.730823999999998</v>
-      </c>
-      <c r="H15" s="39">
-        <v>5.0356999999999999E-2</v>
-      </c>
-      <c r="I15" s="39">
-        <v>2.801E-2</v>
-      </c>
-      <c r="J15">
-        <v>44</v>
-      </c>
-      <c r="K15">
-        <v>100</v>
-      </c>
-      <c r="L15">
-        <v>50</v>
-      </c>
-      <c r="M15">
-        <v>32</v>
-      </c>
-      <c r="N15" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" t="s">
-        <v>189</v>
-      </c>
-      <c r="P15" s="44">
-        <f t="shared" si="1"/>
-        <v>27.932960893854748</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D16" s="80">
-        <f>AVERAGE(D13:D15)</f>
-        <v>0.97922066288049281</v>
-      </c>
-      <c r="E16" s="80">
-        <f t="shared" ref="E16:F16" si="2">AVERAGE(E13:E15)</f>
-        <v>1.0024173333333333</v>
-      </c>
-      <c r="F16" s="80">
-        <f t="shared" si="2"/>
-        <v>5.2443999999999998E-2</v>
-      </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="P16" s="44"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D17" s="39"/>
-      <c r="P17" s="44"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -18184,32 +21289,32 @@
         <v>8</v>
       </c>
       <c r="D18" s="39">
-        <f t="shared" ref="D18:D20" si="3">((E18/$E$5)+(F18/$F$5))/2</f>
-        <v>0.94329623778130678</v>
+        <f t="shared" si="0"/>
+        <v>0.9694909828303373</v>
       </c>
       <c r="E18" s="39">
-        <v>0.95511599999999997</v>
+        <v>0.98997199999999996</v>
       </c>
       <c r="F18" s="39">
-        <v>5.1070999999999998E-2</v>
+        <v>5.2053000000000002E-2</v>
       </c>
       <c r="G18" s="39">
-        <v>9.0040209999999998</v>
+        <v>12.945753</v>
       </c>
       <c r="H18" s="39">
-        <v>5.0245999999999999E-2</v>
+        <v>5.1672000000000003E-2</v>
       </c>
       <c r="I18" s="39">
-        <v>2.5684999999999999E-2</v>
+        <v>3.0074E-2</v>
       </c>
       <c r="J18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>100</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M18">
         <v>32</v>
@@ -18221,8 +21326,8 @@
         <v>189</v>
       </c>
       <c r="P18" s="44">
-        <f t="shared" si="1"/>
-        <v>55.865921787709496</v>
+        <f t="shared" ref="P18:P29" si="1">(M18*L18*K18)/B18</f>
+        <v>27.932960893854748</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -18236,32 +21341,32 @@
         <v>8</v>
       </c>
       <c r="D19" s="39">
-        <f t="shared" si="3"/>
-        <v>0.93733790089914371</v>
+        <f t="shared" si="0"/>
+        <v>0.97003133270728015</v>
       </c>
       <c r="E19" s="39">
-        <v>0.96355199999999996</v>
+        <v>1.000515</v>
       </c>
       <c r="F19" s="39">
-        <v>4.9991000000000001E-2</v>
+        <v>5.1559000000000001E-2</v>
       </c>
       <c r="G19" s="39">
-        <v>12.902528</v>
+        <v>17.730823999999998</v>
       </c>
       <c r="H19" s="39">
-        <v>4.8619999999999997E-2</v>
+        <v>5.0356999999999999E-2</v>
       </c>
       <c r="I19" s="39">
-        <v>2.5381999999999998E-2</v>
+        <v>2.801E-2</v>
       </c>
       <c r="J19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>100</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M19">
         <v>32</v>
@@ -18274,78 +21379,82 @@
       </c>
       <c r="P19" s="44">
         <f t="shared" si="1"/>
-        <v>55.865921787709496</v>
+        <v>27.932960893854748</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="D20" s="80">
+        <f>AVERAGE(D17:D19)</f>
+        <v>0.97922066288049281</v>
+      </c>
+      <c r="E20" s="80">
+        <f t="shared" ref="E20:F20" si="2">AVERAGE(E17:E19)</f>
+        <v>1.0024173333333333</v>
+      </c>
+      <c r="F20" s="80">
+        <f t="shared" si="2"/>
+        <v>5.2443999999999998E-2</v>
+      </c>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="P20" s="44"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D21" s="39"/>
+      <c r="P21" s="44"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>286</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>5728</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="39">
-        <f t="shared" si="3"/>
-        <v>0.93904626020514426</v>
-      </c>
-      <c r="E20" s="39">
-        <v>0.954345</v>
-      </c>
-      <c r="F20" s="39">
-        <v>5.0656E-2</v>
-      </c>
-      <c r="G20" s="39">
-        <v>9.7171380000000003</v>
-      </c>
-      <c r="H20" s="39">
-        <v>4.9391999999999998E-2</v>
-      </c>
-      <c r="I20" s="39">
-        <v>2.4788000000000001E-2</v>
-      </c>
-      <c r="J20">
-        <v>44</v>
-      </c>
-      <c r="K20">
-        <v>100</v>
-      </c>
-      <c r="L20">
-        <v>100</v>
-      </c>
-      <c r="M20">
+      <c r="D22" s="39">
+        <f t="shared" ref="D22:D24" si="3">((E22/$E$5)+(F22/$F$5))/2</f>
+        <v>0.94329623778130678</v>
+      </c>
+      <c r="E22" s="39">
+        <v>0.95511599999999997</v>
+      </c>
+      <c r="F22" s="39">
+        <v>5.1070999999999998E-2</v>
+      </c>
+      <c r="G22" s="39">
+        <v>9.0040209999999998</v>
+      </c>
+      <c r="H22" s="39">
+        <v>5.0245999999999999E-2</v>
+      </c>
+      <c r="I22" s="39">
+        <v>2.5684999999999999E-2</v>
+      </c>
+      <c r="J22">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
         <v>32</v>
       </c>
-      <c r="N20" t="s">
-        <v>40</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="N22" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" t="s">
         <v>189</v>
       </c>
-      <c r="P20" s="44">
+      <c r="P22" s="44">
         <f t="shared" si="1"/>
         <v>55.865921787709496</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D21" s="80">
-        <f>AVERAGE(D18:D20)</f>
-        <v>0.93989346629519821</v>
-      </c>
-      <c r="E21" s="80">
-        <f t="shared" ref="E21:F21" si="4">AVERAGE(E18:E20)</f>
-        <v>0.95767099999999994</v>
-      </c>
-      <c r="F21" s="80">
-        <f t="shared" si="4"/>
-        <v>5.0572666666666662E-2</v>
-      </c>
-      <c r="P21" s="44"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P22" s="44"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -18355,35 +21464,35 @@
         <v>5728</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D23" s="39">
-        <f>((E23/$E$5)+(F23/$F$5))/2</f>
-        <v>1.0264748382583599</v>
-      </c>
-      <c r="E23">
-        <v>1.046565</v>
-      </c>
-      <c r="F23">
-        <v>5.5196000000000002E-2</v>
-      </c>
-      <c r="G23">
-        <v>14.441508000000001</v>
-      </c>
-      <c r="H23">
-        <v>5.4916E-2</v>
-      </c>
-      <c r="I23">
-        <v>3.1238999999999999E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.93733790089914371</v>
+      </c>
+      <c r="E23" s="39">
+        <v>0.96355199999999996</v>
+      </c>
+      <c r="F23" s="39">
+        <v>4.9991000000000001E-2</v>
+      </c>
+      <c r="G23" s="39">
+        <v>12.902528</v>
+      </c>
+      <c r="H23" s="39">
+        <v>4.8619999999999997E-2</v>
+      </c>
+      <c r="I23" s="39">
+        <v>2.5381999999999998E-2</v>
       </c>
       <c r="J23">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>100</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M23">
         <v>32</v>
@@ -18396,7 +21505,7 @@
       </c>
       <c r="P23" s="44">
         <f t="shared" si="1"/>
-        <v>27.932960893854748</v>
+        <v>55.865921787709496</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
@@ -18407,35 +21516,35 @@
         <v>5728</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="39">
-        <f>((E24/$E$5)+(F24/$F$5))/2</f>
-        <v>0.98684391649206815</v>
-      </c>
-      <c r="E24">
-        <v>1.0167980000000001</v>
-      </c>
-      <c r="F24">
-        <v>5.2507999999999999E-2</v>
-      </c>
-      <c r="G24">
-        <v>13.598958</v>
-      </c>
-      <c r="H24">
-        <v>5.2236999999999999E-2</v>
-      </c>
-      <c r="I24">
-        <v>3.0720999999999998E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.93904626020514426</v>
+      </c>
+      <c r="E24" s="39">
+        <v>0.954345</v>
+      </c>
+      <c r="F24" s="39">
+        <v>5.0656E-2</v>
+      </c>
+      <c r="G24" s="39">
+        <v>9.7171380000000003</v>
+      </c>
+      <c r="H24" s="39">
+        <v>4.9391999999999998E-2</v>
+      </c>
+      <c r="I24" s="39">
+        <v>2.4788000000000001E-2</v>
       </c>
       <c r="J24">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>100</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M24">
         <v>32</v>
@@ -18448,73 +21557,77 @@
       </c>
       <c r="P24" s="44">
         <f t="shared" si="1"/>
-        <v>27.932960893854748</v>
+        <v>55.865921787709496</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="D25" s="80">
+        <f>AVERAGE(D22:D24)</f>
+        <v>0.93989346629519821</v>
+      </c>
+      <c r="E25" s="80">
+        <f t="shared" ref="E25:F25" si="4">AVERAGE(E22:E24)</f>
+        <v>0.95767099999999994</v>
+      </c>
+      <c r="F25" s="80">
+        <f t="shared" si="4"/>
+        <v>5.0572666666666662E-2</v>
+      </c>
+      <c r="P25" s="44"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P26" s="44"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>286</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>5728</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="39">
-        <f>((E25/$E$5)+(F25/$F$5))/2</f>
-        <v>0.99809186024405161</v>
-      </c>
-      <c r="E25">
-        <v>1.0094270000000001</v>
-      </c>
-      <c r="F25">
-        <v>5.4099000000000001E-2</v>
-      </c>
-      <c r="G25">
-        <v>14.465218</v>
-      </c>
-      <c r="H25">
-        <v>5.3664000000000003E-2</v>
-      </c>
-      <c r="I25">
-        <v>3.1007E-2</v>
-      </c>
-      <c r="J25">
-        <v>44</v>
-      </c>
-      <c r="K25">
-        <v>100</v>
-      </c>
-      <c r="L25">
+      <c r="D27" s="39">
+        <f>((E27/$E$5)+(F27/$F$5))/2</f>
+        <v>1.0264748382583599</v>
+      </c>
+      <c r="E27">
+        <v>1.046565</v>
+      </c>
+      <c r="F27">
+        <v>5.5196000000000002E-2</v>
+      </c>
+      <c r="G27">
+        <v>14.441508000000001</v>
+      </c>
+      <c r="H27">
+        <v>5.4916E-2</v>
+      </c>
+      <c r="I27">
+        <v>3.1238999999999999E-2</v>
+      </c>
+      <c r="J27">
+        <v>42</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
         <v>50</v>
       </c>
-      <c r="M25">
+      <c r="M27">
         <v>32</v>
       </c>
-      <c r="N25" t="s">
-        <v>40</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="N27" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" t="s">
         <v>189</v>
       </c>
-      <c r="P25" s="44">
+      <c r="P27" s="44">
         <f t="shared" si="1"/>
         <v>27.932960893854748</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D26" s="80">
-        <f>AVERAGE(D23:D25)</f>
-        <v>1.0038035383314934</v>
-      </c>
-      <c r="E26" s="80">
-        <f t="shared" ref="E26:F26" si="5">AVERAGE(E23:E25)</f>
-        <v>1.0242633333333333</v>
-      </c>
-      <c r="F26" s="80">
-        <f t="shared" si="5"/>
-        <v>5.3934333333333334E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
@@ -18528,32 +21641,32 @@
         <v>4</v>
       </c>
       <c r="D28" s="39">
-        <f t="shared" ref="D28:D30" si="6">((E28/$E$5)+(F28/$F$5))/2</f>
-        <v>0.93084259489740995</v>
+        <f>((E28/$E$5)+(F28/$F$5))/2</f>
+        <v>0.98684391649206815</v>
       </c>
       <c r="E28">
-        <v>0.949627</v>
+        <v>1.0167980000000001</v>
       </c>
       <c r="F28">
-        <v>5.0023999999999999E-2</v>
+        <v>5.2507999999999999E-2</v>
       </c>
       <c r="G28">
-        <v>14.214729</v>
+        <v>13.598958</v>
       </c>
       <c r="H28">
-        <v>4.9217999999999998E-2</v>
+        <v>5.2236999999999999E-2</v>
       </c>
       <c r="I28">
-        <v>2.7799000000000001E-2</v>
+        <v>3.0720999999999998E-2</v>
       </c>
       <c r="J28">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>100</v>
       </c>
       <c r="L28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M28">
         <v>32</v>
@@ -18565,8 +21678,8 @@
         <v>189</v>
       </c>
       <c r="P28" s="44">
-        <f t="shared" ref="P28:P30" si="7">(M28*L28*K28)/B28</f>
-        <v>55.865921787709496</v>
+        <f t="shared" si="1"/>
+        <v>27.932960893854748</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
@@ -18580,32 +21693,32 @@
         <v>4</v>
       </c>
       <c r="D29" s="39">
-        <f t="shared" si="6"/>
-        <v>0.92965207812977124</v>
+        <f>((E29/$E$5)+(F29/$F$5))/2</f>
+        <v>0.99809186024405161</v>
       </c>
       <c r="E29">
-        <v>0.944554</v>
+        <v>1.0094270000000001</v>
       </c>
       <c r="F29">
-        <v>5.0161999999999998E-2</v>
+        <v>5.4099000000000001E-2</v>
       </c>
       <c r="G29">
-        <v>13.504451</v>
+        <v>14.465218</v>
       </c>
       <c r="H29">
-        <v>4.9356999999999998E-2</v>
+        <v>5.3664000000000003E-2</v>
       </c>
       <c r="I29">
-        <v>2.8638E-2</v>
+        <v>3.1007E-2</v>
       </c>
       <c r="J29">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>100</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M29">
         <v>32</v>
@@ -18617,74 +21730,74 @@
         <v>189</v>
       </c>
       <c r="P29" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
+        <v>27.932960893854748</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D30" s="80">
+        <f>AVERAGE(D27:D29)</f>
+        <v>1.0038035383314934</v>
+      </c>
+      <c r="E30" s="80">
+        <f t="shared" ref="E30:F30" si="5">AVERAGE(E27:E29)</f>
+        <v>1.0242633333333333</v>
+      </c>
+      <c r="F30" s="80">
+        <f t="shared" si="5"/>
+        <v>5.3934333333333334E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32">
+        <v>5728</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="39">
+        <f t="shared" ref="D32:D34" si="6">((E32/$E$5)+(F32/$F$5))/2</f>
+        <v>0.93084259489740995</v>
+      </c>
+      <c r="E32">
+        <v>0.949627</v>
+      </c>
+      <c r="F32">
+        <v>5.0023999999999999E-2</v>
+      </c>
+      <c r="G32">
+        <v>14.214729</v>
+      </c>
+      <c r="H32">
+        <v>4.9217999999999998E-2</v>
+      </c>
+      <c r="I32">
+        <v>2.7799000000000001E-2</v>
+      </c>
+      <c r="J32">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+      <c r="M32">
+        <v>32</v>
+      </c>
+      <c r="N32" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" t="s">
+        <v>189</v>
+      </c>
+      <c r="P32" s="44">
+        <f t="shared" ref="P32:P34" si="7">(M32*L32*K32)/B32</f>
         <v>55.865921787709496</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>286</v>
-      </c>
-      <c r="B30">
-        <v>5728</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="39">
-        <f t="shared" si="6"/>
-        <v>0.95310550741266331</v>
-      </c>
-      <c r="E30">
-        <v>0.98507</v>
-      </c>
-      <c r="F30">
-        <v>5.0554000000000002E-2</v>
-      </c>
-      <c r="G30">
-        <v>14.790940000000001</v>
-      </c>
-      <c r="H30">
-        <v>4.9703999999999998E-2</v>
-      </c>
-      <c r="I30">
-        <v>2.93E-2</v>
-      </c>
-      <c r="J30">
-        <v>44</v>
-      </c>
-      <c r="K30">
-        <v>100</v>
-      </c>
-      <c r="L30">
-        <v>100</v>
-      </c>
-      <c r="M30">
-        <v>32</v>
-      </c>
-      <c r="N30" t="s">
-        <v>40</v>
-      </c>
-      <c r="O30" t="s">
-        <v>189</v>
-      </c>
-      <c r="P30" s="44">
-        <f t="shared" si="7"/>
-        <v>55.865921787709496</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D31" s="80">
-        <f>AVERAGE(D28:D30)</f>
-        <v>0.93786672681328154</v>
-      </c>
-      <c r="E31" s="80">
-        <f t="shared" ref="E31:F31" si="8">AVERAGE(E28:E30)</f>
-        <v>0.95975033333333337</v>
-      </c>
-      <c r="F31" s="80">
-        <f t="shared" si="8"/>
-        <v>5.0246666666666662E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -18698,29 +21811,29 @@
         <v>4</v>
       </c>
       <c r="D33" s="39">
-        <f t="shared" ref="D33:D35" si="9">((E33/$E$5)+(F33/$F$5))/2</f>
-        <v>0.93343082680624678</v>
+        <f t="shared" si="6"/>
+        <v>0.92965207812977124</v>
       </c>
       <c r="E33">
-        <v>0.94852499999999995</v>
+        <v>0.944554</v>
       </c>
       <c r="F33">
-        <v>5.0359000000000001E-2</v>
+        <v>5.0161999999999998E-2</v>
       </c>
       <c r="G33">
-        <v>13.586245</v>
+        <v>13.504451</v>
       </c>
       <c r="H33">
-        <v>5.0152000000000002E-2</v>
+        <v>4.9356999999999998E-2</v>
       </c>
       <c r="I33">
-        <v>2.8164999999999999E-2</v>
+        <v>2.8638E-2</v>
       </c>
       <c r="J33">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="L33">
         <v>100</v>
@@ -18735,8 +21848,8 @@
         <v>189</v>
       </c>
       <c r="P33" s="44">
-        <f t="shared" ref="P33:P35" si="10">(M33*L33*K33)/B33</f>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>55.865921787709496</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
@@ -18750,29 +21863,29 @@
         <v>4</v>
       </c>
       <c r="D34" s="39">
-        <f t="shared" si="9"/>
-        <v>0.94705603847931963</v>
+        <f t="shared" si="6"/>
+        <v>0.95310550741266331</v>
       </c>
       <c r="E34">
-        <v>0.96011800000000003</v>
+        <v>0.98507</v>
       </c>
       <c r="F34">
-        <v>5.1212000000000001E-2</v>
+        <v>5.0554000000000002E-2</v>
       </c>
       <c r="G34">
-        <v>14.171642</v>
+        <v>14.790940000000001</v>
       </c>
       <c r="H34">
-        <v>5.0687000000000003E-2</v>
+        <v>4.9703999999999998E-2</v>
       </c>
       <c r="I34">
-        <v>2.9760999999999999E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="J34">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="L34">
         <v>100</v>
@@ -18787,74 +21900,74 @@
         <v>189</v>
       </c>
       <c r="P34" s="44">
-        <f t="shared" si="10"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>55.865921787709496</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="D35" s="80">
+        <f>AVERAGE(D32:D34)</f>
+        <v>0.93786672681328154</v>
+      </c>
+      <c r="E35" s="80">
+        <f t="shared" ref="E35:F35" si="8">AVERAGE(E32:E34)</f>
+        <v>0.95975033333333337</v>
+      </c>
+      <c r="F35" s="80">
+        <f t="shared" si="8"/>
+        <v>5.0246666666666662E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>286</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>5728</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="39">
-        <f t="shared" si="9"/>
-        <v>0.95937143685515225</v>
-      </c>
-      <c r="E35">
-        <v>0.98733099999999996</v>
-      </c>
-      <c r="F35">
-        <v>5.1107E-2</v>
-      </c>
-      <c r="G35">
-        <v>15.097863</v>
-      </c>
-      <c r="H35">
-        <v>5.0362999999999998E-2</v>
-      </c>
-      <c r="I35">
-        <v>2.9975999999999999E-2</v>
-      </c>
-      <c r="J35">
-        <v>44</v>
-      </c>
-      <c r="K35">
+      <c r="D37" s="39">
+        <f t="shared" ref="D37:D39" si="9">((E37/$E$5)+(F37/$F$5))/2</f>
+        <v>0.93343082680624678</v>
+      </c>
+      <c r="E37">
+        <v>0.94852499999999995</v>
+      </c>
+      <c r="F37">
+        <v>5.0359000000000001E-2</v>
+      </c>
+      <c r="G37">
+        <v>13.586245</v>
+      </c>
+      <c r="H37">
+        <v>5.0152000000000002E-2</v>
+      </c>
+      <c r="I37">
+        <v>2.8164999999999999E-2</v>
+      </c>
+      <c r="J37">
+        <v>42</v>
+      </c>
+      <c r="K37">
         <v>179</v>
       </c>
-      <c r="L35">
-        <v>100</v>
-      </c>
-      <c r="M35">
+      <c r="L37">
+        <v>100</v>
+      </c>
+      <c r="M37">
         <v>32</v>
       </c>
-      <c r="N35" t="s">
-        <v>40</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="N37" t="s">
+        <v>40</v>
+      </c>
+      <c r="O37" t="s">
         <v>189</v>
       </c>
-      <c r="P35" s="44">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D36" s="80">
-        <f>AVERAGE(D33:D35)</f>
-        <v>0.94661943404690618</v>
-      </c>
-      <c r="E36" s="80">
-        <f t="shared" ref="E36:F36" si="11">AVERAGE(E33:E35)</f>
-        <v>0.96532466666666661</v>
-      </c>
-      <c r="F36" s="80">
-        <f t="shared" si="11"/>
-        <v>5.0892666666666662E-2</v>
+      <c r="P37" s="44">
+        <f t="shared" ref="P37:P39" si="10">(M37*L37*K37)/B37</f>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
@@ -18868,35 +21981,35 @@
         <v>4</v>
       </c>
       <c r="D38" s="39">
-        <f>((E38/$E$5)+(F38/$F$5))/2</f>
-        <v>0.97493482776311402</v>
+        <f t="shared" si="9"/>
+        <v>0.94705603847931963</v>
       </c>
       <c r="E38">
-        <v>1.0025090000000001</v>
+        <v>0.96011800000000003</v>
       </c>
       <c r="F38">
-        <v>5.1979999999999998E-2</v>
+        <v>5.1212000000000001E-2</v>
       </c>
       <c r="G38">
-        <v>14.3985</v>
+        <v>14.171642</v>
       </c>
       <c r="H38">
-        <v>5.1258999999999999E-2</v>
+        <v>5.0687000000000003E-2</v>
       </c>
       <c r="I38">
-        <v>2.9846000000000001E-2</v>
+        <v>2.9760999999999999E-2</v>
       </c>
       <c r="J38">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="L38">
         <v>100</v>
       </c>
       <c r="M38">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N38" t="s">
         <v>40</v>
@@ -18905,8 +22018,8 @@
         <v>189</v>
       </c>
       <c r="P38" s="44">
-        <f t="shared" ref="P38:P40" si="12">(M38*L38*K38)/B38</f>
-        <v>111.73184357541899</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
@@ -18920,35 +22033,35 @@
         <v>4</v>
       </c>
       <c r="D39" s="39">
-        <f>((E39/$E$5)+(F39/$F$5))/2</f>
-        <v>1.0007583797993524</v>
+        <f t="shared" si="9"/>
+        <v>0.95937143685515225</v>
       </c>
       <c r="E39">
-        <v>1.008256</v>
+        <v>0.98733099999999996</v>
       </c>
       <c r="F39">
-        <v>5.4446000000000001E-2</v>
+        <v>5.1107E-2</v>
       </c>
       <c r="G39">
-        <v>14.431642999999999</v>
+        <v>15.097863</v>
       </c>
       <c r="H39">
-        <v>5.4231000000000001E-2</v>
+        <v>5.0362999999999998E-2</v>
       </c>
       <c r="I39">
-        <v>2.8705999999999999E-2</v>
+        <v>2.9975999999999999E-2</v>
       </c>
       <c r="J39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K39">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="L39">
         <v>100</v>
       </c>
       <c r="M39">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N39" t="s">
         <v>40</v>
@@ -18957,72 +22070,190 @@
         <v>189</v>
       </c>
       <c r="P39" s="44">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D40" s="80">
+        <f>AVERAGE(D37:D39)</f>
+        <v>0.94661943404690618</v>
+      </c>
+      <c r="E40" s="80">
+        <f t="shared" ref="E40:F40" si="11">AVERAGE(E37:E39)</f>
+        <v>0.96532466666666661</v>
+      </c>
+      <c r="F40" s="80">
+        <f t="shared" si="11"/>
+        <v>5.0892666666666662E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>286</v>
+      </c>
+      <c r="B42">
+        <v>5728</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="39">
+        <f>((E42/$E$5)+(F42/$F$5))/2</f>
+        <v>0.97493482776311402</v>
+      </c>
+      <c r="E42">
+        <v>1.0025090000000001</v>
+      </c>
+      <c r="F42">
+        <v>5.1979999999999998E-2</v>
+      </c>
+      <c r="G42">
+        <v>14.3985</v>
+      </c>
+      <c r="H42">
+        <v>5.1258999999999999E-2</v>
+      </c>
+      <c r="I42">
+        <v>2.9846000000000001E-2</v>
+      </c>
+      <c r="J42">
+        <v>42</v>
+      </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
+      <c r="L42">
+        <v>100</v>
+      </c>
+      <c r="M42">
+        <v>64</v>
+      </c>
+      <c r="N42" t="s">
+        <v>40</v>
+      </c>
+      <c r="O42" t="s">
+        <v>189</v>
+      </c>
+      <c r="P42" s="44">
+        <f t="shared" ref="P42:P44" si="12">(M42*L42*K42)/B42</f>
+        <v>111.73184357541899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B43">
+        <v>5728</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="39">
+        <f>((E43/$E$5)+(F43/$F$5))/2</f>
+        <v>1.0007583797993524</v>
+      </c>
+      <c r="E43">
+        <v>1.008256</v>
+      </c>
+      <c r="F43">
+        <v>5.4446000000000001E-2</v>
+      </c>
+      <c r="G43">
+        <v>14.431642999999999</v>
+      </c>
+      <c r="H43">
+        <v>5.4231000000000001E-2</v>
+      </c>
+      <c r="I43">
+        <v>2.8705999999999999E-2</v>
+      </c>
+      <c r="J43">
+        <v>43</v>
+      </c>
+      <c r="K43">
+        <v>100</v>
+      </c>
+      <c r="L43">
+        <v>100</v>
+      </c>
+      <c r="M43">
+        <v>64</v>
+      </c>
+      <c r="N43" t="s">
+        <v>40</v>
+      </c>
+      <c r="O43" t="s">
+        <v>189</v>
+      </c>
+      <c r="P43" s="44">
         <f t="shared" si="12"/>
         <v>111.73184357541899</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>286</v>
       </c>
-      <c r="B40">
+      <c r="B44">
         <v>5728</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C44" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="39">
-        <f>((E40/$E$5)+(F40/$F$5))/2</f>
+      <c r="D44" s="39">
+        <f>((E44/$E$5)+(F44/$F$5))/2</f>
         <v>0.98111594337248187</v>
       </c>
-      <c r="E40">
+      <c r="E44">
         <v>0.99638199999999999</v>
       </c>
-      <c r="F40">
+      <c r="F44">
         <v>5.2963000000000003E-2</v>
       </c>
-      <c r="G40">
+      <c r="G44">
         <v>14.555837</v>
       </c>
-      <c r="H40">
+      <c r="H44">
         <v>5.2306999999999999E-2</v>
       </c>
-      <c r="I40">
+      <c r="I44">
         <v>2.9583000000000002E-2</v>
       </c>
-      <c r="J40">
+      <c r="J44">
         <v>44</v>
       </c>
-      <c r="K40">
-        <v>100</v>
-      </c>
-      <c r="L40">
-        <v>100</v>
-      </c>
-      <c r="M40">
+      <c r="K44">
+        <v>100</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+      <c r="M44">
         <v>64</v>
       </c>
-      <c r="N40" t="s">
-        <v>40</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="N44" t="s">
+        <v>40</v>
+      </c>
+      <c r="O44" t="s">
         <v>189</v>
       </c>
-      <c r="P40" s="44">
+      <c r="P44" s="44">
         <f t="shared" si="12"/>
         <v>111.73184357541899</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D41" s="80">
-        <f>AVERAGE(D38:D40)</f>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D45" s="80">
+        <f>AVERAGE(D42:D44)</f>
         <v>0.98560305031164941</v>
       </c>
-      <c r="E41" s="80">
-        <f t="shared" ref="E41:F41" si="13">AVERAGE(E38:E40)</f>
+      <c r="E45" s="80">
+        <f t="shared" ref="E45:F45" si="13">AVERAGE(E42:E44)</f>
         <v>1.0023823333333335</v>
       </c>
-      <c r="F41" s="80">
+      <c r="F45" s="80">
         <f t="shared" si="13"/>
         <v>5.3129666666666665E-2</v>
       </c>
@@ -19035,11 +22266,11 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EC5186-3C9F-4963-A58C-8828665F06F5}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37:D38"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19272,6 +22503,11 @@
         <v>0.13200699999999999</v>
       </c>
     </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+    </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>290</v>
@@ -19280,48 +22516,16 @@
         <v>277</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="39">
-        <f>((E12/$E$5)+(F12/$F$5))/2</f>
-        <v>0.98894499458131246</v>
-      </c>
-      <c r="E12" s="39">
-        <v>1.0396380000000001</v>
-      </c>
-      <c r="F12" s="39">
-        <v>0.136048</v>
-      </c>
-      <c r="G12" s="39">
-        <v>13.448067</v>
-      </c>
-      <c r="H12" s="39">
-        <v>0.117726</v>
-      </c>
-      <c r="I12" s="39">
-        <v>6.4357999999999999E-2</v>
-      </c>
-      <c r="J12">
-        <v>42</v>
-      </c>
-      <c r="K12">
-        <v>100</v>
-      </c>
-      <c r="L12">
-        <v>50</v>
-      </c>
-      <c r="M12" s="1">
-        <v>32</v>
-      </c>
-      <c r="N12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" t="s">
-        <v>189</v>
-      </c>
-      <c r="P12" s="44">
-        <f>(M12*L12*K12)/B12</f>
-        <v>577.61732851985562</v>
+        <v>211</v>
+      </c>
+      <c r="D12">
+        <v>0.88490000000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="F12">
+        <v>0.131277</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -19332,48 +22536,16 @@
         <v>277</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="39">
-        <f t="shared" ref="D13:D19" si="0">((E13/$E$5)+(F13/$F$5))/2</f>
-        <v>0.98889965417225678</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1.051337</v>
-      </c>
-      <c r="F13" s="39">
-        <v>0.13435800000000001</v>
-      </c>
-      <c r="G13" s="39">
-        <v>14.182729</v>
-      </c>
-      <c r="H13" s="39">
-        <v>0.116683</v>
-      </c>
-      <c r="I13" s="39">
-        <v>7.1858000000000005E-2</v>
-      </c>
-      <c r="J13">
-        <v>43</v>
-      </c>
-      <c r="K13">
-        <v>100</v>
-      </c>
-      <c r="L13">
-        <v>50</v>
-      </c>
-      <c r="M13" s="1">
-        <v>32</v>
-      </c>
-      <c r="N13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" t="s">
-        <v>189</v>
-      </c>
-      <c r="P13" s="44">
-        <f t="shared" ref="P13:P24" si="1">(M13*L13*K13)/B13</f>
-        <v>577.61732851985562</v>
+        <v>212</v>
+      </c>
+      <c r="D13">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="E13">
+        <v>0.83209999999999995</v>
+      </c>
+      <c r="F13">
+        <v>0.12905700000000001</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -19384,76 +22556,37 @@
         <v>277</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="39">
-        <f t="shared" si="0"/>
-        <v>0.979005997914556</v>
-      </c>
-      <c r="E14" s="39">
-        <v>1.018667</v>
-      </c>
-      <c r="F14" s="39">
-        <v>0.136189</v>
-      </c>
-      <c r="G14" s="39">
-        <v>12.559945000000001</v>
-      </c>
-      <c r="H14" s="39">
-        <v>0.116344</v>
-      </c>
-      <c r="I14" s="39">
-        <v>6.8287E-2</v>
-      </c>
-      <c r="J14">
-        <v>44</v>
-      </c>
-      <c r="K14">
-        <v>100</v>
-      </c>
-      <c r="L14">
-        <v>50</v>
-      </c>
-      <c r="M14" s="1">
-        <v>32</v>
-      </c>
-      <c r="N14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" t="s">
-        <v>189</v>
-      </c>
-      <c r="P14" s="44">
-        <f t="shared" si="1"/>
-        <v>577.61732851985562</v>
+        <v>217</v>
+      </c>
+      <c r="D14">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E14">
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="F14">
+        <v>0.126307</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D15" s="80">
-        <f>AVERAGE(D12:D14)</f>
-        <v>0.98561688222270849</v>
-      </c>
-      <c r="E15" s="80">
-        <f>AVERAGE(E12:E14)</f>
-        <v>1.0365473333333333</v>
-      </c>
-      <c r="F15" s="80">
-        <f t="shared" ref="F15" si="2">AVERAGE(F12:F14)</f>
-        <v>0.13553166666666669</v>
-      </c>
-      <c r="G15" s="89"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="P15" s="44"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="P16" s="44"/>
+      <c r="A15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15">
+        <v>277</v>
+      </c>
+      <c r="C15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="E15">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="F15">
+        <v>0.12740600000000002</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -19466,23 +22599,23 @@
         <v>8</v>
       </c>
       <c r="D17" s="39">
-        <f t="shared" si="0"/>
-        <v>1.0183502863883409</v>
+        <f>((E17/$E$5)+(F17/$F$5))/2</f>
+        <v>0.98894499458131246</v>
       </c>
       <c r="E17" s="39">
-        <v>1.090198</v>
+        <v>1.0396380000000001</v>
       </c>
       <c r="F17" s="39">
-        <v>0.13727700000000001</v>
+        <v>0.136048</v>
       </c>
       <c r="G17" s="39">
-        <v>14.205</v>
+        <v>13.448067</v>
       </c>
       <c r="H17" s="39">
-        <v>0.12031</v>
+        <v>0.117726</v>
       </c>
       <c r="I17" s="39">
-        <v>6.1123999999999998E-2</v>
+        <v>6.4357999999999999E-2</v>
       </c>
       <c r="J17">
         <v>42</v>
@@ -19491,7 +22624,7 @@
         <v>100</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M17" s="1">
         <v>32</v>
@@ -19503,8 +22636,8 @@
         <v>189</v>
       </c>
       <c r="P17" s="44">
-        <f t="shared" si="1"/>
-        <v>1155.2346570397112</v>
+        <f>(M17*L17*K17)/B17</f>
+        <v>577.61732851985562</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -19518,23 +22651,23 @@
         <v>8</v>
       </c>
       <c r="D18" s="39">
-        <f t="shared" si="0"/>
-        <v>1.0113051489316529</v>
+        <f t="shared" ref="D18:D24" si="0">((E18/$E$5)+(F18/$F$5))/2</f>
+        <v>0.98889965417225678</v>
       </c>
       <c r="E18" s="39">
-        <v>1.087053</v>
+        <v>1.051337</v>
       </c>
       <c r="F18" s="39">
-        <v>0.13569700000000001</v>
+        <v>0.13435800000000001</v>
       </c>
       <c r="G18" s="39">
-        <v>15.464643000000001</v>
+        <v>14.182729</v>
       </c>
       <c r="H18" s="39">
-        <v>0.11831999999999999</v>
+        <v>0.116683</v>
       </c>
       <c r="I18" s="39">
-        <v>6.7688999999999999E-2</v>
+        <v>7.1858000000000005E-2</v>
       </c>
       <c r="J18">
         <v>43</v>
@@ -19543,7 +22676,7 @@
         <v>100</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M18" s="1">
         <v>32</v>
@@ -19555,8 +22688,8 @@
         <v>189</v>
       </c>
       <c r="P18" s="44">
-        <f t="shared" si="1"/>
-        <v>1155.2346570397112</v>
+        <f t="shared" ref="P18:P29" si="1">(M18*L18*K18)/B18</f>
+        <v>577.61732851985562</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -19571,22 +22704,22 @@
       </c>
       <c r="D19" s="39">
         <f t="shared" si="0"/>
-        <v>0.96522390571605277</v>
+        <v>0.979005997914556</v>
       </c>
       <c r="E19" s="39">
-        <v>1.0010810000000001</v>
+        <v>1.018667</v>
       </c>
       <c r="F19" s="39">
-        <v>0.134737</v>
+        <v>0.136189</v>
       </c>
       <c r="G19" s="39">
-        <v>13.484724</v>
+        <v>12.559945000000001</v>
       </c>
       <c r="H19" s="39">
-        <v>0.11590399999999999</v>
+        <v>0.116344</v>
       </c>
       <c r="I19" s="39">
-        <v>7.0889999999999995E-2</v>
+        <v>6.8287E-2</v>
       </c>
       <c r="J19">
         <v>44</v>
@@ -19595,7 +22728,7 @@
         <v>100</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M19" s="1">
         <v>32</v>
@@ -19608,26 +22741,34 @@
       </c>
       <c r="P19" s="44">
         <f t="shared" si="1"/>
-        <v>1155.2346570397112</v>
+        <v>577.61732851985562</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D20" s="80">
         <f>AVERAGE(D17:D19)</f>
-        <v>0.99829311367868223</v>
+        <v>0.98561688222270849</v>
       </c>
       <c r="E20" s="80">
         <f>AVERAGE(E17:E19)</f>
-        <v>1.0594440000000001</v>
+        <v>1.0365473333333333</v>
       </c>
       <c r="F20" s="80">
-        <f t="shared" ref="F20" si="3">AVERAGE(F17:F19)</f>
-        <v>0.13590366666666667</v>
-      </c>
-      <c r="G20" s="89"/>
+        <f t="shared" ref="F20" si="2">AVERAGE(F17:F19)</f>
+        <v>0.13553166666666669</v>
+      </c>
+      <c r="G20" s="82"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
       <c r="P20" s="44"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
       <c r="P21" s="44"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
@@ -19638,26 +22779,26 @@
         <v>277</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D22" s="39">
-        <f t="shared" ref="D22:D24" si="4">((E22/$E$5)+(F22/$F$5))/2</f>
-        <v>1.07645531432141</v>
+        <f t="shared" si="0"/>
+        <v>1.0183502863883409</v>
       </c>
       <c r="E22" s="39">
-        <v>1.1372340000000001</v>
+        <v>1.090198</v>
       </c>
       <c r="F22" s="39">
-        <v>0.147284</v>
+        <v>0.13727700000000001</v>
       </c>
       <c r="G22" s="39">
-        <v>27.783618000000001</v>
+        <v>14.205</v>
       </c>
       <c r="H22" s="39">
-        <v>0.12789400000000001</v>
+        <v>0.12031</v>
       </c>
       <c r="I22" s="39">
-        <v>0.10034</v>
+        <v>6.1123999999999998E-2</v>
       </c>
       <c r="J22">
         <v>42</v>
@@ -19666,7 +22807,7 @@
         <v>100</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M22" s="1">
         <v>32</v>
@@ -19679,7 +22820,7 @@
       </c>
       <c r="P22" s="44">
         <f t="shared" si="1"/>
-        <v>577.61732851985562</v>
+        <v>1155.2346570397112</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
@@ -19690,26 +22831,26 @@
         <v>277</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D23" s="39">
-        <f t="shared" si="4"/>
-        <v>1.0431418348754362</v>
+        <f t="shared" si="0"/>
+        <v>1.0113051489316529</v>
       </c>
       <c r="E23" s="39">
-        <v>1.1160129999999999</v>
+        <v>1.087053</v>
       </c>
       <c r="F23" s="39">
-        <v>0.14072299999999999</v>
+        <v>0.13569700000000001</v>
       </c>
       <c r="G23" s="39">
-        <v>23.749433</v>
+        <v>15.464643000000001</v>
       </c>
       <c r="H23" s="39">
-        <v>0.12551000000000001</v>
+        <v>0.11831999999999999</v>
       </c>
       <c r="I23" s="39">
-        <v>8.3919999999999995E-2</v>
+        <v>6.7688999999999999E-2</v>
       </c>
       <c r="J23">
         <v>43</v>
@@ -19718,7 +22859,7 @@
         <v>100</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M23" s="1">
         <v>32</v>
@@ -19731,7 +22872,7 @@
       </c>
       <c r="P23" s="44">
         <f t="shared" si="1"/>
-        <v>577.61732851985562</v>
+        <v>1155.2346570397112</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
@@ -19742,26 +22883,26 @@
         <v>277</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="39">
-        <f t="shared" si="4"/>
-        <v>0.93908496117987394</v>
+        <f t="shared" si="0"/>
+        <v>0.96522390571605277</v>
       </c>
       <c r="E24" s="39">
-        <v>0.96970999999999996</v>
+        <v>1.0010810000000001</v>
       </c>
       <c r="F24" s="39">
-        <v>0.13169900000000001</v>
+        <v>0.134737</v>
       </c>
       <c r="G24" s="39">
-        <v>20.010037000000001</v>
+        <v>13.484724</v>
       </c>
       <c r="H24" s="39">
-        <v>0.108365</v>
+        <v>0.11590399999999999</v>
       </c>
       <c r="I24" s="39">
-        <v>6.9144999999999998E-2</v>
+        <v>7.0889999999999995E-2</v>
       </c>
       <c r="J24">
         <v>44</v>
@@ -19770,7 +22911,7 @@
         <v>100</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M24" s="1">
         <v>32</v>
@@ -19783,33 +22924,27 @@
       </c>
       <c r="P24" s="44">
         <f t="shared" si="1"/>
-        <v>577.61732851985562</v>
+        <v>1155.2346570397112</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D25" s="80">
         <f>AVERAGE(D22:D24)</f>
-        <v>1.0195607034589067</v>
+        <v>0.99829311367868223</v>
       </c>
       <c r="E25" s="80">
         <f>AVERAGE(E22:E24)</f>
-        <v>1.074319</v>
+        <v>1.0594440000000001</v>
       </c>
       <c r="F25" s="80">
-        <f t="shared" ref="F25" si="5">AVERAGE(F22:F24)</f>
-        <v>0.139902</v>
-      </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+        <f t="shared" ref="F25" si="3">AVERAGE(F22:F24)</f>
+        <v>0.13590366666666667</v>
+      </c>
+      <c r="G25" s="82"/>
+      <c r="P25" s="44"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
+      <c r="P26" s="44"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -19822,23 +22957,23 @@
         <v>4</v>
       </c>
       <c r="D27" s="39">
-        <f t="shared" ref="D27:D29" si="6">((E27/$E$5)+(F27/$F$5))/2</f>
-        <v>1.0726854591597896</v>
+        <f t="shared" ref="D27:D29" si="4">((E27/$E$5)+(F27/$F$5))/2</f>
+        <v>1.07645531432141</v>
       </c>
       <c r="E27" s="39">
-        <v>1.1441079999999999</v>
+        <v>1.1372340000000001</v>
       </c>
       <c r="F27" s="39">
-        <v>0.14521200000000001</v>
+        <v>0.147284</v>
       </c>
       <c r="G27" s="39">
-        <v>31.557065999999999</v>
+        <v>27.783618000000001</v>
       </c>
       <c r="H27" s="39">
-        <v>0.12953300000000001</v>
+        <v>0.12789400000000001</v>
       </c>
       <c r="I27" s="39">
-        <v>0.111709</v>
+        <v>0.10034</v>
       </c>
       <c r="J27">
         <v>42</v>
@@ -19847,7 +22982,7 @@
         <v>100</v>
       </c>
       <c r="L27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M27" s="1">
         <v>32</v>
@@ -19859,8 +22994,8 @@
         <v>189</v>
       </c>
       <c r="P27" s="44">
-        <f t="shared" ref="P27:P29" si="7">(M27*L27*K27)/B27</f>
-        <v>1155.2346570397112</v>
+        <f t="shared" si="1"/>
+        <v>577.61732851985562</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
@@ -19874,23 +23009,23 @@
         <v>4</v>
       </c>
       <c r="D28" s="39">
-        <f t="shared" si="6"/>
-        <v>1.0351040032899648</v>
+        <f t="shared" si="4"/>
+        <v>1.0431418348754362</v>
       </c>
       <c r="E28" s="39">
-        <v>1.0805800000000001</v>
+        <v>1.1160129999999999</v>
       </c>
       <c r="F28" s="39">
-        <v>0.143485</v>
+        <v>0.14072299999999999</v>
       </c>
       <c r="G28" s="39">
-        <v>26.358661000000001</v>
+        <v>23.749433</v>
       </c>
       <c r="H28" s="39">
-        <v>0.118878</v>
+        <v>0.12551000000000001</v>
       </c>
       <c r="I28" s="39">
-        <v>8.6308999999999997E-2</v>
+        <v>8.3919999999999995E-2</v>
       </c>
       <c r="J28">
         <v>43</v>
@@ -19899,7 +23034,7 @@
         <v>100</v>
       </c>
       <c r="L28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M28" s="1">
         <v>32</v>
@@ -19911,8 +23046,8 @@
         <v>189</v>
       </c>
       <c r="P28" s="44">
-        <f t="shared" si="7"/>
-        <v>1155.2346570397112</v>
+        <f t="shared" si="1"/>
+        <v>577.61732851985562</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
@@ -19926,23 +23061,23 @@
         <v>4</v>
       </c>
       <c r="D29" s="39">
-        <f t="shared" si="6"/>
-        <v>1.0067012139273073</v>
+        <f t="shared" si="4"/>
+        <v>0.93908496117987394</v>
       </c>
       <c r="E29" s="39">
-        <v>1.0687599999999999</v>
+        <v>0.96970999999999996</v>
       </c>
       <c r="F29" s="39">
-        <v>0.136992</v>
+        <v>0.13169900000000001</v>
       </c>
       <c r="G29" s="39">
-        <v>25.671219000000001</v>
+        <v>20.010037000000001</v>
       </c>
       <c r="H29" s="39">
-        <v>0.11576500000000001</v>
+        <v>0.108365</v>
       </c>
       <c r="I29" s="39">
-        <v>7.9544000000000004E-2</v>
+        <v>6.9144999999999998E-2</v>
       </c>
       <c r="J29">
         <v>44</v>
@@ -19951,7 +23086,7 @@
         <v>100</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M29" s="1">
         <v>32</v>
@@ -19963,23 +23098,34 @@
         <v>189</v>
       </c>
       <c r="P29" s="44">
-        <f t="shared" si="7"/>
-        <v>1155.2346570397112</v>
+        <f t="shared" si="1"/>
+        <v>577.61732851985562</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D30" s="80">
         <f>AVERAGE(D27:D29)</f>
-        <v>1.0381635587923539</v>
+        <v>1.0195607034589067</v>
       </c>
       <c r="E30" s="80">
         <f>AVERAGE(E27:E29)</f>
-        <v>1.0978159999999999</v>
+        <v>1.074319</v>
       </c>
       <c r="F30" s="80">
-        <f t="shared" ref="F30" si="8">AVERAGE(F27:F29)</f>
-        <v>0.14189633333333332</v>
-      </c>
+        <f t="shared" ref="F30" si="5">AVERAGE(F27:F29)</f>
+        <v>0.139902</v>
+      </c>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
@@ -19992,23 +23138,23 @@
         <v>4</v>
       </c>
       <c r="D32" s="39">
-        <f t="shared" ref="D32:D34" si="9">((E32/$E$5)+(F32/$F$5))/2</f>
-        <v>1.0338731800806047</v>
-      </c>
-      <c r="E32">
-        <v>1.0961110000000001</v>
-      </c>
-      <c r="F32">
-        <v>0.140904</v>
-      </c>
-      <c r="G32">
-        <v>28.650158999999999</v>
-      </c>
-      <c r="H32">
-        <v>0.121949</v>
-      </c>
-      <c r="I32">
-        <v>9.5982999999999999E-2</v>
+        <f t="shared" ref="D32:D34" si="6">((E32/$E$5)+(F32/$F$5))/2</f>
+        <v>1.0726854591597896</v>
+      </c>
+      <c r="E32" s="39">
+        <v>1.1441079999999999</v>
+      </c>
+      <c r="F32" s="39">
+        <v>0.14521200000000001</v>
+      </c>
+      <c r="G32" s="39">
+        <v>31.557065999999999</v>
+      </c>
+      <c r="H32" s="39">
+        <v>0.12953300000000001</v>
+      </c>
+      <c r="I32" s="39">
+        <v>0.111709</v>
       </c>
       <c r="J32">
         <v>42</v>
@@ -20020,7 +23166,7 @@
         <v>100</v>
       </c>
       <c r="M32" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N32" t="s">
         <v>40</v>
@@ -20029,8 +23175,8 @@
         <v>189</v>
       </c>
       <c r="P32" s="44">
-        <f t="shared" ref="P32:P34" si="10">(M32*L32*K32)/B32</f>
-        <v>2310.4693140794225</v>
+        <f t="shared" ref="P32:P34" si="7">(M32*L32*K32)/B32</f>
+        <v>1155.2346570397112</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -20044,23 +23190,23 @@
         <v>4</v>
       </c>
       <c r="D33" s="39">
-        <f t="shared" si="9"/>
-        <v>1.130126770871883</v>
-      </c>
-      <c r="E33">
-        <v>1.2138709999999999</v>
-      </c>
-      <c r="F33">
-        <v>0.15176999999999999</v>
-      </c>
-      <c r="G33">
-        <v>32.522351</v>
-      </c>
-      <c r="H33">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="I33">
-        <v>0.121309</v>
+        <f t="shared" si="6"/>
+        <v>1.0351040032899648</v>
+      </c>
+      <c r="E33" s="39">
+        <v>1.0805800000000001</v>
+      </c>
+      <c r="F33" s="39">
+        <v>0.143485</v>
+      </c>
+      <c r="G33" s="39">
+        <v>26.358661000000001</v>
+      </c>
+      <c r="H33" s="39">
+        <v>0.118878</v>
+      </c>
+      <c r="I33" s="39">
+        <v>8.6308999999999997E-2</v>
       </c>
       <c r="J33">
         <v>43</v>
@@ -20072,7 +23218,7 @@
         <v>100</v>
       </c>
       <c r="M33" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N33" t="s">
         <v>40</v>
@@ -20081,8 +23227,8 @@
         <v>189</v>
       </c>
       <c r="P33" s="44">
-        <f t="shared" si="10"/>
-        <v>2310.4693140794225</v>
+        <f t="shared" si="7"/>
+        <v>1155.2346570397112</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
@@ -20096,23 +23242,23 @@
         <v>4</v>
       </c>
       <c r="D34" s="39">
-        <f t="shared" si="9"/>
-        <v>1.0248172213957778</v>
-      </c>
-      <c r="E34">
-        <v>1.0647139999999999</v>
-      </c>
-      <c r="F34">
-        <v>0.142794</v>
-      </c>
-      <c r="G34">
-        <v>25.879951999999999</v>
-      </c>
-      <c r="H34">
-        <v>0.114981</v>
-      </c>
-      <c r="I34">
-        <v>8.2635E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.0067012139273073</v>
+      </c>
+      <c r="E34" s="39">
+        <v>1.0687599999999999</v>
+      </c>
+      <c r="F34" s="39">
+        <v>0.136992</v>
+      </c>
+      <c r="G34" s="39">
+        <v>25.671219000000001</v>
+      </c>
+      <c r="H34" s="39">
+        <v>0.11576500000000001</v>
+      </c>
+      <c r="I34" s="39">
+        <v>7.9544000000000004E-2</v>
       </c>
       <c r="J34">
         <v>44</v>
@@ -20124,7 +23270,7 @@
         <v>100</v>
       </c>
       <c r="M34" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N34" t="s">
         <v>40</v>
@@ -20133,21 +23279,191 @@
         <v>189</v>
       </c>
       <c r="P34" s="44">
-        <f t="shared" si="10"/>
-        <v>2310.4693140794225</v>
+        <f t="shared" si="7"/>
+        <v>1155.2346570397112</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D35" s="80">
         <f>AVERAGE(D32:D34)</f>
-        <v>1.062939057449422</v>
+        <v>1.0381635587923539</v>
       </c>
       <c r="E35" s="80">
         <f>AVERAGE(E32:E34)</f>
+        <v>1.0978159999999999</v>
+      </c>
+      <c r="F35" s="80">
+        <f t="shared" ref="F35" si="8">AVERAGE(F32:F34)</f>
+        <v>0.14189633333333332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>290</v>
+      </c>
+      <c r="B37">
+        <v>277</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="39">
+        <f t="shared" ref="D37:D39" si="9">((E37/$E$5)+(F37/$F$5))/2</f>
+        <v>1.0338731800806047</v>
+      </c>
+      <c r="E37">
+        <v>1.0961110000000001</v>
+      </c>
+      <c r="F37">
+        <v>0.140904</v>
+      </c>
+      <c r="G37">
+        <v>28.650158999999999</v>
+      </c>
+      <c r="H37">
+        <v>0.121949</v>
+      </c>
+      <c r="I37">
+        <v>9.5982999999999999E-2</v>
+      </c>
+      <c r="J37">
+        <v>42</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="L37">
+        <v>100</v>
+      </c>
+      <c r="M37" s="1">
+        <v>64</v>
+      </c>
+      <c r="N37" t="s">
+        <v>40</v>
+      </c>
+      <c r="O37" t="s">
+        <v>189</v>
+      </c>
+      <c r="P37" s="44">
+        <f t="shared" ref="P37:P39" si="10">(M37*L37*K37)/B37</f>
+        <v>2310.4693140794225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>290</v>
+      </c>
+      <c r="B38">
+        <v>277</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="39">
+        <f t="shared" si="9"/>
+        <v>1.130126770871883</v>
+      </c>
+      <c r="E38">
+        <v>1.2138709999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.15176999999999999</v>
+      </c>
+      <c r="G38">
+        <v>32.522351</v>
+      </c>
+      <c r="H38">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="I38">
+        <v>0.121309</v>
+      </c>
+      <c r="J38">
+        <v>43</v>
+      </c>
+      <c r="K38">
+        <v>100</v>
+      </c>
+      <c r="L38">
+        <v>100</v>
+      </c>
+      <c r="M38" s="1">
+        <v>64</v>
+      </c>
+      <c r="N38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" t="s">
+        <v>189</v>
+      </c>
+      <c r="P38" s="44">
+        <f t="shared" si="10"/>
+        <v>2310.4693140794225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>290</v>
+      </c>
+      <c r="B39">
+        <v>277</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="39">
+        <f t="shared" si="9"/>
+        <v>1.0248172213957778</v>
+      </c>
+      <c r="E39">
+        <v>1.0647139999999999</v>
+      </c>
+      <c r="F39">
+        <v>0.142794</v>
+      </c>
+      <c r="G39">
+        <v>25.879951999999999</v>
+      </c>
+      <c r="H39">
+        <v>0.114981</v>
+      </c>
+      <c r="I39">
+        <v>8.2635E-2</v>
+      </c>
+      <c r="J39">
+        <v>44</v>
+      </c>
+      <c r="K39">
+        <v>100</v>
+      </c>
+      <c r="L39">
+        <v>100</v>
+      </c>
+      <c r="M39" s="1">
+        <v>64</v>
+      </c>
+      <c r="N39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O39" t="s">
+        <v>189</v>
+      </c>
+      <c r="P39" s="44">
+        <f t="shared" si="10"/>
+        <v>2310.4693140794225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D40" s="80">
+        <f>AVERAGE(D37:D39)</f>
+        <v>1.062939057449422</v>
+      </c>
+      <c r="E40" s="80">
+        <f>AVERAGE(E37:E39)</f>
         <v>1.1248986666666665</v>
       </c>
-      <c r="F35" s="80">
-        <f t="shared" ref="F35" si="11">AVERAGE(F32:F34)</f>
+      <c r="F40" s="80">
+        <f t="shared" ref="F40" si="11">AVERAGE(F37:F39)</f>
         <v>0.14515599999999998</v>
       </c>
     </row>
@@ -39134,8 +42450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF220A3-ECC2-4539-B335-747855D0D6B3}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results/results_v4.xlsx
+++ b/results/results_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6631406-F8E9-45FA-BD79-C153BC7BFF8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD0F5E7-B857-4369-B9F2-549F4957DFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5350" yWindow="2570" windowWidth="19420" windowHeight="10420" tabRatio="818" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="818" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="30" r:id="rId1"/>
@@ -1733,6 +1733,15 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1753,15 +1762,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2060,11 +2060,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="86" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
     </row>
     <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="55" t="s">
@@ -2303,10 +2303,10 @@
       <c r="C29" s="77"/>
     </row>
     <row r="30" spans="2:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="C30" s="87"/>
+      <c r="C30" s="90"/>
       <c r="E30" s="54"/>
     </row>
     <row r="31" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2335,11 +2335,11 @@
     </row>
     <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="35" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="88"/>
     </row>
     <row r="36" spans="2:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="55" t="s">
@@ -2578,14 +2578,14 @@
       <c r="D57" s="65"/>
     </row>
     <row r="58" spans="2:4" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="B58" s="90" t="s">
+      <c r="B58" s="83" t="s">
         <v>397</v>
       </c>
-      <c r="C58" s="91"/>
+      <c r="C58" s="84"/>
       <c r="D58" s="65"/>
     </row>
     <row r="59" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="92" t="s">
+      <c r="B59" s="85" t="s">
         <v>136</v>
       </c>
       <c r="C59" s="71" t="s">
@@ -2613,10 +2613,10 @@
     </row>
     <row r="62" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="63" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="88" t="s">
+      <c r="B63" s="91" t="s">
         <v>386</v>
       </c>
-      <c r="C63" s="89"/>
+      <c r="C63" s="92"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64" s="78" t="s">
@@ -11589,7 +11589,7 @@
       <c r="S37" s="34"/>
       <c r="T37" s="34"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:21" ht="29" x14ac:dyDescent="0.35">
       <c r="B38" s="33" t="s">
         <v>15</v>
       </c>
@@ -11652,7 +11652,7 @@
       <c r="S39" s="34"/>
       <c r="T39" s="34"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:21" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="33" t="s">
         <v>15</v>
       </c>
@@ -11707,7 +11707,7 @@
       <c r="S40" s="34"/>
       <c r="T40" s="34"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:21" ht="29" x14ac:dyDescent="0.35">
       <c r="B41" s="33" t="s">
         <v>15</v>
       </c>
@@ -11762,7 +11762,7 @@
       <c r="S41" s="34"/>
       <c r="T41" s="34"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:21" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="33" t="s">
         <v>15</v>
       </c>
@@ -17054,8 +17054,8 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18600,7 +18600,7 @@
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19163,7 +19163,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="39">
-        <f t="shared" ref="D22" si="7">((E22/$E$5)+(F22/$F$5))/2</f>
+        <f t="shared" ref="D22:D24" si="7">((E22/$E$5)+(F22/$F$5))/2</f>
         <v>1.0627197140320823</v>
       </c>
       <c r="E22">
@@ -19211,7 +19211,10 @@
       <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="39">
+        <f t="shared" si="7"/>
+        <v>1.0479630054520301</v>
+      </c>
       <c r="E23">
         <v>1.15351</v>
       </c>
@@ -19257,7 +19260,10 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="39">
+        <f t="shared" si="7"/>
+        <v>1.0572605325429403</v>
+      </c>
       <c r="E24">
         <v>1.1547810000000001</v>
       </c>
@@ -19597,7 +19603,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -20846,7 +20852,7 @@
         <v>189</v>
       </c>
       <c r="O43" s="44">
-        <f t="shared" ref="O43:O46" si="19">(32*L43*K43)/B43</f>
+        <f t="shared" ref="O43:O45" si="19">(32*L43*K43)/B43</f>
         <v>100.19113497770093</v>
       </c>
     </row>
@@ -31497,7 +31503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
         <v>21</v>
       </c>

--- a/results/results_v4.xlsx
+++ b/results/results_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D7C15B-C5C8-41C5-8FE8-307AB1FF49CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F822D7-A3FE-4623-BD7F-AF406499B3B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="818" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="30" r:id="rId1"/>
@@ -1825,7 +1825,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -20704,18 +20704,18 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6437E731-589B-456A-8DF8-17C2DD721C2A}">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
@@ -21386,73 +21386,27 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O28" s="22"/>
     </row>
-    <row r="29" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="89" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O29" s="22"/>
+    </row>
+    <row r="30" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>257</v>
-      </c>
-      <c r="B30">
-        <v>10975</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="17">
-        <f t="shared" ref="D30:D32" si="6">((E30/$E$5)+(F30/$F$5))/2</f>
-        <v>0.94416318817346279</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0.95226699999999997</v>
-      </c>
-      <c r="F30" s="17">
-        <v>0.15310499999999999</v>
-      </c>
-      <c r="G30" s="17">
-        <v>22.508735999999999</v>
-      </c>
-      <c r="H30" s="17">
-        <v>0.14149200000000001</v>
-      </c>
-      <c r="I30" s="17">
-        <v>0.108098</v>
-      </c>
-      <c r="J30">
-        <v>42</v>
-      </c>
-      <c r="K30">
-        <v>100</v>
-      </c>
-      <c r="L30">
-        <v>50</v>
-      </c>
-      <c r="M30" t="s">
-        <v>33</v>
-      </c>
-      <c r="N30" t="s">
-        <v>177</v>
-      </c>
-      <c r="O30" s="22">
-        <f t="shared" ref="O30:O32" si="7">(32*L30*K30)/B30</f>
-        <v>14.578587699316628</v>
-      </c>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -21465,26 +21419,26 @@
         <v>3</v>
       </c>
       <c r="D31" s="17">
-        <f t="shared" si="6"/>
-        <v>0.95269008438457481</v>
+        <f t="shared" ref="D31:D33" si="6">((E31/$E$5)+(F31/$F$5))/2</f>
+        <v>0.94416318817346279</v>
       </c>
       <c r="E31" s="17">
-        <v>0.964561</v>
+        <v>0.95226699999999997</v>
       </c>
       <c r="F31" s="17">
-        <v>0.15387600000000001</v>
+        <v>0.15310499999999999</v>
       </c>
       <c r="G31" s="17">
-        <v>22.752893</v>
+        <v>22.508735999999999</v>
       </c>
       <c r="H31" s="17">
-        <v>0.14216999999999999</v>
+        <v>0.14149200000000001</v>
       </c>
       <c r="I31" s="17">
-        <v>0.10864799999999999</v>
+        <v>0.108098</v>
       </c>
       <c r="J31">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
         <v>100</v>
@@ -21499,7 +21453,7 @@
         <v>177</v>
       </c>
       <c r="O31" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="O31:O33" si="7">(32*L31*K31)/B31</f>
         <v>14.578587699316628</v>
       </c>
     </row>
@@ -21515,25 +21469,25 @@
       </c>
       <c r="D32" s="17">
         <f t="shared" si="6"/>
-        <v>0.93678803756483697</v>
+        <v>0.95269008438457481</v>
       </c>
       <c r="E32" s="17">
-        <v>0.94641699999999995</v>
+        <v>0.964561</v>
       </c>
       <c r="F32" s="17">
-        <v>0.151646</v>
+        <v>0.15387600000000001</v>
       </c>
       <c r="G32" s="17">
-        <v>23.628530999999999</v>
+        <v>22.752893</v>
       </c>
       <c r="H32" s="17">
-        <v>0.140262</v>
+        <v>0.14216999999999999</v>
       </c>
       <c r="I32" s="17">
-        <v>0.110203</v>
+        <v>0.10864799999999999</v>
       </c>
       <c r="J32">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>100</v>
@@ -21553,66 +21507,66 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D33" s="58">
-        <f>AVERAGE(D30:D32)</f>
+      <c r="A33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33">
+        <v>10975</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="6"/>
+        <v>0.93678803756483697</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0.94641699999999995</v>
+      </c>
+      <c r="F33" s="17">
+        <v>0.151646</v>
+      </c>
+      <c r="G33" s="17">
+        <v>23.628530999999999</v>
+      </c>
+      <c r="H33" s="17">
+        <v>0.140262</v>
+      </c>
+      <c r="I33" s="17">
+        <v>0.110203</v>
+      </c>
+      <c r="J33">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>50</v>
+      </c>
+      <c r="M33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" t="s">
+        <v>177</v>
+      </c>
+      <c r="O33" s="22">
+        <f t="shared" si="7"/>
+        <v>14.578587699316628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D34" s="58">
+        <f>AVERAGE(D31:D33)</f>
         <v>0.94454710337429149</v>
       </c>
-      <c r="E33" s="58">
-        <f t="shared" ref="E33:F33" si="8">AVERAGE(E30:E32)</f>
+      <c r="E34" s="58">
+        <f t="shared" ref="E34:F34" si="8">AVERAGE(E31:E33)</f>
         <v>0.95441500000000001</v>
       </c>
-      <c r="F33" s="58">
+      <c r="F34" s="58">
         <f t="shared" si="8"/>
         <v>0.15287566666666666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>257</v>
-      </c>
-      <c r="B35">
-        <v>10975</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="17">
-        <f t="shared" ref="D35:D37" si="9">((E35/$E$5)+(F35/$F$5))/2</f>
-        <v>1.0223582752145783</v>
-      </c>
-      <c r="E35" s="17">
-        <v>1.0200769999999999</v>
-      </c>
-      <c r="F35" s="17">
-        <v>0.16761599999999999</v>
-      </c>
-      <c r="G35" s="17">
-        <v>19.942409000000001</v>
-      </c>
-      <c r="H35" s="17">
-        <v>0.156529</v>
-      </c>
-      <c r="I35" s="17">
-        <v>0.105946</v>
-      </c>
-      <c r="J35">
-        <v>42</v>
-      </c>
-      <c r="K35">
-        <v>100</v>
-      </c>
-      <c r="L35">
-        <v>100</v>
-      </c>
-      <c r="M35" t="s">
-        <v>33</v>
-      </c>
-      <c r="N35" t="s">
-        <v>177</v>
-      </c>
-      <c r="O35" s="22">
-        <f t="shared" ref="O35:O37" si="10">(32*L35*K35)/B35</f>
-        <v>29.157175398633257</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -21626,26 +21580,26 @@
         <v>3</v>
       </c>
       <c r="D36" s="17">
-        <f t="shared" si="9"/>
-        <v>1.0361668906297636</v>
+        <f t="shared" ref="D36:D38" si="9">((E36/$E$5)+(F36/$F$5))/2</f>
+        <v>1.0223582752145783</v>
       </c>
       <c r="E36" s="17">
-        <v>1.0622659999999999</v>
+        <v>1.0200769999999999</v>
       </c>
       <c r="F36" s="17">
-        <v>0.16517499999999999</v>
+        <v>0.16761599999999999</v>
       </c>
       <c r="G36" s="17">
-        <v>18.3813</v>
+        <v>19.942409000000001</v>
       </c>
       <c r="H36" s="17">
-        <v>0.154945</v>
+        <v>0.156529</v>
       </c>
       <c r="I36" s="17">
-        <v>9.4059000000000004E-2</v>
+        <v>0.105946</v>
       </c>
       <c r="J36">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K36">
         <v>100</v>
@@ -21660,7 +21614,7 @@
         <v>177</v>
       </c>
       <c r="O36" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="O36:O38" si="10">(32*L36*K36)/B36</f>
         <v>29.157175398633257</v>
       </c>
     </row>
@@ -21676,25 +21630,25 @@
       </c>
       <c r="D37" s="17">
         <f t="shared" si="9"/>
-        <v>1.0316384382491033</v>
+        <v>1.0361668906297636</v>
       </c>
       <c r="E37" s="17">
-        <v>1.051803</v>
+        <v>1.0622659999999999</v>
       </c>
       <c r="F37" s="17">
-        <v>0.16541700000000001</v>
+        <v>0.16517499999999999</v>
       </c>
       <c r="G37" s="17">
-        <v>18.878889999999998</v>
+        <v>18.3813</v>
       </c>
       <c r="H37" s="17">
-        <v>0.15465100000000001</v>
+        <v>0.154945</v>
       </c>
       <c r="I37" s="17">
-        <v>9.5258999999999996E-2</v>
+        <v>9.4059000000000004E-2</v>
       </c>
       <c r="J37">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K37">
         <v>100</v>
@@ -21714,80 +21668,80 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D38" s="58">
-        <f>AVERAGE(D35:D37)</f>
+      <c r="A38" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38">
+        <v>10975</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="17">
+        <f t="shared" si="9"/>
+        <v>1.0316384382491033</v>
+      </c>
+      <c r="E38" s="17">
+        <v>1.051803</v>
+      </c>
+      <c r="F38" s="17">
+        <v>0.16541700000000001</v>
+      </c>
+      <c r="G38" s="17">
+        <v>18.878889999999998</v>
+      </c>
+      <c r="H38" s="17">
+        <v>0.15465100000000001</v>
+      </c>
+      <c r="I38" s="17">
+        <v>9.5258999999999996E-2</v>
+      </c>
+      <c r="J38">
+        <v>44</v>
+      </c>
+      <c r="K38">
+        <v>100</v>
+      </c>
+      <c r="L38">
+        <v>100</v>
+      </c>
+      <c r="M38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38" t="s">
+        <v>177</v>
+      </c>
+      <c r="O38" s="22">
+        <f t="shared" si="10"/>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D39" s="58">
+        <f>AVERAGE(D36:D38)</f>
         <v>1.0300545346978152</v>
       </c>
-      <c r="E38" s="58">
-        <f t="shared" ref="E38:F38" si="11">AVERAGE(E35:E37)</f>
+      <c r="E39" s="58">
+        <f t="shared" ref="E39:F39" si="11">AVERAGE(E36:E38)</f>
         <v>1.0447153333333332</v>
       </c>
-      <c r="F38" s="58">
+      <c r="F39" s="58">
         <f t="shared" si="11"/>
         <v>0.16606933333333332</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="O38" s="22"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="O39" s="22"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>257</v>
-      </c>
-      <c r="B40">
-        <v>10975</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="17">
-        <f t="shared" ref="D40:D42" si="12">((E40/$E$5)+(F40/$F$5))/2</f>
-        <v>1.0505686268737735</v>
-      </c>
-      <c r="E40" s="17">
-        <v>1.0632429999999999</v>
-      </c>
-      <c r="F40" s="17">
-        <v>0.16975399999999999</v>
-      </c>
-      <c r="G40" s="17">
-        <v>19.795275</v>
-      </c>
-      <c r="H40" s="17">
-        <v>0.16044600000000001</v>
-      </c>
-      <c r="I40" s="17">
-        <v>0.101161</v>
-      </c>
-      <c r="J40">
-        <v>42</v>
-      </c>
-      <c r="K40">
-        <v>343</v>
-      </c>
-      <c r="L40">
-        <v>100</v>
-      </c>
-      <c r="M40" t="s">
-        <v>33</v>
-      </c>
-      <c r="N40" t="s">
-        <v>177</v>
-      </c>
-      <c r="O40" s="22">
-        <f t="shared" ref="O40:O42" si="13">(32*L40*K40)/B40</f>
-        <v>100.00911161731207</v>
-      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="O40" s="22"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
@@ -21800,26 +21754,26 @@
         <v>3</v>
       </c>
       <c r="D41" s="17">
-        <f t="shared" si="12"/>
-        <v>0.99936419183222003</v>
+        <f t="shared" ref="D41:D43" si="12">((E41/$E$5)+(F41/$F$5))/2</f>
+        <v>1.0505686268737735</v>
       </c>
       <c r="E41" s="17">
-        <v>0.98995500000000003</v>
+        <v>1.0632429999999999</v>
       </c>
       <c r="F41" s="17">
-        <v>0.16503499999999999</v>
+        <v>0.16975399999999999</v>
       </c>
       <c r="G41" s="17">
-        <v>18.073049999999999</v>
+        <v>19.795275</v>
       </c>
       <c r="H41" s="17">
-        <v>0.152143</v>
+        <v>0.16044600000000001</v>
       </c>
       <c r="I41" s="17">
-        <v>8.8846999999999995E-2</v>
+        <v>0.101161</v>
       </c>
       <c r="J41">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K41">
         <v>343</v>
@@ -21834,7 +21788,7 @@
         <v>177</v>
       </c>
       <c r="O41" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="O41:O43" si="13">(32*L41*K41)/B41</f>
         <v>100.00911161731207</v>
       </c>
     </row>
@@ -21850,25 +21804,25 @@
       </c>
       <c r="D42" s="17">
         <f t="shared" si="12"/>
-        <v>0.99951164378898927</v>
+        <v>0.99936419183222003</v>
       </c>
       <c r="E42" s="17">
-        <v>0.99555000000000005</v>
+        <v>0.98995500000000003</v>
       </c>
       <c r="F42" s="17">
-        <v>0.164157</v>
+        <v>0.16503499999999999</v>
       </c>
       <c r="G42" s="17">
-        <v>19.064624999999999</v>
+        <v>18.073049999999999</v>
       </c>
       <c r="H42" s="17">
-        <v>0.153617</v>
+        <v>0.152143</v>
       </c>
       <c r="I42" s="17">
-        <v>8.9994000000000005E-2</v>
+        <v>8.8846999999999995E-2</v>
       </c>
       <c r="J42">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>343</v>
@@ -21888,86 +21842,86 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D43" s="58">
-        <f>AVERAGE(D40:D42)</f>
+      <c r="A43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43">
+        <v>10975</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="17">
+        <f t="shared" si="12"/>
+        <v>0.99951164378898927</v>
+      </c>
+      <c r="E43" s="17">
+        <v>0.99555000000000005</v>
+      </c>
+      <c r="F43" s="17">
+        <v>0.164157</v>
+      </c>
+      <c r="G43" s="17">
+        <v>19.064624999999999</v>
+      </c>
+      <c r="H43" s="17">
+        <v>0.153617</v>
+      </c>
+      <c r="I43" s="17">
+        <v>8.9994000000000005E-2</v>
+      </c>
+      <c r="J43">
+        <v>44</v>
+      </c>
+      <c r="K43">
+        <v>343</v>
+      </c>
+      <c r="L43">
+        <v>100</v>
+      </c>
+      <c r="M43" t="s">
+        <v>33</v>
+      </c>
+      <c r="N43" t="s">
+        <v>177</v>
+      </c>
+      <c r="O43" s="22">
+        <f t="shared" si="13"/>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D44" s="58">
+        <f>AVERAGE(D41:D43)</f>
         <v>1.0164814874983277</v>
       </c>
-      <c r="E43" s="58">
-        <f t="shared" ref="E43:F43" si="14">AVERAGE(E40:E42)</f>
+      <c r="E44" s="58">
+        <f t="shared" ref="E44:F44" si="14">AVERAGE(E41:E43)</f>
         <v>1.0162493333333333</v>
       </c>
-      <c r="F43" s="58">
+      <c r="F44" s="58">
         <f t="shared" si="14"/>
         <v>0.16631533333333334</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="92" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="92"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>257</v>
-      </c>
-      <c r="B46">
-        <v>10975</v>
-      </c>
-      <c r="C46" t="s">
-        <v>380</v>
-      </c>
-      <c r="D46" s="17">
-        <f t="shared" ref="D46:D48" si="15">((E46/$E$5)+(F46/$F$5))/2</f>
-        <v>3.4823495856882447</v>
-      </c>
-      <c r="E46" s="17">
-        <v>4.7266079999999997</v>
-      </c>
-      <c r="F46" s="17">
-        <v>0.363595</v>
-      </c>
-      <c r="G46" s="17">
-        <v>91.137494000000004</v>
-      </c>
-      <c r="H46" s="17">
-        <v>0.368477</v>
-      </c>
-      <c r="I46" s="17">
-        <v>0.40915499999999999</v>
-      </c>
-      <c r="J46">
-        <v>42</v>
-      </c>
-      <c r="K46">
-        <v>100</v>
-      </c>
-      <c r="L46">
-        <v>50</v>
-      </c>
-      <c r="M46" t="s">
-        <v>33</v>
-      </c>
-      <c r="N46" t="s">
-        <v>177</v>
-      </c>
-      <c r="O46" s="22">
-        <f t="shared" ref="O46:O53" si="16">(32*L46*K46)/B46</f>
-        <v>14.578587699316628</v>
-      </c>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="92"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
@@ -21980,26 +21934,26 @@
         <v>380</v>
       </c>
       <c r="D47" s="17">
-        <f t="shared" si="15"/>
-        <v>5.2575088846258895</v>
+        <f t="shared" ref="D47:D49" si="15">((E47/$E$5)+(F47/$F$5))/2</f>
+        <v>3.4823495856882447</v>
       </c>
       <c r="E47" s="17">
-        <v>7.3878120000000003</v>
+        <v>4.7266079999999997</v>
       </c>
       <c r="F47" s="17">
-        <v>0.507247</v>
+        <v>0.363595</v>
       </c>
       <c r="G47" s="17">
-        <v>145.850078</v>
+        <v>91.137494000000004</v>
       </c>
       <c r="H47" s="17">
-        <v>0.49855300000000002</v>
+        <v>0.368477</v>
       </c>
       <c r="I47" s="17">
-        <v>0.622089</v>
+        <v>0.40915499999999999</v>
       </c>
       <c r="J47">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47">
         <v>100</v>
@@ -22014,7 +21968,7 @@
         <v>177</v>
       </c>
       <c r="O47" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="O47:O54" si="16">(32*L47*K47)/B47</f>
         <v>14.578587699316628</v>
       </c>
     </row>
@@ -22030,25 +21984,25 @@
       </c>
       <c r="D48" s="17">
         <f t="shared" si="15"/>
-        <v>4.8717419788209586</v>
+        <v>5.2575088846258895</v>
       </c>
       <c r="E48" s="17">
-        <v>6.8963570000000001</v>
+        <v>7.3878120000000003</v>
       </c>
       <c r="F48" s="17">
-        <v>0.46164500000000003</v>
+        <v>0.507247</v>
       </c>
       <c r="G48" s="17">
-        <v>95.412694000000002</v>
+        <v>145.850078</v>
       </c>
       <c r="H48" s="17">
-        <v>0.45255499999999999</v>
+        <v>0.49855300000000002</v>
       </c>
       <c r="I48" s="17">
-        <v>0.43602800000000003</v>
+        <v>0.622089</v>
       </c>
       <c r="J48">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>100</v>
@@ -22068,78 +22022,78 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D49" s="58">
-        <f>AVERAGE(D46:D48)</f>
+      <c r="A49" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49">
+        <v>10975</v>
+      </c>
+      <c r="C49" t="s">
+        <v>380</v>
+      </c>
+      <c r="D49" s="17">
+        <f t="shared" si="15"/>
+        <v>4.8717419788209586</v>
+      </c>
+      <c r="E49" s="17">
+        <v>6.8963570000000001</v>
+      </c>
+      <c r="F49" s="17">
+        <v>0.46164500000000003</v>
+      </c>
+      <c r="G49" s="17">
+        <v>95.412694000000002</v>
+      </c>
+      <c r="H49" s="17">
+        <v>0.45255499999999999</v>
+      </c>
+      <c r="I49" s="17">
+        <v>0.43602800000000003</v>
+      </c>
+      <c r="J49">
+        <v>44</v>
+      </c>
+      <c r="K49">
+        <v>100</v>
+      </c>
+      <c r="L49">
+        <v>50</v>
+      </c>
+      <c r="M49" t="s">
+        <v>33</v>
+      </c>
+      <c r="N49" t="s">
+        <v>177</v>
+      </c>
+      <c r="O49" s="22">
+        <f t="shared" si="16"/>
+        <v>14.578587699316628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D50" s="58">
+        <f>AVERAGE(D47:D49)</f>
         <v>4.5372001497116976</v>
       </c>
-      <c r="E49" s="58">
-        <f t="shared" ref="E49:F49" si="17">AVERAGE(E46:E48)</f>
+      <c r="E50" s="58">
+        <f t="shared" ref="E50:F50" si="17">AVERAGE(E47:E49)</f>
         <v>6.3369256666666658</v>
       </c>
-      <c r="F49" s="58">
+      <c r="F50" s="58">
         <f t="shared" si="17"/>
         <v>0.44416233333333333</v>
       </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="O49" s="22"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
+      <c r="O50" s="22"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>257</v>
-      </c>
-      <c r="B51">
-        <v>10975</v>
-      </c>
-      <c r="C51" t="s">
-        <v>380</v>
-      </c>
-      <c r="D51" s="17">
-        <f t="shared" ref="D51:D53" si="18">((E51/$E$5)+(F51/$F$5))/2</f>
-        <v>3.2631682004294831</v>
-      </c>
-      <c r="E51" s="17">
-        <v>4.4363530000000004</v>
-      </c>
-      <c r="F51" s="17">
-        <v>0.33951100000000001</v>
-      </c>
-      <c r="G51" s="17">
-        <v>65.005438999999996</v>
-      </c>
-      <c r="H51" s="17">
-        <v>0.31287300000000001</v>
-      </c>
-      <c r="I51" s="17">
-        <v>0.247836</v>
-      </c>
-      <c r="J51">
-        <v>42</v>
-      </c>
-      <c r="K51">
-        <v>100</v>
-      </c>
-      <c r="L51">
-        <v>100</v>
-      </c>
-      <c r="M51" t="s">
-        <v>33</v>
-      </c>
-      <c r="N51" t="s">
-        <v>177</v>
-      </c>
-      <c r="O51" s="22">
-        <f t="shared" si="16"/>
-        <v>29.157175398633257</v>
-      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
@@ -22152,26 +22106,26 @@
         <v>380</v>
       </c>
       <c r="D52" s="17">
-        <f t="shared" si="18"/>
-        <v>3.0939866572058414</v>
+        <f t="shared" ref="D52:D54" si="18">((E52/$E$5)+(F52/$F$5))/2</f>
+        <v>3.2631682004294831</v>
       </c>
       <c r="E52" s="17">
-        <v>4.1419860000000002</v>
+        <v>4.4363530000000004</v>
       </c>
       <c r="F52" s="17">
-        <v>0.332567</v>
+        <v>0.33951100000000001</v>
       </c>
       <c r="G52" s="17">
-        <v>53.841583999999997</v>
+        <v>65.005438999999996</v>
       </c>
       <c r="H52" s="17">
-        <v>0.32910099999999998</v>
+        <v>0.31287300000000001</v>
       </c>
       <c r="I52" s="17">
-        <v>0.27523799999999998</v>
+        <v>0.247836</v>
       </c>
       <c r="J52">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K52">
         <v>100</v>
@@ -22202,25 +22156,25 @@
       </c>
       <c r="D53" s="17">
         <f t="shared" si="18"/>
-        <v>4.0931258944717008</v>
+        <v>3.0939866572058414</v>
       </c>
       <c r="E53" s="17">
-        <v>5.7675280000000004</v>
+        <v>4.1419860000000002</v>
       </c>
       <c r="F53" s="17">
-        <v>0.39227400000000001</v>
+        <v>0.332567</v>
       </c>
       <c r="G53" s="17">
-        <v>72.893980999999997</v>
+        <v>53.841583999999997</v>
       </c>
       <c r="H53" s="17">
-        <v>0.36931000000000003</v>
+        <v>0.32910099999999998</v>
       </c>
       <c r="I53" s="17">
-        <v>0.268926</v>
+        <v>0.27523799999999998</v>
       </c>
       <c r="J53">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>100</v>
@@ -22240,77 +22194,77 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D54" s="58">
-        <f>AVERAGE(D51:D53)</f>
+      <c r="A54" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54">
+        <v>10975</v>
+      </c>
+      <c r="C54" t="s">
+        <v>380</v>
+      </c>
+      <c r="D54" s="17">
+        <f t="shared" si="18"/>
+        <v>4.0931258944717008</v>
+      </c>
+      <c r="E54" s="17">
+        <v>5.7675280000000004</v>
+      </c>
+      <c r="F54" s="17">
+        <v>0.39227400000000001</v>
+      </c>
+      <c r="G54" s="17">
+        <v>72.893980999999997</v>
+      </c>
+      <c r="H54" s="17">
+        <v>0.36931000000000003</v>
+      </c>
+      <c r="I54" s="17">
+        <v>0.268926</v>
+      </c>
+      <c r="J54">
+        <v>44</v>
+      </c>
+      <c r="K54">
+        <v>100</v>
+      </c>
+      <c r="L54">
+        <v>100</v>
+      </c>
+      <c r="M54" t="s">
+        <v>33</v>
+      </c>
+      <c r="N54" t="s">
+        <v>177</v>
+      </c>
+      <c r="O54" s="22">
+        <f t="shared" si="16"/>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D55" s="58">
+        <f>AVERAGE(D52:D54)</f>
         <v>3.4834269173690084</v>
       </c>
-      <c r="E54" s="58">
-        <f t="shared" ref="E54:F54" si="19">AVERAGE(E51:E53)</f>
+      <c r="E55" s="58">
+        <f t="shared" ref="E55:F55" si="19">AVERAGE(E52:E54)</f>
         <v>4.7819556666666667</v>
       </c>
-      <c r="F54" s="58">
+      <c r="F55" s="58">
         <f t="shared" si="19"/>
         <v>0.35478399999999999</v>
       </c>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>257</v>
-      </c>
-      <c r="B56">
-        <v>10975</v>
-      </c>
-      <c r="C56" t="s">
-        <v>380</v>
-      </c>
-      <c r="D56" s="17">
-        <f t="shared" ref="D56:D58" si="20">((E56/$E$5)+(F56/$F$5))/2</f>
-        <v>1.6996150097320482</v>
-      </c>
-      <c r="E56" s="17">
-        <v>2.0009380000000001</v>
-      </c>
-      <c r="F56" s="17">
-        <v>0.22812499999999999</v>
-      </c>
-      <c r="G56" s="17">
-        <v>30.176867999999999</v>
-      </c>
-      <c r="H56" s="17">
-        <v>0.22601099999999999</v>
-      </c>
-      <c r="I56" s="17">
-        <v>0.17843999999999999</v>
-      </c>
-      <c r="J56">
-        <v>42</v>
-      </c>
-      <c r="K56">
-        <v>343</v>
-      </c>
-      <c r="L56">
-        <v>100</v>
-      </c>
-      <c r="M56" t="s">
-        <v>33</v>
-      </c>
-      <c r="N56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O56" s="22">
-        <f t="shared" ref="O56:O58" si="21">(32*L56*K56)/B56</f>
-        <v>100.00911161731207</v>
-      </c>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
@@ -22323,26 +22277,26 @@
         <v>380</v>
       </c>
       <c r="D57" s="17">
-        <f t="shared" si="20"/>
-        <v>1.4028819829307837</v>
+        <f t="shared" ref="D57:D59" si="20">((E57/$E$5)+(F57/$F$5))/2</f>
+        <v>1.6996150097320482</v>
       </c>
       <c r="E57" s="17">
-        <v>1.558114</v>
+        <v>2.0009380000000001</v>
       </c>
       <c r="F57" s="17">
-        <v>0.20377799999999999</v>
+        <v>0.22812499999999999</v>
       </c>
       <c r="G57" s="17">
-        <v>24.155787</v>
+        <v>30.176867999999999</v>
       </c>
       <c r="H57" s="17">
-        <v>0.20437</v>
+        <v>0.22601099999999999</v>
       </c>
       <c r="I57" s="17">
-        <v>0.15140300000000001</v>
+        <v>0.17843999999999999</v>
       </c>
       <c r="J57">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K57">
         <v>343</v>
@@ -22357,7 +22311,7 @@
         <v>177</v>
       </c>
       <c r="O57" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="O57:O59" si="21">(32*L57*K57)/B57</f>
         <v>100.00911161731207</v>
       </c>
     </row>
@@ -22373,25 +22327,25 @@
       </c>
       <c r="D58" s="17">
         <f t="shared" si="20"/>
-        <v>1.3883377253236651</v>
+        <v>1.4028819829307837</v>
       </c>
       <c r="E58" s="17">
-        <v>1.589124</v>
+        <v>1.558114</v>
       </c>
       <c r="F58" s="17">
-        <v>0.193855</v>
+        <v>0.20377799999999999</v>
       </c>
       <c r="G58" s="17">
-        <v>25.237525999999999</v>
+        <v>24.155787</v>
       </c>
       <c r="H58" s="17">
-        <v>0.20855599999999999</v>
+        <v>0.20437</v>
       </c>
       <c r="I58" s="17">
-        <v>0.159971</v>
+        <v>0.15140300000000001</v>
       </c>
       <c r="J58">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>343</v>
@@ -22411,66 +22365,66 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D59" s="58">
-        <f>AVERAGE(D56:D58)</f>
+      <c r="A59" t="s">
+        <v>257</v>
+      </c>
+      <c r="B59">
+        <v>10975</v>
+      </c>
+      <c r="C59" t="s">
+        <v>380</v>
+      </c>
+      <c r="D59" s="17">
+        <f t="shared" si="20"/>
+        <v>1.3883377253236651</v>
+      </c>
+      <c r="E59" s="17">
+        <v>1.589124</v>
+      </c>
+      <c r="F59" s="17">
+        <v>0.193855</v>
+      </c>
+      <c r="G59" s="17">
+        <v>25.237525999999999</v>
+      </c>
+      <c r="H59" s="17">
+        <v>0.20855599999999999</v>
+      </c>
+      <c r="I59" s="17">
+        <v>0.159971</v>
+      </c>
+      <c r="J59">
+        <v>44</v>
+      </c>
+      <c r="K59">
+        <v>343</v>
+      </c>
+      <c r="L59">
+        <v>100</v>
+      </c>
+      <c r="M59" t="s">
+        <v>33</v>
+      </c>
+      <c r="N59" t="s">
+        <v>177</v>
+      </c>
+      <c r="O59" s="22">
+        <f t="shared" si="21"/>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D60" s="58">
+        <f>AVERAGE(D57:D59)</f>
         <v>1.4969449059954989</v>
       </c>
-      <c r="E59" s="58">
-        <f t="shared" ref="E59:F59" si="22">AVERAGE(E56:E58)</f>
+      <c r="E60" s="58">
+        <f t="shared" ref="E60:F60" si="22">AVERAGE(E57:E59)</f>
         <v>1.7160586666666668</v>
       </c>
-      <c r="F59" s="58">
+      <c r="F60" s="58">
         <f t="shared" si="22"/>
         <v>0.20858600000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>257</v>
-      </c>
-      <c r="B61">
-        <v>10975</v>
-      </c>
-      <c r="C61" t="s">
-        <v>380</v>
-      </c>
-      <c r="D61" s="17">
-        <f t="shared" ref="D61:D63" si="23">((E61/$E$5)+(F61/$F$5))/2</f>
-        <v>1.8485514518367132</v>
-      </c>
-      <c r="E61" s="17">
-        <v>2.2510279999999998</v>
-      </c>
-      <c r="F61" s="17">
-        <v>0.235737</v>
-      </c>
-      <c r="G61" s="17">
-        <v>27.835435</v>
-      </c>
-      <c r="H61" s="17">
-        <v>0.219806</v>
-      </c>
-      <c r="I61" s="17">
-        <v>0.14996000000000001</v>
-      </c>
-      <c r="J61">
-        <v>42</v>
-      </c>
-      <c r="K61">
-        <v>343</v>
-      </c>
-      <c r="L61">
-        <v>200</v>
-      </c>
-      <c r="M61" t="s">
-        <v>33</v>
-      </c>
-      <c r="N61" t="s">
-        <v>177</v>
-      </c>
-      <c r="O61" s="22">
-        <f t="shared" ref="O61:O63" si="24">(32*L61*K61)/B61</f>
-        <v>200.01822323462414</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -22484,26 +22438,26 @@
         <v>380</v>
       </c>
       <c r="D62" s="17">
-        <f t="shared" si="23"/>
-        <v>1.398710804210757</v>
+        <f t="shared" ref="D62:D64" si="23">((E62/$E$5)+(F62/$F$5))/2</f>
+        <v>1.8485514518367132</v>
       </c>
       <c r="E62" s="17">
-        <v>1.5387900000000001</v>
+        <v>2.2510279999999998</v>
       </c>
       <c r="F62" s="17">
-        <v>0.20560500000000001</v>
+        <v>0.235737</v>
       </c>
       <c r="G62" s="17">
-        <v>23.612276999999999</v>
+        <v>27.835435</v>
       </c>
       <c r="H62" s="17">
-        <v>0.19425700000000001</v>
+        <v>0.219806</v>
       </c>
       <c r="I62" s="17">
-        <v>0.14138500000000001</v>
+        <v>0.14996000000000001</v>
       </c>
       <c r="J62">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K62">
         <v>343</v>
@@ -22518,7 +22472,7 @@
         <v>177</v>
       </c>
       <c r="O62" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="O62:O64" si="24">(32*L62*K62)/B62</f>
         <v>200.01822323462414</v>
       </c>
     </row>
@@ -22534,25 +22488,25 @@
       </c>
       <c r="D63" s="17">
         <f t="shared" si="23"/>
-        <v>1.3463383354473493</v>
+        <v>1.398710804210757</v>
       </c>
       <c r="E63" s="17">
-        <v>1.473319</v>
+        <v>1.5387900000000001</v>
       </c>
       <c r="F63" s="17">
-        <v>0.199207</v>
+        <v>0.20560500000000001</v>
       </c>
       <c r="G63" s="17">
-        <v>22.666561999999999</v>
+        <v>23.612276999999999</v>
       </c>
       <c r="H63" s="17">
-        <v>0.201681</v>
+        <v>0.19425700000000001</v>
       </c>
       <c r="I63" s="17">
-        <v>0.14193800000000001</v>
+        <v>0.14138500000000001</v>
       </c>
       <c r="J63">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>343</v>
@@ -22572,23 +22526,72 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D64" s="58">
-        <f>AVERAGE(D61:D63)</f>
+      <c r="A64" t="s">
+        <v>257</v>
+      </c>
+      <c r="B64">
+        <v>10975</v>
+      </c>
+      <c r="C64" t="s">
+        <v>380</v>
+      </c>
+      <c r="D64" s="17">
+        <f t="shared" si="23"/>
+        <v>1.3463383354473493</v>
+      </c>
+      <c r="E64" s="17">
+        <v>1.473319</v>
+      </c>
+      <c r="F64" s="17">
+        <v>0.199207</v>
+      </c>
+      <c r="G64" s="17">
+        <v>22.666561999999999</v>
+      </c>
+      <c r="H64" s="17">
+        <v>0.201681</v>
+      </c>
+      <c r="I64" s="17">
+        <v>0.14193800000000001</v>
+      </c>
+      <c r="J64">
+        <v>44</v>
+      </c>
+      <c r="K64">
+        <v>343</v>
+      </c>
+      <c r="L64">
+        <v>200</v>
+      </c>
+      <c r="M64" t="s">
+        <v>33</v>
+      </c>
+      <c r="N64" t="s">
+        <v>177</v>
+      </c>
+      <c r="O64" s="22">
+        <f t="shared" si="24"/>
+        <v>200.01822323462414</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D65" s="58">
+        <f>AVERAGE(D62:D64)</f>
         <v>1.5312001971649398</v>
       </c>
-      <c r="E64" s="58">
-        <f t="shared" ref="E64:F64" si="25">AVERAGE(E61:E63)</f>
+      <c r="E65" s="58">
+        <f t="shared" ref="E65:F65" si="25">AVERAGE(E62:E64)</f>
         <v>1.7543790000000001</v>
       </c>
-      <c r="F64" s="58">
+      <c r="F65" s="58">
         <f t="shared" si="25"/>
         <v>0.21351633333333334</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A29:O29"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="A30:O30"/>
     <mergeCell ref="A16:O16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -31388,7 +31391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AF3A36-8329-4641-8F20-69FE4A8D253B}">
   <dimension ref="A1:Q232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
@@ -64825,7 +64828,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="17">
-        <f t="shared" ref="D49:D57" si="3">((E49/$E$2)+(F49/$F$2))/2</f>
+        <f t="shared" ref="D49:D56" si="3">((E49/$E$2)+(F49/$F$2))/2</f>
         <v>0.79661311485560005</v>
       </c>
       <c r="E49">
@@ -66732,7 +66735,7 @@
         <v>6</v>
       </c>
       <c r="D50" s="17">
-        <f t="shared" ref="D50:D58" si="3">((E50/$E$3)+(F50/$F$3))/2</f>
+        <f t="shared" ref="D50:D57" si="3">((E50/$E$3)+(F50/$F$3))/2</f>
         <v>0.90212672312589404</v>
       </c>
       <c r="E50">

--- a/results/results_v4.xlsx
+++ b/results/results_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3C5658-AB2A-4F8A-85ED-C99D7A1F8BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5F8562-ED54-4D7C-B359-76E3B7F7895F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5630" yWindow="2340" windowWidth="19420" windowHeight="10420" tabRatio="818" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="380" windowWidth="19420" windowHeight="10420" tabRatio="818" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="30" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5009" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5191" uniqueCount="423">
   <si>
     <t>epochs</t>
   </si>
@@ -1329,6 +1329,9 @@
   </si>
   <si>
     <t>different implementation</t>
+  </si>
+  <si>
+    <t>deepstate</t>
   </si>
 </sst>
 </file>
@@ -6413,11 +6416,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C8C9A-20BB-4771-8378-5D3215950330}">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9711,6 +9714,454 @@
         <v>0.162574</v>
       </c>
     </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>263</v>
+      </c>
+      <c r="B98">
+        <v>3903</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="17">
+        <f t="shared" ref="D98:D107" si="8">((E98/$E$4)+(F98/$F$4))/2</f>
+        <v>0.91162440231887409</v>
+      </c>
+      <c r="E98" s="17">
+        <v>3.5440830000000001</v>
+      </c>
+      <c r="F98" s="17">
+        <v>0.152924</v>
+      </c>
+      <c r="G98" s="17">
+        <v>133.668397</v>
+      </c>
+      <c r="H98" s="17">
+        <v>0.149508</v>
+      </c>
+      <c r="I98" s="17">
+        <v>0.198435</v>
+      </c>
+      <c r="J98">
+        <v>42</v>
+      </c>
+      <c r="K98">
+        <v>200</v>
+      </c>
+      <c r="L98">
+        <v>100</v>
+      </c>
+      <c r="M98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>263</v>
+      </c>
+      <c r="B99">
+        <v>3903</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="17">
+        <f t="shared" si="8"/>
+        <v>0.8980527998957355</v>
+      </c>
+      <c r="E99" s="17">
+        <v>3.4366370000000002</v>
+      </c>
+      <c r="F99" s="17">
+        <v>0.15296399999999999</v>
+      </c>
+      <c r="G99" s="17">
+        <v>123.858379</v>
+      </c>
+      <c r="H99" s="17">
+        <v>0.147171</v>
+      </c>
+      <c r="I99" s="17">
+        <v>0.185724</v>
+      </c>
+      <c r="J99">
+        <v>43</v>
+      </c>
+      <c r="K99">
+        <v>200</v>
+      </c>
+      <c r="L99">
+        <v>100</v>
+      </c>
+      <c r="M99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>263</v>
+      </c>
+      <c r="B100">
+        <v>3903</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="17">
+        <f t="shared" si="8"/>
+        <v>0.94111157776839116</v>
+      </c>
+      <c r="E100" s="17">
+        <v>3.6366350000000001</v>
+      </c>
+      <c r="F100" s="17">
+        <v>0.158806</v>
+      </c>
+      <c r="G100" s="17">
+        <v>138.27808200000001</v>
+      </c>
+      <c r="H100" s="17">
+        <v>0.15382599999999999</v>
+      </c>
+      <c r="I100" s="17">
+        <v>0.21315700000000001</v>
+      </c>
+      <c r="J100">
+        <v>44</v>
+      </c>
+      <c r="K100">
+        <v>200</v>
+      </c>
+      <c r="L100">
+        <v>100</v>
+      </c>
+      <c r="M100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>263</v>
+      </c>
+      <c r="B101">
+        <v>3903</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="17">
+        <f t="shared" si="8"/>
+        <v>0.95177435968473478</v>
+      </c>
+      <c r="E101" s="17">
+        <v>3.539282</v>
+      </c>
+      <c r="F101" s="17">
+        <v>0.16647500000000001</v>
+      </c>
+      <c r="G101" s="17">
+        <v>132.74596500000001</v>
+      </c>
+      <c r="H101" s="17">
+        <v>0.15356300000000001</v>
+      </c>
+      <c r="I101" s="17">
+        <v>0.20382900000000001</v>
+      </c>
+      <c r="J101">
+        <v>45</v>
+      </c>
+      <c r="K101">
+        <v>200</v>
+      </c>
+      <c r="L101">
+        <v>100</v>
+      </c>
+      <c r="M101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>263</v>
+      </c>
+      <c r="B102">
+        <v>3903</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="17">
+        <f t="shared" si="8"/>
+        <v>0.97455455178577322</v>
+      </c>
+      <c r="E102" s="17">
+        <v>3.7960859999999998</v>
+      </c>
+      <c r="F102" s="17">
+        <v>0.16316900000000001</v>
+      </c>
+      <c r="G102" s="17">
+        <v>145.745588</v>
+      </c>
+      <c r="H102" s="17">
+        <v>0.158083</v>
+      </c>
+      <c r="I102" s="17">
+        <v>0.22955999999999999</v>
+      </c>
+      <c r="J102">
+        <v>46</v>
+      </c>
+      <c r="K102">
+        <v>200</v>
+      </c>
+      <c r="L102">
+        <v>100</v>
+      </c>
+      <c r="M102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>263</v>
+      </c>
+      <c r="B103">
+        <v>3903</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="17">
+        <f t="shared" si="8"/>
+        <v>0.93714424176523514</v>
+      </c>
+      <c r="E103" s="17">
+        <v>3.6322700000000001</v>
+      </c>
+      <c r="F103" s="17">
+        <v>0.15767200000000001</v>
+      </c>
+      <c r="G103" s="17">
+        <v>137.10019800000001</v>
+      </c>
+      <c r="H103" s="17">
+        <v>0.152945</v>
+      </c>
+      <c r="I103" s="17">
+        <v>0.20721600000000001</v>
+      </c>
+      <c r="J103">
+        <v>47</v>
+      </c>
+      <c r="K103">
+        <v>200</v>
+      </c>
+      <c r="L103">
+        <v>100</v>
+      </c>
+      <c r="M103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>263</v>
+      </c>
+      <c r="B104">
+        <v>3903</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="17">
+        <f t="shared" si="8"/>
+        <v>0.92724892885385723</v>
+      </c>
+      <c r="E104" s="17">
+        <v>3.5385659999999999</v>
+      </c>
+      <c r="F104" s="17">
+        <v>0.15835199999999999</v>
+      </c>
+      <c r="G104" s="17">
+        <v>131.89420999999999</v>
+      </c>
+      <c r="H104" s="17">
+        <v>0.15195500000000001</v>
+      </c>
+      <c r="I104" s="17">
+        <v>0.19135199999999999</v>
+      </c>
+      <c r="J104">
+        <v>48</v>
+      </c>
+      <c r="K104">
+        <v>200</v>
+      </c>
+      <c r="L104">
+        <v>100</v>
+      </c>
+      <c r="M104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>263</v>
+      </c>
+      <c r="B105">
+        <v>3903</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="17">
+        <f t="shared" si="8"/>
+        <v>0.9051277910758051</v>
+      </c>
+      <c r="E105" s="17">
+        <v>3.4543889999999999</v>
+      </c>
+      <c r="F105" s="17">
+        <v>0.15456400000000001</v>
+      </c>
+      <c r="G105" s="17">
+        <v>124.334047</v>
+      </c>
+      <c r="H105" s="17">
+        <v>0.148453</v>
+      </c>
+      <c r="I105" s="17">
+        <v>0.18404699999999999</v>
+      </c>
+      <c r="J105">
+        <v>49</v>
+      </c>
+      <c r="K105">
+        <v>200</v>
+      </c>
+      <c r="L105">
+        <v>100</v>
+      </c>
+      <c r="M105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>263</v>
+      </c>
+      <c r="B106">
+        <v>3903</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="17">
+        <f t="shared" si="8"/>
+        <v>0.94316547982389531</v>
+      </c>
+      <c r="E106" s="17">
+        <v>3.6017420000000002</v>
+      </c>
+      <c r="F106" s="17">
+        <v>0.160967</v>
+      </c>
+      <c r="G106" s="17">
+        <v>133.52588700000001</v>
+      </c>
+      <c r="H106" s="17">
+        <v>0.154556</v>
+      </c>
+      <c r="I106" s="17">
+        <v>0.20549899999999999</v>
+      </c>
+      <c r="J106">
+        <v>50</v>
+      </c>
+      <c r="K106">
+        <v>200</v>
+      </c>
+      <c r="L106">
+        <v>100</v>
+      </c>
+      <c r="M106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>263</v>
+      </c>
+      <c r="B107">
+        <v>3903</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="17">
+        <f t="shared" si="8"/>
+        <v>0.92336248355048922</v>
+      </c>
+      <c r="E107" s="17">
+        <v>3.5914410000000001</v>
+      </c>
+      <c r="F107" s="17">
+        <v>0.15482000000000001</v>
+      </c>
+      <c r="G107" s="17">
+        <v>133.39154400000001</v>
+      </c>
+      <c r="H107" s="17">
+        <v>0.151007</v>
+      </c>
+      <c r="I107" s="17">
+        <v>0.19365199999999999</v>
+      </c>
+      <c r="J107">
+        <v>51</v>
+      </c>
+      <c r="K107">
+        <v>200</v>
+      </c>
+      <c r="L107">
+        <v>100</v>
+      </c>
+      <c r="M107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D108" s="58">
+        <f>AVERAGE(D98:D107)</f>
+        <v>0.93131666165227911</v>
+      </c>
+      <c r="E108" s="58">
+        <f>AVERAGE(E98:E107)</f>
+        <v>3.5771130999999996</v>
+      </c>
+      <c r="F108" s="58">
+        <f>AVERAGE(F98:F107)</f>
+        <v>0.1580713</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D109" s="58">
+        <f>MEDIAN(D98:D107)</f>
+        <v>0.93219658530954619</v>
+      </c>
+      <c r="E109" s="58">
+        <f>MEDIAN(E98:E107)</f>
+        <v>3.5677620000000001</v>
+      </c>
+      <c r="F109" s="58">
+        <f>MEDIAN(F98:F107)</f>
+        <v>0.15801199999999999</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A10:N10"/>
@@ -9723,18 +10174,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C7B82-29B6-4C9D-A525-A1FB3E12D34B}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.36328125" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.36328125" customWidth="1"/>
     <col min="5" max="5" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
@@ -11255,7 +11706,7 @@
         <v>0.15756030000000004</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D49" s="58">
         <f>MEDIAN(D38:D47)</f>
         <v>0.85610457084029701</v>
@@ -11269,7 +11720,16 @@
         <v>0.15686449999999999</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51">
+        <v>6519</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
       <c r="D51" s="17">
         <f t="shared" ref="D51:D59" si="3">((E51/$E$5)+(F51/$F$5))/2</f>
         <v>0.80301114252633177</v>
@@ -11299,7 +11759,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52">
+        <v>6519</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
       <c r="D52" s="17">
         <f t="shared" si="3"/>
         <v>0.80191325173896899</v>
@@ -11329,7 +11798,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53">
+        <v>6519</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
       <c r="D53" s="17">
         <f t="shared" si="3"/>
         <v>0.81730606864217203</v>
@@ -11359,7 +11837,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B54">
+        <v>6519</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
       <c r="D54" s="17">
         <f t="shared" si="3"/>
         <v>0.82285838205273376</v>
@@ -11389,7 +11876,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55">
+        <v>6519</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
       <c r="D55" s="17">
         <f t="shared" si="3"/>
         <v>0.80934239347470682</v>
@@ -11419,7 +11915,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56">
+        <v>6519</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
       <c r="D56" s="17">
         <f t="shared" si="3"/>
         <v>0.80966649342928754</v>
@@ -11449,7 +11954,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57">
+        <v>6519</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
       <c r="D57" s="17">
         <f t="shared" si="3"/>
         <v>0.85155417048624171</v>
@@ -11479,7 +11993,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58">
+        <v>6519</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
       <c r="D58" s="17">
         <f t="shared" si="3"/>
         <v>0.84941013827238021</v>
@@ -11509,7 +12032,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>262</v>
+      </c>
+      <c r="B59">
+        <v>6519</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
       <c r="D59" s="17">
         <f t="shared" si="3"/>
         <v>0.85004997776572799</v>
@@ -11539,10 +12071,1022 @@
         <v>100</v>
       </c>
     </row>
+    <row r="62" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="89"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="89"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="89"/>
+      <c r="L62" s="89"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="89"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64">
+        <v>6519</v>
+      </c>
+      <c r="C64" t="s">
+        <v>422</v>
+      </c>
+      <c r="D64" s="17">
+        <f t="shared" ref="D64:D73" si="4">((E64/$E$5)+(F64/$F$5))/2</f>
+        <v>1.0121150065546569</v>
+      </c>
+      <c r="E64" s="17">
+        <v>4.2253930000000004</v>
+      </c>
+      <c r="F64" s="17">
+        <v>0.18701100000000001</v>
+      </c>
+      <c r="G64" s="17">
+        <v>141.55874600000001</v>
+      </c>
+      <c r="H64" s="17">
+        <v>0.17852799999999999</v>
+      </c>
+      <c r="I64" s="17">
+        <v>0.204682</v>
+      </c>
+      <c r="J64">
+        <v>42</v>
+      </c>
+      <c r="K64">
+        <v>100</v>
+      </c>
+      <c r="L64" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D65" s="17">
+        <f t="shared" si="4"/>
+        <v>1.0273235193512771</v>
+      </c>
+      <c r="E65" s="17">
+        <v>4.3959849999999996</v>
+      </c>
+      <c r="F65" s="17">
+        <v>0.18539700000000001</v>
+      </c>
+      <c r="G65" s="17">
+        <v>147.459068</v>
+      </c>
+      <c r="H65" s="17">
+        <v>0.17750099999999999</v>
+      </c>
+      <c r="I65" s="17">
+        <v>0.22181699999999999</v>
+      </c>
+      <c r="J65">
+        <v>43</v>
+      </c>
+      <c r="K65">
+        <v>100</v>
+      </c>
+      <c r="L65" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D66" s="17">
+        <f t="shared" si="4"/>
+        <v>1.1843909057170621</v>
+      </c>
+      <c r="E66" s="17">
+        <v>4.9773870000000002</v>
+      </c>
+      <c r="F66" s="17">
+        <v>0.21748899999999999</v>
+      </c>
+      <c r="G66" s="17">
+        <v>172.088616</v>
+      </c>
+      <c r="H66" s="17">
+        <v>0.20444300000000001</v>
+      </c>
+      <c r="I66" s="17">
+        <v>0.26388800000000001</v>
+      </c>
+      <c r="J66">
+        <v>44</v>
+      </c>
+      <c r="K66">
+        <v>100</v>
+      </c>
+      <c r="L66" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D67" s="17">
+        <f t="shared" si="4"/>
+        <v>1.0538354449227911</v>
+      </c>
+      <c r="E67" s="17">
+        <v>4.5105570000000004</v>
+      </c>
+      <c r="F67" s="17">
+        <v>0.190135</v>
+      </c>
+      <c r="G67" s="17">
+        <v>158.02454900000001</v>
+      </c>
+      <c r="H67" s="17">
+        <v>0.18198600000000001</v>
+      </c>
+      <c r="I67" s="17">
+        <v>0.24967500000000001</v>
+      </c>
+      <c r="J67">
+        <v>45</v>
+      </c>
+      <c r="K67">
+        <v>100</v>
+      </c>
+      <c r="L67" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D68" s="17">
+        <f t="shared" si="4"/>
+        <v>1.0296287496930572</v>
+      </c>
+      <c r="E68" s="17">
+        <v>4.3248009999999999</v>
+      </c>
+      <c r="F68" s="17">
+        <v>0.189161</v>
+      </c>
+      <c r="G68" s="17">
+        <v>142.70604599999999</v>
+      </c>
+      <c r="H68" s="17">
+        <v>0.18673600000000001</v>
+      </c>
+      <c r="I68" s="17">
+        <v>0.19731799999999999</v>
+      </c>
+      <c r="J68">
+        <v>46</v>
+      </c>
+      <c r="K68">
+        <v>100</v>
+      </c>
+      <c r="L68" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D69" s="17">
+        <f t="shared" si="4"/>
+        <v>0.98891624277568735</v>
+      </c>
+      <c r="E69" s="17">
+        <v>4.1983949999999997</v>
+      </c>
+      <c r="F69" s="17">
+        <v>0.179839</v>
+      </c>
+      <c r="G69" s="17">
+        <v>134.57524799999999</v>
+      </c>
+      <c r="H69" s="17">
+        <v>0.17478399999999999</v>
+      </c>
+      <c r="I69" s="17">
+        <v>0.199517</v>
+      </c>
+      <c r="J69">
+        <v>47</v>
+      </c>
+      <c r="K69">
+        <v>100</v>
+      </c>
+      <c r="L69" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D70" s="17">
+        <f t="shared" si="4"/>
+        <v>0.98359985737243849</v>
+      </c>
+      <c r="E70" s="17">
+        <v>4.1375320000000002</v>
+      </c>
+      <c r="F70" s="17">
+        <v>0.180454</v>
+      </c>
+      <c r="G70" s="17">
+        <v>138.38992500000001</v>
+      </c>
+      <c r="H70" s="17">
+        <v>0.17360400000000001</v>
+      </c>
+      <c r="I70" s="17">
+        <v>0.19650899999999999</v>
+      </c>
+      <c r="J70">
+        <v>48</v>
+      </c>
+      <c r="K70">
+        <v>100</v>
+      </c>
+      <c r="L70" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D71" s="17">
+        <f t="shared" si="4"/>
+        <v>1.0307538402631116</v>
+      </c>
+      <c r="E71" s="17">
+        <v>4.2788519999999997</v>
+      </c>
+      <c r="F71" s="17">
+        <v>0.19146099999999999</v>
+      </c>
+      <c r="G71" s="17">
+        <v>142.00219200000001</v>
+      </c>
+      <c r="H71" s="17">
+        <v>0.17987</v>
+      </c>
+      <c r="I71" s="17">
+        <v>0.20763799999999999</v>
+      </c>
+      <c r="J71">
+        <v>49</v>
+      </c>
+      <c r="K71">
+        <v>100</v>
+      </c>
+      <c r="L71" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D72" s="17">
+        <f t="shared" si="4"/>
+        <v>1.0233616313796969</v>
+      </c>
+      <c r="E72" s="17">
+        <v>4.335966</v>
+      </c>
+      <c r="F72" s="17">
+        <v>0.18646099999999999</v>
+      </c>
+      <c r="G72" s="17">
+        <v>141.668091</v>
+      </c>
+      <c r="H72" s="17">
+        <v>0.182451</v>
+      </c>
+      <c r="I72" s="17">
+        <v>0.205453</v>
+      </c>
+      <c r="J72">
+        <v>50</v>
+      </c>
+      <c r="K72">
+        <v>100</v>
+      </c>
+      <c r="L72" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D73" s="17">
+        <f t="shared" si="4"/>
+        <v>1.0165839637448695</v>
+      </c>
+      <c r="E73" s="17">
+        <v>4.3118990000000004</v>
+      </c>
+      <c r="F73" s="17">
+        <v>0.185034</v>
+      </c>
+      <c r="G73" s="17">
+        <v>140.320097</v>
+      </c>
+      <c r="H73" s="17">
+        <v>0.17727299999999999</v>
+      </c>
+      <c r="I73" s="17">
+        <v>0.214083</v>
+      </c>
+      <c r="J73">
+        <v>51</v>
+      </c>
+      <c r="K73">
+        <v>100</v>
+      </c>
+      <c r="L73" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D74" s="58">
+        <f>AVERAGE(D64:D73)</f>
+        <v>1.035050916177465</v>
+      </c>
+      <c r="E74" s="58">
+        <f>AVERAGE(E64:E73)</f>
+        <v>4.3696766999999994</v>
+      </c>
+      <c r="F74" s="58">
+        <f>AVERAGE(F64:F73)</f>
+        <v>0.1892442</v>
+      </c>
+    </row>
+    <row r="75" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D75" s="58">
+        <f>MEDIAN(D64:D73)</f>
+        <v>1.025342575365487</v>
+      </c>
+      <c r="E75" s="58">
+        <f>MEDIAN(E64:E73)</f>
+        <v>4.3183500000000006</v>
+      </c>
+      <c r="F75" s="58">
+        <f>MEDIAN(F64:F73)</f>
+        <v>0.18673600000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D77" s="17">
+        <f t="shared" ref="D77:D86" si="5">((E77/$E$5)+(F77/$F$5))/2</f>
+        <v>0.98101821448156268</v>
+      </c>
+      <c r="E77" s="17">
+        <v>4.1924060000000001</v>
+      </c>
+      <c r="F77" s="17">
+        <v>0.17726500000000001</v>
+      </c>
+      <c r="G77" s="17">
+        <v>150.90167700000001</v>
+      </c>
+      <c r="H77" s="17">
+        <v>0.17156299999999999</v>
+      </c>
+      <c r="I77" s="17">
+        <v>0.22634299999999999</v>
+      </c>
+      <c r="J77">
+        <v>42</v>
+      </c>
+      <c r="K77">
+        <v>100</v>
+      </c>
+      <c r="L77" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D78" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1232142386094397</v>
+      </c>
+      <c r="E78" s="17">
+        <v>4.8107139999999999</v>
+      </c>
+      <c r="F78" s="17">
+        <v>0.20252000000000001</v>
+      </c>
+      <c r="G78" s="17">
+        <v>177.929349</v>
+      </c>
+      <c r="H78" s="17">
+        <v>0.190167</v>
+      </c>
+      <c r="I78" s="17">
+        <v>0.280447</v>
+      </c>
+      <c r="J78">
+        <v>43</v>
+      </c>
+      <c r="K78">
+        <v>100</v>
+      </c>
+      <c r="L78" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D79" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1703591538454261</v>
+      </c>
+      <c r="E79" s="17">
+        <v>5.0474079999999999</v>
+      </c>
+      <c r="F79" s="17">
+        <v>0.20958399999999999</v>
+      </c>
+      <c r="G79" s="17">
+        <v>184.27596600000001</v>
+      </c>
+      <c r="H79" s="17">
+        <v>0.20371800000000001</v>
+      </c>
+      <c r="I79" s="17">
+        <v>0.26820899999999998</v>
+      </c>
+      <c r="J79">
+        <v>44</v>
+      </c>
+      <c r="K79">
+        <v>100</v>
+      </c>
+      <c r="L79" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D80" s="17">
+        <f t="shared" si="5"/>
+        <v>1.011758217802508</v>
+      </c>
+      <c r="E80" s="17">
+        <v>4.3538300000000003</v>
+      </c>
+      <c r="F80" s="17">
+        <v>0.18157799999999999</v>
+      </c>
+      <c r="G80" s="17">
+        <v>163.69282200000001</v>
+      </c>
+      <c r="H80" s="17">
+        <v>0.175536</v>
+      </c>
+      <c r="I80" s="17">
+        <v>0.25792999999999999</v>
+      </c>
+      <c r="J80">
+        <v>45</v>
+      </c>
+      <c r="K80">
+        <v>100</v>
+      </c>
+      <c r="L80" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D81" s="17">
+        <f t="shared" si="5"/>
+        <v>0.99134500852335328</v>
+      </c>
+      <c r="E81" s="17">
+        <v>4.202356</v>
+      </c>
+      <c r="F81" s="17">
+        <v>0.18054300000000001</v>
+      </c>
+      <c r="G81" s="17">
+        <v>153.68574799999999</v>
+      </c>
+      <c r="H81" s="17">
+        <v>0.17879100000000001</v>
+      </c>
+      <c r="I81" s="17">
+        <v>0.212309</v>
+      </c>
+      <c r="J81">
+        <v>46</v>
+      </c>
+      <c r="K81">
+        <v>100</v>
+      </c>
+      <c r="L81" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D82" s="17">
+        <f t="shared" si="5"/>
+        <v>0.95586227156704706</v>
+      </c>
+      <c r="E82" s="17">
+        <v>4.0491570000000001</v>
+      </c>
+      <c r="F82" s="17">
+        <v>0.17419599999999999</v>
+      </c>
+      <c r="G82" s="17">
+        <v>142.86463900000001</v>
+      </c>
+      <c r="H82" s="17">
+        <v>0.170872</v>
+      </c>
+      <c r="I82" s="17">
+        <v>0.20389199999999999</v>
+      </c>
+      <c r="J82">
+        <v>47</v>
+      </c>
+      <c r="K82">
+        <v>100</v>
+      </c>
+      <c r="L82" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D83" s="17">
+        <f t="shared" si="5"/>
+        <v>0.93876274204146193</v>
+      </c>
+      <c r="E83" s="17">
+        <v>4.0024249999999997</v>
+      </c>
+      <c r="F83" s="17">
+        <v>0.170018</v>
+      </c>
+      <c r="G83" s="17">
+        <v>142.09528299999999</v>
+      </c>
+      <c r="H83" s="17">
+        <v>0.172342</v>
+      </c>
+      <c r="I83" s="17">
+        <v>0.17652300000000001</v>
+      </c>
+      <c r="J83">
+        <v>48</v>
+      </c>
+      <c r="K83">
+        <v>100</v>
+      </c>
+      <c r="L83" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D84" s="17">
+        <f t="shared" si="5"/>
+        <v>1.0085617330839014</v>
+      </c>
+      <c r="E84" s="17">
+        <v>4.2672650000000001</v>
+      </c>
+      <c r="F84" s="17">
+        <v>0.18401200000000001</v>
+      </c>
+      <c r="G84" s="17">
+        <v>151.87737000000001</v>
+      </c>
+      <c r="H84" s="17">
+        <v>0.17665500000000001</v>
+      </c>
+      <c r="I84" s="17">
+        <v>0.23253399999999999</v>
+      </c>
+      <c r="J84">
+        <v>49</v>
+      </c>
+      <c r="K84">
+        <v>100</v>
+      </c>
+      <c r="L84" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D85" s="17">
+        <f t="shared" si="5"/>
+        <v>1.0798264289189281</v>
+      </c>
+      <c r="E85" s="17">
+        <v>4.6398210000000004</v>
+      </c>
+      <c r="F85" s="17">
+        <v>0.19408</v>
+      </c>
+      <c r="G85" s="17">
+        <v>172.13315600000001</v>
+      </c>
+      <c r="H85" s="17">
+        <v>0.18543999999999999</v>
+      </c>
+      <c r="I85" s="17">
+        <v>0.26604899999999998</v>
+      </c>
+      <c r="J85">
+        <v>50</v>
+      </c>
+      <c r="K85">
+        <v>100</v>
+      </c>
+      <c r="L85" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D86" s="17">
+        <f t="shared" si="5"/>
+        <v>0.90174894991969323</v>
+      </c>
+      <c r="E86" s="17">
+        <v>3.8313619999999999</v>
+      </c>
+      <c r="F86" s="17">
+        <v>0.16386200000000001</v>
+      </c>
+      <c r="G86" s="17">
+        <v>137.27588299999999</v>
+      </c>
+      <c r="H86" s="17">
+        <v>0.16065499999999999</v>
+      </c>
+      <c r="I86" s="17">
+        <v>0.193187</v>
+      </c>
+      <c r="J86">
+        <v>51</v>
+      </c>
+      <c r="K86">
+        <v>100</v>
+      </c>
+      <c r="L86" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D87" s="58">
+        <f>AVERAGE(D77:D86)</f>
+        <v>1.016245695879332</v>
+      </c>
+      <c r="E87" s="58">
+        <f>AVERAGE(E77:E86)</f>
+        <v>4.3396743999999998</v>
+      </c>
+      <c r="F87" s="58">
+        <f>AVERAGE(F77:F86)</f>
+        <v>0.18376580000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D88" s="58">
+        <f>MEDIAN(D77:D86)</f>
+        <v>0.99995337080362734</v>
+      </c>
+      <c r="E88" s="58">
+        <f>MEDIAN(E77:E86)</f>
+        <v>4.2348105</v>
+      </c>
+      <c r="F88" s="58">
+        <f>MEDIAN(F77:F86)</f>
+        <v>0.18106050000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D90" s="17">
+        <f t="shared" ref="D90:D99" si="6">((E90/$E$5)+(F90/$F$5))/2</f>
+        <v>0.96883137761851701</v>
+      </c>
+      <c r="E90" s="17">
+        <v>4.1714060000000002</v>
+      </c>
+      <c r="F90" s="17">
+        <v>0.17377899999999999</v>
+      </c>
+      <c r="G90" s="17">
+        <v>156.566103</v>
+      </c>
+      <c r="H90" s="17">
+        <v>0.16955799999999999</v>
+      </c>
+      <c r="I90" s="17">
+        <v>0.23400099999999999</v>
+      </c>
+      <c r="J90">
+        <v>42</v>
+      </c>
+      <c r="K90">
+        <v>200</v>
+      </c>
+      <c r="L90" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D91" s="17">
+        <f t="shared" si="6"/>
+        <v>1.0098432586085271</v>
+      </c>
+      <c r="E91" s="17">
+        <v>4.3204209999999996</v>
+      </c>
+      <c r="F91" s="17">
+        <v>0.18227399999999999</v>
+      </c>
+      <c r="G91" s="17">
+        <v>164.56723299999999</v>
+      </c>
+      <c r="H91" s="17">
+        <v>0.17458899999999999</v>
+      </c>
+      <c r="I91" s="17">
+        <v>0.25179400000000002</v>
+      </c>
+      <c r="J91">
+        <v>43</v>
+      </c>
+      <c r="K91">
+        <v>200</v>
+      </c>
+      <c r="L91" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D92" s="17">
+        <f t="shared" si="6"/>
+        <v>1.0041425974538201</v>
+      </c>
+      <c r="E92" s="17">
+        <v>4.3082580000000004</v>
+      </c>
+      <c r="F92" s="17">
+        <v>0.18074000000000001</v>
+      </c>
+      <c r="G92" s="17">
+        <v>159.62981500000001</v>
+      </c>
+      <c r="H92" s="17">
+        <v>0.17750299999999999</v>
+      </c>
+      <c r="I92" s="17">
+        <v>0.22967099999999999</v>
+      </c>
+      <c r="J92">
+        <v>44</v>
+      </c>
+      <c r="K92">
+        <v>200</v>
+      </c>
+      <c r="L92" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D93" s="17">
+        <f t="shared" si="6"/>
+        <v>0.99203606258519561</v>
+      </c>
+      <c r="E93" s="17">
+        <v>4.2782450000000001</v>
+      </c>
+      <c r="F93" s="17">
+        <v>0.17765500000000001</v>
+      </c>
+      <c r="G93" s="17">
+        <v>164.483124</v>
+      </c>
+      <c r="H93" s="17">
+        <v>0.17202500000000001</v>
+      </c>
+      <c r="I93" s="17">
+        <v>0.25245099999999998</v>
+      </c>
+      <c r="J93">
+        <v>45</v>
+      </c>
+      <c r="K93">
+        <v>200</v>
+      </c>
+      <c r="L93" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D94" s="17">
+        <f t="shared" si="6"/>
+        <v>0.917228133057858</v>
+      </c>
+      <c r="E94" s="17">
+        <v>3.877977</v>
+      </c>
+      <c r="F94" s="17">
+        <v>0.167466</v>
+      </c>
+      <c r="G94" s="17">
+        <v>142.78516200000001</v>
+      </c>
+      <c r="H94" s="17">
+        <v>0.16513600000000001</v>
+      </c>
+      <c r="I94" s="17">
+        <v>0.19536800000000001</v>
+      </c>
+      <c r="J94">
+        <v>46</v>
+      </c>
+      <c r="K94">
+        <v>200</v>
+      </c>
+      <c r="L94" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D95" s="17">
+        <f t="shared" si="6"/>
+        <v>0.90333129855470429</v>
+      </c>
+      <c r="E95" s="17">
+        <v>3.841342</v>
+      </c>
+      <c r="F95" s="17">
+        <v>0.16401499999999999</v>
+      </c>
+      <c r="G95" s="17">
+        <v>139.707886</v>
+      </c>
+      <c r="H95" s="17">
+        <v>0.163937</v>
+      </c>
+      <c r="I95" s="17">
+        <v>0.18704699999999999</v>
+      </c>
+      <c r="J95">
+        <v>47</v>
+      </c>
+      <c r="K95">
+        <v>200</v>
+      </c>
+      <c r="L95" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D96" s="17">
+        <f t="shared" si="6"/>
+        <v>0.89690484239844248</v>
+      </c>
+      <c r="E96" s="17">
+        <v>3.801091</v>
+      </c>
+      <c r="F96" s="17">
+        <v>0.163382</v>
+      </c>
+      <c r="G96" s="17">
+        <v>142.04927599999999</v>
+      </c>
+      <c r="H96" s="17">
+        <v>0.165383</v>
+      </c>
+      <c r="I96" s="17">
+        <v>0.17524000000000001</v>
+      </c>
+      <c r="J96">
+        <v>48</v>
+      </c>
+      <c r="K96">
+        <v>200</v>
+      </c>
+      <c r="L96" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D97" s="17">
+        <f t="shared" si="6"/>
+        <v>0.94662827216377243</v>
+      </c>
+      <c r="E97" s="17">
+        <v>3.9932449999999999</v>
+      </c>
+      <c r="F97" s="17">
+        <v>0.173207</v>
+      </c>
+      <c r="G97" s="17">
+        <v>145.55638200000001</v>
+      </c>
+      <c r="H97" s="17">
+        <v>0.169017</v>
+      </c>
+      <c r="I97" s="17">
+        <v>0.207178</v>
+      </c>
+      <c r="J97">
+        <v>49</v>
+      </c>
+      <c r="K97">
+        <v>200</v>
+      </c>
+      <c r="L97" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D98" s="17">
+        <f t="shared" si="6"/>
+        <v>1.0092827612801432</v>
+      </c>
+      <c r="E98" s="17">
+        <v>4.3397819999999996</v>
+      </c>
+      <c r="F98" s="17">
+        <v>0.18127399999999999</v>
+      </c>
+      <c r="G98" s="17">
+        <v>164.572878</v>
+      </c>
+      <c r="H98" s="17">
+        <v>0.17432600000000001</v>
+      </c>
+      <c r="I98" s="17">
+        <v>0.25395699999999999</v>
+      </c>
+      <c r="J98">
+        <v>50</v>
+      </c>
+      <c r="K98">
+        <v>200</v>
+      </c>
+      <c r="L98" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D99" s="17">
+        <f t="shared" si="6"/>
+        <v>0.89647115032875724</v>
+      </c>
+      <c r="E99" s="17">
+        <v>3.8065880000000001</v>
+      </c>
+      <c r="F99" s="17">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G99" s="17">
+        <v>144.63214199999999</v>
+      </c>
+      <c r="H99" s="17">
+        <v>0.16034899999999999</v>
+      </c>
+      <c r="I99" s="17">
+        <v>0.198625</v>
+      </c>
+      <c r="J99">
+        <v>51</v>
+      </c>
+      <c r="K99">
+        <v>200</v>
+      </c>
+      <c r="L99" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D100" s="58">
+        <f>AVERAGE(D90:D99)</f>
+        <v>0.9544699754049738</v>
+      </c>
+      <c r="E100" s="58">
+        <f>AVERAGE(E90:E99)</f>
+        <v>4.0738354999999995</v>
+      </c>
+      <c r="F100" s="58">
+        <f>AVERAGE(F90:F99)</f>
+        <v>0.17267919999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D101" s="58">
+        <f>MEDIAN(D90:D99)</f>
+        <v>0.95772982489114478</v>
+      </c>
+      <c r="E101" s="58">
+        <f>MEDIAN(E90:E99)</f>
+        <v>4.0823254999999996</v>
+      </c>
+      <c r="F101" s="58">
+        <f>MEDIAN(F90:F99)</f>
+        <v>0.17349300000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A62:N62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11551,18 +13095,18 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEB8732-0721-446E-85BF-508EDD0785C3}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51:C60"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
@@ -13030,7 +14574,7 @@
         <v>0.10571249999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D49" s="58">
         <f>MEDIAN(D38:D47)</f>
         <v>0.89498984690127725</v>
@@ -13044,7 +14588,7 @@
         <v>0.1056665</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>261</v>
       </c>
@@ -13083,7 +14627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>261</v>
       </c>
@@ -13122,7 +14666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>261</v>
       </c>
@@ -13161,7 +14705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>261</v>
       </c>
@@ -13200,7 +14744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>261</v>
       </c>
@@ -13239,7 +14783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>261</v>
       </c>
@@ -13278,7 +14822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>261</v>
       </c>
@@ -13317,7 +14861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>261</v>
       </c>
@@ -13356,7 +14900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>261</v>
       </c>
@@ -13395,7 +14939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>261</v>
       </c>
@@ -13434,7 +14978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D61" s="58">
         <f>AVERAGE(D51:D60)</f>
         <v>0.88111233051100368</v>
@@ -13448,7 +14992,7 @@
         <v>0.105057</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D62" s="58">
         <f>MEDIAN(D51:D60)</f>
         <v>0.87785902981999864</v>
@@ -13462,9 +15006,1373 @@
         <v>0.1043625</v>
       </c>
     </row>
+    <row r="64" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A64" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="89"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="89"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="89"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="89"/>
+      <c r="O64" s="89"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66">
+        <v>1088</v>
+      </c>
+      <c r="C66" t="s">
+        <v>422</v>
+      </c>
+      <c r="D66" s="17">
+        <f>((E66/$E$4)+(F66/$F$4))/2</f>
+        <v>1.0255694467804675</v>
+      </c>
+      <c r="E66" s="17">
+        <v>3.0462639999999999</v>
+      </c>
+      <c r="F66" s="17">
+        <v>0.12339700000000001</v>
+      </c>
+      <c r="G66" s="17">
+        <v>111.244213</v>
+      </c>
+      <c r="H66" s="17">
+        <v>0.12735399999999999</v>
+      </c>
+      <c r="I66" s="17">
+        <v>0.15604199999999999</v>
+      </c>
+      <c r="J66">
+        <v>42</v>
+      </c>
+      <c r="K66">
+        <v>100</v>
+      </c>
+      <c r="L66" s="1">
+        <v>50</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67">
+        <v>1088</v>
+      </c>
+      <c r="C67" t="s">
+        <v>422</v>
+      </c>
+      <c r="D67" s="17">
+        <f t="shared" ref="D67:D75" si="8">((E67/$E$4)+(F67/$F$4))/2</f>
+        <v>1.2039926570078545</v>
+      </c>
+      <c r="E67" s="17">
+        <v>3.531323</v>
+      </c>
+      <c r="F67" s="17">
+        <v>0.14657000000000001</v>
+      </c>
+      <c r="G67" s="17">
+        <v>130.48629600000001</v>
+      </c>
+      <c r="H67" s="17">
+        <v>0.14335000000000001</v>
+      </c>
+      <c r="I67" s="17">
+        <v>0.18289</v>
+      </c>
+      <c r="J67">
+        <v>43</v>
+      </c>
+      <c r="K67">
+        <v>100</v>
+      </c>
+      <c r="L67" s="1">
+        <v>50</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>261</v>
+      </c>
+      <c r="B68">
+        <v>1088</v>
+      </c>
+      <c r="C68" t="s">
+        <v>422</v>
+      </c>
+      <c r="D68" s="17">
+        <f t="shared" si="8"/>
+        <v>1.1283299515712144</v>
+      </c>
+      <c r="E68" s="17">
+        <v>3.3430970000000002</v>
+      </c>
+      <c r="F68" s="17">
+        <v>0.13608000000000001</v>
+      </c>
+      <c r="G68" s="17">
+        <v>122.969342</v>
+      </c>
+      <c r="H68" s="17">
+        <v>0.13617699999999999</v>
+      </c>
+      <c r="I68" s="17">
+        <v>0.19269800000000001</v>
+      </c>
+      <c r="J68">
+        <v>44</v>
+      </c>
+      <c r="K68">
+        <v>100</v>
+      </c>
+      <c r="L68" s="1">
+        <v>50</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>261</v>
+      </c>
+      <c r="B69">
+        <v>1088</v>
+      </c>
+      <c r="C69" t="s">
+        <v>422</v>
+      </c>
+      <c r="D69" s="17">
+        <f t="shared" si="8"/>
+        <v>1.0517871611586189</v>
+      </c>
+      <c r="E69" s="17">
+        <v>3.1066880000000001</v>
+      </c>
+      <c r="F69" s="17">
+        <v>0.12721399999999999</v>
+      </c>
+      <c r="G69" s="17">
+        <v>116.24581499999999</v>
+      </c>
+      <c r="H69" s="17">
+        <v>0.128499</v>
+      </c>
+      <c r="I69" s="17">
+        <v>0.168937</v>
+      </c>
+      <c r="J69">
+        <v>45</v>
+      </c>
+      <c r="K69">
+        <v>100</v>
+      </c>
+      <c r="L69" s="1">
+        <v>50</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>261</v>
+      </c>
+      <c r="B70">
+        <v>1088</v>
+      </c>
+      <c r="C70" t="s">
+        <v>422</v>
+      </c>
+      <c r="D70" s="17">
+        <f t="shared" si="8"/>
+        <v>1.0338841943698049</v>
+      </c>
+      <c r="E70" s="17">
+        <v>3.1128040000000001</v>
+      </c>
+      <c r="F70" s="17">
+        <v>0.122809</v>
+      </c>
+      <c r="G70" s="17">
+        <v>111.44277</v>
+      </c>
+      <c r="H70" s="17">
+        <v>0.12637200000000001</v>
+      </c>
+      <c r="I70" s="17">
+        <v>0.15815100000000001</v>
+      </c>
+      <c r="J70">
+        <v>46</v>
+      </c>
+      <c r="K70">
+        <v>100</v>
+      </c>
+      <c r="L70" s="1">
+        <v>50</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>261</v>
+      </c>
+      <c r="B71">
+        <v>1088</v>
+      </c>
+      <c r="C71" t="s">
+        <v>422</v>
+      </c>
+      <c r="D71" s="17">
+        <f t="shared" si="8"/>
+        <v>1.030542610954587</v>
+      </c>
+      <c r="E71" s="17">
+        <v>3.0033829999999999</v>
+      </c>
+      <c r="F71" s="17">
+        <v>0.12618399999999999</v>
+      </c>
+      <c r="G71" s="17">
+        <v>108.13505600000001</v>
+      </c>
+      <c r="H71" s="17">
+        <v>0.126301</v>
+      </c>
+      <c r="I71" s="17">
+        <v>0.171123</v>
+      </c>
+      <c r="J71">
+        <v>47</v>
+      </c>
+      <c r="K71">
+        <v>100</v>
+      </c>
+      <c r="L71" s="1">
+        <v>50</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>261</v>
+      </c>
+      <c r="B72">
+        <v>1088</v>
+      </c>
+      <c r="C72" t="s">
+        <v>422</v>
+      </c>
+      <c r="D72" s="17">
+        <f t="shared" si="8"/>
+        <v>1.0159673453563713</v>
+      </c>
+      <c r="E72" s="17">
+        <v>3.0024030000000002</v>
+      </c>
+      <c r="F72" s="17">
+        <v>0.122824</v>
+      </c>
+      <c r="G72" s="17">
+        <v>110.095411</v>
+      </c>
+      <c r="H72" s="17">
+        <v>0.12381399999999999</v>
+      </c>
+      <c r="I72" s="17">
+        <v>0.161492</v>
+      </c>
+      <c r="J72">
+        <v>48</v>
+      </c>
+      <c r="K72">
+        <v>100</v>
+      </c>
+      <c r="L72" s="1">
+        <v>50</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>261</v>
+      </c>
+      <c r="B73">
+        <v>1088</v>
+      </c>
+      <c r="C73" t="s">
+        <v>422</v>
+      </c>
+      <c r="D73" s="17">
+        <f t="shared" si="8"/>
+        <v>0.93726786770931647</v>
+      </c>
+      <c r="E73" s="17">
+        <v>2.79</v>
+      </c>
+      <c r="F73" s="17">
+        <v>0.11254400000000001</v>
+      </c>
+      <c r="G73" s="17">
+        <v>100.013941</v>
+      </c>
+      <c r="H73" s="17">
+        <v>0.116715</v>
+      </c>
+      <c r="I73" s="17">
+        <v>0.125475</v>
+      </c>
+      <c r="J73">
+        <v>49</v>
+      </c>
+      <c r="K73">
+        <v>100</v>
+      </c>
+      <c r="L73" s="1">
+        <v>50</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>261</v>
+      </c>
+      <c r="B74">
+        <v>1088</v>
+      </c>
+      <c r="C74" t="s">
+        <v>422</v>
+      </c>
+      <c r="D74" s="17">
+        <f t="shared" si="8"/>
+        <v>1.2161358891682277</v>
+      </c>
+      <c r="E74" s="17">
+        <v>3.5755340000000002</v>
+      </c>
+      <c r="F74" s="17">
+        <v>0.14772199999999999</v>
+      </c>
+      <c r="G74" s="17">
+        <v>134.42648299999999</v>
+      </c>
+      <c r="H74" s="17">
+        <v>0.143544</v>
+      </c>
+      <c r="I74" s="17">
+        <v>0.187526</v>
+      </c>
+      <c r="J74">
+        <v>50</v>
+      </c>
+      <c r="K74">
+        <v>100</v>
+      </c>
+      <c r="L74" s="1">
+        <v>50</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>261</v>
+      </c>
+      <c r="B75">
+        <v>1088</v>
+      </c>
+      <c r="C75" t="s">
+        <v>422</v>
+      </c>
+      <c r="D75" s="17">
+        <f t="shared" si="8"/>
+        <v>1.1058450116182876</v>
+      </c>
+      <c r="E75" s="17">
+        <v>3.229384</v>
+      </c>
+      <c r="F75" s="17">
+        <v>0.135156</v>
+      </c>
+      <c r="G75" s="17">
+        <v>114.069883</v>
+      </c>
+      <c r="H75" s="17">
+        <v>0.136156</v>
+      </c>
+      <c r="I75" s="17">
+        <v>0.14601500000000001</v>
+      </c>
+      <c r="J75">
+        <v>51</v>
+      </c>
+      <c r="K75">
+        <v>100</v>
+      </c>
+      <c r="L75" s="1">
+        <v>50</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D76" s="58">
+        <f>AVERAGE(D66:D75)</f>
+        <v>1.074932213569475</v>
+      </c>
+      <c r="E76" s="58">
+        <f>AVERAGE(E66:E75)</f>
+        <v>3.1740880000000002</v>
+      </c>
+      <c r="F76" s="58">
+        <f>AVERAGE(F66:F75)</f>
+        <v>0.13005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D77" s="58">
+        <f>MEDIAN(D66:D75)</f>
+        <v>1.042835677764212</v>
+      </c>
+      <c r="E77" s="58">
+        <f t="shared" ref="E77:F77" si="9">MEDIAN(E66:E75)</f>
+        <v>3.1097460000000003</v>
+      </c>
+      <c r="F77" s="58">
+        <f t="shared" si="9"/>
+        <v>0.12669900000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B79">
+        <v>1088</v>
+      </c>
+      <c r="C79" t="s">
+        <v>422</v>
+      </c>
+      <c r="D79" s="17">
+        <f>((E79/$E$4)+(F79/$F$4))/2</f>
+        <v>1.0725024347049315</v>
+      </c>
+      <c r="E79" s="17">
+        <v>3.018872</v>
+      </c>
+      <c r="F79" s="17">
+        <v>0.135376</v>
+      </c>
+      <c r="G79" s="17">
+        <v>110.29692</v>
+      </c>
+      <c r="H79" s="17">
+        <v>0.13050899999999999</v>
+      </c>
+      <c r="I79" s="17">
+        <v>0.17161799999999999</v>
+      </c>
+      <c r="J79">
+        <v>42</v>
+      </c>
+      <c r="K79">
+        <v>100</v>
+      </c>
+      <c r="L79" s="1">
+        <v>100</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>261</v>
+      </c>
+      <c r="B80">
+        <v>1088</v>
+      </c>
+      <c r="C80" t="s">
+        <v>422</v>
+      </c>
+      <c r="D80" s="17">
+        <f t="shared" ref="D80:D88" si="10">((E80/$E$4)+(F80/$F$4))/2</f>
+        <v>1.0251627223275619</v>
+      </c>
+      <c r="E80" s="17">
+        <v>2.990872</v>
+      </c>
+      <c r="F80" s="17">
+        <v>0.12540499999999999</v>
+      </c>
+      <c r="G80" s="17">
+        <v>109.66211800000001</v>
+      </c>
+      <c r="H80" s="17">
+        <v>0.126691</v>
+      </c>
+      <c r="I80" s="17">
+        <v>0.17633599999999999</v>
+      </c>
+      <c r="J80">
+        <v>43</v>
+      </c>
+      <c r="K80">
+        <v>100</v>
+      </c>
+      <c r="L80" s="1">
+        <v>100</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>261</v>
+      </c>
+      <c r="B81">
+        <v>1088</v>
+      </c>
+      <c r="C81" t="s">
+        <v>422</v>
+      </c>
+      <c r="D81" s="17">
+        <f t="shared" si="10"/>
+        <v>0.92504984817652358</v>
+      </c>
+      <c r="E81" s="17">
+        <v>2.7559719999999999</v>
+      </c>
+      <c r="F81" s="17">
+        <v>0.110988</v>
+      </c>
+      <c r="G81" s="17">
+        <v>99.870058999999998</v>
+      </c>
+      <c r="H81" s="17">
+        <v>0.11637500000000001</v>
+      </c>
+      <c r="I81" s="17">
+        <v>0.146649</v>
+      </c>
+      <c r="J81">
+        <v>44</v>
+      </c>
+      <c r="K81">
+        <v>100</v>
+      </c>
+      <c r="L81" s="1">
+        <v>100</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>261</v>
+      </c>
+      <c r="B82">
+        <v>1088</v>
+      </c>
+      <c r="C82" t="s">
+        <v>422</v>
+      </c>
+      <c r="D82" s="17">
+        <f t="shared" si="10"/>
+        <v>0.92071735227849083</v>
+      </c>
+      <c r="E82" s="17">
+        <v>2.7111689999999999</v>
+      </c>
+      <c r="F82" s="17">
+        <v>0.111679</v>
+      </c>
+      <c r="G82" s="17">
+        <v>98.834362999999996</v>
+      </c>
+      <c r="H82" s="17">
+        <v>0.11497300000000001</v>
+      </c>
+      <c r="I82" s="17">
+        <v>0.14730499999999999</v>
+      </c>
+      <c r="J82">
+        <v>45</v>
+      </c>
+      <c r="K82">
+        <v>100</v>
+      </c>
+      <c r="L82" s="1">
+        <v>100</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>261</v>
+      </c>
+      <c r="B83">
+        <v>1088</v>
+      </c>
+      <c r="C83" t="s">
+        <v>422</v>
+      </c>
+      <c r="D83" s="17">
+        <f t="shared" si="10"/>
+        <v>1.0923966170628117</v>
+      </c>
+      <c r="E83" s="17">
+        <v>3.1088019999999998</v>
+      </c>
+      <c r="F83" s="17">
+        <v>0.136599</v>
+      </c>
+      <c r="G83" s="17">
+        <v>112.82418</v>
+      </c>
+      <c r="H83" s="17">
+        <v>0.13497200000000001</v>
+      </c>
+      <c r="I83" s="17">
+        <v>0.17768100000000001</v>
+      </c>
+      <c r="J83">
+        <v>46</v>
+      </c>
+      <c r="K83">
+        <v>100</v>
+      </c>
+      <c r="L83" s="1">
+        <v>100</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>261</v>
+      </c>
+      <c r="B84">
+        <v>1088</v>
+      </c>
+      <c r="C84" t="s">
+        <v>422</v>
+      </c>
+      <c r="D84" s="17">
+        <f t="shared" si="10"/>
+        <v>0.96156215395517042</v>
+      </c>
+      <c r="E84" s="17">
+        <v>2.8238629999999998</v>
+      </c>
+      <c r="F84" s="17">
+        <v>0.116921</v>
+      </c>
+      <c r="G84" s="17">
+        <v>104.60174499999999</v>
+      </c>
+      <c r="H84" s="17">
+        <v>0.118654</v>
+      </c>
+      <c r="I84" s="17">
+        <v>0.15506800000000001</v>
+      </c>
+      <c r="J84">
+        <v>47</v>
+      </c>
+      <c r="K84">
+        <v>100</v>
+      </c>
+      <c r="L84" s="1">
+        <v>100</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85">
+        <v>1088</v>
+      </c>
+      <c r="C85" t="s">
+        <v>422</v>
+      </c>
+      <c r="D85" s="17">
+        <f t="shared" si="10"/>
+        <v>0.99272796236008309</v>
+      </c>
+      <c r="E85" s="17">
+        <v>2.9389810000000001</v>
+      </c>
+      <c r="F85" s="17">
+        <v>0.119815</v>
+      </c>
+      <c r="G85" s="17">
+        <v>110.032667</v>
+      </c>
+      <c r="H85" s="17">
+        <v>0.12217699999999999</v>
+      </c>
+      <c r="I85" s="17">
+        <v>0.16921900000000001</v>
+      </c>
+      <c r="J85">
+        <v>48</v>
+      </c>
+      <c r="K85">
+        <v>100</v>
+      </c>
+      <c r="L85" s="1">
+        <v>100</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>261</v>
+      </c>
+      <c r="B86">
+        <v>1088</v>
+      </c>
+      <c r="C86" t="s">
+        <v>422</v>
+      </c>
+      <c r="D86" s="17">
+        <f t="shared" si="10"/>
+        <v>0.96386417581835704</v>
+      </c>
+      <c r="E86" s="17">
+        <v>2.8492449999999998</v>
+      </c>
+      <c r="F86" s="17">
+        <v>0.116494</v>
+      </c>
+      <c r="G86" s="17">
+        <v>103.937595</v>
+      </c>
+      <c r="H86" s="17">
+        <v>0.12228</v>
+      </c>
+      <c r="I86" s="17">
+        <v>0.12922900000000001</v>
+      </c>
+      <c r="J86">
+        <v>49</v>
+      </c>
+      <c r="K86">
+        <v>100</v>
+      </c>
+      <c r="L86" s="1">
+        <v>100</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>261</v>
+      </c>
+      <c r="B87">
+        <v>1088</v>
+      </c>
+      <c r="C87" t="s">
+        <v>422</v>
+      </c>
+      <c r="D87" s="17">
+        <f t="shared" si="10"/>
+        <v>1.0478186394975448</v>
+      </c>
+      <c r="E87" s="17">
+        <v>2.9892029999999998</v>
+      </c>
+      <c r="F87" s="17">
+        <v>0.130749</v>
+      </c>
+      <c r="G87" s="17">
+        <v>108.15281899999999</v>
+      </c>
+      <c r="H87" s="17">
+        <v>0.129355</v>
+      </c>
+      <c r="I87" s="17">
+        <v>0.173128</v>
+      </c>
+      <c r="J87">
+        <v>50</v>
+      </c>
+      <c r="K87">
+        <v>100</v>
+      </c>
+      <c r="L87" s="1">
+        <v>100</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>261</v>
+      </c>
+      <c r="B88">
+        <v>1088</v>
+      </c>
+      <c r="C88" t="s">
+        <v>422</v>
+      </c>
+      <c r="D88" s="17">
+        <f t="shared" si="10"/>
+        <v>0.96263212903324846</v>
+      </c>
+      <c r="E88" s="17">
+        <v>2.8887010000000002</v>
+      </c>
+      <c r="F88" s="17">
+        <v>0.11470900000000001</v>
+      </c>
+      <c r="G88" s="17">
+        <v>106.79976499999999</v>
+      </c>
+      <c r="H88" s="17">
+        <v>0.120889</v>
+      </c>
+      <c r="I88" s="17">
+        <v>0.15801000000000001</v>
+      </c>
+      <c r="J88">
+        <v>51</v>
+      </c>
+      <c r="K88">
+        <v>100</v>
+      </c>
+      <c r="L88" s="1">
+        <v>100</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D89" s="58">
+        <f>AVERAGE(D79:D88)</f>
+        <v>0.99644340352147243</v>
+      </c>
+      <c r="E89" s="58">
+        <f>AVERAGE(E79:E88)</f>
+        <v>2.9075680000000004</v>
+      </c>
+      <c r="F89" s="58">
+        <f>AVERAGE(F79:F88)</f>
+        <v>0.12187350000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D90" s="58">
+        <f>MEDIAN(D79:D88)</f>
+        <v>0.97829606908922007</v>
+      </c>
+      <c r="E90" s="58">
+        <f t="shared" ref="E90:F90" si="11">MEDIAN(E79:E88)</f>
+        <v>2.9138410000000001</v>
+      </c>
+      <c r="F90" s="58">
+        <f t="shared" si="11"/>
+        <v>0.118368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>261</v>
+      </c>
+      <c r="B92">
+        <v>1088</v>
+      </c>
+      <c r="C92" t="s">
+        <v>422</v>
+      </c>
+      <c r="D92" s="17">
+        <f>((E92/$E$4)+(F92/$F$4))/2</f>
+        <v>0.97772206842622822</v>
+      </c>
+      <c r="E92" s="17">
+        <v>2.8908390000000002</v>
+      </c>
+      <c r="F92" s="17">
+        <v>0.118145</v>
+      </c>
+      <c r="G92" s="17">
+        <v>108.8222</v>
+      </c>
+      <c r="H92" s="17">
+        <v>0.122377</v>
+      </c>
+      <c r="I92" s="17">
+        <v>0.16400899999999999</v>
+      </c>
+      <c r="J92">
+        <v>42</v>
+      </c>
+      <c r="K92">
+        <v>200</v>
+      </c>
+      <c r="L92" s="1">
+        <v>100</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>261</v>
+      </c>
+      <c r="B93">
+        <v>1088</v>
+      </c>
+      <c r="C93" t="s">
+        <v>422</v>
+      </c>
+      <c r="D93" s="17">
+        <f t="shared" ref="D93:D101" si="12">((E93/$E$4)+(F93/$F$4))/2</f>
+        <v>1.0139349835800282</v>
+      </c>
+      <c r="E93" s="17">
+        <v>3.0332309999999998</v>
+      </c>
+      <c r="F93" s="17">
+        <v>0.12118</v>
+      </c>
+      <c r="G93" s="17">
+        <v>116.042745</v>
+      </c>
+      <c r="H93" s="17">
+        <v>0.12532699999999999</v>
+      </c>
+      <c r="I93" s="17">
+        <v>0.18293599999999999</v>
+      </c>
+      <c r="J93">
+        <v>43</v>
+      </c>
+      <c r="K93">
+        <v>200</v>
+      </c>
+      <c r="L93" s="1">
+        <v>100</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>261</v>
+      </c>
+      <c r="B94">
+        <v>1088</v>
+      </c>
+      <c r="C94" t="s">
+        <v>422</v>
+      </c>
+      <c r="D94" s="17">
+        <f t="shared" si="12"/>
+        <v>0.94610565274110647</v>
+      </c>
+      <c r="E94" s="17">
+        <v>2.8789020000000001</v>
+      </c>
+      <c r="F94" s="17">
+        <v>0.11122899999999999</v>
+      </c>
+      <c r="G94" s="17">
+        <v>111.07410900000001</v>
+      </c>
+      <c r="H94" s="17">
+        <v>0.117604</v>
+      </c>
+      <c r="I94" s="17">
+        <v>0.15931699999999999</v>
+      </c>
+      <c r="J94">
+        <v>44</v>
+      </c>
+      <c r="K94">
+        <v>200</v>
+      </c>
+      <c r="L94" s="1">
+        <v>100</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>261</v>
+      </c>
+      <c r="B95">
+        <v>1088</v>
+      </c>
+      <c r="C95" t="s">
+        <v>422</v>
+      </c>
+      <c r="D95" s="17">
+        <f t="shared" si="12"/>
+        <v>0.93440263679951419</v>
+      </c>
+      <c r="E95" s="17">
+        <v>2.7823389999999999</v>
+      </c>
+      <c r="F95" s="17">
+        <v>0.112167</v>
+      </c>
+      <c r="G95" s="17">
+        <v>106.432818</v>
+      </c>
+      <c r="H95" s="17">
+        <v>0.116823</v>
+      </c>
+      <c r="I95" s="17">
+        <v>0.16419300000000001</v>
+      </c>
+      <c r="J95">
+        <v>45</v>
+      </c>
+      <c r="K95">
+        <v>200</v>
+      </c>
+      <c r="L95" s="1">
+        <v>100</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96">
+        <v>1088</v>
+      </c>
+      <c r="C96" t="s">
+        <v>422</v>
+      </c>
+      <c r="D96" s="17">
+        <f t="shared" si="12"/>
+        <v>1.1129266948863294</v>
+      </c>
+      <c r="E96" s="17">
+        <v>3.1240579999999998</v>
+      </c>
+      <c r="F96" s="17">
+        <v>0.14080500000000001</v>
+      </c>
+      <c r="G96" s="17">
+        <v>118.43772800000001</v>
+      </c>
+      <c r="H96" s="17">
+        <v>0.13456000000000001</v>
+      </c>
+      <c r="I96" s="17">
+        <v>0.190607</v>
+      </c>
+      <c r="J96">
+        <v>46</v>
+      </c>
+      <c r="K96">
+        <v>200</v>
+      </c>
+      <c r="L96" s="1">
+        <v>100</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>261</v>
+      </c>
+      <c r="B97">
+        <v>1088</v>
+      </c>
+      <c r="C97" t="s">
+        <v>422</v>
+      </c>
+      <c r="D97" s="17">
+        <f t="shared" si="12"/>
+        <v>0.94795939792469897</v>
+      </c>
+      <c r="E97" s="17">
+        <v>2.8156829999999999</v>
+      </c>
+      <c r="F97" s="17">
+        <v>0.114061</v>
+      </c>
+      <c r="G97" s="17">
+        <v>106.92380300000001</v>
+      </c>
+      <c r="H97" s="17">
+        <v>0.11752700000000001</v>
+      </c>
+      <c r="I97" s="17">
+        <v>0.15784599999999999</v>
+      </c>
+      <c r="J97">
+        <v>47</v>
+      </c>
+      <c r="K97">
+        <v>200</v>
+      </c>
+      <c r="L97" s="1">
+        <v>100</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98">
+        <v>1088</v>
+      </c>
+      <c r="C98" t="s">
+        <v>422</v>
+      </c>
+      <c r="D98" s="17">
+        <f t="shared" si="12"/>
+        <v>0.99029674937438039</v>
+      </c>
+      <c r="E98" s="17">
+        <v>2.9679660000000001</v>
+      </c>
+      <c r="F98" s="17">
+        <v>0.118148</v>
+      </c>
+      <c r="G98" s="17">
+        <v>114.52698700000001</v>
+      </c>
+      <c r="H98" s="17">
+        <v>0.12253</v>
+      </c>
+      <c r="I98" s="17">
+        <v>0.17632400000000001</v>
+      </c>
+      <c r="J98">
+        <v>48</v>
+      </c>
+      <c r="K98">
+        <v>200</v>
+      </c>
+      <c r="L98" s="1">
+        <v>100</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>261</v>
+      </c>
+      <c r="B99">
+        <v>1088</v>
+      </c>
+      <c r="C99" t="s">
+        <v>422</v>
+      </c>
+      <c r="D99" s="17">
+        <f t="shared" si="12"/>
+        <v>0.93513457718271642</v>
+      </c>
+      <c r="E99" s="17">
+        <v>2.7576459999999998</v>
+      </c>
+      <c r="F99" s="17">
+        <v>0.113275</v>
+      </c>
+      <c r="G99" s="17">
+        <v>102.332992</v>
+      </c>
+      <c r="H99" s="17">
+        <v>0.11806999999999999</v>
+      </c>
+      <c r="I99" s="17">
+        <v>0.13227900000000001</v>
+      </c>
+      <c r="J99">
+        <v>49</v>
+      </c>
+      <c r="K99">
+        <v>200</v>
+      </c>
+      <c r="L99" s="1">
+        <v>100</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>261</v>
+      </c>
+      <c r="B100">
+        <v>1088</v>
+      </c>
+      <c r="C100" t="s">
+        <v>422</v>
+      </c>
+      <c r="D100" s="17">
+        <f t="shared" si="12"/>
+        <v>1.0031286054103061</v>
+      </c>
+      <c r="E100" s="17">
+        <v>2.9305300000000001</v>
+      </c>
+      <c r="F100" s="17">
+        <v>0.12256</v>
+      </c>
+      <c r="G100" s="17">
+        <v>111.366626</v>
+      </c>
+      <c r="H100" s="17">
+        <v>0.124027</v>
+      </c>
+      <c r="I100" s="17">
+        <v>0.173258</v>
+      </c>
+      <c r="J100">
+        <v>50</v>
+      </c>
+      <c r="K100">
+        <v>200</v>
+      </c>
+      <c r="L100" s="1">
+        <v>100</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>261</v>
+      </c>
+      <c r="B101">
+        <v>1088</v>
+      </c>
+      <c r="C101" t="s">
+        <v>422</v>
+      </c>
+      <c r="D101" s="17">
+        <f t="shared" si="12"/>
+        <v>0.95211402992836547</v>
+      </c>
+      <c r="E101" s="17">
+        <v>2.8878170000000001</v>
+      </c>
+      <c r="F101" s="17">
+        <v>0.112291</v>
+      </c>
+      <c r="G101" s="17">
+        <v>111.025098</v>
+      </c>
+      <c r="H101" s="17">
+        <v>0.118241</v>
+      </c>
+      <c r="I101" s="17">
+        <v>0.16545499999999999</v>
+      </c>
+      <c r="J101">
+        <v>51</v>
+      </c>
+      <c r="K101">
+        <v>200</v>
+      </c>
+      <c r="L101" s="1">
+        <v>100</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D102" s="58">
+        <f>AVERAGE(D92:D101)</f>
+        <v>0.9813725396253673</v>
+      </c>
+      <c r="E102" s="58">
+        <f>AVERAGE(E92:E101)</f>
+        <v>2.9069011000000002</v>
+      </c>
+      <c r="F102" s="58">
+        <f>AVERAGE(F92:F101)</f>
+        <v>0.11838609999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D103" s="58">
+        <f>MEDIAN(D92:D101)</f>
+        <v>0.96491804917729684</v>
+      </c>
+      <c r="E103" s="58">
+        <f t="shared" ref="E103:F103" si="13">MEDIAN(E92:E101)</f>
+        <v>2.8893279999999999</v>
+      </c>
+      <c r="F103" s="58">
+        <f t="shared" si="13"/>
+        <v>0.116103</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A64:O64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13475,7 +16383,7 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
@@ -15497,7 +18405,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -16372,7 +19280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE72D0F4-0A8D-474C-B99F-D260C4EB198C}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -17246,7 +20154,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -18308,7 +21216,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -19920,7 +22828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5377C852-8DC9-4859-9A6E-541EF9FC1F47}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -25923,11 +28831,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6437E731-589B-456A-8DF8-17C2DD721C2A}">
-  <dimension ref="A1:O146"/>
+  <dimension ref="A1:O155"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28438,27 +31346,69 @@
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O82" s="22"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="O83" s="22"/>
-    </row>
-    <row r="84" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A84" s="89" t="s">
+    <row r="83" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A83" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="89"/>
-      <c r="C84" s="89"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="89"/>
-      <c r="F84" s="89"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="89"/>
-      <c r="I84" s="89"/>
-      <c r="J84" s="89"/>
-      <c r="K84" s="89"/>
-      <c r="L84" s="89"/>
-      <c r="M84" s="89"/>
-      <c r="N84" s="89"/>
-      <c r="O84" s="89"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="89"/>
+      <c r="F83" s="89"/>
+      <c r="G83" s="89"/>
+      <c r="H83" s="89"/>
+      <c r="I83" s="89"/>
+      <c r="J83" s="89"/>
+      <c r="K83" s="89"/>
+      <c r="L83" s="89"/>
+      <c r="M83" s="89"/>
+      <c r="N83" s="89"/>
+      <c r="O83" s="89"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>247</v>
+      </c>
+      <c r="B84">
+        <v>10975</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="17">
+        <f t="shared" ref="D84:D93" si="9">((E84/$E$7)+(F84/$F$7))/2</f>
+        <v>0.94416318817346279</v>
+      </c>
+      <c r="E84" s="17">
+        <v>0.95226699999999997</v>
+      </c>
+      <c r="F84" s="17">
+        <v>0.15310499999999999</v>
+      </c>
+      <c r="G84" s="17">
+        <v>22.508735999999999</v>
+      </c>
+      <c r="H84" s="17">
+        <v>0.14149200000000001</v>
+      </c>
+      <c r="I84" s="17">
+        <v>0.108098</v>
+      </c>
+      <c r="J84">
+        <v>42</v>
+      </c>
+      <c r="K84">
+        <v>100</v>
+      </c>
+      <c r="L84">
+        <v>50</v>
+      </c>
+      <c r="M84" t="s">
+        <v>31</v>
+      </c>
+      <c r="N84" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -28471,26 +31421,26 @@
         <v>3</v>
       </c>
       <c r="D85" s="17">
-        <f t="shared" ref="D85:D94" si="9">((E85/$E$7)+(F85/$F$7))/2</f>
-        <v>0.94416318817346279</v>
+        <f t="shared" si="9"/>
+        <v>0.95269008438457481</v>
       </c>
       <c r="E85" s="17">
-        <v>0.95226699999999997</v>
+        <v>0.964561</v>
       </c>
       <c r="F85" s="17">
-        <v>0.15310499999999999</v>
+        <v>0.15387600000000001</v>
       </c>
       <c r="G85" s="17">
-        <v>22.508735999999999</v>
+        <v>22.752893</v>
       </c>
       <c r="H85" s="17">
-        <v>0.14149200000000001</v>
+        <v>0.14216999999999999</v>
       </c>
       <c r="I85" s="17">
-        <v>0.108098</v>
+        <v>0.10864799999999999</v>
       </c>
       <c r="J85">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>100</v>
@@ -28517,25 +31467,25 @@
       </c>
       <c r="D86" s="17">
         <f t="shared" si="9"/>
-        <v>0.95269008438457481</v>
+        <v>0.93678803756483697</v>
       </c>
       <c r="E86" s="17">
-        <v>0.964561</v>
+        <v>0.94641699999999995</v>
       </c>
       <c r="F86" s="17">
-        <v>0.15387600000000001</v>
+        <v>0.151646</v>
       </c>
       <c r="G86" s="17">
-        <v>22.752893</v>
+        <v>23.628530999999999</v>
       </c>
       <c r="H86" s="17">
-        <v>0.14216999999999999</v>
+        <v>0.140262</v>
       </c>
       <c r="I86" s="17">
-        <v>0.10864799999999999</v>
+        <v>0.110203</v>
       </c>
       <c r="J86">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K86">
         <v>100</v>
@@ -28562,25 +31512,25 @@
       </c>
       <c r="D87" s="17">
         <f t="shared" si="9"/>
-        <v>0.93678803756483697</v>
+        <v>0.94519004853361976</v>
       </c>
       <c r="E87" s="17">
-        <v>0.94641699999999995</v>
+        <v>0.95427799999999996</v>
       </c>
       <c r="F87" s="17">
-        <v>0.151646</v>
+        <v>0.15311</v>
       </c>
       <c r="G87" s="17">
-        <v>23.628530999999999</v>
+        <v>22.489379</v>
       </c>
       <c r="H87" s="17">
-        <v>0.140262</v>
+        <v>0.14149600000000001</v>
       </c>
       <c r="I87" s="17">
-        <v>0.110203</v>
+        <v>0.108234</v>
       </c>
       <c r="J87">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>100</v>
@@ -28607,25 +31557,25 @@
       </c>
       <c r="D88" s="17">
         <f t="shared" si="9"/>
-        <v>0.94519004853361976</v>
+        <v>0.94152853160884131</v>
       </c>
       <c r="E88" s="17">
-        <v>0.95427799999999996</v>
+        <v>0.95096700000000001</v>
       </c>
       <c r="F88" s="17">
-        <v>0.15311</v>
+        <v>0.15245300000000001</v>
       </c>
       <c r="G88" s="17">
-        <v>22.489379</v>
+        <v>22.618210000000001</v>
       </c>
       <c r="H88" s="17">
-        <v>0.14149600000000001</v>
+        <v>0.141011</v>
       </c>
       <c r="I88" s="17">
-        <v>0.108234</v>
+        <v>0.108463</v>
       </c>
       <c r="J88">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
         <v>100</v>
@@ -28652,25 +31602,25 @@
       </c>
       <c r="D89" s="17">
         <f t="shared" si="9"/>
-        <v>0.94152853160884131</v>
+        <v>0.93952338998862561</v>
       </c>
       <c r="E89" s="17">
-        <v>0.95096700000000001</v>
+        <v>0.94914299999999996</v>
       </c>
       <c r="F89" s="17">
-        <v>0.15245300000000001</v>
+        <v>0.15209500000000001</v>
       </c>
       <c r="G89" s="17">
-        <v>22.618210000000001</v>
+        <v>22.468875000000001</v>
       </c>
       <c r="H89" s="17">
-        <v>0.141011</v>
+        <v>0.14066600000000001</v>
       </c>
       <c r="I89" s="17">
-        <v>0.108463</v>
+        <v>0.1079</v>
       </c>
       <c r="J89">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
         <v>100</v>
@@ -28697,25 +31647,25 @@
       </c>
       <c r="D90" s="17">
         <f t="shared" si="9"/>
-        <v>0.93952338998862561</v>
+        <v>0.94019972934596652</v>
       </c>
       <c r="E90" s="17">
-        <v>0.94914299999999996</v>
+        <v>0.95354899999999998</v>
       </c>
       <c r="F90" s="17">
-        <v>0.15209500000000001</v>
+        <v>0.151588</v>
       </c>
       <c r="G90" s="17">
-        <v>22.468875000000001</v>
+        <v>22.386592</v>
       </c>
       <c r="H90" s="17">
-        <v>0.14066600000000001</v>
+        <v>0.14027600000000001</v>
       </c>
       <c r="I90" s="17">
-        <v>0.1079</v>
+        <v>0.10850899999999999</v>
       </c>
       <c r="J90">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>100</v>
@@ -28742,25 +31692,25 @@
       </c>
       <c r="D91" s="17">
         <f t="shared" si="9"/>
-        <v>0.94019972934596652</v>
+        <v>0.96424371728892244</v>
       </c>
       <c r="E91" s="17">
-        <v>0.95354899999999998</v>
+        <v>0.97277499999999995</v>
       </c>
       <c r="F91" s="17">
-        <v>0.151588</v>
+        <v>0.15631900000000001</v>
       </c>
       <c r="G91" s="17">
-        <v>22.386592</v>
+        <v>23.125464000000001</v>
       </c>
       <c r="H91" s="17">
-        <v>0.14027600000000001</v>
+        <v>0.14416000000000001</v>
       </c>
       <c r="I91" s="17">
-        <v>0.10850899999999999</v>
+        <v>0.108274</v>
       </c>
       <c r="J91">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K91">
         <v>100</v>
@@ -28787,25 +31737,25 @@
       </c>
       <c r="D92" s="17">
         <f t="shared" si="9"/>
-        <v>0.96424371728892244</v>
+        <v>0.94505854589483629</v>
       </c>
       <c r="E92" s="17">
-        <v>0.97277499999999995</v>
+        <v>0.95470500000000003</v>
       </c>
       <c r="F92" s="17">
-        <v>0.15631900000000001</v>
+        <v>0.15299599999999999</v>
       </c>
       <c r="G92" s="17">
-        <v>23.125464000000001</v>
+        <v>22.595768</v>
       </c>
       <c r="H92" s="17">
-        <v>0.14416000000000001</v>
+        <v>0.141431</v>
       </c>
       <c r="I92" s="17">
-        <v>0.108274</v>
+        <v>0.108332</v>
       </c>
       <c r="J92">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K92">
         <v>100</v>
@@ -28832,25 +31782,25 @@
       </c>
       <c r="D93" s="17">
         <f t="shared" si="9"/>
-        <v>0.94505854589483629</v>
+        <v>0.95081611250993159</v>
       </c>
       <c r="E93" s="17">
-        <v>0.95470500000000003</v>
+        <v>0.95615600000000001</v>
       </c>
       <c r="F93" s="17">
-        <v>0.15299599999999999</v>
+        <v>0.15465100000000001</v>
       </c>
       <c r="G93" s="17">
-        <v>22.595768</v>
+        <v>22.692618</v>
       </c>
       <c r="H93" s="17">
-        <v>0.141431</v>
+        <v>0.14272699999999999</v>
       </c>
       <c r="I93" s="17">
-        <v>0.108332</v>
+        <v>0.107858</v>
       </c>
       <c r="J93">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K93">
         <v>100</v>
@@ -28866,76 +31816,76 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>247</v>
-      </c>
-      <c r="B94">
-        <v>10975</v>
-      </c>
-      <c r="C94" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="17">
-        <f t="shared" si="9"/>
-        <v>0.95081611250993159</v>
-      </c>
-      <c r="E94" s="17">
-        <v>0.95615600000000001</v>
-      </c>
-      <c r="F94" s="17">
-        <v>0.15465100000000001</v>
-      </c>
-      <c r="G94" s="17">
-        <v>22.692618</v>
-      </c>
-      <c r="H94" s="17">
-        <v>0.14272699999999999</v>
-      </c>
-      <c r="I94" s="17">
-        <v>0.107858</v>
-      </c>
-      <c r="J94">
-        <v>51</v>
-      </c>
-      <c r="K94">
-        <v>100</v>
-      </c>
-      <c r="L94">
-        <v>50</v>
-      </c>
-      <c r="M94" t="s">
-        <v>31</v>
-      </c>
-      <c r="N94" t="s">
-        <v>171</v>
+      <c r="D94" s="58">
+        <f>AVERAGE(D84:D93)</f>
+        <v>0.94602013852936173</v>
+      </c>
+      <c r="E94" s="58">
+        <f>AVERAGE(E84:E93)</f>
+        <v>0.95548180000000005</v>
+      </c>
+      <c r="F94" s="58">
+        <f>AVERAGE(F84:F93)</f>
+        <v>0.15318389999999998</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D95" s="58">
-        <f>AVERAGE(D85:D94)</f>
-        <v>0.94602013852936173</v>
+        <f>MEDIAN(D84:D93)</f>
+        <v>0.94461086703414954</v>
       </c>
       <c r="E95" s="58">
-        <f>AVERAGE(E85:E94)</f>
-        <v>0.95548180000000005</v>
+        <f>MEDIAN(E84:E93)</f>
+        <v>0.95391349999999997</v>
       </c>
       <c r="F95" s="58">
-        <f>AVERAGE(F85:F94)</f>
-        <v>0.15318389999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D96" s="58">
-        <f>MEDIAN(D85:D94)</f>
-        <v>0.94461086703414954</v>
-      </c>
-      <c r="E96" s="58">
-        <f>MEDIAN(E85:E94)</f>
-        <v>0.95391349999999997</v>
-      </c>
-      <c r="F96" s="58">
-        <f>MEDIAN(F85:F94)</f>
+        <f>MEDIAN(F84:F93)</f>
         <v>0.15305049999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>247</v>
+      </c>
+      <c r="B97">
+        <v>10975</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="17">
+        <f t="shared" ref="D97:D106" si="10">((E97/$E$7)+(F97/$F$7))/2</f>
+        <v>1.0223582752145783</v>
+      </c>
+      <c r="E97" s="17">
+        <v>1.0200769999999999</v>
+      </c>
+      <c r="F97" s="17">
+        <v>0.16761599999999999</v>
+      </c>
+      <c r="G97" s="17">
+        <v>19.942409000000001</v>
+      </c>
+      <c r="H97" s="17">
+        <v>0.156529</v>
+      </c>
+      <c r="I97" s="17">
+        <v>0.105946</v>
+      </c>
+      <c r="J97">
+        <v>42</v>
+      </c>
+      <c r="K97">
+        <v>100</v>
+      </c>
+      <c r="L97">
+        <v>100</v>
+      </c>
+      <c r="M97" t="s">
+        <v>31</v>
+      </c>
+      <c r="N97" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
@@ -28949,26 +31899,26 @@
         <v>3</v>
       </c>
       <c r="D98" s="17">
-        <f t="shared" ref="D98:D107" si="10">((E98/$E$7)+(F98/$F$7))/2</f>
-        <v>1.0223582752145783</v>
+        <f t="shared" si="10"/>
+        <v>1.0361668906297636</v>
       </c>
       <c r="E98" s="17">
-        <v>1.0200769999999999</v>
+        <v>1.0622659999999999</v>
       </c>
       <c r="F98" s="17">
-        <v>0.16761599999999999</v>
+        <v>0.16517499999999999</v>
       </c>
       <c r="G98" s="17">
-        <v>19.942409000000001</v>
+        <v>18.3813</v>
       </c>
       <c r="H98" s="17">
-        <v>0.156529</v>
+        <v>0.154945</v>
       </c>
       <c r="I98" s="17">
-        <v>0.105946</v>
+        <v>9.4059000000000004E-2</v>
       </c>
       <c r="J98">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>100</v>
@@ -28995,25 +31945,25 @@
       </c>
       <c r="D99" s="17">
         <f t="shared" si="10"/>
-        <v>1.0361668906297636</v>
+        <v>1.0316384382491033</v>
       </c>
       <c r="E99" s="17">
-        <v>1.0622659999999999</v>
+        <v>1.051803</v>
       </c>
       <c r="F99" s="17">
-        <v>0.16517499999999999</v>
+        <v>0.16541700000000001</v>
       </c>
       <c r="G99" s="17">
-        <v>18.3813</v>
+        <v>18.878889999999998</v>
       </c>
       <c r="H99" s="17">
-        <v>0.154945</v>
+        <v>0.15465100000000001</v>
       </c>
       <c r="I99" s="17">
-        <v>9.4059000000000004E-2</v>
+        <v>9.5258999999999996E-2</v>
       </c>
       <c r="J99">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99">
         <v>100</v>
@@ -29040,25 +31990,25 @@
       </c>
       <c r="D100" s="17">
         <f t="shared" si="10"/>
-        <v>1.0316384382491033</v>
+        <v>1.1092640769391626</v>
       </c>
       <c r="E100" s="17">
-        <v>1.051803</v>
+        <v>1.1455340000000001</v>
       </c>
       <c r="F100" s="17">
-        <v>0.16541700000000001</v>
+        <v>0.17544799999999999</v>
       </c>
       <c r="G100" s="17">
-        <v>18.878889999999998</v>
+        <v>16.140653</v>
       </c>
       <c r="H100" s="17">
-        <v>0.15465100000000001</v>
+        <v>0.16446</v>
       </c>
       <c r="I100" s="17">
-        <v>9.5258999999999996E-2</v>
+        <v>9.4004000000000004E-2</v>
       </c>
       <c r="J100">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>100</v>
@@ -29085,25 +32035,25 @@
       </c>
       <c r="D101" s="17">
         <f t="shared" si="10"/>
-        <v>1.1092640769391626</v>
+        <v>1.0393269860414802</v>
       </c>
       <c r="E101" s="17">
-        <v>1.1455340000000001</v>
+        <v>1.0692299999999999</v>
       </c>
       <c r="F101" s="17">
-        <v>0.17544799999999999</v>
+        <v>0.16506199999999999</v>
       </c>
       <c r="G101" s="17">
-        <v>16.140653</v>
+        <v>19.126643999999999</v>
       </c>
       <c r="H101" s="17">
-        <v>0.16446</v>
+        <v>0.15503600000000001</v>
       </c>
       <c r="I101" s="17">
-        <v>9.4004000000000004E-2</v>
+        <v>9.5170000000000005E-2</v>
       </c>
       <c r="J101">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>100</v>
@@ -29130,25 +32080,25 @@
       </c>
       <c r="D102" s="17">
         <f t="shared" si="10"/>
-        <v>1.0393269860414802</v>
+        <v>1.0736422742031801</v>
       </c>
       <c r="E102" s="17">
-        <v>1.0692299999999999</v>
+        <v>1.1144590000000001</v>
       </c>
       <c r="F102" s="17">
-        <v>0.16506199999999999</v>
+        <v>0.16886799999999999</v>
       </c>
       <c r="G102" s="17">
-        <v>19.126643999999999</v>
+        <v>19.788547999999999</v>
       </c>
       <c r="H102" s="17">
-        <v>0.15503600000000001</v>
+        <v>0.15768399999999999</v>
       </c>
       <c r="I102" s="17">
-        <v>9.5170000000000005E-2</v>
+        <v>9.7445000000000004E-2</v>
       </c>
       <c r="J102">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K102">
         <v>100</v>
@@ -29175,25 +32125,25 @@
       </c>
       <c r="D103" s="17">
         <f t="shared" si="10"/>
-        <v>1.0736422742031801</v>
+        <v>0.91990997715002343</v>
       </c>
       <c r="E103" s="17">
-        <v>1.1144590000000001</v>
+        <v>0.93949099999999997</v>
       </c>
       <c r="F103" s="17">
-        <v>0.16886799999999999</v>
+        <v>0.14723700000000001</v>
       </c>
       <c r="G103" s="17">
-        <v>19.788547999999999</v>
+        <v>23.726811999999999</v>
       </c>
       <c r="H103" s="17">
-        <v>0.15768399999999999</v>
+        <v>0.13672100000000001</v>
       </c>
       <c r="I103" s="17">
-        <v>9.7445000000000004E-2</v>
+        <v>0.112026</v>
       </c>
       <c r="J103">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103">
         <v>100</v>
@@ -29220,25 +32170,25 @@
       </c>
       <c r="D104" s="17">
         <f t="shared" si="10"/>
-        <v>0.91990997715002343</v>
+        <v>0.99289759849974479</v>
       </c>
       <c r="E104" s="17">
-        <v>0.93949099999999997</v>
+        <v>0.98950400000000005</v>
       </c>
       <c r="F104" s="17">
-        <v>0.14723700000000001</v>
+        <v>0.16298099999999999</v>
       </c>
       <c r="G104" s="17">
-        <v>23.726811999999999</v>
+        <v>20.194987999999999</v>
       </c>
       <c r="H104" s="17">
-        <v>0.13672100000000001</v>
+        <v>0.15051400000000001</v>
       </c>
       <c r="I104" s="17">
-        <v>0.112026</v>
+        <v>0.104254</v>
       </c>
       <c r="J104">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
         <v>100</v>
@@ -29265,25 +32215,25 @@
       </c>
       <c r="D105" s="17">
         <f t="shared" si="10"/>
-        <v>0.99289759849974479</v>
+        <v>0.92103670403691729</v>
       </c>
       <c r="E105" s="17">
-        <v>0.98950400000000005</v>
+        <v>0.929732</v>
       </c>
       <c r="F105" s="17">
-        <v>0.16298099999999999</v>
+        <v>0.149224</v>
       </c>
       <c r="G105" s="17">
-        <v>20.194987999999999</v>
+        <v>23.608464000000001</v>
       </c>
       <c r="H105" s="17">
-        <v>0.15051400000000001</v>
+        <v>0.138317</v>
       </c>
       <c r="I105" s="17">
-        <v>0.104254</v>
+        <v>0.110417</v>
       </c>
       <c r="J105">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K105">
         <v>100</v>
@@ -29310,25 +32260,25 @@
       </c>
       <c r="D106" s="17">
         <f t="shared" si="10"/>
-        <v>0.92103670403691729</v>
+        <v>1.0230309140149136</v>
       </c>
       <c r="E106" s="17">
-        <v>0.929732</v>
+        <v>1.010297</v>
       </c>
       <c r="F106" s="17">
-        <v>0.149224</v>
+        <v>0.169457</v>
       </c>
       <c r="G106" s="17">
-        <v>23.608464000000001</v>
+        <v>20.043697999999999</v>
       </c>
       <c r="H106" s="17">
-        <v>0.138317</v>
+        <v>0.15684400000000001</v>
       </c>
       <c r="I106" s="17">
-        <v>0.110417</v>
+        <v>0.107738</v>
       </c>
       <c r="J106">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K106">
         <v>100</v>
@@ -29344,76 +32294,346 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>247</v>
-      </c>
-      <c r="B107">
-        <v>10975</v>
-      </c>
-      <c r="C107" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="17">
-        <f t="shared" si="10"/>
-        <v>1.0230309140149136</v>
-      </c>
-      <c r="E107" s="17">
-        <v>1.010297</v>
-      </c>
-      <c r="F107" s="17">
-        <v>0.169457</v>
-      </c>
-      <c r="G107" s="17">
-        <v>20.043697999999999</v>
-      </c>
-      <c r="H107" s="17">
-        <v>0.15684400000000001</v>
-      </c>
-      <c r="I107" s="17">
-        <v>0.107738</v>
-      </c>
-      <c r="J107">
-        <v>51</v>
-      </c>
-      <c r="K107">
-        <v>100</v>
-      </c>
-      <c r="L107">
-        <v>100</v>
-      </c>
-      <c r="M107" t="s">
-        <v>31</v>
-      </c>
-      <c r="N107" t="s">
-        <v>171</v>
+      <c r="D107" s="58">
+        <f>AVERAGE(D97:D106)</f>
+        <v>1.0169272134978868</v>
+      </c>
+      <c r="E107" s="58">
+        <f>AVERAGE(E97:E106)</f>
+        <v>1.0332393</v>
+      </c>
+      <c r="F107" s="58">
+        <f>AVERAGE(F97:F106)</f>
+        <v>0.16364850000000003</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D108" s="58">
-        <f>AVERAGE(D98:D107)</f>
-        <v>1.0169272134978868</v>
+        <f>MEDIAN(D97:D106)</f>
+        <v>1.0273346761320084</v>
       </c>
       <c r="E108" s="58">
-        <f>AVERAGE(E98:E107)</f>
-        <v>1.0332393</v>
+        <f>MEDIAN(E97:E106)</f>
+        <v>1.0359400000000001</v>
       </c>
       <c r="F108" s="58">
-        <f>AVERAGE(F98:F107)</f>
-        <v>0.16364850000000003</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D109" s="58">
-        <f>MEDIAN(D98:D107)</f>
-        <v>1.0273346761320084</v>
-      </c>
-      <c r="E109" s="58">
-        <f>MEDIAN(E98:E107)</f>
-        <v>1.0359400000000001</v>
-      </c>
-      <c r="F109" s="58">
-        <f>MEDIAN(F98:F107)</f>
+        <f>MEDIAN(F97:F106)</f>
         <v>0.165296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>247</v>
+      </c>
+      <c r="B110">
+        <v>10975</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="17">
+        <f t="shared" ref="D110:D119" si="11">((E110/$E$7)+(F110/$F$7))/2</f>
+        <v>1.115077823270779</v>
+      </c>
+      <c r="E110" s="17">
+        <v>1.1008469999999999</v>
+      </c>
+      <c r="F110" s="17">
+        <v>0.18476200000000001</v>
+      </c>
+      <c r="G110" s="17">
+        <v>18.229903</v>
+      </c>
+      <c r="H110" s="17">
+        <v>0.172235</v>
+      </c>
+      <c r="I110" s="17">
+        <v>9.9296999999999996E-2</v>
+      </c>
+      <c r="J110">
+        <v>42</v>
+      </c>
+      <c r="K110">
+        <v>200</v>
+      </c>
+      <c r="L110">
+        <v>100</v>
+      </c>
+      <c r="M110" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>247</v>
+      </c>
+      <c r="B111">
+        <v>10975</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="17">
+        <f t="shared" si="11"/>
+        <v>1.035631073799987</v>
+      </c>
+      <c r="E111" s="17">
+        <v>1.0166360000000001</v>
+      </c>
+      <c r="F111" s="17">
+        <v>0.17255499999999999</v>
+      </c>
+      <c r="G111" s="17">
+        <v>17.480083</v>
+      </c>
+      <c r="H111" s="17">
+        <v>0.15832599999999999</v>
+      </c>
+      <c r="I111" s="17">
+        <v>8.9247999999999994E-2</v>
+      </c>
+      <c r="J111">
+        <v>43</v>
+      </c>
+      <c r="K111">
+        <v>200</v>
+      </c>
+      <c r="L111">
+        <v>100</v>
+      </c>
+      <c r="M111" t="s">
+        <v>31</v>
+      </c>
+      <c r="N111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>247</v>
+      </c>
+      <c r="B112">
+        <v>10975</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="17">
+        <f t="shared" si="11"/>
+        <v>1.0219531387913527</v>
+      </c>
+      <c r="E112" s="17">
+        <v>1.016977</v>
+      </c>
+      <c r="F112" s="17">
+        <v>0.16799600000000001</v>
+      </c>
+      <c r="G112" s="17">
+        <v>16.016866</v>
+      </c>
+      <c r="H112" s="17">
+        <v>0.15531800000000001</v>
+      </c>
+      <c r="I112" s="17">
+        <v>8.5585999999999995E-2</v>
+      </c>
+      <c r="J112">
+        <v>44</v>
+      </c>
+      <c r="K112">
+        <v>200</v>
+      </c>
+      <c r="L112">
+        <v>100</v>
+      </c>
+      <c r="M112" t="s">
+        <v>31</v>
+      </c>
+      <c r="N112" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>247</v>
+      </c>
+      <c r="B113">
+        <v>10975</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="17">
+        <f t="shared" si="11"/>
+        <v>1.022498510106197</v>
+      </c>
+      <c r="E113" s="17">
+        <v>1.0272760000000001</v>
+      </c>
+      <c r="F113" s="17">
+        <v>0.16647000000000001</v>
+      </c>
+      <c r="G113" s="17">
+        <v>16.34168</v>
+      </c>
+      <c r="H113" s="17">
+        <v>0.154808</v>
+      </c>
+      <c r="I113" s="17">
+        <v>8.9303999999999994E-2</v>
+      </c>
+      <c r="J113">
+        <v>45</v>
+      </c>
+      <c r="K113">
+        <v>200</v>
+      </c>
+      <c r="L113">
+        <v>100</v>
+      </c>
+      <c r="M113" t="s">
+        <v>31</v>
+      </c>
+      <c r="N113" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>247</v>
+      </c>
+      <c r="B114">
+        <v>10975</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="17">
+        <f t="shared" si="11"/>
+        <v>1.0395455597430256</v>
+      </c>
+      <c r="E114" s="17">
+        <v>1.05426</v>
+      </c>
+      <c r="F114" s="17">
+        <v>0.16761300000000001</v>
+      </c>
+      <c r="G114" s="17">
+        <v>15.855895</v>
+      </c>
+      <c r="H114" s="17">
+        <v>0.15454200000000001</v>
+      </c>
+      <c r="I114" s="17">
+        <v>8.5750000000000007E-2</v>
+      </c>
+      <c r="J114">
+        <v>46</v>
+      </c>
+      <c r="K114">
+        <v>200</v>
+      </c>
+      <c r="L114">
+        <v>100</v>
+      </c>
+      <c r="M114" t="s">
+        <v>31</v>
+      </c>
+      <c r="N114" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>247</v>
+      </c>
+      <c r="B115">
+        <v>10975</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="17">
+        <f t="shared" si="11"/>
+        <v>1.0659263619861266</v>
+      </c>
+      <c r="E115" s="17">
+        <v>1.0601240000000001</v>
+      </c>
+      <c r="F115" s="17">
+        <v>0.17532600000000001</v>
+      </c>
+      <c r="G115" s="17">
+        <v>16.860768</v>
+      </c>
+      <c r="H115" s="17">
+        <v>0.16215099999999999</v>
+      </c>
+      <c r="I115" s="17">
+        <v>9.1689999999999994E-2</v>
+      </c>
+      <c r="J115">
+        <v>47</v>
+      </c>
+      <c r="K115">
+        <v>200</v>
+      </c>
+      <c r="L115">
+        <v>100</v>
+      </c>
+      <c r="M115" t="s">
+        <v>31</v>
+      </c>
+      <c r="N115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>247</v>
+      </c>
+      <c r="B116">
+        <v>10975</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="17">
+        <f t="shared" si="11"/>
+        <v>1.0932762189978955</v>
+      </c>
+      <c r="E116" s="17">
+        <v>1.1271530000000001</v>
+      </c>
+      <c r="F116" s="17">
+        <v>0.17322899999999999</v>
+      </c>
+      <c r="G116" s="17">
+        <v>19.626826000000001</v>
+      </c>
+      <c r="H116" s="17">
+        <v>0.16356299999999999</v>
+      </c>
+      <c r="I116" s="17">
+        <v>0.10163999999999999</v>
+      </c>
+      <c r="J116">
+        <v>48</v>
+      </c>
+      <c r="K116">
+        <v>200</v>
+      </c>
+      <c r="L116">
+        <v>100</v>
+      </c>
+      <c r="M116" t="s">
+        <v>31</v>
+      </c>
+      <c r="N116" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
@@ -29427,29 +32647,29 @@
         <v>3</v>
       </c>
       <c r="D117" s="17">
-        <f t="shared" ref="D117:D119" si="11">((E117/$E$7)+(F117/$F$7))/2</f>
-        <v>1.0223582752145783</v>
+        <f t="shared" si="11"/>
+        <v>1.115703430551251</v>
       </c>
       <c r="E117" s="17">
-        <v>1.0200769999999999</v>
+        <v>1.109977</v>
       </c>
       <c r="F117" s="17">
-        <v>0.16761599999999999</v>
+        <v>0.18345600000000001</v>
       </c>
       <c r="G117" s="17">
-        <v>19.942409000000001</v>
+        <v>21.361241</v>
       </c>
       <c r="H117" s="17">
-        <v>0.156529</v>
+        <v>0.16597300000000001</v>
       </c>
       <c r="I117" s="17">
-        <v>0.105946</v>
+        <v>0.11146499999999999</v>
       </c>
       <c r="J117">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K117">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L117">
         <v>100</v>
@@ -29459,10 +32679,6 @@
       </c>
       <c r="N117" t="s">
         <v>171</v>
-      </c>
-      <c r="O117" s="22">
-        <f t="shared" ref="O117:O119" si="12">(32*L117*K117)/B117</f>
-        <v>29.157175398633257</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
@@ -29477,28 +32693,28 @@
       </c>
       <c r="D118" s="17">
         <f t="shared" si="11"/>
-        <v>1.0361668906297636</v>
+        <v>1.0689146428564904</v>
       </c>
       <c r="E118" s="17">
-        <v>1.0622659999999999</v>
+        <v>1.084349</v>
       </c>
       <c r="F118" s="17">
-        <v>0.16517499999999999</v>
+        <v>0.17229800000000001</v>
       </c>
       <c r="G118" s="17">
-        <v>18.3813</v>
+        <v>17.211570999999999</v>
       </c>
       <c r="H118" s="17">
-        <v>0.154945</v>
+        <v>0.162464</v>
       </c>
       <c r="I118" s="17">
-        <v>9.4059000000000004E-2</v>
+        <v>9.7998000000000002E-2</v>
       </c>
       <c r="J118">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K118">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L118">
         <v>100</v>
@@ -29508,10 +32724,6 @@
       </c>
       <c r="N118" t="s">
         <v>171</v>
-      </c>
-      <c r="O118" s="22">
-        <f t="shared" si="12"/>
-        <v>29.157175398633257</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
@@ -29526,28 +32738,28 @@
       </c>
       <c r="D119" s="17">
         <f t="shared" si="11"/>
-        <v>1.0316384382491033</v>
+        <v>1.1096893473162028</v>
       </c>
       <c r="E119" s="17">
-        <v>1.051803</v>
+        <v>1.1298999999999999</v>
       </c>
       <c r="F119" s="17">
-        <v>0.16541700000000001</v>
+        <v>0.178177</v>
       </c>
       <c r="G119" s="17">
-        <v>18.878889999999998</v>
+        <v>16.106188</v>
       </c>
       <c r="H119" s="17">
-        <v>0.15465100000000001</v>
+        <v>0.16628799999999999</v>
       </c>
       <c r="I119" s="17">
-        <v>9.5258999999999996E-2</v>
+        <v>9.6839999999999996E-2</v>
       </c>
       <c r="J119">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K119">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L119">
         <v>100</v>
@@ -29558,217 +32770,132 @@
       <c r="N119" t="s">
         <v>171</v>
       </c>
-      <c r="O119" s="22">
-        <f t="shared" si="12"/>
-        <v>29.157175398633257</v>
-      </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D120" s="58">
-        <f>AVERAGE(D117:D119)</f>
-        <v>1.0300545346978152</v>
+        <f>AVERAGE(D110:D119)</f>
+        <v>1.0688216107419308</v>
       </c>
       <c r="E120" s="58">
-        <f t="shared" ref="E120:F120" si="13">AVERAGE(E117:E119)</f>
-        <v>1.0447153333333332</v>
+        <f>AVERAGE(E110:E119)</f>
+        <v>1.0727498999999998</v>
       </c>
       <c r="F120" s="58">
+        <f>AVERAGE(F110:F119)</f>
+        <v>0.17418820000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D121" s="58">
+        <f>MEDIAN(D110:D119)</f>
+        <v>1.0674205024213084</v>
+      </c>
+      <c r="E121" s="58">
+        <f>MEDIAN(E110:E119)</f>
+        <v>1.0722365</v>
+      </c>
+      <c r="F121" s="58">
+        <f>MEDIAN(F110:F119)</f>
+        <v>0.17289199999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126">
+        <v>10975</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="17">
+        <f t="shared" ref="D126:D128" si="12">((E126/$E$7)+(F126/$F$7))/2</f>
+        <v>1.0223582752145783</v>
+      </c>
+      <c r="E126" s="17">
+        <v>1.0200769999999999</v>
+      </c>
+      <c r="F126" s="17">
+        <v>0.16761599999999999</v>
+      </c>
+      <c r="G126" s="17">
+        <v>19.942409000000001</v>
+      </c>
+      <c r="H126" s="17">
+        <v>0.156529</v>
+      </c>
+      <c r="I126" s="17">
+        <v>0.105946</v>
+      </c>
+      <c r="J126">
+        <v>42</v>
+      </c>
+      <c r="K126">
+        <v>100</v>
+      </c>
+      <c r="L126">
+        <v>100</v>
+      </c>
+      <c r="M126" t="s">
+        <v>31</v>
+      </c>
+      <c r="N126" t="s">
+        <v>171</v>
+      </c>
+      <c r="O126" s="22">
+        <f t="shared" ref="O126:O128" si="13">(32*L126*K126)/B126</f>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127">
+        <v>10975</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="17">
+        <f t="shared" si="12"/>
+        <v>1.0361668906297636</v>
+      </c>
+      <c r="E127" s="17">
+        <v>1.0622659999999999</v>
+      </c>
+      <c r="F127" s="17">
+        <v>0.16517499999999999</v>
+      </c>
+      <c r="G127" s="17">
+        <v>18.3813</v>
+      </c>
+      <c r="H127" s="17">
+        <v>0.154945</v>
+      </c>
+      <c r="I127" s="17">
+        <v>9.4059000000000004E-2</v>
+      </c>
+      <c r="J127">
+        <v>43</v>
+      </c>
+      <c r="K127">
+        <v>100</v>
+      </c>
+      <c r="L127">
+        <v>100</v>
+      </c>
+      <c r="M127" t="s">
+        <v>31</v>
+      </c>
+      <c r="N127" t="s">
+        <v>171</v>
+      </c>
+      <c r="O127" s="22">
         <f t="shared" si="13"/>
-        <v>0.16606933333333332</v>
-      </c>
-      <c r="G120" s="17"/>
-      <c r="H120" s="17"/>
-      <c r="I120" s="17"/>
-      <c r="O120" s="22"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="17"/>
-      <c r="O121" s="22"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>247</v>
-      </c>
-      <c r="B122">
-        <v>10975</v>
-      </c>
-      <c r="C122" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="17">
-        <f t="shared" ref="D122:D124" si="14">((E122/$E$7)+(F122/$F$7))/2</f>
-        <v>1.0505686268737735</v>
-      </c>
-      <c r="E122" s="17">
-        <v>1.0632429999999999</v>
-      </c>
-      <c r="F122" s="17">
-        <v>0.16975399999999999</v>
-      </c>
-      <c r="G122" s="17">
-        <v>19.795275</v>
-      </c>
-      <c r="H122" s="17">
-        <v>0.16044600000000001</v>
-      </c>
-      <c r="I122" s="17">
-        <v>0.101161</v>
-      </c>
-      <c r="J122">
-        <v>42</v>
-      </c>
-      <c r="K122">
-        <v>343</v>
-      </c>
-      <c r="L122">
-        <v>100</v>
-      </c>
-      <c r="M122" t="s">
-        <v>31</v>
-      </c>
-      <c r="N122" t="s">
-        <v>171</v>
-      </c>
-      <c r="O122" s="22">
-        <f t="shared" ref="O122:O124" si="15">(32*L122*K122)/B122</f>
-        <v>100.00911161731207</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>247</v>
-      </c>
-      <c r="B123">
-        <v>10975</v>
-      </c>
-      <c r="C123" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="17">
-        <f t="shared" si="14"/>
-        <v>0.99936419183222003</v>
-      </c>
-      <c r="E123" s="17">
-        <v>0.98995500000000003</v>
-      </c>
-      <c r="F123" s="17">
-        <v>0.16503499999999999</v>
-      </c>
-      <c r="G123" s="17">
-        <v>18.073049999999999</v>
-      </c>
-      <c r="H123" s="17">
-        <v>0.152143</v>
-      </c>
-      <c r="I123" s="17">
-        <v>8.8846999999999995E-2</v>
-      </c>
-      <c r="J123">
-        <v>43</v>
-      </c>
-      <c r="K123">
-        <v>343</v>
-      </c>
-      <c r="L123">
-        <v>100</v>
-      </c>
-      <c r="M123" t="s">
-        <v>31</v>
-      </c>
-      <c r="N123" t="s">
-        <v>171</v>
-      </c>
-      <c r="O123" s="22">
-        <f t="shared" si="15"/>
-        <v>100.00911161731207</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>247</v>
-      </c>
-      <c r="B124">
-        <v>10975</v>
-      </c>
-      <c r="C124" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="17">
-        <f t="shared" si="14"/>
-        <v>0.99951164378898927</v>
-      </c>
-      <c r="E124" s="17">
-        <v>0.99555000000000005</v>
-      </c>
-      <c r="F124" s="17">
-        <v>0.164157</v>
-      </c>
-      <c r="G124" s="17">
-        <v>19.064624999999999</v>
-      </c>
-      <c r="H124" s="17">
-        <v>0.153617</v>
-      </c>
-      <c r="I124" s="17">
-        <v>8.9994000000000005E-2</v>
-      </c>
-      <c r="J124">
-        <v>44</v>
-      </c>
-      <c r="K124">
-        <v>343</v>
-      </c>
-      <c r="L124">
-        <v>100</v>
-      </c>
-      <c r="M124" t="s">
-        <v>31</v>
-      </c>
-      <c r="N124" t="s">
-        <v>171</v>
-      </c>
-      <c r="O124" s="22">
-        <f t="shared" si="15"/>
-        <v>100.00911161731207</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D125" s="58">
-        <f>AVERAGE(D122:D124)</f>
-        <v>1.0164814874983277</v>
-      </c>
-      <c r="E125" s="58">
-        <f t="shared" ref="E125:F125" si="16">AVERAGE(E122:E124)</f>
-        <v>1.0162493333333333</v>
-      </c>
-      <c r="F125" s="58">
-        <f t="shared" si="16"/>
-        <v>0.16631533333333334</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A127" s="92" t="s">
-        <v>368</v>
-      </c>
-      <c r="B127" s="92"/>
-      <c r="C127" s="92"/>
-      <c r="D127" s="92"/>
-      <c r="E127" s="92"/>
-      <c r="F127" s="92"/>
-      <c r="G127" s="92"/>
-      <c r="H127" s="92"/>
-      <c r="I127" s="92"/>
-      <c r="J127" s="92"/>
-      <c r="K127" s="92"/>
-      <c r="L127" s="92"/>
-      <c r="M127" s="92"/>
-      <c r="N127" s="92"/>
-      <c r="O127" s="92"/>
+        <v>29.157175398633257</v>
+      </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
@@ -29778,35 +32905,35 @@
         <v>10975</v>
       </c>
       <c r="C128" t="s">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D128" s="17">
-        <f t="shared" ref="D128:D130" si="17">((E128/$E$7)+(F128/$F$7))/2</f>
-        <v>3.4823495856882447</v>
+        <f t="shared" si="12"/>
+        <v>1.0316384382491033</v>
       </c>
       <c r="E128" s="17">
-        <v>4.7266079999999997</v>
+        <v>1.051803</v>
       </c>
       <c r="F128" s="17">
-        <v>0.363595</v>
+        <v>0.16541700000000001</v>
       </c>
       <c r="G128" s="17">
-        <v>91.137494000000004</v>
+        <v>18.878889999999998</v>
       </c>
       <c r="H128" s="17">
-        <v>0.368477</v>
+        <v>0.15465100000000001</v>
       </c>
       <c r="I128" s="17">
-        <v>0.40915499999999999</v>
+        <v>9.5258999999999996E-2</v>
       </c>
       <c r="J128">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K128">
         <v>100</v>
       </c>
       <c r="L128">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M128" t="s">
         <v>31</v>
@@ -29815,132 +32942,134 @@
         <v>171</v>
       </c>
       <c r="O128" s="22">
-        <f t="shared" ref="O128:O135" si="18">(32*L128*K128)/B128</f>
-        <v>14.578587699316628</v>
+        <f t="shared" si="13"/>
+        <v>29.157175398633257</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="D129" s="58">
+        <f>AVERAGE(D126:D128)</f>
+        <v>1.0300545346978152</v>
+      </c>
+      <c r="E129" s="58">
+        <f t="shared" ref="E129:F129" si="14">AVERAGE(E126:E128)</f>
+        <v>1.0447153333333332</v>
+      </c>
+      <c r="F129" s="58">
+        <f t="shared" si="14"/>
+        <v>0.16606933333333332</v>
+      </c>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="O129" s="22"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="O130" s="22"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>247</v>
       </c>
-      <c r="B129">
+      <c r="B131">
         <v>10975</v>
       </c>
-      <c r="C129" t="s">
-        <v>368</v>
-      </c>
-      <c r="D129" s="17">
-        <f t="shared" si="17"/>
-        <v>5.2575088846258895</v>
-      </c>
-      <c r="E129" s="17">
-        <v>7.3878120000000003</v>
-      </c>
-      <c r="F129" s="17">
-        <v>0.507247</v>
-      </c>
-      <c r="G129" s="17">
-        <v>145.850078</v>
-      </c>
-      <c r="H129" s="17">
-        <v>0.49855300000000002</v>
-      </c>
-      <c r="I129" s="17">
-        <v>0.622089</v>
-      </c>
-      <c r="J129">
+      <c r="C131" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="17">
+        <f t="shared" ref="D131:D133" si="15">((E131/$E$7)+(F131/$F$7))/2</f>
+        <v>1.0505686268737735</v>
+      </c>
+      <c r="E131" s="17">
+        <v>1.0632429999999999</v>
+      </c>
+      <c r="F131" s="17">
+        <v>0.16975399999999999</v>
+      </c>
+      <c r="G131" s="17">
+        <v>19.795275</v>
+      </c>
+      <c r="H131" s="17">
+        <v>0.16044600000000001</v>
+      </c>
+      <c r="I131" s="17">
+        <v>0.101161</v>
+      </c>
+      <c r="J131">
+        <v>42</v>
+      </c>
+      <c r="K131">
+        <v>343</v>
+      </c>
+      <c r="L131">
+        <v>100</v>
+      </c>
+      <c r="M131" t="s">
+        <v>31</v>
+      </c>
+      <c r="N131" t="s">
+        <v>171</v>
+      </c>
+      <c r="O131" s="22">
+        <f t="shared" ref="O131:O133" si="16">(32*L131*K131)/B131</f>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>247</v>
+      </c>
+      <c r="B132">
+        <v>10975</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="17">
+        <f t="shared" si="15"/>
+        <v>0.99936419183222003</v>
+      </c>
+      <c r="E132" s="17">
+        <v>0.98995500000000003</v>
+      </c>
+      <c r="F132" s="17">
+        <v>0.16503499999999999</v>
+      </c>
+      <c r="G132" s="17">
+        <v>18.073049999999999</v>
+      </c>
+      <c r="H132" s="17">
+        <v>0.152143</v>
+      </c>
+      <c r="I132" s="17">
+        <v>8.8846999999999995E-2</v>
+      </c>
+      <c r="J132">
         <v>43</v>
       </c>
-      <c r="K129">
-        <v>100</v>
-      </c>
-      <c r="L129">
-        <v>50</v>
-      </c>
-      <c r="M129" t="s">
-        <v>31</v>
-      </c>
-      <c r="N129" t="s">
+      <c r="K132">
+        <v>343</v>
+      </c>
+      <c r="L132">
+        <v>100</v>
+      </c>
+      <c r="M132" t="s">
+        <v>31</v>
+      </c>
+      <c r="N132" t="s">
         <v>171</v>
       </c>
-      <c r="O129" s="22">
-        <f t="shared" si="18"/>
-        <v>14.578587699316628</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>247</v>
-      </c>
-      <c r="B130">
-        <v>10975</v>
-      </c>
-      <c r="C130" t="s">
-        <v>368</v>
-      </c>
-      <c r="D130" s="17">
-        <f t="shared" si="17"/>
-        <v>4.8717419788209586</v>
-      </c>
-      <c r="E130" s="17">
-        <v>6.8963570000000001</v>
-      </c>
-      <c r="F130" s="17">
-        <v>0.46164500000000003</v>
-      </c>
-      <c r="G130" s="17">
-        <v>95.412694000000002</v>
-      </c>
-      <c r="H130" s="17">
-        <v>0.45255499999999999</v>
-      </c>
-      <c r="I130" s="17">
-        <v>0.43602800000000003</v>
-      </c>
-      <c r="J130">
-        <v>44</v>
-      </c>
-      <c r="K130">
-        <v>100</v>
-      </c>
-      <c r="L130">
-        <v>50</v>
-      </c>
-      <c r="M130" t="s">
-        <v>31</v>
-      </c>
-      <c r="N130" t="s">
-        <v>171</v>
-      </c>
-      <c r="O130" s="22">
-        <f t="shared" si="18"/>
-        <v>14.578587699316628</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D131" s="58">
-        <f>AVERAGE(D128:D130)</f>
-        <v>4.5372001497116976</v>
-      </c>
-      <c r="E131" s="58">
-        <f t="shared" ref="E131:F131" si="19">AVERAGE(E128:E130)</f>
-        <v>6.3369256666666658</v>
-      </c>
-      <c r="F131" s="58">
-        <f t="shared" si="19"/>
-        <v>0.44416233333333333</v>
-      </c>
-      <c r="G131" s="17"/>
-      <c r="H131" s="17"/>
-      <c r="I131" s="17"/>
-      <c r="O131" s="22"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E132" s="17"/>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="17"/>
-      <c r="I132" s="17"/>
+      <c r="O132" s="22">
+        <f t="shared" si="16"/>
+        <v>100.00911161731207</v>
+      </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
@@ -29950,32 +33079,32 @@
         <v>10975</v>
       </c>
       <c r="C133" t="s">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D133" s="17">
-        <f t="shared" ref="D133:D135" si="20">((E133/$E$7)+(F133/$F$7))/2</f>
-        <v>3.2631682004294831</v>
+        <f t="shared" si="15"/>
+        <v>0.99951164378898927</v>
       </c>
       <c r="E133" s="17">
-        <v>4.4363530000000004</v>
+        <v>0.99555000000000005</v>
       </c>
       <c r="F133" s="17">
-        <v>0.33951100000000001</v>
+        <v>0.164157</v>
       </c>
       <c r="G133" s="17">
-        <v>65.005438999999996</v>
+        <v>19.064624999999999</v>
       </c>
       <c r="H133" s="17">
-        <v>0.31287300000000001</v>
+        <v>0.153617</v>
       </c>
       <c r="I133" s="17">
-        <v>0.247836</v>
+        <v>8.9994000000000005E-2</v>
       </c>
       <c r="J133">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K133">
-        <v>100</v>
+        <v>343</v>
       </c>
       <c r="L133">
         <v>100</v>
@@ -29987,131 +33116,91 @@
         <v>171</v>
       </c>
       <c r="O133" s="22">
-        <f t="shared" si="18"/>
-        <v>29.157175398633257</v>
+        <f t="shared" si="16"/>
+        <v>100.00911161731207</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="D134" s="58">
+        <f>AVERAGE(D131:D133)</f>
+        <v>1.0164814874983277</v>
+      </c>
+      <c r="E134" s="58">
+        <f t="shared" ref="E134:F134" si="17">AVERAGE(E131:E133)</f>
+        <v>1.0162493333333333</v>
+      </c>
+      <c r="F134" s="58">
+        <f t="shared" si="17"/>
+        <v>0.16631533333333334</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A136" s="92" t="s">
+        <v>368</v>
+      </c>
+      <c r="B136" s="92"/>
+      <c r="C136" s="92"/>
+      <c r="D136" s="92"/>
+      <c r="E136" s="92"/>
+      <c r="F136" s="92"/>
+      <c r="G136" s="92"/>
+      <c r="H136" s="92"/>
+      <c r="I136" s="92"/>
+      <c r="J136" s="92"/>
+      <c r="K136" s="92"/>
+      <c r="L136" s="92"/>
+      <c r="M136" s="92"/>
+      <c r="N136" s="92"/>
+      <c r="O136" s="92"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>247</v>
       </c>
-      <c r="B134">
+      <c r="B137">
         <v>10975</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C137" t="s">
         <v>368</v>
       </c>
-      <c r="D134" s="17">
-        <f t="shared" si="20"/>
-        <v>3.0939866572058414</v>
-      </c>
-      <c r="E134" s="17">
-        <v>4.1419860000000002</v>
-      </c>
-      <c r="F134" s="17">
-        <v>0.332567</v>
-      </c>
-      <c r="G134" s="17">
-        <v>53.841583999999997</v>
-      </c>
-      <c r="H134" s="17">
-        <v>0.32910099999999998</v>
-      </c>
-      <c r="I134" s="17">
-        <v>0.27523799999999998</v>
-      </c>
-      <c r="J134">
-        <v>43</v>
-      </c>
-      <c r="K134">
-        <v>100</v>
-      </c>
-      <c r="L134">
-        <v>100</v>
-      </c>
-      <c r="M134" t="s">
-        <v>31</v>
-      </c>
-      <c r="N134" t="s">
+      <c r="D137" s="17">
+        <f t="shared" ref="D137:D139" si="18">((E137/$E$7)+(F137/$F$7))/2</f>
+        <v>3.4823495856882447</v>
+      </c>
+      <c r="E137" s="17">
+        <v>4.7266079999999997</v>
+      </c>
+      <c r="F137" s="17">
+        <v>0.363595</v>
+      </c>
+      <c r="G137" s="17">
+        <v>91.137494000000004</v>
+      </c>
+      <c r="H137" s="17">
+        <v>0.368477</v>
+      </c>
+      <c r="I137" s="17">
+        <v>0.40915499999999999</v>
+      </c>
+      <c r="J137">
+        <v>42</v>
+      </c>
+      <c r="K137">
+        <v>100</v>
+      </c>
+      <c r="L137">
+        <v>50</v>
+      </c>
+      <c r="M137" t="s">
+        <v>31</v>
+      </c>
+      <c r="N137" t="s">
         <v>171</v>
       </c>
-      <c r="O134" s="22">
-        <f t="shared" si="18"/>
-        <v>29.157175398633257</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>247</v>
-      </c>
-      <c r="B135">
-        <v>10975</v>
-      </c>
-      <c r="C135" t="s">
-        <v>368</v>
-      </c>
-      <c r="D135" s="17">
-        <f t="shared" si="20"/>
-        <v>4.0931258944717008</v>
-      </c>
-      <c r="E135" s="17">
-        <v>5.7675280000000004</v>
-      </c>
-      <c r="F135" s="17">
-        <v>0.39227400000000001</v>
-      </c>
-      <c r="G135" s="17">
-        <v>72.893980999999997</v>
-      </c>
-      <c r="H135" s="17">
-        <v>0.36931000000000003</v>
-      </c>
-      <c r="I135" s="17">
-        <v>0.268926</v>
-      </c>
-      <c r="J135">
-        <v>44</v>
-      </c>
-      <c r="K135">
-        <v>100</v>
-      </c>
-      <c r="L135">
-        <v>100</v>
-      </c>
-      <c r="M135" t="s">
-        <v>31</v>
-      </c>
-      <c r="N135" t="s">
-        <v>171</v>
-      </c>
-      <c r="O135" s="22">
-        <f t="shared" si="18"/>
-        <v>29.157175398633257</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D136" s="58">
-        <f>AVERAGE(D133:D135)</f>
-        <v>3.4834269173690084</v>
-      </c>
-      <c r="E136" s="58">
-        <f t="shared" ref="E136:F136" si="21">AVERAGE(E133:E135)</f>
-        <v>4.7819556666666667</v>
-      </c>
-      <c r="F136" s="58">
-        <f t="shared" si="21"/>
-        <v>0.35478399999999999</v>
-      </c>
-      <c r="G136" s="17"/>
-      <c r="H136" s="17"/>
-      <c r="I136" s="17"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E137" s="17"/>
-      <c r="F137" s="17"/>
-      <c r="G137" s="17"/>
-      <c r="H137" s="17"/>
-      <c r="I137" s="17"/>
+      <c r="O137" s="22">
+        <f t="shared" ref="O137:O144" si="19">(32*L137*K137)/B137</f>
+        <v>14.578587699316628</v>
+      </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
@@ -30124,32 +33213,32 @@
         <v>368</v>
       </c>
       <c r="D138" s="17">
-        <f t="shared" ref="D138:D140" si="22">((E138/$E$7)+(F138/$F$7))/2</f>
-        <v>1.6996150097320482</v>
+        <f t="shared" si="18"/>
+        <v>5.2575088846258895</v>
       </c>
       <c r="E138" s="17">
-        <v>2.0009380000000001</v>
+        <v>7.3878120000000003</v>
       </c>
       <c r="F138" s="17">
-        <v>0.22812499999999999</v>
+        <v>0.507247</v>
       </c>
       <c r="G138" s="17">
-        <v>30.176867999999999</v>
+        <v>145.850078</v>
       </c>
       <c r="H138" s="17">
-        <v>0.22601099999999999</v>
+        <v>0.49855300000000002</v>
       </c>
       <c r="I138" s="17">
-        <v>0.17843999999999999</v>
+        <v>0.622089</v>
       </c>
       <c r="J138">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K138">
-        <v>343</v>
+        <v>100</v>
       </c>
       <c r="L138">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M138" t="s">
         <v>31</v>
@@ -30158,8 +33247,8 @@
         <v>171</v>
       </c>
       <c r="O138" s="22">
-        <f t="shared" ref="O138:O140" si="23">(32*L138*K138)/B138</f>
-        <v>100.00911161731207</v>
+        <f t="shared" si="19"/>
+        <v>14.578587699316628</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
@@ -30173,32 +33262,32 @@
         <v>368</v>
       </c>
       <c r="D139" s="17">
-        <f t="shared" si="22"/>
-        <v>1.4028819829307837</v>
+        <f t="shared" si="18"/>
+        <v>4.8717419788209586</v>
       </c>
       <c r="E139" s="17">
-        <v>1.558114</v>
+        <v>6.8963570000000001</v>
       </c>
       <c r="F139" s="17">
-        <v>0.20377799999999999</v>
+        <v>0.46164500000000003</v>
       </c>
       <c r="G139" s="17">
-        <v>24.155787</v>
+        <v>95.412694000000002</v>
       </c>
       <c r="H139" s="17">
-        <v>0.20437</v>
+        <v>0.45255499999999999</v>
       </c>
       <c r="I139" s="17">
-        <v>0.15140300000000001</v>
+        <v>0.43602800000000003</v>
       </c>
       <c r="J139">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K139">
-        <v>343</v>
+        <v>100</v>
       </c>
       <c r="L139">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M139" t="s">
         <v>31</v>
@@ -30207,71 +33296,82 @@
         <v>171</v>
       </c>
       <c r="O139" s="22">
-        <f t="shared" si="23"/>
-        <v>100.00911161731207</v>
+        <f t="shared" si="19"/>
+        <v>14.578587699316628</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="D140" s="58">
+        <f>AVERAGE(D137:D139)</f>
+        <v>4.5372001497116976</v>
+      </c>
+      <c r="E140" s="58">
+        <f t="shared" ref="E140:F140" si="20">AVERAGE(E137:E139)</f>
+        <v>6.3369256666666658</v>
+      </c>
+      <c r="F140" s="58">
+        <f t="shared" si="20"/>
+        <v>0.44416233333333333</v>
+      </c>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="O140" s="22"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>247</v>
       </c>
-      <c r="B140">
+      <c r="B142">
         <v>10975</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C142" t="s">
         <v>368</v>
       </c>
-      <c r="D140" s="17">
-        <f t="shared" si="22"/>
-        <v>1.3883377253236651</v>
-      </c>
-      <c r="E140" s="17">
-        <v>1.589124</v>
-      </c>
-      <c r="F140" s="17">
-        <v>0.193855</v>
-      </c>
-      <c r="G140" s="17">
-        <v>25.237525999999999</v>
-      </c>
-      <c r="H140" s="17">
-        <v>0.20855599999999999</v>
-      </c>
-      <c r="I140" s="17">
-        <v>0.159971</v>
-      </c>
-      <c r="J140">
-        <v>44</v>
-      </c>
-      <c r="K140">
-        <v>343</v>
-      </c>
-      <c r="L140">
-        <v>100</v>
-      </c>
-      <c r="M140" t="s">
-        <v>31</v>
-      </c>
-      <c r="N140" t="s">
+      <c r="D142" s="17">
+        <f t="shared" ref="D142:D144" si="21">((E142/$E$7)+(F142/$F$7))/2</f>
+        <v>3.2631682004294831</v>
+      </c>
+      <c r="E142" s="17">
+        <v>4.4363530000000004</v>
+      </c>
+      <c r="F142" s="17">
+        <v>0.33951100000000001</v>
+      </c>
+      <c r="G142" s="17">
+        <v>65.005438999999996</v>
+      </c>
+      <c r="H142" s="17">
+        <v>0.31287300000000001</v>
+      </c>
+      <c r="I142" s="17">
+        <v>0.247836</v>
+      </c>
+      <c r="J142">
+        <v>42</v>
+      </c>
+      <c r="K142">
+        <v>100</v>
+      </c>
+      <c r="L142">
+        <v>100</v>
+      </c>
+      <c r="M142" t="s">
+        <v>31</v>
+      </c>
+      <c r="N142" t="s">
         <v>171</v>
       </c>
-      <c r="O140" s="22">
-        <f t="shared" si="23"/>
-        <v>100.00911161731207</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D141" s="58">
-        <f>AVERAGE(D138:D140)</f>
-        <v>1.4969449059954989</v>
-      </c>
-      <c r="E141" s="58">
-        <f t="shared" ref="E141:F141" si="24">AVERAGE(E138:E140)</f>
-        <v>1.7160586666666668</v>
-      </c>
-      <c r="F141" s="58">
-        <f t="shared" si="24"/>
-        <v>0.20858600000000002</v>
+      <c r="O142" s="22">
+        <f t="shared" si="19"/>
+        <v>29.157175398633257</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
@@ -30285,32 +33385,32 @@
         <v>368</v>
       </c>
       <c r="D143" s="17">
-        <f t="shared" ref="D143:D145" si="25">((E143/$E$7)+(F143/$F$7))/2</f>
-        <v>1.8485514518367132</v>
+        <f t="shared" si="21"/>
+        <v>3.0939866572058414</v>
       </c>
       <c r="E143" s="17">
-        <v>2.2510279999999998</v>
+        <v>4.1419860000000002</v>
       </c>
       <c r="F143" s="17">
-        <v>0.235737</v>
+        <v>0.332567</v>
       </c>
       <c r="G143" s="17">
-        <v>27.835435</v>
+        <v>53.841583999999997</v>
       </c>
       <c r="H143" s="17">
-        <v>0.219806</v>
+        <v>0.32910099999999998</v>
       </c>
       <c r="I143" s="17">
-        <v>0.14996000000000001</v>
+        <v>0.27523799999999998</v>
       </c>
       <c r="J143">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K143">
-        <v>343</v>
+        <v>100</v>
       </c>
       <c r="L143">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M143" t="s">
         <v>31</v>
@@ -30319,8 +33419,8 @@
         <v>171</v>
       </c>
       <c r="O143" s="22">
-        <f t="shared" ref="O143:O145" si="26">(32*L143*K143)/B143</f>
-        <v>200.01822323462414</v>
+        <f t="shared" si="19"/>
+        <v>29.157175398633257</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.35">
@@ -30334,32 +33434,32 @@
         <v>368</v>
       </c>
       <c r="D144" s="17">
-        <f t="shared" si="25"/>
-        <v>1.398710804210757</v>
+        <f t="shared" si="21"/>
+        <v>4.0931258944717008</v>
       </c>
       <c r="E144" s="17">
-        <v>1.5387900000000001</v>
+        <v>5.7675280000000004</v>
       </c>
       <c r="F144" s="17">
-        <v>0.20560500000000001</v>
+        <v>0.39227400000000001</v>
       </c>
       <c r="G144" s="17">
-        <v>23.612276999999999</v>
+        <v>72.893980999999997</v>
       </c>
       <c r="H144" s="17">
-        <v>0.19425700000000001</v>
+        <v>0.36931000000000003</v>
       </c>
       <c r="I144" s="17">
-        <v>0.14138500000000001</v>
+        <v>0.268926</v>
       </c>
       <c r="J144">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>343</v>
+        <v>100</v>
       </c>
       <c r="L144">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M144" t="s">
         <v>31</v>
@@ -30368,77 +33468,360 @@
         <v>171</v>
       </c>
       <c r="O144" s="22">
+        <f t="shared" si="19"/>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D145" s="58">
+        <f>AVERAGE(D142:D144)</f>
+        <v>3.4834269173690084</v>
+      </c>
+      <c r="E145" s="58">
+        <f t="shared" ref="E145:F145" si="22">AVERAGE(E142:E144)</f>
+        <v>4.7819556666666667</v>
+      </c>
+      <c r="F145" s="58">
+        <f t="shared" si="22"/>
+        <v>0.35478399999999999</v>
+      </c>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="17"/>
+      <c r="I146" s="17"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>247</v>
+      </c>
+      <c r="B147">
+        <v>10975</v>
+      </c>
+      <c r="C147" t="s">
+        <v>368</v>
+      </c>
+      <c r="D147" s="17">
+        <f t="shared" ref="D147:D149" si="23">((E147/$E$7)+(F147/$F$7))/2</f>
+        <v>1.6996150097320482</v>
+      </c>
+      <c r="E147" s="17">
+        <v>2.0009380000000001</v>
+      </c>
+      <c r="F147" s="17">
+        <v>0.22812499999999999</v>
+      </c>
+      <c r="G147" s="17">
+        <v>30.176867999999999</v>
+      </c>
+      <c r="H147" s="17">
+        <v>0.22601099999999999</v>
+      </c>
+      <c r="I147" s="17">
+        <v>0.17843999999999999</v>
+      </c>
+      <c r="J147">
+        <v>42</v>
+      </c>
+      <c r="K147">
+        <v>343</v>
+      </c>
+      <c r="L147">
+        <v>100</v>
+      </c>
+      <c r="M147" t="s">
+        <v>31</v>
+      </c>
+      <c r="N147" t="s">
+        <v>171</v>
+      </c>
+      <c r="O147" s="22">
+        <f t="shared" ref="O147:O149" si="24">(32*L147*K147)/B147</f>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>247</v>
+      </c>
+      <c r="B148">
+        <v>10975</v>
+      </c>
+      <c r="C148" t="s">
+        <v>368</v>
+      </c>
+      <c r="D148" s="17">
+        <f t="shared" si="23"/>
+        <v>1.4028819829307837</v>
+      </c>
+      <c r="E148" s="17">
+        <v>1.558114</v>
+      </c>
+      <c r="F148" s="17">
+        <v>0.20377799999999999</v>
+      </c>
+      <c r="G148" s="17">
+        <v>24.155787</v>
+      </c>
+      <c r="H148" s="17">
+        <v>0.20437</v>
+      </c>
+      <c r="I148" s="17">
+        <v>0.15140300000000001</v>
+      </c>
+      <c r="J148">
+        <v>43</v>
+      </c>
+      <c r="K148">
+        <v>343</v>
+      </c>
+      <c r="L148">
+        <v>100</v>
+      </c>
+      <c r="M148" t="s">
+        <v>31</v>
+      </c>
+      <c r="N148" t="s">
+        <v>171</v>
+      </c>
+      <c r="O148" s="22">
+        <f t="shared" si="24"/>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>247</v>
+      </c>
+      <c r="B149">
+        <v>10975</v>
+      </c>
+      <c r="C149" t="s">
+        <v>368</v>
+      </c>
+      <c r="D149" s="17">
+        <f t="shared" si="23"/>
+        <v>1.3883377253236651</v>
+      </c>
+      <c r="E149" s="17">
+        <v>1.589124</v>
+      </c>
+      <c r="F149" s="17">
+        <v>0.193855</v>
+      </c>
+      <c r="G149" s="17">
+        <v>25.237525999999999</v>
+      </c>
+      <c r="H149" s="17">
+        <v>0.20855599999999999</v>
+      </c>
+      <c r="I149" s="17">
+        <v>0.159971</v>
+      </c>
+      <c r="J149">
+        <v>44</v>
+      </c>
+      <c r="K149">
+        <v>343</v>
+      </c>
+      <c r="L149">
+        <v>100</v>
+      </c>
+      <c r="M149" t="s">
+        <v>31</v>
+      </c>
+      <c r="N149" t="s">
+        <v>171</v>
+      </c>
+      <c r="O149" s="22">
+        <f t="shared" si="24"/>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D150" s="58">
+        <f>AVERAGE(D147:D149)</f>
+        <v>1.4969449059954989</v>
+      </c>
+      <c r="E150" s="58">
+        <f t="shared" ref="E150:F150" si="25">AVERAGE(E147:E149)</f>
+        <v>1.7160586666666668</v>
+      </c>
+      <c r="F150" s="58">
+        <f t="shared" si="25"/>
+        <v>0.20858600000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>247</v>
+      </c>
+      <c r="B152">
+        <v>10975</v>
+      </c>
+      <c r="C152" t="s">
+        <v>368</v>
+      </c>
+      <c r="D152" s="17">
+        <f t="shared" ref="D152:D154" si="26">((E152/$E$7)+(F152/$F$7))/2</f>
+        <v>1.8485514518367132</v>
+      </c>
+      <c r="E152" s="17">
+        <v>2.2510279999999998</v>
+      </c>
+      <c r="F152" s="17">
+        <v>0.235737</v>
+      </c>
+      <c r="G152" s="17">
+        <v>27.835435</v>
+      </c>
+      <c r="H152" s="17">
+        <v>0.219806</v>
+      </c>
+      <c r="I152" s="17">
+        <v>0.14996000000000001</v>
+      </c>
+      <c r="J152">
+        <v>42</v>
+      </c>
+      <c r="K152">
+        <v>343</v>
+      </c>
+      <c r="L152">
+        <v>200</v>
+      </c>
+      <c r="M152" t="s">
+        <v>31</v>
+      </c>
+      <c r="N152" t="s">
+        <v>171</v>
+      </c>
+      <c r="O152" s="22">
+        <f t="shared" ref="O152:O154" si="27">(32*L152*K152)/B152</f>
+        <v>200.01822323462414</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>247</v>
+      </c>
+      <c r="B153">
+        <v>10975</v>
+      </c>
+      <c r="C153" t="s">
+        <v>368</v>
+      </c>
+      <c r="D153" s="17">
         <f t="shared" si="26"/>
+        <v>1.398710804210757</v>
+      </c>
+      <c r="E153" s="17">
+        <v>1.5387900000000001</v>
+      </c>
+      <c r="F153" s="17">
+        <v>0.20560500000000001</v>
+      </c>
+      <c r="G153" s="17">
+        <v>23.612276999999999</v>
+      </c>
+      <c r="H153" s="17">
+        <v>0.19425700000000001</v>
+      </c>
+      <c r="I153" s="17">
+        <v>0.14138500000000001</v>
+      </c>
+      <c r="J153">
+        <v>43</v>
+      </c>
+      <c r="K153">
+        <v>343</v>
+      </c>
+      <c r="L153">
+        <v>200</v>
+      </c>
+      <c r="M153" t="s">
+        <v>31</v>
+      </c>
+      <c r="N153" t="s">
+        <v>171</v>
+      </c>
+      <c r="O153" s="22">
+        <f t="shared" si="27"/>
         <v>200.01822323462414</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>247</v>
       </c>
-      <c r="B145">
+      <c r="B154">
         <v>10975</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C154" t="s">
         <v>368</v>
       </c>
-      <c r="D145" s="17">
-        <f t="shared" si="25"/>
+      <c r="D154" s="17">
+        <f t="shared" si="26"/>
         <v>1.3463383354473493</v>
       </c>
-      <c r="E145" s="17">
+      <c r="E154" s="17">
         <v>1.473319</v>
       </c>
-      <c r="F145" s="17">
+      <c r="F154" s="17">
         <v>0.199207</v>
       </c>
-      <c r="G145" s="17">
+      <c r="G154" s="17">
         <v>22.666561999999999</v>
       </c>
-      <c r="H145" s="17">
+      <c r="H154" s="17">
         <v>0.201681</v>
       </c>
-      <c r="I145" s="17">
+      <c r="I154" s="17">
         <v>0.14193800000000001</v>
       </c>
-      <c r="J145">
+      <c r="J154">
         <v>44</v>
       </c>
-      <c r="K145">
+      <c r="K154">
         <v>343</v>
       </c>
-      <c r="L145">
+      <c r="L154">
         <v>200</v>
       </c>
-      <c r="M145" t="s">
-        <v>31</v>
-      </c>
-      <c r="N145" t="s">
+      <c r="M154" t="s">
+        <v>31</v>
+      </c>
+      <c r="N154" t="s">
         <v>171</v>
       </c>
-      <c r="O145" s="22">
-        <f t="shared" si="26"/>
+      <c r="O154" s="22">
+        <f t="shared" si="27"/>
         <v>200.01822323462414</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D146" s="58">
-        <f>AVERAGE(D143:D145)</f>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D155" s="58">
+        <f>AVERAGE(D152:D154)</f>
         <v>1.5312001971649398</v>
       </c>
-      <c r="E146" s="58">
-        <f t="shared" ref="E146:F146" si="27">AVERAGE(E143:E145)</f>
+      <c r="E155" s="58">
+        <f t="shared" ref="E155:F155" si="28">AVERAGE(E152:E154)</f>
         <v>1.7543790000000001</v>
       </c>
-      <c r="F146" s="58">
-        <f t="shared" si="27"/>
+      <c r="F155" s="58">
+        <f t="shared" si="28"/>
         <v>0.21351633333333334</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A127:O127"/>
-    <mergeCell ref="A84:O84"/>
+    <mergeCell ref="A136:O136"/>
+    <mergeCell ref="A83:O83"/>
     <mergeCell ref="A18:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -30450,7 +33833,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -32082,7 +35465,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -33198,7 +36581,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -34638,7 +38021,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -35974,7 +39357,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -72039,8 +75422,8 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -72264,7 +75647,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="17">
-        <f>((E11/$E$4)+(F11/$F$4))/2</f>
+        <f t="shared" ref="D11:D20" si="0">((E11/$E$4)+(F11/$F$4))/2</f>
         <v>0.80108577162319916</v>
       </c>
       <c r="E11" s="17">
@@ -72306,7 +75689,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="17">
-        <f>((E12/$E$4)+(F12/$F$4))/2</f>
+        <f t="shared" si="0"/>
         <v>0.79022524578834863</v>
       </c>
       <c r="E12" s="17">
@@ -72348,7 +75731,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="17">
-        <f>((E13/$E$4)+(F13/$F$4))/2</f>
+        <f t="shared" si="0"/>
         <v>0.82024582460205409</v>
       </c>
       <c r="E13" s="17">
@@ -72390,7 +75773,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="17">
-        <f>((E14/$E$4)+(F14/$F$4))/2</f>
+        <f t="shared" si="0"/>
         <v>0.76871573857465658</v>
       </c>
       <c r="E14" s="17">
@@ -72432,7 +75815,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="17">
-        <f>((E15/$E$4)+(F15/$F$4))/2</f>
+        <f t="shared" si="0"/>
         <v>0.76983267545286727</v>
       </c>
       <c r="E15" s="17">
@@ -72474,7 +75857,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="17">
-        <f>((E16/$E$4)+(F16/$F$4))/2</f>
+        <f t="shared" si="0"/>
         <v>0.76838660713185281</v>
       </c>
       <c r="E16" s="17">
@@ -72516,7 +75899,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="17">
-        <f>((E17/$E$4)+(F17/$F$4))/2</f>
+        <f t="shared" si="0"/>
         <v>0.82750920147561169</v>
       </c>
       <c r="E17" s="17">
@@ -72558,7 +75941,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="17">
-        <f>((E18/$E$4)+(F18/$F$4))/2</f>
+        <f t="shared" si="0"/>
         <v>0.78153619023312482</v>
       </c>
       <c r="E18" s="17">
@@ -72600,7 +75983,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="17">
-        <f>((E19/$E$4)+(F19/$F$4))/2</f>
+        <f t="shared" si="0"/>
         <v>0.82790527167911709</v>
       </c>
       <c r="E19" s="17">
@@ -72642,7 +76025,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="17">
-        <f>((E20/$E$4)+(F20/$F$4))/2</f>
+        <f t="shared" si="0"/>
         <v>0.79556805947745235</v>
       </c>
       <c r="E20" s="17">
@@ -72754,7 +76137,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="17">
-        <f t="shared" ref="D25:D33" si="0">((E25/$E$4)+(F25/$F$4))/2</f>
+        <f t="shared" ref="D25:D33" si="1">((E25/$E$4)+(F25/$F$4))/2</f>
         <v>0.78613787591614614</v>
       </c>
       <c r="E25" s="17">
@@ -72796,7 +76179,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.82973307546529784</v>
       </c>
       <c r="E26" s="17">
@@ -72838,7 +76221,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76623298567050568</v>
       </c>
       <c r="E27" s="17">
@@ -72880,7 +76263,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75809202761566374</v>
       </c>
       <c r="E28" s="17">
@@ -72922,7 +76305,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.77144867807775186</v>
       </c>
       <c r="E29" s="17">
@@ -72964,7 +76347,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.82637338587161691</v>
       </c>
       <c r="E30" s="17">
@@ -73006,7 +76389,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79746213671980992</v>
       </c>
       <c r="E31" s="17">
@@ -73048,7 +76431,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83705733274154714</v>
       </c>
       <c r="E32" s="17">
@@ -73090,7 +76473,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78884680891433989</v>
       </c>
       <c r="E33" s="17">
@@ -73202,7 +76585,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="17">
-        <f t="shared" ref="D38:D46" si="1">((E38/$E$4)+(F38/$F$4))/2</f>
+        <f t="shared" ref="D38:D46" si="2">((E38/$E$4)+(F38/$F$4))/2</f>
         <v>0.81057174046824221</v>
       </c>
       <c r="E38" s="17">
@@ -73244,7 +76627,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79519967069246511</v>
       </c>
       <c r="E39" s="17">
@@ -73286,7 +76669,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.77368865573471535</v>
       </c>
       <c r="E40" s="17">
@@ -73328,7 +76711,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7730719327669916</v>
       </c>
       <c r="E41" s="17">
@@ -73370,7 +76753,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80493837723917883</v>
       </c>
       <c r="E42" s="17">
@@ -73412,7 +76795,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79730956854123503</v>
       </c>
       <c r="E43" s="17">
@@ -73454,7 +76837,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8319278744397699</v>
       </c>
       <c r="E44" s="17">
@@ -73496,7 +76879,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78499323006514188</v>
       </c>
       <c r="E45" s="17">
@@ -73538,7 +76921,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81440654551799097</v>
       </c>
       <c r="E46" s="17">
@@ -73650,7 +77033,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="17">
-        <f t="shared" ref="D51:D58" si="2">((E51/$E$4)+(F51/$F$4))/2</f>
+        <f t="shared" ref="D51:D58" si="3">((E51/$E$4)+(F51/$F$4))/2</f>
         <v>0.79661311485560005</v>
       </c>
       <c r="E51">
@@ -73692,7 +77075,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78708213886535117</v>
       </c>
       <c r="E52">
@@ -73734,7 +77117,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.80287756913468145</v>
       </c>
       <c r="E53">
@@ -73776,7 +77159,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79422524035038422</v>
       </c>
       <c r="E54">
@@ -73818,7 +77201,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78367365666313749</v>
       </c>
       <c r="E55">
@@ -73860,7 +77243,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76853786211464659</v>
       </c>
       <c r="E56">
@@ -73902,7 +77285,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78837139840575532</v>
       </c>
       <c r="E57">
@@ -73944,7 +77327,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79781731004025636</v>
       </c>
       <c r="E58">
@@ -73992,7 +77375,7 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
